--- a/Excel/작업Research.xlsx
+++ b/Excel/작업Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEE8664-ECE4-4ADA-949F-D346B6DAB191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C320B91-B0FD-455D-BC9E-98BC8FE56751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchTable" sheetId="3" r:id="rId1"/>
@@ -470,16 +470,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B294627A-88CA-400D-B366-14507FB4AA24}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="4" width="12.625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="22.125" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="4" width="12.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="10" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -519,14 +523,14 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D10" si="0">B2/C2</f>
-        <v>2.3333333333333335</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -540,14 +544,14 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -561,14 +565,14 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -582,14 +586,14 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
+        <v>2.6</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -600,14 +604,14 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>3.0769230769230771</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -618,14 +622,14 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>3.2857142857142856</v>
+        <v>3.0769230769230771</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -636,14 +640,14 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>3.0588235294117645</v>
+        <v>3.2857142857142856</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -654,14 +658,14 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>3.1111111111111112</v>
+        <v>3.0588235294117645</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -672,14 +676,14 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
+        <v>3.1111111111111112</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -690,14 +694,14 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
         <f t="shared" ref="D11:D16" si="1">B11/C11</f>
-        <v>3.8888888888888888</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -708,14 +712,14 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>9</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>4.4444444444444446</v>
+        <v>3.8888888888888888</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
@@ -726,14 +730,14 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>9</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -744,14 +748,14 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>9</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>5.5555555555555554</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
@@ -762,14 +766,14 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>9</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>6.1111111111111107</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -780,14 +784,14 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>9</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>-0.1111111111111111</v>
+        <v>6.1111111111111107</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>

--- a/Excel/작업Research.xlsx
+++ b/Excel/작업Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C320B91-B0FD-455D-BC9E-98BC8FE56751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4239614-B58D-4A03-914A-717DFF3A93F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>필요캐릭터인원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,63 +49,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reward|String!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보상참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스탯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>길이항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얇음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>길다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더 길다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명문구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돋보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비 상자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비 상자 5회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출석 상자 업그레이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>다이아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiredGold|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsrGo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsrDi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardDiamond|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayAtk|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayHp|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accumulatedAtk|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accumulatedHp|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제Atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiredGold값연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardDiamond값연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +142,22 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -152,8 +184,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -470,23 +508,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B294627A-88CA-400D-B366-14507FB4AA24}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="4" width="12.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="22.125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="10" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9" collapsed="1"/>
+    <col min="3" max="4" width="12.625" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="9" max="9" width="7.875" customWidth="1"/>
+    <col min="10" max="11" width="7.875" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="7.875" customWidth="1"/>
+    <col min="13" max="13" width="8.25" customWidth="1"/>
+    <col min="14" max="17" width="8.25" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -499,26 +543,50 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -529,17 +597,51 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D10" si="0">B2/C2</f>
+        <f t="shared" ref="D2:D16" si="0">B2/C2</f>
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
+      <c r="J2">
+        <v>200</v>
+      </c>
+      <c r="L2">
+        <f>J2</f>
+        <v>200</v>
+      </c>
+      <c r="M2">
+        <f>K2</f>
+        <v>0</v>
+      </c>
+      <c r="N2" t="str">
+        <f>P2</f>
+        <v>"1":0</v>
+      </c>
+      <c r="O2" t="str">
+        <f>Q2</f>
+        <v/>
+      </c>
+      <c r="P2" t="str">
+        <f>""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;E2</f>
+        <v>"1":0</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>IF(ISBLANK(G2),"",""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;G2)</f>
+        <v/>
+      </c>
+      <c r="S2" t="str">
+        <f>"{"&amp;N16&amp;"}"</f>
+        <v>{"1":0,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -553,14 +655,44 @@
         <f t="shared" si="0"/>
         <v>2.3333333333333335</v>
       </c>
+      <c r="E3">
+        <v>1200</v>
+      </c>
       <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
+      </c>
+      <c r="L3">
+        <f>L2+J3</f>
+        <v>200</v>
+      </c>
+      <c r="M3">
+        <f>M2+K3</f>
+        <v>30</v>
+      </c>
+      <c r="N3" t="str">
+        <f>N2&amp;","&amp;P3</f>
+        <v>"1":0,"2":1200</v>
+      </c>
+      <c r="O3" t="str">
+        <f>O2&amp;IF(LEN(Q3)=0,"",","&amp;Q3)</f>
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P16" si="1">""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;E3</f>
+        <v>"2":1200</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q16" si="2">IF(ISBLANK(G3),"",""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;G3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -574,14 +706,48 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E16" si="3">E3+200</f>
+        <v>1400</v>
+      </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>300</v>
+      </c>
+      <c r="J4">
+        <v>300</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L16" si="4">L3+J4</f>
+        <v>500</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M16" si="5">M3+K4</f>
+        <v>30</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N16" si="6">N3&amp;","&amp;P4</f>
+        <v>"1":0,"2":1200,"3":1400</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O16" si="7">O3&amp;IF(LEN(Q4)=0,"",","&amp;Q4)</f>
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="1"/>
+        <v>"3":1400</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -595,11 +761,48 @@
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":0,"2":1200,"3":1400,"4":1600</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="7"/>
+        <v>,"4":30</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="1"/>
+        <v>"4":1600</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="2"/>
+        <v>"4":30</v>
+      </c>
+      <c r="S5" t="str">
+        <f>"{"&amp;
+IF(LEFT(O16,1)=",",SUBSTITUTE(O16,",","",1),O16)
+&amp;"}"</f>
+        <v>{"4":30,"9":30,"14":50}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -613,11 +816,51 @@
         <f t="shared" si="0"/>
         <v>2.6666666666666665</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
       <c r="F6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+      <c r="I6">
+        <v>35</v>
+      </c>
+      <c r="J6">
+        <v>300</v>
+      </c>
+      <c r="K6">
+        <v>35</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":0,"2":1200,"3":1400,"4":1600,"5":1800</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="7"/>
+        <v>,"4":30</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="1"/>
+        <v>"5":1800</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -631,11 +874,45 @@
         <f t="shared" si="0"/>
         <v>3.0769230769230771</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <v>40</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":0,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="7"/>
+        <v>,"4":30</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="1"/>
+        <v>"6":2000</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -649,11 +926,45 @@
         <f t="shared" si="0"/>
         <v>3.2857142857142856</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>2200</v>
+      </c>
       <c r="F8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>400</v>
+      </c>
+      <c r="J8">
+        <v>400</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":0,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="7"/>
+        <v>,"4":30</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="1"/>
+        <v>"7":2200</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -667,11 +978,45 @@
         <f t="shared" si="0"/>
         <v>3.0588235294117645</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>45</v>
+      </c>
+      <c r="K9">
+        <v>45</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":0,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="7"/>
+        <v>,"4":30</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="1"/>
+        <v>"8":2400</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -685,11 +1030,42 @@
         <f t="shared" si="0"/>
         <v>3.1111111111111112</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>2600</v>
+      </c>
       <c r="F10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":0,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="7"/>
+        <v>,"4":30,"9":30</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="1"/>
+        <v>"9":2600</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="2"/>
+        <v>"9":30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -700,14 +1076,48 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:D16" si="1">B11/C11</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>2800</v>
+      </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>45</v>
+      </c>
+      <c r="K11">
+        <v>45</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>195</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":0,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="7"/>
+        <v>,"4":30,"9":30</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="1"/>
+        <v>"10":2800</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -718,14 +1128,48 @@
         <v>9</v>
       </c>
       <c r="D12">
+        <f t="shared" si="0"/>
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>400</v>
+      </c>
+      <c r="J12">
+        <v>400</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>195</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":0,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="7"/>
+        <v>,"4":30,"9":30</v>
+      </c>
+      <c r="P12" t="str">
         <f t="shared" si="1"/>
-        <v>3.8888888888888888</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>"11":3000</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -736,14 +1180,48 @@
         <v>9</v>
       </c>
       <c r="D13">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>3200</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>50</v>
+      </c>
+      <c r="K13">
+        <v>50</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>245</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":0,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="7"/>
+        <v>,"4":30,"9":30</v>
+      </c>
+      <c r="P13" t="str">
         <f t="shared" si="1"/>
-        <v>4.4444444444444446</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>"12":3200</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -754,14 +1232,48 @@
         <v>9</v>
       </c>
       <c r="D14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>3400</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>400</v>
+      </c>
+      <c r="J14">
+        <v>400</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>245</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":0,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="7"/>
+        <v>,"4":30,"9":30</v>
+      </c>
+      <c r="P14" t="str">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>"13":3400</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -772,14 +1284,45 @@
         <v>9</v>
       </c>
       <c r="D15">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>245</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":0,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="7"/>
+        <v>,"4":30,"9":30,"14":50</v>
+      </c>
+      <c r="P15" t="str">
         <f t="shared" si="1"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>"14":3600</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="2"/>
+        <v>"14":50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -790,11 +1333,45 @@
         <v>9</v>
       </c>
       <c r="D16">
+        <f t="shared" si="0"/>
+        <v>6.1111111111111107</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>3800</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>500</v>
+      </c>
+      <c r="J16">
+        <v>500</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>2500</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>245</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":0,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="7"/>
+        <v>,"4":30,"9":30,"14":50</v>
+      </c>
+      <c r="P16" t="str">
         <f t="shared" si="1"/>
-        <v>6.1111111111111107</v>
-      </c>
-      <c r="F16" t="s">
-        <v>6</v>
+        <v>"15":3800</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Research.xlsx
+++ b/Excel/작업Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4239614-B58D-4A03-914A-717DFF3A93F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0083CCA-C156-41F6-ADDF-6F70BD3ED0BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>필요캐릭터인원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,14 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>displayAtk|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>displayHp|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>accumulatedAtk|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,6 +114,18 @@
   </si>
   <si>
     <t>Jason화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiredPowerLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayHp|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayAtk|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,29 +512,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B294627A-88CA-400D-B366-14507FB4AA24}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="4" width="12.625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
-    <col min="9" max="9" width="7.875" customWidth="1"/>
-    <col min="10" max="11" width="7.875" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="7.875" customWidth="1"/>
-    <col min="13" max="13" width="8.25" customWidth="1"/>
-    <col min="14" max="17" width="8.25" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="5" width="12.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8.25" customWidth="1"/>
+    <col min="10" max="10" width="7.875" customWidth="1"/>
+    <col min="11" max="12" width="7.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="7.875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.25" customWidth="1"/>
+    <col min="15" max="18" width="8.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9" collapsed="1"/>
+    <col min="20" max="20" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -538,838 +542,901 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L1" t="s">
         <v>17</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <f>C2</f>
+        <v>5</v>
       </c>
       <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D16" si="0">B2/C2</f>
-        <v>0</v>
-      </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
+        <f t="shared" ref="E2:E16" si="0">B2/D2</f>
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>200</v>
       </c>
-      <c r="J2">
-        <v>200</v>
-      </c>
-      <c r="L2">
-        <f>J2</f>
+      <c r="K2">
         <v>200</v>
       </c>
       <c r="M2">
         <f>K2</f>
+        <v>200</v>
+      </c>
+      <c r="N2">
+        <f>L2</f>
         <v>0</v>
-      </c>
-      <c r="N2" t="str">
-        <f>P2</f>
-        <v>"1":0</v>
       </c>
       <c r="O2" t="str">
         <f>Q2</f>
+        <v>"1":1000</v>
+      </c>
+      <c r="P2" t="str">
+        <f>R2</f>
         <v/>
       </c>
-      <c r="P2" t="str">
-        <f>""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;E2</f>
-        <v>"1":0</v>
-      </c>
       <c r="Q2" t="str">
-        <f>IF(ISBLANK(G2),"",""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;G2)</f>
+        <f>""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;F2</f>
+        <v>"1":1000</v>
+      </c>
+      <c r="R2" t="str">
+        <f>IF(ISBLANK(H2),"",""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;H2)</f>
         <v/>
       </c>
-      <c r="S2" t="str">
-        <f>"{"&amp;N16&amp;"}"</f>
-        <v>{"1":0,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2" t="str">
+        <f>"{"&amp;O16&amp;"}"</f>
+        <v>{"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <f>B2+C3</f>
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="F3">
+        <v>1200</v>
+      </c>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="E3">
-        <v>1200</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3">
+      <c r="J3">
         <v>30</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>30</v>
-      </c>
-      <c r="L3">
-        <f>L2+J3</f>
-        <v>200</v>
       </c>
       <c r="M3">
         <f>M2+K3</f>
+        <v>200</v>
+      </c>
+      <c r="N3">
+        <f>N2+L3</f>
         <v>30</v>
       </c>
-      <c r="N3" t="str">
-        <f>N2&amp;","&amp;P3</f>
-        <v>"1":0,"2":1200</v>
-      </c>
       <c r="O3" t="str">
-        <f>O2&amp;IF(LEN(Q3)=0,"",","&amp;Q3)</f>
+        <f>O2&amp;","&amp;Q3</f>
+        <v>"1":1000,"2":1200</v>
+      </c>
+      <c r="P3" t="str">
+        <f>P2&amp;IF(LEN(R3)=0,"",","&amp;R3)</f>
         <v/>
       </c>
-      <c r="P3" t="str">
-        <f t="shared" ref="P3:P16" si="1">""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;E3</f>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q16" si="1">""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;F3</f>
         <v>"2":1200</v>
       </c>
-      <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q16" si="2">IF(ISBLANK(G3),"",""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;G3)</f>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R16" si="2">IF(ISBLANK(H3),"",""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;H3)</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <f t="shared" ref="B4:B16" si="3">B3+C4</f>
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F16" si="4">F3+200</f>
+        <v>1400</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E16" si="3">E3+200</f>
-        <v>1400</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4">
+      <c r="I4">
         <v>300</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>300</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L16" si="4">L3+J4</f>
-        <v>500</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M16" si="5">M3+K4</f>
+        <v>500</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N16" si="6">N3+L4</f>
         <v>30</v>
       </c>
-      <c r="N4" t="str">
-        <f t="shared" ref="N4:N16" si="6">N3&amp;","&amp;P4</f>
-        <v>"1":0,"2":1200,"3":1400</v>
-      </c>
       <c r="O4" t="str">
-        <f t="shared" ref="O4:O16" si="7">O3&amp;IF(LEN(Q4)=0,"",","&amp;Q4)</f>
+        <f t="shared" ref="O4:O16" si="7">O3&amp;","&amp;Q4</f>
+        <v>"1":1000,"2":1200,"3":1400</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P16" si="8">P3&amp;IF(LEN(R4)=0,"",","&amp;R4)</f>
         <v/>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <f t="shared" si="1"/>
         <v>"3":1400</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="R4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="4"/>
         <v>1600</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>30</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="4"/>
-        <v>500</v>
       </c>
       <c r="M5">
         <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="6"/>
         <v>30</v>
-      </c>
-      <c r="N5" t="str">
-        <f t="shared" si="6"/>
-        <v>"1":0,"2":1200,"3":1400,"4":1600</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="7"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="8"/>
         <v>,"4":30</v>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <f t="shared" si="1"/>
         <v>"4":1600</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="R5" t="str">
         <f t="shared" si="2"/>
         <v>"4":30</v>
       </c>
-      <c r="S5" t="str">
+      <c r="T5" t="str">
         <f>"{"&amp;
-IF(LEFT(O16,1)=",",SUBSTITUTE(O16,",","",1),O16)
+IF(LEFT(P16,1)=",",SUBSTITUTE(P16,",","",1),P16)
 &amp;"}"</f>
         <v>{"4":30,"9":30,"14":50}</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="3"/>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
         <v>1800</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>300</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>35</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>300</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>35</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="4"/>
-        <v>800</v>
       </c>
       <c r="M6">
         <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
         <v>65</v>
-      </c>
-      <c r="N6" t="str">
-        <f t="shared" si="6"/>
-        <v>"1":0,"2":1200,"3":1400,"4":1600,"5":1800</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="7"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="8"/>
         <v>,"4":30</v>
       </c>
-      <c r="P6" t="str">
+      <c r="Q6" t="str">
         <f t="shared" si="1"/>
         <v>"5":1800</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="R6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>29</v>
       </c>
       <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
         <v>6.5</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>3.0769230769230771</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="3"/>
+        <v>4.4615384615384617</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>7</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>40</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>40</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="4"/>
-        <v>800</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
         <v>105</v>
-      </c>
-      <c r="N7" t="str">
-        <f t="shared" si="6"/>
-        <v>"1":0,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="7"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="8"/>
         <v>,"4":30</v>
       </c>
-      <c r="P7" t="str">
+      <c r="Q7" t="str">
         <f t="shared" si="1"/>
         <v>"6":2000</v>
       </c>
-      <c r="Q7" t="str">
+      <c r="R7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>3.2857142857142856</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
         <v>2200</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>10</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>400</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>400</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="4"/>
-        <v>1200</v>
       </c>
       <c r="M8">
         <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
         <v>105</v>
-      </c>
-      <c r="N8" t="str">
-        <f t="shared" si="6"/>
-        <v>"1":0,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="7"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="8"/>
         <v>,"4":30</v>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" t="str">
         <f t="shared" si="1"/>
         <v>"7":2200</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="R8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>38</v>
       </c>
       <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
         <v>8.5</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>3.0588235294117645</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="3"/>
+        <v>4.4705882352941178</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
         <v>2400</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>7</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>45</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>45</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="4"/>
-        <v>1200</v>
       </c>
       <c r="M9">
         <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
         <v>150</v>
-      </c>
-      <c r="N9" t="str">
-        <f t="shared" si="6"/>
-        <v>"1":0,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="7"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="8"/>
         <v>,"4":30</v>
       </c>
-      <c r="P9" t="str">
+      <c r="Q9" t="str">
         <f t="shared" si="1"/>
         <v>"8":2400</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="R9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>28</v>
+        <f t="shared" si="3"/>
+        <v>44</v>
       </c>
       <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>3.1111111111111112</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="3"/>
+        <v>4.8888888888888893</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
         <v>2600</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>5</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>30</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="4"/>
-        <v>1200</v>
       </c>
       <c r="M10">
         <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
         <v>150</v>
-      </c>
-      <c r="N10" t="str">
-        <f t="shared" si="6"/>
-        <v>"1":0,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="7"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="8"/>
         <v>,"4":30,"9":30</v>
       </c>
-      <c r="P10" t="str">
+      <c r="Q10" t="str">
         <f t="shared" si="1"/>
         <v>"9":2600</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="R10" t="str">
         <f t="shared" si="2"/>
         <v>"9":30</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>48</v>
       </c>
       <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
         <v>9</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="3"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
         <v>2800</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>7</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>45</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>45</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="4"/>
-        <v>1200</v>
       </c>
       <c r="M11">
         <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
         <v>195</v>
-      </c>
-      <c r="N11" t="str">
-        <f t="shared" si="6"/>
-        <v>"1":0,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="7"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="8"/>
         <v>,"4":30,"9":30</v>
       </c>
-      <c r="P11" t="str">
+      <c r="Q11" t="str">
         <f t="shared" si="1"/>
         <v>"10":2800</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="R11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>54</v>
       </c>
       <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
         <v>9</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>3.8888888888888888</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>400</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>400</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="4"/>
-        <v>1600</v>
       </c>
       <c r="M12">
         <f t="shared" si="5"/>
+        <v>1600</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
         <v>195</v>
-      </c>
-      <c r="N12" t="str">
-        <f t="shared" si="6"/>
-        <v>"1":0,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="7"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="8"/>
         <v>,"4":30,"9":30</v>
       </c>
-      <c r="P12" t="str">
+      <c r="Q12" t="str">
         <f t="shared" si="1"/>
         <v>"11":3000</v>
       </c>
-      <c r="Q12" t="str">
+      <c r="R12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>64</v>
       </c>
       <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>4.4444444444444446</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
+        <v>7.1111111111111107</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
         <v>3200</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>7</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>50</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>50</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="4"/>
-        <v>1600</v>
       </c>
       <c r="M13">
         <f t="shared" si="5"/>
+        <v>1600</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
         <v>245</v>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" si="6"/>
-        <v>"1":0,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="7"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="8"/>
         <v>,"4":30,"9":30</v>
       </c>
-      <c r="P13" t="str">
+      <c r="Q13" t="str">
         <f t="shared" si="1"/>
         <v>"12":3200</v>
       </c>
-      <c r="Q13" t="str">
+      <c r="R13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>45</v>
+        <f t="shared" si="3"/>
+        <v>77</v>
       </c>
       <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
         <v>9</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="3"/>
+        <v>8.5555555555555554</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
         <v>3400</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>10</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>400</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>400</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="4"/>
-        <v>2000</v>
       </c>
       <c r="M14">
         <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
         <v>245</v>
-      </c>
-      <c r="N14" t="str">
-        <f t="shared" si="6"/>
-        <v>"1":0,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400</v>
       </c>
       <c r="O14" t="str">
         <f t="shared" si="7"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="8"/>
         <v>,"4":30,"9":30</v>
       </c>
-      <c r="P14" t="str">
+      <c r="Q14" t="str">
         <f t="shared" si="1"/>
         <v>"13":3400</v>
       </c>
-      <c r="Q14" t="str">
+      <c r="R14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>3600</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15">
         <v>50</v>
-      </c>
-      <c r="C15">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="3"/>
-        <v>3600</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15">
-        <v>50</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="4"/>
-        <v>2000</v>
       </c>
       <c r="M15">
         <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
         <v>245</v>
-      </c>
-      <c r="N15" t="str">
-        <f t="shared" si="6"/>
-        <v>"1":0,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600</v>
       </c>
       <c r="O15" t="str">
         <f t="shared" si="7"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="8"/>
         <v>,"4":30,"9":30,"14":50</v>
       </c>
-      <c r="P15" t="str">
+      <c r="Q15" t="str">
         <f t="shared" si="1"/>
         <v>"14":3600</v>
       </c>
-      <c r="Q15" t="str">
+      <c r="R15" t="str">
         <f t="shared" si="2"/>
         <v>"14":50</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>55</v>
+        <f t="shared" si="3"/>
+        <v>86</v>
       </c>
       <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
         <v>9</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f t="shared" si="0"/>
-        <v>6.1111111111111107</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="3"/>
+        <v>9.5555555555555554</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
         <v>3800</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>10</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>500</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>500</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="4"/>
-        <v>2500</v>
       </c>
       <c r="M16">
         <f t="shared" si="5"/>
+        <v>2500</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
         <v>245</v>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" si="6"/>
-        <v>"1":0,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800</v>
       </c>
       <c r="O16" t="str">
         <f t="shared" si="7"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="8"/>
         <v>,"4":30,"9":30,"14":50</v>
       </c>
-      <c r="P16" t="str">
+      <c r="Q16" t="str">
         <f t="shared" si="1"/>
         <v>"15":3800</v>
       </c>
-      <c r="Q16" t="str">
+      <c r="R16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>

--- a/Excel/작업Research.xlsx
+++ b/Excel/작업Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0083CCA-C156-41F6-ADDF-6F70BD3ED0BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B333280B-BE65-4809-A418-28507A458432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -512,26 +512,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B294627A-88CA-400D-B366-14507FB4AA24}">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="5" width="12.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="12.625" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
     <col min="9" max="9" width="8.25" customWidth="1"/>
     <col min="10" max="10" width="7.875" customWidth="1"/>
-    <col min="11" max="12" width="7.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="7.875" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="7.875" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="7.875" customWidth="1"/>
     <col min="14" max="14" width="8.25" customWidth="1"/>
-    <col min="15" max="18" width="8.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="9" collapsed="1"/>
-    <col min="20" max="20" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9" collapsed="1"/>
+    <col min="15" max="18" width="8.25" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -648,7 +648,9 @@
         <v/>
       </c>
       <c r="T2" t="str">
-        <f>"{"&amp;O16&amp;"}"</f>
+        <f ca="1">"{"&amp;
+IF(LEFT(OFFSET(O1,COUNTA(O:O)-1,0),1)=",",SUBSTITUTE(OFFSET(O1,COUNTA(O:O)-1,0),",","",1),OFFSET(O1,COUNTA(O:O)-1,0))
+&amp;"}"</f>
         <v>{"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800}</v>
       </c>
     </row>
@@ -699,11 +701,11 @@
         <v/>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q16" si="1">""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;F3</f>
+        <f>""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;F3</f>
         <v>"2":1200</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R16" si="2">IF(ISBLANK(H3),"",""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;H3)</f>
+        <f>IF(ISBLANK(H3),"",""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;H3)</f>
         <v/>
       </c>
     </row>
@@ -712,7 +714,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B16" si="3">B3+C4</f>
+        <f t="shared" ref="B4:B16" si="1">B3+C4</f>
         <v>15</v>
       </c>
       <c r="C4">
@@ -726,7 +728,7 @@
         <v>3.75</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F16" si="4">F3+200</f>
+        <f t="shared" ref="F4:F16" si="2">F3+200</f>
         <v>1400</v>
       </c>
       <c r="G4" t="s">
@@ -739,27 +741,27 @@
         <v>300</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M16" si="5">M3+K4</f>
+        <f t="shared" ref="M4:M16" si="3">M3+K4</f>
         <v>500</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N16" si="6">N3+L4</f>
+        <f t="shared" ref="N4:N16" si="4">N3+L4</f>
         <v>30</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" ref="O4:O16" si="7">O3&amp;","&amp;Q4</f>
+        <f t="shared" ref="O4:O16" si="5">O3&amp;","&amp;Q4</f>
         <v>"1":1000,"2":1200,"3":1400</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" ref="P4:P16" si="8">P3&amp;IF(LEN(R4)=0,"",","&amp;R4)</f>
+        <f t="shared" ref="P4:P16" si="6">P3&amp;IF(LEN(R4)=0,"",","&amp;R4)</f>
         <v/>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" si="1"/>
+        <f>""""&amp;$A4&amp;""""&amp;""&amp;":"&amp;F4</f>
         <v>"3":1400</v>
       </c>
       <c r="R4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(H4),"",""""&amp;$A4&amp;""""&amp;""&amp;":"&amp;H4)</f>
         <v/>
       </c>
       <c r="T4" t="s">
@@ -771,7 +773,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C5">
@@ -785,7 +787,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1600</v>
       </c>
       <c r="G5" t="s">
@@ -795,32 +797,32 @@
         <v>30</v>
       </c>
       <c r="M5">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="O5" t="str">
         <f t="shared" si="5"/>
-        <v>500</v>
-      </c>
-      <c r="N5">
+        <v>"1":1000,"2":1200,"3":1400,"4":1600</v>
+      </c>
+      <c r="P5" t="str">
         <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600</v>
-      </c>
-      <c r="P5" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":30</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" si="1"/>
+        <f>""""&amp;$A5&amp;""""&amp;""&amp;":"&amp;F5</f>
         <v>"4":1600</v>
       </c>
       <c r="R5" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(H5),"",""""&amp;$A5&amp;""""&amp;""&amp;":"&amp;H5)</f>
         <v>"4":30</v>
       </c>
       <c r="T5" t="str">
-        <f>"{"&amp;
-IF(LEFT(P16,1)=",",SUBSTITUTE(P16,",","",1),P16)
+        <f ca="1">"{"&amp;
+IF(LEFT(OFFSET(P1,COUNTA(P:P)-1,0),1)=",",SUBSTITUTE(OFFSET(P1,COUNTA(P:P)-1,0),",","",1),OFFSET(P1,COUNTA(P:P)-1,0))
 &amp;"}"</f>
         <v>{"4":30,"9":30,"14":50}</v>
       </c>
@@ -830,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C6">
@@ -844,7 +846,7 @@
         <v>3.8333333333333335</v>
       </c>
       <c r="F6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1800</v>
       </c>
       <c r="G6" t="s">
@@ -863,27 +865,27 @@
         <v>35</v>
       </c>
       <c r="M6">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="O6" t="str">
         <f t="shared" si="5"/>
-        <v>800</v>
-      </c>
-      <c r="N6">
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800</v>
+      </c>
+      <c r="P6" t="str">
         <f t="shared" si="6"/>
-        <v>65</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800</v>
-      </c>
-      <c r="P6" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":30</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="1"/>
+        <f>""""&amp;$A6&amp;""""&amp;""&amp;":"&amp;F6</f>
         <v>"5":1800</v>
       </c>
       <c r="R6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(H6),"",""""&amp;$A6&amp;""""&amp;""&amp;":"&amp;H6)</f>
         <v/>
       </c>
     </row>
@@ -892,7 +894,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C7">
@@ -906,7 +908,7 @@
         <v>4.4615384615384617</v>
       </c>
       <c r="F7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="G7" t="s">
@@ -919,27 +921,27 @@
         <v>40</v>
       </c>
       <c r="M7">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="O7" t="str">
         <f t="shared" si="5"/>
-        <v>800</v>
-      </c>
-      <c r="N7">
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000</v>
+      </c>
+      <c r="P7" t="str">
         <f t="shared" si="6"/>
-        <v>105</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000</v>
-      </c>
-      <c r="P7" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":30</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="1"/>
+        <f>""""&amp;$A7&amp;""""&amp;""&amp;":"&amp;F7</f>
         <v>"6":2000</v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(H7),"",""""&amp;$A7&amp;""""&amp;""&amp;":"&amp;H7)</f>
         <v/>
       </c>
     </row>
@@ -948,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C8">
@@ -962,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2200</v>
       </c>
       <c r="G8" t="s">
@@ -975,27 +977,27 @@
         <v>400</v>
       </c>
       <c r="M8">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="O8" t="str">
         <f t="shared" si="5"/>
-        <v>1200</v>
-      </c>
-      <c r="N8">
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200</v>
+      </c>
+      <c r="P8" t="str">
         <f t="shared" si="6"/>
-        <v>105</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200</v>
-      </c>
-      <c r="P8" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":30</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="1"/>
+        <f>""""&amp;$A8&amp;""""&amp;""&amp;":"&amp;F8</f>
         <v>"7":2200</v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(H8),"",""""&amp;$A8&amp;""""&amp;""&amp;":"&amp;H8)</f>
         <v/>
       </c>
     </row>
@@ -1004,7 +1006,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C9">
@@ -1018,7 +1020,7 @@
         <v>4.4705882352941178</v>
       </c>
       <c r="F9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2400</v>
       </c>
       <c r="G9" t="s">
@@ -1031,27 +1033,27 @@
         <v>45</v>
       </c>
       <c r="M9">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="O9" t="str">
         <f t="shared" si="5"/>
-        <v>1200</v>
-      </c>
-      <c r="N9">
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400</v>
+      </c>
+      <c r="P9" t="str">
         <f t="shared" si="6"/>
-        <v>150</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400</v>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":30</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" si="1"/>
+        <f>""""&amp;$A9&amp;""""&amp;""&amp;":"&amp;F9</f>
         <v>"8":2400</v>
       </c>
       <c r="R9" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(H9),"",""""&amp;$A9&amp;""""&amp;""&amp;":"&amp;H9)</f>
         <v/>
       </c>
     </row>
@@ -1060,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="C10">
@@ -1074,7 +1076,7 @@
         <v>4.8888888888888893</v>
       </c>
       <c r="F10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2600</v>
       </c>
       <c r="G10" t="s">
@@ -1084,27 +1086,27 @@
         <v>30</v>
       </c>
       <c r="M10">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="O10" t="str">
         <f t="shared" si="5"/>
-        <v>1200</v>
-      </c>
-      <c r="N10">
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600</v>
+      </c>
+      <c r="P10" t="str">
         <f t="shared" si="6"/>
-        <v>150</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600</v>
-      </c>
-      <c r="P10" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":30,"9":30</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="1"/>
+        <f>""""&amp;$A10&amp;""""&amp;""&amp;":"&amp;F10</f>
         <v>"9":2600</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(H10),"",""""&amp;$A10&amp;""""&amp;""&amp;":"&amp;H10)</f>
         <v>"9":30</v>
       </c>
     </row>
@@ -1113,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C11">
@@ -1127,7 +1129,7 @@
         <v>5.333333333333333</v>
       </c>
       <c r="F11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2800</v>
       </c>
       <c r="G11" t="s">
@@ -1140,27 +1142,27 @@
         <v>45</v>
       </c>
       <c r="M11">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>195</v>
+      </c>
+      <c r="O11" t="str">
         <f t="shared" si="5"/>
-        <v>1200</v>
-      </c>
-      <c r="N11">
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800</v>
+      </c>
+      <c r="P11" t="str">
         <f t="shared" si="6"/>
-        <v>195</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800</v>
-      </c>
-      <c r="P11" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":30,"9":30</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="1"/>
+        <f>""""&amp;$A11&amp;""""&amp;""&amp;":"&amp;F11</f>
         <v>"10":2800</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(H11),"",""""&amp;$A11&amp;""""&amp;""&amp;":"&amp;H11)</f>
         <v/>
       </c>
     </row>
@@ -1169,7 +1171,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C12">
@@ -1183,7 +1185,7 @@
         <v>6</v>
       </c>
       <c r="F12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="G12" t="s">
@@ -1196,27 +1198,27 @@
         <v>400</v>
       </c>
       <c r="M12">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>195</v>
+      </c>
+      <c r="O12" t="str">
         <f t="shared" si="5"/>
-        <v>1600</v>
-      </c>
-      <c r="N12">
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000</v>
+      </c>
+      <c r="P12" t="str">
         <f t="shared" si="6"/>
-        <v>195</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000</v>
-      </c>
-      <c r="P12" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":30,"9":30</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" si="1"/>
+        <f>""""&amp;$A12&amp;""""&amp;""&amp;":"&amp;F12</f>
         <v>"11":3000</v>
       </c>
       <c r="R12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(H12),"",""""&amp;$A12&amp;""""&amp;""&amp;":"&amp;H12)</f>
         <v/>
       </c>
     </row>
@@ -1225,7 +1227,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="C13">
@@ -1239,7 +1241,7 @@
         <v>7.1111111111111107</v>
       </c>
       <c r="F13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3200</v>
       </c>
       <c r="G13" t="s">
@@ -1252,27 +1254,27 @@
         <v>50</v>
       </c>
       <c r="M13">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>245</v>
+      </c>
+      <c r="O13" t="str">
         <f t="shared" si="5"/>
-        <v>1600</v>
-      </c>
-      <c r="N13">
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200</v>
+      </c>
+      <c r="P13" t="str">
         <f t="shared" si="6"/>
-        <v>245</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200</v>
-      </c>
-      <c r="P13" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":30,"9":30</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="1"/>
+        <f>""""&amp;$A13&amp;""""&amp;""&amp;":"&amp;F13</f>
         <v>"12":3200</v>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(H13),"",""""&amp;$A13&amp;""""&amp;""&amp;":"&amp;H13)</f>
         <v/>
       </c>
     </row>
@@ -1281,7 +1283,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="C14">
@@ -1295,7 +1297,7 @@
         <v>8.5555555555555554</v>
       </c>
       <c r="F14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3400</v>
       </c>
       <c r="G14" t="s">
@@ -1308,27 +1310,27 @@
         <v>400</v>
       </c>
       <c r="M14">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>245</v>
+      </c>
+      <c r="O14" t="str">
         <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="N14">
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400</v>
+      </c>
+      <c r="P14" t="str">
         <f t="shared" si="6"/>
-        <v>245</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400</v>
-      </c>
-      <c r="P14" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":30,"9":30</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" si="1"/>
+        <f>""""&amp;$A14&amp;""""&amp;""&amp;":"&amp;F14</f>
         <v>"13":3400</v>
       </c>
       <c r="R14" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(H14),"",""""&amp;$A14&amp;""""&amp;""&amp;":"&amp;H14)</f>
         <v/>
       </c>
     </row>
@@ -1337,7 +1339,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="C15">
@@ -1351,7 +1353,7 @@
         <v>9</v>
       </c>
       <c r="F15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3600</v>
       </c>
       <c r="G15" t="s">
@@ -1361,27 +1363,27 @@
         <v>50</v>
       </c>
       <c r="M15">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>245</v>
+      </c>
+      <c r="O15" t="str">
         <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="N15">
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600</v>
+      </c>
+      <c r="P15" t="str">
         <f t="shared" si="6"/>
-        <v>245</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600</v>
-      </c>
-      <c r="P15" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":30,"9":30,"14":50</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="1"/>
+        <f>""""&amp;$A15&amp;""""&amp;""&amp;":"&amp;F15</f>
         <v>"14":3600</v>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(H15),"",""""&amp;$A15&amp;""""&amp;""&amp;":"&amp;H15)</f>
         <v>"14":50</v>
       </c>
     </row>
@@ -1390,7 +1392,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="C16">
@@ -1404,7 +1406,7 @@
         <v>9.5555555555555554</v>
       </c>
       <c r="F16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3800</v>
       </c>
       <c r="G16" t="s">
@@ -1417,27 +1419,27 @@
         <v>500</v>
       </c>
       <c r="M16">
+        <f t="shared" si="3"/>
+        <v>2500</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>245</v>
+      </c>
+      <c r="O16" t="str">
         <f t="shared" si="5"/>
-        <v>2500</v>
-      </c>
-      <c r="N16">
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800</v>
+      </c>
+      <c r="P16" t="str">
         <f t="shared" si="6"/>
-        <v>245</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800</v>
-      </c>
-      <c r="P16" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":30,"9":30,"14":50</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" si="1"/>
+        <f>""""&amp;$A16&amp;""""&amp;""&amp;":"&amp;F16</f>
         <v>"15":3800</v>
       </c>
       <c r="R16" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(H16),"",""""&amp;$A16&amp;""""&amp;""&amp;":"&amp;H16)</f>
         <v/>
       </c>
     </row>

--- a/Excel/작업Research.xlsx
+++ b/Excel/작업Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B333280B-BE65-4809-A418-28507A458432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEDD7EB-3DC7-4F33-942E-4FF215AEEB89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="34">
   <si>
     <t>필요캐릭터인원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,42 @@
   </si>
   <si>
     <t>displayAtk|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체</t>
+  </si>
+  <si>
+    <t>공체</t>
+  </si>
+  <si>
+    <t>공</t>
+  </si>
+  <si>
+    <t>다이아</t>
+  </si>
+  <si>
+    <t>공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,29 +548,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B294627A-88CA-400D-B366-14507FB4AA24}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:W73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="5" width="12.625" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="8.25" customWidth="1"/>
-    <col min="10" max="10" width="7.875" customWidth="1"/>
-    <col min="11" max="12" width="7.875" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="7.875" customWidth="1"/>
-    <col min="14" max="14" width="8.25" customWidth="1"/>
-    <col min="15" max="18" width="8.25" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="5" width="12.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="12" max="12" width="7.875" customWidth="1"/>
+    <col min="13" max="14" width="7.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="7.875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.25" customWidth="1"/>
+    <col min="17" max="20" width="8.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9" collapsed="1"/>
+    <col min="22" max="22" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -556,60 +595,66 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <f>C2</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E16" si="0">B2/D2</f>
-        <v>5</v>
+        <f t="shared" ref="E2:E65" si="0">B2/D2</f>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1000</v>
@@ -617,60 +662,63 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="I2">
-        <v>200</v>
+      <c r="H2">
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="M2">
-        <f>K2</f>
-        <v>200</v>
-      </c>
-      <c r="N2">
-        <f>L2</f>
+        <v>300</v>
+      </c>
+      <c r="O2">
+        <f>M2</f>
+        <v>300</v>
+      </c>
+      <c r="P2">
+        <f>N2</f>
         <v>0</v>
       </c>
-      <c r="O2" t="str">
-        <f>Q2</f>
+      <c r="Q2" t="str">
+        <f>S2</f>
         <v>"1":1000</v>
       </c>
-      <c r="P2" t="str">
-        <f>R2</f>
-        <v/>
-      </c>
-      <c r="Q2" t="str">
-        <f>""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;F2</f>
+      <c r="R2" t="str">
+        <f>T2</f>
+        <v/>
+      </c>
+      <c r="S2" t="str">
+        <f t="shared" ref="S2:S16" si="1">""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;F2</f>
         <v>"1":1000</v>
       </c>
-      <c r="R2" t="str">
-        <f>IF(ISBLANK(H2),"",""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;H2)</f>
-        <v/>
-      </c>
       <c r="T2" t="str">
+        <f t="shared" ref="T2:T16" si="2">IF(ISBLANK(J2),"",""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;J2)</f>
+        <v/>
+      </c>
+      <c r="V2" t="str">
         <f ca="1">"{"&amp;
-IF(LEFT(OFFSET(O1,COUNTA(O:O)-1,0),1)=",",SUBSTITUTE(OFFSET(O1,COUNTA(O:O)-1,0),",","",1),OFFSET(O1,COUNTA(O:O)-1,0))
+IF(LEFT(OFFSET(Q1,COUNTA(Q:Q)-1,0),1)=",",SUBSTITUTE(OFFSET(Q1,COUNTA(Q:Q)-1,0),",","",1),OFFSET(Q1,COUNTA(Q:Q)-1,0))
 &amp;"}"</f>
-        <v>{"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+        <v>{"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200,"63":13400,"64":13600,"65":13800,"66":14000,"67":14200,"68":14400,"69":14600,"70":14800,"71":15000,"72":15200}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <f>B2+C3</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>1200</v>
@@ -678,768 +726,4221 @@
       <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="J3">
-        <v>30</v>
+      <c r="I3">
+        <v>1</v>
       </c>
       <c r="L3">
         <v>30</v>
       </c>
-      <c r="M3">
-        <f>M2+K3</f>
-        <v>200</v>
-      </c>
       <c r="N3">
-        <f>N2+L3</f>
-        <v>30</v>
-      </c>
-      <c r="O3" t="str">
-        <f>O2&amp;","&amp;Q3</f>
+        <v>75</v>
+      </c>
+      <c r="O3">
+        <f>O2+M3</f>
+        <v>300</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P16" si="3">P2+N3</f>
+        <v>75</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>Q2&amp;","&amp;S3</f>
         <v>"1":1000,"2":1200</v>
       </c>
-      <c r="P3" t="str">
-        <f>P2&amp;IF(LEN(R3)=0,"",","&amp;R3)</f>
-        <v/>
-      </c>
-      <c r="Q3" t="str">
-        <f>""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;F3</f>
+      <c r="R3" t="str">
+        <f>R2&amp;IF(LEN(T3)=0,"",","&amp;T3)</f>
+        <v/>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" si="1"/>
         <v>"2":1200</v>
       </c>
-      <c r="R3" t="str">
-        <f>IF(ISBLANK(H3),"",""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;H3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B16" si="1">B3+C4</f>
-        <v>15</v>
+        <f t="shared" ref="B4:B67" si="4">B3+C4</f>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F16" si="2">F3+200</f>
+        <f t="shared" ref="F4:F67" si="5">F3+200</f>
         <v>1400</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="I4">
-        <v>300</v>
+      <c r="H4">
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M16" si="3">M3+K4</f>
-        <v>500</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N16" si="4">N3+L4</f>
-        <v>30</v>
-      </c>
-      <c r="O4" t="str">
-        <f t="shared" ref="O4:O16" si="5">O3&amp;","&amp;Q4</f>
+        <v>340</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O16" si="6">O3+M4</f>
+        <v>640</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" ref="Q4:Q16" si="7">Q3&amp;","&amp;S4</f>
         <v>"1":1000,"2":1200,"3":1400</v>
       </c>
-      <c r="P4" t="str">
-        <f t="shared" ref="P4:P16" si="6">P3&amp;IF(LEN(R4)=0,"",","&amp;R4)</f>
-        <v/>
-      </c>
-      <c r="Q4" t="str">
-        <f>""""&amp;$A4&amp;""""&amp;""&amp;":"&amp;F4</f>
+      <c r="R4" t="str">
+        <f t="shared" ref="R4:R16" si="8">R3&amp;IF(LEN(T4)=0,"",","&amp;T4)</f>
+        <v/>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="1"/>
         <v>"3":1400</v>
       </c>
-      <c r="R4" t="str">
-        <f>IF(ISBLANK(H4),"",""""&amp;$A4&amp;""""&amp;""&amp;":"&amp;H4)</f>
-        <v/>
-      </c>
-      <c r="T4" t="s">
+      <c r="T4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1600</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
-      <c r="H5">
-        <v>30</v>
-      </c>
-      <c r="M5">
+      <c r="J5">
+        <v>90</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="6"/>
+        <v>640</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="7"/>
         <v>"1":1000,"2":1200,"3":1400,"4":1600</v>
       </c>
-      <c r="P5" t="str">
-        <f t="shared" si="6"/>
-        <v>,"4":30</v>
-      </c>
-      <c r="Q5" t="str">
-        <f>""""&amp;$A5&amp;""""&amp;""&amp;":"&amp;F5</f>
+      <c r="R5" t="str">
+        <f t="shared" si="8"/>
+        <v>,"4":90</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="1"/>
         <v>"4":1600</v>
       </c>
-      <c r="R5" t="str">
-        <f>IF(ISBLANK(H5),"",""""&amp;$A5&amp;""""&amp;""&amp;":"&amp;H5)</f>
-        <v>"4":30</v>
-      </c>
       <c r="T5" t="str">
+        <f t="shared" si="2"/>
+        <v>"4":90</v>
+      </c>
+      <c r="V5" t="str">
         <f ca="1">"{"&amp;
-IF(LEFT(OFFSET(P1,COUNTA(P:P)-1,0),1)=",",SUBSTITUTE(OFFSET(P1,COUNTA(P:P)-1,0),",","",1),OFFSET(P1,COUNTA(P:P)-1,0))
+IF(LEFT(OFFSET(R1,COUNTA(R:R)-1,0),1)=",",SUBSTITUTE(OFFSET(R1,COUNTA(R:R)-1,0),",","",1),OFFSET(R1,COUNTA(R:R)-1,0))
 &amp;"}"</f>
-        <v>{"4":30,"9":30,"14":50}</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>{"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150,"66":120}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f t="shared" si="4"/>
+        <v>36</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>3.8333333333333335</v>
+        <v>7.2</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1800</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
       <c r="I6">
-        <v>300</v>
-      </c>
-      <c r="J6">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="L6">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M6">
+        <v>380</v>
+      </c>
+      <c r="N6">
+        <v>90</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
+        <v>1020</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="3"/>
-        <v>800</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="7"/>
         <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800</v>
       </c>
-      <c r="P6" t="str">
-        <f t="shared" si="6"/>
-        <v>,"4":30</v>
-      </c>
-      <c r="Q6" t="str">
-        <f>""""&amp;$A6&amp;""""&amp;""&amp;":"&amp;F6</f>
+      <c r="R6" t="str">
+        <f t="shared" si="8"/>
+        <v>,"4":90</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="1"/>
         <v>"5":1800</v>
       </c>
-      <c r="R6" t="str">
-        <f>IF(ISBLANK(H6),"",""""&amp;$A6&amp;""""&amp;""&amp;":"&amp;H6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <f t="shared" si="4"/>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>4.4615384615384617</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
       </c>
-      <c r="J7">
-        <v>40</v>
+      <c r="I7">
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>40</v>
-      </c>
-      <c r="M7">
+        <v>15</v>
+      </c>
+      <c r="N7">
+        <v>110</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="6"/>
+        <v>1020</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="3"/>
-        <v>800</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="5"/>
+        <v>275</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="7"/>
         <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000</v>
       </c>
-      <c r="P7" t="str">
-        <f t="shared" si="6"/>
-        <v>,"4":30</v>
-      </c>
-      <c r="Q7" t="str">
-        <f>""""&amp;$A7&amp;""""&amp;""&amp;":"&amp;F7</f>
+      <c r="R7" t="str">
+        <f t="shared" si="8"/>
+        <v>,"4":90</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="1"/>
         <v>"6":2000</v>
       </c>
-      <c r="R7" t="str">
-        <f>IF(ISBLANK(H7),"",""""&amp;$A7&amp;""""&amp;""&amp;":"&amp;H7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>46</v>
       </c>
       <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2200</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
       </c>
-      <c r="I8">
-        <v>400</v>
+      <c r="H8">
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="M8">
+        <v>500</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>1520</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="3"/>
-        <v>1200</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="5"/>
+        <v>275</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="7"/>
         <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200</v>
       </c>
-      <c r="P8" t="str">
-        <f t="shared" si="6"/>
-        <v>,"4":30</v>
-      </c>
-      <c r="Q8" t="str">
-        <f>""""&amp;$A8&amp;""""&amp;""&amp;":"&amp;F8</f>
+      <c r="R8" t="str">
+        <f t="shared" si="8"/>
+        <v>,"4":90</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="1"/>
         <v>"7":2200</v>
       </c>
-      <c r="R8" t="str">
-        <f>IF(ISBLANK(H8),"",""""&amp;$A8&amp;""""&amp;""&amp;":"&amp;H8)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
-        <v>38</v>
+        <f t="shared" si="4"/>
+        <v>52</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>4.4705882352941178</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2400</v>
       </c>
       <c r="G9" t="s">
         <v>7</v>
       </c>
-      <c r="J9">
-        <v>45</v>
+      <c r="I9">
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>45</v>
-      </c>
-      <c r="M9">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>120</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
+        <v>1520</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="3"/>
-        <v>1200</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="5"/>
+        <v>395</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="7"/>
         <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400</v>
       </c>
-      <c r="P9" t="str">
-        <f t="shared" si="6"/>
-        <v>,"4":30</v>
-      </c>
-      <c r="Q9" t="str">
-        <f>""""&amp;$A9&amp;""""&amp;""&amp;":"&amp;F9</f>
+      <c r="R9" t="str">
+        <f t="shared" si="8"/>
+        <v>,"4":90</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="1"/>
         <v>"8":2400</v>
       </c>
-      <c r="R9" t="str">
-        <f>IF(ISBLANK(H9),"",""""&amp;$A9&amp;""""&amp;""&amp;":"&amp;H9)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
-        <v>44</v>
+        <f t="shared" si="4"/>
+        <v>68</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>4.8888888888888893</v>
+        <v>9.7142857142857135</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2600</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
       </c>
-      <c r="H10">
-        <v>30</v>
-      </c>
-      <c r="M10">
+      <c r="J10">
+        <v>70</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>1520</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="3"/>
-        <v>1200</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="5"/>
+        <v>395</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="7"/>
         <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600</v>
       </c>
-      <c r="P10" t="str">
-        <f t="shared" si="6"/>
-        <v>,"4":30,"9":30</v>
-      </c>
-      <c r="Q10" t="str">
-        <f>""""&amp;$A10&amp;""""&amp;""&amp;":"&amp;F10</f>
+      <c r="R10" t="str">
+        <f t="shared" si="8"/>
+        <v>,"4":90,"9":70</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="1"/>
         <v>"9":2600</v>
       </c>
-      <c r="R10" t="str">
-        <f>IF(ISBLANK(H10),"",""""&amp;$A10&amp;""""&amp;""&amp;":"&amp;H10)</f>
-        <v>"9":30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T10" t="str">
+        <f t="shared" si="2"/>
+        <v>"9":70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" si="1"/>
-        <v>48</v>
+        <f t="shared" si="4"/>
+        <v>72</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>5.333333333333333</v>
+        <v>10.285714285714286</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2800</v>
       </c>
       <c r="G11" t="s">
         <v>7</v>
       </c>
-      <c r="J11">
-        <v>45</v>
+      <c r="I11">
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>45</v>
-      </c>
-      <c r="M11">
+        <v>20</v>
+      </c>
+      <c r="N11">
+        <v>150</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
+        <v>1520</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="3"/>
-        <v>1200</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="4"/>
-        <v>195</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="5"/>
+        <v>545</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="7"/>
         <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800</v>
       </c>
-      <c r="P11" t="str">
-        <f t="shared" si="6"/>
-        <v>,"4":30,"9":30</v>
-      </c>
-      <c r="Q11" t="str">
-        <f>""""&amp;$A11&amp;""""&amp;""&amp;":"&amp;F11</f>
+      <c r="R11" t="str">
+        <f t="shared" si="8"/>
+        <v>,"4":90,"9":70</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="1"/>
         <v>"10":2800</v>
       </c>
-      <c r="R11" t="str">
-        <f>IF(ISBLANK(H11),"",""""&amp;$A11&amp;""""&amp;""&amp;":"&amp;H11)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" si="1"/>
-        <v>54</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>11.428571428571429</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3000</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="I12">
-        <v>400</v>
+      <c r="H12">
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>400</v>
+        <v>25</v>
       </c>
       <c r="M12">
+        <v>550</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="6"/>
+        <v>2070</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="3"/>
-        <v>1600</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="4"/>
-        <v>195</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="5"/>
+        <v>545</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="7"/>
         <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000</v>
       </c>
-      <c r="P12" t="str">
-        <f t="shared" si="6"/>
-        <v>,"4":30,"9":30</v>
-      </c>
-      <c r="Q12" t="str">
-        <f>""""&amp;$A12&amp;""""&amp;""&amp;":"&amp;F12</f>
+      <c r="R12" t="str">
+        <f t="shared" si="8"/>
+        <v>,"4":90,"9":70</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="1"/>
         <v>"11":3000</v>
       </c>
-      <c r="R12" t="str">
-        <f>IF(ISBLANK(H12),"",""""&amp;$A12&amp;""""&amp;""&amp;":"&amp;H12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" si="1"/>
-        <v>64</v>
+        <f t="shared" si="4"/>
+        <v>86</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>7.1111111111111107</v>
+        <v>10.75</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3200</v>
       </c>
       <c r="G13" t="s">
         <v>7</v>
       </c>
-      <c r="J13">
-        <v>50</v>
+      <c r="I13">
+        <v>6</v>
       </c>
       <c r="L13">
-        <v>50</v>
-      </c>
-      <c r="M13">
+        <v>25</v>
+      </c>
+      <c r="N13">
+        <v>200</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="6"/>
+        <v>2070</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="3"/>
-        <v>1600</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="4"/>
-        <v>245</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="5"/>
+        <v>745</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="7"/>
         <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200</v>
       </c>
-      <c r="P13" t="str">
-        <f t="shared" si="6"/>
-        <v>,"4":30,"9":30</v>
-      </c>
-      <c r="Q13" t="str">
-        <f>""""&amp;$A13&amp;""""&amp;""&amp;":"&amp;F13</f>
+      <c r="R13" t="str">
+        <f t="shared" si="8"/>
+        <v>,"4":90,"9":70</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="1"/>
         <v>"12":3200</v>
       </c>
-      <c r="R13" t="str">
-        <f>IF(ISBLANK(H13),"",""""&amp;$A13&amp;""""&amp;""&amp;":"&amp;H13)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" si="1"/>
-        <v>77</v>
+        <f t="shared" si="4"/>
+        <v>92</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>8.5555555555555554</v>
+        <v>11.5</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3400</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
       </c>
-      <c r="I14">
-        <v>400</v>
+      <c r="H14">
+        <v>6</v>
       </c>
       <c r="K14">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="M14">
+        <v>670</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="6"/>
+        <v>2740</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="3"/>
-        <v>2000</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="4"/>
-        <v>245</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="5"/>
+        <v>745</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="7"/>
         <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400</v>
       </c>
-      <c r="P14" t="str">
-        <f t="shared" si="6"/>
-        <v>,"4":30,"9":30</v>
-      </c>
-      <c r="Q14" t="str">
-        <f>""""&amp;$A14&amp;""""&amp;""&amp;":"&amp;F14</f>
+      <c r="R14" t="str">
+        <f t="shared" si="8"/>
+        <v>,"4":90,"9":70</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="1"/>
         <v>"13":3400</v>
       </c>
-      <c r="R14" t="str">
-        <f>IF(ISBLANK(H14),"",""""&amp;$A14&amp;""""&amp;""&amp;":"&amp;H14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
-        <v>81</v>
+        <f t="shared" si="4"/>
+        <v>106</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13.25</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3600</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="H15">
-        <v>50</v>
-      </c>
-      <c r="M15">
+      <c r="J15">
+        <v>110</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="6"/>
+        <v>2740</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="3"/>
-        <v>2000</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="4"/>
-        <v>245</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="5"/>
+        <v>745</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="7"/>
         <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600</v>
       </c>
-      <c r="P15" t="str">
-        <f t="shared" si="6"/>
-        <v>,"4":30,"9":30,"14":50</v>
-      </c>
-      <c r="Q15" t="str">
-        <f>""""&amp;$A15&amp;""""&amp;""&amp;":"&amp;F15</f>
+      <c r="R15" t="str">
+        <f t="shared" si="8"/>
+        <v>,"4":90,"9":70,"14":110</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="1"/>
         <v>"14":3600</v>
       </c>
-      <c r="R15" t="str">
-        <f>IF(ISBLANK(H15),"",""""&amp;$A15&amp;""""&amp;""&amp;":"&amp;H15)</f>
-        <v>"14":50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T15" t="str">
+        <f t="shared" si="2"/>
+        <v>"14":110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
-        <v>86</v>
+        <f t="shared" si="4"/>
+        <v>114</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>9</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>9.5555555555555554</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3800</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
       </c>
-      <c r="I16">
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>30</v>
+      </c>
+      <c r="M16">
+        <v>700</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
+        <v>3440</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>745</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="7"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="8"/>
+        <v>,"4":90,"9":70,"14":110</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="1"/>
+        <v>"15":3800</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>4000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="L17">
+        <v>20</v>
+      </c>
+      <c r="N17">
+        <v>250</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ref="O17:O73" si="9">O16+M17</f>
+        <v>3440</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ref="P17:P73" si="10">P16+N17</f>
+        <v>995</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" ref="Q17:Q73" si="11">Q16&amp;","&amp;S17</f>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" ref="R17:R73" si="12">R16&amp;IF(LEN(T17)=0,"",","&amp;T17)</f>
+        <v>,"4":90,"9":70,"14":110</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" ref="S17:S73" si="13">""""&amp;$A17&amp;""""&amp;""&amp;":"&amp;F17</f>
+        <v>"16":4000</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" ref="T17:T73" si="14">IF(ISBLANK(J17),"",""""&amp;$A17&amp;""""&amp;""&amp;":"&amp;J17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>14.444444444444445</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>4200</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="K18">
+        <v>25</v>
+      </c>
+      <c r="L18">
+        <v>15</v>
+      </c>
+      <c r="M18">
+        <v>800</v>
+      </c>
+      <c r="N18">
+        <v>300</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="9"/>
+        <v>4240</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="10"/>
+        <v>1295</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="13"/>
+        <v>"17":4200</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>15.333333333333334</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>4400</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>30</v>
+      </c>
+      <c r="M19">
+        <v>900</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="9"/>
+        <v>5140</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="10"/>
+        <v>1295</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="13"/>
+        <v>"18":4400</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>14.4</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>4600</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <v>20</v>
+      </c>
+      <c r="N20">
+        <v>350</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="9"/>
+        <v>5140</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="10"/>
+        <v>1645</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="13"/>
+        <v>"19":4600</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>4800</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>35</v>
+      </c>
+      <c r="M21">
+        <v>1100</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="9"/>
+        <v>6240</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="10"/>
+        <v>1645</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="13"/>
+        <v>"20":4800</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="4"/>
+        <v>166</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22">
+        <v>90</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="9"/>
+        <v>6240</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="10"/>
+        <v>1645</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="13"/>
+        <v>"21":5000</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="14"/>
+        <v>"21":90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="4"/>
+        <v>174</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="5"/>
+        <v>5200</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23">
+        <v>11</v>
+      </c>
+      <c r="K23">
+        <v>30</v>
+      </c>
+      <c r="M23">
+        <v>1150</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="9"/>
+        <v>7390</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="10"/>
+        <v>1645</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="13"/>
+        <v>"22":5200</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>16.363636363636363</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>5400</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="L24">
+        <v>25</v>
+      </c>
+      <c r="N24">
+        <v>400</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="9"/>
+        <v>7390</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="10"/>
+        <v>2045</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="13"/>
+        <v>"23":5400</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="4"/>
+        <v>188</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>17.09090909090909</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="5"/>
+        <v>5600</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25">
+        <v>12</v>
+      </c>
+      <c r="K25">
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <v>1200</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="9"/>
+        <v>8590</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="10"/>
+        <v>2045</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="13"/>
+        <v>"24":5600</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>5800</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26">
+        <v>13</v>
+      </c>
+      <c r="I26">
+        <v>11</v>
+      </c>
+      <c r="K26">
+        <v>20</v>
+      </c>
+      <c r="L26">
+        <v>15</v>
+      </c>
+      <c r="M26">
+        <v>1250</v>
+      </c>
+      <c r="N26">
+        <v>425</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="9"/>
+        <v>9840</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="10"/>
+        <v>2470</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="13"/>
+        <v>"25":5800</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="4"/>
+        <v>206</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>18.727272727272727</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>6000</v>
+      </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27">
+        <v>14</v>
+      </c>
+      <c r="K27">
+        <v>25</v>
+      </c>
+      <c r="M27">
+        <v>1300</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="9"/>
+        <v>11140</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="10"/>
+        <v>2470</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="13"/>
+        <v>"26":6000</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="4"/>
+        <v>214</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>19.454545454545453</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>6200</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28">
+        <v>12</v>
+      </c>
+      <c r="L28">
+        <v>20</v>
+      </c>
+      <c r="N28">
+        <v>450</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="9"/>
+        <v>11140</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="10"/>
+        <v>2920</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="13"/>
+        <v>"27":6200</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="5"/>
+        <v>6400</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29">
+        <v>15</v>
+      </c>
+      <c r="K29">
+        <v>30</v>
+      </c>
+      <c r="M29">
+        <v>1350</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="9"/>
+        <v>12490</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="10"/>
+        <v>2920</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="13"/>
+        <v>"28":6400</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="4"/>
+        <v>224</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="5"/>
+        <v>6600</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30">
+        <v>13</v>
+      </c>
+      <c r="L30">
+        <v>20</v>
+      </c>
+      <c r="N30">
+        <v>467</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="9"/>
+        <v>12490</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="10"/>
+        <v>3387</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="13"/>
+        <v>"29":6600</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="4"/>
+        <v>238</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>19.833333333333332</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="5"/>
+        <v>6800</v>
+      </c>
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31">
+        <v>100</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="9"/>
+        <v>12490</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="10"/>
+        <v>3387</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="13"/>
+        <v>"30":6800</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="14"/>
+        <v>"30":100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="4"/>
+        <v>242</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>20.166666666666668</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="5"/>
+        <v>7000</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32">
+        <v>16</v>
+      </c>
+      <c r="K32">
+        <v>35</v>
+      </c>
+      <c r="M32">
+        <v>1400</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="9"/>
+        <v>13890</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="10"/>
+        <v>3387</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" si="13"/>
+        <v>"31":7000</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="5"/>
+        <v>7200</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33">
+        <v>14</v>
+      </c>
+      <c r="L33">
+        <v>25</v>
+      </c>
+      <c r="N33">
         <v>500</v>
       </c>
-      <c r="K16">
-        <v>500</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="3"/>
+      <c r="O33">
+        <f t="shared" si="9"/>
+        <v>13890</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="10"/>
+        <v>3887</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100</v>
+      </c>
+      <c r="S33" t="str">
+        <f t="shared" si="13"/>
+        <v>"32":7200</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="5"/>
+        <v>7400</v>
+      </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34">
+        <v>17</v>
+      </c>
+      <c r="K34">
+        <v>30</v>
+      </c>
+      <c r="M34">
+        <v>1450</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="9"/>
+        <v>15340</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="10"/>
+        <v>3887</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100</v>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" si="13"/>
+        <v>"33":7400</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="4"/>
+        <v>266</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>22.166666666666668</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="5"/>
+        <v>7600</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35">
+        <v>18</v>
+      </c>
+      <c r="I35">
+        <v>15</v>
+      </c>
+      <c r="K35">
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <v>15</v>
+      </c>
+      <c r="M35">
+        <v>1500</v>
+      </c>
+      <c r="N35">
+        <v>525</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="9"/>
+        <v>16840</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="10"/>
+        <v>4412</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100</v>
+      </c>
+      <c r="S35" t="str">
+        <f t="shared" si="13"/>
+        <v>"34":7600</v>
+      </c>
+      <c r="T35" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="4"/>
+        <v>274</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>22.833333333333332</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="5"/>
+        <v>7800</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36">
+        <v>19</v>
+      </c>
+      <c r="K36">
+        <v>30</v>
+      </c>
+      <c r="M36">
+        <v>1550</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="9"/>
+        <v>18390</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="10"/>
+        <v>4412</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100</v>
+      </c>
+      <c r="S36" t="str">
+        <f t="shared" si="13"/>
+        <v>"35":7800</v>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="4"/>
+        <v>278</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>13</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>21.384615384615383</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="5"/>
+        <v>8000</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37">
+        <v>16</v>
+      </c>
+      <c r="L37">
+        <v>20</v>
+      </c>
+      <c r="N37">
+        <v>550</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="9"/>
+        <v>18390</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="10"/>
+        <v>4962</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000</v>
+      </c>
+      <c r="R37" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100</v>
+      </c>
+      <c r="S37" t="str">
+        <f t="shared" si="13"/>
+        <v>"36":8000</v>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="4"/>
+        <v>284</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>21.846153846153847</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="5"/>
+        <v>8200</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38">
+        <v>20</v>
+      </c>
+      <c r="K38">
+        <v>30</v>
+      </c>
+      <c r="M38">
+        <v>1600</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="9"/>
+        <v>19990</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="10"/>
+        <v>4962</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200</v>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100</v>
+      </c>
+      <c r="S38" t="str">
+        <f t="shared" si="13"/>
+        <v>"37":8200</v>
+      </c>
+      <c r="T38" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>22.307692307692307</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="5"/>
+        <v>8400</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39">
+        <v>17</v>
+      </c>
+      <c r="L39">
+        <v>20</v>
+      </c>
+      <c r="N39">
+        <v>567</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="9"/>
+        <v>19990</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="10"/>
+        <v>5529</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400</v>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100</v>
+      </c>
+      <c r="S39" t="str">
+        <f t="shared" si="13"/>
+        <v>"38":8400</v>
+      </c>
+      <c r="T39" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="4"/>
+        <v>298</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>13</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>22.923076923076923</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="5"/>
+        <v>8600</v>
+      </c>
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40">
+        <v>21</v>
+      </c>
+      <c r="K40">
+        <v>30</v>
+      </c>
+      <c r="M40">
+        <v>1650</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="9"/>
+        <v>21640</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="10"/>
+        <v>5529</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600</v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100</v>
+      </c>
+      <c r="S40" t="str">
+        <f t="shared" si="13"/>
+        <v>"39":8600</v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="4"/>
+        <v>316</v>
+      </c>
+      <c r="C41">
+        <v>18</v>
+      </c>
+      <c r="D41">
+        <v>13</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>24.307692307692307</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="5"/>
+        <v>8800</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41">
+        <v>120</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="9"/>
+        <v>21640</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="10"/>
+        <v>5529</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120</v>
+      </c>
+      <c r="S41" t="str">
+        <f t="shared" si="13"/>
+        <v>"40":8800</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="14"/>
+        <v>"40":120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="4"/>
+        <v>324</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>13</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>24.923076923076923</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="5"/>
+        <v>9000</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42">
+        <v>22</v>
+      </c>
+      <c r="K42">
+        <v>35</v>
+      </c>
+      <c r="M42">
+        <v>1800</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="9"/>
+        <v>23440</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="10"/>
+        <v>5529</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120</v>
+      </c>
+      <c r="S42" t="str">
+        <f t="shared" si="13"/>
+        <v>"41":9000</v>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>13</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>25.384615384615383</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="5"/>
+        <v>9200</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43">
+        <v>18</v>
+      </c>
+      <c r="L43">
+        <v>25</v>
+      </c>
+      <c r="N43">
+        <v>583</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="9"/>
+        <v>23440</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="10"/>
+        <v>6112</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200</v>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120</v>
+      </c>
+      <c r="S43" t="str">
+        <f t="shared" si="13"/>
+        <v>"42":9200</v>
+      </c>
+      <c r="T43" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="4"/>
+        <v>342</v>
+      </c>
+      <c r="C44">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>13</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>26.307692307692307</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="5"/>
+        <v>9400</v>
+      </c>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44">
+        <v>23</v>
+      </c>
+      <c r="I44">
+        <v>19</v>
+      </c>
+      <c r="K44">
+        <v>25</v>
+      </c>
+      <c r="L44">
+        <v>15</v>
+      </c>
+      <c r="M44">
+        <v>2000</v>
+      </c>
+      <c r="N44">
+        <v>600</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="9"/>
+        <v>25440</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="10"/>
+        <v>6712</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400</v>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120</v>
+      </c>
+      <c r="S44" t="str">
+        <f t="shared" si="13"/>
+        <v>"43":9400</v>
+      </c>
+      <c r="T44" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>14</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="5"/>
+        <v>9600</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45">
+        <v>24</v>
+      </c>
+      <c r="K45">
+        <v>30</v>
+      </c>
+      <c r="M45">
+        <v>2100</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="9"/>
+        <v>27540</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="10"/>
+        <v>6712</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600</v>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120</v>
+      </c>
+      <c r="S45" t="str">
+        <f t="shared" si="13"/>
+        <v>"44":9600</v>
+      </c>
+      <c r="T45" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="4"/>
+        <v>370</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>26.428571428571427</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="5"/>
+        <v>9800</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="9"/>
+        <v>27540</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="10"/>
+        <v>6712</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100</v>
+      </c>
+      <c r="S46" t="str">
+        <f t="shared" si="13"/>
+        <v>"45":9800</v>
+      </c>
+      <c r="T46" t="str">
+        <f t="shared" si="14"/>
+        <v>"45":100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="4"/>
+        <v>378</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>14</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="5"/>
+        <v>10000</v>
+      </c>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47">
+        <v>25</v>
+      </c>
+      <c r="K47">
+        <v>35</v>
+      </c>
+      <c r="M47">
+        <v>2200</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="9"/>
+        <v>29740</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="10"/>
+        <v>6712</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100</v>
+      </c>
+      <c r="S47" t="str">
+        <f t="shared" si="13"/>
+        <v>"46":10000</v>
+      </c>
+      <c r="T47" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="4"/>
+        <v>382</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>14</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>27.285714285714285</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="5"/>
+        <v>10200</v>
+      </c>
+      <c r="G48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48">
+        <v>20</v>
+      </c>
+      <c r="L48">
+        <v>25</v>
+      </c>
+      <c r="N48">
+        <v>650</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="9"/>
+        <v>29740</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="10"/>
+        <v>7362</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200</v>
+      </c>
+      <c r="R48" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100</v>
+      </c>
+      <c r="S48" t="str">
+        <f t="shared" si="13"/>
+        <v>"47":10200</v>
+      </c>
+      <c r="T48" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="4"/>
+        <v>392</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>14</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="5"/>
+        <v>10400</v>
+      </c>
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49">
+        <v>26</v>
+      </c>
+      <c r="I49">
+        <v>21</v>
+      </c>
+      <c r="K49">
+        <v>25</v>
+      </c>
+      <c r="L49">
+        <v>20</v>
+      </c>
+      <c r="M49">
+        <v>2300</v>
+      </c>
+      <c r="N49">
+        <v>675</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="9"/>
+        <v>32040</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="10"/>
+        <v>8037</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400</v>
+      </c>
+      <c r="R49" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100</v>
+      </c>
+      <c r="S49" t="str">
+        <f t="shared" si="13"/>
+        <v>"48":10400</v>
+      </c>
+      <c r="T49" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="4"/>
+        <v>396</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>14</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>28.285714285714285</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="5"/>
+        <v>10600</v>
+      </c>
+      <c r="G50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50">
+        <v>27</v>
+      </c>
+      <c r="K50">
+        <v>30</v>
+      </c>
+      <c r="M50">
+        <v>2350</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="9"/>
+        <v>34390</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="10"/>
+        <v>8037</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600</v>
+      </c>
+      <c r="R50" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100</v>
+      </c>
+      <c r="S50" t="str">
+        <f t="shared" si="13"/>
+        <v>"49":10600</v>
+      </c>
+      <c r="T50" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="4"/>
+        <v>402</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>14</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>28.714285714285715</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="5"/>
+        <v>10800</v>
+      </c>
+      <c r="G51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51">
+        <v>22</v>
+      </c>
+      <c r="L51">
+        <v>25</v>
+      </c>
+      <c r="N51">
+        <v>750</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="9"/>
+        <v>34390</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="10"/>
+        <v>8787</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100</v>
+      </c>
+      <c r="S51" t="str">
+        <f t="shared" si="13"/>
+        <v>"50":10800</v>
+      </c>
+      <c r="T51" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="4"/>
+        <v>408</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>14</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>29.142857142857142</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="5"/>
+        <v>11000</v>
+      </c>
+      <c r="G52" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52">
+        <v>28</v>
+      </c>
+      <c r="K52">
+        <v>30</v>
+      </c>
+      <c r="M52">
         <v>2500</v>
       </c>
-      <c r="N16">
-        <f t="shared" si="4"/>
-        <v>245</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="5"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800</v>
-      </c>
-      <c r="P16" t="str">
-        <f t="shared" si="6"/>
-        <v>,"4":30,"9":30,"14":50</v>
-      </c>
-      <c r="Q16" t="str">
-        <f>""""&amp;$A16&amp;""""&amp;""&amp;":"&amp;F16</f>
-        <v>"15":3800</v>
-      </c>
-      <c r="R16" t="str">
-        <f>IF(ISBLANK(H16),"",""""&amp;$A16&amp;""""&amp;""&amp;":"&amp;H16)</f>
+      <c r="O52">
+        <f t="shared" si="9"/>
+        <v>36890</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="10"/>
+        <v>8787</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000</v>
+      </c>
+      <c r="R52" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100</v>
+      </c>
+      <c r="S52" t="str">
+        <f t="shared" si="13"/>
+        <v>"51":11000</v>
+      </c>
+      <c r="T52" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="4"/>
+        <v>418</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>14</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>29.857142857142858</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="5"/>
+        <v>11200</v>
+      </c>
+      <c r="G53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53">
+        <v>29</v>
+      </c>
+      <c r="I53">
+        <v>23</v>
+      </c>
+      <c r="K53">
+        <v>25</v>
+      </c>
+      <c r="L53">
+        <v>15</v>
+      </c>
+      <c r="M53">
+        <v>2550</v>
+      </c>
+      <c r="N53">
+        <v>775</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="9"/>
+        <v>39440</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="10"/>
+        <v>9562</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200</v>
+      </c>
+      <c r="R53" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100</v>
+      </c>
+      <c r="S53" t="str">
+        <f t="shared" si="13"/>
+        <v>"52":11200</v>
+      </c>
+      <c r="T53" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="4"/>
+        <v>422</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>15</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>28.133333333333333</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="5"/>
+        <v>11400</v>
+      </c>
+      <c r="G54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54">
+        <v>30</v>
+      </c>
+      <c r="K54">
+        <v>30</v>
+      </c>
+      <c r="M54">
+        <v>2600</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="9"/>
+        <v>42040</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="10"/>
+        <v>9562</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400</v>
+      </c>
+      <c r="R54" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100</v>
+      </c>
+      <c r="S54" t="str">
+        <f t="shared" si="13"/>
+        <v>"53":11400</v>
+      </c>
+      <c r="T54" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="4"/>
+        <v>430</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>15</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>28.666666666666668</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="5"/>
+        <v>11600</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55">
+        <v>24</v>
+      </c>
+      <c r="L55">
+        <v>20</v>
+      </c>
+      <c r="N55">
+        <v>800</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="9"/>
+        <v>42040</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="10"/>
+        <v>10362</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600</v>
+      </c>
+      <c r="R55" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100</v>
+      </c>
+      <c r="S55" t="str">
+        <f t="shared" si="13"/>
+        <v>"54":11600</v>
+      </c>
+      <c r="T55" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="4"/>
+        <v>452</v>
+      </c>
+      <c r="C56">
+        <v>22</v>
+      </c>
+      <c r="D56">
+        <v>15</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>30.133333333333333</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="5"/>
+        <v>11800</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56">
+        <v>150</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="9"/>
+        <v>42040</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="10"/>
+        <v>10362</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800</v>
+      </c>
+      <c r="R56" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150</v>
+      </c>
+      <c r="S56" t="str">
+        <f t="shared" si="13"/>
+        <v>"55":11800</v>
+      </c>
+      <c r="T56" t="str">
+        <f t="shared" si="14"/>
+        <v>"55":150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="4"/>
+        <v>460</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>15</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>30.666666666666668</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="5"/>
+        <v>12000</v>
+      </c>
+      <c r="G57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57">
+        <v>31</v>
+      </c>
+      <c r="K57">
+        <v>40</v>
+      </c>
+      <c r="M57">
+        <v>3200</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="9"/>
+        <v>45240</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="10"/>
+        <v>10362</v>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000</v>
+      </c>
+      <c r="R57" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150</v>
+      </c>
+      <c r="S57" t="str">
+        <f t="shared" si="13"/>
+        <v>"56":12000</v>
+      </c>
+      <c r="T57" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="4"/>
+        <v>468</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <v>15</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>31.2</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="5"/>
+        <v>12200</v>
+      </c>
+      <c r="G58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58">
+        <v>25</v>
+      </c>
+      <c r="L58">
+        <v>20</v>
+      </c>
+      <c r="N58">
+        <v>900</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="9"/>
+        <v>45240</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="10"/>
+        <v>11262</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200</v>
+      </c>
+      <c r="R58" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150</v>
+      </c>
+      <c r="S58" t="str">
+        <f t="shared" si="13"/>
+        <v>"57":12200</v>
+      </c>
+      <c r="T58" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="4"/>
+        <v>478</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>15</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>31.866666666666667</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="5"/>
+        <v>12400</v>
+      </c>
+      <c r="G59" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59">
+        <v>32</v>
+      </c>
+      <c r="I59">
+        <v>26</v>
+      </c>
+      <c r="K59">
+        <v>25</v>
+      </c>
+      <c r="L59">
+        <v>15</v>
+      </c>
+      <c r="M59">
+        <v>3300</v>
+      </c>
+      <c r="N59">
+        <v>975</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="9"/>
+        <v>48540</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="10"/>
+        <v>12237</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400</v>
+      </c>
+      <c r="R59" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150</v>
+      </c>
+      <c r="S59" t="str">
+        <f t="shared" si="13"/>
+        <v>"58":12400</v>
+      </c>
+      <c r="T59" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="4"/>
+        <v>482</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>15</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>32.133333333333333</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="5"/>
+        <v>12600</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60">
+        <v>33</v>
+      </c>
+      <c r="K60">
+        <v>35</v>
+      </c>
+      <c r="M60">
+        <v>3400</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="9"/>
+        <v>51940</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="10"/>
+        <v>12237</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600</v>
+      </c>
+      <c r="R60" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150</v>
+      </c>
+      <c r="S60" t="str">
+        <f t="shared" si="13"/>
+        <v>"59":12600</v>
+      </c>
+      <c r="T60" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="4"/>
+        <v>488</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>15</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>32.533333333333331</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="5"/>
+        <v>12800</v>
+      </c>
+      <c r="G61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61">
+        <v>27</v>
+      </c>
+      <c r="L61">
+        <v>20</v>
+      </c>
+      <c r="N61">
+        <v>1100</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="9"/>
+        <v>51940</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="10"/>
+        <v>13337</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800</v>
+      </c>
+      <c r="R61" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150</v>
+      </c>
+      <c r="S61" t="str">
+        <f t="shared" si="13"/>
+        <v>"60":12800</v>
+      </c>
+      <c r="T61" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="4"/>
+        <v>496</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <v>15</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>33.06666666666667</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="5"/>
+        <v>13000</v>
+      </c>
+      <c r="G62" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62">
+        <v>34</v>
+      </c>
+      <c r="K62">
+        <v>30</v>
+      </c>
+      <c r="M62">
+        <v>3800</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="9"/>
+        <v>55740</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="10"/>
+        <v>13337</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000</v>
+      </c>
+      <c r="R62" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150</v>
+      </c>
+      <c r="S62" t="str">
+        <f t="shared" si="13"/>
+        <v>"61":13000</v>
+      </c>
+      <c r="T62" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="4"/>
+        <v>506</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>16</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>31.625</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="5"/>
+        <v>13200</v>
+      </c>
+      <c r="G63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63">
+        <v>35</v>
+      </c>
+      <c r="I63">
+        <v>28</v>
+      </c>
+      <c r="K63">
+        <v>25</v>
+      </c>
+      <c r="L63">
+        <v>15</v>
+      </c>
+      <c r="M63">
+        <v>3850</v>
+      </c>
+      <c r="N63">
+        <v>1200</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="9"/>
+        <v>59590</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="10"/>
+        <v>14537</v>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200</v>
+      </c>
+      <c r="R63" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150</v>
+      </c>
+      <c r="S63" t="str">
+        <f t="shared" si="13"/>
+        <v>"62":13200</v>
+      </c>
+      <c r="T63" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="4"/>
+        <v>514</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="D64">
+        <v>16</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>32.125</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="5"/>
+        <v>13400</v>
+      </c>
+      <c r="G64" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64">
+        <v>36</v>
+      </c>
+      <c r="K64">
+        <v>30</v>
+      </c>
+      <c r="M64">
+        <v>3900</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="9"/>
+        <v>63490</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="10"/>
+        <v>14537</v>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200,"63":13400</v>
+      </c>
+      <c r="R64" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150</v>
+      </c>
+      <c r="S64" t="str">
+        <f t="shared" si="13"/>
+        <v>"63":13400</v>
+      </c>
+      <c r="T64" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="4"/>
+        <v>518</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>32.375</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="5"/>
+        <v>13600</v>
+      </c>
+      <c r="G65" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65">
+        <v>29</v>
+      </c>
+      <c r="L65">
+        <v>20</v>
+      </c>
+      <c r="N65">
+        <v>1300</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="9"/>
+        <v>63490</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="10"/>
+        <v>15837</v>
+      </c>
+      <c r="Q65" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200,"63":13400,"64":13600</v>
+      </c>
+      <c r="R65" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150</v>
+      </c>
+      <c r="S65" t="str">
+        <f t="shared" si="13"/>
+        <v>"64":13600</v>
+      </c>
+      <c r="T65" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="4"/>
+        <v>524</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>16</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ref="E66:E73" si="15">B66/D66</f>
+        <v>32.75</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="5"/>
+        <v>13800</v>
+      </c>
+      <c r="G66" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66">
+        <v>37</v>
+      </c>
+      <c r="K66">
+        <v>40</v>
+      </c>
+      <c r="M66">
+        <v>4200</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="9"/>
+        <v>67690</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="10"/>
+        <v>15837</v>
+      </c>
+      <c r="Q66" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200,"63":13400,"64":13600,"65":13800</v>
+      </c>
+      <c r="R66" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150</v>
+      </c>
+      <c r="S66" t="str">
+        <f t="shared" si="13"/>
+        <v>"65":13800</v>
+      </c>
+      <c r="T66" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="4"/>
+        <v>540</v>
+      </c>
+      <c r="C67">
+        <v>16</v>
+      </c>
+      <c r="D67">
+        <v>16</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="15"/>
+        <v>33.75</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="5"/>
+        <v>14000</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="J67">
+        <v>120</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="9"/>
+        <v>67690</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="10"/>
+        <v>15837</v>
+      </c>
+      <c r="Q67" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200,"63":13400,"64":13600,"65":13800,"66":14000</v>
+      </c>
+      <c r="R67" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150,"66":120</v>
+      </c>
+      <c r="S67" t="str">
+        <f t="shared" si="13"/>
+        <v>"66":14000</v>
+      </c>
+      <c r="T67" t="str">
+        <f t="shared" si="14"/>
+        <v>"66":120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:B73" si="16">B67+C68</f>
+        <v>548</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="15"/>
+        <v>34.25</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F73" si="17">F67+200</f>
+        <v>14200</v>
+      </c>
+      <c r="G68" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68">
+        <v>38</v>
+      </c>
+      <c r="K68">
+        <v>35</v>
+      </c>
+      <c r="M68">
+        <v>4400</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="9"/>
+        <v>72090</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="10"/>
+        <v>15837</v>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200,"63":13400,"64":13600,"65":13800,"66":14000,"67":14200</v>
+      </c>
+      <c r="R68" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150,"66":120</v>
+      </c>
+      <c r="S68" t="str">
+        <f t="shared" si="13"/>
+        <v>"67":14200</v>
+      </c>
+      <c r="T68" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="16"/>
+        <v>558</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>16</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="15"/>
+        <v>34.875</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="17"/>
+        <v>14400</v>
+      </c>
+      <c r="G69" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69">
+        <v>39</v>
+      </c>
+      <c r="I69">
+        <v>30</v>
+      </c>
+      <c r="K69">
+        <v>30</v>
+      </c>
+      <c r="L69">
+        <v>25</v>
+      </c>
+      <c r="M69">
+        <v>4450</v>
+      </c>
+      <c r="N69">
+        <v>1500</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="9"/>
+        <v>76540</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="10"/>
+        <v>17337</v>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200,"63":13400,"64":13600,"65":13800,"66":14000,"67":14200,"68":14400</v>
+      </c>
+      <c r="R69" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150,"66":120</v>
+      </c>
+      <c r="S69" t="str">
+        <f t="shared" si="13"/>
+        <v>"68":14400</v>
+      </c>
+      <c r="T69" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="16"/>
+        <v>566</v>
+      </c>
+      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="D70">
+        <v>16</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="15"/>
+        <v>35.375</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="17"/>
+        <v>14600</v>
+      </c>
+      <c r="G70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70">
+        <v>40</v>
+      </c>
+      <c r="K70">
+        <v>35</v>
+      </c>
+      <c r="M70">
+        <v>4500</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="9"/>
+        <v>81040</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="10"/>
+        <v>17337</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200,"63":13400,"64":13600,"65":13800,"66":14000,"67":14200,"68":14400,"69":14600</v>
+      </c>
+      <c r="R70" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150,"66":120</v>
+      </c>
+      <c r="S70" t="str">
+        <f t="shared" si="13"/>
+        <v>"69":14600</v>
+      </c>
+      <c r="T70" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="16"/>
+        <v>576</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>16</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="15"/>
+        <v>36</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="17"/>
+        <v>14800</v>
+      </c>
+      <c r="G71" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71">
+        <v>41</v>
+      </c>
+      <c r="I71">
+        <v>31</v>
+      </c>
+      <c r="K71">
+        <v>25</v>
+      </c>
+      <c r="L71">
+        <v>20</v>
+      </c>
+      <c r="M71">
+        <v>4550</v>
+      </c>
+      <c r="N71">
+        <v>1900</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="9"/>
+        <v>85590</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="10"/>
+        <v>19237</v>
+      </c>
+      <c r="Q71" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200,"63":13400,"64":13600,"65":13800,"66":14000,"67":14200,"68":14400,"69":14600,"70":14800</v>
+      </c>
+      <c r="R71" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150,"66":120</v>
+      </c>
+      <c r="S71" t="str">
+        <f t="shared" si="13"/>
+        <v>"70":14800</v>
+      </c>
+      <c r="T71" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="16"/>
+        <v>584</v>
+      </c>
+      <c r="C72">
+        <v>8</v>
+      </c>
+      <c r="D72">
+        <v>16</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="15"/>
+        <v>36.5</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="17"/>
+        <v>15000</v>
+      </c>
+      <c r="G72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72">
+        <v>42</v>
+      </c>
+      <c r="K72">
+        <v>30</v>
+      </c>
+      <c r="M72">
+        <v>4600</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="9"/>
+        <v>90190</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="10"/>
+        <v>19237</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200,"63":13400,"64":13600,"65":13800,"66":14000,"67":14200,"68":14400,"69":14600,"70":14800,"71":15000</v>
+      </c>
+      <c r="R72" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150,"66":120</v>
+      </c>
+      <c r="S72" t="str">
+        <f t="shared" si="13"/>
+        <v>"71":15000</v>
+      </c>
+      <c r="T72" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="16"/>
+        <v>592</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73">
+        <v>16</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="15"/>
+        <v>37</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="17"/>
+        <v>15200</v>
+      </c>
+      <c r="G73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73">
+        <v>32</v>
+      </c>
+      <c r="L73">
+        <v>20</v>
+      </c>
+      <c r="N73">
+        <v>2100</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="9"/>
+        <v>90190</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="10"/>
+        <v>21337</v>
+      </c>
+      <c r="Q73" t="str">
+        <f t="shared" si="11"/>
+        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200,"63":13400,"64":13600,"65":13800,"66":14000,"67":14200,"68":14400,"69":14600,"70":14800,"71":15000,"72":15200</v>
+      </c>
+      <c r="R73" t="str">
+        <f t="shared" si="12"/>
+        <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150,"66":120</v>
+      </c>
+      <c r="S73" t="str">
+        <f t="shared" si="13"/>
+        <v>"72":15200</v>
+      </c>
+      <c r="T73" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>

--- a/Excel/작업Research.xlsx
+++ b/Excel/작업Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEDD7EB-3DC7-4F33-942E-4FF215AEEB89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F0D85F-EA04-48C9-B717-EFDBA468A685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchTable" sheetId="3" r:id="rId1"/>
@@ -657,7 +657,7 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -681,7 +681,7 @@
       </c>
       <c r="Q2" t="str">
         <f>S2</f>
-        <v>"1":1000</v>
+        <v>"1":2000</v>
       </c>
       <c r="R2" t="str">
         <f>T2</f>
@@ -689,7 +689,7 @@
       </c>
       <c r="S2" t="str">
         <f t="shared" ref="S2:S16" si="1">""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;F2</f>
-        <v>"1":1000</v>
+        <v>"1":2000</v>
       </c>
       <c r="T2" t="str">
         <f t="shared" ref="T2:T16" si="2">IF(ISBLANK(J2),"",""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;J2)</f>
@@ -699,7 +699,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(Q1,COUNTA(Q:Q)-1,0),1)=",",SUBSTITUTE(OFFSET(Q1,COUNTA(Q:Q)-1,0),",","",1),OFFSET(Q1,COUNTA(Q:Q)-1,0))
 &amp;"}"</f>
-        <v>{"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200,"63":13400,"64":13600,"65":13800,"66":14000,"67":14200,"68":14400,"69":14600,"70":14800,"71":15000,"72":15200}</v>
+        <v>{"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200,"52":24000,"53":23500,"54":23800,"55":52000,"56":28500,"57":28000,"58":28700,"59":28500,"60":29200,"61":29500,"62":29000,"63":29700,"64":29500,"65":29900,"66":64000,"67":33000,"68":33500,"69":33800,"70":34500,"71":34200,"72":35000}</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -721,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="F3">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -745,7 +745,7 @@
       </c>
       <c r="Q3" t="str">
         <f>Q2&amp;","&amp;S3</f>
-        <v>"1":1000,"2":1200</v>
+        <v>"1":2000,"2":2200</v>
       </c>
       <c r="R3" t="str">
         <f>R2&amp;IF(LEN(T3)=0,"",","&amp;T3)</f>
@@ -753,7 +753,7 @@
       </c>
       <c r="S3" t="str">
         <f t="shared" si="1"/>
-        <v>"2":1200</v>
+        <v>"2":2200</v>
       </c>
       <c r="T3" t="str">
         <f t="shared" si="2"/>
@@ -779,8 +779,7 @@
         <v>4</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F67" si="5">F3+200</f>
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -795,7 +794,7 @@
         <v>340</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O16" si="6">O3+M4</f>
+        <f t="shared" ref="O4:O16" si="5">O3+M4</f>
         <v>640</v>
       </c>
       <c r="P4">
@@ -803,16 +802,16 @@
         <v>75</v>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" ref="Q4:Q16" si="7">Q3&amp;","&amp;S4</f>
-        <v>"1":1000,"2":1200,"3":1400</v>
+        <f t="shared" ref="Q4:Q16" si="6">Q3&amp;","&amp;S4</f>
+        <v>"1":2000,"2":2200,"3":1700</v>
       </c>
       <c r="R4" t="str">
-        <f t="shared" ref="R4:R16" si="8">R3&amp;IF(LEN(T4)=0,"",","&amp;T4)</f>
+        <f t="shared" ref="R4:R16" si="7">R3&amp;IF(LEN(T4)=0,"",","&amp;T4)</f>
         <v/>
       </c>
       <c r="S4" t="str">
         <f t="shared" si="1"/>
-        <v>"3":1400</v>
+        <v>"3":1700</v>
       </c>
       <c r="T4" t="str">
         <f t="shared" si="2"/>
@@ -841,8 +840,7 @@
         <v>5.6</v>
       </c>
       <c r="F5">
-        <f t="shared" si="5"/>
-        <v>1600</v>
+        <v>5000</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -851,7 +849,7 @@
         <v>90</v>
       </c>
       <c r="O5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>640</v>
       </c>
       <c r="P5">
@@ -859,16 +857,16 @@
         <v>75</v>
       </c>
       <c r="Q5" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000</v>
+      </c>
+      <c r="R5" t="str">
         <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600</v>
-      </c>
-      <c r="R5" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":90</v>
       </c>
       <c r="S5" t="str">
         <f t="shared" si="1"/>
-        <v>"4":1600</v>
+        <v>"4":5000</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" si="2"/>
@@ -900,8 +898,7 @@
         <v>7.2</v>
       </c>
       <c r="F6">
-        <f t="shared" si="5"/>
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -925,7 +922,7 @@
         <v>90</v>
       </c>
       <c r="O6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1020</v>
       </c>
       <c r="P6">
@@ -933,16 +930,16 @@
         <v>165</v>
       </c>
       <c r="Q6" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400</v>
+      </c>
+      <c r="R6" t="str">
         <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800</v>
-      </c>
-      <c r="R6" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":90</v>
       </c>
       <c r="S6" t="str">
         <f t="shared" si="1"/>
-        <v>"5":1800</v>
+        <v>"5":2400</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="2"/>
@@ -968,8 +965,7 @@
         <v>7</v>
       </c>
       <c r="F7">
-        <f t="shared" si="5"/>
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
@@ -984,7 +980,7 @@
         <v>110</v>
       </c>
       <c r="O7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1020</v>
       </c>
       <c r="P7">
@@ -992,16 +988,16 @@
         <v>275</v>
       </c>
       <c r="Q7" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100</v>
+      </c>
+      <c r="R7" t="str">
         <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000</v>
-      </c>
-      <c r="R7" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":90</v>
       </c>
       <c r="S7" t="str">
         <f t="shared" si="1"/>
-        <v>"6":2000</v>
+        <v>"6":2100</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="2"/>
@@ -1027,8 +1023,7 @@
         <v>7.666666666666667</v>
       </c>
       <c r="F8">
-        <f t="shared" si="5"/>
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -1043,7 +1038,7 @@
         <v>500</v>
       </c>
       <c r="O8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1520</v>
       </c>
       <c r="P8">
@@ -1051,16 +1046,16 @@
         <v>275</v>
       </c>
       <c r="Q8" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800</v>
+      </c>
+      <c r="R8" t="str">
         <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200</v>
-      </c>
-      <c r="R8" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":90</v>
       </c>
       <c r="S8" t="str">
         <f t="shared" si="1"/>
-        <v>"7":2200</v>
+        <v>"7":2800</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="2"/>
@@ -1086,8 +1081,7 @@
         <v>8.6666666666666661</v>
       </c>
       <c r="F9">
-        <f t="shared" si="5"/>
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G9" t="s">
         <v>7</v>
@@ -1102,7 +1096,7 @@
         <v>120</v>
       </c>
       <c r="O9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1520</v>
       </c>
       <c r="P9">
@@ -1110,16 +1104,16 @@
         <v>395</v>
       </c>
       <c r="Q9" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600</v>
+      </c>
+      <c r="R9" t="str">
         <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400</v>
-      </c>
-      <c r="R9" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":90</v>
       </c>
       <c r="S9" t="str">
         <f t="shared" si="1"/>
-        <v>"8":2400</v>
+        <v>"8":2600</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="2"/>
@@ -1145,8 +1139,7 @@
         <v>9.7142857142857135</v>
       </c>
       <c r="F10">
-        <f t="shared" si="5"/>
-        <v>2600</v>
+        <v>8000</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -1155,7 +1148,7 @@
         <v>70</v>
       </c>
       <c r="O10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1520</v>
       </c>
       <c r="P10">
@@ -1163,16 +1156,16 @@
         <v>395</v>
       </c>
       <c r="Q10" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000</v>
+      </c>
+      <c r="R10" t="str">
         <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600</v>
-      </c>
-      <c r="R10" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":90,"9":70</v>
       </c>
       <c r="S10" t="str">
         <f t="shared" si="1"/>
-        <v>"9":2600</v>
+        <v>"9":8000</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="2"/>
@@ -1198,8 +1191,7 @@
         <v>10.285714285714286</v>
       </c>
       <c r="F11">
-        <f t="shared" si="5"/>
-        <v>2800</v>
+        <v>4300</v>
       </c>
       <c r="G11" t="s">
         <v>7</v>
@@ -1214,7 +1206,7 @@
         <v>150</v>
       </c>
       <c r="O11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1520</v>
       </c>
       <c r="P11">
@@ -1222,16 +1214,16 @@
         <v>545</v>
       </c>
       <c r="Q11" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300</v>
+      </c>
+      <c r="R11" t="str">
         <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800</v>
-      </c>
-      <c r="R11" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":90,"9":70</v>
       </c>
       <c r="S11" t="str">
         <f t="shared" si="1"/>
-        <v>"10":2800</v>
+        <v>"10":4300</v>
       </c>
       <c r="T11" t="str">
         <f t="shared" si="2"/>
@@ -1257,8 +1249,7 @@
         <v>11.428571428571429</v>
       </c>
       <c r="F12">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -1273,7 +1264,7 @@
         <v>550</v>
       </c>
       <c r="O12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2070</v>
       </c>
       <c r="P12">
@@ -1281,16 +1272,16 @@
         <v>545</v>
       </c>
       <c r="Q12" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800</v>
+      </c>
+      <c r="R12" t="str">
         <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000</v>
-      </c>
-      <c r="R12" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":90,"9":70</v>
       </c>
       <c r="S12" t="str">
         <f t="shared" si="1"/>
-        <v>"11":3000</v>
+        <v>"11":4800</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="2"/>
@@ -1316,8 +1307,7 @@
         <v>10.75</v>
       </c>
       <c r="F13">
-        <f t="shared" si="5"/>
-        <v>3200</v>
+        <v>4600</v>
       </c>
       <c r="G13" t="s">
         <v>7</v>
@@ -1332,7 +1322,7 @@
         <v>200</v>
       </c>
       <c r="O13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2070</v>
       </c>
       <c r="P13">
@@ -1340,16 +1330,16 @@
         <v>745</v>
       </c>
       <c r="Q13" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600</v>
+      </c>
+      <c r="R13" t="str">
         <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200</v>
-      </c>
-      <c r="R13" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":90,"9":70</v>
       </c>
       <c r="S13" t="str">
         <f t="shared" si="1"/>
-        <v>"12":3200</v>
+        <v>"12":4600</v>
       </c>
       <c r="T13" t="str">
         <f t="shared" si="2"/>
@@ -1375,8 +1365,7 @@
         <v>11.5</v>
       </c>
       <c r="F14">
-        <f t="shared" si="5"/>
-        <v>3400</v>
+        <v>4900</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -1391,7 +1380,7 @@
         <v>670</v>
       </c>
       <c r="O14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2740</v>
       </c>
       <c r="P14">
@@ -1399,16 +1388,16 @@
         <v>745</v>
       </c>
       <c r="Q14" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900</v>
+      </c>
+      <c r="R14" t="str">
         <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400</v>
-      </c>
-      <c r="R14" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":90,"9":70</v>
       </c>
       <c r="S14" t="str">
         <f t="shared" si="1"/>
-        <v>"13":3400</v>
+        <v>"13":4900</v>
       </c>
       <c r="T14" t="str">
         <f t="shared" si="2"/>
@@ -1434,8 +1423,7 @@
         <v>13.25</v>
       </c>
       <c r="F15">
-        <f t="shared" si="5"/>
-        <v>3600</v>
+        <v>12000</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -1444,7 +1432,7 @@
         <v>110</v>
       </c>
       <c r="O15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2740</v>
       </c>
       <c r="P15">
@@ -1452,16 +1440,16 @@
         <v>745</v>
       </c>
       <c r="Q15" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000</v>
+      </c>
+      <c r="R15" t="str">
         <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600</v>
-      </c>
-      <c r="R15" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":90,"9":70,"14":110</v>
       </c>
       <c r="S15" t="str">
         <f t="shared" si="1"/>
-        <v>"14":3600</v>
+        <v>"14":12000</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="2"/>
@@ -1487,8 +1475,7 @@
         <v>12.666666666666666</v>
       </c>
       <c r="F16">
-        <f t="shared" si="5"/>
-        <v>3800</v>
+        <v>6800</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -1503,7 +1490,7 @@
         <v>700</v>
       </c>
       <c r="O16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3440</v>
       </c>
       <c r="P16">
@@ -1511,16 +1498,16 @@
         <v>745</v>
       </c>
       <c r="Q16" t="str">
+        <f t="shared" si="6"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800</v>
+      </c>
+      <c r="R16" t="str">
         <f t="shared" si="7"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800</v>
-      </c>
-      <c r="R16" t="str">
-        <f t="shared" si="8"/>
         <v>,"4":90,"9":70,"14":110</v>
       </c>
       <c r="S16" t="str">
         <f t="shared" si="1"/>
-        <v>"15":3800</v>
+        <v>"15":6800</v>
       </c>
       <c r="T16" t="str">
         <f t="shared" si="2"/>
@@ -1546,8 +1533,7 @@
         <v>13.333333333333334</v>
       </c>
       <c r="F17">
-        <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>6400</v>
       </c>
       <c r="G17" t="s">
         <v>28</v>
@@ -1562,27 +1548,27 @@
         <v>250</v>
       </c>
       <c r="O17">
-        <f t="shared" ref="O17:O73" si="9">O16+M17</f>
+        <f t="shared" ref="O17:O73" si="8">O16+M17</f>
         <v>3440</v>
       </c>
       <c r="P17">
-        <f t="shared" ref="P17:P73" si="10">P16+N17</f>
+        <f t="shared" ref="P17:P73" si="9">P16+N17</f>
         <v>995</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" ref="Q17:Q73" si="11">Q16&amp;","&amp;S17</f>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000</v>
+        <f t="shared" ref="Q17:Q73" si="10">Q16&amp;","&amp;S17</f>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400</v>
       </c>
       <c r="R17" t="str">
-        <f t="shared" ref="R17:R73" si="12">R16&amp;IF(LEN(T17)=0,"",","&amp;T17)</f>
+        <f t="shared" ref="R17:R73" si="11">R16&amp;IF(LEN(T17)=0,"",","&amp;T17)</f>
         <v>,"4":90,"9":70,"14":110</v>
       </c>
       <c r="S17" t="str">
-        <f t="shared" ref="S17:S73" si="13">""""&amp;$A17&amp;""""&amp;""&amp;":"&amp;F17</f>
-        <v>"16":4000</v>
+        <f t="shared" ref="S17:S73" si="12">""""&amp;$A17&amp;""""&amp;""&amp;":"&amp;F17</f>
+        <v>"16":6400</v>
       </c>
       <c r="T17" t="str">
-        <f t="shared" ref="T17:T73" si="14">IF(ISBLANK(J17),"",""""&amp;$A17&amp;""""&amp;""&amp;":"&amp;J17)</f>
+        <f t="shared" ref="T17:T73" si="13">IF(ISBLANK(J17),"",""""&amp;$A17&amp;""""&amp;""&amp;":"&amp;J17)</f>
         <v/>
       </c>
     </row>
@@ -1605,8 +1591,8 @@
         <v>14.444444444444445</v>
       </c>
       <c r="F18">
-        <f t="shared" si="5"/>
-        <v>4200</v>
+        <f t="shared" ref="F18:F27" si="14">F17+200</f>
+        <v>6600</v>
       </c>
       <c r="G18" t="s">
         <v>25</v>
@@ -1630,27 +1616,27 @@
         <v>300</v>
       </c>
       <c r="O18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4240</v>
       </c>
       <c r="P18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1295</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600</v>
       </c>
       <c r="R18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110</v>
       </c>
       <c r="S18" t="str">
-        <f t="shared" si="13"/>
-        <v>"17":4200</v>
+        <f t="shared" si="12"/>
+        <v>"17":6600</v>
       </c>
       <c r="T18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -1673,8 +1659,7 @@
         <v>15.333333333333334</v>
       </c>
       <c r="F19">
-        <f t="shared" si="5"/>
-        <v>4400</v>
+        <v>7000</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
@@ -1689,27 +1674,27 @@
         <v>900</v>
       </c>
       <c r="O19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5140</v>
       </c>
       <c r="P19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1295</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000</v>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110</v>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="13"/>
-        <v>"18":4400</v>
+        <f t="shared" si="12"/>
+        <v>"18":7000</v>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -1732,8 +1717,7 @@
         <v>14.4</v>
       </c>
       <c r="F20">
-        <f t="shared" si="5"/>
-        <v>4600</v>
+        <v>6800</v>
       </c>
       <c r="G20" t="s">
         <v>26</v>
@@ -1748,27 +1732,27 @@
         <v>350</v>
       </c>
       <c r="O20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5140</v>
       </c>
       <c r="P20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1645</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800</v>
       </c>
       <c r="R20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110</v>
       </c>
       <c r="S20" t="str">
-        <f t="shared" si="13"/>
-        <v>"19":4600</v>
+        <f t="shared" si="12"/>
+        <v>"19":6800</v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -1791,8 +1775,7 @@
         <v>15</v>
       </c>
       <c r="F21">
-        <f t="shared" si="5"/>
-        <v>4800</v>
+        <v>7500</v>
       </c>
       <c r="G21" t="s">
         <v>29</v>
@@ -1807,27 +1790,27 @@
         <v>1100</v>
       </c>
       <c r="O21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>6240</v>
       </c>
       <c r="P21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1645</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500</v>
       </c>
       <c r="R21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110</v>
       </c>
       <c r="S21" t="str">
-        <f t="shared" si="13"/>
-        <v>"20":4800</v>
+        <f t="shared" si="12"/>
+        <v>"20":7500</v>
       </c>
       <c r="T21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -1850,8 +1833,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="F22">
-        <f t="shared" si="5"/>
-        <v>5000</v>
+        <v>19500</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
@@ -1860,27 +1842,27 @@
         <v>90</v>
       </c>
       <c r="O22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>6240</v>
       </c>
       <c r="P22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1645</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500</v>
       </c>
       <c r="R22" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90</v>
       </c>
       <c r="S22" t="str">
-        <f t="shared" si="13"/>
-        <v>"21":5000</v>
+        <f t="shared" si="12"/>
+        <v>"21":19500</v>
       </c>
       <c r="T22" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>"21":90</v>
       </c>
     </row>
@@ -1903,8 +1885,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="F23">
-        <f t="shared" si="5"/>
-        <v>5200</v>
+        <v>9000</v>
       </c>
       <c r="G23" t="s">
         <v>29</v>
@@ -1919,27 +1900,27 @@
         <v>1150</v>
       </c>
       <c r="O23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>7390</v>
       </c>
       <c r="P23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1645</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000</v>
       </c>
       <c r="R23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90</v>
       </c>
       <c r="S23" t="str">
-        <f t="shared" si="13"/>
-        <v>"22":5200</v>
+        <f t="shared" si="12"/>
+        <v>"22":9000</v>
       </c>
       <c r="T23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -1962,8 +1943,7 @@
         <v>16.363636363636363</v>
       </c>
       <c r="F24">
-        <f t="shared" si="5"/>
-        <v>5400</v>
+        <v>9400</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
@@ -1978,27 +1958,27 @@
         <v>400</v>
       </c>
       <c r="O24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>7390</v>
       </c>
       <c r="P24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2045</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90</v>
       </c>
       <c r="S24" t="str">
-        <f t="shared" si="13"/>
-        <v>"23":5400</v>
+        <f t="shared" si="12"/>
+        <v>"23":9400</v>
       </c>
       <c r="T24" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -2021,8 +2001,7 @@
         <v>17.09090909090909</v>
       </c>
       <c r="F25">
-        <f t="shared" si="5"/>
-        <v>5600</v>
+        <v>9200</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -2037,27 +2016,27 @@
         <v>1200</v>
       </c>
       <c r="O25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8590</v>
       </c>
       <c r="P25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2045</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200</v>
       </c>
       <c r="R25" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90</v>
       </c>
       <c r="S25" t="str">
-        <f t="shared" si="13"/>
-        <v>"24":5600</v>
+        <f t="shared" si="12"/>
+        <v>"24":9200</v>
       </c>
       <c r="T25" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -2080,8 +2059,7 @@
         <v>18.181818181818183</v>
       </c>
       <c r="F26">
-        <f t="shared" si="5"/>
-        <v>5800</v>
+        <v>9600</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -2105,27 +2083,27 @@
         <v>425</v>
       </c>
       <c r="O26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>9840</v>
       </c>
       <c r="P26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2470</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90</v>
       </c>
       <c r="S26" t="str">
-        <f t="shared" si="13"/>
-        <v>"25":5800</v>
+        <f t="shared" si="12"/>
+        <v>"25":9600</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -2148,8 +2126,8 @@
         <v>18.727272727272727</v>
       </c>
       <c r="F27">
-        <f t="shared" si="5"/>
-        <v>6000</v>
+        <f t="shared" si="14"/>
+        <v>9800</v>
       </c>
       <c r="G27" t="s">
         <v>29</v>
@@ -2164,27 +2142,27 @@
         <v>1300</v>
       </c>
       <c r="O27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>11140</v>
       </c>
       <c r="P27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2470</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800</v>
       </c>
       <c r="R27" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90</v>
       </c>
       <c r="S27" t="str">
-        <f t="shared" si="13"/>
-        <v>"26":6000</v>
+        <f t="shared" si="12"/>
+        <v>"26":9800</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -2207,8 +2185,7 @@
         <v>19.454545454545453</v>
       </c>
       <c r="F28">
-        <f t="shared" si="5"/>
-        <v>6200</v>
+        <v>9500</v>
       </c>
       <c r="G28" t="s">
         <v>28</v>
@@ -2223,27 +2200,27 @@
         <v>450</v>
       </c>
       <c r="O28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>11140</v>
       </c>
       <c r="P28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2920</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500</v>
       </c>
       <c r="R28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90</v>
       </c>
       <c r="S28" t="str">
-        <f t="shared" si="13"/>
-        <v>"27":6200</v>
+        <f t="shared" si="12"/>
+        <v>"27":9500</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -2266,8 +2243,7 @@
         <v>20</v>
       </c>
       <c r="F29">
-        <f t="shared" si="5"/>
-        <v>6400</v>
+        <v>9900</v>
       </c>
       <c r="G29" t="s">
         <v>24</v>
@@ -2282,27 +2258,27 @@
         <v>1350</v>
       </c>
       <c r="O29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>12490</v>
       </c>
       <c r="P29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2920</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900</v>
       </c>
       <c r="R29" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90</v>
       </c>
       <c r="S29" t="str">
-        <f t="shared" si="13"/>
-        <v>"28":6400</v>
+        <f t="shared" si="12"/>
+        <v>"28":9900</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -2325,8 +2301,7 @@
         <v>18.666666666666668</v>
       </c>
       <c r="F30">
-        <f t="shared" si="5"/>
-        <v>6600</v>
+        <v>9600</v>
       </c>
       <c r="G30" t="s">
         <v>28</v>
@@ -2341,27 +2316,27 @@
         <v>467</v>
       </c>
       <c r="O30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>12490</v>
       </c>
       <c r="P30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3387</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90</v>
       </c>
       <c r="S30" t="str">
-        <f t="shared" si="13"/>
-        <v>"29":6600</v>
+        <f t="shared" si="12"/>
+        <v>"29":9600</v>
       </c>
       <c r="T30" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -2384,8 +2359,7 @@
         <v>19.833333333333332</v>
       </c>
       <c r="F31">
-        <f t="shared" si="5"/>
-        <v>6800</v>
+        <v>28000</v>
       </c>
       <c r="G31" t="s">
         <v>30</v>
@@ -2394,27 +2368,27 @@
         <v>100</v>
       </c>
       <c r="O31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>12490</v>
       </c>
       <c r="P31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3387</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000</v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100</v>
       </c>
       <c r="S31" t="str">
-        <f t="shared" si="13"/>
-        <v>"30":6800</v>
+        <f t="shared" si="12"/>
+        <v>"30":28000</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>"30":100</v>
       </c>
     </row>
@@ -2437,8 +2411,7 @@
         <v>20.166666666666668</v>
       </c>
       <c r="F32">
-        <f t="shared" si="5"/>
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -2453,27 +2426,27 @@
         <v>1400</v>
       </c>
       <c r="O32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>13890</v>
       </c>
       <c r="P32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3387</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500</v>
       </c>
       <c r="R32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100</v>
       </c>
       <c r="S32" t="str">
-        <f t="shared" si="13"/>
-        <v>"31":7000</v>
+        <f t="shared" si="12"/>
+        <v>"31":13500</v>
       </c>
       <c r="T32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -2496,8 +2469,7 @@
         <v>20.833333333333332</v>
       </c>
       <c r="F33">
-        <f t="shared" si="5"/>
-        <v>7200</v>
+        <v>13800</v>
       </c>
       <c r="G33" t="s">
         <v>28</v>
@@ -2512,27 +2484,27 @@
         <v>500</v>
       </c>
       <c r="O33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>13890</v>
       </c>
       <c r="P33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3887</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100</v>
       </c>
       <c r="S33" t="str">
-        <f t="shared" si="13"/>
-        <v>"32":7200</v>
+        <f t="shared" si="12"/>
+        <v>"32":13800</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -2555,8 +2527,7 @@
         <v>21.333333333333332</v>
       </c>
       <c r="F34">
-        <f t="shared" si="5"/>
-        <v>7400</v>
+        <v>13200</v>
       </c>
       <c r="G34" t="s">
         <v>29</v>
@@ -2571,27 +2542,27 @@
         <v>1450</v>
       </c>
       <c r="O34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>15340</v>
       </c>
       <c r="P34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3887</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200</v>
       </c>
       <c r="R34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100</v>
       </c>
       <c r="S34" t="str">
-        <f t="shared" si="13"/>
-        <v>"33":7400</v>
+        <f t="shared" si="12"/>
+        <v>"33":13200</v>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -2614,8 +2585,7 @@
         <v>22.166666666666668</v>
       </c>
       <c r="F35">
-        <f t="shared" si="5"/>
-        <v>7600</v>
+        <v>13600</v>
       </c>
       <c r="G35" t="s">
         <v>25</v>
@@ -2639,27 +2609,27 @@
         <v>525</v>
       </c>
       <c r="O35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>16840</v>
       </c>
       <c r="P35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4412</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600</v>
       </c>
       <c r="R35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100</v>
       </c>
       <c r="S35" t="str">
-        <f t="shared" si="13"/>
-        <v>"34":7600</v>
+        <f t="shared" si="12"/>
+        <v>"34":13600</v>
       </c>
       <c r="T35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -2682,8 +2652,7 @@
         <v>22.833333333333332</v>
       </c>
       <c r="F36">
-        <f t="shared" si="5"/>
-        <v>7800</v>
+        <v>13400</v>
       </c>
       <c r="G36" t="s">
         <v>29</v>
@@ -2698,27 +2667,27 @@
         <v>1550</v>
       </c>
       <c r="O36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>18390</v>
       </c>
       <c r="P36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4412</v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400</v>
       </c>
       <c r="R36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100</v>
       </c>
       <c r="S36" t="str">
-        <f t="shared" si="13"/>
-        <v>"35":7800</v>
+        <f t="shared" si="12"/>
+        <v>"35":13400</v>
       </c>
       <c r="T36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -2741,8 +2710,7 @@
         <v>21.384615384615383</v>
       </c>
       <c r="F37">
-        <f t="shared" si="5"/>
-        <v>8000</v>
+        <v>13800</v>
       </c>
       <c r="G37" t="s">
         <v>26</v>
@@ -2757,27 +2725,27 @@
         <v>550</v>
       </c>
       <c r="O37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>18390</v>
       </c>
       <c r="P37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4962</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800</v>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100</v>
       </c>
       <c r="S37" t="str">
-        <f t="shared" si="13"/>
-        <v>"36":8000</v>
+        <f t="shared" si="12"/>
+        <v>"36":13800</v>
       </c>
       <c r="T37" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -2800,8 +2768,7 @@
         <v>21.846153846153847</v>
       </c>
       <c r="F38">
-        <f t="shared" si="5"/>
-        <v>8200</v>
+        <v>13600</v>
       </c>
       <c r="G38" t="s">
         <v>29</v>
@@ -2816,27 +2783,27 @@
         <v>1600</v>
       </c>
       <c r="O38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>19990</v>
       </c>
       <c r="P38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4962</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600</v>
       </c>
       <c r="R38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100</v>
       </c>
       <c r="S38" t="str">
-        <f t="shared" si="13"/>
-        <v>"37":8200</v>
+        <f t="shared" si="12"/>
+        <v>"37":13600</v>
       </c>
       <c r="T38" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -2859,8 +2826,7 @@
         <v>22.307692307692307</v>
       </c>
       <c r="F39">
-        <f t="shared" si="5"/>
-        <v>8400</v>
+        <v>13900</v>
       </c>
       <c r="G39" t="s">
         <v>28</v>
@@ -2875,27 +2841,27 @@
         <v>567</v>
       </c>
       <c r="O39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>19990</v>
       </c>
       <c r="P39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5529</v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900</v>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100</v>
       </c>
       <c r="S39" t="str">
-        <f t="shared" si="13"/>
-        <v>"38":8400</v>
+        <f t="shared" si="12"/>
+        <v>"38":13900</v>
       </c>
       <c r="T39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -2918,8 +2884,7 @@
         <v>22.923076923076923</v>
       </c>
       <c r="F40">
-        <f t="shared" si="5"/>
-        <v>8600</v>
+        <v>13700</v>
       </c>
       <c r="G40" t="s">
         <v>24</v>
@@ -2934,27 +2899,27 @@
         <v>1650</v>
       </c>
       <c r="O40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>21640</v>
       </c>
       <c r="P40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5529</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100</v>
       </c>
       <c r="S40" t="str">
-        <f t="shared" si="13"/>
-        <v>"39":8600</v>
+        <f t="shared" si="12"/>
+        <v>"39":13700</v>
       </c>
       <c r="T40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -2977,8 +2942,7 @@
         <v>24.307692307692307</v>
       </c>
       <c r="F41">
-        <f t="shared" si="5"/>
-        <v>8800</v>
+        <v>37500</v>
       </c>
       <c r="G41" t="s">
         <v>27</v>
@@ -2987,27 +2951,27 @@
         <v>120</v>
       </c>
       <c r="O41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>21640</v>
       </c>
       <c r="P41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5529</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120</v>
       </c>
       <c r="S41" t="str">
-        <f t="shared" si="13"/>
-        <v>"40":8800</v>
+        <f t="shared" si="12"/>
+        <v>"40":37500</v>
       </c>
       <c r="T41" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>"40":120</v>
       </c>
     </row>
@@ -3030,8 +2994,7 @@
         <v>24.923076923076923</v>
       </c>
       <c r="F42">
-        <f t="shared" si="5"/>
-        <v>9000</v>
+        <v>17700</v>
       </c>
       <c r="G42" t="s">
         <v>24</v>
@@ -3046,27 +3009,27 @@
         <v>1800</v>
       </c>
       <c r="O42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>23440</v>
       </c>
       <c r="P42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5529</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120</v>
       </c>
       <c r="S42" t="str">
-        <f t="shared" si="13"/>
-        <v>"41":9000</v>
+        <f t="shared" si="12"/>
+        <v>"41":17700</v>
       </c>
       <c r="T42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -3089,8 +3052,7 @@
         <v>25.384615384615383</v>
       </c>
       <c r="F43">
-        <f t="shared" si="5"/>
-        <v>9200</v>
+        <v>17500</v>
       </c>
       <c r="G43" t="s">
         <v>26</v>
@@ -3105,27 +3067,27 @@
         <v>583</v>
       </c>
       <c r="O43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>23440</v>
       </c>
       <c r="P43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>6112</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500</v>
       </c>
       <c r="R43" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120</v>
       </c>
       <c r="S43" t="str">
-        <f t="shared" si="13"/>
-        <v>"42":9200</v>
+        <f t="shared" si="12"/>
+        <v>"42":17500</v>
       </c>
       <c r="T43" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -3148,8 +3110,7 @@
         <v>26.307692307692307</v>
       </c>
       <c r="F44">
-        <f t="shared" si="5"/>
-        <v>9400</v>
+        <v>17900</v>
       </c>
       <c r="G44" t="s">
         <v>25</v>
@@ -3173,27 +3134,27 @@
         <v>600</v>
       </c>
       <c r="O44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25440</v>
       </c>
       <c r="P44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>6712</v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900</v>
       </c>
       <c r="R44" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120</v>
       </c>
       <c r="S44" t="str">
-        <f t="shared" si="13"/>
-        <v>"43":9400</v>
+        <f t="shared" si="12"/>
+        <v>"43":17900</v>
       </c>
       <c r="T44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -3216,8 +3177,7 @@
         <v>25</v>
       </c>
       <c r="F45">
-        <f t="shared" si="5"/>
-        <v>9600</v>
+        <v>17300</v>
       </c>
       <c r="G45" t="s">
         <v>24</v>
@@ -3232,27 +3192,27 @@
         <v>2100</v>
       </c>
       <c r="O45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>27540</v>
       </c>
       <c r="P45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>6712</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300</v>
       </c>
       <c r="R45" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120</v>
       </c>
       <c r="S45" t="str">
-        <f t="shared" si="13"/>
-        <v>"44":9600</v>
+        <f t="shared" si="12"/>
+        <v>"44":17300</v>
       </c>
       <c r="T45" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -3275,8 +3235,7 @@
         <v>26.428571428571427</v>
       </c>
       <c r="F46">
-        <f t="shared" si="5"/>
-        <v>9800</v>
+        <v>45000</v>
       </c>
       <c r="G46" t="s">
         <v>27</v>
@@ -3285,27 +3244,27 @@
         <v>100</v>
       </c>
       <c r="O46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>27540</v>
       </c>
       <c r="P46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>6712</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000</v>
       </c>
       <c r="R46" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100</v>
       </c>
       <c r="S46" t="str">
-        <f t="shared" si="13"/>
-        <v>"45":9800</v>
+        <f t="shared" si="12"/>
+        <v>"45":45000</v>
       </c>
       <c r="T46" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>"45":100</v>
       </c>
     </row>
@@ -3328,8 +3287,7 @@
         <v>27</v>
       </c>
       <c r="F47">
-        <f t="shared" si="5"/>
-        <v>10000</v>
+        <v>22300</v>
       </c>
       <c r="G47" t="s">
         <v>29</v>
@@ -3344,27 +3302,27 @@
         <v>2200</v>
       </c>
       <c r="O47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>29740</v>
       </c>
       <c r="P47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>6712</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300</v>
       </c>
       <c r="R47" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100</v>
       </c>
       <c r="S47" t="str">
-        <f t="shared" si="13"/>
-        <v>"46":10000</v>
+        <f t="shared" si="12"/>
+        <v>"46":22300</v>
       </c>
       <c r="T47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -3387,8 +3345,7 @@
         <v>27.285714285714285</v>
       </c>
       <c r="F48">
-        <f t="shared" si="5"/>
-        <v>10200</v>
+        <v>22800</v>
       </c>
       <c r="G48" t="s">
         <v>28</v>
@@ -3403,27 +3360,27 @@
         <v>650</v>
       </c>
       <c r="O48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>29740</v>
       </c>
       <c r="P48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7362</v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800</v>
       </c>
       <c r="R48" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100</v>
       </c>
       <c r="S48" t="str">
-        <f t="shared" si="13"/>
-        <v>"47":10200</v>
+        <f t="shared" si="12"/>
+        <v>"47":22800</v>
       </c>
       <c r="T48" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -3446,8 +3403,7 @@
         <v>28</v>
       </c>
       <c r="F49">
-        <f t="shared" si="5"/>
-        <v>10400</v>
+        <v>23200</v>
       </c>
       <c r="G49" t="s">
         <v>25</v>
@@ -3471,27 +3427,27 @@
         <v>675</v>
       </c>
       <c r="O49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>32040</v>
       </c>
       <c r="P49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>8037</v>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200</v>
       </c>
       <c r="R49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100</v>
       </c>
       <c r="S49" t="str">
-        <f t="shared" si="13"/>
-        <v>"48":10400</v>
+        <f t="shared" si="12"/>
+        <v>"48":23200</v>
       </c>
       <c r="T49" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -3514,8 +3470,7 @@
         <v>28.285714285714285</v>
       </c>
       <c r="F50">
-        <f t="shared" si="5"/>
-        <v>10600</v>
+        <v>23000</v>
       </c>
       <c r="G50" t="s">
         <v>29</v>
@@ -3530,27 +3485,27 @@
         <v>2350</v>
       </c>
       <c r="O50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>34390</v>
       </c>
       <c r="P50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>8037</v>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000</v>
       </c>
       <c r="R50" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100</v>
       </c>
       <c r="S50" t="str">
-        <f t="shared" si="13"/>
-        <v>"49":10600</v>
+        <f t="shared" si="12"/>
+        <v>"49":23000</v>
       </c>
       <c r="T50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -3573,8 +3528,7 @@
         <v>28.714285714285715</v>
       </c>
       <c r="F51">
-        <f t="shared" si="5"/>
-        <v>10800</v>
+        <v>22700</v>
       </c>
       <c r="G51" t="s">
         <v>28</v>
@@ -3589,27 +3543,27 @@
         <v>750</v>
       </c>
       <c r="O51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>34390</v>
       </c>
       <c r="P51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>8787</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700</v>
       </c>
       <c r="R51" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100</v>
       </c>
       <c r="S51" t="str">
-        <f t="shared" si="13"/>
-        <v>"50":10800</v>
+        <f t="shared" si="12"/>
+        <v>"50":22700</v>
       </c>
       <c r="T51" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -3632,8 +3586,7 @@
         <v>29.142857142857142</v>
       </c>
       <c r="F52">
-        <f t="shared" si="5"/>
-        <v>11000</v>
+        <v>23200</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
@@ -3648,27 +3601,27 @@
         <v>2500</v>
       </c>
       <c r="O52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>36890</v>
       </c>
       <c r="P52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>8787</v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200</v>
       </c>
       <c r="R52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100</v>
       </c>
       <c r="S52" t="str">
-        <f t="shared" si="13"/>
-        <v>"51":11000</v>
+        <f t="shared" si="12"/>
+        <v>"51":23200</v>
       </c>
       <c r="T52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -3691,8 +3644,7 @@
         <v>29.857142857142858</v>
       </c>
       <c r="F53">
-        <f t="shared" si="5"/>
-        <v>11200</v>
+        <v>24000</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -3716,27 +3668,27 @@
         <v>775</v>
       </c>
       <c r="O53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>39440</v>
       </c>
       <c r="P53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9562</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200,"52":24000</v>
       </c>
       <c r="R53" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100</v>
       </c>
       <c r="S53" t="str">
-        <f t="shared" si="13"/>
-        <v>"52":11200</v>
+        <f t="shared" si="12"/>
+        <v>"52":24000</v>
       </c>
       <c r="T53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -3759,8 +3711,7 @@
         <v>28.133333333333333</v>
       </c>
       <c r="F54">
-        <f t="shared" si="5"/>
-        <v>11400</v>
+        <v>23500</v>
       </c>
       <c r="G54" t="s">
         <v>29</v>
@@ -3775,27 +3726,27 @@
         <v>2600</v>
       </c>
       <c r="O54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>42040</v>
       </c>
       <c r="P54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9562</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200,"52":24000,"53":23500</v>
       </c>
       <c r="R54" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100</v>
       </c>
       <c r="S54" t="str">
-        <f t="shared" si="13"/>
-        <v>"53":11400</v>
+        <f t="shared" si="12"/>
+        <v>"53":23500</v>
       </c>
       <c r="T54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -3818,8 +3769,7 @@
         <v>28.666666666666668</v>
       </c>
       <c r="F55">
-        <f t="shared" si="5"/>
-        <v>11600</v>
+        <v>23800</v>
       </c>
       <c r="G55" t="s">
         <v>26</v>
@@ -3834,27 +3784,27 @@
         <v>800</v>
       </c>
       <c r="O55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>42040</v>
       </c>
       <c r="P55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>10362</v>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200,"52":24000,"53":23500,"54":23800</v>
       </c>
       <c r="R55" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100</v>
       </c>
       <c r="S55" t="str">
-        <f t="shared" si="13"/>
-        <v>"54":11600</v>
+        <f t="shared" si="12"/>
+        <v>"54":23800</v>
       </c>
       <c r="T55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -3877,8 +3827,7 @@
         <v>30.133333333333333</v>
       </c>
       <c r="F56">
-        <f t="shared" si="5"/>
-        <v>11800</v>
+        <v>52000</v>
       </c>
       <c r="G56" t="s">
         <v>27</v>
@@ -3887,27 +3836,27 @@
         <v>150</v>
       </c>
       <c r="O56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>42040</v>
       </c>
       <c r="P56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>10362</v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200,"52":24000,"53":23500,"54":23800,"55":52000</v>
       </c>
       <c r="R56" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150</v>
       </c>
       <c r="S56" t="str">
-        <f t="shared" si="13"/>
-        <v>"55":11800</v>
+        <f t="shared" si="12"/>
+        <v>"55":52000</v>
       </c>
       <c r="T56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>"55":150</v>
       </c>
     </row>
@@ -3930,8 +3879,7 @@
         <v>30.666666666666668</v>
       </c>
       <c r="F57">
-        <f t="shared" si="5"/>
-        <v>12000</v>
+        <v>28500</v>
       </c>
       <c r="G57" t="s">
         <v>24</v>
@@ -3946,27 +3894,27 @@
         <v>3200</v>
       </c>
       <c r="O57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>45240</v>
       </c>
       <c r="P57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>10362</v>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200,"52":24000,"53":23500,"54":23800,"55":52000,"56":28500</v>
       </c>
       <c r="R57" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150</v>
       </c>
       <c r="S57" t="str">
-        <f t="shared" si="13"/>
-        <v>"56":12000</v>
+        <f t="shared" si="12"/>
+        <v>"56":28500</v>
       </c>
       <c r="T57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -3989,8 +3937,7 @@
         <v>31.2</v>
       </c>
       <c r="F58">
-        <f t="shared" si="5"/>
-        <v>12200</v>
+        <v>28000</v>
       </c>
       <c r="G58" t="s">
         <v>28</v>
@@ -4005,27 +3952,27 @@
         <v>900</v>
       </c>
       <c r="O58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>45240</v>
       </c>
       <c r="P58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>11262</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200,"52":24000,"53":23500,"54":23800,"55":52000,"56":28500,"57":28000</v>
       </c>
       <c r="R58" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150</v>
       </c>
       <c r="S58" t="str">
-        <f t="shared" si="13"/>
-        <v>"57":12200</v>
+        <f t="shared" si="12"/>
+        <v>"57":28000</v>
       </c>
       <c r="T58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -4048,8 +3995,7 @@
         <v>31.866666666666667</v>
       </c>
       <c r="F59">
-        <f t="shared" si="5"/>
-        <v>12400</v>
+        <v>28700</v>
       </c>
       <c r="G59" t="s">
         <v>25</v>
@@ -4073,27 +4019,27 @@
         <v>975</v>
       </c>
       <c r="O59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>48540</v>
       </c>
       <c r="P59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>12237</v>
       </c>
       <c r="Q59" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200,"52":24000,"53":23500,"54":23800,"55":52000,"56":28500,"57":28000,"58":28700</v>
       </c>
       <c r="R59" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150</v>
       </c>
       <c r="S59" t="str">
-        <f t="shared" si="13"/>
-        <v>"58":12400</v>
+        <f t="shared" si="12"/>
+        <v>"58":28700</v>
       </c>
       <c r="T59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -4116,8 +4062,7 @@
         <v>32.133333333333333</v>
       </c>
       <c r="F60">
-        <f t="shared" si="5"/>
-        <v>12600</v>
+        <v>28500</v>
       </c>
       <c r="G60" t="s">
         <v>24</v>
@@ -4132,27 +4077,27 @@
         <v>3400</v>
       </c>
       <c r="O60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>51940</v>
       </c>
       <c r="P60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>12237</v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200,"52":24000,"53":23500,"54":23800,"55":52000,"56":28500,"57":28000,"58":28700,"59":28500</v>
       </c>
       <c r="R60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150</v>
       </c>
       <c r="S60" t="str">
-        <f t="shared" si="13"/>
-        <v>"59":12600</v>
+        <f t="shared" si="12"/>
+        <v>"59":28500</v>
       </c>
       <c r="T60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -4175,8 +4120,7 @@
         <v>32.533333333333331</v>
       </c>
       <c r="F61">
-        <f t="shared" si="5"/>
-        <v>12800</v>
+        <v>29200</v>
       </c>
       <c r="G61" t="s">
         <v>28</v>
@@ -4191,27 +4135,27 @@
         <v>1100</v>
       </c>
       <c r="O61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>51940</v>
       </c>
       <c r="P61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>13337</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200,"52":24000,"53":23500,"54":23800,"55":52000,"56":28500,"57":28000,"58":28700,"59":28500,"60":29200</v>
       </c>
       <c r="R61" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150</v>
       </c>
       <c r="S61" t="str">
-        <f t="shared" si="13"/>
-        <v>"60":12800</v>
+        <f t="shared" si="12"/>
+        <v>"60":29200</v>
       </c>
       <c r="T61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -4234,8 +4178,7 @@
         <v>33.06666666666667</v>
       </c>
       <c r="F62">
-        <f t="shared" si="5"/>
-        <v>13000</v>
+        <v>29500</v>
       </c>
       <c r="G62" t="s">
         <v>29</v>
@@ -4250,27 +4193,27 @@
         <v>3800</v>
       </c>
       <c r="O62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>55740</v>
       </c>
       <c r="P62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>13337</v>
       </c>
       <c r="Q62" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200,"52":24000,"53":23500,"54":23800,"55":52000,"56":28500,"57":28000,"58":28700,"59":28500,"60":29200,"61":29500</v>
       </c>
       <c r="R62" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150</v>
       </c>
       <c r="S62" t="str">
-        <f t="shared" si="13"/>
-        <v>"61":13000</v>
+        <f t="shared" si="12"/>
+        <v>"61":29500</v>
       </c>
       <c r="T62" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -4293,8 +4236,7 @@
         <v>31.625</v>
       </c>
       <c r="F63">
-        <f t="shared" si="5"/>
-        <v>13200</v>
+        <v>29000</v>
       </c>
       <c r="G63" t="s">
         <v>25</v>
@@ -4318,27 +4260,27 @@
         <v>1200</v>
       </c>
       <c r="O63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>59590</v>
       </c>
       <c r="P63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>14537</v>
       </c>
       <c r="Q63" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200,"52":24000,"53":23500,"54":23800,"55":52000,"56":28500,"57":28000,"58":28700,"59":28500,"60":29200,"61":29500,"62":29000</v>
       </c>
       <c r="R63" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150</v>
       </c>
       <c r="S63" t="str">
-        <f t="shared" si="13"/>
-        <v>"62":13200</v>
+        <f t="shared" si="12"/>
+        <v>"62":29000</v>
       </c>
       <c r="T63" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -4361,8 +4303,7 @@
         <v>32.125</v>
       </c>
       <c r="F64">
-        <f t="shared" si="5"/>
-        <v>13400</v>
+        <v>29700</v>
       </c>
       <c r="G64" t="s">
         <v>29</v>
@@ -4377,27 +4318,27 @@
         <v>3900</v>
       </c>
       <c r="O64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>63490</v>
       </c>
       <c r="P64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>14537</v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200,"63":13400</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200,"52":24000,"53":23500,"54":23800,"55":52000,"56":28500,"57":28000,"58":28700,"59":28500,"60":29200,"61":29500,"62":29000,"63":29700</v>
       </c>
       <c r="R64" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150</v>
       </c>
       <c r="S64" t="str">
-        <f t="shared" si="13"/>
-        <v>"63":13400</v>
+        <f t="shared" si="12"/>
+        <v>"63":29700</v>
       </c>
       <c r="T64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -4420,8 +4361,7 @@
         <v>32.375</v>
       </c>
       <c r="F65">
-        <f t="shared" si="5"/>
-        <v>13600</v>
+        <v>29500</v>
       </c>
       <c r="G65" t="s">
         <v>28</v>
@@ -4436,27 +4376,27 @@
         <v>1300</v>
       </c>
       <c r="O65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>63490</v>
       </c>
       <c r="P65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15837</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200,"63":13400,"64":13600</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200,"52":24000,"53":23500,"54":23800,"55":52000,"56":28500,"57":28000,"58":28700,"59":28500,"60":29200,"61":29500,"62":29000,"63":29700,"64":29500</v>
       </c>
       <c r="R65" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150</v>
       </c>
       <c r="S65" t="str">
-        <f t="shared" si="13"/>
-        <v>"64":13600</v>
+        <f t="shared" si="12"/>
+        <v>"64":29500</v>
       </c>
       <c r="T65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -4479,8 +4419,7 @@
         <v>32.75</v>
       </c>
       <c r="F66">
-        <f t="shared" si="5"/>
-        <v>13800</v>
+        <v>29900</v>
       </c>
       <c r="G66" t="s">
         <v>29</v>
@@ -4495,27 +4434,27 @@
         <v>4200</v>
       </c>
       <c r="O66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>67690</v>
       </c>
       <c r="P66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15837</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200,"63":13400,"64":13600,"65":13800</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200,"52":24000,"53":23500,"54":23800,"55":52000,"56":28500,"57":28000,"58":28700,"59":28500,"60":29200,"61":29500,"62":29000,"63":29700,"64":29500,"65":29900</v>
       </c>
       <c r="R66" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150</v>
       </c>
       <c r="S66" t="str">
-        <f t="shared" si="13"/>
-        <v>"65":13800</v>
+        <f t="shared" si="12"/>
+        <v>"65":29900</v>
       </c>
       <c r="T66" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -4538,8 +4477,7 @@
         <v>33.75</v>
       </c>
       <c r="F67">
-        <f t="shared" si="5"/>
-        <v>14000</v>
+        <v>64000</v>
       </c>
       <c r="G67" t="s">
         <v>27</v>
@@ -4548,27 +4486,27 @@
         <v>120</v>
       </c>
       <c r="O67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>67690</v>
       </c>
       <c r="P67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15837</v>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200,"63":13400,"64":13600,"65":13800,"66":14000</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200,"52":24000,"53":23500,"54":23800,"55":52000,"56":28500,"57":28000,"58":28700,"59":28500,"60":29200,"61":29500,"62":29000,"63":29700,"64":29500,"65":29900,"66":64000</v>
       </c>
       <c r="R67" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150,"66":120</v>
       </c>
       <c r="S67" t="str">
-        <f t="shared" si="13"/>
-        <v>"66":14000</v>
+        <f t="shared" si="12"/>
+        <v>"66":64000</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>"66":120</v>
       </c>
     </row>
@@ -4591,8 +4529,7 @@
         <v>34.25</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F73" si="17">F67+200</f>
-        <v>14200</v>
+        <v>33000</v>
       </c>
       <c r="G68" t="s">
         <v>29</v>
@@ -4607,27 +4544,27 @@
         <v>4400</v>
       </c>
       <c r="O68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>72090</v>
       </c>
       <c r="P68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15837</v>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200,"63":13400,"64":13600,"65":13800,"66":14000,"67":14200</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200,"52":24000,"53":23500,"54":23800,"55":52000,"56":28500,"57":28000,"58":28700,"59":28500,"60":29200,"61":29500,"62":29000,"63":29700,"64":29500,"65":29900,"66":64000,"67":33000</v>
       </c>
       <c r="R68" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150,"66":120</v>
       </c>
       <c r="S68" t="str">
-        <f t="shared" si="13"/>
-        <v>"67":14200</v>
+        <f t="shared" si="12"/>
+        <v>"67":33000</v>
       </c>
       <c r="T68" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -4650,8 +4587,7 @@
         <v>34.875</v>
       </c>
       <c r="F69">
-        <f t="shared" si="17"/>
-        <v>14400</v>
+        <v>33500</v>
       </c>
       <c r="G69" t="s">
         <v>25</v>
@@ -4675,27 +4611,27 @@
         <v>1500</v>
       </c>
       <c r="O69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>76540</v>
       </c>
       <c r="P69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>17337</v>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200,"63":13400,"64":13600,"65":13800,"66":14000,"67":14200,"68":14400</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200,"52":24000,"53":23500,"54":23800,"55":52000,"56":28500,"57":28000,"58":28700,"59":28500,"60":29200,"61":29500,"62":29000,"63":29700,"64":29500,"65":29900,"66":64000,"67":33000,"68":33500</v>
       </c>
       <c r="R69" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150,"66":120</v>
       </c>
       <c r="S69" t="str">
-        <f t="shared" si="13"/>
-        <v>"68":14400</v>
+        <f t="shared" si="12"/>
+        <v>"68":33500</v>
       </c>
       <c r="T69" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -4718,8 +4654,7 @@
         <v>35.375</v>
       </c>
       <c r="F70">
-        <f t="shared" si="17"/>
-        <v>14600</v>
+        <v>33800</v>
       </c>
       <c r="G70" t="s">
         <v>29</v>
@@ -4734,27 +4669,27 @@
         <v>4500</v>
       </c>
       <c r="O70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>81040</v>
       </c>
       <c r="P70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>17337</v>
       </c>
       <c r="Q70" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200,"63":13400,"64":13600,"65":13800,"66":14000,"67":14200,"68":14400,"69":14600</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200,"52":24000,"53":23500,"54":23800,"55":52000,"56":28500,"57":28000,"58":28700,"59":28500,"60":29200,"61":29500,"62":29000,"63":29700,"64":29500,"65":29900,"66":64000,"67":33000,"68":33500,"69":33800</v>
       </c>
       <c r="R70" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150,"66":120</v>
       </c>
       <c r="S70" t="str">
-        <f t="shared" si="13"/>
-        <v>"69":14600</v>
+        <f t="shared" si="12"/>
+        <v>"69":33800</v>
       </c>
       <c r="T70" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -4777,8 +4712,7 @@
         <v>36</v>
       </c>
       <c r="F71">
-        <f t="shared" si="17"/>
-        <v>14800</v>
+        <v>34500</v>
       </c>
       <c r="G71" t="s">
         <v>31</v>
@@ -4802,27 +4736,27 @@
         <v>1900</v>
       </c>
       <c r="O71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>85590</v>
       </c>
       <c r="P71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>19237</v>
       </c>
       <c r="Q71" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200,"63":13400,"64":13600,"65":13800,"66":14000,"67":14200,"68":14400,"69":14600,"70":14800</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200,"52":24000,"53":23500,"54":23800,"55":52000,"56":28500,"57":28000,"58":28700,"59":28500,"60":29200,"61":29500,"62":29000,"63":29700,"64":29500,"65":29900,"66":64000,"67":33000,"68":33500,"69":33800,"70":34500</v>
       </c>
       <c r="R71" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150,"66":120</v>
       </c>
       <c r="S71" t="str">
-        <f t="shared" si="13"/>
-        <v>"70":14800</v>
+        <f t="shared" si="12"/>
+        <v>"70":34500</v>
       </c>
       <c r="T71" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -4845,8 +4779,7 @@
         <v>36.5</v>
       </c>
       <c r="F72">
-        <f t="shared" si="17"/>
-        <v>15000</v>
+        <v>34200</v>
       </c>
       <c r="G72" t="s">
         <v>24</v>
@@ -4861,27 +4794,27 @@
         <v>4600</v>
       </c>
       <c r="O72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>90190</v>
       </c>
       <c r="P72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>19237</v>
       </c>
       <c r="Q72" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200,"63":13400,"64":13600,"65":13800,"66":14000,"67":14200,"68":14400,"69":14600,"70":14800,"71":15000</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200,"52":24000,"53":23500,"54":23800,"55":52000,"56":28500,"57":28000,"58":28700,"59":28500,"60":29200,"61":29500,"62":29000,"63":29700,"64":29500,"65":29900,"66":64000,"67":33000,"68":33500,"69":33800,"70":34500,"71":34200</v>
       </c>
       <c r="R72" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150,"66":120</v>
       </c>
       <c r="S72" t="str">
-        <f t="shared" si="13"/>
-        <v>"71":15000</v>
+        <f t="shared" si="12"/>
+        <v>"71":34200</v>
       </c>
       <c r="T72" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -4904,8 +4837,7 @@
         <v>37</v>
       </c>
       <c r="F73">
-        <f t="shared" si="17"/>
-        <v>15200</v>
+        <v>35000</v>
       </c>
       <c r="G73" t="s">
         <v>28</v>
@@ -4920,27 +4852,27 @@
         <v>2100</v>
       </c>
       <c r="O73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>90190</v>
       </c>
       <c r="P73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>21337</v>
       </c>
       <c r="Q73" t="str">
-        <f t="shared" si="11"/>
-        <v>"1":1000,"2":1200,"3":1400,"4":1600,"5":1800,"6":2000,"7":2200,"8":2400,"9":2600,"10":2800,"11":3000,"12":3200,"13":3400,"14":3600,"15":3800,"16":4000,"17":4200,"18":4400,"19":4600,"20":4800,"21":5000,"22":5200,"23":5400,"24":5600,"25":5800,"26":6000,"27":6200,"28":6400,"29":6600,"30":6800,"31":7000,"32":7200,"33":7400,"34":7600,"35":7800,"36":8000,"37":8200,"38":8400,"39":8600,"40":8800,"41":9000,"42":9200,"43":9400,"44":9600,"45":9800,"46":10000,"47":10200,"48":10400,"49":10600,"50":10800,"51":11000,"52":11200,"53":11400,"54":11600,"55":11800,"56":12000,"57":12200,"58":12400,"59":12600,"60":12800,"61":13000,"62":13200,"63":13400,"64":13600,"65":13800,"66":14000,"67":14200,"68":14400,"69":14600,"70":14800,"71":15000,"72":15200</v>
+        <f t="shared" si="10"/>
+        <v>"1":2000,"2":2200,"3":1700,"4":5000,"5":2400,"6":2100,"7":2800,"8":2600,"9":8000,"10":4300,"11":4800,"12":4600,"13":4900,"14":12000,"15":6800,"16":6400,"17":6600,"18":7000,"19":6800,"20":7500,"21":19500,"22":9000,"23":9400,"24":9200,"25":9600,"26":9800,"27":9500,"28":9900,"29":9600,"30":28000,"31":13500,"32":13800,"33":13200,"34":13600,"35":13400,"36":13800,"37":13600,"38":13900,"39":13700,"40":37500,"41":17700,"42":17500,"43":17900,"44":17300,"45":45000,"46":22300,"47":22800,"48":23200,"49":23000,"50":22700,"51":23200,"52":24000,"53":23500,"54":23800,"55":52000,"56":28500,"57":28000,"58":28700,"59":28500,"60":29200,"61":29500,"62":29000,"63":29700,"64":29500,"65":29900,"66":64000,"67":33000,"68":33500,"69":33800,"70":34500,"71":34200,"72":35000</v>
       </c>
       <c r="R73" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>,"4":90,"9":70,"14":110,"21":90,"30":100,"40":120,"45":100,"55":150,"66":120</v>
       </c>
       <c r="S73" t="str">
-        <f t="shared" si="13"/>
-        <v>"72":15200</v>
+        <f t="shared" si="12"/>
+        <v>"72":35000</v>
       </c>
       <c r="T73" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>

--- a/Excel/작업Research.xlsx
+++ b/Excel/작업Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55798E51-9ED1-4AE2-917A-E68289CADA92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E9711F-F794-4B13-A82A-A379CC3876BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -556,7 +556,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -777,7 +777,7 @@
         <v>10</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K4">
         <v>100</v>

--- a/Excel/작업Research.xlsx
+++ b/Excel/작업Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E9711F-F794-4B13-A82A-A379CC3876BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D016A00-0E30-40A9-8F79-D8BD585ABAC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -552,11 +552,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B294627A-88CA-400D-B366-14507FB4AA24}">
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:U77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -655,7 +655,7 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -676,7 +676,7 @@
       </c>
       <c r="O2" t="str">
         <f>Q2</f>
-        <v>"1":2000</v>
+        <v>"1":1500</v>
       </c>
       <c r="P2" t="str">
         <f>R2</f>
@@ -684,7 +684,7 @@
       </c>
       <c r="Q2" t="str">
         <f>""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;F2</f>
-        <v>"1":2000</v>
+        <v>"1":1500</v>
       </c>
       <c r="R2" t="str">
         <f t="shared" ref="R2:R20" si="1">IF(ISBLANK(H2),"",""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;H2)</f>
@@ -694,7 +694,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(O1,COUNTA(O:O)-1,0),1)=",",SUBSTITUTE(OFFSET(O1,COUNTA(O:O)-1,0),",","",1),OFFSET(O1,COUNTA(O:O)-1,0))
 &amp;"}"</f>
-        <v>{"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200,"76":35000}</v>
+        <v>{"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200,"76":35000}</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -716,7 +716,7 @@
         <v>4</v>
       </c>
       <c r="F3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -737,7 +737,7 @@
       </c>
       <c r="O3" t="str">
         <f>O2&amp;","&amp;Q3</f>
-        <v>"1":2000,"2":1400</v>
+        <v>"1":1500,"2":1200</v>
       </c>
       <c r="P3" t="str">
         <f>P2&amp;IF(LEN(R3)=0,"",","&amp;R3)</f>
@@ -745,7 +745,7 @@
       </c>
       <c r="Q3" t="str">
         <f>""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;F3</f>
-        <v>"2":1400</v>
+        <v>"2":1200</v>
       </c>
       <c r="R3" t="str">
         <f t="shared" si="1"/>
@@ -771,7 +771,7 @@
         <v>5.5</v>
       </c>
       <c r="F4">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -792,7 +792,7 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ref="O4:O20" si="5">O3&amp;","&amp;Q4</f>
-        <v>"1":2000,"2":1400,"3":1700</v>
+        <v>"1":1500,"2":1200,"3":1300</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" ref="P4:P20" si="6">P3&amp;IF(LEN(R4)=0,"",","&amp;R4)</f>
@@ -800,7 +800,7 @@
       </c>
       <c r="Q4" t="str">
         <f>""""&amp;$A4&amp;""""&amp;""&amp;":"&amp;F4</f>
-        <v>"3":1700</v>
+        <v>"3":1300</v>
       </c>
       <c r="R4" t="str">
         <f t="shared" si="1"/>
@@ -829,7 +829,7 @@
         <v>4.333333333333333</v>
       </c>
       <c r="F5">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -850,7 +850,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ref="O5:O18" si="9">O4&amp;","&amp;Q5</f>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" ref="P5:P18" si="10">P4&amp;IF(LEN(R5)=0,"",","&amp;R5)</f>
@@ -858,7 +858,7 @@
       </c>
       <c r="Q5" t="str">
         <f t="shared" ref="Q5:Q18" si="11">""""&amp;$A5&amp;""""&amp;""&amp;":"&amp;F5</f>
-        <v>"4":1600</v>
+        <v>"4":1800</v>
       </c>
       <c r="R5" t="str">
         <f t="shared" ref="R5:R18" si="12">IF(ISBLANK(H5),"",""""&amp;$A5&amp;""""&amp;""&amp;":"&amp;H5)</f>
@@ -917,7 +917,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" si="9"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="10"/>
@@ -972,7 +972,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" si="9"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="10"/>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" si="9"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="10"/>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" si="9"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="10"/>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="O10" t="str">
         <f t="shared" si="9"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="10"/>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="O11" t="str">
         <f t="shared" si="9"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100</v>
       </c>
       <c r="P11" t="str">
         <f t="shared" si="10"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="O12" t="str">
         <f t="shared" si="9"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800</v>
       </c>
       <c r="P12" t="str">
         <f t="shared" si="10"/>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="O13" t="str">
         <f t="shared" si="9"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600</v>
       </c>
       <c r="P13" t="str">
         <f t="shared" si="10"/>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="O14" t="str">
         <f t="shared" si="9"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" si="10"/>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="O15" t="str">
         <f t="shared" si="9"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300</v>
       </c>
       <c r="P15" t="str">
         <f t="shared" si="10"/>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="O16" t="str">
         <f t="shared" si="9"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800</v>
       </c>
       <c r="P16" t="str">
         <f t="shared" si="10"/>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="O17" t="str">
         <f t="shared" si="9"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600</v>
       </c>
       <c r="P17" t="str">
         <f t="shared" si="10"/>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="O18" t="str">
         <f t="shared" si="9"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900</v>
       </c>
       <c r="P18" t="str">
         <f t="shared" si="10"/>
@@ -1632,14 +1632,14 @@
       </c>
       <c r="O19" t="str">
         <f t="shared" si="5"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000</v>
       </c>
       <c r="P19" t="str">
         <f t="shared" si="6"/>
         <v>,"13":70,"18":110</v>
       </c>
       <c r="Q19" t="str">
-        <f>""""&amp;$A19&amp;""""&amp;""&amp;":"&amp;F19</f>
+        <f t="shared" ref="Q19:Q50" si="13">""""&amp;$A19&amp;""""&amp;""&amp;":"&amp;F19</f>
         <v>"18":12000</v>
       </c>
       <c r="R19" t="str">
@@ -1687,14 +1687,14 @@
       </c>
       <c r="O20" t="str">
         <f t="shared" si="5"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800</v>
       </c>
       <c r="P20" t="str">
         <f t="shared" si="6"/>
         <v>,"13":70,"18":110</v>
       </c>
       <c r="Q20" t="str">
-        <f>""""&amp;$A20&amp;""""&amp;""&amp;":"&amp;F20</f>
+        <f t="shared" si="13"/>
         <v>"19":6800</v>
       </c>
       <c r="R20" t="str">
@@ -1733,27 +1733,27 @@
         <v>250</v>
       </c>
       <c r="M21">
-        <f t="shared" ref="M21:M77" si="13">M20+K21</f>
+        <f t="shared" ref="M21:M77" si="14">M20+K21</f>
         <v>3440</v>
       </c>
       <c r="N21">
-        <f t="shared" ref="N21:N77" si="14">N20+L21</f>
+        <f t="shared" ref="N21:N77" si="15">N20+L21</f>
         <v>995</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" ref="O21:O77" si="15">O20&amp;","&amp;Q21</f>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400</v>
+        <f t="shared" ref="O21:O77" si="16">O20&amp;","&amp;Q21</f>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" ref="P21:P77" si="16">P20&amp;IF(LEN(R21)=0,"",","&amp;R21)</f>
+        <f t="shared" ref="P21:P77" si="17">P20&amp;IF(LEN(R21)=0,"",","&amp;R21)</f>
         <v>,"13":70,"18":110</v>
       </c>
       <c r="Q21" t="str">
-        <f>""""&amp;$A21&amp;""""&amp;""&amp;":"&amp;F21</f>
+        <f t="shared" si="13"/>
         <v>"20":6400</v>
       </c>
       <c r="R21" t="str">
-        <f t="shared" ref="R21:R77" si="17">IF(ISBLANK(H21),"",""""&amp;$A21&amp;""""&amp;""&amp;":"&amp;H21)</f>
+        <f t="shared" ref="R21:R77" si="18">IF(ISBLANK(H21),"",""""&amp;$A21&amp;""""&amp;""&amp;":"&amp;H21)</f>
         <v/>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
         <v>14.444444444444445</v>
       </c>
       <c r="F22">
-        <f t="shared" ref="F22:F31" si="18">F21+200</f>
+        <f t="shared" ref="F22:F31" si="19">F21+200</f>
         <v>6600</v>
       </c>
       <c r="G22" t="s">
@@ -1795,27 +1795,27 @@
         <v>300</v>
       </c>
       <c r="M22">
+        <f t="shared" si="14"/>
+        <v>4240</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="15"/>
+        <v>1295</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110</v>
+      </c>
+      <c r="Q22" t="str">
         <f t="shared" si="13"/>
-        <v>4240</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="14"/>
-        <v>1295</v>
-      </c>
-      <c r="O22" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600</v>
-      </c>
-      <c r="P22" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110</v>
-      </c>
-      <c r="Q22" t="str">
-        <f>""""&amp;$A22&amp;""""&amp;""&amp;":"&amp;F22</f>
         <v>"21":6600</v>
       </c>
       <c r="R22" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -1850,27 +1850,27 @@
         <v>900</v>
       </c>
       <c r="M23">
+        <f t="shared" si="14"/>
+        <v>5140</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="15"/>
+        <v>1295</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110</v>
+      </c>
+      <c r="Q23" t="str">
         <f t="shared" si="13"/>
-        <v>5140</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="14"/>
-        <v>1295</v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000</v>
-      </c>
-      <c r="P23" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110</v>
-      </c>
-      <c r="Q23" t="str">
-        <f>""""&amp;$A23&amp;""""&amp;""&amp;":"&amp;F23</f>
         <v>"22":7000</v>
       </c>
       <c r="R23" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -1905,27 +1905,27 @@
         <v>350</v>
       </c>
       <c r="M24">
+        <f t="shared" si="14"/>
+        <v>5140</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="15"/>
+        <v>1645</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110</v>
+      </c>
+      <c r="Q24" t="str">
         <f t="shared" si="13"/>
-        <v>5140</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="14"/>
-        <v>1645</v>
-      </c>
-      <c r="O24" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800</v>
-      </c>
-      <c r="P24" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110</v>
-      </c>
-      <c r="Q24" t="str">
-        <f>""""&amp;$A24&amp;""""&amp;""&amp;":"&amp;F24</f>
         <v>"23":6800</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -1960,27 +1960,27 @@
         <v>1100</v>
       </c>
       <c r="M25">
+        <f t="shared" si="14"/>
+        <v>6240</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="15"/>
+        <v>1645</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110</v>
+      </c>
+      <c r="Q25" t="str">
         <f t="shared" si="13"/>
-        <v>6240</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="14"/>
-        <v>1645</v>
-      </c>
-      <c r="O25" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500</v>
-      </c>
-      <c r="P25" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110</v>
-      </c>
-      <c r="Q25" t="str">
-        <f>""""&amp;$A25&amp;""""&amp;""&amp;":"&amp;F25</f>
         <v>"24":7500</v>
       </c>
       <c r="R25" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -2012,27 +2012,27 @@
         <v>90</v>
       </c>
       <c r="M26">
+        <f t="shared" si="14"/>
+        <v>6240</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="15"/>
+        <v>1645</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90</v>
+      </c>
+      <c r="Q26" t="str">
         <f t="shared" si="13"/>
-        <v>6240</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="14"/>
-        <v>1645</v>
-      </c>
-      <c r="O26" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500</v>
-      </c>
-      <c r="P26" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90</v>
-      </c>
-      <c r="Q26" t="str">
-        <f>""""&amp;$A26&amp;""""&amp;""&amp;":"&amp;F26</f>
         <v>"25":19500</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"25":90</v>
       </c>
     </row>
@@ -2067,27 +2067,27 @@
         <v>1150</v>
       </c>
       <c r="M27">
+        <f t="shared" si="14"/>
+        <v>7390</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="15"/>
+        <v>1645</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90</v>
+      </c>
+      <c r="Q27" t="str">
         <f t="shared" si="13"/>
-        <v>7390</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="14"/>
-        <v>1645</v>
-      </c>
-      <c r="O27" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000</v>
-      </c>
-      <c r="P27" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90</v>
-      </c>
-      <c r="Q27" t="str">
-        <f>""""&amp;$A27&amp;""""&amp;""&amp;":"&amp;F27</f>
         <v>"26":9000</v>
       </c>
       <c r="R27" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -2122,27 +2122,27 @@
         <v>400</v>
       </c>
       <c r="M28">
+        <f t="shared" si="14"/>
+        <v>7390</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="15"/>
+        <v>2045</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90</v>
+      </c>
+      <c r="Q28" t="str">
         <f t="shared" si="13"/>
-        <v>7390</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="14"/>
-        <v>2045</v>
-      </c>
-      <c r="O28" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400</v>
-      </c>
-      <c r="P28" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90</v>
-      </c>
-      <c r="Q28" t="str">
-        <f>""""&amp;$A28&amp;""""&amp;""&amp;":"&amp;F28</f>
         <v>"27":9400</v>
       </c>
       <c r="R28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -2177,27 +2177,27 @@
         <v>1200</v>
       </c>
       <c r="M29">
+        <f t="shared" si="14"/>
+        <v>8590</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="15"/>
+        <v>2045</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90</v>
+      </c>
+      <c r="Q29" t="str">
         <f t="shared" si="13"/>
-        <v>8590</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="14"/>
-        <v>2045</v>
-      </c>
-      <c r="O29" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200</v>
-      </c>
-      <c r="P29" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90</v>
-      </c>
-      <c r="Q29" t="str">
-        <f>""""&amp;$A29&amp;""""&amp;""&amp;":"&amp;F29</f>
         <v>"28":9200</v>
       </c>
       <c r="R29" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -2238,27 +2238,27 @@
         <v>425</v>
       </c>
       <c r="M30">
+        <f t="shared" si="14"/>
+        <v>9840</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="15"/>
+        <v>2470</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90</v>
+      </c>
+      <c r="Q30" t="str">
         <f t="shared" si="13"/>
-        <v>9840</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="14"/>
-        <v>2470</v>
-      </c>
-      <c r="O30" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600</v>
-      </c>
-      <c r="P30" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90</v>
-      </c>
-      <c r="Q30" t="str">
-        <f>""""&amp;$A30&amp;""""&amp;""&amp;":"&amp;F30</f>
         <v>"29":9600</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
         <v>18.727272727272727</v>
       </c>
       <c r="F31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9800</v>
       </c>
       <c r="G31" t="s">
@@ -2294,27 +2294,27 @@
         <v>1300</v>
       </c>
       <c r="M31">
+        <f t="shared" si="14"/>
+        <v>11140</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="15"/>
+        <v>2470</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90</v>
+      </c>
+      <c r="Q31" t="str">
         <f t="shared" si="13"/>
-        <v>11140</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="14"/>
-        <v>2470</v>
-      </c>
-      <c r="O31" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800</v>
-      </c>
-      <c r="P31" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90</v>
-      </c>
-      <c r="Q31" t="str">
-        <f>""""&amp;$A31&amp;""""&amp;""&amp;":"&amp;F31</f>
         <v>"30":9800</v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -2349,27 +2349,27 @@
         <v>450</v>
       </c>
       <c r="M32">
+        <f t="shared" si="14"/>
+        <v>11140</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="15"/>
+        <v>2920</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90</v>
+      </c>
+      <c r="Q32" t="str">
         <f t="shared" si="13"/>
-        <v>11140</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="14"/>
-        <v>2920</v>
-      </c>
-      <c r="O32" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500</v>
-      </c>
-      <c r="P32" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90</v>
-      </c>
-      <c r="Q32" t="str">
-        <f>""""&amp;$A32&amp;""""&amp;""&amp;":"&amp;F32</f>
         <v>"31":9500</v>
       </c>
       <c r="R32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -2404,27 +2404,27 @@
         <v>1350</v>
       </c>
       <c r="M33">
+        <f t="shared" si="14"/>
+        <v>12490</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="15"/>
+        <v>2920</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90</v>
+      </c>
+      <c r="Q33" t="str">
         <f t="shared" si="13"/>
-        <v>12490</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="14"/>
-        <v>2920</v>
-      </c>
-      <c r="O33" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900</v>
-      </c>
-      <c r="P33" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90</v>
-      </c>
-      <c r="Q33" t="str">
-        <f>""""&amp;$A33&amp;""""&amp;""&amp;":"&amp;F33</f>
         <v>"32":9900</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -2459,27 +2459,27 @@
         <v>467</v>
       </c>
       <c r="M34">
+        <f t="shared" si="14"/>
+        <v>12490</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="15"/>
+        <v>3387</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90</v>
+      </c>
+      <c r="Q34" t="str">
         <f t="shared" si="13"/>
-        <v>12490</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="14"/>
-        <v>3387</v>
-      </c>
-      <c r="O34" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600</v>
-      </c>
-      <c r="P34" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90</v>
-      </c>
-      <c r="Q34" t="str">
-        <f>""""&amp;$A34&amp;""""&amp;""&amp;":"&amp;F34</f>
         <v>"33":9600</v>
       </c>
       <c r="R34" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -2511,27 +2511,27 @@
         <v>100</v>
       </c>
       <c r="M35">
+        <f t="shared" si="14"/>
+        <v>12490</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="15"/>
+        <v>3387</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90,"34":100</v>
+      </c>
+      <c r="Q35" t="str">
         <f t="shared" si="13"/>
-        <v>12490</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="14"/>
-        <v>3387</v>
-      </c>
-      <c r="O35" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000</v>
-      </c>
-      <c r="P35" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
-      </c>
-      <c r="Q35" t="str">
-        <f>""""&amp;$A35&amp;""""&amp;""&amp;":"&amp;F35</f>
         <v>"34":28000</v>
       </c>
       <c r="R35" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"34":100</v>
       </c>
     </row>
@@ -2566,27 +2566,27 @@
         <v>1400</v>
       </c>
       <c r="M36">
+        <f t="shared" si="14"/>
+        <v>13890</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="15"/>
+        <v>3387</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90,"34":100</v>
+      </c>
+      <c r="Q36" t="str">
         <f t="shared" si="13"/>
-        <v>13890</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="14"/>
-        <v>3387</v>
-      </c>
-      <c r="O36" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500</v>
-      </c>
-      <c r="P36" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
-      </c>
-      <c r="Q36" t="str">
-        <f>""""&amp;$A36&amp;""""&amp;""&amp;":"&amp;F36</f>
         <v>"35":13500</v>
       </c>
       <c r="R36" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -2621,27 +2621,27 @@
         <v>500</v>
       </c>
       <c r="M37">
+        <f t="shared" si="14"/>
+        <v>13890</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="15"/>
+        <v>3887</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90,"34":100</v>
+      </c>
+      <c r="Q37" t="str">
         <f t="shared" si="13"/>
-        <v>13890</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="14"/>
-        <v>3887</v>
-      </c>
-      <c r="O37" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800</v>
-      </c>
-      <c r="P37" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
-      </c>
-      <c r="Q37" t="str">
-        <f>""""&amp;$A37&amp;""""&amp;""&amp;":"&amp;F37</f>
         <v>"36":13800</v>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -2676,27 +2676,27 @@
         <v>1450</v>
       </c>
       <c r="M38">
+        <f t="shared" si="14"/>
+        <v>15340</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="15"/>
+        <v>3887</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90,"34":100</v>
+      </c>
+      <c r="Q38" t="str">
         <f t="shared" si="13"/>
-        <v>15340</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="14"/>
-        <v>3887</v>
-      </c>
-      <c r="O38" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200</v>
-      </c>
-      <c r="P38" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
-      </c>
-      <c r="Q38" t="str">
-        <f>""""&amp;$A38&amp;""""&amp;""&amp;":"&amp;F38</f>
         <v>"37":13200</v>
       </c>
       <c r="R38" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -2737,27 +2737,27 @@
         <v>525</v>
       </c>
       <c r="M39">
+        <f t="shared" si="14"/>
+        <v>16840</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="15"/>
+        <v>4412</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90,"34":100</v>
+      </c>
+      <c r="Q39" t="str">
         <f t="shared" si="13"/>
-        <v>16840</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="14"/>
-        <v>4412</v>
-      </c>
-      <c r="O39" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600</v>
-      </c>
-      <c r="P39" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
-      </c>
-      <c r="Q39" t="str">
-        <f>""""&amp;$A39&amp;""""&amp;""&amp;":"&amp;F39</f>
         <v>"38":13600</v>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -2792,27 +2792,27 @@
         <v>1550</v>
       </c>
       <c r="M40">
+        <f t="shared" si="14"/>
+        <v>18390</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="15"/>
+        <v>4412</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90,"34":100</v>
+      </c>
+      <c r="Q40" t="str">
         <f t="shared" si="13"/>
-        <v>18390</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="14"/>
-        <v>4412</v>
-      </c>
-      <c r="O40" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400</v>
-      </c>
-      <c r="P40" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
-      </c>
-      <c r="Q40" t="str">
-        <f>""""&amp;$A40&amp;""""&amp;""&amp;":"&amp;F40</f>
         <v>"39":13400</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -2847,27 +2847,27 @@
         <v>550</v>
       </c>
       <c r="M41">
+        <f t="shared" si="14"/>
+        <v>18390</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="15"/>
+        <v>4962</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90,"34":100</v>
+      </c>
+      <c r="Q41" t="str">
         <f t="shared" si="13"/>
-        <v>18390</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="14"/>
-        <v>4962</v>
-      </c>
-      <c r="O41" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800</v>
-      </c>
-      <c r="P41" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
-      </c>
-      <c r="Q41" t="str">
-        <f>""""&amp;$A41&amp;""""&amp;""&amp;":"&amp;F41</f>
         <v>"40":13800</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -2902,27 +2902,27 @@
         <v>1600</v>
       </c>
       <c r="M42">
+        <f t="shared" si="14"/>
+        <v>19990</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="15"/>
+        <v>4962</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90,"34":100</v>
+      </c>
+      <c r="Q42" t="str">
         <f t="shared" si="13"/>
-        <v>19990</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="14"/>
-        <v>4962</v>
-      </c>
-      <c r="O42" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600</v>
-      </c>
-      <c r="P42" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
-      </c>
-      <c r="Q42" t="str">
-        <f>""""&amp;$A42&amp;""""&amp;""&amp;":"&amp;F42</f>
         <v>"41":13600</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -2957,27 +2957,27 @@
         <v>567</v>
       </c>
       <c r="M43">
+        <f t="shared" si="14"/>
+        <v>19990</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="15"/>
+        <v>5529</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90,"34":100</v>
+      </c>
+      <c r="Q43" t="str">
         <f t="shared" si="13"/>
-        <v>19990</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="14"/>
-        <v>5529</v>
-      </c>
-      <c r="O43" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900</v>
-      </c>
-      <c r="P43" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
-      </c>
-      <c r="Q43" t="str">
-        <f>""""&amp;$A43&amp;""""&amp;""&amp;":"&amp;F43</f>
         <v>"42":13900</v>
       </c>
       <c r="R43" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3012,27 +3012,27 @@
         <v>1650</v>
       </c>
       <c r="M44">
+        <f t="shared" si="14"/>
+        <v>21640</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="15"/>
+        <v>5529</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90,"34":100</v>
+      </c>
+      <c r="Q44" t="str">
         <f t="shared" si="13"/>
-        <v>21640</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="14"/>
-        <v>5529</v>
-      </c>
-      <c r="O44" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700</v>
-      </c>
-      <c r="P44" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
-      </c>
-      <c r="Q44" t="str">
-        <f>""""&amp;$A44&amp;""""&amp;""&amp;":"&amp;F44</f>
         <v>"43":13700</v>
       </c>
       <c r="R44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3064,27 +3064,27 @@
         <v>120</v>
       </c>
       <c r="M45">
+        <f t="shared" si="14"/>
+        <v>21640</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="15"/>
+        <v>5529</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
+      </c>
+      <c r="Q45" t="str">
         <f t="shared" si="13"/>
-        <v>21640</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="14"/>
-        <v>5529</v>
-      </c>
-      <c r="O45" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500</v>
-      </c>
-      <c r="P45" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
-      </c>
-      <c r="Q45" t="str">
-        <f>""""&amp;$A45&amp;""""&amp;""&amp;":"&amp;F45</f>
         <v>"44":37500</v>
       </c>
       <c r="R45" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"44":120</v>
       </c>
     </row>
@@ -3119,27 +3119,27 @@
         <v>1800</v>
       </c>
       <c r="M46">
+        <f t="shared" si="14"/>
+        <v>23440</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="15"/>
+        <v>5529</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
+      </c>
+      <c r="Q46" t="str">
         <f t="shared" si="13"/>
-        <v>23440</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="14"/>
-        <v>5529</v>
-      </c>
-      <c r="O46" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700</v>
-      </c>
-      <c r="P46" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
-      </c>
-      <c r="Q46" t="str">
-        <f>""""&amp;$A46&amp;""""&amp;""&amp;":"&amp;F46</f>
         <v>"45":17700</v>
       </c>
       <c r="R46" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3174,27 +3174,27 @@
         <v>583</v>
       </c>
       <c r="M47">
+        <f t="shared" si="14"/>
+        <v>23440</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="15"/>
+        <v>6112</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
+      </c>
+      <c r="Q47" t="str">
         <f t="shared" si="13"/>
-        <v>23440</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="14"/>
-        <v>6112</v>
-      </c>
-      <c r="O47" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500</v>
-      </c>
-      <c r="P47" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
-      </c>
-      <c r="Q47" t="str">
-        <f>""""&amp;$A47&amp;""""&amp;""&amp;":"&amp;F47</f>
         <v>"46":17500</v>
       </c>
       <c r="R47" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3235,27 +3235,27 @@
         <v>600</v>
       </c>
       <c r="M48">
+        <f t="shared" si="14"/>
+        <v>25440</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="15"/>
+        <v>6712</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
+      </c>
+      <c r="Q48" t="str">
         <f t="shared" si="13"/>
-        <v>25440</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="14"/>
-        <v>6712</v>
-      </c>
-      <c r="O48" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900</v>
-      </c>
-      <c r="P48" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
-      </c>
-      <c r="Q48" t="str">
-        <f>""""&amp;$A48&amp;""""&amp;""&amp;":"&amp;F48</f>
         <v>"47":17900</v>
       </c>
       <c r="R48" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3290,27 +3290,27 @@
         <v>2100</v>
       </c>
       <c r="M49">
+        <f t="shared" si="14"/>
+        <v>27540</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="15"/>
+        <v>6712</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
+      </c>
+      <c r="Q49" t="str">
         <f t="shared" si="13"/>
-        <v>27540</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="14"/>
-        <v>6712</v>
-      </c>
-      <c r="O49" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300</v>
-      </c>
-      <c r="P49" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
-      </c>
-      <c r="Q49" t="str">
-        <f>""""&amp;$A49&amp;""""&amp;""&amp;":"&amp;F49</f>
         <v>"48":17300</v>
       </c>
       <c r="R49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3342,27 +3342,27 @@
         <v>100</v>
       </c>
       <c r="M50">
+        <f t="shared" si="14"/>
+        <v>27540</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="15"/>
+        <v>6712</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="17"/>
+        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
+      </c>
+      <c r="Q50" t="str">
         <f t="shared" si="13"/>
-        <v>27540</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="14"/>
-        <v>6712</v>
-      </c>
-      <c r="O50" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000</v>
-      </c>
-      <c r="P50" t="str">
-        <f t="shared" si="16"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
-      </c>
-      <c r="Q50" t="str">
-        <f>""""&amp;$A50&amp;""""&amp;""&amp;":"&amp;F50</f>
         <v>"49":45000</v>
       </c>
       <c r="R50" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"49":100</v>
       </c>
     </row>
@@ -3397,27 +3397,27 @@
         <v>2200</v>
       </c>
       <c r="M51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>29740</v>
       </c>
       <c r="N51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6712</v>
       </c>
       <c r="O51" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300</v>
       </c>
       <c r="P51" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="Q51" t="str">
-        <f>""""&amp;$A51&amp;""""&amp;""&amp;":"&amp;F51</f>
+        <f t="shared" ref="Q51:Q77" si="20">""""&amp;$A51&amp;""""&amp;""&amp;":"&amp;F51</f>
         <v>"50":22300</v>
       </c>
       <c r="R51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3452,27 +3452,27 @@
         <v>650</v>
       </c>
       <c r="M52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>29740</v>
       </c>
       <c r="N52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7362</v>
       </c>
       <c r="O52" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800</v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="Q52" t="str">
-        <f>""""&amp;$A52&amp;""""&amp;""&amp;":"&amp;F52</f>
+        <f t="shared" si="20"/>
         <v>"51":22800</v>
       </c>
       <c r="R52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3513,27 +3513,27 @@
         <v>675</v>
       </c>
       <c r="M53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>32040</v>
       </c>
       <c r="N53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8037</v>
       </c>
       <c r="O53" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200</v>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="Q53" t="str">
-        <f>""""&amp;$A53&amp;""""&amp;""&amp;":"&amp;F53</f>
+        <f t="shared" si="20"/>
         <v>"52":23200</v>
       </c>
       <c r="R53" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3568,27 +3568,27 @@
         <v>2350</v>
       </c>
       <c r="M54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>34390</v>
       </c>
       <c r="N54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8037</v>
       </c>
       <c r="O54" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000</v>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="Q54" t="str">
-        <f>""""&amp;$A54&amp;""""&amp;""&amp;":"&amp;F54</f>
+        <f t="shared" si="20"/>
         <v>"53":23000</v>
       </c>
       <c r="R54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3623,27 +3623,27 @@
         <v>750</v>
       </c>
       <c r="M55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>34390</v>
       </c>
       <c r="N55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8787</v>
       </c>
       <c r="O55" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700</v>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="Q55" t="str">
-        <f>""""&amp;$A55&amp;""""&amp;""&amp;":"&amp;F55</f>
+        <f t="shared" si="20"/>
         <v>"54":22700</v>
       </c>
       <c r="R55" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3678,27 +3678,27 @@
         <v>2500</v>
       </c>
       <c r="M56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>36890</v>
       </c>
       <c r="N56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8787</v>
       </c>
       <c r="O56" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200</v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="Q56" t="str">
-        <f>""""&amp;$A56&amp;""""&amp;""&amp;":"&amp;F56</f>
+        <f t="shared" si="20"/>
         <v>"55":23200</v>
       </c>
       <c r="R56" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3739,27 +3739,27 @@
         <v>775</v>
       </c>
       <c r="M57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>39440</v>
       </c>
       <c r="N57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9562</v>
       </c>
       <c r="O57" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000</v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="Q57" t="str">
-        <f>""""&amp;$A57&amp;""""&amp;""&amp;":"&amp;F57</f>
+        <f t="shared" si="20"/>
         <v>"56":24000</v>
       </c>
       <c r="R57" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3794,27 +3794,27 @@
         <v>2600</v>
       </c>
       <c r="M58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>42040</v>
       </c>
       <c r="N58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9562</v>
       </c>
       <c r="O58" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500</v>
       </c>
       <c r="P58" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="Q58" t="str">
-        <f>""""&amp;$A58&amp;""""&amp;""&amp;":"&amp;F58</f>
+        <f t="shared" si="20"/>
         <v>"57":23500</v>
       </c>
       <c r="R58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3849,27 +3849,27 @@
         <v>800</v>
       </c>
       <c r="M59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>42040</v>
       </c>
       <c r="N59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10362</v>
       </c>
       <c r="O59" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800</v>
       </c>
       <c r="P59" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="Q59" t="str">
-        <f>""""&amp;$A59&amp;""""&amp;""&amp;":"&amp;F59</f>
+        <f t="shared" si="20"/>
         <v>"58":23800</v>
       </c>
       <c r="R59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3901,27 +3901,27 @@
         <v>150</v>
       </c>
       <c r="M60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>42040</v>
       </c>
       <c r="N60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10362</v>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000</v>
       </c>
       <c r="P60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="Q60" t="str">
-        <f>""""&amp;$A60&amp;""""&amp;""&amp;":"&amp;F60</f>
+        <f t="shared" si="20"/>
         <v>"59":52000</v>
       </c>
       <c r="R60" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"59":150</v>
       </c>
     </row>
@@ -3956,27 +3956,27 @@
         <v>3200</v>
       </c>
       <c r="M61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45240</v>
       </c>
       <c r="N61">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10362</v>
       </c>
       <c r="O61" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500</v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="Q61" t="str">
-        <f>""""&amp;$A61&amp;""""&amp;""&amp;":"&amp;F61</f>
+        <f t="shared" si="20"/>
         <v>"60":28500</v>
       </c>
       <c r="R61" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4011,27 +4011,27 @@
         <v>900</v>
       </c>
       <c r="M62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45240</v>
       </c>
       <c r="N62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11262</v>
       </c>
       <c r="O62" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000</v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="Q62" t="str">
-        <f>""""&amp;$A62&amp;""""&amp;""&amp;":"&amp;F62</f>
+        <f t="shared" si="20"/>
         <v>"61":28000</v>
       </c>
       <c r="R62" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4072,27 +4072,27 @@
         <v>975</v>
       </c>
       <c r="M63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>48540</v>
       </c>
       <c r="N63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12237</v>
       </c>
       <c r="O63" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700</v>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="Q63" t="str">
-        <f>""""&amp;$A63&amp;""""&amp;""&amp;":"&amp;F63</f>
+        <f t="shared" si="20"/>
         <v>"62":28700</v>
       </c>
       <c r="R63" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4127,27 +4127,27 @@
         <v>3400</v>
       </c>
       <c r="M64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>51940</v>
       </c>
       <c r="N64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12237</v>
       </c>
       <c r="O64" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500</v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="Q64" t="str">
-        <f>""""&amp;$A64&amp;""""&amp;""&amp;":"&amp;F64</f>
+        <f t="shared" si="20"/>
         <v>"63":28500</v>
       </c>
       <c r="R64" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4182,27 +4182,27 @@
         <v>1100</v>
       </c>
       <c r="M65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>51940</v>
       </c>
       <c r="N65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13337</v>
       </c>
       <c r="O65" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="Q65" t="str">
-        <f>""""&amp;$A65&amp;""""&amp;""&amp;":"&amp;F65</f>
+        <f t="shared" si="20"/>
         <v>"64":29200</v>
       </c>
       <c r="R65" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4237,27 +4237,27 @@
         <v>3800</v>
       </c>
       <c r="M66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>55740</v>
       </c>
       <c r="N66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13337</v>
       </c>
       <c r="O66" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="Q66" t="str">
-        <f>""""&amp;$A66&amp;""""&amp;""&amp;":"&amp;F66</f>
+        <f t="shared" si="20"/>
         <v>"65":29500</v>
       </c>
       <c r="R66" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4298,27 +4298,27 @@
         <v>1200</v>
       </c>
       <c r="M67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>59590</v>
       </c>
       <c r="N67">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14537</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="Q67" t="str">
-        <f>""""&amp;$A67&amp;""""&amp;""&amp;":"&amp;F67</f>
+        <f t="shared" si="20"/>
         <v>"66":29000</v>
       </c>
       <c r="R67" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B77" si="19">B67+C68</f>
+        <f t="shared" ref="B68:B77" si="21">B67+C68</f>
         <v>514</v>
       </c>
       <c r="C68">
@@ -4353,27 +4353,27 @@
         <v>3900</v>
       </c>
       <c r="M68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>63490</v>
       </c>
       <c r="N68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14537</v>
       </c>
       <c r="O68" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700</v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="Q68" t="str">
-        <f>""""&amp;$A68&amp;""""&amp;""&amp;":"&amp;F68</f>
+        <f t="shared" si="20"/>
         <v>"67":29700</v>
       </c>
       <c r="R68" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4382,7 +4382,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>518</v>
       </c>
       <c r="C69">
@@ -4408,27 +4408,27 @@
         <v>1300</v>
       </c>
       <c r="M69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>63490</v>
       </c>
       <c r="N69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15837</v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="Q69" t="str">
-        <f>""""&amp;$A69&amp;""""&amp;""&amp;":"&amp;F69</f>
+        <f t="shared" si="20"/>
         <v>"68":29500</v>
       </c>
       <c r="R69" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>524</v>
       </c>
       <c r="C70">
@@ -4447,7 +4447,7 @@
         <v>16</v>
       </c>
       <c r="E70">
-        <f t="shared" ref="E70:E77" si="20">B70/D70</f>
+        <f t="shared" ref="E70:E77" si="22">B70/D70</f>
         <v>32.75</v>
       </c>
       <c r="F70">
@@ -4463,27 +4463,27 @@
         <v>4200</v>
       </c>
       <c r="M70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>67690</v>
       </c>
       <c r="N70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15837</v>
       </c>
       <c r="O70" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="Q70" t="str">
-        <f>""""&amp;$A70&amp;""""&amp;""&amp;":"&amp;F70</f>
+        <f t="shared" si="20"/>
         <v>"69":29900</v>
       </c>
       <c r="R70" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>540</v>
       </c>
       <c r="C71">
@@ -4502,7 +4502,7 @@
         <v>16</v>
       </c>
       <c r="E71">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>33.75</v>
       </c>
       <c r="F71">
@@ -4515,27 +4515,27 @@
         <v>120</v>
       </c>
       <c r="M71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>67690</v>
       </c>
       <c r="N71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15837</v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
       </c>
       <c r="Q71" t="str">
-        <f>""""&amp;$A71&amp;""""&amp;""&amp;":"&amp;F71</f>
+        <f t="shared" si="20"/>
         <v>"70":64000</v>
       </c>
       <c r="R71" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"70":120</v>
       </c>
     </row>
@@ -4544,7 +4544,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>548</v>
       </c>
       <c r="C72">
@@ -4554,7 +4554,7 @@
         <v>16</v>
       </c>
       <c r="E72">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>34.25</v>
       </c>
       <c r="F72">
@@ -4570,27 +4570,27 @@
         <v>4400</v>
       </c>
       <c r="M72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>72090</v>
       </c>
       <c r="N72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15837</v>
       </c>
       <c r="O72" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
       </c>
       <c r="Q72" t="str">
-        <f>""""&amp;$A72&amp;""""&amp;""&amp;":"&amp;F72</f>
+        <f t="shared" si="20"/>
         <v>"71":33000</v>
       </c>
       <c r="R72" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4599,7 +4599,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>558</v>
       </c>
       <c r="C73">
@@ -4609,7 +4609,7 @@
         <v>16</v>
       </c>
       <c r="E73">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>34.875</v>
       </c>
       <c r="F73">
@@ -4631,27 +4631,27 @@
         <v>1500</v>
       </c>
       <c r="M73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>76540</v>
       </c>
       <c r="N73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>17337</v>
       </c>
       <c r="O73" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500</v>
       </c>
       <c r="P73" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
       </c>
       <c r="Q73" t="str">
-        <f>""""&amp;$A73&amp;""""&amp;""&amp;":"&amp;F73</f>
+        <f t="shared" si="20"/>
         <v>"72":33500</v>
       </c>
       <c r="R73" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4660,7 +4660,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>566</v>
       </c>
       <c r="C74">
@@ -4670,7 +4670,7 @@
         <v>16</v>
       </c>
       <c r="E74">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>35.375</v>
       </c>
       <c r="F74">
@@ -4686,27 +4686,27 @@
         <v>4500</v>
       </c>
       <c r="M74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>81040</v>
       </c>
       <c r="N74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>17337</v>
       </c>
       <c r="O74" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800</v>
       </c>
       <c r="P74" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
       </c>
       <c r="Q74" t="str">
-        <f>""""&amp;$A74&amp;""""&amp;""&amp;":"&amp;F74</f>
+        <f t="shared" si="20"/>
         <v>"73":33800</v>
       </c>
       <c r="R74" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4715,7 +4715,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>576</v>
       </c>
       <c r="C75">
@@ -4725,7 +4725,7 @@
         <v>16</v>
       </c>
       <c r="E75">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>36</v>
       </c>
       <c r="F75">
@@ -4747,27 +4747,27 @@
         <v>1900</v>
       </c>
       <c r="M75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>85590</v>
       </c>
       <c r="N75">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>19237</v>
       </c>
       <c r="O75" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500</v>
       </c>
       <c r="P75" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
       </c>
       <c r="Q75" t="str">
-        <f>""""&amp;$A75&amp;""""&amp;""&amp;":"&amp;F75</f>
+        <f t="shared" si="20"/>
         <v>"74":34500</v>
       </c>
       <c r="R75" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4776,7 +4776,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>584</v>
       </c>
       <c r="C76">
@@ -4786,7 +4786,7 @@
         <v>16</v>
       </c>
       <c r="E76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>36.5</v>
       </c>
       <c r="F76">
@@ -4802,27 +4802,27 @@
         <v>4600</v>
       </c>
       <c r="M76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>90190</v>
       </c>
       <c r="N76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>19237</v>
       </c>
       <c r="O76" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200</v>
       </c>
       <c r="P76" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
       </c>
       <c r="Q76" t="str">
-        <f>""""&amp;$A76&amp;""""&amp;""&amp;":"&amp;F76</f>
+        <f t="shared" si="20"/>
         <v>"75":34200</v>
       </c>
       <c r="R76" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>592</v>
       </c>
       <c r="C77">
@@ -4841,7 +4841,7 @@
         <v>16</v>
       </c>
       <c r="E77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
       <c r="F77">
@@ -4857,27 +4857,27 @@
         <v>2100</v>
       </c>
       <c r="M77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>90190</v>
       </c>
       <c r="N77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21337</v>
       </c>
       <c r="O77" t="str">
-        <f t="shared" si="15"/>
-        <v>"1":2000,"2":1400,"3":1700,"4":1600,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200,"76":35000</v>
+        <f t="shared" si="16"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200,"76":35000</v>
       </c>
       <c r="P77" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
       </c>
       <c r="Q77" t="str">
-        <f>""""&amp;$A77&amp;""""&amp;""&amp;":"&amp;F77</f>
+        <f t="shared" si="20"/>
         <v>"76":35000</v>
       </c>
       <c r="R77" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>

--- a/Excel/작업Research.xlsx
+++ b/Excel/작업Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDA8634-1B00-4002-B4FE-5463385580F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF036AD-36DD-42FF-A948-EEEAA92622CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -574,7 +574,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -699,7 +699,7 @@
         <v>6</v>
       </c>
       <c r="I2">
-        <f>G2/J2</f>
+        <f t="shared" ref="I2:I33" si="0">G2/J2</f>
         <v>3</v>
       </c>
       <c r="J2">
@@ -738,7 +738,7 @@
         <v>"1":1500</v>
       </c>
       <c r="W2" t="str">
-        <f t="shared" ref="W2:W20" si="0">IF(ISBLANK(M2),"",""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;M2)</f>
+        <f t="shared" ref="W2:W20" si="1">IF(ISBLANK(M2),"",""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;M2)</f>
         <v/>
       </c>
       <c r="Y2" t="str">
@@ -753,13 +753,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="1">IF(LEN(C3)=0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C66" si="2">IF(NOT(ISBLANK(D3)),D3,
+        <f t="shared" ref="B3:B66" si="2">IF(LEN(C3)=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="3">IF(NOT(ISBLANK(D3)),D3,
 IF(ISBLANK(E3),G3,""))</f>
-        <v>8</v>
+        <v/>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
       </c>
       <c r="G3">
         <f>G2+H3</f>
@@ -769,7 +775,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <f>G3/J3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J3">
@@ -792,7 +798,7 @@
         <v>250</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S20" si="3">S2+Q3</f>
+        <f t="shared" ref="S3:S20" si="4">S2+Q3</f>
         <v>20</v>
       </c>
       <c r="T3" t="str">
@@ -808,7 +814,7 @@
         <v>"2":1200</v>
       </c>
       <c r="W3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -817,11 +823,11 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E4">
@@ -831,14 +837,14 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G67" si="4">G3+H4</f>
+        <f t="shared" ref="G4:G67" si="5">G3+H4</f>
         <v>11</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
-        <f>G4/J4</f>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="J4">
@@ -857,19 +863,19 @@
         <v>200</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R20" si="5">R3+P4</f>
+        <f t="shared" ref="R4:R20" si="6">R3+P4</f>
         <v>450</v>
       </c>
       <c r="S4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="T4" t="str">
-        <f t="shared" ref="T4:T20" si="6">T3&amp;","&amp;V4</f>
+        <f t="shared" ref="T4:T20" si="7">T3&amp;","&amp;V4</f>
         <v>"1":1500,"2":1200,"3":1300</v>
       </c>
       <c r="U4" t="str">
-        <f t="shared" ref="U4:U20" si="7">U3&amp;IF(LEN(W4)=0,"",","&amp;W4)</f>
+        <f t="shared" ref="U4:U20" si="8">U3&amp;IF(LEN(W4)=0,"",","&amp;W4)</f>
         <v/>
       </c>
       <c r="V4" t="str">
@@ -877,7 +883,7 @@
         <v>"3":1300</v>
       </c>
       <c r="W4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Y4" t="s">
@@ -889,22 +895,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="G5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <f>G5/J5</f>
+        <f t="shared" si="0"/>
         <v>4.333333333333333</v>
       </c>
       <c r="J5">
@@ -923,27 +929,27 @@
         <v>25</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:R18" si="8">R4+P5</f>
+        <f t="shared" ref="R5:R18" si="9">R4+P5</f>
         <v>450</v>
       </c>
       <c r="S5">
-        <f t="shared" ref="S5:S18" si="9">S4+Q5</f>
+        <f t="shared" ref="S5:S18" si="10">S4+Q5</f>
         <v>45</v>
       </c>
       <c r="T5" t="str">
-        <f t="shared" ref="T5:T18" si="10">T4&amp;","&amp;V5</f>
+        <f t="shared" ref="T5:T18" si="11">T4&amp;","&amp;V5</f>
         <v>"1":1500,"2":1200,"3":1300,"4":1800</v>
       </c>
       <c r="U5" t="str">
-        <f t="shared" ref="U5:U18" si="11">U4&amp;IF(LEN(W5)=0,"",","&amp;W5)</f>
+        <f t="shared" ref="U5:U18" si="12">U4&amp;IF(LEN(W5)=0,"",","&amp;W5)</f>
         <v/>
       </c>
       <c r="V5" t="str">
-        <f t="shared" ref="V5:V18" si="12">""""&amp;$A5&amp;""""&amp;""&amp;":"&amp;K5</f>
+        <f t="shared" ref="V5:V18" si="13">""""&amp;$A5&amp;""""&amp;""&amp;":"&amp;K5</f>
         <v>"4":1800</v>
       </c>
       <c r="W5" t="str">
-        <f t="shared" ref="W5:W18" si="13">IF(ISBLANK(M5),"",""""&amp;$A5&amp;""""&amp;""&amp;":"&amp;M5)</f>
+        <f t="shared" ref="W5:W18" si="14">IF(ISBLANK(M5),"",""""&amp;$A5&amp;""""&amp;""&amp;":"&amp;M5)</f>
         <v/>
       </c>
       <c r="Y5" t="str">
@@ -958,22 +964,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
       </c>
       <c r="G6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6">
-        <f>G6/J6</f>
+        <f t="shared" si="0"/>
         <v>5.666666666666667</v>
       </c>
       <c r="J6">
@@ -998,27 +1010,27 @@
         <v>35</v>
       </c>
       <c r="R6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>620</v>
       </c>
       <c r="S6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="T6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200</v>
       </c>
       <c r="U6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="V6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"5":2200</v>
       </c>
       <c r="W6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -1027,28 +1039,22 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="G7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7">
-        <f>G7/J7</f>
+        <f t="shared" si="0"/>
         <v>7.666666666666667</v>
       </c>
       <c r="J7">
@@ -1067,27 +1073,27 @@
         <v>190</v>
       </c>
       <c r="R7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>810</v>
       </c>
       <c r="S7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="T7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000</v>
       </c>
       <c r="U7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="V7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"6":2000</v>
       </c>
       <c r="W7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -1096,22 +1102,28 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
       </c>
       <c r="G8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8">
-        <f>G8/J8</f>
+        <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
       <c r="J8">
@@ -1130,27 +1142,27 @@
         <v>45</v>
       </c>
       <c r="R8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>810</v>
       </c>
       <c r="S8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>125</v>
       </c>
       <c r="T8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200</v>
       </c>
       <c r="U8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="V8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"7":2200</v>
       </c>
       <c r="W8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -1159,22 +1171,22 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="H9">
         <v>4</v>
       </c>
       <c r="I9">
-        <f>G9/J9</f>
+        <f t="shared" si="0"/>
         <v>7.25</v>
       </c>
       <c r="J9">
@@ -1193,27 +1205,27 @@
         <v>200</v>
       </c>
       <c r="R9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1010</v>
       </c>
       <c r="S9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>125</v>
       </c>
       <c r="T9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100</v>
       </c>
       <c r="U9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="V9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"8":2100</v>
       </c>
       <c r="W9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -1222,11 +1234,11 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E10">
@@ -1236,14 +1248,14 @@
         <v>5</v>
       </c>
       <c r="G10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="H10">
         <v>7</v>
       </c>
       <c r="I10">
-        <f>G10/J10</f>
+        <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
       <c r="J10">
@@ -1268,27 +1280,27 @@
         <v>70</v>
       </c>
       <c r="R10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1290</v>
       </c>
       <c r="S10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>195</v>
       </c>
       <c r="T10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400</v>
       </c>
       <c r="U10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="V10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"9":2400</v>
       </c>
       <c r="W10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -1297,11 +1309,11 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E11">
@@ -1311,14 +1323,14 @@
         <v>5</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11">
-        <f>G11/J11</f>
+        <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
       <c r="J11">
@@ -1337,27 +1349,27 @@
         <v>80</v>
       </c>
       <c r="R11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1290</v>
       </c>
       <c r="S11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>275</v>
       </c>
       <c r="T11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="V11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"10":2100</v>
       </c>
       <c r="W11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -1366,22 +1378,22 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="H12">
         <v>4</v>
       </c>
       <c r="I12">
-        <f>G12/J12</f>
+        <f t="shared" si="0"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="J12">
@@ -1400,27 +1412,27 @@
         <v>400</v>
       </c>
       <c r="R12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1690</v>
       </c>
       <c r="S12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>275</v>
       </c>
       <c r="T12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800</v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="V12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"11":2800</v>
       </c>
       <c r="W12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -1429,11 +1441,11 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E13">
@@ -1443,14 +1455,14 @@
         <v>6</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="H13">
         <v>6</v>
       </c>
       <c r="I13">
-        <f>G13/J13</f>
+        <f t="shared" si="0"/>
         <v>8.6666666666666661</v>
       </c>
       <c r="J13">
@@ -1469,27 +1481,27 @@
         <v>120</v>
       </c>
       <c r="R13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1690</v>
       </c>
       <c r="S13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>395</v>
       </c>
       <c r="T13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="V13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"12":2600</v>
       </c>
       <c r="W13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -1498,22 +1510,22 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="G14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="H14">
         <v>16</v>
       </c>
       <c r="I14">
-        <f>G14/J14</f>
+        <f t="shared" si="0"/>
         <v>11.333333333333334</v>
       </c>
       <c r="J14">
@@ -1529,27 +1541,27 @@
         <v>70</v>
       </c>
       <c r="R14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1690</v>
       </c>
       <c r="S14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>395</v>
       </c>
       <c r="T14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>,"13":70</v>
       </c>
       <c r="V14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"13":8000</v>
       </c>
       <c r="W14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>"13":70</v>
       </c>
     </row>
@@ -1558,11 +1570,11 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E15">
@@ -1572,14 +1584,14 @@
         <v>7</v>
       </c>
       <c r="G15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="H15">
         <v>4</v>
       </c>
       <c r="I15">
-        <f>G15/J15</f>
+        <f t="shared" si="0"/>
         <v>10.285714285714286</v>
       </c>
       <c r="J15">
@@ -1598,27 +1610,27 @@
         <v>150</v>
       </c>
       <c r="R15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1690</v>
       </c>
       <c r="S15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>545</v>
       </c>
       <c r="T15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300</v>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>,"13":70</v>
       </c>
       <c r="V15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"14":4300</v>
       </c>
       <c r="W15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -1627,22 +1639,22 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="G16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="H16">
         <v>8</v>
       </c>
       <c r="I16">
-        <f>G16/J16</f>
+        <f t="shared" si="0"/>
         <v>11.428571428571429</v>
       </c>
       <c r="J16">
@@ -1661,27 +1673,27 @@
         <v>550</v>
       </c>
       <c r="R16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2240</v>
       </c>
       <c r="S16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>545</v>
       </c>
       <c r="T16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800</v>
       </c>
       <c r="U16" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>,"13":70</v>
       </c>
       <c r="V16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"15":4800</v>
       </c>
       <c r="W16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -1690,11 +1702,11 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E17">
@@ -1704,14 +1716,14 @@
         <v>8</v>
       </c>
       <c r="G17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="H17">
         <v>6</v>
       </c>
       <c r="I17">
-        <f>G17/J17</f>
+        <f t="shared" si="0"/>
         <v>10.75</v>
       </c>
       <c r="J17">
@@ -1730,27 +1742,27 @@
         <v>200</v>
       </c>
       <c r="R17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2240</v>
       </c>
       <c r="S17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>745</v>
       </c>
       <c r="T17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600</v>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>,"13":70</v>
       </c>
       <c r="V17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"16":4600</v>
       </c>
       <c r="W17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -1759,11 +1771,11 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E18">
@@ -1773,14 +1785,14 @@
         <v>8</v>
       </c>
       <c r="G18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="H18">
         <v>6</v>
       </c>
       <c r="I18">
-        <f>G18/J18</f>
+        <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
       <c r="J18">
@@ -1799,27 +1811,27 @@
         <v>670</v>
       </c>
       <c r="R18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2910</v>
       </c>
       <c r="S18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>745</v>
       </c>
       <c r="T18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900</v>
       </c>
       <c r="U18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>,"13":70</v>
       </c>
       <c r="V18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"17":4900</v>
       </c>
       <c r="W18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -1828,22 +1840,22 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="G19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
       <c r="H19">
         <v>14</v>
       </c>
       <c r="I19">
-        <f>G19/J19</f>
+        <f t="shared" si="0"/>
         <v>13.25</v>
       </c>
       <c r="J19">
@@ -1859,27 +1871,27 @@
         <v>110</v>
       </c>
       <c r="R19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2910</v>
       </c>
       <c r="S19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>745</v>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000</v>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>,"13":70,"18":110</v>
       </c>
       <c r="V19" t="str">
-        <f t="shared" ref="V19:V50" si="14">""""&amp;$A19&amp;""""&amp;""&amp;":"&amp;K19</f>
+        <f t="shared" ref="V19:V50" si="15">""""&amp;$A19&amp;""""&amp;""&amp;":"&amp;K19</f>
         <v>"18":12000</v>
       </c>
       <c r="W19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"18":110</v>
       </c>
     </row>
@@ -1888,11 +1900,11 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E20">
@@ -1902,14 +1914,14 @@
         <v>9</v>
       </c>
       <c r="G20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>114</v>
       </c>
       <c r="H20">
         <v>8</v>
       </c>
       <c r="I20">
-        <f>G20/J20</f>
+        <f t="shared" si="0"/>
         <v>12.666666666666666</v>
       </c>
       <c r="J20">
@@ -1928,27 +1940,27 @@
         <v>700</v>
       </c>
       <c r="R20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3610</v>
       </c>
       <c r="S20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>745</v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800</v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>,"13":70,"18":110</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>"19":6800</v>
       </c>
       <c r="W20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1957,11 +1969,11 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E21">
@@ -1971,14 +1983,14 @@
         <v>9</v>
       </c>
       <c r="G21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="H21">
         <v>6</v>
       </c>
       <c r="I21">
-        <f>G21/J21</f>
+        <f t="shared" si="0"/>
         <v>13.333333333333334</v>
       </c>
       <c r="J21">
@@ -1997,27 +2009,27 @@
         <v>250</v>
       </c>
       <c r="R21">
-        <f t="shared" ref="R21:R77" si="15">R20+P21</f>
+        <f t="shared" ref="R21:R77" si="16">R20+P21</f>
         <v>3610</v>
       </c>
       <c r="S21">
-        <f t="shared" ref="S21:S77" si="16">S20+Q21</f>
+        <f t="shared" ref="S21:S77" si="17">S20+Q21</f>
         <v>995</v>
       </c>
       <c r="T21" t="str">
-        <f t="shared" ref="T21:T77" si="17">T20&amp;","&amp;V21</f>
+        <f t="shared" ref="T21:T77" si="18">T20&amp;","&amp;V21</f>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400</v>
       </c>
       <c r="U21" t="str">
-        <f t="shared" ref="U21:U77" si="18">U20&amp;IF(LEN(W21)=0,"",","&amp;W21)</f>
+        <f t="shared" ref="U21:U77" si="19">U20&amp;IF(LEN(W21)=0,"",","&amp;W21)</f>
         <v>,"13":70,"18":110</v>
       </c>
       <c r="V21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>"20":6400</v>
       </c>
       <c r="W21" t="str">
-        <f t="shared" ref="W21:W77" si="19">IF(ISBLANK(M21),"",""""&amp;$A21&amp;""""&amp;""&amp;":"&amp;M21)</f>
+        <f t="shared" ref="W21:W77" si="20">IF(ISBLANK(M21),"",""""&amp;$A21&amp;""""&amp;""&amp;":"&amp;M21)</f>
         <v/>
       </c>
     </row>
@@ -2026,29 +2038,29 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="G22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <f>G22/J22</f>
+        <f t="shared" si="0"/>
         <v>14.444444444444445</v>
       </c>
       <c r="J22">
         <v>9</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22:K31" si="20">K21+200</f>
+        <f t="shared" ref="K22:K31" si="21">K21+200</f>
         <v>6600</v>
       </c>
       <c r="L22" t="s">
@@ -2067,27 +2079,27 @@
         <v>300</v>
       </c>
       <c r="R22">
+        <f t="shared" si="16"/>
+        <v>4410</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="17"/>
+        <v>1295</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110</v>
+      </c>
+      <c r="V22" t="str">
         <f t="shared" si="15"/>
-        <v>4410</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="16"/>
-        <v>1295</v>
-      </c>
-      <c r="T22" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600</v>
-      </c>
-      <c r="U22" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110</v>
-      </c>
-      <c r="V22" t="str">
-        <f t="shared" si="14"/>
         <v>"21":6600</v>
       </c>
       <c r="W22" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -2096,11 +2108,11 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E23">
@@ -2110,14 +2122,14 @@
         <v>9</v>
       </c>
       <c r="G23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>138</v>
       </c>
       <c r="H23">
         <v>8</v>
       </c>
       <c r="I23">
-        <f>G23/J23</f>
+        <f t="shared" si="0"/>
         <v>15.333333333333334</v>
       </c>
       <c r="J23">
@@ -2136,27 +2148,27 @@
         <v>900</v>
       </c>
       <c r="R23">
+        <f t="shared" si="16"/>
+        <v>5310</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="17"/>
+        <v>1295</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110</v>
+      </c>
+      <c r="V23" t="str">
         <f t="shared" si="15"/>
-        <v>5310</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="16"/>
-        <v>1295</v>
-      </c>
-      <c r="T23" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000</v>
-      </c>
-      <c r="U23" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110</v>
-      </c>
-      <c r="V23" t="str">
-        <f t="shared" si="14"/>
         <v>"22":7000</v>
       </c>
       <c r="W23" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -2165,22 +2177,22 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
       <c r="G24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>144</v>
       </c>
       <c r="H24">
         <v>6</v>
       </c>
       <c r="I24">
-        <f>G24/J24</f>
+        <f t="shared" si="0"/>
         <v>14.4</v>
       </c>
       <c r="J24">
@@ -2199,27 +2211,27 @@
         <v>350</v>
       </c>
       <c r="R24">
+        <f t="shared" si="16"/>
+        <v>5310</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="17"/>
+        <v>1645</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110</v>
+      </c>
+      <c r="V24" t="str">
         <f t="shared" si="15"/>
-        <v>5310</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="16"/>
-        <v>1645</v>
-      </c>
-      <c r="T24" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800</v>
-      </c>
-      <c r="U24" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110</v>
-      </c>
-      <c r="V24" t="str">
-        <f t="shared" si="14"/>
         <v>"23":6800</v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -2228,11 +2240,11 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E25">
@@ -2242,14 +2254,14 @@
         <v>10</v>
       </c>
       <c r="G25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="H25">
         <v>6</v>
       </c>
       <c r="I25">
-        <f>G25/J25</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="J25">
@@ -2268,27 +2280,27 @@
         <v>1100</v>
       </c>
       <c r="R25">
+        <f t="shared" si="16"/>
+        <v>6410</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="17"/>
+        <v>1645</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110</v>
+      </c>
+      <c r="V25" t="str">
         <f t="shared" si="15"/>
-        <v>6410</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="16"/>
-        <v>1645</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500</v>
-      </c>
-      <c r="U25" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110</v>
-      </c>
-      <c r="V25" t="str">
-        <f t="shared" si="14"/>
         <v>"24":7500</v>
       </c>
       <c r="W25" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -2297,22 +2309,22 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>166</v>
       </c>
       <c r="G26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166</v>
       </c>
       <c r="H26">
         <v>16</v>
       </c>
       <c r="I26">
-        <f>G26/J26</f>
+        <f t="shared" si="0"/>
         <v>16.600000000000001</v>
       </c>
       <c r="J26">
@@ -2328,27 +2340,27 @@
         <v>90</v>
       </c>
       <c r="R26">
+        <f t="shared" si="16"/>
+        <v>6410</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="17"/>
+        <v>1645</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90</v>
+      </c>
+      <c r="V26" t="str">
         <f t="shared" si="15"/>
-        <v>6410</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="16"/>
-        <v>1645</v>
-      </c>
-      <c r="T26" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500</v>
-      </c>
-      <c r="U26" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90</v>
-      </c>
-      <c r="V26" t="str">
-        <f t="shared" si="14"/>
         <v>"25":19500</v>
       </c>
       <c r="W26" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>"25":90</v>
       </c>
     </row>
@@ -2357,11 +2369,11 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E27">
@@ -2371,14 +2383,14 @@
         <v>10</v>
       </c>
       <c r="G27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>174</v>
       </c>
       <c r="H27">
         <v>8</v>
       </c>
       <c r="I27">
-        <f>G27/J27</f>
+        <f t="shared" si="0"/>
         <v>17.399999999999999</v>
       </c>
       <c r="J27">
@@ -2397,27 +2409,27 @@
         <v>1150</v>
       </c>
       <c r="R27">
+        <f t="shared" si="16"/>
+        <v>7560</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="17"/>
+        <v>1645</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90</v>
+      </c>
+      <c r="V27" t="str">
         <f t="shared" si="15"/>
-        <v>7560</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="16"/>
-        <v>1645</v>
-      </c>
-      <c r="T27" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000</v>
-      </c>
-      <c r="U27" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90</v>
-      </c>
-      <c r="V27" t="str">
-        <f t="shared" si="14"/>
         <v>"26":9000</v>
       </c>
       <c r="W27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -2426,22 +2438,22 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="G28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="H28">
         <v>6</v>
       </c>
       <c r="I28">
-        <f>G28/J28</f>
+        <f t="shared" si="0"/>
         <v>16.363636363636363</v>
       </c>
       <c r="J28">
@@ -2460,27 +2472,27 @@
         <v>400</v>
       </c>
       <c r="R28">
+        <f t="shared" si="16"/>
+        <v>7560</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="17"/>
+        <v>2045</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90</v>
+      </c>
+      <c r="V28" t="str">
         <f t="shared" si="15"/>
-        <v>7560</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="16"/>
-        <v>2045</v>
-      </c>
-      <c r="T28" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400</v>
-      </c>
-      <c r="U28" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90</v>
-      </c>
-      <c r="V28" t="str">
-        <f t="shared" si="14"/>
         <v>"27":9400</v>
       </c>
       <c r="W28" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -2489,22 +2501,22 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>188</v>
       </c>
       <c r="G29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>188</v>
       </c>
       <c r="H29">
         <v>8</v>
       </c>
       <c r="I29">
-        <f>G29/J29</f>
+        <f t="shared" si="0"/>
         <v>17.09090909090909</v>
       </c>
       <c r="J29">
@@ -2523,27 +2535,27 @@
         <v>1200</v>
       </c>
       <c r="R29">
+        <f t="shared" si="16"/>
+        <v>8760</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="17"/>
+        <v>2045</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90</v>
+      </c>
+      <c r="V29" t="str">
         <f t="shared" si="15"/>
-        <v>8760</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="16"/>
-        <v>2045</v>
-      </c>
-      <c r="T29" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200</v>
-      </c>
-      <c r="U29" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90</v>
-      </c>
-      <c r="V29" t="str">
-        <f t="shared" si="14"/>
         <v>"28":9200</v>
       </c>
       <c r="W29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -2552,11 +2564,11 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E30">
@@ -2566,14 +2578,14 @@
         <v>11</v>
       </c>
       <c r="G30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="H30">
         <v>12</v>
       </c>
       <c r="I30">
-        <f>G30/J30</f>
+        <f t="shared" si="0"/>
         <v>18.181818181818183</v>
       </c>
       <c r="J30">
@@ -2598,27 +2610,27 @@
         <v>425</v>
       </c>
       <c r="R30">
+        <f t="shared" si="16"/>
+        <v>10010</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="17"/>
+        <v>2470</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90</v>
+      </c>
+      <c r="V30" t="str">
         <f t="shared" si="15"/>
-        <v>10010</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="16"/>
-        <v>2470</v>
-      </c>
-      <c r="T30" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600</v>
-      </c>
-      <c r="U30" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90</v>
-      </c>
-      <c r="V30" t="str">
-        <f t="shared" si="14"/>
         <v>"29":9600</v>
       </c>
       <c r="W30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -2627,29 +2639,29 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>206</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>206</v>
       </c>
       <c r="H31">
         <v>6</v>
       </c>
       <c r="I31">
-        <f>G31/J31</f>
+        <f t="shared" si="0"/>
         <v>18.727272727272727</v>
       </c>
       <c r="J31">
         <v>11</v>
       </c>
       <c r="K31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9800</v>
       </c>
       <c r="L31" t="s">
@@ -2662,27 +2674,27 @@
         <v>1300</v>
       </c>
       <c r="R31">
+        <f t="shared" si="16"/>
+        <v>11310</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="17"/>
+        <v>2470</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90</v>
+      </c>
+      <c r="V31" t="str">
         <f t="shared" si="15"/>
-        <v>11310</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="16"/>
-        <v>2470</v>
-      </c>
-      <c r="T31" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800</v>
-      </c>
-      <c r="U31" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90</v>
-      </c>
-      <c r="V31" t="str">
-        <f t="shared" si="14"/>
         <v>"30":9800</v>
       </c>
       <c r="W31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -2691,22 +2703,22 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>214</v>
       </c>
       <c r="G32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>214</v>
       </c>
       <c r="H32">
         <v>8</v>
       </c>
       <c r="I32">
-        <f>G32/J32</f>
+        <f t="shared" si="0"/>
         <v>19.454545454545453</v>
       </c>
       <c r="J32">
@@ -2725,27 +2737,27 @@
         <v>450</v>
       </c>
       <c r="R32">
+        <f t="shared" si="16"/>
+        <v>11310</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="17"/>
+        <v>2920</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500</v>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90</v>
+      </c>
+      <c r="V32" t="str">
         <f t="shared" si="15"/>
-        <v>11310</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="16"/>
-        <v>2920</v>
-      </c>
-      <c r="T32" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500</v>
-      </c>
-      <c r="U32" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90</v>
-      </c>
-      <c r="V32" t="str">
-        <f t="shared" si="14"/>
         <v>"31":9500</v>
       </c>
       <c r="W32" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -2754,11 +2766,11 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E33">
@@ -2768,14 +2780,14 @@
         <v>11</v>
       </c>
       <c r="G33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>220</v>
       </c>
       <c r="H33">
         <v>6</v>
       </c>
       <c r="I33">
-        <f>G33/J33</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="J33">
@@ -2794,27 +2806,27 @@
         <v>1350</v>
       </c>
       <c r="R33">
+        <f t="shared" si="16"/>
+        <v>12660</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="17"/>
+        <v>2920</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900</v>
+      </c>
+      <c r="U33" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90</v>
+      </c>
+      <c r="V33" t="str">
         <f t="shared" si="15"/>
-        <v>12660</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="16"/>
-        <v>2920</v>
-      </c>
-      <c r="T33" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900</v>
-      </c>
-      <c r="U33" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90</v>
-      </c>
-      <c r="V33" t="str">
-        <f t="shared" si="14"/>
         <v>"32":9900</v>
       </c>
       <c r="W33" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -2823,22 +2835,22 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>224</v>
       </c>
       <c r="G34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>224</v>
       </c>
       <c r="H34">
         <v>4</v>
       </c>
       <c r="I34">
-        <f>G34/J34</f>
+        <f t="shared" ref="I34:I65" si="22">G34/J34</f>
         <v>18.666666666666668</v>
       </c>
       <c r="J34">
@@ -2857,27 +2869,27 @@
         <v>467</v>
       </c>
       <c r="R34">
+        <f t="shared" si="16"/>
+        <v>12660</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="17"/>
+        <v>3387</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600</v>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90</v>
+      </c>
+      <c r="V34" t="str">
         <f t="shared" si="15"/>
-        <v>12660</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="16"/>
-        <v>3387</v>
-      </c>
-      <c r="T34" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600</v>
-      </c>
-      <c r="U34" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90</v>
-      </c>
-      <c r="V34" t="str">
-        <f t="shared" si="14"/>
         <v>"33":9600</v>
       </c>
       <c r="W34" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -2886,11 +2898,11 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E35">
@@ -2900,14 +2912,14 @@
         <v>11</v>
       </c>
       <c r="G35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>238</v>
       </c>
       <c r="H35">
         <v>14</v>
       </c>
       <c r="I35">
-        <f>G35/J35</f>
+        <f t="shared" si="22"/>
         <v>19.833333333333332</v>
       </c>
       <c r="J35">
@@ -2923,27 +2935,27 @@
         <v>100</v>
       </c>
       <c r="R35">
+        <f t="shared" si="16"/>
+        <v>12660</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="17"/>
+        <v>3387</v>
+      </c>
+      <c r="T35" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000</v>
+      </c>
+      <c r="U35" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90,"34":100</v>
+      </c>
+      <c r="V35" t="str">
         <f t="shared" si="15"/>
-        <v>12660</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="16"/>
-        <v>3387</v>
-      </c>
-      <c r="T35" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000</v>
-      </c>
-      <c r="U35" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
-      </c>
-      <c r="V35" t="str">
-        <f t="shared" si="14"/>
         <v>"34":28000</v>
       </c>
       <c r="W35" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>"34":100</v>
       </c>
     </row>
@@ -2952,22 +2964,22 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>242</v>
       </c>
       <c r="G36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>242</v>
       </c>
       <c r="H36">
         <v>4</v>
       </c>
       <c r="I36">
-        <f>G36/J36</f>
+        <f t="shared" si="22"/>
         <v>20.166666666666668</v>
       </c>
       <c r="J36">
@@ -2986,27 +2998,27 @@
         <v>1400</v>
       </c>
       <c r="R36">
+        <f t="shared" si="16"/>
+        <v>14060</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="17"/>
+        <v>3387</v>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500</v>
+      </c>
+      <c r="U36" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90,"34":100</v>
+      </c>
+      <c r="V36" t="str">
         <f t="shared" si="15"/>
-        <v>14060</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="16"/>
-        <v>3387</v>
-      </c>
-      <c r="T36" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500</v>
-      </c>
-      <c r="U36" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
-      </c>
-      <c r="V36" t="str">
-        <f t="shared" si="14"/>
         <v>"35":13500</v>
       </c>
       <c r="W36" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -3015,22 +3027,22 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="G37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>250</v>
       </c>
       <c r="H37">
         <v>8</v>
       </c>
       <c r="I37">
-        <f>G37/J37</f>
+        <f t="shared" si="22"/>
         <v>20.833333333333332</v>
       </c>
       <c r="J37">
@@ -3049,27 +3061,27 @@
         <v>500</v>
       </c>
       <c r="R37">
+        <f t="shared" si="16"/>
+        <v>14060</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="17"/>
+        <v>3887</v>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800</v>
+      </c>
+      <c r="U37" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90,"34":100</v>
+      </c>
+      <c r="V37" t="str">
         <f t="shared" si="15"/>
-        <v>14060</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="16"/>
-        <v>3887</v>
-      </c>
-      <c r="T37" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800</v>
-      </c>
-      <c r="U37" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
-      </c>
-      <c r="V37" t="str">
-        <f t="shared" si="14"/>
         <v>"36":13800</v>
       </c>
       <c r="W37" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -3078,22 +3090,22 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
       <c r="G38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>256</v>
       </c>
       <c r="H38">
         <v>6</v>
       </c>
       <c r="I38">
-        <f>G38/J38</f>
+        <f t="shared" si="22"/>
         <v>21.333333333333332</v>
       </c>
       <c r="J38">
@@ -3112,27 +3124,27 @@
         <v>1450</v>
       </c>
       <c r="R38">
+        <f t="shared" si="16"/>
+        <v>15510</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="17"/>
+        <v>3887</v>
+      </c>
+      <c r="T38" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200</v>
+      </c>
+      <c r="U38" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90,"34":100</v>
+      </c>
+      <c r="V38" t="str">
         <f t="shared" si="15"/>
-        <v>15510</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="16"/>
-        <v>3887</v>
-      </c>
-      <c r="T38" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200</v>
-      </c>
-      <c r="U38" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
-      </c>
-      <c r="V38" t="str">
-        <f t="shared" si="14"/>
         <v>"37":13200</v>
       </c>
       <c r="W38" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -3141,11 +3153,11 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E39">
@@ -3155,14 +3167,14 @@
         <v>12</v>
       </c>
       <c r="G39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>266</v>
       </c>
       <c r="H39">
         <v>10</v>
       </c>
       <c r="I39">
-        <f>G39/J39</f>
+        <f t="shared" si="22"/>
         <v>22.166666666666668</v>
       </c>
       <c r="J39">
@@ -3187,27 +3199,27 @@
         <v>525</v>
       </c>
       <c r="R39">
+        <f t="shared" si="16"/>
+        <v>17010</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="17"/>
+        <v>4412</v>
+      </c>
+      <c r="T39" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600</v>
+      </c>
+      <c r="U39" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90,"34":100</v>
+      </c>
+      <c r="V39" t="str">
         <f t="shared" si="15"/>
-        <v>17010</v>
-      </c>
-      <c r="S39">
-        <f t="shared" si="16"/>
-        <v>4412</v>
-      </c>
-      <c r="T39" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600</v>
-      </c>
-      <c r="U39" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
-      </c>
-      <c r="V39" t="str">
-        <f t="shared" si="14"/>
         <v>"38":13600</v>
       </c>
       <c r="W39" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -3216,22 +3228,22 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>274</v>
       </c>
       <c r="G40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>274</v>
       </c>
       <c r="H40">
         <v>8</v>
       </c>
       <c r="I40">
-        <f>G40/J40</f>
+        <f t="shared" si="22"/>
         <v>22.833333333333332</v>
       </c>
       <c r="J40">
@@ -3250,27 +3262,27 @@
         <v>1550</v>
       </c>
       <c r="R40">
+        <f t="shared" si="16"/>
+        <v>18560</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="17"/>
+        <v>4412</v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400</v>
+      </c>
+      <c r="U40" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90,"34":100</v>
+      </c>
+      <c r="V40" t="str">
         <f t="shared" si="15"/>
-        <v>18560</v>
-      </c>
-      <c r="S40">
-        <f t="shared" si="16"/>
-        <v>4412</v>
-      </c>
-      <c r="T40" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400</v>
-      </c>
-      <c r="U40" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
-      </c>
-      <c r="V40" t="str">
-        <f t="shared" si="14"/>
         <v>"39":13400</v>
       </c>
       <c r="W40" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -3279,22 +3291,22 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>278</v>
       </c>
       <c r="G41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>278</v>
       </c>
       <c r="H41">
         <v>4</v>
       </c>
       <c r="I41">
-        <f>G41/J41</f>
+        <f t="shared" si="22"/>
         <v>21.384615384615383</v>
       </c>
       <c r="J41">
@@ -3313,27 +3325,27 @@
         <v>550</v>
       </c>
       <c r="R41">
+        <f t="shared" si="16"/>
+        <v>18560</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="17"/>
+        <v>4962</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800</v>
+      </c>
+      <c r="U41" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90,"34":100</v>
+      </c>
+      <c r="V41" t="str">
         <f t="shared" si="15"/>
-        <v>18560</v>
-      </c>
-      <c r="S41">
-        <f t="shared" si="16"/>
-        <v>4962</v>
-      </c>
-      <c r="T41" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800</v>
-      </c>
-      <c r="U41" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
-      </c>
-      <c r="V41" t="str">
-        <f t="shared" si="14"/>
         <v>"40":13800</v>
       </c>
       <c r="W41" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -3342,22 +3354,22 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>284</v>
       </c>
       <c r="G42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>284</v>
       </c>
       <c r="H42">
         <v>6</v>
       </c>
       <c r="I42">
-        <f>G42/J42</f>
+        <f t="shared" si="22"/>
         <v>21.846153846153847</v>
       </c>
       <c r="J42">
@@ -3376,27 +3388,27 @@
         <v>1600</v>
       </c>
       <c r="R42">
+        <f t="shared" si="16"/>
+        <v>20160</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="17"/>
+        <v>4962</v>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600</v>
+      </c>
+      <c r="U42" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90,"34":100</v>
+      </c>
+      <c r="V42" t="str">
         <f t="shared" si="15"/>
-        <v>20160</v>
-      </c>
-      <c r="S42">
-        <f t="shared" si="16"/>
-        <v>4962</v>
-      </c>
-      <c r="T42" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600</v>
-      </c>
-      <c r="U42" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
-      </c>
-      <c r="V42" t="str">
-        <f t="shared" si="14"/>
         <v>"41":13600</v>
       </c>
       <c r="W42" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -3405,11 +3417,11 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E43">
@@ -3419,14 +3431,14 @@
         <v>12</v>
       </c>
       <c r="G43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
       <c r="H43">
         <v>6</v>
       </c>
       <c r="I43">
-        <f>G43/J43</f>
+        <f t="shared" si="22"/>
         <v>22.307692307692307</v>
       </c>
       <c r="J43">
@@ -3445,27 +3457,27 @@
         <v>567</v>
       </c>
       <c r="R43">
+        <f t="shared" si="16"/>
+        <v>20160</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="17"/>
+        <v>5529</v>
+      </c>
+      <c r="T43" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900</v>
+      </c>
+      <c r="U43" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90,"34":100</v>
+      </c>
+      <c r="V43" t="str">
         <f t="shared" si="15"/>
-        <v>20160</v>
-      </c>
-      <c r="S43">
-        <f t="shared" si="16"/>
-        <v>5529</v>
-      </c>
-      <c r="T43" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900</v>
-      </c>
-      <c r="U43" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
-      </c>
-      <c r="V43" t="str">
-        <f t="shared" si="14"/>
         <v>"42":13900</v>
       </c>
       <c r="W43" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -3474,22 +3486,22 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>298</v>
       </c>
       <c r="G44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>298</v>
       </c>
       <c r="H44">
         <v>8</v>
       </c>
       <c r="I44">
-        <f>G44/J44</f>
+        <f t="shared" si="22"/>
         <v>22.923076923076923</v>
       </c>
       <c r="J44">
@@ -3508,27 +3520,27 @@
         <v>1650</v>
       </c>
       <c r="R44">
+        <f t="shared" si="16"/>
+        <v>21810</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="17"/>
+        <v>5529</v>
+      </c>
+      <c r="T44" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700</v>
+      </c>
+      <c r="U44" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90,"34":100</v>
+      </c>
+      <c r="V44" t="str">
         <f t="shared" si="15"/>
-        <v>21810</v>
-      </c>
-      <c r="S44">
-        <f t="shared" si="16"/>
-        <v>5529</v>
-      </c>
-      <c r="T44" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700</v>
-      </c>
-      <c r="U44" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
-      </c>
-      <c r="V44" t="str">
-        <f t="shared" si="14"/>
         <v>"43":13700</v>
       </c>
       <c r="W44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -3537,11 +3549,11 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E45">
@@ -3551,14 +3563,14 @@
         <v>13</v>
       </c>
       <c r="G45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>316</v>
       </c>
       <c r="H45">
         <v>18</v>
       </c>
       <c r="I45">
-        <f>G45/J45</f>
+        <f t="shared" si="22"/>
         <v>24.307692307692307</v>
       </c>
       <c r="J45">
@@ -3574,27 +3586,27 @@
         <v>120</v>
       </c>
       <c r="R45">
+        <f t="shared" si="16"/>
+        <v>21810</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="17"/>
+        <v>5529</v>
+      </c>
+      <c r="T45" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500</v>
+      </c>
+      <c r="U45" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
+      </c>
+      <c r="V45" t="str">
         <f t="shared" si="15"/>
-        <v>21810</v>
-      </c>
-      <c r="S45">
-        <f t="shared" si="16"/>
-        <v>5529</v>
-      </c>
-      <c r="T45" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500</v>
-      </c>
-      <c r="U45" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
-      </c>
-      <c r="V45" t="str">
-        <f t="shared" si="14"/>
         <v>"44":37500</v>
       </c>
       <c r="W45" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>"44":120</v>
       </c>
     </row>
@@ -3603,22 +3615,22 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>324</v>
       </c>
       <c r="G46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>324</v>
       </c>
       <c r="H46">
         <v>8</v>
       </c>
       <c r="I46">
-        <f>G46/J46</f>
+        <f t="shared" si="22"/>
         <v>24.923076923076923</v>
       </c>
       <c r="J46">
@@ -3637,27 +3649,27 @@
         <v>1800</v>
       </c>
       <c r="R46">
+        <f t="shared" si="16"/>
+        <v>23610</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="17"/>
+        <v>5529</v>
+      </c>
+      <c r="T46" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700</v>
+      </c>
+      <c r="U46" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
+      </c>
+      <c r="V46" t="str">
         <f t="shared" si="15"/>
-        <v>23610</v>
-      </c>
-      <c r="S46">
-        <f t="shared" si="16"/>
-        <v>5529</v>
-      </c>
-      <c r="T46" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700</v>
-      </c>
-      <c r="U46" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
-      </c>
-      <c r="V46" t="str">
-        <f t="shared" si="14"/>
         <v>"45":17700</v>
       </c>
       <c r="W46" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -3666,22 +3678,22 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>330</v>
       </c>
       <c r="G47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
       <c r="H47">
         <v>6</v>
       </c>
       <c r="I47">
-        <f>G47/J47</f>
+        <f t="shared" si="22"/>
         <v>25.384615384615383</v>
       </c>
       <c r="J47">
@@ -3700,27 +3712,27 @@
         <v>583</v>
       </c>
       <c r="R47">
+        <f t="shared" si="16"/>
+        <v>23610</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="17"/>
+        <v>6112</v>
+      </c>
+      <c r="T47" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500</v>
+      </c>
+      <c r="U47" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
+      </c>
+      <c r="V47" t="str">
         <f t="shared" si="15"/>
-        <v>23610</v>
-      </c>
-      <c r="S47">
-        <f t="shared" si="16"/>
-        <v>6112</v>
-      </c>
-      <c r="T47" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500</v>
-      </c>
-      <c r="U47" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
-      </c>
-      <c r="V47" t="str">
-        <f t="shared" si="14"/>
         <v>"46":17500</v>
       </c>
       <c r="W47" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -3729,22 +3741,22 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>342</v>
       </c>
       <c r="G48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>342</v>
       </c>
       <c r="H48">
         <v>12</v>
       </c>
       <c r="I48">
-        <f>G48/J48</f>
+        <f t="shared" si="22"/>
         <v>26.307692307692307</v>
       </c>
       <c r="J48">
@@ -3769,27 +3781,27 @@
         <v>600</v>
       </c>
       <c r="R48">
+        <f t="shared" si="16"/>
+        <v>25610</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="17"/>
+        <v>6712</v>
+      </c>
+      <c r="T48" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900</v>
+      </c>
+      <c r="U48" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
+      </c>
+      <c r="V48" t="str">
         <f t="shared" si="15"/>
-        <v>25610</v>
-      </c>
-      <c r="S48">
-        <f t="shared" si="16"/>
-        <v>6712</v>
-      </c>
-      <c r="T48" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900</v>
-      </c>
-      <c r="U48" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
-      </c>
-      <c r="V48" t="str">
-        <f t="shared" si="14"/>
         <v>"47":17900</v>
       </c>
       <c r="W48" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -3798,22 +3810,22 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>350</v>
       </c>
       <c r="G49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
       <c r="H49">
         <v>8</v>
       </c>
       <c r="I49">
-        <f>G49/J49</f>
+        <f t="shared" si="22"/>
         <v>25</v>
       </c>
       <c r="J49">
@@ -3832,27 +3844,27 @@
         <v>2100</v>
       </c>
       <c r="R49">
+        <f t="shared" si="16"/>
+        <v>27710</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="17"/>
+        <v>6712</v>
+      </c>
+      <c r="T49" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300</v>
+      </c>
+      <c r="U49" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
+      </c>
+      <c r="V49" t="str">
         <f t="shared" si="15"/>
-        <v>27710</v>
-      </c>
-      <c r="S49">
-        <f t="shared" si="16"/>
-        <v>6712</v>
-      </c>
-      <c r="T49" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300</v>
-      </c>
-      <c r="U49" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
-      </c>
-      <c r="V49" t="str">
-        <f t="shared" si="14"/>
         <v>"48":17300</v>
       </c>
       <c r="W49" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -3861,11 +3873,11 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E50">
@@ -3875,14 +3887,14 @@
         <v>13</v>
       </c>
       <c r="G50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
       <c r="H50">
         <v>20</v>
       </c>
       <c r="I50">
-        <f>G50/J50</f>
+        <f t="shared" si="22"/>
         <v>26.428571428571427</v>
       </c>
       <c r="J50">
@@ -3898,27 +3910,27 @@
         <v>100</v>
       </c>
       <c r="R50">
+        <f t="shared" si="16"/>
+        <v>27710</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="17"/>
+        <v>6712</v>
+      </c>
+      <c r="T50" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000</v>
+      </c>
+      <c r="U50" t="str">
+        <f t="shared" si="19"/>
+        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
+      </c>
+      <c r="V50" t="str">
         <f t="shared" si="15"/>
-        <v>27710</v>
-      </c>
-      <c r="S50">
-        <f t="shared" si="16"/>
-        <v>6712</v>
-      </c>
-      <c r="T50" t="str">
-        <f t="shared" si="17"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000</v>
-      </c>
-      <c r="U50" t="str">
-        <f t="shared" si="18"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
-      </c>
-      <c r="V50" t="str">
-        <f t="shared" si="14"/>
         <v>"49":45000</v>
       </c>
       <c r="W50" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>"49":100</v>
       </c>
     </row>
@@ -3927,22 +3939,22 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>378</v>
       </c>
       <c r="G51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>378</v>
       </c>
       <c r="H51">
         <v>8</v>
       </c>
       <c r="I51">
-        <f>G51/J51</f>
+        <f t="shared" si="22"/>
         <v>27</v>
       </c>
       <c r="J51">
@@ -3961,27 +3973,27 @@
         <v>2200</v>
       </c>
       <c r="R51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29910</v>
       </c>
       <c r="S51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6712</v>
       </c>
       <c r="T51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300</v>
       </c>
       <c r="U51" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="V51" t="str">
-        <f t="shared" ref="V51:V77" si="21">""""&amp;$A51&amp;""""&amp;""&amp;":"&amp;K51</f>
+        <f t="shared" ref="V51:V77" si="23">""""&amp;$A51&amp;""""&amp;""&amp;":"&amp;K51</f>
         <v>"50":22300</v>
       </c>
       <c r="W51" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -3990,22 +4002,22 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>382</v>
       </c>
       <c r="G52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>382</v>
       </c>
       <c r="H52">
         <v>4</v>
       </c>
       <c r="I52">
-        <f>G52/J52</f>
+        <f t="shared" si="22"/>
         <v>27.285714285714285</v>
       </c>
       <c r="J52">
@@ -4024,27 +4036,27 @@
         <v>650</v>
       </c>
       <c r="R52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29910</v>
       </c>
       <c r="S52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7362</v>
       </c>
       <c r="T52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800</v>
       </c>
       <c r="U52" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="V52" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"51":22800</v>
       </c>
       <c r="W52" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -4053,11 +4065,11 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E53">
@@ -4067,14 +4079,14 @@
         <v>13</v>
       </c>
       <c r="G53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>392</v>
       </c>
       <c r="H53">
         <v>10</v>
       </c>
       <c r="I53">
-        <f>G53/J53</f>
+        <f t="shared" si="22"/>
         <v>28</v>
       </c>
       <c r="J53">
@@ -4099,27 +4111,27 @@
         <v>675</v>
       </c>
       <c r="R53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>32210</v>
       </c>
       <c r="S53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8037</v>
       </c>
       <c r="T53" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200</v>
       </c>
       <c r="U53" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="V53" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"52":23200</v>
       </c>
       <c r="W53" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -4128,22 +4140,22 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>396</v>
       </c>
       <c r="G54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>396</v>
       </c>
       <c r="H54">
         <v>4</v>
       </c>
       <c r="I54">
-        <f>G54/J54</f>
+        <f t="shared" si="22"/>
         <v>28.285714285714285</v>
       </c>
       <c r="J54">
@@ -4162,27 +4174,27 @@
         <v>2350</v>
       </c>
       <c r="R54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34560</v>
       </c>
       <c r="S54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8037</v>
       </c>
       <c r="T54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000</v>
       </c>
       <c r="U54" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="V54" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"53":23000</v>
       </c>
       <c r="W54" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -4191,11 +4203,11 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E55">
@@ -4205,14 +4217,14 @@
         <v>14</v>
       </c>
       <c r="G55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>402</v>
       </c>
       <c r="H55">
         <v>6</v>
       </c>
       <c r="I55">
-        <f>G55/J55</f>
+        <f t="shared" si="22"/>
         <v>28.714285714285715</v>
       </c>
       <c r="J55">
@@ -4231,27 +4243,27 @@
         <v>750</v>
       </c>
       <c r="R55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34560</v>
       </c>
       <c r="S55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8787</v>
       </c>
       <c r="T55" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700</v>
       </c>
       <c r="U55" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="V55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"54":22700</v>
       </c>
       <c r="W55" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -4260,22 +4272,22 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>408</v>
       </c>
       <c r="G56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>408</v>
       </c>
       <c r="H56">
         <v>6</v>
       </c>
       <c r="I56">
-        <f>G56/J56</f>
+        <f t="shared" si="22"/>
         <v>29.142857142857142</v>
       </c>
       <c r="J56">
@@ -4294,27 +4306,27 @@
         <v>2500</v>
       </c>
       <c r="R56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37060</v>
       </c>
       <c r="S56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8787</v>
       </c>
       <c r="T56" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200</v>
       </c>
       <c r="U56" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="V56" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"55":23200</v>
       </c>
       <c r="W56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -4323,11 +4335,11 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E57">
@@ -4337,14 +4349,14 @@
         <v>14</v>
       </c>
       <c r="G57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>418</v>
       </c>
       <c r="H57">
         <v>10</v>
       </c>
       <c r="I57">
-        <f>G57/J57</f>
+        <f t="shared" si="22"/>
         <v>29.857142857142858</v>
       </c>
       <c r="J57">
@@ -4369,27 +4381,27 @@
         <v>775</v>
       </c>
       <c r="R57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>39610</v>
       </c>
       <c r="S57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9562</v>
       </c>
       <c r="T57" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000</v>
       </c>
       <c r="U57" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="V57" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"56":24000</v>
       </c>
       <c r="W57" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -4398,22 +4410,22 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>422</v>
       </c>
       <c r="G58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>422</v>
       </c>
       <c r="H58">
         <v>4</v>
       </c>
       <c r="I58">
-        <f>G58/J58</f>
+        <f t="shared" si="22"/>
         <v>28.133333333333333</v>
       </c>
       <c r="J58">
@@ -4432,27 +4444,27 @@
         <v>2600</v>
       </c>
       <c r="R58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>42210</v>
       </c>
       <c r="S58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9562</v>
       </c>
       <c r="T58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500</v>
       </c>
       <c r="U58" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="V58" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"57":23500</v>
       </c>
       <c r="W58" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -4461,22 +4473,22 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>430</v>
       </c>
       <c r="G59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>430</v>
       </c>
       <c r="H59">
         <v>8</v>
       </c>
       <c r="I59">
-        <f>G59/J59</f>
+        <f t="shared" si="22"/>
         <v>28.666666666666668</v>
       </c>
       <c r="J59">
@@ -4495,27 +4507,27 @@
         <v>800</v>
       </c>
       <c r="R59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>42210</v>
       </c>
       <c r="S59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10362</v>
       </c>
       <c r="T59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800</v>
       </c>
       <c r="U59" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="V59" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"58":23800</v>
       </c>
       <c r="W59" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -4524,11 +4536,11 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E60">
@@ -4538,14 +4550,14 @@
         <v>15</v>
       </c>
       <c r="G60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>452</v>
       </c>
       <c r="H60">
         <v>22</v>
       </c>
       <c r="I60">
-        <f>G60/J60</f>
+        <f t="shared" si="22"/>
         <v>30.133333333333333</v>
       </c>
       <c r="J60">
@@ -4561,27 +4573,27 @@
         <v>150</v>
       </c>
       <c r="R60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>42210</v>
       </c>
       <c r="S60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10362</v>
       </c>
       <c r="T60" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000</v>
       </c>
       <c r="U60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="V60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"59":52000</v>
       </c>
       <c r="W60" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>"59":150</v>
       </c>
     </row>
@@ -4590,22 +4602,22 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>460</v>
       </c>
       <c r="G61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>460</v>
       </c>
       <c r="H61">
         <v>8</v>
       </c>
       <c r="I61">
-        <f>G61/J61</f>
+        <f t="shared" si="22"/>
         <v>30.666666666666668</v>
       </c>
       <c r="J61">
@@ -4624,27 +4636,27 @@
         <v>3200</v>
       </c>
       <c r="R61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45410</v>
       </c>
       <c r="S61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10362</v>
       </c>
       <c r="T61" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500</v>
       </c>
       <c r="U61" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="V61" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"60":28500</v>
       </c>
       <c r="W61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -4653,22 +4665,22 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>468</v>
       </c>
       <c r="G62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>468</v>
       </c>
       <c r="H62">
         <v>8</v>
       </c>
       <c r="I62">
-        <f>G62/J62</f>
+        <f t="shared" si="22"/>
         <v>31.2</v>
       </c>
       <c r="J62">
@@ -4687,27 +4699,27 @@
         <v>900</v>
       </c>
       <c r="R62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45410</v>
       </c>
       <c r="S62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11262</v>
       </c>
       <c r="T62" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000</v>
       </c>
       <c r="U62" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="V62" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"61":28000</v>
       </c>
       <c r="W62" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -4716,11 +4728,11 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E63">
@@ -4730,14 +4742,14 @@
         <v>15</v>
       </c>
       <c r="G63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>478</v>
       </c>
       <c r="H63">
         <v>10</v>
       </c>
       <c r="I63">
-        <f>G63/J63</f>
+        <f t="shared" si="22"/>
         <v>31.866666666666667</v>
       </c>
       <c r="J63">
@@ -4762,27 +4774,27 @@
         <v>975</v>
       </c>
       <c r="R63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>48710</v>
       </c>
       <c r="S63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>12237</v>
       </c>
       <c r="T63" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700</v>
       </c>
       <c r="U63" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="V63" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"62":28700</v>
       </c>
       <c r="W63" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -4791,22 +4803,22 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>482</v>
       </c>
       <c r="G64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>482</v>
       </c>
       <c r="H64">
         <v>4</v>
       </c>
       <c r="I64">
-        <f>G64/J64</f>
+        <f t="shared" si="22"/>
         <v>32.133333333333333</v>
       </c>
       <c r="J64">
@@ -4825,27 +4837,27 @@
         <v>3400</v>
       </c>
       <c r="R64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>52110</v>
       </c>
       <c r="S64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>12237</v>
       </c>
       <c r="T64" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500</v>
       </c>
       <c r="U64" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="V64" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"63":28500</v>
       </c>
       <c r="W64" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -4854,22 +4866,22 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>488</v>
       </c>
       <c r="G65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>488</v>
       </c>
       <c r="H65">
         <v>6</v>
       </c>
       <c r="I65">
-        <f>G65/J65</f>
+        <f t="shared" si="22"/>
         <v>32.533333333333331</v>
       </c>
       <c r="J65">
@@ -4888,27 +4900,27 @@
         <v>1100</v>
       </c>
       <c r="R65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>52110</v>
       </c>
       <c r="S65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>13337</v>
       </c>
       <c r="T65" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200</v>
       </c>
       <c r="U65" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="V65" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"64":29200</v>
       </c>
       <c r="W65" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -4917,22 +4929,22 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>496</v>
       </c>
       <c r="G66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>496</v>
       </c>
       <c r="H66">
         <v>8</v>
       </c>
       <c r="I66">
-        <f>G66/J66</f>
+        <f t="shared" ref="I66:I97" si="24">G66/J66</f>
         <v>33.06666666666667</v>
       </c>
       <c r="J66">
@@ -4951,27 +4963,27 @@
         <v>3800</v>
       </c>
       <c r="R66">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>55910</v>
       </c>
       <c r="S66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>13337</v>
       </c>
       <c r="T66" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500</v>
       </c>
       <c r="U66" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="V66" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"65":29500</v>
       </c>
       <c r="W66" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -4980,11 +4992,11 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B77" si="22">IF(LEN(C67)=0,1,0)</f>
+        <f t="shared" ref="B67:B77" si="25">IF(LEN(C67)=0,1,0)</f>
         <v>1</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C77" si="23">IF(NOT(ISBLANK(D67)),D67,
+        <f t="shared" ref="C67:C77" si="26">IF(NOT(ISBLANK(D67)),D67,
 IF(ISBLANK(E67),G67,""))</f>
         <v/>
       </c>
@@ -4995,14 +5007,14 @@
         <v>15</v>
       </c>
       <c r="G67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>506</v>
       </c>
       <c r="H67">
         <v>10</v>
       </c>
       <c r="I67">
-        <f>G67/J67</f>
+        <f t="shared" si="24"/>
         <v>31.625</v>
       </c>
       <c r="J67">
@@ -5027,27 +5039,27 @@
         <v>1200</v>
       </c>
       <c r="R67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>59760</v>
       </c>
       <c r="S67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>14537</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="V67" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"66":29000</v>
       </c>
       <c r="W67" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -5056,22 +5068,22 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>514</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G77" si="24">G67+H68</f>
+        <f t="shared" ref="G68:G77" si="27">G67+H68</f>
         <v>514</v>
       </c>
       <c r="H68">
         <v>8</v>
       </c>
       <c r="I68">
-        <f>G68/J68</f>
+        <f t="shared" si="24"/>
         <v>32.125</v>
       </c>
       <c r="J68">
@@ -5090,27 +5102,27 @@
         <v>3900</v>
       </c>
       <c r="R68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>63660</v>
       </c>
       <c r="S68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>14537</v>
       </c>
       <c r="T68" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700</v>
       </c>
       <c r="U68" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="V68" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"67":29700</v>
       </c>
       <c r="W68" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -5119,22 +5131,22 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C69">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>518</v>
       </c>
       <c r="G69">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>518</v>
       </c>
       <c r="H69">
         <v>4</v>
       </c>
       <c r="I69">
-        <f>G69/J69</f>
+        <f t="shared" si="24"/>
         <v>32.375</v>
       </c>
       <c r="J69">
@@ -5153,27 +5165,27 @@
         <v>1300</v>
       </c>
       <c r="R69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>63660</v>
       </c>
       <c r="S69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>15837</v>
       </c>
       <c r="T69" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500</v>
       </c>
       <c r="U69" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="V69" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"68":29500</v>
       </c>
       <c r="W69" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -5182,22 +5194,22 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C70">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>524</v>
       </c>
       <c r="G70">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>524</v>
       </c>
       <c r="H70">
         <v>6</v>
       </c>
       <c r="I70">
-        <f>G70/J70</f>
+        <f t="shared" si="24"/>
         <v>32.75</v>
       </c>
       <c r="J70">
@@ -5216,27 +5228,27 @@
         <v>4200</v>
       </c>
       <c r="R70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>67860</v>
       </c>
       <c r="S70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>15837</v>
       </c>
       <c r="T70" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900</v>
       </c>
       <c r="U70" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="V70" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"69":29900</v>
       </c>
       <c r="W70" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -5245,11 +5257,11 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E71">
@@ -5259,14 +5271,14 @@
         <v>16</v>
       </c>
       <c r="G71">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>540</v>
       </c>
       <c r="H71">
         <v>16</v>
       </c>
       <c r="I71">
-        <f>G71/J71</f>
+        <f t="shared" si="24"/>
         <v>33.75</v>
       </c>
       <c r="J71">
@@ -5282,27 +5294,27 @@
         <v>120</v>
       </c>
       <c r="R71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>67860</v>
       </c>
       <c r="S71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>15837</v>
       </c>
       <c r="T71" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000</v>
       </c>
       <c r="U71" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
       </c>
       <c r="V71" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"70":64000</v>
       </c>
       <c r="W71" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>"70":120</v>
       </c>
     </row>
@@ -5311,22 +5323,22 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C72">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>548</v>
       </c>
       <c r="G72">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>548</v>
       </c>
       <c r="H72">
         <v>8</v>
       </c>
       <c r="I72">
-        <f>G72/J72</f>
+        <f t="shared" si="24"/>
         <v>34.25</v>
       </c>
       <c r="J72">
@@ -5345,27 +5357,27 @@
         <v>4400</v>
       </c>
       <c r="R72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>72260</v>
       </c>
       <c r="S72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>15837</v>
       </c>
       <c r="T72" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000</v>
       </c>
       <c r="U72" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
       </c>
       <c r="V72" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"71":33000</v>
       </c>
       <c r="W72" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -5374,22 +5386,22 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>558</v>
       </c>
       <c r="G73">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>558</v>
       </c>
       <c r="H73">
         <v>10</v>
       </c>
       <c r="I73">
-        <f>G73/J73</f>
+        <f t="shared" si="24"/>
         <v>34.875</v>
       </c>
       <c r="J73">
@@ -5414,27 +5426,27 @@
         <v>1500</v>
       </c>
       <c r="R73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>76710</v>
       </c>
       <c r="S73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>17337</v>
       </c>
       <c r="T73" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500</v>
       </c>
       <c r="U73" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
       </c>
       <c r="V73" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"72":33500</v>
       </c>
       <c r="W73" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -5443,11 +5455,11 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E74">
@@ -5457,14 +5469,14 @@
         <v>16</v>
       </c>
       <c r="G74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>566</v>
       </c>
       <c r="H74">
         <v>8</v>
       </c>
       <c r="I74">
-        <f>G74/J74</f>
+        <f t="shared" si="24"/>
         <v>35.375</v>
       </c>
       <c r="J74">
@@ -5483,27 +5495,27 @@
         <v>4500</v>
       </c>
       <c r="R74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>81210</v>
       </c>
       <c r="S74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>17337</v>
       </c>
       <c r="T74" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800</v>
       </c>
       <c r="U74" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
       </c>
       <c r="V74" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"73":33800</v>
       </c>
       <c r="W74" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -5512,22 +5524,22 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>576</v>
       </c>
       <c r="G75">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>576</v>
       </c>
       <c r="H75">
         <v>10</v>
       </c>
       <c r="I75">
-        <f>G75/J75</f>
+        <f t="shared" si="24"/>
         <v>36</v>
       </c>
       <c r="J75">
@@ -5552,27 +5564,27 @@
         <v>1900</v>
       </c>
       <c r="R75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>85760</v>
       </c>
       <c r="S75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>19237</v>
       </c>
       <c r="T75" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500</v>
       </c>
       <c r="U75" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
       </c>
       <c r="V75" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"74":34500</v>
       </c>
       <c r="W75" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -5581,22 +5593,22 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C76">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>584</v>
       </c>
       <c r="G76">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>584</v>
       </c>
       <c r="H76">
         <v>8</v>
       </c>
       <c r="I76">
-        <f>G76/J76</f>
+        <f t="shared" si="24"/>
         <v>36.5</v>
       </c>
       <c r="J76">
@@ -5615,27 +5627,27 @@
         <v>4600</v>
       </c>
       <c r="R76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>90360</v>
       </c>
       <c r="S76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>19237</v>
       </c>
       <c r="T76" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200</v>
       </c>
       <c r="U76" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
       </c>
       <c r="V76" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"75":34200</v>
       </c>
       <c r="W76" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -5644,22 +5656,22 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C77">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>592</v>
       </c>
       <c r="G77">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>592</v>
       </c>
       <c r="H77">
         <v>8</v>
       </c>
       <c r="I77">
-        <f>G77/J77</f>
+        <f t="shared" si="24"/>
         <v>37</v>
       </c>
       <c r="J77">
@@ -5678,27 +5690,27 @@
         <v>2100</v>
       </c>
       <c r="R77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>90360</v>
       </c>
       <c r="S77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>21337</v>
       </c>
       <c r="T77" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200,"76":35000</v>
       </c>
       <c r="U77" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
       </c>
       <c r="V77" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>"76":35000</v>
       </c>
       <c r="W77" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>

--- a/Excel/작업Research.xlsx
+++ b/Excel/작업Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF036AD-36DD-42FF-A948-EEEAA92622CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091752A9-D734-4F6F-B226-14517A556F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="40">
   <si>
     <t>필요캐릭터인원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
   </si>
   <si>
     <t>체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -184,6 +180,10 @@
   </si>
   <si>
     <t>누적오버라이딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,11 +570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B294627A-88CA-400D-B366-14507FB4AA24}">
-  <dimension ref="A1:Z77"/>
+  <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -603,25 +603,25 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -636,37 +636,37 @@
         <v>4</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
       <c r="W1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y1" t="s">
         <v>8</v>
@@ -745,7 +745,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(T1,COUNTA(T:T)-1,0),1)=",",SUBSTITUTE(OFFSET(T1,COUNTA(T:T)-1,0),",","",1),OFFSET(T1,COUNTA(T:T)-1,0))
 &amp;"}"</f>
-        <v>{"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200,"76":35000}</v>
+        <v>{"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200,"76":35000}</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -824,28 +824,22 @@
       </c>
       <c r="B4">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G67" si="5">G3+H4</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -900,27 +894,27 @@
       </c>
       <c r="C5">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>4.333333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5">
         <v>1800</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O5">
         <v>20</v>
@@ -956,7 +950,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(U1,COUNTA(U:U)-1,0),1)=",",SUBSTITUTE(OFFSET(U1,COUNTA(U:U)-1,0),",","",1),OFFSET(U1,COUNTA(U:U)-1,0))
 &amp;"}"</f>
-        <v>{"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120}</v>
+        <v>{"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120}</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -965,37 +959,31 @@
       </c>
       <c r="B6">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="G6">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>5.666666666666667</v>
+        <v>6.5</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6">
         <v>2200</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>50</v>
@@ -1044,27 +1032,27 @@
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>7.666666666666667</v>
+        <v>7</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7">
         <v>2000</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>30</v>
@@ -1110,30 +1098,30 @@
         <v/>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>6.25</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <v>2200</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O8">
         <v>15</v>
@@ -1176,27 +1164,27 @@
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G9">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>7.25</v>
+        <v>6</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9">
         <v>2100</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>40</v>
@@ -1242,30 +1230,30 @@
         <v/>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10">
         <v>2400</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N10">
         <v>30</v>
@@ -1310,31 +1298,25 @@
       </c>
       <c r="B11">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="G11">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>8.4</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K11">
         <v>2100</v>
@@ -1383,21 +1365,21 @@
       </c>
       <c r="C12">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="G12">
         <f t="shared" si="5"/>
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="H12">
         <v>4</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>9.1999999999999993</v>
+        <v>6.75</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K12">
         <v>2800</v>
@@ -1449,27 +1431,27 @@
         <v/>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>8.6666666666666661</v>
+        <v>7.25</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L13" t="s">
         <v>7</v>
@@ -1490,7 +1472,7 @@
       </c>
       <c r="T13" t="str">
         <f t="shared" si="11"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000</v>
       </c>
       <c r="U13" t="str">
         <f t="shared" si="12"/>
@@ -1498,7 +1480,7 @@
       </c>
       <c r="V13" t="str">
         <f t="shared" si="13"/>
-        <v>"12":2600</v>
+        <v>"12":3000</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="14"/>
@@ -1515,34 +1497,37 @@
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="G14">
         <f t="shared" si="5"/>
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>11.333333333333334</v>
+        <v>8</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K14">
-        <v>8000</v>
+        <v>3200</v>
       </c>
       <c r="L14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14">
-        <v>70</v>
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>25</v>
+      </c>
+      <c r="P14">
+        <v>550</v>
       </c>
       <c r="R14">
         <f t="shared" si="9"/>
-        <v>1690</v>
+        <v>2240</v>
       </c>
       <c r="S14">
         <f t="shared" si="10"/>
@@ -1550,19 +1535,19 @@
       </c>
       <c r="T14" t="str">
         <f t="shared" si="11"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" si="12"/>
-        <v>,"13":70</v>
+        <v/>
       </c>
       <c r="V14" t="str">
         <f t="shared" si="13"/>
-        <v>"13":8000</v>
+        <v>"13":3200</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" si="14"/>
-        <v>"13":70</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
@@ -1571,34 +1556,28 @@
       </c>
       <c r="B15">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="3"/>
+        <v>37</v>
       </c>
       <c r="G15">
         <f t="shared" si="5"/>
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>10.285714285714286</v>
+        <v>9.25</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K15">
-        <v>4300</v>
+        <v>3500</v>
       </c>
       <c r="L15" t="s">
         <v>7</v>
@@ -1611,7 +1590,7 @@
       </c>
       <c r="R15">
         <f t="shared" si="9"/>
-        <v>1690</v>
+        <v>2240</v>
       </c>
       <c r="S15">
         <f t="shared" si="10"/>
@@ -1619,15 +1598,15 @@
       </c>
       <c r="T15" t="str">
         <f t="shared" si="11"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="12"/>
-        <v>,"13":70</v>
+        <v/>
       </c>
       <c r="V15" t="str">
         <f t="shared" si="13"/>
-        <v>"14":4300</v>
+        <v>"14":3500</v>
       </c>
       <c r="W15" t="str">
         <f t="shared" si="14"/>
@@ -1644,33 +1623,30 @@
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="G16">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>11.428571428571429</v>
+        <v>11</v>
       </c>
       <c r="J16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K16">
-        <v>4800</v>
+        <v>8000</v>
       </c>
       <c r="L16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16">
-        <v>25</v>
-      </c>
-      <c r="P16">
-        <v>550</v>
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>70</v>
       </c>
       <c r="R16">
         <f t="shared" si="9"/>
@@ -1682,19 +1658,19 @@
       </c>
       <c r="T16" t="str">
         <f t="shared" si="11"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000</v>
       </c>
       <c r="U16" t="str">
         <f t="shared" si="12"/>
-        <v>,"13":70</v>
+        <v>,"15":70</v>
       </c>
       <c r="V16" t="str">
         <f t="shared" si="13"/>
-        <v>"15":4800</v>
+        <v>"15":8000</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>"15":70</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -1710,24 +1686,24 @@
         <v/>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <f t="shared" si="5"/>
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="J17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K17">
         <v>4600</v>
@@ -1751,11 +1727,11 @@
       </c>
       <c r="T17" t="str">
         <f t="shared" si="11"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600</v>
       </c>
       <c r="U17" t="str">
         <f t="shared" si="12"/>
-        <v>,"13":70</v>
+        <v>,"15":70</v>
       </c>
       <c r="V17" t="str">
         <f t="shared" si="13"/>
@@ -1772,31 +1748,25 @@
       </c>
       <c r="B18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E18">
-        <v>11</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="3"/>
+        <v>53</v>
       </c>
       <c r="G18">
         <f t="shared" si="5"/>
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>13.25</v>
       </c>
       <c r="J18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K18">
         <v>4900</v>
@@ -1820,11 +1790,11 @@
       </c>
       <c r="T18" t="str">
         <f t="shared" si="11"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900</v>
       </c>
       <c r="U18" t="str">
         <f t="shared" si="12"/>
-        <v>,"13":70</v>
+        <v>,"15":70</v>
       </c>
       <c r="V18" t="str">
         <f t="shared" si="13"/>
@@ -1845,30 +1815,33 @@
       </c>
       <c r="C19">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <f t="shared" si="5"/>
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>13.25</v>
+        <v>11.8</v>
       </c>
       <c r="J19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K19">
-        <v>12000</v>
+        <v>5400</v>
       </c>
       <c r="L19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="O19">
+        <v>20</v>
+      </c>
+      <c r="Q19">
+        <v>220</v>
       </c>
       <c r="R19">
         <f t="shared" si="6"/>
@@ -1876,23 +1849,23 @@
       </c>
       <c r="S19">
         <f t="shared" si="4"/>
-        <v>745</v>
+        <v>965</v>
       </c>
       <c r="T19" t="str">
         <f t="shared" si="7"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400</v>
       </c>
       <c r="U19" t="str">
         <f t="shared" si="8"/>
-        <v>,"13":70,"18":110</v>
+        <v>,"15":70</v>
       </c>
       <c r="V19" t="str">
         <f t="shared" ref="V19:V50" si="15">""""&amp;$A19&amp;""""&amp;""&amp;":"&amp;K19</f>
-        <v>"18":12000</v>
+        <v>"18":5400</v>
       </c>
       <c r="W19" t="str">
         <f t="shared" si="1"/>
-        <v>"18":110</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
@@ -1908,27 +1881,27 @@
         <v/>
       </c>
       <c r="E20">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G20">
         <f t="shared" si="5"/>
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="H20">
         <v>8</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>12.666666666666666</v>
+        <v>13.4</v>
       </c>
       <c r="J20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K20">
-        <v>6800</v>
+        <v>5800</v>
       </c>
       <c r="L20" t="s">
         <v>10</v>
@@ -1945,19 +1918,19 @@
       </c>
       <c r="S20">
         <f t="shared" si="4"/>
-        <v>745</v>
+        <v>965</v>
       </c>
       <c r="T20" t="str">
         <f t="shared" si="7"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800</v>
       </c>
       <c r="U20" t="str">
         <f t="shared" si="8"/>
-        <v>,"13":70,"18":110</v>
+        <v>,"15":70</v>
       </c>
       <c r="V20" t="str">
         <f t="shared" si="15"/>
-        <v>"19":6800</v>
+        <v>"19":5800</v>
       </c>
       <c r="W20" t="str">
         <f t="shared" si="1"/>
@@ -1970,37 +1943,31 @@
       </c>
       <c r="B21">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E21">
-        <v>13</v>
-      </c>
-      <c r="F21">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>70</v>
       </c>
       <c r="G21">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>13.333333333333334</v>
+        <v>14</v>
       </c>
       <c r="J21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K21">
         <v>6400</v>
       </c>
       <c r="L21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O21">
         <v>20</v>
@@ -2014,15 +1981,15 @@
       </c>
       <c r="S21">
         <f t="shared" ref="S21:S77" si="17">S20+Q21</f>
-        <v>995</v>
+        <v>1215</v>
       </c>
       <c r="T21" t="str">
         <f t="shared" ref="T21:T77" si="18">T20&amp;","&amp;V21</f>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400</v>
       </c>
       <c r="U21" t="str">
         <f t="shared" ref="U21:U77" si="19">U20&amp;IF(LEN(W21)=0,"",","&amp;W21)</f>
-        <v>,"13":70,"18":110</v>
+        <v>,"15":70</v>
       </c>
       <c r="V21" t="str">
         <f t="shared" si="15"/>
@@ -2043,28 +2010,28 @@
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="G22">
         <f t="shared" si="5"/>
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>14.444444444444445</v>
+        <v>14.8</v>
       </c>
       <c r="J22">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K22">
         <f t="shared" ref="K22:K31" si="21">K21+200</f>
         <v>6600</v>
       </c>
       <c r="L22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>25</v>
@@ -2084,15 +2051,15 @@
       </c>
       <c r="S22">
         <f t="shared" si="17"/>
-        <v>1295</v>
+        <v>1515</v>
       </c>
       <c r="T22" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600</v>
       </c>
       <c r="U22" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110</v>
+        <v>,"15":70</v>
       </c>
       <c r="V22" t="str">
         <f t="shared" si="15"/>
@@ -2109,37 +2076,31 @@
       </c>
       <c r="B23">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E23">
-        <v>15</v>
-      </c>
-      <c r="F23">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>79</v>
       </c>
       <c r="G23">
         <f t="shared" si="5"/>
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>15.333333333333334</v>
+        <v>13.166666666666666</v>
       </c>
       <c r="J23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K23">
         <v>7000</v>
       </c>
       <c r="L23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>30</v>
@@ -2153,15 +2114,15 @@
       </c>
       <c r="S23">
         <f t="shared" si="17"/>
-        <v>1295</v>
+        <v>1515</v>
       </c>
       <c r="T23" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000</v>
       </c>
       <c r="U23" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110</v>
+        <v>,"15":70</v>
       </c>
       <c r="V23" t="str">
         <f t="shared" si="15"/>
@@ -2182,27 +2143,27 @@
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="G24">
         <f t="shared" si="5"/>
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>14.4</v>
+        <v>13.833333333333334</v>
       </c>
       <c r="J24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K24">
         <v>6800</v>
       </c>
       <c r="L24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O24">
         <v>20</v>
@@ -2216,15 +2177,15 @@
       </c>
       <c r="S24">
         <f t="shared" si="17"/>
-        <v>1645</v>
+        <v>1865</v>
       </c>
       <c r="T24" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800</v>
       </c>
       <c r="U24" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110</v>
+        <v>,"15":70</v>
       </c>
       <c r="V24" t="str">
         <f t="shared" si="15"/>
@@ -2241,37 +2202,31 @@
       </c>
       <c r="B25">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E25">
-        <v>15</v>
-      </c>
-      <c r="F25">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>89</v>
       </c>
       <c r="G25">
         <f t="shared" si="5"/>
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="H25">
         <v>6</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14.833333333333334</v>
       </c>
       <c r="J25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K25">
         <v>7500</v>
       </c>
       <c r="L25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N25">
         <v>35</v>
@@ -2285,15 +2240,15 @@
       </c>
       <c r="S25">
         <f t="shared" si="17"/>
-        <v>1645</v>
+        <v>1865</v>
       </c>
       <c r="T25" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500</v>
       </c>
       <c r="U25" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110</v>
+        <v>,"15":70</v>
       </c>
       <c r="V25" t="str">
         <f t="shared" si="15"/>
@@ -2314,27 +2269,27 @@
       </c>
       <c r="C26">
         <f t="shared" si="3"/>
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="G26">
         <f t="shared" si="5"/>
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>16.600000000000001</v>
+        <v>16.333333333333332</v>
       </c>
       <c r="J26">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K26">
         <v>19500</v>
       </c>
       <c r="L26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M26">
         <v>90</v>
@@ -2345,15 +2300,15 @@
       </c>
       <c r="S26">
         <f t="shared" si="17"/>
-        <v>1645</v>
+        <v>1865</v>
       </c>
       <c r="T26" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500</v>
       </c>
       <c r="U26" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90</v>
+        <v>,"15":70,"25":90</v>
       </c>
       <c r="V26" t="str">
         <f t="shared" si="15"/>
@@ -2370,37 +2325,31 @@
       </c>
       <c r="B27">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E27">
-        <v>17</v>
-      </c>
-      <c r="F27">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>104</v>
       </c>
       <c r="G27">
         <f t="shared" si="5"/>
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>17.399999999999999</v>
+        <v>14.857142857142858</v>
       </c>
       <c r="J27">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K27">
         <v>9000</v>
       </c>
       <c r="L27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>30</v>
@@ -2414,15 +2363,15 @@
       </c>
       <c r="S27">
         <f t="shared" si="17"/>
-        <v>1645</v>
+        <v>1865</v>
       </c>
       <c r="T27" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000</v>
       </c>
       <c r="U27" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90</v>
+        <v>,"15":70,"25":90</v>
       </c>
       <c r="V27" t="str">
         <f t="shared" si="15"/>
@@ -2443,27 +2392,27 @@
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="G28">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>16.363636363636363</v>
+        <v>15.428571428571429</v>
       </c>
       <c r="J28">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K28">
         <v>9400</v>
       </c>
       <c r="L28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O28">
         <v>25</v>
@@ -2477,15 +2426,15 @@
       </c>
       <c r="S28">
         <f t="shared" si="17"/>
-        <v>2045</v>
+        <v>2265</v>
       </c>
       <c r="T28" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400</v>
       </c>
       <c r="U28" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90</v>
+        <v>,"15":70,"25":90</v>
       </c>
       <c r="V28" t="str">
         <f t="shared" si="15"/>
@@ -2506,27 +2455,27 @@
       </c>
       <c r="C29">
         <f t="shared" si="3"/>
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>17.09090909090909</v>
+        <v>16.142857142857142</v>
       </c>
       <c r="J29">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K29">
         <v>9200</v>
       </c>
       <c r="L29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>25</v>
@@ -2540,15 +2489,15 @@
       </c>
       <c r="S29">
         <f t="shared" si="17"/>
-        <v>2045</v>
+        <v>2265</v>
       </c>
       <c r="T29" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200</v>
       </c>
       <c r="U29" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90</v>
+        <v>,"15":70,"25":90</v>
       </c>
       <c r="V29" t="str">
         <f t="shared" si="15"/>
@@ -2565,37 +2514,31 @@
       </c>
       <c r="B30">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>119</v>
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="H30">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>18.181818181818183</v>
+        <v>17</v>
       </c>
       <c r="J30">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K30">
         <v>9600</v>
       </c>
       <c r="L30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>20</v>
@@ -2615,15 +2558,15 @@
       </c>
       <c r="S30">
         <f t="shared" si="17"/>
-        <v>2470</v>
+        <v>2690</v>
       </c>
       <c r="T30" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600</v>
       </c>
       <c r="U30" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90</v>
+        <v>,"15":70,"25":90</v>
       </c>
       <c r="V30" t="str">
         <f t="shared" si="15"/>
@@ -2644,28 +2587,28 @@
       </c>
       <c r="C31">
         <f t="shared" si="3"/>
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>18.727272727272727</v>
+        <v>17.571428571428573</v>
       </c>
       <c r="J31">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K31">
         <f t="shared" si="21"/>
         <v>9800</v>
       </c>
       <c r="L31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>25</v>
@@ -2679,15 +2622,15 @@
       </c>
       <c r="S31">
         <f t="shared" si="17"/>
-        <v>2470</v>
+        <v>2690</v>
       </c>
       <c r="T31" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800</v>
       </c>
       <c r="U31" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90</v>
+        <v>,"15":70,"25":90</v>
       </c>
       <c r="V31" t="str">
         <f t="shared" si="15"/>
@@ -2708,27 +2651,27 @@
       </c>
       <c r="C32">
         <f t="shared" si="3"/>
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="H32">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>19.454545454545453</v>
+        <v>16</v>
       </c>
       <c r="J32">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K32">
         <v>9500</v>
       </c>
       <c r="L32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O32">
         <v>20</v>
@@ -2742,15 +2685,15 @@
       </c>
       <c r="S32">
         <f t="shared" si="17"/>
-        <v>2920</v>
+        <v>3140</v>
       </c>
       <c r="T32" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500</v>
       </c>
       <c r="U32" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90</v>
+        <v>,"15":70,"25":90</v>
       </c>
       <c r="V32" t="str">
         <f t="shared" si="15"/>
@@ -2767,37 +2710,31 @@
       </c>
       <c r="B33">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>134</v>
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="H33">
         <v>6</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>16.75</v>
       </c>
       <c r="J33">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K33">
         <v>9900</v>
       </c>
       <c r="L33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N33">
         <v>30</v>
@@ -2811,15 +2748,15 @@
       </c>
       <c r="S33">
         <f t="shared" si="17"/>
-        <v>2920</v>
+        <v>3140</v>
       </c>
       <c r="T33" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900</v>
       </c>
       <c r="U33" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90</v>
+        <v>,"15":70,"25":90</v>
       </c>
       <c r="V33" t="str">
         <f t="shared" si="15"/>
@@ -2840,27 +2777,27 @@
       </c>
       <c r="C34">
         <f t="shared" si="3"/>
-        <v>224</v>
+        <v>141</v>
       </c>
       <c r="G34">
         <f t="shared" si="5"/>
-        <v>224</v>
+        <v>141</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I34">
         <f t="shared" ref="I34:I65" si="22">G34/J34</f>
-        <v>18.666666666666668</v>
+        <v>17.625</v>
       </c>
       <c r="J34">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K34">
         <v>9600</v>
       </c>
       <c r="L34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O34">
         <v>20</v>
@@ -2874,15 +2811,15 @@
       </c>
       <c r="S34">
         <f t="shared" si="17"/>
-        <v>3387</v>
+        <v>3607</v>
       </c>
       <c r="T34" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600</v>
       </c>
       <c r="U34" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90</v>
+        <v>,"15":70,"25":90</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" si="15"/>
@@ -2899,37 +2836,31 @@
       </c>
       <c r="B35">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E35">
-        <v>5</v>
-      </c>
-      <c r="F35">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>151</v>
       </c>
       <c r="G35">
         <f t="shared" si="5"/>
-        <v>238</v>
+        <v>151</v>
       </c>
       <c r="H35">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I35">
         <f t="shared" si="22"/>
-        <v>19.833333333333332</v>
+        <v>18.875</v>
       </c>
       <c r="J35">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K35">
         <v>28000</v>
       </c>
       <c r="L35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M35">
         <v>100</v>
@@ -2940,15 +2871,15 @@
       </c>
       <c r="S35">
         <f t="shared" si="17"/>
-        <v>3387</v>
+        <v>3607</v>
       </c>
       <c r="T35" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000</v>
       </c>
       <c r="U35" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
+        <v>,"15":70,"25":90,"34":100</v>
       </c>
       <c r="V35" t="str">
         <f t="shared" si="15"/>
@@ -2969,27 +2900,27 @@
       </c>
       <c r="C36">
         <f t="shared" si="3"/>
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="G36">
         <f t="shared" si="5"/>
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I36">
         <f t="shared" si="22"/>
-        <v>20.166666666666668</v>
+        <v>19.5</v>
       </c>
       <c r="J36">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K36">
         <v>13500</v>
       </c>
       <c r="L36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N36">
         <v>35</v>
@@ -3003,15 +2934,15 @@
       </c>
       <c r="S36">
         <f t="shared" si="17"/>
-        <v>3387</v>
+        <v>3607</v>
       </c>
       <c r="T36" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500</v>
       </c>
       <c r="U36" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
+        <v>,"15":70,"25":90,"34":100</v>
       </c>
       <c r="V36" t="str">
         <f t="shared" si="15"/>
@@ -3032,27 +2963,27 @@
       </c>
       <c r="C37">
         <f t="shared" si="3"/>
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="G37">
         <f t="shared" si="5"/>
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="H37">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I37">
         <f t="shared" si="22"/>
-        <v>20.833333333333332</v>
+        <v>20</v>
       </c>
       <c r="J37">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K37">
         <v>13800</v>
       </c>
       <c r="L37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O37">
         <v>25</v>
@@ -3066,15 +2997,15 @@
       </c>
       <c r="S37">
         <f t="shared" si="17"/>
-        <v>3887</v>
+        <v>4107</v>
       </c>
       <c r="T37" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800</v>
       </c>
       <c r="U37" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
+        <v>,"15":70,"25":90,"34":100</v>
       </c>
       <c r="V37" t="str">
         <f t="shared" si="15"/>
@@ -3095,27 +3026,27 @@
       </c>
       <c r="C38">
         <f t="shared" si="3"/>
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="G38">
         <f t="shared" si="5"/>
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I38">
         <f t="shared" si="22"/>
-        <v>21.333333333333332</v>
+        <v>18.333333333333332</v>
       </c>
       <c r="J38">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K38">
         <v>13200</v>
       </c>
       <c r="L38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N38">
         <v>30</v>
@@ -3129,15 +3060,15 @@
       </c>
       <c r="S38">
         <f t="shared" si="17"/>
-        <v>3887</v>
+        <v>4107</v>
       </c>
       <c r="T38" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200</v>
       </c>
       <c r="U38" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
+        <v>,"15":70,"25":90,"34":100</v>
       </c>
       <c r="V38" t="str">
         <f t="shared" si="15"/>
@@ -3154,37 +3085,31 @@
       </c>
       <c r="B39">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E39">
-        <v>6</v>
-      </c>
-      <c r="F39">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>172</v>
       </c>
       <c r="G39">
         <f t="shared" si="5"/>
-        <v>266</v>
+        <v>172</v>
       </c>
       <c r="H39">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I39">
         <f t="shared" si="22"/>
-        <v>22.166666666666668</v>
+        <v>19.111111111111111</v>
       </c>
       <c r="J39">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K39">
         <v>13600</v>
       </c>
       <c r="L39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N39">
         <v>20</v>
@@ -3204,15 +3129,15 @@
       </c>
       <c r="S39">
         <f t="shared" si="17"/>
-        <v>4412</v>
+        <v>4632</v>
       </c>
       <c r="T39" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600</v>
       </c>
       <c r="U39" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
+        <v>,"15":70,"25":90,"34":100</v>
       </c>
       <c r="V39" t="str">
         <f t="shared" si="15"/>
@@ -3233,27 +3158,27 @@
       </c>
       <c r="C40">
         <f t="shared" si="3"/>
-        <v>274</v>
+        <v>180</v>
       </c>
       <c r="G40">
         <f t="shared" si="5"/>
-        <v>274</v>
+        <v>180</v>
       </c>
       <c r="H40">
         <v>8</v>
       </c>
       <c r="I40">
         <f t="shared" si="22"/>
-        <v>22.833333333333332</v>
+        <v>20</v>
       </c>
       <c r="J40">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K40">
         <v>13400</v>
       </c>
       <c r="L40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N40">
         <v>30</v>
@@ -3267,15 +3192,15 @@
       </c>
       <c r="S40">
         <f t="shared" si="17"/>
-        <v>4412</v>
+        <v>4632</v>
       </c>
       <c r="T40" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400</v>
       </c>
       <c r="U40" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
+        <v>,"15":70,"25":90,"34":100</v>
       </c>
       <c r="V40" t="str">
         <f t="shared" si="15"/>
@@ -3296,27 +3221,27 @@
       </c>
       <c r="C41">
         <f t="shared" si="3"/>
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="G41">
         <f t="shared" si="5"/>
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="H41">
         <v>4</v>
       </c>
       <c r="I41">
         <f t="shared" si="22"/>
-        <v>21.384615384615383</v>
+        <v>20.444444444444443</v>
       </c>
       <c r="J41">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K41">
         <v>13800</v>
       </c>
       <c r="L41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O41">
         <v>20</v>
@@ -3330,15 +3255,15 @@
       </c>
       <c r="S41">
         <f t="shared" si="17"/>
-        <v>4962</v>
+        <v>5182</v>
       </c>
       <c r="T41" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800</v>
       </c>
       <c r="U41" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
+        <v>,"15":70,"25":90,"34":100</v>
       </c>
       <c r="V41" t="str">
         <f t="shared" si="15"/>
@@ -3359,27 +3284,27 @@
       </c>
       <c r="C42">
         <f t="shared" si="3"/>
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="G42">
         <f t="shared" si="5"/>
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="H42">
         <v>6</v>
       </c>
       <c r="I42">
         <f t="shared" si="22"/>
-        <v>21.846153846153847</v>
+        <v>19</v>
       </c>
       <c r="J42">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K42">
         <v>13600</v>
       </c>
       <c r="L42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N42">
         <v>30</v>
@@ -3393,15 +3318,15 @@
       </c>
       <c r="S42">
         <f t="shared" si="17"/>
-        <v>4962</v>
+        <v>5182</v>
       </c>
       <c r="T42" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600</v>
       </c>
       <c r="U42" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
+        <v>,"15":70,"25":90,"34":100</v>
       </c>
       <c r="V42" t="str">
         <f t="shared" si="15"/>
@@ -3432,23 +3357,23 @@
       </c>
       <c r="G43">
         <f t="shared" si="5"/>
-        <v>290</v>
+        <v>196</v>
       </c>
       <c r="H43">
         <v>6</v>
       </c>
       <c r="I43">
         <f t="shared" si="22"/>
-        <v>22.307692307692307</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="J43">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K43">
         <v>13900</v>
       </c>
       <c r="L43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O43">
         <v>20</v>
@@ -3462,15 +3387,15 @@
       </c>
       <c r="S43">
         <f t="shared" si="17"/>
-        <v>5529</v>
+        <v>5749</v>
       </c>
       <c r="T43" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900</v>
       </c>
       <c r="U43" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
+        <v>,"15":70,"25":90,"34":100</v>
       </c>
       <c r="V43" t="str">
         <f t="shared" si="15"/>
@@ -3491,27 +3416,27 @@
       </c>
       <c r="C44">
         <f t="shared" si="3"/>
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="G44">
         <f t="shared" si="5"/>
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="H44">
         <v>8</v>
       </c>
       <c r="I44">
         <f t="shared" si="22"/>
-        <v>22.923076923076923</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="J44">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K44">
         <v>13700</v>
       </c>
       <c r="L44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N44">
         <v>30</v>
@@ -3525,15 +3450,15 @@
       </c>
       <c r="S44">
         <f t="shared" si="17"/>
-        <v>5529</v>
+        <v>5749</v>
       </c>
       <c r="T44" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700</v>
       </c>
       <c r="U44" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100</v>
+        <v>,"15":70,"25":90,"34":100</v>
       </c>
       <c r="V44" t="str">
         <f t="shared" si="15"/>
@@ -3564,23 +3489,23 @@
       </c>
       <c r="G45">
         <f t="shared" si="5"/>
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="H45">
         <v>18</v>
       </c>
       <c r="I45">
         <f t="shared" si="22"/>
-        <v>24.307692307692307</v>
+        <v>22.2</v>
       </c>
       <c r="J45">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K45">
         <v>37500</v>
       </c>
       <c r="L45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M45">
         <v>120</v>
@@ -3591,15 +3516,15 @@
       </c>
       <c r="S45">
         <f t="shared" si="17"/>
-        <v>5529</v>
+        <v>5749</v>
       </c>
       <c r="T45" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500</v>
       </c>
       <c r="U45" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
+        <v>,"15":70,"25":90,"34":100,"44":120</v>
       </c>
       <c r="V45" t="str">
         <f t="shared" si="15"/>
@@ -3620,27 +3545,27 @@
       </c>
       <c r="C46">
         <f t="shared" si="3"/>
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="G46">
         <f t="shared" si="5"/>
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="H46">
         <v>8</v>
       </c>
       <c r="I46">
         <f t="shared" si="22"/>
-        <v>24.923076923076923</v>
+        <v>20.90909090909091</v>
       </c>
       <c r="J46">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K46">
         <v>17700</v>
       </c>
       <c r="L46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N46">
         <v>35</v>
@@ -3654,15 +3579,15 @@
       </c>
       <c r="S46">
         <f t="shared" si="17"/>
-        <v>5529</v>
+        <v>5749</v>
       </c>
       <c r="T46" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700</v>
       </c>
       <c r="U46" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
+        <v>,"15":70,"25":90,"34":100,"44":120</v>
       </c>
       <c r="V46" t="str">
         <f t="shared" si="15"/>
@@ -3683,27 +3608,27 @@
       </c>
       <c r="C47">
         <f t="shared" si="3"/>
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="G47">
         <f t="shared" si="5"/>
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="H47">
         <v>6</v>
       </c>
       <c r="I47">
         <f t="shared" si="22"/>
-        <v>25.384615384615383</v>
+        <v>21.454545454545453</v>
       </c>
       <c r="J47">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K47">
         <v>17500</v>
       </c>
       <c r="L47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O47">
         <v>25</v>
@@ -3717,15 +3642,15 @@
       </c>
       <c r="S47">
         <f t="shared" si="17"/>
-        <v>6112</v>
+        <v>6332</v>
       </c>
       <c r="T47" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500</v>
       </c>
       <c r="U47" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
+        <v>,"15":70,"25":90,"34":100,"44":120</v>
       </c>
       <c r="V47" t="str">
         <f t="shared" si="15"/>
@@ -3746,27 +3671,27 @@
       </c>
       <c r="C48">
         <f t="shared" si="3"/>
-        <v>342</v>
+        <v>248</v>
       </c>
       <c r="G48">
         <f t="shared" si="5"/>
-        <v>342</v>
+        <v>248</v>
       </c>
       <c r="H48">
         <v>12</v>
       </c>
       <c r="I48">
         <f t="shared" si="22"/>
-        <v>26.307692307692307</v>
+        <v>22.545454545454547</v>
       </c>
       <c r="J48">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K48">
         <v>17900</v>
       </c>
       <c r="L48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N48">
         <v>25</v>
@@ -3786,15 +3711,15 @@
       </c>
       <c r="S48">
         <f t="shared" si="17"/>
-        <v>6712</v>
+        <v>6932</v>
       </c>
       <c r="T48" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900</v>
       </c>
       <c r="U48" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
+        <v>,"15":70,"25":90,"34":100,"44":120</v>
       </c>
       <c r="V48" t="str">
         <f t="shared" si="15"/>
@@ -3815,27 +3740,27 @@
       </c>
       <c r="C49">
         <f t="shared" si="3"/>
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="G49">
         <f t="shared" si="5"/>
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="H49">
         <v>8</v>
       </c>
       <c r="I49">
         <f t="shared" si="22"/>
-        <v>25</v>
+        <v>23.272727272727273</v>
       </c>
       <c r="J49">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K49">
         <v>17300</v>
       </c>
       <c r="L49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N49">
         <v>30</v>
@@ -3849,15 +3774,15 @@
       </c>
       <c r="S49">
         <f t="shared" si="17"/>
-        <v>6712</v>
+        <v>6932</v>
       </c>
       <c r="T49" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300</v>
       </c>
       <c r="U49" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120</v>
+        <v>,"15":70,"25":90,"34":100,"44":120</v>
       </c>
       <c r="V49" t="str">
         <f t="shared" si="15"/>
@@ -3888,23 +3813,23 @@
       </c>
       <c r="G50">
         <f t="shared" si="5"/>
-        <v>370</v>
+        <v>276</v>
       </c>
       <c r="H50">
         <v>20</v>
       </c>
       <c r="I50">
         <f t="shared" si="22"/>
-        <v>26.428571428571427</v>
+        <v>25.09090909090909</v>
       </c>
       <c r="J50">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K50">
         <v>45000</v>
       </c>
       <c r="L50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M50">
         <v>100</v>
@@ -3915,15 +3840,15 @@
       </c>
       <c r="S50">
         <f t="shared" si="17"/>
-        <v>6712</v>
+        <v>6932</v>
       </c>
       <c r="T50" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000</v>
       </c>
       <c r="U50" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="V50" t="str">
         <f t="shared" si="15"/>
@@ -3944,27 +3869,27 @@
       </c>
       <c r="C51">
         <f t="shared" si="3"/>
-        <v>378</v>
+        <v>284</v>
       </c>
       <c r="G51">
         <f t="shared" si="5"/>
-        <v>378</v>
+        <v>284</v>
       </c>
       <c r="H51">
         <v>8</v>
       </c>
       <c r="I51">
         <f t="shared" si="22"/>
-        <v>27</v>
+        <v>23.666666666666668</v>
       </c>
       <c r="J51">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K51">
         <v>22300</v>
       </c>
       <c r="L51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N51">
         <v>35</v>
@@ -3978,15 +3903,15 @@
       </c>
       <c r="S51">
         <f t="shared" si="17"/>
-        <v>6712</v>
+        <v>6932</v>
       </c>
       <c r="T51" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300</v>
       </c>
       <c r="U51" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="V51" t="str">
         <f t="shared" ref="V51:V77" si="23">""""&amp;$A51&amp;""""&amp;""&amp;":"&amp;K51</f>
@@ -4007,27 +3932,27 @@
       </c>
       <c r="C52">
         <f t="shared" si="3"/>
-        <v>382</v>
+        <v>288</v>
       </c>
       <c r="G52">
         <f t="shared" si="5"/>
-        <v>382</v>
+        <v>288</v>
       </c>
       <c r="H52">
         <v>4</v>
       </c>
       <c r="I52">
         <f t="shared" si="22"/>
-        <v>27.285714285714285</v>
+        <v>24</v>
       </c>
       <c r="J52">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K52">
         <v>22800</v>
       </c>
       <c r="L52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O52">
         <v>25</v>
@@ -4041,15 +3966,15 @@
       </c>
       <c r="S52">
         <f t="shared" si="17"/>
-        <v>7362</v>
+        <v>7582</v>
       </c>
       <c r="T52" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800</v>
       </c>
       <c r="U52" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="V52" t="str">
         <f t="shared" si="23"/>
@@ -4080,23 +4005,23 @@
       </c>
       <c r="G53">
         <f t="shared" si="5"/>
-        <v>392</v>
+        <v>298</v>
       </c>
       <c r="H53">
         <v>10</v>
       </c>
       <c r="I53">
         <f t="shared" si="22"/>
-        <v>28</v>
+        <v>24.833333333333332</v>
       </c>
       <c r="J53">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K53">
         <v>23200</v>
       </c>
       <c r="L53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N53">
         <v>25</v>
@@ -4116,15 +4041,15 @@
       </c>
       <c r="S53">
         <f t="shared" si="17"/>
-        <v>8037</v>
+        <v>8257</v>
       </c>
       <c r="T53" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200</v>
       </c>
       <c r="U53" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="V53" t="str">
         <f t="shared" si="23"/>
@@ -4145,27 +4070,27 @@
       </c>
       <c r="C54">
         <f t="shared" si="3"/>
-        <v>396</v>
+        <v>302</v>
       </c>
       <c r="G54">
         <f t="shared" si="5"/>
-        <v>396</v>
+        <v>302</v>
       </c>
       <c r="H54">
         <v>4</v>
       </c>
       <c r="I54">
         <f t="shared" si="22"/>
-        <v>28.285714285714285</v>
+        <v>25.166666666666668</v>
       </c>
       <c r="J54">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K54">
         <v>23000</v>
       </c>
       <c r="L54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N54">
         <v>30</v>
@@ -4179,15 +4104,15 @@
       </c>
       <c r="S54">
         <f t="shared" si="17"/>
-        <v>8037</v>
+        <v>8257</v>
       </c>
       <c r="T54" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000</v>
       </c>
       <c r="U54" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="V54" t="str">
         <f t="shared" si="23"/>
@@ -4218,23 +4143,23 @@
       </c>
       <c r="G55">
         <f t="shared" si="5"/>
-        <v>402</v>
+        <v>308</v>
       </c>
       <c r="H55">
         <v>6</v>
       </c>
       <c r="I55">
         <f t="shared" si="22"/>
-        <v>28.714285714285715</v>
+        <v>23.692307692307693</v>
       </c>
       <c r="J55">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K55">
         <v>22700</v>
       </c>
       <c r="L55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O55">
         <v>25</v>
@@ -4248,15 +4173,15 @@
       </c>
       <c r="S55">
         <f t="shared" si="17"/>
-        <v>8787</v>
+        <v>9007</v>
       </c>
       <c r="T55" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700</v>
       </c>
       <c r="U55" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="V55" t="str">
         <f t="shared" si="23"/>
@@ -4277,27 +4202,27 @@
       </c>
       <c r="C56">
         <f t="shared" si="3"/>
-        <v>408</v>
+        <v>314</v>
       </c>
       <c r="G56">
         <f t="shared" si="5"/>
-        <v>408</v>
+        <v>314</v>
       </c>
       <c r="H56">
         <v>6</v>
       </c>
       <c r="I56">
         <f t="shared" si="22"/>
-        <v>29.142857142857142</v>
+        <v>24.153846153846153</v>
       </c>
       <c r="J56">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K56">
         <v>23200</v>
       </c>
       <c r="L56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N56">
         <v>30</v>
@@ -4311,15 +4236,15 @@
       </c>
       <c r="S56">
         <f t="shared" si="17"/>
-        <v>8787</v>
+        <v>9007</v>
       </c>
       <c r="T56" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200</v>
       </c>
       <c r="U56" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="V56" t="str">
         <f t="shared" si="23"/>
@@ -4350,23 +4275,23 @@
       </c>
       <c r="G57">
         <f t="shared" si="5"/>
-        <v>418</v>
+        <v>324</v>
       </c>
       <c r="H57">
         <v>10</v>
       </c>
       <c r="I57">
         <f t="shared" si="22"/>
-        <v>29.857142857142858</v>
+        <v>24.923076923076923</v>
       </c>
       <c r="J57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K57">
         <v>24000</v>
       </c>
       <c r="L57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N57">
         <v>25</v>
@@ -4386,15 +4311,15 @@
       </c>
       <c r="S57">
         <f t="shared" si="17"/>
-        <v>9562</v>
+        <v>9782</v>
       </c>
       <c r="T57" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000</v>
       </c>
       <c r="U57" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="V57" t="str">
         <f t="shared" si="23"/>
@@ -4415,27 +4340,27 @@
       </c>
       <c r="C58">
         <f t="shared" si="3"/>
-        <v>422</v>
+        <v>328</v>
       </c>
       <c r="G58">
         <f t="shared" si="5"/>
-        <v>422</v>
+        <v>328</v>
       </c>
       <c r="H58">
         <v>4</v>
       </c>
       <c r="I58">
         <f t="shared" si="22"/>
-        <v>28.133333333333333</v>
+        <v>25.23076923076923</v>
       </c>
       <c r="J58">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K58">
         <v>23500</v>
       </c>
       <c r="L58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N58">
         <v>30</v>
@@ -4449,15 +4374,15 @@
       </c>
       <c r="S58">
         <f t="shared" si="17"/>
-        <v>9562</v>
+        <v>9782</v>
       </c>
       <c r="T58" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500</v>
       </c>
       <c r="U58" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="V58" t="str">
         <f t="shared" si="23"/>
@@ -4478,27 +4403,27 @@
       </c>
       <c r="C59">
         <f t="shared" si="3"/>
-        <v>430</v>
+        <v>336</v>
       </c>
       <c r="G59">
         <f t="shared" si="5"/>
-        <v>430</v>
+        <v>336</v>
       </c>
       <c r="H59">
         <v>8</v>
       </c>
       <c r="I59">
         <f t="shared" si="22"/>
-        <v>28.666666666666668</v>
+        <v>24</v>
       </c>
       <c r="J59">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K59">
         <v>23800</v>
       </c>
       <c r="L59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O59">
         <v>20</v>
@@ -4512,15 +4437,15 @@
       </c>
       <c r="S59">
         <f t="shared" si="17"/>
-        <v>10362</v>
+        <v>10582</v>
       </c>
       <c r="T59" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800</v>
       </c>
       <c r="U59" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100</v>
       </c>
       <c r="V59" t="str">
         <f t="shared" si="23"/>
@@ -4551,23 +4476,23 @@
       </c>
       <c r="G60">
         <f t="shared" si="5"/>
-        <v>452</v>
+        <v>358</v>
       </c>
       <c r="H60">
         <v>22</v>
       </c>
       <c r="I60">
         <f t="shared" si="22"/>
-        <v>30.133333333333333</v>
+        <v>25.571428571428573</v>
       </c>
       <c r="J60">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K60">
         <v>52000</v>
       </c>
       <c r="L60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M60">
         <v>150</v>
@@ -4578,15 +4503,15 @@
       </c>
       <c r="S60">
         <f t="shared" si="17"/>
-        <v>10362</v>
+        <v>10582</v>
       </c>
       <c r="T60" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000</v>
       </c>
       <c r="U60" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="V60" t="str">
         <f t="shared" si="23"/>
@@ -4607,27 +4532,27 @@
       </c>
       <c r="C61">
         <f t="shared" si="3"/>
-        <v>460</v>
+        <v>366</v>
       </c>
       <c r="G61">
         <f t="shared" si="5"/>
-        <v>460</v>
+        <v>366</v>
       </c>
       <c r="H61">
         <v>8</v>
       </c>
       <c r="I61">
         <f t="shared" si="22"/>
-        <v>30.666666666666668</v>
+        <v>26.142857142857142</v>
       </c>
       <c r="J61">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K61">
         <v>28500</v>
       </c>
       <c r="L61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N61">
         <v>40</v>
@@ -4641,15 +4566,15 @@
       </c>
       <c r="S61">
         <f t="shared" si="17"/>
-        <v>10362</v>
+        <v>10582</v>
       </c>
       <c r="T61" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500</v>
       </c>
       <c r="U61" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="V61" t="str">
         <f t="shared" si="23"/>
@@ -4670,27 +4595,27 @@
       </c>
       <c r="C62">
         <f t="shared" si="3"/>
-        <v>468</v>
+        <v>374</v>
       </c>
       <c r="G62">
         <f t="shared" si="5"/>
-        <v>468</v>
+        <v>374</v>
       </c>
       <c r="H62">
         <v>8</v>
       </c>
       <c r="I62">
         <f t="shared" si="22"/>
-        <v>31.2</v>
+        <v>26.714285714285715</v>
       </c>
       <c r="J62">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K62">
         <v>28000</v>
       </c>
       <c r="L62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O62">
         <v>20</v>
@@ -4704,15 +4629,15 @@
       </c>
       <c r="S62">
         <f t="shared" si="17"/>
-        <v>11262</v>
+        <v>11482</v>
       </c>
       <c r="T62" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000</v>
       </c>
       <c r="U62" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="V62" t="str">
         <f t="shared" si="23"/>
@@ -4743,23 +4668,23 @@
       </c>
       <c r="G63">
         <f t="shared" si="5"/>
-        <v>478</v>
+        <v>384</v>
       </c>
       <c r="H63">
         <v>10</v>
       </c>
       <c r="I63">
         <f t="shared" si="22"/>
-        <v>31.866666666666667</v>
+        <v>27.428571428571427</v>
       </c>
       <c r="J63">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K63">
         <v>28700</v>
       </c>
       <c r="L63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N63">
         <v>25</v>
@@ -4779,15 +4704,15 @@
       </c>
       <c r="S63">
         <f t="shared" si="17"/>
-        <v>12237</v>
+        <v>12457</v>
       </c>
       <c r="T63" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700</v>
       </c>
       <c r="U63" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="V63" t="str">
         <f t="shared" si="23"/>
@@ -4808,18 +4733,18 @@
       </c>
       <c r="C64">
         <f t="shared" si="3"/>
-        <v>482</v>
+        <v>388</v>
       </c>
       <c r="G64">
         <f t="shared" si="5"/>
-        <v>482</v>
+        <v>388</v>
       </c>
       <c r="H64">
         <v>4</v>
       </c>
       <c r="I64">
         <f t="shared" si="22"/>
-        <v>32.133333333333333</v>
+        <v>25.866666666666667</v>
       </c>
       <c r="J64">
         <v>15</v>
@@ -4828,7 +4753,7 @@
         <v>28500</v>
       </c>
       <c r="L64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N64">
         <v>35</v>
@@ -4842,15 +4767,15 @@
       </c>
       <c r="S64">
         <f t="shared" si="17"/>
-        <v>12237</v>
+        <v>12457</v>
       </c>
       <c r="T64" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500</v>
       </c>
       <c r="U64" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="V64" t="str">
         <f t="shared" si="23"/>
@@ -4871,18 +4796,18 @@
       </c>
       <c r="C65">
         <f t="shared" si="3"/>
-        <v>488</v>
+        <v>394</v>
       </c>
       <c r="G65">
         <f t="shared" si="5"/>
-        <v>488</v>
+        <v>394</v>
       </c>
       <c r="H65">
         <v>6</v>
       </c>
       <c r="I65">
         <f t="shared" si="22"/>
-        <v>32.533333333333331</v>
+        <v>26.266666666666666</v>
       </c>
       <c r="J65">
         <v>15</v>
@@ -4891,7 +4816,7 @@
         <v>29200</v>
       </c>
       <c r="L65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O65">
         <v>20</v>
@@ -4905,15 +4830,15 @@
       </c>
       <c r="S65">
         <f t="shared" si="17"/>
-        <v>13337</v>
+        <v>13557</v>
       </c>
       <c r="T65" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200</v>
       </c>
       <c r="U65" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="V65" t="str">
         <f t="shared" si="23"/>
@@ -4934,18 +4859,18 @@
       </c>
       <c r="C66">
         <f t="shared" si="3"/>
-        <v>496</v>
+        <v>402</v>
       </c>
       <c r="G66">
         <f t="shared" si="5"/>
-        <v>496</v>
+        <v>402</v>
       </c>
       <c r="H66">
         <v>8</v>
       </c>
       <c r="I66">
-        <f t="shared" ref="I66:I97" si="24">G66/J66</f>
-        <v>33.06666666666667</v>
+        <f t="shared" ref="I66:I77" si="24">G66/J66</f>
+        <v>26.8</v>
       </c>
       <c r="J66">
         <v>15</v>
@@ -4954,7 +4879,7 @@
         <v>29500</v>
       </c>
       <c r="L66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N66">
         <v>30</v>
@@ -4968,15 +4893,15 @@
       </c>
       <c r="S66">
         <f t="shared" si="17"/>
-        <v>13337</v>
+        <v>13557</v>
       </c>
       <c r="T66" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500</v>
       </c>
       <c r="U66" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="V66" t="str">
         <f t="shared" si="23"/>
@@ -5008,23 +4933,23 @@
       </c>
       <c r="G67">
         <f t="shared" si="5"/>
-        <v>506</v>
+        <v>412</v>
       </c>
       <c r="H67">
         <v>10</v>
       </c>
       <c r="I67">
         <f t="shared" si="24"/>
-        <v>31.625</v>
+        <v>27.466666666666665</v>
       </c>
       <c r="J67">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K67">
         <v>29000</v>
       </c>
       <c r="L67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N67">
         <v>25</v>
@@ -5044,15 +4969,15 @@
       </c>
       <c r="S67">
         <f t="shared" si="17"/>
-        <v>14537</v>
+        <v>14757</v>
       </c>
       <c r="T67" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000</v>
       </c>
       <c r="U67" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="V67" t="str">
         <f t="shared" si="23"/>
@@ -5073,27 +4998,27 @@
       </c>
       <c r="C68">
         <f t="shared" si="26"/>
-        <v>514</v>
+        <v>420</v>
       </c>
       <c r="G68">
         <f t="shared" ref="G68:G77" si="27">G67+H68</f>
-        <v>514</v>
+        <v>420</v>
       </c>
       <c r="H68">
         <v>8</v>
       </c>
       <c r="I68">
         <f t="shared" si="24"/>
-        <v>32.125</v>
+        <v>28</v>
       </c>
       <c r="J68">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K68">
         <v>29700</v>
       </c>
       <c r="L68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N68">
         <v>30</v>
@@ -5107,15 +5032,15 @@
       </c>
       <c r="S68">
         <f t="shared" si="17"/>
-        <v>14537</v>
+        <v>14757</v>
       </c>
       <c r="T68" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700</v>
       </c>
       <c r="U68" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="V68" t="str">
         <f t="shared" si="23"/>
@@ -5136,27 +5061,27 @@
       </c>
       <c r="C69">
         <f t="shared" si="26"/>
-        <v>518</v>
+        <v>424</v>
       </c>
       <c r="G69">
         <f t="shared" si="27"/>
-        <v>518</v>
+        <v>424</v>
       </c>
       <c r="H69">
         <v>4</v>
       </c>
       <c r="I69">
         <f t="shared" si="24"/>
-        <v>32.375</v>
+        <v>28.266666666666666</v>
       </c>
       <c r="J69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K69">
         <v>29500</v>
       </c>
       <c r="L69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O69">
         <v>20</v>
@@ -5170,15 +5095,15 @@
       </c>
       <c r="S69">
         <f t="shared" si="17"/>
-        <v>15837</v>
+        <v>16057</v>
       </c>
       <c r="T69" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500</v>
       </c>
       <c r="U69" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="V69" t="str">
         <f t="shared" si="23"/>
@@ -5199,27 +5124,27 @@
       </c>
       <c r="C70">
         <f t="shared" si="26"/>
-        <v>524</v>
+        <v>430</v>
       </c>
       <c r="G70">
         <f t="shared" si="27"/>
-        <v>524</v>
+        <v>430</v>
       </c>
       <c r="H70">
         <v>6</v>
       </c>
       <c r="I70">
         <f t="shared" si="24"/>
-        <v>32.75</v>
+        <v>28.666666666666668</v>
       </c>
       <c r="J70">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K70">
         <v>29900</v>
       </c>
       <c r="L70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N70">
         <v>40</v>
@@ -5233,15 +5158,15 @@
       </c>
       <c r="S70">
         <f t="shared" si="17"/>
-        <v>15837</v>
+        <v>16057</v>
       </c>
       <c r="T70" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900</v>
       </c>
       <c r="U70" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" si="23"/>
@@ -5272,23 +5197,23 @@
       </c>
       <c r="G71">
         <f t="shared" si="27"/>
-        <v>540</v>
+        <v>446</v>
       </c>
       <c r="H71">
         <v>16</v>
       </c>
       <c r="I71">
         <f t="shared" si="24"/>
-        <v>33.75</v>
+        <v>29.733333333333334</v>
       </c>
       <c r="J71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K71">
         <v>64000</v>
       </c>
       <c r="L71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M71">
         <v>120</v>
@@ -5299,15 +5224,15 @@
       </c>
       <c r="S71">
         <f t="shared" si="17"/>
-        <v>15837</v>
+        <v>16057</v>
       </c>
       <c r="T71" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000</v>
       </c>
       <c r="U71" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
       </c>
       <c r="V71" t="str">
         <f t="shared" si="23"/>
@@ -5328,27 +5253,27 @@
       </c>
       <c r="C72">
         <f t="shared" si="26"/>
-        <v>548</v>
+        <v>454</v>
       </c>
       <c r="G72">
         <f t="shared" si="27"/>
-        <v>548</v>
+        <v>454</v>
       </c>
       <c r="H72">
         <v>8</v>
       </c>
       <c r="I72">
         <f t="shared" si="24"/>
-        <v>34.25</v>
+        <v>30.266666666666666</v>
       </c>
       <c r="J72">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K72">
         <v>33000</v>
       </c>
       <c r="L72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N72">
         <v>35</v>
@@ -5362,15 +5287,15 @@
       </c>
       <c r="S72">
         <f t="shared" si="17"/>
-        <v>15837</v>
+        <v>16057</v>
       </c>
       <c r="T72" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000</v>
       </c>
       <c r="U72" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
       </c>
       <c r="V72" t="str">
         <f t="shared" si="23"/>
@@ -5391,27 +5316,27 @@
       </c>
       <c r="C73">
         <f t="shared" si="26"/>
-        <v>558</v>
+        <v>464</v>
       </c>
       <c r="G73">
         <f t="shared" si="27"/>
-        <v>558</v>
+        <v>464</v>
       </c>
       <c r="H73">
         <v>10</v>
       </c>
       <c r="I73">
         <f t="shared" si="24"/>
-        <v>34.875</v>
+        <v>30.933333333333334</v>
       </c>
       <c r="J73">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K73">
         <v>33500</v>
       </c>
       <c r="L73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N73">
         <v>30</v>
@@ -5431,15 +5356,15 @@
       </c>
       <c r="S73">
         <f t="shared" si="17"/>
-        <v>17337</v>
+        <v>17557</v>
       </c>
       <c r="T73" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500</v>
       </c>
       <c r="U73" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
       </c>
       <c r="V73" t="str">
         <f t="shared" si="23"/>
@@ -5470,23 +5395,23 @@
       </c>
       <c r="G74">
         <f t="shared" si="27"/>
-        <v>566</v>
+        <v>472</v>
       </c>
       <c r="H74">
         <v>8</v>
       </c>
       <c r="I74">
         <f t="shared" si="24"/>
-        <v>35.375</v>
+        <v>31.466666666666665</v>
       </c>
       <c r="J74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K74">
         <v>33800</v>
       </c>
       <c r="L74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N74">
         <v>35</v>
@@ -5500,15 +5425,15 @@
       </c>
       <c r="S74">
         <f t="shared" si="17"/>
-        <v>17337</v>
+        <v>17557</v>
       </c>
       <c r="T74" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800</v>
       </c>
       <c r="U74" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
       </c>
       <c r="V74" t="str">
         <f t="shared" si="23"/>
@@ -5529,18 +5454,18 @@
       </c>
       <c r="C75">
         <f t="shared" si="26"/>
-        <v>576</v>
+        <v>482</v>
       </c>
       <c r="G75">
         <f t="shared" si="27"/>
-        <v>576</v>
+        <v>482</v>
       </c>
       <c r="H75">
         <v>10</v>
       </c>
       <c r="I75">
         <f t="shared" si="24"/>
-        <v>36</v>
+        <v>30.125</v>
       </c>
       <c r="J75">
         <v>16</v>
@@ -5549,7 +5474,7 @@
         <v>34500</v>
       </c>
       <c r="L75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N75">
         <v>25</v>
@@ -5569,15 +5494,15 @@
       </c>
       <c r="S75">
         <f t="shared" si="17"/>
-        <v>19237</v>
+        <v>19457</v>
       </c>
       <c r="T75" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500</v>
       </c>
       <c r="U75" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
       </c>
       <c r="V75" t="str">
         <f t="shared" si="23"/>
@@ -5598,18 +5523,18 @@
       </c>
       <c r="C76">
         <f t="shared" si="26"/>
-        <v>584</v>
+        <v>490</v>
       </c>
       <c r="G76">
         <f t="shared" si="27"/>
-        <v>584</v>
+        <v>490</v>
       </c>
       <c r="H76">
         <v>8</v>
       </c>
       <c r="I76">
         <f t="shared" si="24"/>
-        <v>36.5</v>
+        <v>30.625</v>
       </c>
       <c r="J76">
         <v>16</v>
@@ -5618,7 +5543,7 @@
         <v>34200</v>
       </c>
       <c r="L76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N76">
         <v>30</v>
@@ -5632,15 +5557,15 @@
       </c>
       <c r="S76">
         <f t="shared" si="17"/>
-        <v>19237</v>
+        <v>19457</v>
       </c>
       <c r="T76" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200</v>
       </c>
       <c r="U76" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
       </c>
       <c r="V76" t="str">
         <f t="shared" si="23"/>
@@ -5661,18 +5586,18 @@
       </c>
       <c r="C77">
         <f t="shared" si="26"/>
-        <v>592</v>
+        <v>498</v>
       </c>
       <c r="G77">
         <f t="shared" si="27"/>
-        <v>592</v>
+        <v>498</v>
       </c>
       <c r="H77">
         <v>8</v>
       </c>
       <c r="I77">
         <f t="shared" si="24"/>
-        <v>37</v>
+        <v>31.125</v>
       </c>
       <c r="J77">
         <v>16</v>
@@ -5681,7 +5606,7 @@
         <v>35000</v>
       </c>
       <c r="L77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O77">
         <v>20</v>
@@ -5695,15 +5620,15 @@
       </c>
       <c r="S77">
         <f t="shared" si="17"/>
-        <v>21337</v>
+        <v>21557</v>
       </c>
       <c r="T77" t="str">
         <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":2600,"13":8000,"14":4300,"15":4800,"16":4600,"17":4900,"18":12000,"19":6800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200,"76":35000</v>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200,"76":35000</v>
       </c>
       <c r="U77" t="str">
         <f t="shared" si="19"/>
-        <v>,"13":70,"18":110,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
+        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
       </c>
       <c r="V77" t="str">
         <f t="shared" si="23"/>
@@ -5712,6 +5637,104 @@
       <c r="W77" t="str">
         <f t="shared" si="20"/>
         <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>19</v>
+      </c>
+      <c r="D81">
+        <f>SUM(H2:H20)</f>
+        <v>67</v>
+      </c>
+      <c r="G81">
+        <v>67</v>
+      </c>
+      <c r="H81">
+        <f>G81/19</f>
+        <v>3.5263157894736841</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>19</v>
+      </c>
+      <c r="D82">
+        <f>SUM(H21:H39)</f>
+        <v>105</v>
+      </c>
+      <c r="E82">
+        <f>D82/D81</f>
+        <v>1.5671641791044777</v>
+      </c>
+      <c r="G82">
+        <f t="shared" ref="G82:G84" si="28">G81*1.57</f>
+        <v>105.19</v>
+      </c>
+      <c r="H82">
+        <f>G82/19</f>
+        <v>5.5363157894736839</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>19</v>
+      </c>
+      <c r="D83">
+        <f>SUM(H40:H58)</f>
+        <v>156</v>
+      </c>
+      <c r="E83">
+        <f>D83/D82</f>
+        <v>1.4857142857142858</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="28"/>
+        <v>165.14830000000001</v>
+      </c>
+      <c r="H83">
+        <f>G83/19</f>
+        <v>8.6920157894736843</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>19</v>
+      </c>
+      <c r="D84">
+        <f>SUM(H59:H77)</f>
+        <v>170</v>
+      </c>
+      <c r="E84">
+        <f>D84/D83</f>
+        <v>1.0897435897435896</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="28"/>
+        <v>259.28283100000004</v>
+      </c>
+      <c r="H84">
+        <f>G84/19</f>
+        <v>13.646464789473686</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <f>SUM(D81:D84)</f>
+        <v>498</v>
+      </c>
+      <c r="F85">
+        <f>37*16</f>
+        <v>592</v>
+      </c>
+      <c r="G85">
+        <f>SUM(G81:G84)</f>
+        <v>596.6211310000001</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Research.xlsx
+++ b/Excel/작업Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091752A9-D734-4F6F-B226-14517A556F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0305F086-8A1A-4227-8F6F-36717FE019BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchTable" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="48">
   <si>
     <t>필요캐릭터인원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,38 @@
   </si>
   <si>
     <t>합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고 오리진 개봉 카운트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고레벨몇명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,1~3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15~19,3~8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8~11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11~12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,11 +602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B294627A-88CA-400D-B366-14507FB4AA24}">
-  <dimension ref="A1:Z85"/>
+  <dimension ref="A1:AC85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X5" sqref="X5"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -583,22 +615,22 @@
     <col min="4" max="4" width="12.625" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="12.625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="10" width="12.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="8.25" customWidth="1"/>
-    <col min="15" max="15" width="7.875" customWidth="1"/>
-    <col min="16" max="17" width="7.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="7.875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.25" customWidth="1"/>
-    <col min="20" max="23" width="8.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="9" collapsed="1"/>
-    <col min="25" max="25" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="9" collapsed="1"/>
+    <col min="7" max="13" width="12.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="12.625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="12.625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.25" customWidth="1"/>
+    <col min="18" max="18" width="7.875" customWidth="1"/>
+    <col min="19" max="20" width="7.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="7.875" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.25" customWidth="1"/>
+    <col min="23" max="26" width="8.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="9" collapsed="1"/>
+    <col min="28" max="28" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -618,61 +650,70 @@
         <v>35</v>
       </c>
       <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -682,7 +723,7 @@
       </c>
       <c r="C2" t="str">
         <f>IF(NOT(ISBLANK(D2)),D2,
-IF(ISBLANK(E2),G2,""))</f>
+IF(ISBLANK(E2),J2,""))</f>
         <v/>
       </c>
       <c r="E2">
@@ -691,64 +732,64 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <f>H2</f>
+      <c r="J2">
+        <f>K2</f>
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>6</v>
       </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I33" si="0">G2/J2</f>
+      <c r="L2">
+        <f t="shared" ref="L2:L33" si="0">J2/M2</f>
         <v>3</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>2</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>1500</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>10</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>80</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>250</v>
       </c>
-      <c r="R2">
-        <f>P2</f>
+      <c r="U2">
+        <f>S2</f>
         <v>250</v>
       </c>
-      <c r="S2">
-        <f>Q2</f>
+      <c r="V2">
+        <f>T2</f>
         <v>0</v>
       </c>
-      <c r="T2" t="str">
-        <f>V2</f>
+      <c r="W2" t="str">
+        <f>Y2</f>
         <v>"1":1500</v>
       </c>
-      <c r="U2" t="str">
-        <f>W2</f>
-        <v/>
-      </c>
-      <c r="V2" t="str">
-        <f>""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;K2</f>
+      <c r="X2" t="str">
+        <f>Z2</f>
+        <v/>
+      </c>
+      <c r="Y2" t="str">
+        <f>""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;N2</f>
         <v>"1":1500</v>
       </c>
-      <c r="W2" t="str">
-        <f t="shared" ref="W2:W20" si="1">IF(ISBLANK(M2),"",""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;M2)</f>
-        <v/>
-      </c>
-      <c r="Y2" t="str">
+      <c r="Z2" t="str">
+        <f t="shared" ref="Z2:Z20" si="1">IF(ISBLANK(P2),"",""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;P2)</f>
+        <v/>
+      </c>
+      <c r="AB2" t="str">
         <f ca="1">"{"&amp;
-IF(LEFT(OFFSET(T1,COUNTA(T:T)-1,0),1)=",",SUBSTITUTE(OFFSET(T1,COUNTA(T:T)-1,0),",","",1),OFFSET(T1,COUNTA(T:T)-1,0))
+IF(LEFT(OFFSET(W1,COUNTA(W:W)-1,0),1)=",",SUBSTITUTE(OFFSET(W1,COUNTA(W:W)-1,0),",","",1),OFFSET(W1,COUNTA(W:W)-1,0))
 &amp;"}"</f>
         <v>{"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200,"76":35000}</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -758,7 +799,7 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" si="3">IF(NOT(ISBLANK(D3)),D3,
-IF(ISBLANK(E3),G3,""))</f>
+IF(ISBLANK(E3),J3,""))</f>
         <v/>
       </c>
       <c r="E3">
@@ -767,58 +808,55 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <f>G2+H3</f>
+      <c r="J3">
+        <f>J2+K3</f>
         <v>8</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>2</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>1200</v>
       </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3">
+      <c r="O3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3">
         <v>20</v>
       </c>
-      <c r="Q3">
-        <v>20</v>
-      </c>
-      <c r="R3">
-        <f>R2+P3</f>
+      <c r="U3">
+        <f>U2+S3</f>
         <v>250</v>
       </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S20" si="4">S2+Q3</f>
-        <v>20</v>
-      </c>
-      <c r="T3" t="str">
-        <f>T2&amp;","&amp;V3</f>
+      <c r="V3">
+        <f t="shared" ref="V3:V20" si="4">V2+T3</f>
+        <v>0</v>
+      </c>
+      <c r="W3" t="str">
+        <f>W2&amp;","&amp;Y3</f>
         <v>"1":1500,"2":1200</v>
       </c>
-      <c r="U3" t="str">
-        <f>U2&amp;IF(LEN(W3)=0,"",","&amp;W3)</f>
-        <v/>
-      </c>
-      <c r="V3" t="str">
-        <f>""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;K3</f>
+      <c r="X3" t="str">
+        <f>X2&amp;IF(LEN(Z3)=0,"",","&amp;Z3)</f>
+        <v>,"2":20</v>
+      </c>
+      <c r="Y3" t="str">
+        <f>""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;N3</f>
         <v>"2":1200</v>
       </c>
-      <c r="W3" t="str">
+      <c r="Z3" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+        <v>"2":20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -830,61 +868,61 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G67" si="5">G3+H4</f>
+      <c r="J4">
+        <f t="shared" ref="J4:J67" si="5">J3+K4</f>
         <v>10</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>2</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>1300</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>10</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>60</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>200</v>
       </c>
-      <c r="R4">
-        <f t="shared" ref="R4:R20" si="6">R3+P4</f>
+      <c r="U4">
+        <f t="shared" ref="U4:U20" si="6">U3+S4</f>
         <v>450</v>
       </c>
-      <c r="S4">
+      <c r="V4">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="T4" t="str">
-        <f t="shared" ref="T4:T20" si="7">T3&amp;","&amp;V4</f>
+        <v>0</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" ref="W4:W20" si="7">W3&amp;","&amp;Y4</f>
         <v>"1":1500,"2":1200,"3":1300</v>
       </c>
-      <c r="U4" t="str">
-        <f t="shared" ref="U4:U20" si="8">U3&amp;IF(LEN(W4)=0,"",","&amp;W4)</f>
-        <v/>
-      </c>
-      <c r="V4" t="str">
-        <f>""""&amp;$A4&amp;""""&amp;""&amp;":"&amp;K4</f>
+      <c r="X4" t="str">
+        <f t="shared" ref="X4:X20" si="8">X3&amp;IF(LEN(Z4)=0,"",","&amp;Z4)</f>
+        <v>,"2":20</v>
+      </c>
+      <c r="Y4" t="str">
+        <f>""""&amp;$A4&amp;""""&amp;""&amp;":"&amp;N4</f>
         <v>"3":1300</v>
       </c>
-      <c r="W4" t="str">
+      <c r="Z4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -896,64 +934,64 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>2</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>1800</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>31</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>20</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <v>25</v>
       </c>
-      <c r="R5">
-        <f t="shared" ref="R5:R18" si="9">R4+P5</f>
+      <c r="U5">
+        <f t="shared" ref="U5:U18" si="9">U4+S5</f>
         <v>450</v>
       </c>
-      <c r="S5">
-        <f t="shared" ref="S5:S18" si="10">S4+Q5</f>
-        <v>45</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" ref="T5:T18" si="11">T4&amp;","&amp;V5</f>
+      <c r="V5">
+        <f t="shared" ref="V5:V18" si="10">V4+T5</f>
+        <v>25</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" ref="W5:W18" si="11">W4&amp;","&amp;Y5</f>
         <v>"1":1500,"2":1200,"3":1300,"4":1800</v>
       </c>
-      <c r="U5" t="str">
-        <f t="shared" ref="U5:U18" si="12">U4&amp;IF(LEN(W5)=0,"",","&amp;W5)</f>
-        <v/>
-      </c>
-      <c r="V5" t="str">
-        <f t="shared" ref="V5:V18" si="13">""""&amp;$A5&amp;""""&amp;""&amp;":"&amp;K5</f>
+      <c r="X5" t="str">
+        <f t="shared" ref="X5:X18" si="12">X4&amp;IF(LEN(Z5)=0,"",","&amp;Z5)</f>
+        <v>,"2":20</v>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" ref="Y5:Y18" si="13">""""&amp;$A5&amp;""""&amp;""&amp;":"&amp;N5</f>
         <v>"4":1800</v>
       </c>
-      <c r="W5" t="str">
-        <f t="shared" ref="W5:W18" si="14">IF(ISBLANK(M5),"",""""&amp;$A5&amp;""""&amp;""&amp;":"&amp;M5)</f>
-        <v/>
-      </c>
-      <c r="Y5" t="str">
+      <c r="Z5" t="str">
+        <f t="shared" ref="Z5:Z18" si="14">IF(ISBLANK(P5),"",""""&amp;$A5&amp;""""&amp;""&amp;":"&amp;P5)</f>
+        <v/>
+      </c>
+      <c r="AB5" t="str">
         <f ca="1">"{"&amp;
-IF(LEFT(OFFSET(U1,COUNTA(U:U)-1,0),1)=",",SUBSTITUTE(OFFSET(U1,COUNTA(U:U)-1,0),",","",1),OFFSET(U1,COUNTA(U:U)-1,0))
+IF(LEFT(OFFSET(X1,COUNTA(X:X)-1,0),1)=",",SUBSTITUTE(OFFSET(X1,COUNTA(X:X)-1,0),",","",1),OFFSET(X1,COUNTA(X:X)-1,0))
 &amp;"}"</f>
-        <v>{"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120}</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+        <v>{"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -965,64 +1003,64 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>2</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>2200</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>32</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>50</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>15</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <v>170</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <v>35</v>
       </c>
-      <c r="R6">
+      <c r="U6">
         <f t="shared" si="9"/>
         <v>620</v>
       </c>
-      <c r="S6">
+      <c r="V6">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="T6" t="str">
+        <v>60</v>
+      </c>
+      <c r="W6" t="str">
         <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200</v>
       </c>
-      <c r="U6" t="str">
+      <c r="X6" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="V6" t="str">
+        <v>,"2":20</v>
+      </c>
+      <c r="Y6" t="str">
         <f t="shared" si="13"/>
         <v>"5":2200</v>
       </c>
-      <c r="W6" t="str">
+      <c r="Z6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1034,58 +1072,55 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>2</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>2000</v>
       </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7">
-        <v>30</v>
+      <c r="O7" t="s">
+        <v>5</v>
       </c>
       <c r="P7">
-        <v>190</v>
-      </c>
-      <c r="R7">
+        <v>35</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="9"/>
-        <v>810</v>
-      </c>
-      <c r="S7">
+        <v>620</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="T7" t="str">
+        <v>60</v>
+      </c>
+      <c r="W7" t="str">
         <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000</v>
       </c>
-      <c r="U7" t="str">
+      <c r="X7" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="V7" t="str">
+        <v>,"2":20,"6":35</v>
+      </c>
+      <c r="Y7" t="str">
         <f t="shared" si="13"/>
         <v>"6":2000</v>
       </c>
-      <c r="W7" t="str">
+      <c r="Z7" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+        <v>"6":35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1103,58 +1138,58 @@
       <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <f t="shared" si="0"/>
         <v>5.333333333333333</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>3</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>2200</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>31</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>15</v>
       </c>
-      <c r="Q8">
+      <c r="T8">
         <v>45</v>
       </c>
-      <c r="R8">
+      <c r="U8">
         <f t="shared" si="9"/>
-        <v>810</v>
-      </c>
-      <c r="S8">
+        <v>620</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="10"/>
-        <v>125</v>
-      </c>
-      <c r="T8" t="str">
+        <v>105</v>
+      </c>
+      <c r="W8" t="str">
         <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200</v>
       </c>
-      <c r="U8" t="str">
+      <c r="X8" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="V8" t="str">
+        <v>,"2":20,"6":35</v>
+      </c>
+      <c r="Y8" t="str">
         <f t="shared" si="13"/>
         <v>"7":2200</v>
       </c>
-      <c r="W8" t="str">
+      <c r="Z8" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1166,58 +1201,58 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="H9">
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>3</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>2100</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
         <v>33</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>40</v>
       </c>
-      <c r="P9">
+      <c r="S9">
         <v>200</v>
       </c>
-      <c r="R9">
+      <c r="U9">
         <f t="shared" si="9"/>
-        <v>1010</v>
-      </c>
-      <c r="S9">
+        <v>820</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="10"/>
-        <v>125</v>
-      </c>
-      <c r="T9" t="str">
+        <v>105</v>
+      </c>
+      <c r="W9" t="str">
         <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100</v>
       </c>
-      <c r="U9" t="str">
+      <c r="X9" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="V9" t="str">
+        <v>,"2":20,"6":35</v>
+      </c>
+      <c r="Y9" t="str">
         <f t="shared" si="13"/>
         <v>"8":2100</v>
       </c>
-      <c r="W9" t="str">
+      <c r="Z9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1235,64 +1270,64 @@
       <c r="F10">
         <v>3</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>3</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>2400</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O10" t="s">
         <v>11</v>
       </c>
-      <c r="N10">
+      <c r="Q10">
         <v>30</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>20</v>
       </c>
-      <c r="P10">
+      <c r="S10">
         <v>280</v>
       </c>
-      <c r="Q10">
+      <c r="T10">
         <v>70</v>
       </c>
-      <c r="R10">
+      <c r="U10">
         <f t="shared" si="9"/>
-        <v>1290</v>
-      </c>
-      <c r="S10">
+        <v>1100</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="10"/>
-        <v>195</v>
-      </c>
-      <c r="T10" t="str">
+        <v>175</v>
+      </c>
+      <c r="W10" t="str">
         <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400</v>
       </c>
-      <c r="U10" t="str">
+      <c r="X10" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="V10" t="str">
+        <v>,"2":20,"6":35</v>
+      </c>
+      <c r="Y10" t="str">
         <f t="shared" si="13"/>
         <v>"9":2400</v>
       </c>
-      <c r="W10" t="str">
+      <c r="Z10" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1304,58 +1339,58 @@
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <f t="shared" si="0"/>
         <v>7.666666666666667</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>3</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>2100</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>7</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>15</v>
       </c>
-      <c r="Q11">
+      <c r="T11">
         <v>80</v>
       </c>
-      <c r="R11">
+      <c r="U11">
         <f t="shared" si="9"/>
-        <v>1290</v>
-      </c>
-      <c r="S11">
+        <v>1100</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="10"/>
-        <v>275</v>
-      </c>
-      <c r="T11" t="str">
+        <v>255</v>
+      </c>
+      <c r="W11" t="str">
         <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100</v>
       </c>
-      <c r="U11" t="str">
+      <c r="X11" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="V11" t="str">
+        <v>,"2":20,"6":35</v>
+      </c>
+      <c r="Y11" t="str">
         <f t="shared" si="13"/>
         <v>"10":2100</v>
       </c>
-      <c r="W11" t="str">
+      <c r="Z11" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1367,58 +1402,58 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>4</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>4</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>2800</v>
       </c>
-      <c r="L12" t="s">
+      <c r="O12" t="s">
         <v>10</v>
       </c>
-      <c r="N12">
+      <c r="Q12">
         <v>20</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <v>400</v>
       </c>
-      <c r="R12">
+      <c r="U12">
         <f t="shared" si="9"/>
-        <v>1690</v>
-      </c>
-      <c r="S12">
+        <v>1500</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="10"/>
-        <v>275</v>
-      </c>
-      <c r="T12" t="str">
+        <v>255</v>
+      </c>
+      <c r="W12" t="str">
         <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800</v>
       </c>
-      <c r="U12" t="str">
+      <c r="X12" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="V12" t="str">
+        <v>,"2":20,"6":35</v>
+      </c>
+      <c r="Y12" t="str">
         <f t="shared" si="13"/>
         <v>"11":2800</v>
       </c>
-      <c r="W12" t="str">
+      <c r="Z12" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1436,58 +1471,58 @@
       <c r="F13">
         <v>4</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <f t="shared" si="0"/>
         <v>7.25</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>4</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <v>3000</v>
       </c>
-      <c r="L13" t="s">
+      <c r="O13" t="s">
         <v>7</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <v>15</v>
       </c>
-      <c r="Q13">
+      <c r="T13">
         <v>120</v>
       </c>
-      <c r="R13">
+      <c r="U13">
         <f t="shared" si="9"/>
-        <v>1690</v>
-      </c>
-      <c r="S13">
+        <v>1500</v>
+      </c>
+      <c r="V13">
         <f t="shared" si="10"/>
-        <v>395</v>
-      </c>
-      <c r="T13" t="str">
+        <v>375</v>
+      </c>
+      <c r="W13" t="str">
         <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000</v>
       </c>
-      <c r="U13" t="str">
+      <c r="X13" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="V13" t="str">
+        <v>,"2":20,"6":35</v>
+      </c>
+      <c r="Y13" t="str">
         <f t="shared" si="13"/>
         <v>"12":3000</v>
       </c>
-      <c r="W13" t="str">
+      <c r="Z13" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1499,58 +1534,58 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>3</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>4</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>3200</v>
       </c>
-      <c r="L14" t="s">
+      <c r="O14" t="s">
         <v>10</v>
       </c>
-      <c r="N14">
+      <c r="Q14">
         <v>25</v>
       </c>
-      <c r="P14">
+      <c r="S14">
         <v>550</v>
       </c>
-      <c r="R14">
+      <c r="U14">
         <f t="shared" si="9"/>
-        <v>2240</v>
-      </c>
-      <c r="S14">
+        <v>2050</v>
+      </c>
+      <c r="V14">
         <f t="shared" si="10"/>
-        <v>395</v>
-      </c>
-      <c r="T14" t="str">
+        <v>375</v>
+      </c>
+      <c r="W14" t="str">
         <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200</v>
       </c>
-      <c r="U14" t="str">
+      <c r="X14" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="V14" t="str">
+        <v>,"2":20,"6":35</v>
+      </c>
+      <c r="Y14" t="str">
         <f t="shared" si="13"/>
         <v>"13":3200</v>
       </c>
-      <c r="W14" t="str">
+      <c r="Z14" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1562,58 +1597,58 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>5</v>
       </c>
-      <c r="I15">
+      <c r="L15">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>4</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>3500</v>
       </c>
-      <c r="L15" t="s">
+      <c r="O15" t="s">
         <v>7</v>
       </c>
-      <c r="O15">
+      <c r="R15">
         <v>20</v>
       </c>
-      <c r="Q15">
+      <c r="T15">
         <v>150</v>
       </c>
-      <c r="R15">
+      <c r="U15">
         <f t="shared" si="9"/>
-        <v>2240</v>
-      </c>
-      <c r="S15">
+        <v>2050</v>
+      </c>
+      <c r="V15">
         <f t="shared" si="10"/>
-        <v>545</v>
-      </c>
-      <c r="T15" t="str">
+        <v>525</v>
+      </c>
+      <c r="W15" t="str">
         <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500</v>
       </c>
-      <c r="U15" t="str">
+      <c r="X15" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="V15" t="str">
+        <v>,"2":20,"6":35</v>
+      </c>
+      <c r="Y15" t="str">
         <f t="shared" si="13"/>
         <v>"14":3500</v>
       </c>
-      <c r="W15" t="str">
+      <c r="Z15" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1625,55 +1660,55 @@
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>7</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <v>4</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>8000</v>
       </c>
-      <c r="L16" t="s">
+      <c r="O16" t="s">
         <v>5</v>
       </c>
-      <c r="M16">
+      <c r="P16">
         <v>70</v>
       </c>
-      <c r="R16">
+      <c r="U16">
         <f t="shared" si="9"/>
-        <v>2240</v>
-      </c>
-      <c r="S16">
+        <v>2050</v>
+      </c>
+      <c r="V16">
         <f t="shared" si="10"/>
-        <v>545</v>
-      </c>
-      <c r="T16" t="str">
+        <v>525</v>
+      </c>
+      <c r="W16" t="str">
         <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000</v>
       </c>
-      <c r="U16" t="str">
+      <c r="X16" t="str">
         <f t="shared" si="12"/>
-        <v>,"15":70</v>
-      </c>
-      <c r="V16" t="str">
+        <v>,"2":20,"6":35,"15":70</v>
+      </c>
+      <c r="Y16" t="str">
         <f t="shared" si="13"/>
         <v>"15":8000</v>
       </c>
-      <c r="W16" t="str">
+      <c r="Z16" t="str">
         <f t="shared" si="14"/>
         <v>"15":70</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1691,58 +1726,58 @@
       <c r="F17">
         <v>4</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>4</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>4</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>4600</v>
       </c>
-      <c r="L17" t="s">
+      <c r="O17" t="s">
         <v>7</v>
       </c>
-      <c r="O17">
+      <c r="R17">
         <v>25</v>
       </c>
-      <c r="Q17">
+      <c r="T17">
         <v>200</v>
       </c>
-      <c r="R17">
+      <c r="U17">
         <f t="shared" si="9"/>
-        <v>2240</v>
-      </c>
-      <c r="S17">
+        <v>2050</v>
+      </c>
+      <c r="V17">
         <f t="shared" si="10"/>
-        <v>745</v>
-      </c>
-      <c r="T17" t="str">
+        <v>725</v>
+      </c>
+      <c r="W17" t="str">
         <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600</v>
       </c>
-      <c r="U17" t="str">
+      <c r="X17" t="str">
         <f t="shared" si="12"/>
-        <v>,"15":70</v>
-      </c>
-      <c r="V17" t="str">
+        <v>,"2":20,"6":35,"15":70</v>
+      </c>
+      <c r="Y17" t="str">
         <f t="shared" si="13"/>
         <v>"16":4600</v>
       </c>
-      <c r="W17" t="str">
+      <c r="Z17" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1754,58 +1789,58 @@
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <v>5</v>
       </c>
-      <c r="I18">
+      <c r="L18">
         <f t="shared" si="0"/>
         <v>13.25</v>
       </c>
-      <c r="J18">
+      <c r="M18">
         <v>4</v>
       </c>
-      <c r="K18">
+      <c r="N18">
         <v>4900</v>
       </c>
-      <c r="L18" t="s">
+      <c r="O18" t="s">
         <v>10</v>
       </c>
-      <c r="N18">
+      <c r="Q18">
         <v>30</v>
       </c>
-      <c r="P18">
+      <c r="S18">
         <v>670</v>
       </c>
-      <c r="R18">
+      <c r="U18">
         <f t="shared" si="9"/>
-        <v>2910</v>
-      </c>
-      <c r="S18">
+        <v>2720</v>
+      </c>
+      <c r="V18">
         <f t="shared" si="10"/>
-        <v>745</v>
-      </c>
-      <c r="T18" t="str">
+        <v>725</v>
+      </c>
+      <c r="W18" t="str">
         <f t="shared" si="11"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900</v>
       </c>
-      <c r="U18" t="str">
+      <c r="X18" t="str">
         <f t="shared" si="12"/>
-        <v>,"15":70</v>
-      </c>
-      <c r="V18" t="str">
+        <v>,"2":20,"6":35,"15":70</v>
+      </c>
+      <c r="Y18" t="str">
         <f t="shared" si="13"/>
         <v>"17":4900</v>
       </c>
-      <c r="W18" t="str">
+      <c r="Z18" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1817,58 +1852,58 @@
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="H19">
+      <c r="K19">
         <v>6</v>
       </c>
-      <c r="I19">
+      <c r="L19">
         <f t="shared" si="0"/>
         <v>11.8</v>
       </c>
-      <c r="J19">
+      <c r="M19">
         <v>5</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <v>5400</v>
       </c>
-      <c r="L19" t="s">
+      <c r="O19" t="s">
         <v>7</v>
       </c>
-      <c r="O19">
+      <c r="R19">
         <v>20</v>
       </c>
-      <c r="Q19">
+      <c r="T19">
         <v>220</v>
       </c>
-      <c r="R19">
+      <c r="U19">
         <f t="shared" si="6"/>
-        <v>2910</v>
-      </c>
-      <c r="S19">
+        <v>2720</v>
+      </c>
+      <c r="V19">
         <f t="shared" si="4"/>
-        <v>965</v>
-      </c>
-      <c r="T19" t="str">
+        <v>945</v>
+      </c>
+      <c r="W19" t="str">
         <f t="shared" si="7"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400</v>
       </c>
-      <c r="U19" t="str">
+      <c r="X19" t="str">
         <f t="shared" si="8"/>
-        <v>,"15":70</v>
-      </c>
-      <c r="V19" t="str">
-        <f t="shared" ref="V19:V50" si="15">""""&amp;$A19&amp;""""&amp;""&amp;":"&amp;K19</f>
+        <v>,"2":20,"6":35,"15":70</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" ref="Y19:Y50" si="15">""""&amp;$A19&amp;""""&amp;""&amp;":"&amp;N19</f>
         <v>"18":5400</v>
       </c>
-      <c r="W19" t="str">
+      <c r="Z19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1886,58 +1921,58 @@
       <c r="F20">
         <v>5</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="H20">
+      <c r="K20">
         <v>8</v>
       </c>
-      <c r="I20">
+      <c r="L20">
         <f t="shared" si="0"/>
         <v>13.4</v>
       </c>
-      <c r="J20">
+      <c r="M20">
         <v>5</v>
       </c>
-      <c r="K20">
+      <c r="N20">
         <v>5800</v>
       </c>
-      <c r="L20" t="s">
+      <c r="O20" t="s">
         <v>10</v>
       </c>
-      <c r="N20">
+      <c r="Q20">
         <v>30</v>
       </c>
-      <c r="P20">
+      <c r="S20">
         <v>700</v>
       </c>
-      <c r="R20">
+      <c r="U20">
         <f t="shared" si="6"/>
-        <v>3610</v>
-      </c>
-      <c r="S20">
+        <v>3420</v>
+      </c>
+      <c r="V20">
         <f t="shared" si="4"/>
-        <v>965</v>
-      </c>
-      <c r="T20" t="str">
+        <v>945</v>
+      </c>
+      <c r="W20" t="str">
         <f t="shared" si="7"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800</v>
       </c>
-      <c r="U20" t="str">
+      <c r="X20" t="str">
         <f t="shared" si="8"/>
-        <v>,"15":70</v>
-      </c>
-      <c r="V20" t="str">
+        <v>,"2":20,"6":35,"15":70</v>
+      </c>
+      <c r="Y20" t="str">
         <f t="shared" si="15"/>
         <v>"19":5800</v>
       </c>
-      <c r="W20" t="str">
+      <c r="Z20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1949,58 +1984,58 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="H21">
+      <c r="K21">
         <v>3</v>
       </c>
-      <c r="I21">
+      <c r="L21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J21">
+      <c r="M21">
         <v>5</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <v>6400</v>
       </c>
-      <c r="L21" t="s">
+      <c r="O21" t="s">
         <v>27</v>
       </c>
-      <c r="O21">
+      <c r="R21">
         <v>20</v>
       </c>
-      <c r="Q21">
+      <c r="T21">
         <v>250</v>
       </c>
-      <c r="R21">
-        <f t="shared" ref="R21:R77" si="16">R20+P21</f>
-        <v>3610</v>
-      </c>
-      <c r="S21">
-        <f t="shared" ref="S21:S77" si="17">S20+Q21</f>
-        <v>1215</v>
-      </c>
-      <c r="T21" t="str">
-        <f t="shared" ref="T21:T77" si="18">T20&amp;","&amp;V21</f>
+      <c r="U21">
+        <f t="shared" ref="U21:U77" si="16">U20+S21</f>
+        <v>3420</v>
+      </c>
+      <c r="V21">
+        <f t="shared" ref="V21:V77" si="17">V20+T21</f>
+        <v>1195</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" ref="W21:W77" si="18">W20&amp;","&amp;Y21</f>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400</v>
       </c>
-      <c r="U21" t="str">
-        <f t="shared" ref="U21:U77" si="19">U20&amp;IF(LEN(W21)=0,"",","&amp;W21)</f>
-        <v>,"15":70</v>
-      </c>
-      <c r="V21" t="str">
+      <c r="X21" t="str">
+        <f t="shared" ref="X21:X77" si="19">X20&amp;IF(LEN(Z21)=0,"",","&amp;Z21)</f>
+        <v>,"2":20,"6":35,"15":70</v>
+      </c>
+      <c r="Y21" t="str">
         <f t="shared" si="15"/>
         <v>"20":6400</v>
       </c>
-      <c r="W21" t="str">
-        <f t="shared" ref="W21:W77" si="20">IF(ISBLANK(M21),"",""""&amp;$A21&amp;""""&amp;""&amp;":"&amp;M21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z21" t="str">
+        <f t="shared" ref="Z21:Z77" si="20">IF(ISBLANK(P21),"",""""&amp;$A21&amp;""""&amp;""&amp;":"&amp;P21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2012,65 +2047,65 @@
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <v>4</v>
       </c>
-      <c r="I22">
+      <c r="L22">
         <f t="shared" si="0"/>
         <v>14.8</v>
       </c>
-      <c r="J22">
+      <c r="M22">
         <v>5</v>
       </c>
-      <c r="K22">
-        <f t="shared" ref="K22:K31" si="21">K21+200</f>
+      <c r="N22">
+        <f t="shared" ref="N22:N31" si="21">N21+200</f>
         <v>6600</v>
       </c>
-      <c r="L22" t="s">
+      <c r="O22" t="s">
         <v>24</v>
       </c>
-      <c r="N22">
+      <c r="Q22">
         <v>25</v>
       </c>
-      <c r="O22">
+      <c r="R22">
         <v>15</v>
       </c>
-      <c r="P22">
+      <c r="S22">
         <v>800</v>
       </c>
-      <c r="Q22">
+      <c r="T22">
         <v>300</v>
       </c>
-      <c r="R22">
+      <c r="U22">
         <f t="shared" si="16"/>
-        <v>4410</v>
-      </c>
-      <c r="S22">
+        <v>4220</v>
+      </c>
+      <c r="V22">
         <f t="shared" si="17"/>
-        <v>1515</v>
-      </c>
-      <c r="T22" t="str">
+        <v>1495</v>
+      </c>
+      <c r="W22" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600</v>
       </c>
-      <c r="U22" t="str">
+      <c r="X22" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70</v>
-      </c>
-      <c r="V22" t="str">
+        <v>,"2":20,"6":35,"15":70</v>
+      </c>
+      <c r="Y22" t="str">
         <f t="shared" si="15"/>
         <v>"21":6600</v>
       </c>
-      <c r="W22" t="str">
+      <c r="Z22" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2083,57 +2118,60 @@
         <v>79</v>
       </c>
       <c r="G23">
+        <v>55</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="5"/>
         <v>79</v>
       </c>
-      <c r="H23">
+      <c r="K23">
         <v>5</v>
       </c>
-      <c r="I23">
+      <c r="L23">
         <f t="shared" si="0"/>
-        <v>13.166666666666666</v>
-      </c>
-      <c r="J23">
-        <v>6</v>
-      </c>
-      <c r="K23">
+        <v>15.8</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
         <v>7000</v>
       </c>
-      <c r="L23" t="s">
+      <c r="O23" t="s">
         <v>23</v>
       </c>
-      <c r="N23">
+      <c r="Q23">
         <v>30</v>
       </c>
-      <c r="P23">
+      <c r="S23">
         <v>900</v>
       </c>
-      <c r="R23">
+      <c r="U23">
         <f t="shared" si="16"/>
-        <v>5310</v>
-      </c>
-      <c r="S23">
+        <v>5120</v>
+      </c>
+      <c r="V23">
         <f t="shared" si="17"/>
-        <v>1515</v>
-      </c>
-      <c r="T23" t="str">
+        <v>1495</v>
+      </c>
+      <c r="W23" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000</v>
       </c>
-      <c r="U23" t="str">
+      <c r="X23" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70</v>
-      </c>
-      <c r="V23" t="str">
+        <v>,"2":20,"6":35,"15":70</v>
+      </c>
+      <c r="Y23" t="str">
         <f t="shared" si="15"/>
         <v>"22":7000</v>
       </c>
-      <c r="W23" t="str">
+      <c r="Z23" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2146,120 +2184,132 @@
         <v>83</v>
       </c>
       <c r="G24">
+        <v>61</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="5"/>
         <v>83</v>
       </c>
-      <c r="H24">
+      <c r="K24">
         <v>4</v>
       </c>
-      <c r="I24">
+      <c r="L24">
         <f t="shared" si="0"/>
-        <v>13.833333333333334</v>
-      </c>
-      <c r="J24">
-        <v>6</v>
-      </c>
-      <c r="K24">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
         <v>6800</v>
       </c>
-      <c r="L24" t="s">
+      <c r="O24" t="s">
         <v>25</v>
       </c>
-      <c r="O24">
+      <c r="R24">
         <v>20</v>
       </c>
-      <c r="Q24">
+      <c r="T24">
         <v>350</v>
       </c>
-      <c r="R24">
+      <c r="U24">
         <f t="shared" si="16"/>
-        <v>5310</v>
-      </c>
-      <c r="S24">
+        <v>5120</v>
+      </c>
+      <c r="V24">
         <f t="shared" si="17"/>
-        <v>1865</v>
-      </c>
-      <c r="T24" t="str">
+        <v>1845</v>
+      </c>
+      <c r="W24" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800</v>
       </c>
-      <c r="U24" t="str">
+      <c r="X24" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70</v>
-      </c>
-      <c r="V24" t="str">
+        <v>,"2":20,"6":35,"15":70</v>
+      </c>
+      <c r="Y24" t="str">
         <f t="shared" si="15"/>
         <v>"23":6800</v>
       </c>
-      <c r="W24" t="str">
+      <c r="Z24" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="3"/>
-        <v>89</v>
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
       </c>
       <c r="G25">
-        <f t="shared" si="5"/>
-        <v>89</v>
-      </c>
-      <c r="H25">
-        <v>6</v>
-      </c>
-      <c r="I25">
+        <v>69</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="0"/>
-        <v>14.833333333333334</v>
-      </c>
-      <c r="J25">
-        <v>6</v>
-      </c>
-      <c r="K25">
+        <v>17.2</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25">
         <v>7500</v>
       </c>
-      <c r="L25" t="s">
+      <c r="O25" t="s">
         <v>28</v>
       </c>
-      <c r="N25">
+      <c r="Q25">
         <v>35</v>
       </c>
-      <c r="P25">
+      <c r="S25">
         <v>1100</v>
       </c>
-      <c r="R25">
+      <c r="U25">
         <f t="shared" si="16"/>
-        <v>6410</v>
-      </c>
-      <c r="S25">
+        <v>6220</v>
+      </c>
+      <c r="V25">
         <f t="shared" si="17"/>
-        <v>1865</v>
-      </c>
-      <c r="T25" t="str">
+        <v>1845</v>
+      </c>
+      <c r="W25" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500</v>
       </c>
-      <c r="U25" t="str">
+      <c r="X25" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70</v>
-      </c>
-      <c r="V25" t="str">
+        <v>,"2":20,"6":35,"15":70</v>
+      </c>
+      <c r="Y25" t="str">
         <f t="shared" si="15"/>
         <v>"24":7500</v>
       </c>
-      <c r="W25" t="str">
+      <c r="Z25" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2269,57 +2319,60 @@
       </c>
       <c r="C26">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G26">
-        <f t="shared" si="5"/>
-        <v>98</v>
-      </c>
-      <c r="H26">
+        <v>72</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="K26">
         <v>9</v>
       </c>
-      <c r="I26">
+      <c r="L26">
         <f t="shared" si="0"/>
-        <v>16.333333333333332</v>
-      </c>
-      <c r="J26">
-        <v>6</v>
-      </c>
-      <c r="K26">
+        <v>19</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26">
         <v>19500</v>
       </c>
-      <c r="L26" t="s">
+      <c r="O26" t="s">
         <v>29</v>
       </c>
-      <c r="M26">
+      <c r="P26">
         <v>90</v>
       </c>
-      <c r="R26">
+      <c r="U26">
         <f t="shared" si="16"/>
-        <v>6410</v>
-      </c>
-      <c r="S26">
+        <v>6220</v>
+      </c>
+      <c r="V26">
         <f t="shared" si="17"/>
-        <v>1865</v>
-      </c>
-      <c r="T26" t="str">
+        <v>1845</v>
+      </c>
+      <c r="W26" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500</v>
       </c>
-      <c r="U26" t="str">
+      <c r="X26" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90</v>
-      </c>
-      <c r="V26" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90</v>
+      </c>
+      <c r="Y26" t="str">
         <f t="shared" si="15"/>
         <v>"25":19500</v>
       </c>
-      <c r="W26" t="str">
+      <c r="Z26" t="str">
         <f t="shared" si="20"/>
         <v>"25":90</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2329,123 +2382,141 @@
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G27">
-        <f t="shared" si="5"/>
-        <v>104</v>
-      </c>
-      <c r="H27">
+        <v>78</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="K27">
         <v>6</v>
       </c>
-      <c r="I27">
+      <c r="L27">
         <f t="shared" si="0"/>
-        <v>14.857142857142858</v>
-      </c>
-      <c r="J27">
-        <v>7</v>
-      </c>
-      <c r="K27">
+        <v>16.833333333333332</v>
+      </c>
+      <c r="M27">
+        <v>6</v>
+      </c>
+      <c r="N27">
         <v>9000</v>
       </c>
-      <c r="L27" t="s">
+      <c r="O27" t="s">
         <v>28</v>
       </c>
-      <c r="N27">
+      <c r="Q27">
         <v>30</v>
       </c>
-      <c r="P27">
+      <c r="S27">
         <v>1150</v>
       </c>
-      <c r="R27">
+      <c r="U27">
         <f t="shared" si="16"/>
-        <v>7560</v>
-      </c>
-      <c r="S27">
+        <v>7370</v>
+      </c>
+      <c r="V27">
         <f t="shared" si="17"/>
-        <v>1865</v>
-      </c>
-      <c r="T27" t="str">
+        <v>1845</v>
+      </c>
+      <c r="W27" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000</v>
       </c>
-      <c r="U27" t="str">
+      <c r="X27" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90</v>
-      </c>
-      <c r="V27" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90</v>
+      </c>
+      <c r="Y27" t="str">
         <f t="shared" si="15"/>
         <v>"26":9000</v>
       </c>
-      <c r="W27" t="str">
+      <c r="Z27" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="3"/>
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
       </c>
       <c r="G28">
-        <f t="shared" si="5"/>
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="K28">
         <v>4</v>
       </c>
-      <c r="I28">
+      <c r="L28">
         <f t="shared" si="0"/>
-        <v>15.428571428571429</v>
-      </c>
-      <c r="J28">
-        <v>7</v>
-      </c>
-      <c r="K28">
+        <v>17.5</v>
+      </c>
+      <c r="M28">
+        <v>6</v>
+      </c>
+      <c r="N28">
         <v>9400</v>
       </c>
-      <c r="L28" t="s">
+      <c r="O28" t="s">
         <v>27</v>
       </c>
-      <c r="O28">
+      <c r="R28">
         <v>25</v>
       </c>
-      <c r="Q28">
+      <c r="T28">
         <v>400</v>
       </c>
-      <c r="R28">
+      <c r="U28">
         <f t="shared" si="16"/>
-        <v>7560</v>
-      </c>
-      <c r="S28">
+        <v>7370</v>
+      </c>
+      <c r="V28">
         <f t="shared" si="17"/>
-        <v>2265</v>
-      </c>
-      <c r="T28" t="str">
+        <v>2245</v>
+      </c>
+      <c r="W28" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400</v>
       </c>
-      <c r="U28" t="str">
+      <c r="X28" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90</v>
-      </c>
-      <c r="V28" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90</v>
+      </c>
+      <c r="Y28" t="str">
         <f t="shared" si="15"/>
         <v>"27":9400</v>
       </c>
-      <c r="W28" t="str">
+      <c r="Z28" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2455,60 +2526,69 @@
       </c>
       <c r="C29">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G29">
-        <f t="shared" si="5"/>
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="K29">
         <v>5</v>
       </c>
-      <c r="I29">
+      <c r="L29">
         <f t="shared" si="0"/>
-        <v>16.142857142857142</v>
-      </c>
-      <c r="J29">
-        <v>7</v>
-      </c>
-      <c r="K29">
+        <v>18.333333333333332</v>
+      </c>
+      <c r="M29">
+        <v>6</v>
+      </c>
+      <c r="N29">
         <v>9200</v>
       </c>
-      <c r="L29" t="s">
+      <c r="O29" t="s">
         <v>28</v>
       </c>
-      <c r="N29">
+      <c r="Q29">
         <v>25</v>
       </c>
-      <c r="P29">
+      <c r="S29">
         <v>1200</v>
       </c>
-      <c r="R29">
+      <c r="U29">
         <f t="shared" si="16"/>
-        <v>8760</v>
-      </c>
-      <c r="S29">
+        <v>8570</v>
+      </c>
+      <c r="V29">
         <f t="shared" si="17"/>
-        <v>2265</v>
-      </c>
-      <c r="T29" t="str">
+        <v>2245</v>
+      </c>
+      <c r="W29" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200</v>
       </c>
-      <c r="U29" t="str">
+      <c r="X29" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90</v>
-      </c>
-      <c r="V29" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90</v>
+      </c>
+      <c r="Y29" t="str">
         <f t="shared" si="15"/>
         <v>"28":9200</v>
       </c>
-      <c r="W29" t="str">
+      <c r="Z29" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2518,66 +2598,75 @@
       </c>
       <c r="C30">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G30">
-        <f t="shared" si="5"/>
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="H30">
+        <v>11</v>
+      </c>
+      <c r="I30">
         <v>6</v>
       </c>
-      <c r="I30">
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>117</v>
+      </c>
+      <c r="K30">
+        <v>7</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="J30">
-        <v>7</v>
-      </c>
-      <c r="K30">
+        <v>19.5</v>
+      </c>
+      <c r="M30">
+        <v>6</v>
+      </c>
+      <c r="N30">
         <v>9600</v>
       </c>
-      <c r="L30" t="s">
+      <c r="O30" t="s">
         <v>30</v>
       </c>
-      <c r="N30">
+      <c r="Q30">
         <v>20</v>
       </c>
-      <c r="O30">
+      <c r="R30">
         <v>15</v>
       </c>
-      <c r="P30">
+      <c r="S30">
         <v>1250</v>
       </c>
-      <c r="Q30">
+      <c r="T30">
         <v>425</v>
       </c>
-      <c r="R30">
+      <c r="U30">
         <f t="shared" si="16"/>
-        <v>10010</v>
-      </c>
-      <c r="S30">
+        <v>9820</v>
+      </c>
+      <c r="V30">
         <f t="shared" si="17"/>
-        <v>2690</v>
-      </c>
-      <c r="T30" t="str">
+        <v>2670</v>
+      </c>
+      <c r="W30" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600</v>
       </c>
-      <c r="U30" t="str">
+      <c r="X30" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90</v>
-      </c>
-      <c r="V30" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90</v>
+      </c>
+      <c r="Y30" t="str">
         <f t="shared" si="15"/>
         <v>"29":9600</v>
       </c>
-      <c r="W30" t="str">
+      <c r="Z30" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2587,124 +2676,142 @@
       </c>
       <c r="C31">
         <f t="shared" si="3"/>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G31">
-        <f t="shared" si="5"/>
-        <v>123</v>
-      </c>
-      <c r="H31">
-        <v>4</v>
-      </c>
-      <c r="I31">
+        <v>108</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>122</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="0"/>
-        <v>17.571428571428573</v>
-      </c>
-      <c r="J31">
+        <v>17.428571428571427</v>
+      </c>
+      <c r="M31">
         <v>7</v>
       </c>
-      <c r="K31">
+      <c r="N31">
         <f t="shared" si="21"/>
         <v>9800</v>
       </c>
-      <c r="L31" t="s">
+      <c r="O31" t="s">
         <v>28</v>
       </c>
-      <c r="N31">
+      <c r="Q31">
         <v>25</v>
       </c>
-      <c r="P31">
+      <c r="S31">
         <v>1300</v>
       </c>
-      <c r="R31">
+      <c r="U31">
         <f t="shared" si="16"/>
-        <v>11310</v>
-      </c>
-      <c r="S31">
+        <v>11120</v>
+      </c>
+      <c r="V31">
         <f t="shared" si="17"/>
-        <v>2690</v>
-      </c>
-      <c r="T31" t="str">
+        <v>2670</v>
+      </c>
+      <c r="W31" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800</v>
       </c>
-      <c r="U31" t="str">
+      <c r="X31" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90</v>
-      </c>
-      <c r="V31" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90</v>
+      </c>
+      <c r="Y31" t="str">
         <f t="shared" si="15"/>
         <v>"30":9800</v>
       </c>
-      <c r="W31" t="str">
+      <c r="Z31" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="3"/>
-        <v>128</v>
+        <v>1</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E32">
+        <v>14</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
       </c>
       <c r="G32">
-        <f t="shared" si="5"/>
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H32">
+        <v>14</v>
+      </c>
+      <c r="I32">
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="K32">
         <v>5</v>
       </c>
-      <c r="I32">
+      <c r="L32">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="J32">
-        <v>8</v>
-      </c>
-      <c r="K32">
+        <v>18.142857142857142</v>
+      </c>
+      <c r="M32">
+        <v>7</v>
+      </c>
+      <c r="N32">
         <v>9500</v>
       </c>
-      <c r="L32" t="s">
+      <c r="O32" t="s">
         <v>27</v>
       </c>
-      <c r="O32">
+      <c r="R32">
         <v>20</v>
       </c>
-      <c r="Q32">
+      <c r="T32">
         <v>450</v>
       </c>
-      <c r="R32">
+      <c r="U32">
         <f t="shared" si="16"/>
-        <v>11310</v>
-      </c>
-      <c r="S32">
+        <v>11120</v>
+      </c>
+      <c r="V32">
         <f t="shared" si="17"/>
-        <v>3140</v>
-      </c>
-      <c r="T32" t="str">
+        <v>3120</v>
+      </c>
+      <c r="W32" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500</v>
       </c>
-      <c r="U32" t="str">
+      <c r="X32" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90</v>
-      </c>
-      <c r="V32" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90</v>
+      </c>
+      <c r="Y32" t="str">
         <f t="shared" si="15"/>
         <v>"31":9500</v>
       </c>
-      <c r="W32" t="str">
+      <c r="Z32" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2714,60 +2821,69 @@
       </c>
       <c r="C33">
         <f t="shared" si="3"/>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G33">
-        <f t="shared" si="5"/>
-        <v>134</v>
-      </c>
-      <c r="H33">
+        <v>123</v>
+      </c>
+      <c r="H33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>133</v>
+      </c>
+      <c r="K33">
         <v>6</v>
       </c>
-      <c r="I33">
+      <c r="L33">
         <f t="shared" si="0"/>
-        <v>16.75</v>
-      </c>
-      <c r="J33">
-        <v>8</v>
-      </c>
-      <c r="K33">
+        <v>19</v>
+      </c>
+      <c r="M33">
+        <v>7</v>
+      </c>
+      <c r="N33">
         <v>9900</v>
       </c>
-      <c r="L33" t="s">
+      <c r="O33" t="s">
         <v>23</v>
       </c>
-      <c r="N33">
+      <c r="Q33">
         <v>30</v>
       </c>
-      <c r="P33">
+      <c r="S33">
         <v>1350</v>
       </c>
-      <c r="R33">
+      <c r="U33">
         <f t="shared" si="16"/>
-        <v>12660</v>
-      </c>
-      <c r="S33">
+        <v>12470</v>
+      </c>
+      <c r="V33">
         <f t="shared" si="17"/>
-        <v>3140</v>
-      </c>
-      <c r="T33" t="str">
+        <v>3120</v>
+      </c>
+      <c r="W33" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900</v>
       </c>
-      <c r="U33" t="str">
+      <c r="X33" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90</v>
-      </c>
-      <c r="V33" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90</v>
+      </c>
+      <c r="Y33" t="str">
         <f t="shared" si="15"/>
         <v>"32":9900</v>
       </c>
-      <c r="W33" t="str">
+      <c r="Z33" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2777,60 +2893,69 @@
       </c>
       <c r="C34">
         <f t="shared" si="3"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G34">
-        <f t="shared" si="5"/>
-        <v>141</v>
-      </c>
-      <c r="H34">
+        <v>133</v>
+      </c>
+      <c r="H34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="K34">
         <v>7</v>
       </c>
-      <c r="I34">
-        <f t="shared" ref="I34:I65" si="22">G34/J34</f>
-        <v>17.625</v>
-      </c>
-      <c r="J34">
-        <v>8</v>
-      </c>
-      <c r="K34">
+      <c r="L34">
+        <f t="shared" ref="L34:L65" si="22">J34/M34</f>
+        <v>20</v>
+      </c>
+      <c r="M34">
+        <v>7</v>
+      </c>
+      <c r="N34">
         <v>9600</v>
       </c>
-      <c r="L34" t="s">
+      <c r="O34" t="s">
         <v>27</v>
       </c>
-      <c r="O34">
+      <c r="R34">
         <v>20</v>
       </c>
-      <c r="Q34">
+      <c r="T34">
         <v>467</v>
       </c>
-      <c r="R34">
+      <c r="U34">
         <f t="shared" si="16"/>
-        <v>12660</v>
-      </c>
-      <c r="S34">
+        <v>12470</v>
+      </c>
+      <c r="V34">
         <f t="shared" si="17"/>
-        <v>3607</v>
-      </c>
-      <c r="T34" t="str">
+        <v>3587</v>
+      </c>
+      <c r="W34" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600</v>
       </c>
-      <c r="U34" t="str">
+      <c r="X34" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90</v>
-      </c>
-      <c r="V34" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90</v>
+      </c>
+      <c r="Y34" t="str">
         <f t="shared" si="15"/>
         <v>"33":9600</v>
       </c>
-      <c r="W34" t="str">
+      <c r="Z34" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2840,573 +2965,606 @@
       </c>
       <c r="C35">
         <f t="shared" si="3"/>
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G35">
-        <f t="shared" si="5"/>
-        <v>151</v>
-      </c>
-      <c r="H35">
+        <v>149</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35">
+        <v>7</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="K35">
         <v>10</v>
       </c>
-      <c r="I35">
+      <c r="L35">
         <f t="shared" si="22"/>
-        <v>18.875</v>
-      </c>
-      <c r="J35">
+        <v>18.75</v>
+      </c>
+      <c r="M35">
         <v>8</v>
       </c>
-      <c r="K35">
+      <c r="N35">
         <v>28000</v>
       </c>
-      <c r="L35" t="s">
+      <c r="O35" t="s">
         <v>29</v>
       </c>
-      <c r="M35">
+      <c r="P35">
         <v>100</v>
       </c>
-      <c r="R35">
+      <c r="U35">
         <f t="shared" si="16"/>
-        <v>12660</v>
-      </c>
-      <c r="S35">
+        <v>12470</v>
+      </c>
+      <c r="V35">
         <f t="shared" si="17"/>
-        <v>3607</v>
-      </c>
-      <c r="T35" t="str">
+        <v>3587</v>
+      </c>
+      <c r="W35" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000</v>
       </c>
-      <c r="U35" t="str">
+      <c r="X35" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100</v>
-      </c>
-      <c r="V35" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100</v>
+      </c>
+      <c r="Y35" t="str">
         <f t="shared" si="15"/>
         <v>"34":28000</v>
       </c>
-      <c r="W35" t="str">
+      <c r="Z35" t="str">
         <f t="shared" si="20"/>
         <v>"34":100</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E36">
+        <v>11</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <v>157</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36">
+        <v>7</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>154</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="22"/>
+        <v>19.25</v>
+      </c>
+      <c r="M36">
+        <v>8</v>
+      </c>
+      <c r="N36">
+        <v>13500</v>
+      </c>
+      <c r="O36" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q36">
+        <v>35</v>
+      </c>
+      <c r="S36">
+        <v>1400</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="16"/>
+        <v>13870</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="17"/>
+        <v>3587</v>
+      </c>
+      <c r="W36" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500</v>
+      </c>
+      <c r="X36" t="str">
+        <f t="shared" si="19"/>
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100</v>
+      </c>
+      <c r="Y36" t="str">
+        <f t="shared" si="15"/>
+        <v>"35":13500</v>
+      </c>
+      <c r="Z36" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="3"/>
-        <v>156</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="5"/>
-        <v>156</v>
-      </c>
-      <c r="H36">
-        <v>5</v>
-      </c>
-      <c r="I36">
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>158</v>
+      </c>
+      <c r="G37">
+        <v>171</v>
+      </c>
+      <c r="H37">
+        <v>12</v>
+      </c>
+      <c r="I37">
+        <v>7</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>158</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="22"/>
+        <v>19.75</v>
+      </c>
+      <c r="M37">
+        <v>8</v>
+      </c>
+      <c r="N37">
+        <v>13800</v>
+      </c>
+      <c r="O37" t="s">
+        <v>27</v>
+      </c>
+      <c r="R37">
+        <v>25</v>
+      </c>
+      <c r="T37">
+        <v>500</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="16"/>
+        <v>13870</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="17"/>
+        <v>4087</v>
+      </c>
+      <c r="W37" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800</v>
+      </c>
+      <c r="X37" t="str">
+        <f t="shared" si="19"/>
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100</v>
+      </c>
+      <c r="Y37" t="str">
+        <f t="shared" si="15"/>
+        <v>"36":13800</v>
+      </c>
+      <c r="Z37" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>164</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>164</v>
+      </c>
+      <c r="K38">
+        <v>6</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="22"/>
+        <v>18.222222222222221</v>
+      </c>
+      <c r="M38">
+        <v>9</v>
+      </c>
+      <c r="N38">
+        <v>13200</v>
+      </c>
+      <c r="O38" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q38">
+        <v>30</v>
+      </c>
+      <c r="S38">
+        <v>1450</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="16"/>
+        <v>15320</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="17"/>
+        <v>4087</v>
+      </c>
+      <c r="W38" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200</v>
+      </c>
+      <c r="X38" t="str">
+        <f t="shared" si="19"/>
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100</v>
+      </c>
+      <c r="Y38" t="str">
+        <f t="shared" si="15"/>
+        <v>"37":13200</v>
+      </c>
+      <c r="Z38" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>172</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>172</v>
+      </c>
+      <c r="K39">
+        <v>8</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="22"/>
+        <v>19.111111111111111</v>
+      </c>
+      <c r="M39">
+        <v>9</v>
+      </c>
+      <c r="N39">
+        <v>13600</v>
+      </c>
+      <c r="O39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q39">
+        <v>20</v>
+      </c>
+      <c r="R39">
+        <v>15</v>
+      </c>
+      <c r="S39">
+        <v>1500</v>
+      </c>
+      <c r="T39">
+        <v>525</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="16"/>
+        <v>16820</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="17"/>
+        <v>4612</v>
+      </c>
+      <c r="W39" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600</v>
+      </c>
+      <c r="X39" t="str">
+        <f t="shared" si="19"/>
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100</v>
+      </c>
+      <c r="Y39" t="str">
+        <f t="shared" si="15"/>
+        <v>"38":13600</v>
+      </c>
+      <c r="Z39" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>179</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>179</v>
+      </c>
+      <c r="K40">
+        <v>7</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="22"/>
+        <v>19.888888888888889</v>
+      </c>
+      <c r="M40">
+        <v>9</v>
+      </c>
+      <c r="N40">
+        <v>13400</v>
+      </c>
+      <c r="O40" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q40">
+        <v>30</v>
+      </c>
+      <c r="S40">
+        <v>1550</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="16"/>
+        <v>18370</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="17"/>
+        <v>4612</v>
+      </c>
+      <c r="W40" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400</v>
+      </c>
+      <c r="X40" t="str">
+        <f t="shared" si="19"/>
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100</v>
+      </c>
+      <c r="Y40" t="str">
+        <f t="shared" si="15"/>
+        <v>"39":13400</v>
+      </c>
+      <c r="Z40" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>183</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>183</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="22"/>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="M41">
+        <v>9</v>
+      </c>
+      <c r="N41">
+        <v>13800</v>
+      </c>
+      <c r="O41" t="s">
+        <v>25</v>
+      </c>
+      <c r="R41">
+        <v>20</v>
+      </c>
+      <c r="T41">
+        <v>550</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="16"/>
+        <v>18370</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="17"/>
+        <v>5162</v>
+      </c>
+      <c r="W41" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800</v>
+      </c>
+      <c r="X41" t="str">
+        <f t="shared" si="19"/>
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100</v>
+      </c>
+      <c r="Y41" t="str">
+        <f t="shared" si="15"/>
+        <v>"40":13800</v>
+      </c>
+      <c r="Z41" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="3"/>
+        <v>189</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>189</v>
+      </c>
+      <c r="K42">
+        <v>6</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="22"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M42">
+        <v>10</v>
+      </c>
+      <c r="N42">
+        <v>13600</v>
+      </c>
+      <c r="O42" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q42">
+        <v>30</v>
+      </c>
+      <c r="S42">
+        <v>1600</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="16"/>
+        <v>19970</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="17"/>
+        <v>5162</v>
+      </c>
+      <c r="W42" t="str">
+        <f t="shared" si="18"/>
+        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600</v>
+      </c>
+      <c r="X42" t="str">
+        <f t="shared" si="19"/>
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100</v>
+      </c>
+      <c r="Y42" t="str">
+        <f t="shared" si="15"/>
+        <v>"41":13600</v>
+      </c>
+      <c r="Z42" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>12</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>195</v>
+      </c>
+      <c r="K43">
+        <v>6</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="22"/>
         <v>19.5</v>
       </c>
-      <c r="J36">
-        <v>8</v>
-      </c>
-      <c r="K36">
-        <v>13500</v>
-      </c>
-      <c r="L36" t="s">
-        <v>28</v>
-      </c>
-      <c r="N36">
-        <v>35</v>
-      </c>
-      <c r="P36">
-        <v>1400</v>
-      </c>
-      <c r="R36">
+      <c r="M43">
+        <v>10</v>
+      </c>
+      <c r="N43">
+        <v>13900</v>
+      </c>
+      <c r="O43" t="s">
+        <v>27</v>
+      </c>
+      <c r="R43">
+        <v>20</v>
+      </c>
+      <c r="T43">
+        <v>567</v>
+      </c>
+      <c r="U43">
         <f t="shared" si="16"/>
-        <v>14060</v>
-      </c>
-      <c r="S36">
+        <v>19970</v>
+      </c>
+      <c r="V43">
         <f t="shared" si="17"/>
-        <v>3607</v>
-      </c>
-      <c r="T36" t="str">
-        <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500</v>
-      </c>
-      <c r="U36" t="str">
-        <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100</v>
-      </c>
-      <c r="V36" t="str">
-        <f t="shared" si="15"/>
-        <v>"35":13500</v>
-      </c>
-      <c r="W36" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="5"/>
-        <v>160</v>
-      </c>
-      <c r="H37">
-        <v>4</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="22"/>
-        <v>20</v>
-      </c>
-      <c r="J37">
-        <v>8</v>
-      </c>
-      <c r="K37">
-        <v>13800</v>
-      </c>
-      <c r="L37" t="s">
-        <v>27</v>
-      </c>
-      <c r="O37">
-        <v>25</v>
-      </c>
-      <c r="Q37">
-        <v>500</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="16"/>
-        <v>14060</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="17"/>
-        <v>4107</v>
-      </c>
-      <c r="T37" t="str">
-        <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800</v>
-      </c>
-      <c r="U37" t="str">
-        <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100</v>
-      </c>
-      <c r="V37" t="str">
-        <f t="shared" si="15"/>
-        <v>"36":13800</v>
-      </c>
-      <c r="W37" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="3"/>
-        <v>165</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="5"/>
-        <v>165</v>
-      </c>
-      <c r="H38">
-        <v>5</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="22"/>
-        <v>18.333333333333332</v>
-      </c>
-      <c r="J38">
-        <v>9</v>
-      </c>
-      <c r="K38">
-        <v>13200</v>
-      </c>
-      <c r="L38" t="s">
-        <v>28</v>
-      </c>
-      <c r="N38">
-        <v>30</v>
-      </c>
-      <c r="P38">
-        <v>1450</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="16"/>
-        <v>15510</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="17"/>
-        <v>4107</v>
-      </c>
-      <c r="T38" t="str">
-        <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200</v>
-      </c>
-      <c r="U38" t="str">
-        <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100</v>
-      </c>
-      <c r="V38" t="str">
-        <f t="shared" si="15"/>
-        <v>"37":13200</v>
-      </c>
-      <c r="W38" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="3"/>
-        <v>172</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="5"/>
-        <v>172</v>
-      </c>
-      <c r="H39">
-        <v>7</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="22"/>
-        <v>19.111111111111111</v>
-      </c>
-      <c r="J39">
-        <v>9</v>
-      </c>
-      <c r="K39">
-        <v>13600</v>
-      </c>
-      <c r="L39" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39">
-        <v>20</v>
-      </c>
-      <c r="O39">
-        <v>15</v>
-      </c>
-      <c r="P39">
-        <v>1500</v>
-      </c>
-      <c r="Q39">
-        <v>525</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="16"/>
-        <v>17010</v>
-      </c>
-      <c r="S39">
-        <f t="shared" si="17"/>
-        <v>4632</v>
-      </c>
-      <c r="T39" t="str">
-        <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600</v>
-      </c>
-      <c r="U39" t="str">
-        <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100</v>
-      </c>
-      <c r="V39" t="str">
-        <f t="shared" si="15"/>
-        <v>"38":13600</v>
-      </c>
-      <c r="W39" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="5"/>
-        <v>180</v>
-      </c>
-      <c r="H40">
-        <v>8</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="22"/>
-        <v>20</v>
-      </c>
-      <c r="J40">
-        <v>9</v>
-      </c>
-      <c r="K40">
-        <v>13400</v>
-      </c>
-      <c r="L40" t="s">
-        <v>28</v>
-      </c>
-      <c r="N40">
-        <v>30</v>
-      </c>
-      <c r="P40">
-        <v>1550</v>
-      </c>
-      <c r="R40">
-        <f t="shared" si="16"/>
-        <v>18560</v>
-      </c>
-      <c r="S40">
-        <f t="shared" si="17"/>
-        <v>4632</v>
-      </c>
-      <c r="T40" t="str">
-        <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400</v>
-      </c>
-      <c r="U40" t="str">
-        <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100</v>
-      </c>
-      <c r="V40" t="str">
-        <f t="shared" si="15"/>
-        <v>"39":13400</v>
-      </c>
-      <c r="W40" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="3"/>
-        <v>184</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="5"/>
-        <v>184</v>
-      </c>
-      <c r="H41">
-        <v>4</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="22"/>
-        <v>20.444444444444443</v>
-      </c>
-      <c r="J41">
-        <v>9</v>
-      </c>
-      <c r="K41">
-        <v>13800</v>
-      </c>
-      <c r="L41" t="s">
-        <v>25</v>
-      </c>
-      <c r="O41">
-        <v>20</v>
-      </c>
-      <c r="Q41">
-        <v>550</v>
-      </c>
-      <c r="R41">
-        <f t="shared" si="16"/>
-        <v>18560</v>
-      </c>
-      <c r="S41">
-        <f t="shared" si="17"/>
-        <v>5182</v>
-      </c>
-      <c r="T41" t="str">
-        <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800</v>
-      </c>
-      <c r="U41" t="str">
-        <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100</v>
-      </c>
-      <c r="V41" t="str">
-        <f t="shared" si="15"/>
-        <v>"40":13800</v>
-      </c>
-      <c r="W41" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="3"/>
-        <v>190</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="5"/>
-        <v>190</v>
-      </c>
-      <c r="H42">
-        <v>6</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="22"/>
-        <v>19</v>
-      </c>
-      <c r="J42">
-        <v>10</v>
-      </c>
-      <c r="K42">
-        <v>13600</v>
-      </c>
-      <c r="L42" t="s">
-        <v>28</v>
-      </c>
-      <c r="N42">
-        <v>30</v>
-      </c>
-      <c r="P42">
-        <v>1600</v>
-      </c>
-      <c r="R42">
-        <f t="shared" si="16"/>
-        <v>20160</v>
-      </c>
-      <c r="S42">
-        <f t="shared" si="17"/>
-        <v>5182</v>
-      </c>
-      <c r="T42" t="str">
-        <f t="shared" si="18"/>
-        <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600</v>
-      </c>
-      <c r="U42" t="str">
-        <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100</v>
-      </c>
-      <c r="V42" t="str">
-        <f t="shared" si="15"/>
-        <v>"41":13600</v>
-      </c>
-      <c r="W42" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E43">
-        <v>8</v>
-      </c>
-      <c r="F43">
-        <v>12</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="5"/>
-        <v>196</v>
-      </c>
-      <c r="H43">
-        <v>6</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="22"/>
-        <v>19.600000000000001</v>
-      </c>
-      <c r="J43">
-        <v>10</v>
-      </c>
-      <c r="K43">
-        <v>13900</v>
-      </c>
-      <c r="L43" t="s">
-        <v>27</v>
-      </c>
-      <c r="O43">
-        <v>20</v>
-      </c>
-      <c r="Q43">
-        <v>567</v>
-      </c>
-      <c r="R43">
-        <f t="shared" si="16"/>
-        <v>20160</v>
-      </c>
-      <c r="S43">
-        <f t="shared" si="17"/>
-        <v>5749</v>
-      </c>
-      <c r="T43" t="str">
+        <v>5729</v>
+      </c>
+      <c r="W43" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900</v>
       </c>
-      <c r="U43" t="str">
+      <c r="X43" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100</v>
-      </c>
-      <c r="V43" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100</v>
+      </c>
+      <c r="Y43" t="str">
         <f t="shared" si="15"/>
         <v>"42":13900</v>
       </c>
-      <c r="W43" t="str">
+      <c r="Z43" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3416,60 +3574,60 @@
       </c>
       <c r="C44">
         <f t="shared" si="3"/>
-        <v>204</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="5"/>
-        <v>204</v>
-      </c>
-      <c r="H44">
+        <v>203</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
+        <v>203</v>
+      </c>
+      <c r="K44">
         <v>8</v>
       </c>
-      <c r="I44">
+      <c r="L44">
         <f t="shared" si="22"/>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="J44">
+        <v>20.3</v>
+      </c>
+      <c r="M44">
         <v>10</v>
       </c>
-      <c r="K44">
+      <c r="N44">
         <v>13700</v>
       </c>
-      <c r="L44" t="s">
+      <c r="O44" t="s">
         <v>23</v>
       </c>
-      <c r="N44">
+      <c r="Q44">
         <v>30</v>
       </c>
-      <c r="P44">
+      <c r="S44">
         <v>1650</v>
       </c>
-      <c r="R44">
+      <c r="U44">
         <f t="shared" si="16"/>
-        <v>21810</v>
-      </c>
-      <c r="S44">
+        <v>21620</v>
+      </c>
+      <c r="V44">
         <f t="shared" si="17"/>
-        <v>5749</v>
-      </c>
-      <c r="T44" t="str">
+        <v>5729</v>
+      </c>
+      <c r="W44" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700</v>
       </c>
-      <c r="U44" t="str">
+      <c r="X44" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100</v>
-      </c>
-      <c r="V44" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100</v>
+      </c>
+      <c r="Y44" t="str">
         <f t="shared" si="15"/>
         <v>"43":13700</v>
       </c>
-      <c r="W44" t="str">
+      <c r="Z44" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3487,55 +3645,55 @@
       <c r="F45">
         <v>13</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="5"/>
-        <v>222</v>
-      </c>
-      <c r="H45">
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>221</v>
+      </c>
+      <c r="K45">
         <v>18</v>
       </c>
-      <c r="I45">
+      <c r="L45">
         <f t="shared" si="22"/>
-        <v>22.2</v>
-      </c>
-      <c r="J45">
+        <v>22.1</v>
+      </c>
+      <c r="M45">
         <v>10</v>
       </c>
-      <c r="K45">
+      <c r="N45">
         <v>37500</v>
       </c>
-      <c r="L45" t="s">
+      <c r="O45" t="s">
         <v>26</v>
       </c>
-      <c r="M45">
+      <c r="P45">
         <v>120</v>
       </c>
-      <c r="R45">
+      <c r="U45">
         <f t="shared" si="16"/>
-        <v>21810</v>
-      </c>
-      <c r="S45">
+        <v>21620</v>
+      </c>
+      <c r="V45">
         <f t="shared" si="17"/>
-        <v>5749</v>
-      </c>
-      <c r="T45" t="str">
+        <v>5729</v>
+      </c>
+      <c r="W45" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500</v>
       </c>
-      <c r="U45" t="str">
+      <c r="X45" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120</v>
-      </c>
-      <c r="V45" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120</v>
+      </c>
+      <c r="Y45" t="str">
         <f t="shared" si="15"/>
         <v>"44":37500</v>
       </c>
-      <c r="W45" t="str">
+      <c r="Z45" t="str">
         <f t="shared" si="20"/>
         <v>"44":120</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3545,60 +3703,60 @@
       </c>
       <c r="C46">
         <f t="shared" si="3"/>
-        <v>230</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="5"/>
-        <v>230</v>
-      </c>
-      <c r="H46">
+        <v>229</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="5"/>
+        <v>229</v>
+      </c>
+      <c r="K46">
         <v>8</v>
       </c>
-      <c r="I46">
+      <c r="L46">
         <f t="shared" si="22"/>
-        <v>20.90909090909091</v>
-      </c>
-      <c r="J46">
+        <v>20.818181818181817</v>
+      </c>
+      <c r="M46">
         <v>11</v>
       </c>
-      <c r="K46">
+      <c r="N46">
         <v>17700</v>
       </c>
-      <c r="L46" t="s">
+      <c r="O46" t="s">
         <v>23</v>
       </c>
-      <c r="N46">
+      <c r="Q46">
         <v>35</v>
       </c>
-      <c r="P46">
+      <c r="S46">
         <v>1800</v>
       </c>
-      <c r="R46">
+      <c r="U46">
         <f t="shared" si="16"/>
-        <v>23610</v>
-      </c>
-      <c r="S46">
+        <v>23420</v>
+      </c>
+      <c r="V46">
         <f t="shared" si="17"/>
-        <v>5749</v>
-      </c>
-      <c r="T46" t="str">
+        <v>5729</v>
+      </c>
+      <c r="W46" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700</v>
       </c>
-      <c r="U46" t="str">
+      <c r="X46" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120</v>
-      </c>
-      <c r="V46" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120</v>
+      </c>
+      <c r="Y46" t="str">
         <f t="shared" si="15"/>
         <v>"45":17700</v>
       </c>
-      <c r="W46" t="str">
+      <c r="Z46" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3608,60 +3766,60 @@
       </c>
       <c r="C47">
         <f t="shared" si="3"/>
-        <v>236</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="5"/>
-        <v>236</v>
-      </c>
-      <c r="H47">
+        <v>235</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="5"/>
+        <v>235</v>
+      </c>
+      <c r="K47">
         <v>6</v>
       </c>
-      <c r="I47">
+      <c r="L47">
         <f t="shared" si="22"/>
-        <v>21.454545454545453</v>
-      </c>
-      <c r="J47">
+        <v>21.363636363636363</v>
+      </c>
+      <c r="M47">
         <v>11</v>
       </c>
-      <c r="K47">
+      <c r="N47">
         <v>17500</v>
       </c>
-      <c r="L47" t="s">
+      <c r="O47" t="s">
         <v>25</v>
       </c>
-      <c r="O47">
+      <c r="R47">
         <v>25</v>
       </c>
-      <c r="Q47">
+      <c r="T47">
         <v>583</v>
       </c>
-      <c r="R47">
+      <c r="U47">
         <f t="shared" si="16"/>
-        <v>23610</v>
-      </c>
-      <c r="S47">
+        <v>23420</v>
+      </c>
+      <c r="V47">
         <f t="shared" si="17"/>
-        <v>6332</v>
-      </c>
-      <c r="T47" t="str">
+        <v>6312</v>
+      </c>
+      <c r="W47" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500</v>
       </c>
-      <c r="U47" t="str">
+      <c r="X47" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120</v>
-      </c>
-      <c r="V47" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120</v>
+      </c>
+      <c r="Y47" t="str">
         <f t="shared" si="15"/>
         <v>"46":17500</v>
       </c>
-      <c r="W47" t="str">
+      <c r="Z47" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3671,66 +3829,66 @@
       </c>
       <c r="C48">
         <f t="shared" si="3"/>
-        <v>248</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="5"/>
-        <v>248</v>
-      </c>
-      <c r="H48">
+        <v>247</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="5"/>
+        <v>247</v>
+      </c>
+      <c r="K48">
         <v>12</v>
       </c>
-      <c r="I48">
+      <c r="L48">
         <f t="shared" si="22"/>
-        <v>22.545454545454547</v>
-      </c>
-      <c r="J48">
+        <v>22.454545454545453</v>
+      </c>
+      <c r="M48">
         <v>11</v>
       </c>
-      <c r="K48">
+      <c r="N48">
         <v>17900</v>
       </c>
-      <c r="L48" t="s">
+      <c r="O48" t="s">
         <v>24</v>
       </c>
-      <c r="N48">
+      <c r="Q48">
         <v>25</v>
       </c>
-      <c r="O48">
+      <c r="R48">
         <v>15</v>
       </c>
-      <c r="P48">
+      <c r="S48">
         <v>2000</v>
       </c>
-      <c r="Q48">
+      <c r="T48">
         <v>600</v>
       </c>
-      <c r="R48">
+      <c r="U48">
         <f t="shared" si="16"/>
-        <v>25610</v>
-      </c>
-      <c r="S48">
+        <v>25420</v>
+      </c>
+      <c r="V48">
         <f t="shared" si="17"/>
-        <v>6932</v>
-      </c>
-      <c r="T48" t="str">
+        <v>6912</v>
+      </c>
+      <c r="W48" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900</v>
       </c>
-      <c r="U48" t="str">
+      <c r="X48" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120</v>
-      </c>
-      <c r="V48" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120</v>
+      </c>
+      <c r="Y48" t="str">
         <f t="shared" si="15"/>
         <v>"47":17900</v>
       </c>
-      <c r="W48" t="str">
+      <c r="Z48" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3740,60 +3898,60 @@
       </c>
       <c r="C49">
         <f t="shared" si="3"/>
-        <v>256</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="5"/>
-        <v>256</v>
-      </c>
-      <c r="H49">
+        <v>255</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="K49">
         <v>8</v>
       </c>
-      <c r="I49">
+      <c r="L49">
         <f t="shared" si="22"/>
-        <v>23.272727272727273</v>
-      </c>
-      <c r="J49">
+        <v>23.181818181818183</v>
+      </c>
+      <c r="M49">
         <v>11</v>
       </c>
-      <c r="K49">
+      <c r="N49">
         <v>17300</v>
       </c>
-      <c r="L49" t="s">
+      <c r="O49" t="s">
         <v>23</v>
       </c>
-      <c r="N49">
+      <c r="Q49">
         <v>30</v>
       </c>
-      <c r="P49">
+      <c r="S49">
         <v>2100</v>
       </c>
-      <c r="R49">
+      <c r="U49">
         <f t="shared" si="16"/>
-        <v>27710</v>
-      </c>
-      <c r="S49">
+        <v>27520</v>
+      </c>
+      <c r="V49">
         <f t="shared" si="17"/>
-        <v>6932</v>
-      </c>
-      <c r="T49" t="str">
+        <v>6912</v>
+      </c>
+      <c r="W49" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300</v>
       </c>
-      <c r="U49" t="str">
+      <c r="X49" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120</v>
-      </c>
-      <c r="V49" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120</v>
+      </c>
+      <c r="Y49" t="str">
         <f t="shared" si="15"/>
         <v>"48":17300</v>
       </c>
-      <c r="W49" t="str">
+      <c r="Z49" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3811,55 +3969,55 @@
       <c r="F50">
         <v>13</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="5"/>
-        <v>276</v>
-      </c>
-      <c r="H50">
+      <c r="J50">
+        <f t="shared" si="5"/>
+        <v>275</v>
+      </c>
+      <c r="K50">
         <v>20</v>
       </c>
-      <c r="I50">
+      <c r="L50">
         <f t="shared" si="22"/>
-        <v>25.09090909090909</v>
-      </c>
-      <c r="J50">
+        <v>25</v>
+      </c>
+      <c r="M50">
         <v>11</v>
       </c>
-      <c r="K50">
+      <c r="N50">
         <v>45000</v>
       </c>
-      <c r="L50" t="s">
+      <c r="O50" t="s">
         <v>26</v>
       </c>
-      <c r="M50">
+      <c r="P50">
         <v>100</v>
       </c>
-      <c r="R50">
+      <c r="U50">
         <f t="shared" si="16"/>
-        <v>27710</v>
-      </c>
-      <c r="S50">
+        <v>27520</v>
+      </c>
+      <c r="V50">
         <f t="shared" si="17"/>
-        <v>6932</v>
-      </c>
-      <c r="T50" t="str">
+        <v>6912</v>
+      </c>
+      <c r="W50" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000</v>
       </c>
-      <c r="U50" t="str">
+      <c r="X50" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100</v>
-      </c>
-      <c r="V50" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100</v>
+      </c>
+      <c r="Y50" t="str">
         <f t="shared" si="15"/>
         <v>"49":45000</v>
       </c>
-      <c r="W50" t="str">
+      <c r="Z50" t="str">
         <f t="shared" si="20"/>
         <v>"49":100</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3869,60 +4027,60 @@
       </c>
       <c r="C51">
         <f t="shared" si="3"/>
-        <v>284</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="5"/>
-        <v>284</v>
-      </c>
-      <c r="H51">
+        <v>283</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="5"/>
+        <v>283</v>
+      </c>
+      <c r="K51">
         <v>8</v>
       </c>
-      <c r="I51">
+      <c r="L51">
         <f t="shared" si="22"/>
-        <v>23.666666666666668</v>
-      </c>
-      <c r="J51">
+        <v>23.583333333333332</v>
+      </c>
+      <c r="M51">
         <v>12</v>
       </c>
-      <c r="K51">
+      <c r="N51">
         <v>22300</v>
       </c>
-      <c r="L51" t="s">
+      <c r="O51" t="s">
         <v>28</v>
       </c>
-      <c r="N51">
+      <c r="Q51">
         <v>35</v>
       </c>
-      <c r="P51">
+      <c r="S51">
         <v>2200</v>
       </c>
-      <c r="R51">
+      <c r="U51">
         <f t="shared" si="16"/>
-        <v>29910</v>
-      </c>
-      <c r="S51">
+        <v>29720</v>
+      </c>
+      <c r="V51">
         <f t="shared" si="17"/>
-        <v>6932</v>
-      </c>
-      <c r="T51" t="str">
+        <v>6912</v>
+      </c>
+      <c r="W51" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300</v>
       </c>
-      <c r="U51" t="str">
+      <c r="X51" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100</v>
-      </c>
-      <c r="V51" t="str">
-        <f t="shared" ref="V51:V77" si="23">""""&amp;$A51&amp;""""&amp;""&amp;":"&amp;K51</f>
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100</v>
+      </c>
+      <c r="Y51" t="str">
+        <f t="shared" ref="Y51:Y77" si="23">""""&amp;$A51&amp;""""&amp;""&amp;":"&amp;N51</f>
         <v>"50":22300</v>
       </c>
-      <c r="W51" t="str">
+      <c r="Z51" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3932,60 +4090,60 @@
       </c>
       <c r="C52">
         <f t="shared" si="3"/>
-        <v>288</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="5"/>
-        <v>288</v>
-      </c>
-      <c r="H52">
+        <v>287</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="5"/>
+        <v>287</v>
+      </c>
+      <c r="K52">
         <v>4</v>
       </c>
-      <c r="I52">
+      <c r="L52">
         <f t="shared" si="22"/>
-        <v>24</v>
-      </c>
-      <c r="J52">
+        <v>23.916666666666668</v>
+      </c>
+      <c r="M52">
         <v>12</v>
       </c>
-      <c r="K52">
+      <c r="N52">
         <v>22800</v>
       </c>
-      <c r="L52" t="s">
+      <c r="O52" t="s">
         <v>27</v>
       </c>
-      <c r="O52">
+      <c r="R52">
         <v>25</v>
       </c>
-      <c r="Q52">
+      <c r="T52">
         <v>650</v>
       </c>
-      <c r="R52">
+      <c r="U52">
         <f t="shared" si="16"/>
-        <v>29910</v>
-      </c>
-      <c r="S52">
+        <v>29720</v>
+      </c>
+      <c r="V52">
         <f t="shared" si="17"/>
-        <v>7582</v>
-      </c>
-      <c r="T52" t="str">
+        <v>7562</v>
+      </c>
+      <c r="W52" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800</v>
       </c>
-      <c r="U52" t="str">
+      <c r="X52" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100</v>
-      </c>
-      <c r="V52" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100</v>
+      </c>
+      <c r="Y52" t="str">
         <f t="shared" si="23"/>
         <v>"51":22800</v>
       </c>
-      <c r="W52" t="str">
+      <c r="Z52" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4003,64 +4161,64 @@
       <c r="F53">
         <v>13</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="5"/>
-        <v>298</v>
-      </c>
-      <c r="H53">
+      <c r="J53">
+        <f t="shared" si="5"/>
+        <v>297</v>
+      </c>
+      <c r="K53">
         <v>10</v>
       </c>
-      <c r="I53">
+      <c r="L53">
         <f t="shared" si="22"/>
-        <v>24.833333333333332</v>
-      </c>
-      <c r="J53">
+        <v>24.75</v>
+      </c>
+      <c r="M53">
         <v>12</v>
       </c>
-      <c r="K53">
+      <c r="N53">
         <v>23200</v>
       </c>
-      <c r="L53" t="s">
+      <c r="O53" t="s">
         <v>24</v>
       </c>
-      <c r="N53">
+      <c r="Q53">
         <v>25</v>
       </c>
-      <c r="O53">
+      <c r="R53">
         <v>20</v>
       </c>
-      <c r="P53">
+      <c r="S53">
         <v>2300</v>
       </c>
-      <c r="Q53">
+      <c r="T53">
         <v>675</v>
       </c>
-      <c r="R53">
+      <c r="U53">
         <f t="shared" si="16"/>
-        <v>32210</v>
-      </c>
-      <c r="S53">
+        <v>32020</v>
+      </c>
+      <c r="V53">
         <f t="shared" si="17"/>
-        <v>8257</v>
-      </c>
-      <c r="T53" t="str">
+        <v>8237</v>
+      </c>
+      <c r="W53" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200</v>
       </c>
-      <c r="U53" t="str">
+      <c r="X53" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100</v>
-      </c>
-      <c r="V53" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100</v>
+      </c>
+      <c r="Y53" t="str">
         <f t="shared" si="23"/>
         <v>"52":23200</v>
       </c>
-      <c r="W53" t="str">
+      <c r="Z53" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4070,60 +4228,60 @@
       </c>
       <c r="C54">
         <f t="shared" si="3"/>
-        <v>302</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="5"/>
-        <v>302</v>
-      </c>
-      <c r="H54">
+        <v>301</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="5"/>
+        <v>301</v>
+      </c>
+      <c r="K54">
         <v>4</v>
       </c>
-      <c r="I54">
+      <c r="L54">
         <f t="shared" si="22"/>
-        <v>25.166666666666668</v>
-      </c>
-      <c r="J54">
+        <v>25.083333333333332</v>
+      </c>
+      <c r="M54">
         <v>12</v>
       </c>
-      <c r="K54">
+      <c r="N54">
         <v>23000</v>
       </c>
-      <c r="L54" t="s">
+      <c r="O54" t="s">
         <v>28</v>
       </c>
-      <c r="N54">
+      <c r="Q54">
         <v>30</v>
       </c>
-      <c r="P54">
+      <c r="S54">
         <v>2350</v>
       </c>
-      <c r="R54">
+      <c r="U54">
         <f t="shared" si="16"/>
-        <v>34560</v>
-      </c>
-      <c r="S54">
+        <v>34370</v>
+      </c>
+      <c r="V54">
         <f t="shared" si="17"/>
-        <v>8257</v>
-      </c>
-      <c r="T54" t="str">
+        <v>8237</v>
+      </c>
+      <c r="W54" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000</v>
       </c>
-      <c r="U54" t="str">
+      <c r="X54" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100</v>
-      </c>
-      <c r="V54" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100</v>
+      </c>
+      <c r="Y54" t="str">
         <f t="shared" si="23"/>
         <v>"53":23000</v>
       </c>
-      <c r="W54" t="str">
+      <c r="Z54" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4141,58 +4299,58 @@
       <c r="F55">
         <v>14</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="5"/>
-        <v>308</v>
-      </c>
-      <c r="H55">
+      <c r="J55">
+        <f t="shared" si="5"/>
+        <v>307</v>
+      </c>
+      <c r="K55">
         <v>6</v>
       </c>
-      <c r="I55">
+      <c r="L55">
         <f t="shared" si="22"/>
-        <v>23.692307692307693</v>
-      </c>
-      <c r="J55">
+        <v>23.615384615384617</v>
+      </c>
+      <c r="M55">
         <v>13</v>
       </c>
-      <c r="K55">
+      <c r="N55">
         <v>22700</v>
       </c>
-      <c r="L55" t="s">
+      <c r="O55" t="s">
         <v>27</v>
       </c>
-      <c r="O55">
+      <c r="R55">
         <v>25</v>
       </c>
-      <c r="Q55">
+      <c r="T55">
         <v>750</v>
       </c>
-      <c r="R55">
+      <c r="U55">
         <f t="shared" si="16"/>
-        <v>34560</v>
-      </c>
-      <c r="S55">
+        <v>34370</v>
+      </c>
+      <c r="V55">
         <f t="shared" si="17"/>
-        <v>9007</v>
-      </c>
-      <c r="T55" t="str">
+        <v>8987</v>
+      </c>
+      <c r="W55" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700</v>
       </c>
-      <c r="U55" t="str">
+      <c r="X55" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100</v>
-      </c>
-      <c r="V55" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100</v>
+      </c>
+      <c r="Y55" t="str">
         <f t="shared" si="23"/>
         <v>"54":22700</v>
       </c>
-      <c r="W55" t="str">
+      <c r="Z55" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4202,60 +4360,60 @@
       </c>
       <c r="C56">
         <f t="shared" si="3"/>
-        <v>314</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="5"/>
-        <v>314</v>
-      </c>
-      <c r="H56">
+        <v>313</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="5"/>
+        <v>313</v>
+      </c>
+      <c r="K56">
         <v>6</v>
       </c>
-      <c r="I56">
+      <c r="L56">
         <f t="shared" si="22"/>
-        <v>24.153846153846153</v>
-      </c>
-      <c r="J56">
+        <v>24.076923076923077</v>
+      </c>
+      <c r="M56">
         <v>13</v>
       </c>
-      <c r="K56">
+      <c r="N56">
         <v>23200</v>
       </c>
-      <c r="L56" t="s">
+      <c r="O56" t="s">
         <v>28</v>
       </c>
-      <c r="N56">
+      <c r="Q56">
         <v>30</v>
       </c>
-      <c r="P56">
+      <c r="S56">
         <v>2500</v>
       </c>
-      <c r="R56">
+      <c r="U56">
         <f t="shared" si="16"/>
-        <v>37060</v>
-      </c>
-      <c r="S56">
+        <v>36870</v>
+      </c>
+      <c r="V56">
         <f t="shared" si="17"/>
-        <v>9007</v>
-      </c>
-      <c r="T56" t="str">
+        <v>8987</v>
+      </c>
+      <c r="W56" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200</v>
       </c>
-      <c r="U56" t="str">
+      <c r="X56" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100</v>
-      </c>
-      <c r="V56" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100</v>
+      </c>
+      <c r="Y56" t="str">
         <f t="shared" si="23"/>
         <v>"55":23200</v>
       </c>
-      <c r="W56" t="str">
+      <c r="Z56" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4273,64 +4431,64 @@
       <c r="F57">
         <v>14</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="5"/>
-        <v>324</v>
-      </c>
-      <c r="H57">
+      <c r="J57">
+        <f t="shared" si="5"/>
+        <v>323</v>
+      </c>
+      <c r="K57">
         <v>10</v>
       </c>
-      <c r="I57">
+      <c r="L57">
         <f t="shared" si="22"/>
-        <v>24.923076923076923</v>
-      </c>
-      <c r="J57">
+        <v>24.846153846153847</v>
+      </c>
+      <c r="M57">
         <v>13</v>
       </c>
-      <c r="K57">
+      <c r="N57">
         <v>24000</v>
       </c>
-      <c r="L57" t="s">
+      <c r="O57" t="s">
         <v>30</v>
       </c>
-      <c r="N57">
+      <c r="Q57">
         <v>25</v>
       </c>
-      <c r="O57">
+      <c r="R57">
         <v>15</v>
       </c>
-      <c r="P57">
+      <c r="S57">
         <v>2550</v>
       </c>
-      <c r="Q57">
+      <c r="T57">
         <v>775</v>
       </c>
-      <c r="R57">
+      <c r="U57">
         <f t="shared" si="16"/>
-        <v>39610</v>
-      </c>
-      <c r="S57">
+        <v>39420</v>
+      </c>
+      <c r="V57">
         <f t="shared" si="17"/>
-        <v>9782</v>
-      </c>
-      <c r="T57" t="str">
+        <v>9762</v>
+      </c>
+      <c r="W57" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000</v>
       </c>
-      <c r="U57" t="str">
+      <c r="X57" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100</v>
-      </c>
-      <c r="V57" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100</v>
+      </c>
+      <c r="Y57" t="str">
         <f t="shared" si="23"/>
         <v>"56":24000</v>
       </c>
-      <c r="W57" t="str">
+      <c r="Z57" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4340,60 +4498,60 @@
       </c>
       <c r="C58">
         <f t="shared" si="3"/>
-        <v>328</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="5"/>
-        <v>328</v>
-      </c>
-      <c r="H58">
+        <v>327</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="5"/>
+        <v>327</v>
+      </c>
+      <c r="K58">
         <v>4</v>
       </c>
-      <c r="I58">
+      <c r="L58">
         <f t="shared" si="22"/>
-        <v>25.23076923076923</v>
-      </c>
-      <c r="J58">
+        <v>25.153846153846153</v>
+      </c>
+      <c r="M58">
         <v>13</v>
       </c>
-      <c r="K58">
+      <c r="N58">
         <v>23500</v>
       </c>
-      <c r="L58" t="s">
+      <c r="O58" t="s">
         <v>28</v>
       </c>
-      <c r="N58">
+      <c r="Q58">
         <v>30</v>
       </c>
-      <c r="P58">
+      <c r="S58">
         <v>2600</v>
       </c>
-      <c r="R58">
+      <c r="U58">
         <f t="shared" si="16"/>
-        <v>42210</v>
-      </c>
-      <c r="S58">
+        <v>42020</v>
+      </c>
+      <c r="V58">
         <f t="shared" si="17"/>
-        <v>9782</v>
-      </c>
-      <c r="T58" t="str">
+        <v>9762</v>
+      </c>
+      <c r="W58" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500</v>
       </c>
-      <c r="U58" t="str">
+      <c r="X58" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100</v>
-      </c>
-      <c r="V58" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100</v>
+      </c>
+      <c r="Y58" t="str">
         <f t="shared" si="23"/>
         <v>"57":23500</v>
       </c>
-      <c r="W58" t="str">
+      <c r="Z58" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4403,60 +4561,60 @@
       </c>
       <c r="C59">
         <f t="shared" si="3"/>
-        <v>336</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="5"/>
-        <v>336</v>
-      </c>
-      <c r="H59">
+        <v>335</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="5"/>
+        <v>335</v>
+      </c>
+      <c r="K59">
         <v>8</v>
       </c>
-      <c r="I59">
+      <c r="L59">
         <f t="shared" si="22"/>
-        <v>24</v>
-      </c>
-      <c r="J59">
+        <v>23.928571428571427</v>
+      </c>
+      <c r="M59">
         <v>14</v>
       </c>
-      <c r="K59">
+      <c r="N59">
         <v>23800</v>
       </c>
-      <c r="L59" t="s">
+      <c r="O59" t="s">
         <v>25</v>
       </c>
-      <c r="O59">
+      <c r="R59">
         <v>20</v>
       </c>
-      <c r="Q59">
+      <c r="T59">
         <v>800</v>
       </c>
-      <c r="R59">
+      <c r="U59">
         <f t="shared" si="16"/>
-        <v>42210</v>
-      </c>
-      <c r="S59">
+        <v>42020</v>
+      </c>
+      <c r="V59">
         <f t="shared" si="17"/>
-        <v>10582</v>
-      </c>
-      <c r="T59" t="str">
+        <v>10562</v>
+      </c>
+      <c r="W59" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800</v>
       </c>
-      <c r="U59" t="str">
+      <c r="X59" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100</v>
-      </c>
-      <c r="V59" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100</v>
+      </c>
+      <c r="Y59" t="str">
         <f t="shared" si="23"/>
         <v>"58":23800</v>
       </c>
-      <c r="W59" t="str">
+      <c r="Z59" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4474,55 +4632,55 @@
       <c r="F60">
         <v>15</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="5"/>
-        <v>358</v>
-      </c>
-      <c r="H60">
+      <c r="J60">
+        <f t="shared" si="5"/>
+        <v>357</v>
+      </c>
+      <c r="K60">
         <v>22</v>
       </c>
-      <c r="I60">
+      <c r="L60">
         <f t="shared" si="22"/>
-        <v>25.571428571428573</v>
-      </c>
-      <c r="J60">
+        <v>25.5</v>
+      </c>
+      <c r="M60">
         <v>14</v>
       </c>
-      <c r="K60">
+      <c r="N60">
         <v>52000</v>
       </c>
-      <c r="L60" t="s">
+      <c r="O60" t="s">
         <v>26</v>
       </c>
-      <c r="M60">
+      <c r="P60">
         <v>150</v>
       </c>
-      <c r="R60">
+      <c r="U60">
         <f t="shared" si="16"/>
-        <v>42210</v>
-      </c>
-      <c r="S60">
+        <v>42020</v>
+      </c>
+      <c r="V60">
         <f t="shared" si="17"/>
-        <v>10582</v>
-      </c>
-      <c r="T60" t="str">
+        <v>10562</v>
+      </c>
+      <c r="W60" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000</v>
       </c>
-      <c r="U60" t="str">
+      <c r="X60" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
-      </c>
-      <c r="V60" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
+      </c>
+      <c r="Y60" t="str">
         <f t="shared" si="23"/>
         <v>"59":52000</v>
       </c>
-      <c r="W60" t="str">
+      <c r="Z60" t="str">
         <f t="shared" si="20"/>
         <v>"59":150</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4532,60 +4690,60 @@
       </c>
       <c r="C61">
         <f t="shared" si="3"/>
-        <v>366</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="5"/>
-        <v>366</v>
-      </c>
-      <c r="H61">
+        <v>365</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="5"/>
+        <v>365</v>
+      </c>
+      <c r="K61">
         <v>8</v>
       </c>
-      <c r="I61">
+      <c r="L61">
         <f t="shared" si="22"/>
-        <v>26.142857142857142</v>
-      </c>
-      <c r="J61">
+        <v>26.071428571428573</v>
+      </c>
+      <c r="M61">
         <v>14</v>
       </c>
-      <c r="K61">
+      <c r="N61">
         <v>28500</v>
       </c>
-      <c r="L61" t="s">
+      <c r="O61" t="s">
         <v>23</v>
       </c>
-      <c r="N61">
+      <c r="Q61">
         <v>40</v>
       </c>
-      <c r="P61">
+      <c r="S61">
         <v>3200</v>
       </c>
-      <c r="R61">
+      <c r="U61">
         <f t="shared" si="16"/>
-        <v>45410</v>
-      </c>
-      <c r="S61">
+        <v>45220</v>
+      </c>
+      <c r="V61">
         <f t="shared" si="17"/>
-        <v>10582</v>
-      </c>
-      <c r="T61" t="str">
+        <v>10562</v>
+      </c>
+      <c r="W61" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500</v>
       </c>
-      <c r="U61" t="str">
+      <c r="X61" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
-      </c>
-      <c r="V61" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
+      </c>
+      <c r="Y61" t="str">
         <f t="shared" si="23"/>
         <v>"60":28500</v>
       </c>
-      <c r="W61" t="str">
+      <c r="Z61" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4595,60 +4753,60 @@
       </c>
       <c r="C62">
         <f t="shared" si="3"/>
-        <v>374</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="5"/>
-        <v>374</v>
-      </c>
-      <c r="H62">
+        <v>373</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="5"/>
+        <v>373</v>
+      </c>
+      <c r="K62">
         <v>8</v>
       </c>
-      <c r="I62">
+      <c r="L62">
         <f t="shared" si="22"/>
-        <v>26.714285714285715</v>
-      </c>
-      <c r="J62">
+        <v>26.642857142857142</v>
+      </c>
+      <c r="M62">
         <v>14</v>
       </c>
-      <c r="K62">
+      <c r="N62">
         <v>28000</v>
       </c>
-      <c r="L62" t="s">
+      <c r="O62" t="s">
         <v>27</v>
       </c>
-      <c r="O62">
+      <c r="R62">
         <v>20</v>
       </c>
-      <c r="Q62">
+      <c r="T62">
         <v>900</v>
       </c>
-      <c r="R62">
+      <c r="U62">
         <f t="shared" si="16"/>
-        <v>45410</v>
-      </c>
-      <c r="S62">
+        <v>45220</v>
+      </c>
+      <c r="V62">
         <f t="shared" si="17"/>
-        <v>11482</v>
-      </c>
-      <c r="T62" t="str">
+        <v>11462</v>
+      </c>
+      <c r="W62" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000</v>
       </c>
-      <c r="U62" t="str">
+      <c r="X62" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
-      </c>
-      <c r="V62" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
+      </c>
+      <c r="Y62" t="str">
         <f t="shared" si="23"/>
         <v>"61":28000</v>
       </c>
-      <c r="W62" t="str">
+      <c r="Z62" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4666,64 +4824,64 @@
       <c r="F63">
         <v>15</v>
       </c>
-      <c r="G63">
-        <f t="shared" si="5"/>
-        <v>384</v>
-      </c>
-      <c r="H63">
+      <c r="J63">
+        <f t="shared" si="5"/>
+        <v>383</v>
+      </c>
+      <c r="K63">
         <v>10</v>
       </c>
-      <c r="I63">
+      <c r="L63">
         <f t="shared" si="22"/>
-        <v>27.428571428571427</v>
-      </c>
-      <c r="J63">
+        <v>27.357142857142858</v>
+      </c>
+      <c r="M63">
         <v>14</v>
       </c>
-      <c r="K63">
+      <c r="N63">
         <v>28700</v>
       </c>
-      <c r="L63" t="s">
+      <c r="O63" t="s">
         <v>24</v>
       </c>
-      <c r="N63">
+      <c r="Q63">
         <v>25</v>
       </c>
-      <c r="O63">
+      <c r="R63">
         <v>15</v>
       </c>
-      <c r="P63">
+      <c r="S63">
         <v>3300</v>
       </c>
-      <c r="Q63">
+      <c r="T63">
         <v>975</v>
       </c>
-      <c r="R63">
+      <c r="U63">
         <f t="shared" si="16"/>
-        <v>48710</v>
-      </c>
-      <c r="S63">
+        <v>48520</v>
+      </c>
+      <c r="V63">
         <f t="shared" si="17"/>
-        <v>12457</v>
-      </c>
-      <c r="T63" t="str">
+        <v>12437</v>
+      </c>
+      <c r="W63" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700</v>
       </c>
-      <c r="U63" t="str">
+      <c r="X63" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
-      </c>
-      <c r="V63" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
+      </c>
+      <c r="Y63" t="str">
         <f t="shared" si="23"/>
         <v>"62":28700</v>
       </c>
-      <c r="W63" t="str">
+      <c r="Z63" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4733,60 +4891,60 @@
       </c>
       <c r="C64">
         <f t="shared" si="3"/>
-        <v>388</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="5"/>
-        <v>388</v>
-      </c>
-      <c r="H64">
+        <v>387</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="5"/>
+        <v>387</v>
+      </c>
+      <c r="K64">
         <v>4</v>
       </c>
-      <c r="I64">
+      <c r="L64">
         <f t="shared" si="22"/>
-        <v>25.866666666666667</v>
-      </c>
-      <c r="J64">
+        <v>25.8</v>
+      </c>
+      <c r="M64">
         <v>15</v>
       </c>
-      <c r="K64">
+      <c r="N64">
         <v>28500</v>
       </c>
-      <c r="L64" t="s">
+      <c r="O64" t="s">
         <v>23</v>
       </c>
-      <c r="N64">
+      <c r="Q64">
         <v>35</v>
       </c>
-      <c r="P64">
+      <c r="S64">
         <v>3400</v>
       </c>
-      <c r="R64">
+      <c r="U64">
         <f t="shared" si="16"/>
-        <v>52110</v>
-      </c>
-      <c r="S64">
+        <v>51920</v>
+      </c>
+      <c r="V64">
         <f t="shared" si="17"/>
-        <v>12457</v>
-      </c>
-      <c r="T64" t="str">
+        <v>12437</v>
+      </c>
+      <c r="W64" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500</v>
       </c>
-      <c r="U64" t="str">
+      <c r="X64" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
-      </c>
-      <c r="V64" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
+      </c>
+      <c r="Y64" t="str">
         <f t="shared" si="23"/>
         <v>"63":28500</v>
       </c>
-      <c r="W64" t="str">
+      <c r="Z64" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4796,60 +4954,60 @@
       </c>
       <c r="C65">
         <f t="shared" si="3"/>
-        <v>394</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="5"/>
-        <v>394</v>
-      </c>
-      <c r="H65">
+        <v>393</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="5"/>
+        <v>393</v>
+      </c>
+      <c r="K65">
         <v>6</v>
       </c>
-      <c r="I65">
+      <c r="L65">
         <f t="shared" si="22"/>
-        <v>26.266666666666666</v>
-      </c>
-      <c r="J65">
+        <v>26.2</v>
+      </c>
+      <c r="M65">
         <v>15</v>
       </c>
-      <c r="K65">
+      <c r="N65">
         <v>29200</v>
       </c>
-      <c r="L65" t="s">
+      <c r="O65" t="s">
         <v>27</v>
       </c>
-      <c r="O65">
+      <c r="R65">
         <v>20</v>
       </c>
-      <c r="Q65">
+      <c r="T65">
         <v>1100</v>
       </c>
-      <c r="R65">
+      <c r="U65">
         <f t="shared" si="16"/>
-        <v>52110</v>
-      </c>
-      <c r="S65">
+        <v>51920</v>
+      </c>
+      <c r="V65">
         <f t="shared" si="17"/>
-        <v>13557</v>
-      </c>
-      <c r="T65" t="str">
+        <v>13537</v>
+      </c>
+      <c r="W65" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200</v>
       </c>
-      <c r="U65" t="str">
+      <c r="X65" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
-      </c>
-      <c r="V65" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
+      </c>
+      <c r="Y65" t="str">
         <f t="shared" si="23"/>
         <v>"64":29200</v>
       </c>
-      <c r="W65" t="str">
+      <c r="Z65" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4859,60 +5017,60 @@
       </c>
       <c r="C66">
         <f t="shared" si="3"/>
-        <v>402</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="5"/>
-        <v>402</v>
-      </c>
-      <c r="H66">
+        <v>401</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="5"/>
+        <v>401</v>
+      </c>
+      <c r="K66">
         <v>8</v>
       </c>
-      <c r="I66">
-        <f t="shared" ref="I66:I77" si="24">G66/J66</f>
-        <v>26.8</v>
-      </c>
-      <c r="J66">
+      <c r="L66">
+        <f t="shared" ref="L66:L77" si="24">J66/M66</f>
+        <v>26.733333333333334</v>
+      </c>
+      <c r="M66">
         <v>15</v>
       </c>
-      <c r="K66">
+      <c r="N66">
         <v>29500</v>
       </c>
-      <c r="L66" t="s">
+      <c r="O66" t="s">
         <v>28</v>
       </c>
-      <c r="N66">
+      <c r="Q66">
         <v>30</v>
       </c>
-      <c r="P66">
+      <c r="S66">
         <v>3800</v>
       </c>
-      <c r="R66">
+      <c r="U66">
         <f t="shared" si="16"/>
-        <v>55910</v>
-      </c>
-      <c r="S66">
+        <v>55720</v>
+      </c>
+      <c r="V66">
         <f t="shared" si="17"/>
-        <v>13557</v>
-      </c>
-      <c r="T66" t="str">
+        <v>13537</v>
+      </c>
+      <c r="W66" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500</v>
       </c>
-      <c r="U66" t="str">
+      <c r="X66" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
-      </c>
-      <c r="V66" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
+      </c>
+      <c r="Y66" t="str">
         <f t="shared" si="23"/>
         <v>"65":29500</v>
       </c>
-      <c r="W66" t="str">
+      <c r="Z66" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4922,7 +5080,7 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C77" si="26">IF(NOT(ISBLANK(D67)),D67,
-IF(ISBLANK(E67),G67,""))</f>
+IF(ISBLANK(E67),J67,""))</f>
         <v/>
       </c>
       <c r="E67">
@@ -4931,64 +5089,64 @@
       <c r="F67">
         <v>15</v>
       </c>
-      <c r="G67">
-        <f t="shared" si="5"/>
-        <v>412</v>
-      </c>
-      <c r="H67">
+      <c r="J67">
+        <f t="shared" si="5"/>
+        <v>411</v>
+      </c>
+      <c r="K67">
         <v>10</v>
       </c>
-      <c r="I67">
+      <c r="L67">
         <f t="shared" si="24"/>
-        <v>27.466666666666665</v>
-      </c>
-      <c r="J67">
+        <v>27.4</v>
+      </c>
+      <c r="M67">
         <v>15</v>
       </c>
-      <c r="K67">
+      <c r="N67">
         <v>29000</v>
       </c>
-      <c r="L67" t="s">
+      <c r="O67" t="s">
         <v>24</v>
       </c>
-      <c r="N67">
+      <c r="Q67">
         <v>25</v>
       </c>
-      <c r="O67">
+      <c r="R67">
         <v>15</v>
       </c>
-      <c r="P67">
+      <c r="S67">
         <v>3850</v>
       </c>
-      <c r="Q67">
+      <c r="T67">
         <v>1200</v>
       </c>
-      <c r="R67">
+      <c r="U67">
         <f t="shared" si="16"/>
-        <v>59760</v>
-      </c>
-      <c r="S67">
+        <v>59570</v>
+      </c>
+      <c r="V67">
         <f t="shared" si="17"/>
-        <v>14757</v>
-      </c>
-      <c r="T67" t="str">
+        <v>14737</v>
+      </c>
+      <c r="W67" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000</v>
       </c>
-      <c r="U67" t="str">
+      <c r="X67" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
-      </c>
-      <c r="V67" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
+      </c>
+      <c r="Y67" t="str">
         <f t="shared" si="23"/>
         <v>"66":29000</v>
       </c>
-      <c r="W67" t="str">
+      <c r="Z67" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4998,60 +5156,60 @@
       </c>
       <c r="C68">
         <f t="shared" si="26"/>
-        <v>420</v>
-      </c>
-      <c r="G68">
-        <f t="shared" ref="G68:G77" si="27">G67+H68</f>
-        <v>420</v>
-      </c>
-      <c r="H68">
+        <v>419</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68:J77" si="27">J67+K68</f>
+        <v>419</v>
+      </c>
+      <c r="K68">
         <v>8</v>
       </c>
-      <c r="I68">
+      <c r="L68">
         <f t="shared" si="24"/>
+        <v>27.933333333333334</v>
+      </c>
+      <c r="M68">
+        <v>15</v>
+      </c>
+      <c r="N68">
+        <v>29700</v>
+      </c>
+      <c r="O68" t="s">
         <v>28</v>
       </c>
-      <c r="J68">
-        <v>15</v>
-      </c>
-      <c r="K68">
-        <v>29700</v>
-      </c>
-      <c r="L68" t="s">
-        <v>28</v>
-      </c>
-      <c r="N68">
+      <c r="Q68">
         <v>30</v>
       </c>
-      <c r="P68">
+      <c r="S68">
         <v>3900</v>
       </c>
-      <c r="R68">
+      <c r="U68">
         <f t="shared" si="16"/>
-        <v>63660</v>
-      </c>
-      <c r="S68">
+        <v>63470</v>
+      </c>
+      <c r="V68">
         <f t="shared" si="17"/>
-        <v>14757</v>
-      </c>
-      <c r="T68" t="str">
+        <v>14737</v>
+      </c>
+      <c r="W68" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700</v>
       </c>
-      <c r="U68" t="str">
+      <c r="X68" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
-      </c>
-      <c r="V68" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
+      </c>
+      <c r="Y68" t="str">
         <f t="shared" si="23"/>
         <v>"67":29700</v>
       </c>
-      <c r="W68" t="str">
+      <c r="Z68" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5061,60 +5219,60 @@
       </c>
       <c r="C69">
         <f t="shared" si="26"/>
-        <v>424</v>
-      </c>
-      <c r="G69">
+        <v>423</v>
+      </c>
+      <c r="J69">
         <f t="shared" si="27"/>
-        <v>424</v>
-      </c>
-      <c r="H69">
+        <v>423</v>
+      </c>
+      <c r="K69">
         <v>4</v>
       </c>
-      <c r="I69">
+      <c r="L69">
         <f t="shared" si="24"/>
-        <v>28.266666666666666</v>
-      </c>
-      <c r="J69">
+        <v>28.2</v>
+      </c>
+      <c r="M69">
         <v>15</v>
       </c>
-      <c r="K69">
+      <c r="N69">
         <v>29500</v>
       </c>
-      <c r="L69" t="s">
+      <c r="O69" t="s">
         <v>27</v>
       </c>
-      <c r="O69">
+      <c r="R69">
         <v>20</v>
       </c>
-      <c r="Q69">
+      <c r="T69">
         <v>1300</v>
       </c>
-      <c r="R69">
+      <c r="U69">
         <f t="shared" si="16"/>
-        <v>63660</v>
-      </c>
-      <c r="S69">
+        <v>63470</v>
+      </c>
+      <c r="V69">
         <f t="shared" si="17"/>
-        <v>16057</v>
-      </c>
-      <c r="T69" t="str">
+        <v>16037</v>
+      </c>
+      <c r="W69" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500</v>
       </c>
-      <c r="U69" t="str">
+      <c r="X69" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
-      </c>
-      <c r="V69" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
+      </c>
+      <c r="Y69" t="str">
         <f t="shared" si="23"/>
         <v>"68":29500</v>
       </c>
-      <c r="W69" t="str">
+      <c r="Z69" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5124,60 +5282,60 @@
       </c>
       <c r="C70">
         <f t="shared" si="26"/>
-        <v>430</v>
-      </c>
-      <c r="G70">
+        <v>429</v>
+      </c>
+      <c r="J70">
         <f t="shared" si="27"/>
-        <v>430</v>
-      </c>
-      <c r="H70">
+        <v>429</v>
+      </c>
+      <c r="K70">
         <v>6</v>
       </c>
-      <c r="I70">
+      <c r="L70">
         <f t="shared" si="24"/>
-        <v>28.666666666666668</v>
-      </c>
-      <c r="J70">
+        <v>28.6</v>
+      </c>
+      <c r="M70">
         <v>15</v>
       </c>
-      <c r="K70">
+      <c r="N70">
         <v>29900</v>
       </c>
-      <c r="L70" t="s">
+      <c r="O70" t="s">
         <v>28</v>
       </c>
-      <c r="N70">
+      <c r="Q70">
         <v>40</v>
       </c>
-      <c r="P70">
+      <c r="S70">
         <v>4200</v>
       </c>
-      <c r="R70">
+      <c r="U70">
         <f t="shared" si="16"/>
-        <v>67860</v>
-      </c>
-      <c r="S70">
+        <v>67670</v>
+      </c>
+      <c r="V70">
         <f t="shared" si="17"/>
-        <v>16057</v>
-      </c>
-      <c r="T70" t="str">
+        <v>16037</v>
+      </c>
+      <c r="W70" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900</v>
       </c>
-      <c r="U70" t="str">
+      <c r="X70" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
-      </c>
-      <c r="V70" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150</v>
+      </c>
+      <c r="Y70" t="str">
         <f t="shared" si="23"/>
         <v>"69":29900</v>
       </c>
-      <c r="W70" t="str">
+      <c r="Z70" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5195,55 +5353,55 @@
       <c r="F71">
         <v>16</v>
       </c>
-      <c r="G71">
+      <c r="J71">
         <f t="shared" si="27"/>
-        <v>446</v>
-      </c>
-      <c r="H71">
+        <v>445</v>
+      </c>
+      <c r="K71">
         <v>16</v>
       </c>
-      <c r="I71">
+      <c r="L71">
         <f t="shared" si="24"/>
-        <v>29.733333333333334</v>
-      </c>
-      <c r="J71">
+        <v>29.666666666666668</v>
+      </c>
+      <c r="M71">
         <v>15</v>
       </c>
-      <c r="K71">
+      <c r="N71">
         <v>64000</v>
       </c>
-      <c r="L71" t="s">
+      <c r="O71" t="s">
         <v>26</v>
       </c>
-      <c r="M71">
+      <c r="P71">
         <v>120</v>
       </c>
-      <c r="R71">
+      <c r="U71">
         <f t="shared" si="16"/>
-        <v>67860</v>
-      </c>
-      <c r="S71">
+        <v>67670</v>
+      </c>
+      <c r="V71">
         <f t="shared" si="17"/>
-        <v>16057</v>
-      </c>
-      <c r="T71" t="str">
+        <v>16037</v>
+      </c>
+      <c r="W71" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000</v>
       </c>
-      <c r="U71" t="str">
+      <c r="X71" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
-      </c>
-      <c r="V71" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
+      </c>
+      <c r="Y71" t="str">
         <f t="shared" si="23"/>
         <v>"70":64000</v>
       </c>
-      <c r="W71" t="str">
+      <c r="Z71" t="str">
         <f t="shared" si="20"/>
         <v>"70":120</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5253,60 +5411,60 @@
       </c>
       <c r="C72">
         <f t="shared" si="26"/>
-        <v>454</v>
-      </c>
-      <c r="G72">
+        <v>453</v>
+      </c>
+      <c r="J72">
         <f t="shared" si="27"/>
-        <v>454</v>
-      </c>
-      <c r="H72">
+        <v>453</v>
+      </c>
+      <c r="K72">
         <v>8</v>
       </c>
-      <c r="I72">
+      <c r="L72">
         <f t="shared" si="24"/>
-        <v>30.266666666666666</v>
-      </c>
-      <c r="J72">
+        <v>30.2</v>
+      </c>
+      <c r="M72">
         <v>15</v>
       </c>
-      <c r="K72">
+      <c r="N72">
         <v>33000</v>
       </c>
-      <c r="L72" t="s">
+      <c r="O72" t="s">
         <v>28</v>
       </c>
-      <c r="N72">
+      <c r="Q72">
         <v>35</v>
       </c>
-      <c r="P72">
+      <c r="S72">
         <v>4400</v>
       </c>
-      <c r="R72">
+      <c r="U72">
         <f t="shared" si="16"/>
-        <v>72260</v>
-      </c>
-      <c r="S72">
+        <v>72070</v>
+      </c>
+      <c r="V72">
         <f t="shared" si="17"/>
-        <v>16057</v>
-      </c>
-      <c r="T72" t="str">
+        <v>16037</v>
+      </c>
+      <c r="W72" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000</v>
       </c>
-      <c r="U72" t="str">
+      <c r="X72" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
-      </c>
-      <c r="V72" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
+      </c>
+      <c r="Y72" t="str">
         <f t="shared" si="23"/>
         <v>"71":33000</v>
       </c>
-      <c r="W72" t="str">
+      <c r="Z72" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5316,66 +5474,66 @@
       </c>
       <c r="C73">
         <f t="shared" si="26"/>
-        <v>464</v>
-      </c>
-      <c r="G73">
+        <v>463</v>
+      </c>
+      <c r="J73">
         <f t="shared" si="27"/>
-        <v>464</v>
-      </c>
-      <c r="H73">
+        <v>463</v>
+      </c>
+      <c r="K73">
         <v>10</v>
       </c>
-      <c r="I73">
+      <c r="L73">
         <f t="shared" si="24"/>
-        <v>30.933333333333334</v>
-      </c>
-      <c r="J73">
+        <v>30.866666666666667</v>
+      </c>
+      <c r="M73">
         <v>15</v>
       </c>
-      <c r="K73">
+      <c r="N73">
         <v>33500</v>
       </c>
-      <c r="L73" t="s">
+      <c r="O73" t="s">
         <v>24</v>
       </c>
-      <c r="N73">
+      <c r="Q73">
         <v>30</v>
       </c>
-      <c r="O73">
+      <c r="R73">
         <v>25</v>
       </c>
-      <c r="P73">
+      <c r="S73">
         <v>4450</v>
       </c>
-      <c r="Q73">
+      <c r="T73">
         <v>1500</v>
       </c>
-      <c r="R73">
+      <c r="U73">
         <f t="shared" si="16"/>
-        <v>76710</v>
-      </c>
-      <c r="S73">
+        <v>76520</v>
+      </c>
+      <c r="V73">
         <f t="shared" si="17"/>
-        <v>17557</v>
-      </c>
-      <c r="T73" t="str">
+        <v>17537</v>
+      </c>
+      <c r="W73" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500</v>
       </c>
-      <c r="U73" t="str">
+      <c r="X73" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
-      </c>
-      <c r="V73" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
+      </c>
+      <c r="Y73" t="str">
         <f t="shared" si="23"/>
         <v>"72":33500</v>
       </c>
-      <c r="W73" t="str">
+      <c r="Z73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5393,58 +5551,58 @@
       <c r="F74">
         <v>16</v>
       </c>
-      <c r="G74">
+      <c r="J74">
         <f t="shared" si="27"/>
-        <v>472</v>
-      </c>
-      <c r="H74">
+        <v>471</v>
+      </c>
+      <c r="K74">
         <v>8</v>
       </c>
-      <c r="I74">
+      <c r="L74">
         <f t="shared" si="24"/>
-        <v>31.466666666666665</v>
-      </c>
-      <c r="J74">
+        <v>31.4</v>
+      </c>
+      <c r="M74">
         <v>15</v>
       </c>
-      <c r="K74">
+      <c r="N74">
         <v>33800</v>
       </c>
-      <c r="L74" t="s">
+      <c r="O74" t="s">
         <v>28</v>
       </c>
-      <c r="N74">
+      <c r="Q74">
         <v>35</v>
       </c>
-      <c r="P74">
+      <c r="S74">
         <v>4500</v>
       </c>
-      <c r="R74">
+      <c r="U74">
         <f t="shared" si="16"/>
-        <v>81210</v>
-      </c>
-      <c r="S74">
+        <v>81020</v>
+      </c>
+      <c r="V74">
         <f t="shared" si="17"/>
-        <v>17557</v>
-      </c>
-      <c r="T74" t="str">
+        <v>17537</v>
+      </c>
+      <c r="W74" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800</v>
       </c>
-      <c r="U74" t="str">
+      <c r="X74" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
-      </c>
-      <c r="V74" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
+      </c>
+      <c r="Y74" t="str">
         <f t="shared" si="23"/>
         <v>"73":33800</v>
       </c>
-      <c r="W74" t="str">
+      <c r="Z74" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5454,66 +5612,66 @@
       </c>
       <c r="C75">
         <f t="shared" si="26"/>
-        <v>482</v>
-      </c>
-      <c r="G75">
+        <v>481</v>
+      </c>
+      <c r="J75">
         <f t="shared" si="27"/>
-        <v>482</v>
-      </c>
-      <c r="H75">
+        <v>481</v>
+      </c>
+      <c r="K75">
         <v>10</v>
       </c>
-      <c r="I75">
+      <c r="L75">
         <f t="shared" si="24"/>
-        <v>30.125</v>
-      </c>
-      <c r="J75">
+        <v>30.0625</v>
+      </c>
+      <c r="M75">
         <v>16</v>
       </c>
-      <c r="K75">
+      <c r="N75">
         <v>34500</v>
       </c>
-      <c r="L75" t="s">
+      <c r="O75" t="s">
         <v>30</v>
       </c>
-      <c r="N75">
+      <c r="Q75">
         <v>25</v>
       </c>
-      <c r="O75">
+      <c r="R75">
         <v>20</v>
       </c>
-      <c r="P75">
+      <c r="S75">
         <v>4550</v>
       </c>
-      <c r="Q75">
+      <c r="T75">
         <v>1900</v>
       </c>
-      <c r="R75">
+      <c r="U75">
         <f t="shared" si="16"/>
-        <v>85760</v>
-      </c>
-      <c r="S75">
+        <v>85570</v>
+      </c>
+      <c r="V75">
         <f t="shared" si="17"/>
-        <v>19457</v>
-      </c>
-      <c r="T75" t="str">
+        <v>19437</v>
+      </c>
+      <c r="W75" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500</v>
       </c>
-      <c r="U75" t="str">
+      <c r="X75" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
-      </c>
-      <c r="V75" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
+      </c>
+      <c r="Y75" t="str">
         <f t="shared" si="23"/>
         <v>"74":34500</v>
       </c>
-      <c r="W75" t="str">
+      <c r="Z75" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5523,60 +5681,60 @@
       </c>
       <c r="C76">
         <f t="shared" si="26"/>
-        <v>490</v>
-      </c>
-      <c r="G76">
+        <v>489</v>
+      </c>
+      <c r="J76">
         <f t="shared" si="27"/>
-        <v>490</v>
-      </c>
-      <c r="H76">
+        <v>489</v>
+      </c>
+      <c r="K76">
         <v>8</v>
       </c>
-      <c r="I76">
+      <c r="L76">
         <f t="shared" si="24"/>
-        <v>30.625</v>
-      </c>
-      <c r="J76">
+        <v>30.5625</v>
+      </c>
+      <c r="M76">
         <v>16</v>
       </c>
-      <c r="K76">
+      <c r="N76">
         <v>34200</v>
       </c>
-      <c r="L76" t="s">
+      <c r="O76" t="s">
         <v>23</v>
       </c>
-      <c r="N76">
+      <c r="Q76">
         <v>30</v>
       </c>
-      <c r="P76">
+      <c r="S76">
         <v>4600</v>
       </c>
-      <c r="R76">
+      <c r="U76">
         <f t="shared" si="16"/>
-        <v>90360</v>
-      </c>
-      <c r="S76">
+        <v>90170</v>
+      </c>
+      <c r="V76">
         <f t="shared" si="17"/>
-        <v>19457</v>
-      </c>
-      <c r="T76" t="str">
+        <v>19437</v>
+      </c>
+      <c r="W76" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200</v>
       </c>
-      <c r="U76" t="str">
+      <c r="X76" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
-      </c>
-      <c r="V76" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
+      </c>
+      <c r="Y76" t="str">
         <f t="shared" si="23"/>
         <v>"75":34200</v>
       </c>
-      <c r="W76" t="str">
+      <c r="Z76" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5586,154 +5744,154 @@
       </c>
       <c r="C77">
         <f t="shared" si="26"/>
-        <v>498</v>
-      </c>
-      <c r="G77">
+        <v>497</v>
+      </c>
+      <c r="J77">
         <f t="shared" si="27"/>
-        <v>498</v>
-      </c>
-      <c r="H77">
+        <v>497</v>
+      </c>
+      <c r="K77">
         <v>8</v>
       </c>
-      <c r="I77">
+      <c r="L77">
         <f t="shared" si="24"/>
-        <v>31.125</v>
-      </c>
-      <c r="J77">
+        <v>31.0625</v>
+      </c>
+      <c r="M77">
         <v>16</v>
       </c>
-      <c r="K77">
+      <c r="N77">
         <v>35000</v>
       </c>
-      <c r="L77" t="s">
+      <c r="O77" t="s">
         <v>27</v>
       </c>
-      <c r="O77">
+      <c r="R77">
         <v>20</v>
       </c>
-      <c r="Q77">
+      <c r="T77">
         <v>2100</v>
       </c>
-      <c r="R77">
+      <c r="U77">
         <f t="shared" si="16"/>
-        <v>90360</v>
-      </c>
-      <c r="S77">
+        <v>90170</v>
+      </c>
+      <c r="V77">
         <f t="shared" si="17"/>
-        <v>21557</v>
-      </c>
-      <c r="T77" t="str">
+        <v>21537</v>
+      </c>
+      <c r="W77" t="str">
         <f t="shared" si="18"/>
         <v>"1":1500,"2":1200,"3":1300,"4":1800,"5":2200,"6":2000,"7":2200,"8":2100,"9":2400,"10":2100,"11":2800,"12":3000,"13":3200,"14":3500,"15":8000,"16":4600,"17":4900,"18":5400,"19":5800,"20":6400,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":9200,"29":9600,"30":9800,"31":9500,"32":9900,"33":9600,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":45000,"50":22300,"51":22800,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200,"76":35000</v>
       </c>
-      <c r="U77" t="str">
+      <c r="X77" t="str">
         <f t="shared" si="19"/>
-        <v>,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
-      </c>
-      <c r="V77" t="str">
+        <v>,"2":20,"6":35,"15":70,"25":90,"34":100,"44":120,"49":100,"59":150,"70":120</v>
+      </c>
+      <c r="Y77" t="str">
         <f t="shared" si="23"/>
         <v>"76":35000</v>
       </c>
-      <c r="W77" t="str">
+      <c r="Z77" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81">
         <v>19</v>
       </c>
       <c r="D81">
-        <f>SUM(H2:H20)</f>
+        <f>SUM(K2:K20)</f>
         <v>67</v>
       </c>
-      <c r="G81">
+      <c r="J81">
         <v>67</v>
       </c>
-      <c r="H81">
-        <f>G81/19</f>
+      <c r="K81">
+        <f>J81/19</f>
         <v>3.5263157894736841</v>
       </c>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82">
         <v>19</v>
       </c>
       <c r="D82">
-        <f>SUM(H21:H39)</f>
+        <f>SUM(K21:K39)</f>
         <v>105</v>
       </c>
       <c r="E82">
         <f>D82/D81</f>
         <v>1.5671641791044777</v>
       </c>
-      <c r="G82">
-        <f t="shared" ref="G82:G84" si="28">G81*1.57</f>
+      <c r="J82">
+        <f t="shared" ref="J82:J84" si="28">J81*1.57</f>
         <v>105.19</v>
       </c>
-      <c r="H82">
-        <f>G82/19</f>
+      <c r="K82">
+        <f>J82/19</f>
         <v>5.5363157894736839</v>
       </c>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83">
         <v>19</v>
       </c>
       <c r="D83">
-        <f>SUM(H40:H58)</f>
-        <v>156</v>
+        <f>SUM(K40:K58)</f>
+        <v>155</v>
       </c>
       <c r="E83">
         <f>D83/D82</f>
-        <v>1.4857142857142858</v>
-      </c>
-      <c r="G83">
+        <v>1.4761904761904763</v>
+      </c>
+      <c r="J83">
         <f t="shared" si="28"/>
         <v>165.14830000000001</v>
       </c>
-      <c r="H83">
-        <f>G83/19</f>
+      <c r="K83">
+        <f>J83/19</f>
         <v>8.6920157894736843</v>
       </c>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84">
         <v>19</v>
       </c>
       <c r="D84">
-        <f>SUM(H59:H77)</f>
+        <f>SUM(K59:K77)</f>
         <v>170</v>
       </c>
       <c r="E84">
         <f>D84/D83</f>
-        <v>1.0897435897435896</v>
-      </c>
-      <c r="G84">
+        <v>1.096774193548387</v>
+      </c>
+      <c r="J84">
         <f t="shared" si="28"/>
         <v>259.28283100000004</v>
       </c>
-      <c r="H84">
-        <f>G84/19</f>
+      <c r="K84">
+        <f>J84/19</f>
         <v>13.646464789473686</v>
       </c>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D85">
         <f>SUM(D81:D84)</f>
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F85">
         <f>37*16</f>
         <v>592</v>
       </c>
-      <c r="G85">
-        <f>SUM(G81:G84)</f>
+      <c r="J85">
+        <f>SUM(J81:J84)</f>
         <v>596.6211310000001</v>
       </c>
     </row>

--- a/Excel/작업Research.xlsx
+++ b/Excel/작업Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF726ED-8D5C-4D78-AFED-AA2F04F5A686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08EF6B3-0DA1-4B20-97A2-ACCE6CAF15B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="192">
   <si>
     <t>필요캐릭터인원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,22 +207,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4,3,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5,3,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -772,6 +760,38 @@
   </si>
   <si>
     <t>339만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1162,7 +1182,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1209,7 +1229,7 @@
         <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I1" t="s">
         <v>39</v>
@@ -1300,8 +1320,11 @@
       <c r="G2">
         <v>2</v>
       </c>
-      <c r="J2">
-        <v>2</v>
+      <c r="I2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J2" t="s">
+        <v>184</v>
       </c>
       <c r="M2">
         <f>N2</f>
@@ -1386,10 +1409,10 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="M3">
         <f>M2+N3</f>
@@ -1459,10 +1482,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M67" si="6">M3+N4</f>
@@ -1528,7 +1551,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1542,14 +1565,14 @@
       </c>
       <c r="M5">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -1616,25 +1639,25 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>44</v>
       </c>
       <c r="M6">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N6">
         <v>2</v>
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -1695,21 +1718,18 @@
         <v>19</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="M7">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
@@ -1775,18 +1795,24 @@
       </c>
       <c r="H8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J8" t="s">
+        <v>190</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="P8">
         <v>3</v>
@@ -1838,7 +1864,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -1847,22 +1873,16 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" t="s">
-        <v>46</v>
-      </c>
       <c r="M9">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="P9">
         <v>3</v>
@@ -1928,7 +1948,7 @@
         <v>31</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
@@ -2006,10 +2026,10 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M11">
         <f t="shared" si="6"/>
@@ -2069,28 +2089,28 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M12">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="P12">
         <v>4</v>
@@ -2151,24 +2171,24 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M13">
         <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="N13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
@@ -2231,13 +2251,13 @@
       </c>
       <c r="H14">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M14">
         <f t="shared" si="6"/>
@@ -2310,13 +2330,13 @@
         <v>4</v>
       </c>
       <c r="I15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" t="s">
         <v>54</v>
-      </c>
-      <c r="J15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" t="s">
-        <v>57</v>
       </c>
       <c r="M15">
         <f t="shared" si="6"/>
@@ -2389,13 +2409,13 @@
         <v>9</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
@@ -2471,10 +2491,10 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M17">
         <f t="shared" si="6"/>
@@ -2547,10 +2567,10 @@
         <v>5</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M18">
         <f t="shared" si="6"/>
@@ -2623,13 +2643,13 @@
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M19">
         <f t="shared" si="6"/>
@@ -2702,10 +2722,10 @@
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M20">
         <f t="shared" si="6"/>
@@ -2790,13 +2810,13 @@
         <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M21">
         <f t="shared" si="6"/>
@@ -2866,13 +2886,13 @@
         <v>4</v>
       </c>
       <c r="I22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M22">
         <f t="shared" si="6"/>
@@ -2951,10 +2971,10 @@
         <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M23">
         <f t="shared" si="6"/>
@@ -3027,13 +3047,13 @@
         <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M24">
         <f t="shared" si="6"/>
@@ -3112,13 +3132,13 @@
         <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M25">
         <f t="shared" si="6"/>
@@ -3191,13 +3211,13 @@
         <v>8</v>
       </c>
       <c r="I26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M26">
         <f t="shared" si="6"/>
@@ -3273,10 +3293,10 @@
         <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M27">
         <f t="shared" si="6"/>
@@ -3349,13 +3369,13 @@
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M28">
         <f t="shared" si="6"/>
@@ -3428,13 +3448,13 @@
         <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M29">
         <f t="shared" si="6"/>
@@ -3504,13 +3524,13 @@
         <v>8</v>
       </c>
       <c r="I30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M30">
         <f t="shared" si="6"/>
@@ -3583,10 +3603,10 @@
         <v>8</v>
       </c>
       <c r="I31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M31">
         <f t="shared" si="6"/>
@@ -3603,7 +3623,7 @@
         <v>7</v>
       </c>
       <c r="Q31">
-        <f t="shared" ref="Q22:Q31" si="22">Q30+200</f>
+        <f t="shared" ref="Q31" si="22">Q30+200</f>
         <v>10400</v>
       </c>
       <c r="R31" t="s">
@@ -3672,10 +3692,10 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M32">
         <f t="shared" si="6"/>
@@ -3748,10 +3768,10 @@
         <v>9</v>
       </c>
       <c r="I33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M33">
         <f t="shared" si="6"/>
@@ -3831,13 +3851,13 @@
         <v>23</v>
       </c>
       <c r="I34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M34">
         <f t="shared" si="6"/>
@@ -3910,13 +3930,13 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M35">
         <f t="shared" si="6"/>
@@ -3986,10 +4006,10 @@
         <v>9</v>
       </c>
       <c r="I36" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M36">
         <f t="shared" si="6"/>
@@ -4062,10 +4082,10 @@
         <v>8</v>
       </c>
       <c r="I37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M37">
         <f t="shared" si="6"/>
@@ -4144,10 +4164,10 @@
         <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M38">
         <f t="shared" si="6"/>
@@ -4220,13 +4240,13 @@
         <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J39" t="s">
+        <v>92</v>
+      </c>
+      <c r="L39" t="s">
         <v>95</v>
-      </c>
-      <c r="L39" t="s">
-        <v>98</v>
       </c>
       <c r="M39">
         <f t="shared" si="6"/>
@@ -4311,13 +4331,13 @@
         <v>20</v>
       </c>
       <c r="I40" t="s">
+        <v>94</v>
+      </c>
+      <c r="J40" t="s">
         <v>97</v>
       </c>
-      <c r="J40" t="s">
-        <v>100</v>
-      </c>
       <c r="K40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M40">
         <f t="shared" si="6"/>
@@ -4390,13 +4410,13 @@
         <v>16</v>
       </c>
       <c r="I41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J41" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L41" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M41">
         <f t="shared" si="6"/>
@@ -4475,13 +4495,13 @@
         <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M42">
         <f t="shared" si="6"/>
@@ -4554,13 +4574,13 @@
         <v>13</v>
       </c>
       <c r="I43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J43" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M43">
         <f t="shared" si="6"/>
@@ -4639,13 +4659,13 @@
         <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J44" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L44" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M44">
         <f t="shared" si="6"/>
@@ -4718,13 +4738,13 @@
         <v>11</v>
       </c>
       <c r="I45" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J45" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M45">
         <f t="shared" si="6"/>
@@ -4794,13 +4814,13 @@
         <v>13</v>
       </c>
       <c r="I46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J46" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L46" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M46">
         <f t="shared" si="6"/>
@@ -4879,13 +4899,13 @@
         <v>6</v>
       </c>
       <c r="I47" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J47" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L47" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M47">
         <f t="shared" si="6"/>
@@ -4958,13 +4978,13 @@
         <v>16</v>
       </c>
       <c r="I48" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J48" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L48" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M48">
         <f t="shared" si="6"/>
@@ -5043,13 +5063,13 @@
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J49" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L49" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M49">
         <f t="shared" si="6"/>
@@ -5122,13 +5142,13 @@
         <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J50" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L50" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M50">
         <f t="shared" si="6"/>
@@ -5207,13 +5227,13 @@
         <v>8</v>
       </c>
       <c r="I51" t="s">
+        <v>124</v>
+      </c>
+      <c r="J51" t="s">
+        <v>125</v>
+      </c>
+      <c r="L51" t="s">
         <v>127</v>
-      </c>
-      <c r="J51" t="s">
-        <v>128</v>
-      </c>
-      <c r="L51" t="s">
-        <v>130</v>
       </c>
       <c r="M51">
         <f t="shared" si="6"/>
@@ -5286,16 +5306,16 @@
         <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J52" t="s">
+        <v>128</v>
+      </c>
+      <c r="K52" t="s">
+        <v>130</v>
+      </c>
+      <c r="L52" t="s">
         <v>131</v>
-      </c>
-      <c r="K52" t="s">
-        <v>133</v>
-      </c>
-      <c r="L52" t="s">
-        <v>134</v>
       </c>
       <c r="M52">
         <f t="shared" si="6"/>
@@ -5365,13 +5385,13 @@
         <v>17</v>
       </c>
       <c r="I53" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J53" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M53">
         <f t="shared" si="6"/>
@@ -5450,16 +5470,16 @@
         <v>13</v>
       </c>
       <c r="I54" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J54" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L54" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M54">
         <f t="shared" si="6"/>
@@ -5532,13 +5552,13 @@
         <v>16</v>
       </c>
       <c r="I55" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J55" t="s">
+        <v>138</v>
+      </c>
+      <c r="L55" t="s">
         <v>141</v>
-      </c>
-      <c r="L55" t="s">
-        <v>144</v>
       </c>
       <c r="M55">
         <f t="shared" si="6"/>
@@ -5611,13 +5631,13 @@
         <v>18</v>
       </c>
       <c r="I56" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J56" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L56" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M56">
         <f t="shared" si="6"/>
@@ -5690,13 +5710,13 @@
         <v>24</v>
       </c>
       <c r="I57" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J57" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L57" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M57">
         <f t="shared" si="6"/>
@@ -5775,13 +5795,13 @@
         <v>25</v>
       </c>
       <c r="I58" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J58" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L58" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M58">
         <f t="shared" si="6"/>
@@ -5854,16 +5874,16 @@
         <v>17</v>
       </c>
       <c r="I59" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J59" t="s">
+        <v>151</v>
+      </c>
+      <c r="K59" t="s">
         <v>154</v>
       </c>
-      <c r="K59" t="s">
-        <v>157</v>
-      </c>
       <c r="L59" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M59">
         <f t="shared" si="6"/>
@@ -5936,13 +5956,13 @@
         <v>16</v>
       </c>
       <c r="I60" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J60" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L60" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M60">
         <f t="shared" si="6"/>
@@ -6012,13 +6032,13 @@
         <v>28</v>
       </c>
       <c r="I61" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J61" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L61" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M61">
         <f t="shared" si="6"/>
@@ -6091,13 +6111,13 @@
         <v>32</v>
       </c>
       <c r="I62" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J62" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L62" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M62">
         <f t="shared" si="6"/>
@@ -6170,13 +6190,13 @@
         <v>18</v>
       </c>
       <c r="I63" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J63" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L63" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M63">
         <f t="shared" si="6"/>
@@ -6255,16 +6275,16 @@
         <v>22</v>
       </c>
       <c r="I64" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J64" t="s">
+        <v>167</v>
+      </c>
+      <c r="K64" t="s">
+        <v>169</v>
+      </c>
+      <c r="L64" t="s">
         <v>170</v>
-      </c>
-      <c r="K64" t="s">
-        <v>172</v>
-      </c>
-      <c r="L64" t="s">
-        <v>173</v>
       </c>
       <c r="M64">
         <f t="shared" si="6"/>
@@ -6337,13 +6357,13 @@
         <v>18</v>
       </c>
       <c r="I65" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J65" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L65" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M65">
         <f t="shared" si="6"/>
@@ -6405,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C97" si="27">IF(NOT(ISBLANK(D66)),D66,
+        <f t="shared" ref="C66:C77" si="27">IF(NOT(ISBLANK(D66)),D66,
 IF(ISBLANK(E66),M66,""))</f>
         <v>467</v>
       </c>
@@ -6417,13 +6437,13 @@
         <v>17</v>
       </c>
       <c r="I66" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J66" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L66" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M66">
         <f t="shared" si="6"/>
@@ -6492,20 +6512,20 @@
         <v>717</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H98" si="30">G67-G66</f>
+        <f t="shared" ref="H67:H68" si="30">G67-G66</f>
         <v>34</v>
       </c>
       <c r="I67" t="s">
+        <v>177</v>
+      </c>
+      <c r="J67" t="s">
+        <v>178</v>
+      </c>
+      <c r="K67" t="s">
         <v>180</v>
       </c>
-      <c r="J67" t="s">
-        <v>181</v>
-      </c>
-      <c r="K67" t="s">
-        <v>183</v>
-      </c>
       <c r="L67" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M67">
         <f t="shared" si="6"/>
@@ -6584,13 +6604,13 @@
         <v>22</v>
       </c>
       <c r="I68" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J68" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L68" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M68">
         <f t="shared" ref="M68:M77" si="31">M67+N68</f>

--- a/Excel/작업Research.xlsx
+++ b/Excel/작업Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08EF6B3-0DA1-4B20-97A2-ACCE6CAF15B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259AE43E-6DC0-4538-8721-432876C40344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchTable" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="242">
   <si>
     <t>필요캐릭터인원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,7 +203,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,2</t>
+    <t>대략 130회 동안 7초월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리진 차이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -211,523 +251,503 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5,3,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23회에 최초 5렙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,4,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,4,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,5,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,6,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,4,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41회에 5레벨이 6명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아직도 초월 하나도 못 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,4,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,6,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,7,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55회에 6레벨 첫 나옴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,5,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,6,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영웅 4명, 일반 1명 미획득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 다 얻음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,8,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,9,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,10,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영웅 넷 남음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,8,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영웅 셋 남음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영웅 둘 남음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,6,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,6,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,13,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107회에 7레벨인데 다소 우연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,13,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영웅 하나 남음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영웅 전부 뽑음. 최고레벨은 다소 우연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,10,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,10,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,10,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,6,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,5,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여긴 너무 심각하게 쏠림 178회에 8레벨 얻음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,7,6,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,16,6,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대략 60회 동안 4초월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,7,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,15,5,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,14,4,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,11,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,8,7,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,13,10,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,15,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9렙은 다소 우연 여기까지 60만골드 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대략 130회 동안 7초월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,8,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71만골드필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78만골드필요. 295회에서 10레벨 발생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,9,8,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-&gt;3,19,6,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,9,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,20,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90만골드필요. 317 에서 11레벨 획득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,10,9,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,9,14,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107만골드필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,13,11,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>117만골드필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,13,6,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123만골드필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,10,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14,7,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">전설을 여기서부터 한 달에 한번 주기로 산다. 135만골드필요, 363회에서 12렙 획득. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,11,10,9,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,15,6,4,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>145만골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,12,6,3,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,11,10,9,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>148만골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,11,10,9,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,16,3,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>152만골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,13,3,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,11,10,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오리진 차이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전설 397에 2차 구매. 157만골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,12,11,10,3,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,13,11,2,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대략 270회 동안 2초월3명, 1초월8명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>163만골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,12,11,10,4,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,18,4,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172만골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,12,11,5,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3초월 얻음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전설 3차 구매 442회. 178만골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,12,11,6,5,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,14,2,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,17,3,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>181만골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,12,6,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,9,2,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>476회에서 14레벨 최초. 195만골드. 486회에서 4차 전설 구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14,13,12,7,6,5,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,22,3,1,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>207만골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14,13,12,8,7,6,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,20,1,1,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5차전설구매 215만골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14,13,8,6,4,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,16,2,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>223만골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대략 400회 동안 3초월1, 2초월4, 1초월7 얻음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14,13,8,7,5,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,8,2,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6차전설구매 234만골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14,13,9,8,6,5,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,5,2,1,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7차전설구매 248만골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,14,13,9,8,7,6,5,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,25,1,2,1,1,1,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8차전설구매 258만골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,14,10,9,8,6,5,4,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,24,1,2,1,1,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>270만골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,14,11,10,9,8,7,5,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,22,1,1,1,1,2,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대략 500회 동안 3초월3, 2초월셋(영웅하나), 1초월 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9차전설구매 277만골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,14,11,9,8,7,6,4,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,14,2,1,1,2,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>294만골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,14,12,11,10,8,6,5,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17,10,1,1,1,3,1,1,1</t>
+    <t>4,3,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,4,3,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,6,4,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,4,3,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,5,4,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40~41회에 5레벨이 6명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,5,4,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49까지도 6렙은 하나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,6,5,4,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,6,5,4,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104차에 영웅 1 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,11,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25~32회에 최초 5렙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43회에 6렙 1명인데 매우 우연. 46회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47회에 초월 리얼 1회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초월 3명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,3,5,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,4,5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월 하나 낮은 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7,6,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,5,4,3,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8,5,5,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,5,4,3,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,9,5,4,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59회차에서 영웅 4~6명 미획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,11,5,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,11,6,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72회차에 6레벨 11명, 103총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,12,5,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영웅 3~4 남음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,18,2,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,5,4,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,11,3,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영웅 2~3 남음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영웅 1 남음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10,8,3,1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,6,5,4,3,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,12,6,3,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,15,6,1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,15,4,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영웅 0 남음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,6,5,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,13,4,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,4,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,7,6,5,4,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,13,8,2,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,7,6,5,3,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,13,7,2,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월1,2초월1,1초월4 전부 일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>159회차에 전설 1구매. 60만골드 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,15,4,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>189회차에 전설2번째 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,13,3,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,7,6,5,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,7,6,5,4,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,11,2,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월1,2초월3,1초월4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86만골드 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,7,6,5,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,8,2,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,7,6,5,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,6,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,8,7,6,5,4,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,19,3,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,8,7,5,4,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,14,3,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월1,2초월4,1초월4. 영웅1초월1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,10,2,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,8,7,6,5,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,5,2,1,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월1,2초월4,1초월3, 영웅1초월1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 한계돌파를 시작하기 전 135만 골드 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,9,8,7,6,5,4,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,21,2,2,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,9,8,7,6,5,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,19,3,1,2,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,9,8,6,5,4,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,15,3,2,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>155만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월2,2초월4,1초월3, 영웅1초월1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,10,9,8,7,6,5,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,13,10,2,1,2,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월3,2초월3,1초월3, 영웅1초월1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,18,5,2,2,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,10,9,8,7,6,5,4,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월4,2초월4,1초월2, 영웅1초월1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,10,9,8,7,5,4,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,19,4,1,3,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>198만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,10,9,8,7,6,5,4,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,19,1,1,3,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>212만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월5,2초월3,1초월4,영웅1초월1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,10,9,8,7,6,4,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,14,2,1,2,2,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>222만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,11,10,9,8,7,6,5,4,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,12,12,2,2,2,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>227만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,11,10,9,8,7,6,5,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,15,8,2,3,1,2,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월5,2초월3,1초월4,영웅1초월2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>238만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,11,10,9,8,7,6,5,4,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,16,7,2,2,2,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월5,2초월4,1초월3,영웅1초월2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>257만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,11,10,9,8,7,6,4,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,21,3,1,3,2,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월6,2초월3,1초월3,영웅1초월2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 캐릭 다 팔았음 273만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,21,2,3,1,3,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월6,2초월4,1초월2,영웅1초월2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>281만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,11,10,9,8,7,5,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,16,2,4,2,2,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>292만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,11,10,9,8,7,6,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,11,2,3,2,2,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계속 같음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -735,63 +755,243 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23,4,2,1,1,2,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,14,12,11,9,8,7,6,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>322만골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대략 590회 동안 3초월넷, 2초월 7(영웅하나), 1초월6(영웅넷)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,2,2,1,3,2,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,14,13,12,9,7,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>339만골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,2,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,4</t>
+    <t>12,11,10,9,8,7,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,4,3,2,3,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월7,2초월3,1초월2,영웅1초월1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>325만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,12,11,10,9,8,7,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>558회차에 13레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,23,1,5,2,1,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,12,11,10,9,8,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,17,4,2,3,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월8,2초월2,1초월3,영웅1초월2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>365만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,14,4,1,2,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월8,2초월3,1초월2,영웅1초월2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>384만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,12,11,10,9,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월8,2초월4,1초월1,영웅1초월2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,9,3,2,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,13,12,11,10,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,20,8,3,2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>433만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,13,12,11,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,22,6,4,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>441만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,12,9,1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월8,2초월4,1초월1,영웅1초월3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>465만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,13,12,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,9,6,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월9,2초월3,1초월1,영웅1초월3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>492만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,14,13,12,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월9,2초월3,1초월1,영웅2초월1,1초월1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,24,7,3,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>514만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,14,13,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,23,8,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월10,2초월2,1초월1,영웅2초월1,1초월2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>533만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,14,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,18,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월11,2초월1,1초월1,영웅2초월1,1초월2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,13,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월12,1초월1,영웅2초월1,1초월2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>593만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,15,14,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,25,6,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초월12,2초월1,영웅2초월1,1초월2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>621만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,15,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,26,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>643만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,18,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>670만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>693만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>727만골드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1182,7 +1382,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1229,7 +1429,7 @@
         <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
         <v>39</v>
@@ -1321,10 +1521,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>185</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="M2">
         <f>N2</f>
@@ -1405,25 +1605,25 @@
         <v>3</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H34" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H77" si="4">G3-G2</f>
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="M3">
         <f>M2+N3</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -1472,7 +1672,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1482,21 +1682,21 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M67" si="6">M3+N4</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N4">
         <v>3</v>
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -1560,15 +1760,18 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M5">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
@@ -1639,14 +1842,17 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M6">
         <f t="shared" si="6"/>
@@ -1718,11 +1924,17 @@
         <v>19</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
         <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
       </c>
       <c r="M7">
         <f t="shared" si="6"/>
@@ -1795,13 +2007,13 @@
       </c>
       <c r="H8">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
@@ -2025,22 +2237,16 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" t="s">
-        <v>45</v>
-      </c>
       <c r="M11">
         <f t="shared" si="6"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>12.333333333333334</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="P11">
         <v>3</v>
@@ -2092,21 +2298,18 @@
         <v>39</v>
       </c>
       <c r="G12">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L12" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="M12">
         <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
@@ -2171,17 +2374,11 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H13">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="M13">
         <f t="shared" si="6"/>
@@ -2244,31 +2441,37 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H14">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="K14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" t="s">
+        <v>68</v>
       </c>
       <c r="M14">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>12.25</v>
       </c>
       <c r="P14">
         <v>4</v>
@@ -2323,27 +2526,24 @@
         <v>55</v>
       </c>
       <c r="G15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M15">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="N15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
@@ -2402,20 +2602,17 @@
         <v>62</v>
       </c>
       <c r="G16">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
@@ -2471,30 +2668,27 @@
       </c>
       <c r="B17">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C17" t="str">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="G17">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H17">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="L17" t="s">
+        <v>61</v>
       </c>
       <c r="M17">
         <f t="shared" si="6"/>
@@ -2560,17 +2754,17 @@
         <v>72</v>
       </c>
       <c r="G18">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" t="s">
-        <v>48</v>
+        <v>9</v>
+      </c>
+      <c r="K18" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" t="s">
+        <v>69</v>
       </c>
       <c r="M18">
         <f t="shared" si="6"/>
@@ -2629,27 +2823,33 @@
       </c>
       <c r="B19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v/>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H19">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="L19" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M19">
         <f t="shared" si="6"/>
@@ -2715,17 +2915,17 @@
         <v>81</v>
       </c>
       <c r="G20">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H20">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="M20">
         <f t="shared" si="6"/>
@@ -2803,20 +3003,20 @@
         <v>5</v>
       </c>
       <c r="G21">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H21">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="L21" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="M21">
         <f t="shared" si="6"/>
@@ -2879,20 +3079,17 @@
         <v>92</v>
       </c>
       <c r="G22">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H22">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
-      </c>
-      <c r="L22" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="M22">
         <f t="shared" si="6"/>
@@ -2964,17 +3161,23 @@
         <v>99</v>
       </c>
       <c r="G23">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H23">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I23" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
+        <v>78</v>
+      </c>
+      <c r="K23" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" t="s">
+        <v>83</v>
       </c>
       <c r="M23">
         <f t="shared" si="6"/>
@@ -3040,20 +3243,20 @@
         <v>104</v>
       </c>
       <c r="G24">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H24">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="J24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L24" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="M24">
         <f t="shared" si="6"/>
@@ -3079,7 +3282,7 @@
         <v>20</v>
       </c>
       <c r="W24">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="X24">
         <f t="shared" si="17"/>
@@ -3087,7 +3290,7 @@
       </c>
       <c r="Y24">
         <f t="shared" si="18"/>
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="Z24" t="str">
         <f t="shared" si="19"/>
@@ -3112,33 +3315,24 @@
       </c>
       <c r="B25">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C25" t="str">
+        <v>0</v>
+      </c>
+      <c r="C25">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E25">
-        <v>8</v>
-      </c>
-      <c r="F25">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="G25">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H25">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M25">
         <f t="shared" si="6"/>
@@ -3172,7 +3366,7 @@
       </c>
       <c r="Y25">
         <f t="shared" si="18"/>
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="Z25" t="str">
         <f t="shared" si="19"/>
@@ -3197,27 +3391,33 @@
       </c>
       <c r="B26">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v/>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H26">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="L26" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="M26">
         <f t="shared" si="6"/>
@@ -3248,7 +3448,7 @@
       </c>
       <c r="Y26">
         <f t="shared" si="18"/>
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="Z26" t="str">
         <f t="shared" si="19"/>
@@ -3273,41 +3473,38 @@
       </c>
       <c r="B27">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C27" t="str">
+        <v>0</v>
+      </c>
+      <c r="C27">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E27">
-        <v>13</v>
-      </c>
-      <c r="F27">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="G27">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H27">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I27" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="L27" t="s">
+        <v>66</v>
       </c>
       <c r="M27">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>20.833333333333332</v>
+        <v>20.333333333333332</v>
       </c>
       <c r="P27">
         <v>6</v>
@@ -3330,7 +3527,7 @@
       </c>
       <c r="Y27">
         <f t="shared" si="18"/>
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="Z27" t="str">
         <f t="shared" si="19"/>
@@ -3355,34 +3552,37 @@
       </c>
       <c r="B28">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v/>
+      </c>
+      <c r="E28">
+        <v>14</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
       </c>
       <c r="G28">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H28">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="J28" t="s">
-        <v>73</v>
-      </c>
-      <c r="L28" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M28">
         <f t="shared" si="6"/>
         <v>131</v>
       </c>
       <c r="N28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
@@ -3401,7 +3601,7 @@
         <v>25</v>
       </c>
       <c r="W28">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="X28">
         <f t="shared" si="17"/>
@@ -3409,7 +3609,7 @@
       </c>
       <c r="Y28">
         <f t="shared" si="18"/>
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="Z28" t="str">
         <f t="shared" si="19"/>
@@ -3438,34 +3638,34 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G29">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H29">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I29" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="J29" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="L29" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M29">
         <f t="shared" si="6"/>
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N29">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>23.166666666666668</v>
+        <v>22.5</v>
       </c>
       <c r="P29">
         <v>6</v>
@@ -3485,7 +3685,7 @@
       </c>
       <c r="Y29">
         <f t="shared" si="18"/>
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="Z29" t="str">
         <f t="shared" si="19"/>
@@ -3514,34 +3714,34 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G30">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H30">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I30" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="J30" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L30" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="M30">
         <f t="shared" si="6"/>
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>23.666666666666668</v>
       </c>
       <c r="P30">
         <v>6</v>
@@ -3556,15 +3756,15 @@
         <v>25</v>
       </c>
       <c r="V30">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="X30">
         <f t="shared" si="17"/>
-        <v>3710</v>
+        <v>3640</v>
       </c>
       <c r="Y30">
         <f t="shared" si="18"/>
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="Z30" t="str">
         <f t="shared" si="19"/>
@@ -3593,31 +3793,34 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G31">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H31">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J31" t="s">
-        <v>73</v>
+        <v>64</v>
+      </c>
+      <c r="L31" t="s">
+        <v>96</v>
       </c>
       <c r="M31">
         <f t="shared" si="6"/>
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>21.142857142857142</v>
+        <v>21</v>
       </c>
       <c r="P31">
         <v>7</v>
@@ -3636,18 +3839,18 @@
         <v>15</v>
       </c>
       <c r="V31">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="W31">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X31">
         <f t="shared" si="17"/>
-        <v>4210</v>
+        <v>4040</v>
       </c>
       <c r="Y31">
         <f t="shared" si="18"/>
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="Z31" t="str">
         <f t="shared" si="19"/>
@@ -3672,37 +3875,31 @@
       </c>
       <c r="B32">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C32" t="str">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E32">
-        <v>10</v>
-      </c>
-      <c r="F32">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="G32">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H32">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I32" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="J32" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="M32">
         <f t="shared" si="6"/>
         <v>154</v>
       </c>
       <c r="N32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
@@ -3721,15 +3918,15 @@
         <v>20</v>
       </c>
       <c r="W32">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="X32">
         <f t="shared" si="17"/>
-        <v>4210</v>
+        <v>4040</v>
       </c>
       <c r="Y32">
         <f t="shared" si="18"/>
-        <v>565</v>
+        <v>525</v>
       </c>
       <c r="Z32" t="str">
         <f t="shared" si="19"/>
@@ -3754,35 +3951,41 @@
       </c>
       <c r="B33">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v/>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
       </c>
       <c r="G33">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I33" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="J33" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M33">
         <f t="shared" si="6"/>
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N33">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>23.285714285714285</v>
+        <v>22.714285714285715</v>
       </c>
       <c r="P33">
         <v>7</v>
@@ -3797,15 +4000,15 @@
         <v>30</v>
       </c>
       <c r="V33">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="X33">
         <f t="shared" si="17"/>
-        <v>4760</v>
+        <v>4530</v>
       </c>
       <c r="Y33">
         <f t="shared" si="18"/>
-        <v>565</v>
+        <v>525</v>
       </c>
       <c r="Z33" t="str">
         <f t="shared" si="19"/>
@@ -3830,45 +4033,36 @@
       </c>
       <c r="B34">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C34" t="str">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <f t="shared" ref="C34:C65" si="23">IF(NOT(ISBLANK(D34)),D34,
 IF(ISBLANK(E34),M34,""))</f>
-        <v/>
-      </c>
-      <c r="E34">
-        <v>16</v>
-      </c>
-      <c r="F34">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="G34">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="H34">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I34" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="J34" t="s">
-        <v>73</v>
-      </c>
-      <c r="L34" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M34">
         <f t="shared" si="6"/>
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O34">
         <f t="shared" ref="O34:O65" si="24">M34/P34</f>
-        <v>24.285714285714285</v>
+        <v>23.428571428571427</v>
       </c>
       <c r="P34">
         <v>7</v>
@@ -3883,15 +4077,15 @@
         <v>20</v>
       </c>
       <c r="W34">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="X34">
         <f t="shared" si="17"/>
-        <v>4760</v>
+        <v>4530</v>
       </c>
       <c r="Y34">
         <f t="shared" si="18"/>
-        <v>685</v>
+        <v>585</v>
       </c>
       <c r="Z34" t="str">
         <f t="shared" si="19"/>
@@ -3916,38 +4110,47 @@
       </c>
       <c r="B35">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="str">
         <f t="shared" si="23"/>
-        <v>178</v>
+        <v/>
+      </c>
+      <c r="E35">
+        <v>17</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
       </c>
       <c r="G35">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35:H66" si="25">G35-G34</f>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="J35" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="K35" t="s">
-        <v>87</v>
+        <v>104</v>
+      </c>
+      <c r="L35" t="s">
+        <v>105</v>
       </c>
       <c r="M35">
         <f t="shared" si="6"/>
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="N35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O35">
         <f t="shared" si="24"/>
-        <v>22.25</v>
+        <v>21.625</v>
       </c>
       <c r="P35">
         <v>8</v>
@@ -3963,11 +4166,11 @@
       </c>
       <c r="X35">
         <f t="shared" si="17"/>
-        <v>4760</v>
+        <v>4530</v>
       </c>
       <c r="Y35">
         <f t="shared" si="18"/>
-        <v>685</v>
+        <v>585</v>
       </c>
       <c r="Z35" t="str">
         <f t="shared" si="19"/>
@@ -3996,31 +4199,34 @@
       </c>
       <c r="C36">
         <f t="shared" si="23"/>
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G36">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="H36">
-        <f t="shared" si="25"/>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="J36" t="s">
-        <v>85</v>
+        <v>100</v>
+      </c>
+      <c r="L36" t="s">
+        <v>107</v>
       </c>
       <c r="M36">
         <f t="shared" si="6"/>
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O36">
         <f t="shared" si="24"/>
-        <v>23.125</v>
+        <v>22.625</v>
       </c>
       <c r="P36">
         <v>8</v>
@@ -4035,15 +4241,15 @@
         <v>35</v>
       </c>
       <c r="V36">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="X36">
         <f t="shared" si="17"/>
-        <v>5610</v>
+        <v>5030</v>
       </c>
       <c r="Y36">
         <f t="shared" si="18"/>
-        <v>685</v>
+        <v>585</v>
       </c>
       <c r="Z36" t="str">
         <f t="shared" si="19"/>
@@ -4072,31 +4278,31 @@
       </c>
       <c r="C37">
         <f t="shared" si="23"/>
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G37">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="H37">
-        <f t="shared" si="25"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="I37" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="J37" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="M37">
         <f t="shared" si="6"/>
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N37">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O37">
         <f t="shared" si="24"/>
-        <v>23.875</v>
+        <v>23.75</v>
       </c>
       <c r="P37">
         <v>8</v>
@@ -4111,15 +4317,15 @@
         <v>25</v>
       </c>
       <c r="W37">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="X37">
         <f t="shared" si="17"/>
-        <v>5610</v>
+        <v>5030</v>
       </c>
       <c r="Y37">
         <f t="shared" si="18"/>
-        <v>835</v>
+        <v>665</v>
       </c>
       <c r="Z37" t="str">
         <f t="shared" si="19"/>
@@ -4157,28 +4363,34 @@
         <v>8</v>
       </c>
       <c r="G38">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="H38">
-        <f t="shared" si="25"/>
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J38" t="s">
-        <v>88</v>
+        <v>110</v>
+      </c>
+      <c r="K38" t="s">
+        <v>112</v>
+      </c>
+      <c r="L38" t="s">
+        <v>113</v>
       </c>
       <c r="M38">
         <f t="shared" si="6"/>
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O38">
         <f t="shared" si="24"/>
-        <v>22.111111111111111</v>
+        <v>21.777777777777779</v>
       </c>
       <c r="P38">
         <v>9</v>
@@ -4193,15 +4405,15 @@
         <v>30</v>
       </c>
       <c r="V38">
-        <v>1200</v>
+        <v>520</v>
       </c>
       <c r="X38">
         <f t="shared" si="17"/>
-        <v>6810</v>
+        <v>5550</v>
       </c>
       <c r="Y38">
         <f t="shared" si="18"/>
-        <v>835</v>
+        <v>665</v>
       </c>
       <c r="Z38" t="str">
         <f t="shared" si="19"/>
@@ -4230,34 +4442,31 @@
       </c>
       <c r="C39">
         <f t="shared" si="23"/>
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G39">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="H39">
-        <f t="shared" si="25"/>
-        <v>21</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="I39" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="J39" t="s">
-        <v>92</v>
-      </c>
-      <c r="L39" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="M39">
         <f t="shared" si="6"/>
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="N39">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O39">
         <f t="shared" si="24"/>
-        <v>23.111111111111111</v>
+        <v>22.333333333333332</v>
       </c>
       <c r="P39">
         <v>9</v>
@@ -4275,18 +4484,18 @@
         <v>15</v>
       </c>
       <c r="V39">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="W39">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="X39">
         <f t="shared" si="17"/>
-        <v>8310</v>
+        <v>6150</v>
       </c>
       <c r="Y39">
         <f t="shared" si="18"/>
-        <v>1075</v>
+        <v>795</v>
       </c>
       <c r="Z39" t="str">
         <f t="shared" si="19"/>
@@ -4318,37 +4527,37 @@
         <v/>
       </c>
       <c r="E40">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F40">
         <v>8</v>
       </c>
       <c r="G40">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="H40">
-        <f t="shared" si="25"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="I40" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="J40" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="K40" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="M40">
         <f t="shared" si="6"/>
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="N40">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O40">
         <f t="shared" si="24"/>
-        <v>24.222222222222221</v>
+        <v>23.222222222222221</v>
       </c>
       <c r="P40">
         <v>9</v>
@@ -4363,15 +4572,15 @@
         <v>30</v>
       </c>
       <c r="V40">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="X40">
         <f t="shared" si="17"/>
-        <v>10010</v>
+        <v>7050</v>
       </c>
       <c r="Y40">
         <f t="shared" si="18"/>
-        <v>1075</v>
+        <v>795</v>
       </c>
       <c r="Z40" t="str">
         <f t="shared" si="19"/>
@@ -4400,34 +4609,31 @@
       </c>
       <c r="C41">
         <f t="shared" si="23"/>
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G41">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H41">
-        <f t="shared" si="25"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J41" t="s">
-        <v>97</v>
-      </c>
-      <c r="L41" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="M41">
         <f t="shared" si="6"/>
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="N41">
         <v>8</v>
       </c>
       <c r="O41">
         <f t="shared" si="24"/>
-        <v>25.111111111111111</v>
+        <v>24.111111111111111</v>
       </c>
       <c r="P41">
         <v>9</v>
@@ -4442,15 +4648,15 @@
         <v>20</v>
       </c>
       <c r="W41">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="X41">
         <f t="shared" si="17"/>
-        <v>10010</v>
+        <v>7050</v>
       </c>
       <c r="Y41">
         <f t="shared" si="18"/>
-        <v>1425</v>
+        <v>965</v>
       </c>
       <c r="Z41" t="str">
         <f t="shared" si="19"/>
@@ -4475,44 +4681,41 @@
       </c>
       <c r="B42">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C42" t="str">
+        <v>0</v>
+      </c>
+      <c r="C42">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="E42">
+        <v>225</v>
+      </c>
+      <c r="G42">
+        <v>250</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="F42">
-        <v>9</v>
-      </c>
-      <c r="G42">
-        <v>288</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="25"/>
-        <v>14</v>
-      </c>
       <c r="I42" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="J42" t="s">
-        <v>100</v>
+        <v>120</v>
+      </c>
+      <c r="K42" t="s">
+        <v>122</v>
       </c>
       <c r="L42" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="M42">
         <f t="shared" si="6"/>
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="N42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O42">
         <f t="shared" si="24"/>
-        <v>23.3</v>
+        <v>22.5</v>
       </c>
       <c r="P42">
         <v>10</v>
@@ -4527,15 +4730,15 @@
         <v>30</v>
       </c>
       <c r="V42">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="X42">
         <f t="shared" si="17"/>
-        <v>12410</v>
+        <v>8450</v>
       </c>
       <c r="Y42">
         <f t="shared" si="18"/>
-        <v>1425</v>
+        <v>965</v>
       </c>
       <c r="Z42" t="str">
         <f t="shared" si="19"/>
@@ -4560,38 +4763,41 @@
       </c>
       <c r="B43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="str">
         <f t="shared" si="23"/>
-        <v>242</v>
+        <v/>
+      </c>
+      <c r="E43">
+        <v>14</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
       </c>
       <c r="G43">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="H43">
-        <f t="shared" si="25"/>
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="J43" t="s">
-        <v>102</v>
-      </c>
-      <c r="L43" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="M43">
         <f t="shared" si="6"/>
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N43">
         <v>9</v>
       </c>
       <c r="O43">
         <f t="shared" si="24"/>
-        <v>24.2</v>
+        <v>23.4</v>
       </c>
       <c r="P43">
         <v>10</v>
@@ -4606,15 +4812,15 @@
         <v>20</v>
       </c>
       <c r="W43">
-        <v>465</v>
+        <v>310</v>
       </c>
       <c r="X43">
         <f t="shared" si="17"/>
-        <v>12410</v>
+        <v>8450</v>
       </c>
       <c r="Y43">
         <f t="shared" si="18"/>
-        <v>1890</v>
+        <v>1275</v>
       </c>
       <c r="Z43" t="str">
         <f t="shared" si="19"/>
@@ -4639,44 +4845,41 @@
       </c>
       <c r="B44">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C44" t="str">
+        <v>0</v>
+      </c>
+      <c r="C44">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="E44">
-        <v>23</v>
-      </c>
-      <c r="F44">
-        <v>9</v>
+        <v>244</v>
       </c>
       <c r="G44">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="H44">
-        <f t="shared" si="25"/>
-        <v>21</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="J44" t="s">
-        <v>105</v>
+        <v>125</v>
+      </c>
+      <c r="K44" t="s">
+        <v>127</v>
       </c>
       <c r="L44" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="M44">
         <f t="shared" si="6"/>
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N44">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O44">
         <f t="shared" si="24"/>
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="P44">
         <v>10</v>
@@ -4691,15 +4894,15 @@
         <v>30</v>
       </c>
       <c r="V44">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="X44">
         <f t="shared" si="17"/>
-        <v>14910</v>
+        <v>10250</v>
       </c>
       <c r="Y44">
         <f t="shared" si="18"/>
-        <v>1890</v>
+        <v>1275</v>
       </c>
       <c r="Z44" t="str">
         <f t="shared" si="19"/>
@@ -4724,38 +4927,44 @@
       </c>
       <c r="B45">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="str">
         <f t="shared" si="23"/>
-        <v>259</v>
+        <v/>
+      </c>
+      <c r="E45">
+        <v>23</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
       </c>
       <c r="G45">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="H45">
-        <f t="shared" si="25"/>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="I45" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="J45" t="s">
-        <v>105</v>
-      </c>
-      <c r="L45" t="s">
-        <v>109</v>
+        <v>130</v>
+      </c>
+      <c r="K45" t="s">
+        <v>129</v>
       </c>
       <c r="M45">
         <f t="shared" si="6"/>
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N45">
         <v>9</v>
       </c>
       <c r="O45">
         <f t="shared" si="24"/>
-        <v>25.9</v>
+        <v>25.3</v>
       </c>
       <c r="P45">
         <v>10</v>
@@ -4771,11 +4980,11 @@
       </c>
       <c r="X45">
         <f t="shared" si="17"/>
-        <v>14910</v>
+        <v>10250</v>
       </c>
       <c r="Y45">
         <f t="shared" si="18"/>
-        <v>1890</v>
+        <v>1275</v>
       </c>
       <c r="Z45" t="str">
         <f t="shared" si="19"/>
@@ -4804,34 +5013,34 @@
       </c>
       <c r="C46">
         <f t="shared" si="23"/>
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G46">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="H46">
-        <f t="shared" si="25"/>
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J46" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="M46">
         <f t="shared" si="6"/>
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="N46">
         <v>10</v>
       </c>
       <c r="O46">
         <f t="shared" si="24"/>
-        <v>24.454545454545453</v>
+        <v>23.90909090909091</v>
       </c>
       <c r="P46">
         <v>11</v>
@@ -4846,15 +5055,15 @@
         <v>35</v>
       </c>
       <c r="V46">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="X46">
         <f t="shared" si="17"/>
-        <v>17910</v>
+        <v>12150</v>
       </c>
       <c r="Y46">
         <f t="shared" si="18"/>
-        <v>1890</v>
+        <v>1275</v>
       </c>
       <c r="Z46" t="str">
         <f t="shared" si="19"/>
@@ -4879,44 +5088,41 @@
       </c>
       <c r="B47">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C47" t="str">
+        <v>0</v>
+      </c>
+      <c r="C47">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="E47">
-        <v>16</v>
-      </c>
-      <c r="F47">
-        <v>10</v>
+        <v>272</v>
       </c>
       <c r="G47">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="H47">
-        <f t="shared" si="25"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="J47" t="s">
-        <v>112</v>
+        <v>135</v>
+      </c>
+      <c r="K47" t="s">
+        <v>138</v>
       </c>
       <c r="L47" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="M47">
         <f t="shared" si="6"/>
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="N47">
         <v>9</v>
       </c>
       <c r="O47">
         <f t="shared" si="24"/>
-        <v>25.272727272727273</v>
+        <v>24.727272727272727</v>
       </c>
       <c r="P47">
         <v>11</v>
@@ -4931,15 +5137,15 @@
         <v>25</v>
       </c>
       <c r="W47">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="X47">
         <f t="shared" si="17"/>
-        <v>17910</v>
+        <v>12150</v>
       </c>
       <c r="Y47">
         <f t="shared" si="18"/>
-        <v>2390</v>
+        <v>1655</v>
       </c>
       <c r="Z47" t="str">
         <f t="shared" si="19"/>
@@ -4964,38 +5170,47 @@
       </c>
       <c r="B48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="str">
         <f t="shared" si="23"/>
-        <v>286</v>
+        <v/>
+      </c>
+      <c r="E48">
+        <v>16</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
       </c>
       <c r="G48">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="H48">
-        <f t="shared" si="25"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="J48" t="s">
-        <v>115</v>
+        <v>139</v>
+      </c>
+      <c r="K48" t="s">
+        <v>141</v>
       </c>
       <c r="L48" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="M48">
         <f t="shared" si="6"/>
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N48">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O48">
         <f t="shared" si="24"/>
-        <v>26</v>
+        <v>25.727272727272727</v>
       </c>
       <c r="P48">
         <v>11</v>
@@ -5013,18 +5228,18 @@
         <v>15</v>
       </c>
       <c r="V48">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="W48">
-        <v>650</v>
+        <v>410</v>
       </c>
       <c r="X48">
         <f t="shared" si="17"/>
-        <v>22410</v>
+        <v>14950</v>
       </c>
       <c r="Y48">
         <f t="shared" si="18"/>
-        <v>3040</v>
+        <v>2065</v>
       </c>
       <c r="Z48" t="str">
         <f t="shared" si="19"/>
@@ -5053,34 +5268,37 @@
       </c>
       <c r="C49">
         <f t="shared" si="23"/>
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G49">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="H49">
-        <f t="shared" si="25"/>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="I49" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="J49" t="s">
-        <v>119</v>
+        <v>144</v>
+      </c>
+      <c r="K49" t="s">
+        <v>145</v>
       </c>
       <c r="L49" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="M49">
         <f t="shared" si="6"/>
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N49">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O49">
         <f t="shared" si="24"/>
-        <v>26.636363636363637</v>
+        <v>26.818181818181817</v>
       </c>
       <c r="P49">
         <v>11</v>
@@ -5095,15 +5313,15 @@
         <v>30</v>
       </c>
       <c r="V49">
-        <v>5500</v>
+        <v>2900</v>
       </c>
       <c r="X49">
         <f t="shared" si="17"/>
-        <v>27910</v>
+        <v>17850</v>
       </c>
       <c r="Y49">
         <f t="shared" si="18"/>
-        <v>3040</v>
+        <v>2065</v>
       </c>
       <c r="Z49" t="str">
         <f t="shared" si="19"/>
@@ -5135,27 +5353,27 @@
         <v>302</v>
       </c>
       <c r="G50">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="H50">
-        <f t="shared" si="25"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="I50" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="J50" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="L50" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="M50">
         <f t="shared" si="6"/>
         <v>302</v>
       </c>
       <c r="N50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O50">
         <f t="shared" si="24"/>
@@ -5174,15 +5392,15 @@
         <v>20</v>
       </c>
       <c r="W50">
-        <v>830</v>
+        <v>450</v>
       </c>
       <c r="X50">
         <f t="shared" si="17"/>
-        <v>27910</v>
+        <v>17850</v>
       </c>
       <c r="Y50">
         <f t="shared" si="18"/>
-        <v>3870</v>
+        <v>2515</v>
       </c>
       <c r="Z50" t="str">
         <f t="shared" si="19"/>
@@ -5207,44 +5425,41 @@
       </c>
       <c r="B51">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C51" t="str">
+        <v>0</v>
+      </c>
+      <c r="C51">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="E51">
-        <v>26</v>
-      </c>
-      <c r="F51">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="G51">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H51">
-        <f t="shared" si="25"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="J51" t="s">
-        <v>125</v>
+        <v>150</v>
+      </c>
+      <c r="K51" t="s">
+        <v>153</v>
       </c>
       <c r="L51" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="M51">
         <f t="shared" si="6"/>
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N51">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O51">
         <f t="shared" si="24"/>
-        <v>25.666666666666668</v>
+        <v>25.833333333333332</v>
       </c>
       <c r="P51">
         <v>12</v>
@@ -5259,15 +5474,15 @@
         <v>35</v>
       </c>
       <c r="V51">
-        <v>5600</v>
+        <v>3000</v>
       </c>
       <c r="X51">
         <f t="shared" si="17"/>
-        <v>33510</v>
+        <v>20850</v>
       </c>
       <c r="Y51">
         <f t="shared" si="18"/>
-        <v>3870</v>
+        <v>2515</v>
       </c>
       <c r="Z51" t="str">
         <f t="shared" si="19"/>
@@ -5278,7 +5493,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50</v>
       </c>
       <c r="AB51" t="str">
-        <f t="shared" ref="AB51:AB77" si="26">""""&amp;$A51&amp;""""&amp;""&amp;":"&amp;Q51</f>
+        <f t="shared" ref="AB51:AB77" si="25">""""&amp;$A51&amp;""""&amp;""&amp;":"&amp;Q51</f>
         <v>"50":18500</v>
       </c>
       <c r="AC51" t="str">
@@ -5292,41 +5507,47 @@
       </c>
       <c r="B52">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="str">
         <f t="shared" si="23"/>
-        <v>316</v>
+        <v/>
+      </c>
+      <c r="E52">
+        <v>26</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
       </c>
       <c r="G52">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H52">
-        <f t="shared" si="25"/>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="J52" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="K52" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="L52" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="M52">
         <f t="shared" si="6"/>
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="N52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O52">
         <f t="shared" si="24"/>
-        <v>26.333333333333332</v>
+        <v>26.583333333333332</v>
       </c>
       <c r="P52">
         <v>12</v>
@@ -5342,11 +5563,11 @@
       </c>
       <c r="X52">
         <f t="shared" si="17"/>
-        <v>33510</v>
+        <v>20850</v>
       </c>
       <c r="Y52">
         <f t="shared" si="18"/>
-        <v>3870</v>
+        <v>2515</v>
       </c>
       <c r="Z52" t="str">
         <f t="shared" si="19"/>
@@ -5357,7 +5578,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
       </c>
       <c r="AB52" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"51":41000</v>
       </c>
       <c r="AC52" t="str">
@@ -5375,34 +5596,34 @@
       </c>
       <c r="C53">
         <f t="shared" si="23"/>
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G53">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H53">
-        <f t="shared" si="25"/>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="I53" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="J53" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="L53" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="M53">
         <f t="shared" si="6"/>
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N53">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O53">
         <f t="shared" si="24"/>
-        <v>27.25</v>
+        <v>27.416666666666668</v>
       </c>
       <c r="P53">
         <v>12</v>
@@ -5420,18 +5641,18 @@
         <v>20</v>
       </c>
       <c r="V53">
-        <v>5700</v>
+        <v>2200</v>
       </c>
       <c r="W53">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="X53">
         <f t="shared" si="17"/>
-        <v>39210</v>
+        <v>23050</v>
       </c>
       <c r="Y53">
         <f t="shared" si="18"/>
-        <v>4870</v>
+        <v>2895</v>
       </c>
       <c r="Z53" t="str">
         <f t="shared" si="19"/>
@@ -5442,7 +5663,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
       </c>
       <c r="AB53" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"52":23200</v>
       </c>
       <c r="AC53" t="str">
@@ -5460,37 +5681,37 @@
       </c>
       <c r="C54">
         <f t="shared" si="23"/>
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G54">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H54">
-        <f t="shared" si="25"/>
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="J54" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="K54" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="L54" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="M54">
         <f t="shared" si="6"/>
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N54">
         <v>9</v>
       </c>
       <c r="O54">
         <f t="shared" si="24"/>
-        <v>28</v>
+        <v>28.166666666666668</v>
       </c>
       <c r="P54">
         <v>12</v>
@@ -5505,15 +5726,15 @@
         <v>30</v>
       </c>
       <c r="V54">
-        <v>5900</v>
+        <v>3050</v>
       </c>
       <c r="X54">
         <f t="shared" si="17"/>
-        <v>45110</v>
+        <v>26100</v>
       </c>
       <c r="Y54">
         <f t="shared" si="18"/>
-        <v>4870</v>
+        <v>2895</v>
       </c>
       <c r="Z54" t="str">
         <f t="shared" si="19"/>
@@ -5524,7 +5745,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
       </c>
       <c r="AB54" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"53":23000</v>
       </c>
       <c r="AC54" t="str">
@@ -5542,34 +5763,37 @@
       </c>
       <c r="C55">
         <f t="shared" si="23"/>
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G55">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H55">
-        <f t="shared" si="25"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="I55" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="J55" t="s">
-        <v>138</v>
+        <v>164</v>
+      </c>
+      <c r="K55" t="s">
+        <v>166</v>
       </c>
       <c r="L55" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="M55">
         <f t="shared" si="6"/>
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="N55">
         <v>10</v>
       </c>
       <c r="O55">
         <f t="shared" si="24"/>
-        <v>26.615384615384617</v>
+        <v>26.76923076923077</v>
       </c>
       <c r="P55">
         <v>13</v>
@@ -5584,15 +5808,15 @@
         <v>25</v>
       </c>
       <c r="W55">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="X55">
         <f t="shared" si="17"/>
-        <v>45110</v>
+        <v>26100</v>
       </c>
       <c r="Y55">
         <f t="shared" si="18"/>
-        <v>6070</v>
+        <v>3395</v>
       </c>
       <c r="Z55" t="str">
         <f t="shared" si="19"/>
@@ -5603,7 +5827,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
       </c>
       <c r="AB55" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"54":22700</v>
       </c>
       <c r="AC55" t="str">
@@ -5624,27 +5848,30 @@
         <v>357</v>
       </c>
       <c r="G56">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H56">
-        <f t="shared" si="25"/>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="I56" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="J56" t="s">
-        <v>142</v>
+        <v>168</v>
+      </c>
+      <c r="K56" t="s">
+        <v>170</v>
       </c>
       <c r="L56" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="M56">
         <f t="shared" si="6"/>
         <v>357</v>
       </c>
       <c r="N56">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O56">
         <f t="shared" si="24"/>
@@ -5663,15 +5890,15 @@
         <v>30</v>
       </c>
       <c r="V56">
-        <v>6000</v>
+        <v>3100</v>
       </c>
       <c r="X56">
         <f t="shared" si="17"/>
-        <v>51110</v>
+        <v>29200</v>
       </c>
       <c r="Y56">
         <f t="shared" si="18"/>
-        <v>6070</v>
+        <v>3395</v>
       </c>
       <c r="Z56" t="str">
         <f t="shared" si="19"/>
@@ -5682,7 +5909,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
       </c>
       <c r="AB56" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"55":23200</v>
       </c>
       <c r="AC56" t="str">
@@ -5700,34 +5927,37 @@
       </c>
       <c r="C57">
         <f t="shared" si="23"/>
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G57">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H57">
-        <f t="shared" si="25"/>
-        <v>24</v>
+        <f t="shared" si="4"/>
+        <v>28</v>
       </c>
       <c r="I57" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="J57" t="s">
-        <v>145</v>
+        <v>168</v>
+      </c>
+      <c r="K57" t="s">
+        <v>173</v>
       </c>
       <c r="L57" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="M57">
         <f t="shared" si="6"/>
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N57">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O57">
         <f t="shared" si="24"/>
-        <v>28.384615384615383</v>
+        <v>28.307692307692307</v>
       </c>
       <c r="P57">
         <v>13</v>
@@ -5745,18 +5975,18 @@
         <v>15</v>
       </c>
       <c r="V57">
-        <v>6100</v>
+        <v>2400</v>
       </c>
       <c r="W57">
-        <v>1100</v>
+        <v>450</v>
       </c>
       <c r="X57">
         <f t="shared" si="17"/>
-        <v>57210</v>
+        <v>31600</v>
       </c>
       <c r="Y57">
         <f t="shared" si="18"/>
-        <v>7170</v>
+        <v>3845</v>
       </c>
       <c r="Z57" t="str">
         <f t="shared" si="19"/>
@@ -5767,7 +5997,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
       </c>
       <c r="AB57" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"56":24000</v>
       </c>
       <c r="AC57" t="str">
@@ -5785,34 +6015,34 @@
       </c>
       <c r="C58">
         <f t="shared" si="23"/>
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G58">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="H58">
-        <f t="shared" si="25"/>
-        <v>25</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="I58" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="J58" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="L58" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="M58">
         <f t="shared" si="6"/>
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N58">
         <v>10</v>
       </c>
       <c r="O58">
         <f t="shared" si="24"/>
-        <v>29.153846153846153</v>
+        <v>29.076923076923077</v>
       </c>
       <c r="P58">
         <v>13</v>
@@ -5827,15 +6057,15 @@
         <v>30</v>
       </c>
       <c r="V58">
-        <v>6900</v>
+        <v>3150</v>
       </c>
       <c r="X58">
         <f t="shared" si="17"/>
-        <v>64110</v>
+        <v>34750</v>
       </c>
       <c r="Y58">
         <f t="shared" si="18"/>
-        <v>7170</v>
+        <v>3845</v>
       </c>
       <c r="Z58" t="str">
         <f t="shared" si="19"/>
@@ -5846,7 +6076,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
       </c>
       <c r="AB58" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"57":23500</v>
       </c>
       <c r="AC58" t="str">
@@ -5864,37 +6094,37 @@
       </c>
       <c r="C59">
         <f t="shared" si="23"/>
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G59">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="H59">
-        <f t="shared" si="25"/>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="I59" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="J59" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="K59" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="L59" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="M59">
         <f t="shared" si="6"/>
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="N59">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O59">
         <f t="shared" si="24"/>
-        <v>27.928571428571427</v>
+        <v>27.785714285714285</v>
       </c>
       <c r="P59">
         <v>14</v>
@@ -5909,15 +6139,15 @@
         <v>20</v>
       </c>
       <c r="W59">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="X59">
         <f t="shared" si="17"/>
-        <v>64110</v>
+        <v>34750</v>
       </c>
       <c r="Y59">
         <f t="shared" si="18"/>
-        <v>8370</v>
+        <v>4395</v>
       </c>
       <c r="Z59" t="str">
         <f t="shared" si="19"/>
@@ -5928,7 +6158,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
       </c>
       <c r="AB59" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"58":23800</v>
       </c>
       <c r="AC59" t="str">
@@ -5946,34 +6176,37 @@
       </c>
       <c r="C60">
         <f t="shared" si="23"/>
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G60">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="H60">
-        <f t="shared" si="25"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="I60" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="J60" t="s">
-        <v>155</v>
+        <v>182</v>
+      </c>
+      <c r="K60" t="s">
+        <v>184</v>
       </c>
       <c r="L60" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="M60">
         <f t="shared" si="6"/>
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N60">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O60">
         <f t="shared" si="24"/>
-        <v>28.714285714285715</v>
+        <v>28.5</v>
       </c>
       <c r="P60">
         <v>14</v>
@@ -5989,11 +6222,11 @@
       </c>
       <c r="X60">
         <f t="shared" si="17"/>
-        <v>64110</v>
+        <v>34750</v>
       </c>
       <c r="Y60">
         <f t="shared" si="18"/>
-        <v>8370</v>
+        <v>4395</v>
       </c>
       <c r="Z60" t="str">
         <f t="shared" si="19"/>
@@ -6004,7 +6237,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
       </c>
       <c r="AB60" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"59":52000</v>
       </c>
       <c r="AC60" t="str">
@@ -6022,34 +6255,34 @@
       </c>
       <c r="C61">
         <f t="shared" si="23"/>
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G61">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="H61">
-        <f t="shared" si="25"/>
-        <v>28</v>
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
       <c r="I61" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="J61" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="L61" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="M61">
         <f t="shared" si="6"/>
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N61">
         <v>12</v>
       </c>
       <c r="O61">
         <f t="shared" si="24"/>
-        <v>29.571428571428573</v>
+        <v>29.357142857142858</v>
       </c>
       <c r="P61">
         <v>14</v>
@@ -6064,15 +6297,15 @@
         <v>40</v>
       </c>
       <c r="V61">
-        <v>7900</v>
+        <v>4800</v>
       </c>
       <c r="X61">
         <f t="shared" si="17"/>
-        <v>72010</v>
+        <v>39550</v>
       </c>
       <c r="Y61">
         <f t="shared" si="18"/>
-        <v>8370</v>
+        <v>4395</v>
       </c>
       <c r="Z61" t="str">
         <f t="shared" si="19"/>
@@ -6083,7 +6316,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
       </c>
       <c r="AB61" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"60":28500</v>
       </c>
       <c r="AC61" t="str">
@@ -6101,34 +6334,37 @@
       </c>
       <c r="C62">
         <f t="shared" si="23"/>
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G62">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="H62">
-        <f t="shared" si="25"/>
-        <v>32</v>
+        <f t="shared" si="4"/>
+        <v>29</v>
       </c>
       <c r="I62" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="J62" t="s">
-        <v>161</v>
+        <v>189</v>
+      </c>
+      <c r="K62" t="s">
+        <v>191</v>
       </c>
       <c r="L62" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="M62">
         <f t="shared" si="6"/>
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="N62">
         <v>11</v>
       </c>
       <c r="O62">
         <f t="shared" si="24"/>
-        <v>30.357142857142858</v>
+        <v>30.142857142857142</v>
       </c>
       <c r="P62">
         <v>14</v>
@@ -6143,15 +6379,15 @@
         <v>20</v>
       </c>
       <c r="W62">
-        <v>1200</v>
+        <v>780</v>
       </c>
       <c r="X62">
         <f t="shared" si="17"/>
-        <v>72010</v>
+        <v>39550</v>
       </c>
       <c r="Y62">
         <f t="shared" si="18"/>
-        <v>9570</v>
+        <v>5175</v>
       </c>
       <c r="Z62" t="str">
         <f t="shared" si="19"/>
@@ -6162,7 +6398,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
       </c>
       <c r="AB62" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"61":28000</v>
       </c>
       <c r="AC62" t="str">
@@ -6180,34 +6416,37 @@
       </c>
       <c r="C63">
         <f t="shared" si="23"/>
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G63">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="H63">
-        <f t="shared" si="25"/>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="J63" t="s">
-        <v>164</v>
+        <v>189</v>
+      </c>
+      <c r="K63" t="s">
+        <v>194</v>
       </c>
       <c r="L63" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="M63">
         <f t="shared" si="6"/>
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="N63">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O63">
         <f t="shared" si="24"/>
-        <v>31</v>
+        <v>30.857142857142858</v>
       </c>
       <c r="P63">
         <v>14</v>
@@ -6225,18 +6464,18 @@
         <v>15</v>
       </c>
       <c r="V63">
-        <v>8800</v>
+        <v>6900</v>
       </c>
       <c r="W63">
-        <v>1400</v>
+        <v>1290</v>
       </c>
       <c r="X63">
         <f t="shared" si="17"/>
-        <v>80810</v>
+        <v>46450</v>
       </c>
       <c r="Y63">
         <f t="shared" si="18"/>
-        <v>10970</v>
+        <v>6465</v>
       </c>
       <c r="Z63" t="str">
         <f t="shared" si="19"/>
@@ -6247,7 +6486,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
       </c>
       <c r="AB63" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"62":28700</v>
       </c>
       <c r="AC63" t="str">
@@ -6265,37 +6504,37 @@
       </c>
       <c r="C64">
         <f t="shared" si="23"/>
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G64">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="H64">
-        <f t="shared" si="25"/>
-        <v>22</v>
+        <f t="shared" si="4"/>
+        <v>25</v>
       </c>
       <c r="I64" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="J64" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="K64" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="L64" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="M64">
         <f t="shared" si="6"/>
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N64">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O64">
         <f t="shared" si="24"/>
-        <v>29.6</v>
+        <v>29.533333333333335</v>
       </c>
       <c r="P64">
         <v>15</v>
@@ -6310,15 +6549,15 @@
         <v>35</v>
       </c>
       <c r="V64">
-        <v>9400</v>
+        <v>7900</v>
       </c>
       <c r="X64">
         <f t="shared" si="17"/>
-        <v>90210</v>
+        <v>54350</v>
       </c>
       <c r="Y64">
         <f t="shared" si="18"/>
-        <v>10970</v>
+        <v>6465</v>
       </c>
       <c r="Z64" t="str">
         <f t="shared" si="19"/>
@@ -6329,7 +6568,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
       </c>
       <c r="AB64" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"63":28500</v>
       </c>
       <c r="AC64" t="str">
@@ -6347,34 +6586,37 @@
       </c>
       <c r="C65">
         <f t="shared" si="23"/>
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G65">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H65">
-        <f t="shared" si="25"/>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="I65" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="J65" t="s">
-        <v>171</v>
+        <v>200</v>
+      </c>
+      <c r="K65" t="s">
+        <v>202</v>
       </c>
       <c r="L65" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="M65">
         <f t="shared" si="6"/>
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N65">
         <v>12</v>
       </c>
       <c r="O65">
         <f t="shared" si="24"/>
-        <v>30.4</v>
+        <v>30.333333333333332</v>
       </c>
       <c r="P65">
         <v>15</v>
@@ -6389,15 +6631,15 @@
         <v>20</v>
       </c>
       <c r="W65">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="X65">
         <f t="shared" si="17"/>
-        <v>90210</v>
+        <v>54350</v>
       </c>
       <c r="Y65">
         <f t="shared" si="18"/>
-        <v>12270</v>
+        <v>7965</v>
       </c>
       <c r="Z65" t="str">
         <f t="shared" si="19"/>
@@ -6408,7 +6650,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
       </c>
       <c r="AB65" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"64":29200</v>
       </c>
       <c r="AC65" t="str">
@@ -6425,36 +6667,39 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C77" si="27">IF(NOT(ISBLANK(D66)),D66,
+        <f t="shared" ref="C66:C77" si="26">IF(NOT(ISBLANK(D66)),D66,
 IF(ISBLANK(E66),M66,""))</f>
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G66">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="H66">
-        <f t="shared" si="25"/>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>33</v>
       </c>
       <c r="I66" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="J66" t="s">
-        <v>174</v>
+        <v>204</v>
+      </c>
+      <c r="K66" t="s">
+        <v>202</v>
       </c>
       <c r="L66" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="M66">
         <f t="shared" si="6"/>
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N66">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O66">
-        <f t="shared" ref="O66:O77" si="28">M66/P66</f>
-        <v>31.133333333333333</v>
+        <f t="shared" ref="O66:O77" si="27">M66/P66</f>
+        <v>31</v>
       </c>
       <c r="P66">
         <v>15</v>
@@ -6469,15 +6714,15 @@
         <v>30</v>
       </c>
       <c r="V66">
-        <v>8200</v>
+        <v>8700</v>
       </c>
       <c r="X66">
         <f t="shared" si="17"/>
-        <v>98410</v>
+        <v>63050</v>
       </c>
       <c r="Y66">
         <f t="shared" si="18"/>
-        <v>12270</v>
+        <v>7965</v>
       </c>
       <c r="Z66" t="str">
         <f t="shared" si="19"/>
@@ -6488,7 +6733,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
       </c>
       <c r="AB66" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"65":29500</v>
       </c>
       <c r="AC66" t="str">
@@ -6501,42 +6746,42 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B77" si="29">IF(LEN(C67)=0,1,0)</f>
+        <f t="shared" ref="B67:B77" si="28">IF(LEN(C67)=0,1,0)</f>
         <v>0</v>
       </c>
       <c r="C67">
-        <f t="shared" si="27"/>
-        <v>479</v>
+        <f t="shared" si="26"/>
+        <v>477</v>
       </c>
       <c r="G67">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H68" si="30">G67-G66</f>
-        <v>34</v>
+        <f t="shared" si="4"/>
+        <v>27</v>
       </c>
       <c r="I67" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="J67" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="K67" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="L67" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="M67">
         <f t="shared" si="6"/>
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="N67">
         <v>12</v>
       </c>
       <c r="O67">
-        <f t="shared" si="28"/>
-        <v>31.933333333333334</v>
+        <f t="shared" si="27"/>
+        <v>31.8</v>
       </c>
       <c r="P67">
         <v>15</v>
@@ -6554,18 +6799,18 @@
         <v>15</v>
       </c>
       <c r="V67">
-        <v>9800</v>
+        <v>8500</v>
       </c>
       <c r="W67">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="X67">
         <f t="shared" si="17"/>
-        <v>108210</v>
+        <v>71550</v>
       </c>
       <c r="Y67">
         <f t="shared" si="18"/>
-        <v>13870</v>
+        <v>9765</v>
       </c>
       <c r="Z67" t="str">
         <f t="shared" si="19"/>
@@ -6576,7 +6821,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"66":29000</v>
       </c>
       <c r="AC67" t="str">
@@ -6589,38 +6834,41 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="C68">
+        <f t="shared" si="26"/>
+        <v>488</v>
+      </c>
+      <c r="G68">
+        <v>746</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="I68" t="s">
+        <v>211</v>
+      </c>
+      <c r="J68" t="s">
+        <v>210</v>
+      </c>
+      <c r="K68" t="s">
+        <v>212</v>
+      </c>
+      <c r="L68" t="s">
+        <v>213</v>
+      </c>
+      <c r="M68">
+        <f t="shared" ref="M68:M77" si="29">M67+N68</f>
+        <v>488</v>
+      </c>
+      <c r="N68">
+        <v>11</v>
+      </c>
+      <c r="O68">
         <f t="shared" si="27"/>
-        <v>488</v>
-      </c>
-      <c r="G68">
-        <v>739</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="30"/>
-        <v>22</v>
-      </c>
-      <c r="I68" t="s">
-        <v>181</v>
-      </c>
-      <c r="J68" t="s">
-        <v>182</v>
-      </c>
-      <c r="L68" t="s">
-        <v>183</v>
-      </c>
-      <c r="M68">
-        <f t="shared" ref="M68:M77" si="31">M67+N68</f>
-        <v>488</v>
-      </c>
-      <c r="N68">
-        <v>9</v>
-      </c>
-      <c r="O68">
-        <f t="shared" si="28"/>
         <v>32.533333333333331</v>
       </c>
       <c r="P68">
@@ -6636,15 +6884,15 @@
         <v>30</v>
       </c>
       <c r="V68">
-        <v>8200</v>
+        <v>10000</v>
       </c>
       <c r="X68">
         <f t="shared" si="17"/>
-        <v>116410</v>
+        <v>81550</v>
       </c>
       <c r="Y68">
         <f t="shared" si="18"/>
-        <v>13870</v>
+        <v>9765</v>
       </c>
       <c r="Z68" t="str">
         <f t="shared" si="19"/>
@@ -6655,7 +6903,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
       </c>
       <c r="AB68" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"67":29700</v>
       </c>
       <c r="AC68" t="str">
@@ -6668,23 +6916,42 @@
         <v>68</v>
       </c>
       <c r="B69">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="26"/>
+        <v>500</v>
+      </c>
+      <c r="G69">
+        <v>780</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="I69" t="s">
+        <v>216</v>
+      </c>
+      <c r="J69" t="s">
+        <v>214</v>
+      </c>
+      <c r="K69" t="s">
+        <v>215</v>
+      </c>
+      <c r="L69" t="s">
+        <v>217</v>
+      </c>
+      <c r="M69">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="C69">
+        <v>500</v>
+      </c>
+      <c r="N69">
+        <v>12</v>
+      </c>
+      <c r="O69">
         <f t="shared" si="27"/>
-        <v>499</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="31"/>
-        <v>499</v>
-      </c>
-      <c r="N69">
-        <v>11</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="28"/>
-        <v>33.266666666666666</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="P69">
         <v>15</v>
@@ -6699,15 +6966,15 @@
         <v>20</v>
       </c>
       <c r="W69">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="X69">
         <f t="shared" si="17"/>
-        <v>116410</v>
+        <v>81550</v>
       </c>
       <c r="Y69">
         <f t="shared" si="18"/>
-        <v>15570</v>
+        <v>11965</v>
       </c>
       <c r="Z69" t="str">
         <f t="shared" si="19"/>
@@ -6718,7 +6985,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
       </c>
       <c r="AB69" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"68":29500</v>
       </c>
       <c r="AC69" t="str">
@@ -6731,22 +6998,41 @@
         <v>69</v>
       </c>
       <c r="B70">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="26"/>
+        <v>511</v>
+      </c>
+      <c r="G70">
+        <v>825</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="I70" t="s">
+        <v>219</v>
+      </c>
+      <c r="J70" t="s">
+        <v>218</v>
+      </c>
+      <c r="K70" t="s">
+        <v>220</v>
+      </c>
+      <c r="L70" t="s">
+        <v>221</v>
+      </c>
+      <c r="M70">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="C70">
+        <v>511</v>
+      </c>
+      <c r="N70">
+        <v>11</v>
+      </c>
+      <c r="O70">
         <f t="shared" si="27"/>
-        <v>511</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="31"/>
-        <v>511</v>
-      </c>
-      <c r="N70">
-        <v>12</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="28"/>
         <v>34.06666666666667</v>
       </c>
       <c r="P70">
@@ -6762,15 +7048,15 @@
         <v>40</v>
       </c>
       <c r="V70">
-        <v>9700</v>
+        <v>12000</v>
       </c>
       <c r="X70">
         <f t="shared" si="17"/>
-        <v>126110</v>
+        <v>93550</v>
       </c>
       <c r="Y70">
         <f t="shared" si="18"/>
-        <v>15570</v>
+        <v>11965</v>
       </c>
       <c r="Z70" t="str">
         <f t="shared" si="19"/>
@@ -6781,7 +7067,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
       </c>
       <c r="AB70" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"69":29900</v>
       </c>
       <c r="AC70" t="str">
@@ -6794,22 +7080,41 @@
         <v>70</v>
       </c>
       <c r="B71">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="26"/>
+        <v>523</v>
+      </c>
+      <c r="G71">
+        <v>854</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="I71" t="s">
+        <v>223</v>
+      </c>
+      <c r="J71" t="s">
+        <v>222</v>
+      </c>
+      <c r="K71" t="s">
+        <v>224</v>
+      </c>
+      <c r="L71" t="s">
+        <v>225</v>
+      </c>
+      <c r="M71">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="27"/>
-        <v>523</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="31"/>
         <v>523</v>
       </c>
       <c r="N71">
         <v>12</v>
       </c>
       <c r="O71">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>34.866666666666667</v>
       </c>
       <c r="P71">
@@ -6826,11 +7131,11 @@
       </c>
       <c r="X71">
         <f t="shared" si="17"/>
-        <v>126110</v>
+        <v>93550</v>
       </c>
       <c r="Y71">
         <f t="shared" si="18"/>
-        <v>15570</v>
+        <v>11965</v>
       </c>
       <c r="Z71" t="str">
         <f t="shared" si="19"/>
@@ -6841,7 +7146,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50,"70":60</v>
       </c>
       <c r="AB71" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"70":64000</v>
       </c>
       <c r="AC71" t="str">
@@ -6854,22 +7159,41 @@
         <v>71</v>
       </c>
       <c r="B72">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="26"/>
+        <v>534</v>
+      </c>
+      <c r="G72">
+        <v>879</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="I72" t="s">
+        <v>226</v>
+      </c>
+      <c r="J72" t="s">
+        <v>222</v>
+      </c>
+      <c r="K72" t="s">
+        <v>227</v>
+      </c>
+      <c r="L72" t="s">
+        <v>228</v>
+      </c>
+      <c r="M72">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="27"/>
-        <v>534</v>
-      </c>
-      <c r="M72">
-        <f t="shared" si="31"/>
         <v>534</v>
       </c>
       <c r="N72">
         <v>11</v>
       </c>
       <c r="O72">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>35.6</v>
       </c>
       <c r="P72">
@@ -6885,15 +7209,15 @@
         <v>35</v>
       </c>
       <c r="V72">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="X72">
         <f t="shared" si="17"/>
-        <v>135810</v>
+        <v>103550</v>
       </c>
       <c r="Y72">
         <f t="shared" si="18"/>
-        <v>15570</v>
+        <v>11965</v>
       </c>
       <c r="Z72" t="str">
         <f t="shared" si="19"/>
@@ -6904,7 +7228,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50,"70":60</v>
       </c>
       <c r="AB72" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"71":33000</v>
       </c>
       <c r="AC72" t="str">
@@ -6917,22 +7241,41 @@
         <v>72</v>
       </c>
       <c r="B73">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="26"/>
+        <v>546</v>
+      </c>
+      <c r="G73">
+        <v>928</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="I73" t="s">
+        <v>230</v>
+      </c>
+      <c r="J73" t="s">
+        <v>229</v>
+      </c>
+      <c r="K73" t="s">
+        <v>231</v>
+      </c>
+      <c r="L73" t="s">
+        <v>232</v>
+      </c>
+      <c r="M73">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="27"/>
-        <v>546</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="31"/>
         <v>546</v>
       </c>
       <c r="N73">
         <v>12</v>
       </c>
       <c r="O73">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>36.4</v>
       </c>
       <c r="P73">
@@ -6951,18 +7294,18 @@
         <v>25</v>
       </c>
       <c r="V73">
-        <v>9200</v>
+        <v>12800</v>
       </c>
       <c r="W73">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="X73">
         <f t="shared" si="17"/>
-        <v>145010</v>
+        <v>116350</v>
       </c>
       <c r="Y73">
         <f t="shared" si="18"/>
-        <v>17370</v>
+        <v>14565</v>
       </c>
       <c r="Z73" t="str">
         <f t="shared" si="19"/>
@@ -6973,7 +7316,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50,"70":60</v>
       </c>
       <c r="AB73" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"72":33500</v>
       </c>
       <c r="AC73" t="str">
@@ -6986,22 +7329,41 @@
         <v>73</v>
       </c>
       <c r="B74">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="26"/>
+        <v>556</v>
+      </c>
+      <c r="G74">
+        <v>964</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="I74" t="s">
+        <v>234</v>
+      </c>
+      <c r="J74" t="s">
+        <v>233</v>
+      </c>
+      <c r="K74" t="s">
+        <v>202</v>
+      </c>
+      <c r="L74" t="s">
+        <v>235</v>
+      </c>
+      <c r="M74">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="27"/>
-        <v>556</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="31"/>
         <v>556</v>
       </c>
       <c r="N74">
         <v>10</v>
       </c>
       <c r="O74">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>37.06666666666667</v>
       </c>
       <c r="P74">
@@ -7017,15 +7379,15 @@
         <v>35</v>
       </c>
       <c r="V74">
-        <v>9800</v>
+        <v>15500</v>
       </c>
       <c r="X74">
         <f t="shared" si="17"/>
-        <v>154810</v>
+        <v>131850</v>
       </c>
       <c r="Y74">
         <f t="shared" si="18"/>
-        <v>17370</v>
+        <v>14565</v>
       </c>
       <c r="Z74" t="str">
         <f t="shared" si="19"/>
@@ -7036,7 +7398,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50,"70":60</v>
       </c>
       <c r="AB74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"73":33800</v>
       </c>
       <c r="AC74" t="str">
@@ -7049,22 +7411,41 @@
         <v>74</v>
       </c>
       <c r="B75">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="26"/>
+        <v>568</v>
+      </c>
+      <c r="G75">
+        <v>1006</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="I75" t="s">
+        <v>236</v>
+      </c>
+      <c r="J75" t="s">
+        <v>233</v>
+      </c>
+      <c r="K75" t="s">
+        <v>202</v>
+      </c>
+      <c r="L75" t="s">
+        <v>237</v>
+      </c>
+      <c r="M75">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="27"/>
-        <v>568</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="31"/>
         <v>568</v>
       </c>
       <c r="N75">
         <v>12</v>
       </c>
       <c r="O75">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>35.5</v>
       </c>
       <c r="P75">
@@ -7083,18 +7464,18 @@
         <v>20</v>
       </c>
       <c r="V75">
-        <v>9500</v>
+        <v>17510</v>
       </c>
       <c r="W75">
-        <v>2100</v>
+        <v>3150</v>
       </c>
       <c r="X75">
         <f t="shared" si="17"/>
-        <v>164310</v>
+        <v>149360</v>
       </c>
       <c r="Y75">
         <f t="shared" si="18"/>
-        <v>19470</v>
+        <v>17715</v>
       </c>
       <c r="Z75" t="str">
         <f t="shared" si="19"/>
@@ -7105,7 +7486,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50,"70":60</v>
       </c>
       <c r="AB75" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"74":34500</v>
       </c>
       <c r="AC75" t="str">
@@ -7118,22 +7499,41 @@
         <v>75</v>
       </c>
       <c r="B76">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="26"/>
+        <v>579</v>
+      </c>
+      <c r="G76">
+        <v>1038</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="I76" t="s">
+        <v>239</v>
+      </c>
+      <c r="J76" t="s">
+        <v>238</v>
+      </c>
+      <c r="K76" t="s">
+        <v>202</v>
+      </c>
+      <c r="L76" t="s">
+        <v>240</v>
+      </c>
+      <c r="M76">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="27"/>
-        <v>579</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="31"/>
         <v>579</v>
       </c>
       <c r="N76">
         <v>11</v>
       </c>
       <c r="O76">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>36.1875</v>
       </c>
       <c r="P76">
@@ -7149,15 +7549,15 @@
         <v>30</v>
       </c>
       <c r="V76">
-        <v>9900</v>
+        <v>25800</v>
       </c>
       <c r="X76">
         <f t="shared" si="17"/>
-        <v>174210</v>
+        <v>175160</v>
       </c>
       <c r="Y76">
         <f t="shared" si="18"/>
-        <v>19470</v>
+        <v>17715</v>
       </c>
       <c r="Z76" t="str">
         <f t="shared" si="19"/>
@@ -7168,7 +7568,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50,"70":60</v>
       </c>
       <c r="AB76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"75":34200</v>
       </c>
       <c r="AC76" t="str">
@@ -7181,22 +7581,41 @@
         <v>76</v>
       </c>
       <c r="B77">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="26"/>
+        <v>592</v>
+      </c>
+      <c r="G77">
+        <v>1171</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="4"/>
+        <v>133</v>
+      </c>
+      <c r="I77">
+        <v>37</v>
+      </c>
+      <c r="J77">
+        <v>16</v>
+      </c>
+      <c r="K77" t="s">
+        <v>202</v>
+      </c>
+      <c r="L77" t="s">
+        <v>241</v>
+      </c>
+      <c r="M77">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="27"/>
-        <v>592</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="31"/>
         <v>592</v>
       </c>
       <c r="N77">
         <v>13</v>
       </c>
       <c r="O77">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>37</v>
       </c>
       <c r="P77">
@@ -7212,15 +7631,15 @@
         <v>20</v>
       </c>
       <c r="W77">
-        <v>2300</v>
+        <v>4180</v>
       </c>
       <c r="X77">
         <f t="shared" si="17"/>
-        <v>174210</v>
+        <v>175160</v>
       </c>
       <c r="Y77">
         <f t="shared" si="18"/>
-        <v>21770</v>
+        <v>21895</v>
       </c>
       <c r="Z77" t="str">
         <f t="shared" si="19"/>
@@ -7231,7 +7650,7 @@
         <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50,"70":60</v>
       </c>
       <c r="AB77" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>"76":35000</v>
       </c>
       <c r="AC77" t="str">

--- a/Excel/작업Research.xlsx
+++ b/Excel/작업Research.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259AE43E-6DC0-4538-8721-432876C40344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3319EF7-00B9-405C-9F30-4A779EC5368D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchTable" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ResearchTable!$O$1:$O$77</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,15 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="242">
-  <si>
-    <t>필요캐릭터인원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="241">
   <si>
     <t>requiredAccumulatedPowerLevel|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -992,6 +987,10 @@
   </si>
   <si>
     <t>727만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업데이트순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1378,127 +1377,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B294627A-88CA-400D-B366-14507FB4AA24}">
-  <dimension ref="A1:AF77"/>
+  <dimension ref="A1:AD77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="12.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="16" width="12.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="12.625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="12.625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="8.25" customWidth="1"/>
-    <col min="21" max="21" width="7.875" customWidth="1"/>
-    <col min="22" max="23" width="7.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="7.875" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.25" customWidth="1"/>
-    <col min="26" max="29" width="8.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="9" collapsed="1"/>
-    <col min="31" max="31" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="9" collapsed="1"/>
+    <col min="4" max="4" width="6.125" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="6" width="8" customWidth="1"/>
+    <col min="7" max="8" width="8" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="12" width="12.625" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="14" width="8.125" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="12.625" customWidth="1"/>
+    <col min="17" max="17" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="12.625" customWidth="1"/>
+    <col min="19" max="19" width="8.25" customWidth="1"/>
+    <col min="20" max="20" width="7.875" customWidth="1"/>
+    <col min="21" max="22" width="7.875" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="7.875" customWidth="1"/>
+    <col min="24" max="24" width="8.25" customWidth="1"/>
+    <col min="25" max="28" width="8.25" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="R1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1521,10 +1517,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M2">
         <f>N2</f>
@@ -1534,389 +1530,369 @@
         <v>6</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O33" si="1">M2/P2</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2">
         <v>1500</v>
       </c>
-      <c r="R2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2">
+      <c r="Q2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2">
         <v>80</v>
       </c>
-      <c r="V2">
+      <c r="U2">
+        <v>250</v>
+      </c>
+      <c r="W2">
+        <f>U2</f>
         <v>250</v>
       </c>
       <c r="X2">
         <f>V2</f>
-        <v>250</v>
-      </c>
-      <c r="Y2">
-        <f>W2</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Y2" t="str">
+        <f>AA2</f>
+        <v>"1":1500</v>
       </c>
       <c r="Z2" t="str">
         <f>AB2</f>
+        <v/>
+      </c>
+      <c r="AA2" t="str">
+        <f>""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;P2</f>
         <v>"1":1500</v>
       </c>
-      <c r="AA2" t="str">
-        <f>AC2</f>
-        <v/>
-      </c>
       <c r="AB2" t="str">
-        <f>""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;Q2</f>
-        <v>"1":1500</v>
-      </c>
-      <c r="AC2" t="str">
-        <f t="shared" ref="AC2:AC20" si="2">IF(ISBLANK(S2),"",""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;S2)</f>
-        <v/>
-      </c>
-      <c r="AE2" t="str">
+        <f t="shared" ref="AB2:AB20" si="1">IF(ISBLANK(R2),"",""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;R2)</f>
+        <v/>
+      </c>
+      <c r="AD2" t="str">
+        <f ca="1">"{"&amp;
+IF(LEFT(OFFSET(Y1,COUNTA(Y:Y)-1,0),1)=",",SUBSTITUTE(OFFSET(Y1,COUNTA(Y:Y)-1,0),",","",1),OFFSET(Y1,COUNTA(Y:Y)-1,0))
+&amp;"}"</f>
+        <v>{"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200,"76":35000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="2">IF(LEN(C3)=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H77" si="3">G3-G2</f>
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3">
+        <f>M2+N3</f>
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1700</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>20</v>
+      </c>
+      <c r="W3">
+        <f>W2+U3</f>
+        <v>250</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X20" si="4">X2+V3</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" t="str">
+        <f>Y2&amp;","&amp;AA3</f>
+        <v>"1":1500,"2":1700</v>
+      </c>
+      <c r="Z3" t="str">
+        <f>Z2&amp;IF(LEN(AB3)=0,"",","&amp;AB3)</f>
+        <v>,"2":20</v>
+      </c>
+      <c r="AA3" t="str">
+        <f>""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;P3</f>
+        <v>"2":1700</v>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" si="1"/>
+        <v>"2":20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M67" si="5">M3+N4</f>
+        <v>12</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1300</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>20</v>
+      </c>
+      <c r="V4">
+        <v>35</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W20" si="6">W3+U4</f>
+        <v>250</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="Y4" t="str">
+        <f t="shared" ref="Y4:Y20" si="7">Y3&amp;","&amp;AA4</f>
+        <v>"1":1500,"2":1700,"3":1300</v>
+      </c>
+      <c r="Z4" t="str">
+        <f t="shared" ref="Z4:Z20" si="8">Z3&amp;IF(LEN(AB4)=0,"",","&amp;AB4)</f>
+        <v>,"2":20</v>
+      </c>
+      <c r="AA4" t="str">
+        <f>""""&amp;$A4&amp;""""&amp;""&amp;":"&amp;P4</f>
+        <v>"3":1300</v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AD4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1800</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5">
+        <v>60</v>
+      </c>
+      <c r="U5">
+        <v>200</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W5:W18" si="9">W4+U5</f>
+        <v>450</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ref="X5:X18" si="10">X4+V5</f>
+        <v>35</v>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" ref="Y5:Y18" si="11">Y4&amp;","&amp;AA5</f>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800</v>
+      </c>
+      <c r="Z5" t="str">
+        <f t="shared" ref="Z5:Z18" si="12">Z4&amp;IF(LEN(AB5)=0,"",","&amp;AB5)</f>
+        <v>,"2":20</v>
+      </c>
+      <c r="AA5" t="str">
+        <f t="shared" ref="AA5:AA18" si="13">""""&amp;$A5&amp;""""&amp;""&amp;":"&amp;P5</f>
+        <v>"4":1800</v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" ref="AB5:AB18" si="14">IF(ISBLANK(R5),"",""""&amp;$A5&amp;""""&amp;""&amp;":"&amp;R5)</f>
+        <v/>
+      </c>
+      <c r="AD5" t="str">
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(Z1,COUNTA(Z:Z)-1,0),1)=",",SUBSTITUTE(OFFSET(Z1,COUNTA(Z:Z)-1,0),",","",1),OFFSET(Z1,COUNTA(Z:Z)-1,0))
 &amp;"}"</f>
-        <v>{"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200,"76":35000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B66" si="3">IF(LEN(C3)=0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H77" si="4">G3-G2</f>
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3">
-        <f>M2+N3</f>
-        <v>9</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
-        <v>1700</v>
-      </c>
-      <c r="R3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3">
-        <v>20</v>
-      </c>
-      <c r="X3">
-        <f>X2+V3</f>
-        <v>250</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" ref="Y3:Y20" si="5">Y2+W3</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" t="str">
-        <f>Z2&amp;","&amp;AB3</f>
-        <v>"1":1500,"2":1700</v>
-      </c>
-      <c r="AA3" t="str">
-        <f>AA2&amp;IF(LEN(AC3)=0,"",","&amp;AC3)</f>
-        <v>,"2":20</v>
-      </c>
-      <c r="AB3" t="str">
-        <f>""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;Q3</f>
-        <v>"2":1700</v>
-      </c>
-      <c r="AC3" t="str">
-        <f t="shared" si="2"/>
-        <v>"2":20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M67" si="6">M3+N4</f>
-        <v>12</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <v>1300</v>
-      </c>
-      <c r="R4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U4">
-        <v>20</v>
-      </c>
-      <c r="W4">
-        <v>35</v>
-      </c>
-      <c r="X4">
-        <f t="shared" ref="X4:X20" si="7">X3+V4</f>
-        <v>250</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-      <c r="Z4" t="str">
-        <f t="shared" ref="Z4:Z20" si="8">Z3&amp;","&amp;AB4</f>
-        <v>"1":1500,"2":1700,"3":1300</v>
-      </c>
-      <c r="AA4" t="str">
-        <f t="shared" ref="AA4:AA20" si="9">AA3&amp;IF(LEN(AC4)=0,"",","&amp;AC4)</f>
-        <v>,"2":20</v>
-      </c>
-      <c r="AB4" t="str">
-        <f>""""&amp;$A4&amp;""""&amp;""&amp;":"&amp;Q4</f>
-        <v>"3":1300</v>
-      </c>
-      <c r="AC4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="P5">
-        <v>2</v>
-      </c>
-      <c r="Q5">
-        <v>1800</v>
-      </c>
-      <c r="R5" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5">
-        <v>60</v>
-      </c>
-      <c r="V5">
-        <v>200</v>
-      </c>
-      <c r="X5">
-        <f t="shared" ref="X5:X18" si="10">X4+V5</f>
-        <v>450</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" ref="Y5:Y18" si="11">Y4+W5</f>
-        <v>35</v>
-      </c>
-      <c r="Z5" t="str">
-        <f t="shared" ref="Z5:Z18" si="12">Z4&amp;","&amp;AB5</f>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800</v>
-      </c>
-      <c r="AA5" t="str">
-        <f t="shared" ref="AA5:AA18" si="13">AA4&amp;IF(LEN(AC5)=0,"",","&amp;AC5)</f>
-        <v>,"2":20</v>
-      </c>
-      <c r="AB5" t="str">
-        <f t="shared" ref="AB5:AB18" si="14">""""&amp;$A5&amp;""""&amp;""&amp;":"&amp;Q5</f>
-        <v>"4":1800</v>
-      </c>
-      <c r="AC5" t="str">
-        <f t="shared" ref="AC5:AC18" si="15">IF(ISBLANK(S5),"",""""&amp;$A5&amp;""""&amp;""&amp;":"&amp;S5)</f>
-        <v/>
-      </c>
-      <c r="AE5" t="str">
-        <f ca="1">"{"&amp;
-IF(LEFT(OFFSET(AA1,COUNTA(AA:AA)-1,0),1)=",",SUBSTITUTE(OFFSET(AA1,COUNTA(AA:AA)-1,0),",","",1),OFFSET(AA1,COUNTA(AA:AA)-1,0))
-&amp;"}"</f>
         <v>{"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50,"70":60}</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="N6">
         <v>2</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6">
         <v>1900</v>
       </c>
-      <c r="R6" t="s">
-        <v>31</v>
+      <c r="Q6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6">
+        <v>50</v>
       </c>
       <c r="T6">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="U6">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="V6">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="W6">
-        <v>40</v>
+        <f t="shared" si="9"/>
+        <v>620</v>
       </c>
       <c r="X6">
         <f t="shared" si="10"/>
-        <v>620</v>
-      </c>
-      <c r="Y6">
+        <v>75</v>
+      </c>
+      <c r="Y6" t="str">
         <f t="shared" si="11"/>
-        <v>75</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900</v>
       </c>
       <c r="Z6" t="str">
         <f t="shared" si="12"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900</v>
+        <v>,"2":20</v>
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="13"/>
-        <v>,"2":20</v>
+        <v>"5":1900</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="14"/>
-        <v>"5":1900</v>
-      </c>
-      <c r="AC6" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C7">
@@ -1927,69 +1903,65 @@
         <v>8</v>
       </c>
       <c r="H7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="N7">
         <v>3</v>
       </c>
       <c r="O7">
-        <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>2</v>
-      </c>
-      <c r="Q7">
         <v>3700</v>
       </c>
-      <c r="R7" t="s">
-        <v>5</v>
-      </c>
-      <c r="S7">
+      <c r="Q7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7">
         <v>35</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="9"/>
+        <v>620</v>
       </c>
       <c r="X7">
         <f t="shared" si="10"/>
-        <v>620</v>
-      </c>
-      <c r="Y7">
+        <v>75</v>
+      </c>
+      <c r="Y7" t="str">
         <f t="shared" si="11"/>
-        <v>75</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700</v>
       </c>
       <c r="Z7" t="str">
         <f t="shared" si="12"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700</v>
+        <v>,"2":20,"6":35</v>
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="13"/>
-        <v>,"2":20,"6":35</v>
+        <v>"6":3700</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="14"/>
-        <v>"6":3700</v>
-      </c>
-      <c r="AC7" t="str">
-        <f t="shared" si="15"/>
         <v>"6":35</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C8" t="str">
@@ -2006,72 +1978,68 @@
         <v>10</v>
       </c>
       <c r="H8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="N8">
         <v>3</v>
       </c>
       <c r="O8">
-        <f t="shared" si="1"/>
-        <v>7.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>3</v>
-      </c>
-      <c r="Q8">
         <v>2200</v>
       </c>
-      <c r="R8" t="s">
-        <v>10</v>
-      </c>
-      <c r="T8">
+      <c r="Q8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8">
         <v>40</v>
       </c>
-      <c r="V8">
+      <c r="U8">
         <v>200</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="9"/>
+        <v>820</v>
       </c>
       <c r="X8">
         <f t="shared" si="10"/>
-        <v>820</v>
-      </c>
-      <c r="Y8">
+        <v>75</v>
+      </c>
+      <c r="Y8" t="str">
         <f t="shared" si="11"/>
-        <v>75</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200</v>
       </c>
       <c r="Z8" t="str">
         <f t="shared" si="12"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200</v>
+        <v>,"2":20,"6":35</v>
       </c>
       <c r="AA8" t="str">
         <f t="shared" si="13"/>
-        <v>,"2":20,"6":35</v>
+        <v>"7":2200</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="14"/>
-        <v>"7":2200</v>
-      </c>
-      <c r="AC8" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C9">
@@ -2082,66 +2050,62 @@
         <v>12</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="N9">
         <v>4</v>
       </c>
       <c r="O9">
-        <f t="shared" si="1"/>
-        <v>8.6666666666666661</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>3</v>
-      </c>
-      <c r="Q9">
         <v>2100</v>
       </c>
-      <c r="R9" t="s">
-        <v>7</v>
-      </c>
-      <c r="U9">
+      <c r="Q9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9">
         <v>15</v>
       </c>
+      <c r="V9">
+        <v>30</v>
+      </c>
       <c r="W9">
-        <v>30</v>
+        <f t="shared" si="9"/>
+        <v>820</v>
       </c>
       <c r="X9">
         <f t="shared" si="10"/>
-        <v>820</v>
-      </c>
-      <c r="Y9">
+        <v>105</v>
+      </c>
+      <c r="Y9" t="str">
         <f t="shared" si="11"/>
-        <v>105</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100</v>
       </c>
       <c r="Z9" t="str">
         <f t="shared" si="12"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100</v>
+        <v>,"2":20,"6":35</v>
       </c>
       <c r="AA9" t="str">
         <f t="shared" si="13"/>
-        <v>,"2":20,"6":35</v>
+        <v>"8":2100</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="14"/>
-        <v>"8":2100</v>
-      </c>
-      <c r="AC9" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C10">
@@ -2152,72 +2116,68 @@
         <v>15</v>
       </c>
       <c r="H10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="M10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="N10">
         <v>5</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
-        <v>10.333333333333334</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>3</v>
-      </c>
-      <c r="Q10">
         <v>2400</v>
       </c>
-      <c r="R10" t="s">
-        <v>11</v>
+      <c r="Q10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10">
+        <v>30</v>
       </c>
       <c r="T10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="U10">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="V10">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="W10">
-        <v>35</v>
+        <f t="shared" si="9"/>
+        <v>1100</v>
       </c>
       <c r="X10">
         <f t="shared" si="10"/>
-        <v>1100</v>
-      </c>
-      <c r="Y10">
+        <v>140</v>
+      </c>
+      <c r="Y10" t="str">
         <f t="shared" si="11"/>
-        <v>140</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400</v>
       </c>
       <c r="Z10" t="str">
         <f t="shared" si="12"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400</v>
+        <v>,"2":20,"6":35</v>
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="13"/>
-        <v>,"2":20,"6":35</v>
+        <v>"9":2400</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="14"/>
-        <v>"9":2400</v>
-      </c>
-      <c r="AC10" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C11" t="str">
@@ -2234,63 +2194,59 @@
         <v>17</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="N11">
         <v>4</v>
       </c>
       <c r="O11">
-        <f t="shared" si="1"/>
-        <v>11.666666666666666</v>
+        <v>0</v>
       </c>
       <c r="P11">
+        <v>5100</v>
+      </c>
+      <c r="Q11" t="s">
         <v>3</v>
       </c>
-      <c r="Q11">
-        <v>5100</v>
-      </c>
-      <c r="R11" t="s">
-        <v>5</v>
-      </c>
-      <c r="S11">
+      <c r="R11">
         <v>25</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="9"/>
+        <v>1100</v>
       </c>
       <c r="X11">
         <f t="shared" si="10"/>
-        <v>1100</v>
-      </c>
-      <c r="Y11">
+        <v>140</v>
+      </c>
+      <c r="Y11" t="str">
         <f t="shared" si="11"/>
-        <v>140</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100</v>
       </c>
       <c r="Z11" t="str">
         <f t="shared" si="12"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100</v>
+        <v>,"2":20,"6":35,"10":25</v>
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="13"/>
-        <v>,"2":20,"6":35,"10":25</v>
+        <v>"10":5100</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="14"/>
-        <v>"10":5100</v>
-      </c>
-      <c r="AC11" t="str">
-        <f t="shared" si="15"/>
         <v>"10":25</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C12">
@@ -2301,66 +2257,62 @@
         <v>20</v>
       </c>
       <c r="H12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="M12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="N12">
         <v>4</v>
       </c>
       <c r="O12">
-        <f t="shared" si="1"/>
-        <v>9.75</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>4</v>
-      </c>
-      <c r="Q12">
         <v>2800</v>
       </c>
-      <c r="R12" t="s">
-        <v>10</v>
-      </c>
-      <c r="T12">
+      <c r="Q12" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12">
         <v>20</v>
       </c>
-      <c r="V12">
+      <c r="U12">
         <v>270</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="9"/>
+        <v>1370</v>
       </c>
       <c r="X12">
         <f t="shared" si="10"/>
-        <v>1370</v>
-      </c>
-      <c r="Y12">
+        <v>140</v>
+      </c>
+      <c r="Y12" t="str">
         <f t="shared" si="11"/>
-        <v>140</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800</v>
       </c>
       <c r="Z12" t="str">
         <f t="shared" si="12"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800</v>
+        <v>,"2":20,"6":35,"10":25</v>
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="13"/>
-        <v>,"2":20,"6":35,"10":25</v>
+        <v>"11":2800</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="14"/>
-        <v>"11":2800</v>
-      </c>
-      <c r="AC12" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C13" t="str">
@@ -2377,66 +2329,62 @@
         <v>22</v>
       </c>
       <c r="H13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="N13">
         <v>7</v>
       </c>
       <c r="O13">
-        <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>4</v>
-      </c>
-      <c r="Q13">
         <v>3000</v>
       </c>
-      <c r="R13" t="s">
-        <v>7</v>
-      </c>
-      <c r="U13">
+      <c r="Q13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13">
         <v>15</v>
       </c>
+      <c r="V13">
+        <v>45</v>
+      </c>
       <c r="W13">
-        <v>45</v>
+        <f t="shared" si="9"/>
+        <v>1370</v>
       </c>
       <c r="X13">
         <f t="shared" si="10"/>
-        <v>1370</v>
-      </c>
-      <c r="Y13">
+        <v>185</v>
+      </c>
+      <c r="Y13" t="str">
         <f t="shared" si="11"/>
-        <v>185</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000</v>
       </c>
       <c r="Z13" t="str">
         <f t="shared" si="12"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000</v>
+        <v>,"2":20,"6":35,"10":25</v>
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="13"/>
-        <v>,"2":20,"6":35,"10":25</v>
+        <v>"12":3000</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="14"/>
-        <v>"12":3000</v>
-      </c>
-      <c r="AC13" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C14">
@@ -2447,78 +2395,74 @@
         <v>26</v>
       </c>
       <c r="H14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" t="s">
         <v>72</v>
       </c>
-      <c r="J14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" t="s">
-        <v>74</v>
-      </c>
       <c r="L14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="N14">
         <v>3</v>
       </c>
       <c r="O14">
-        <f t="shared" si="1"/>
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>4</v>
-      </c>
-      <c r="Q14">
         <v>3200</v>
       </c>
-      <c r="R14" t="s">
-        <v>10</v>
-      </c>
-      <c r="T14">
+      <c r="Q14" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14">
         <v>25</v>
       </c>
-      <c r="V14">
+      <c r="U14">
         <v>310</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="9"/>
+        <v>1680</v>
       </c>
       <c r="X14">
         <f t="shared" si="10"/>
-        <v>1680</v>
-      </c>
-      <c r="Y14">
+        <v>185</v>
+      </c>
+      <c r="Y14" t="str">
         <f t="shared" si="11"/>
-        <v>185</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200</v>
       </c>
       <c r="Z14" t="str">
         <f t="shared" si="12"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200</v>
+        <v>,"2":20,"6":35,"10":25</v>
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="13"/>
-        <v>,"2":20,"6":35,"10":25</v>
+        <v>"13":3200</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="14"/>
-        <v>"13":3200</v>
-      </c>
-      <c r="AC14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C15">
@@ -2529,72 +2473,68 @@
         <v>30</v>
       </c>
       <c r="H15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="N15">
         <v>6</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
-        <v>13.75</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>4</v>
-      </c>
-      <c r="Q15">
         <v>3500</v>
       </c>
-      <c r="R15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U15">
+      <c r="Q15" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15">
         <v>20</v>
       </c>
+      <c r="V15">
+        <v>25</v>
+      </c>
       <c r="W15">
-        <v>25</v>
+        <f t="shared" si="9"/>
+        <v>1680</v>
       </c>
       <c r="X15">
         <f t="shared" si="10"/>
-        <v>1680</v>
-      </c>
-      <c r="Y15">
+        <v>210</v>
+      </c>
+      <c r="Y15" t="str">
         <f t="shared" si="11"/>
-        <v>210</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500</v>
       </c>
       <c r="Z15" t="str">
         <f t="shared" si="12"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500</v>
+        <v>,"2":20,"6":35,"10":25</v>
       </c>
       <c r="AA15" t="str">
         <f t="shared" si="13"/>
-        <v>,"2":20,"6":35,"10":25</v>
+        <v>"14":3500</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="14"/>
-        <v>"14":3500</v>
-      </c>
-      <c r="AC15" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C16">
@@ -2605,69 +2545,65 @@
         <v>36</v>
       </c>
       <c r="H16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="N16">
         <v>7</v>
       </c>
       <c r="O16">
-        <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>4</v>
-      </c>
-      <c r="Q16">
         <v>7900</v>
       </c>
-      <c r="R16" t="s">
-        <v>5</v>
-      </c>
-      <c r="S16">
+      <c r="Q16" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16">
         <v>40</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="9"/>
+        <v>1680</v>
       </c>
       <c r="X16">
         <f t="shared" si="10"/>
-        <v>1680</v>
-      </c>
-      <c r="Y16">
+        <v>210</v>
+      </c>
+      <c r="Y16" t="str">
         <f t="shared" si="11"/>
-        <v>210</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900</v>
       </c>
       <c r="Z16" t="str">
         <f t="shared" si="12"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900</v>
+        <v>,"2":20,"6":35,"10":25,"15":40</v>
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="13"/>
-        <v>,"2":20,"6":35,"10":25,"15":40</v>
+        <v>"15":7900</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="14"/>
-        <v>"15":7900</v>
-      </c>
-      <c r="AC16" t="str">
-        <f t="shared" si="15"/>
         <v>"15":40</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C17">
@@ -2678,75 +2614,71 @@
         <v>39</v>
       </c>
       <c r="H17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="N17">
         <v>4</v>
       </c>
       <c r="O17">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>4</v>
-      </c>
-      <c r="Q17">
         <v>4600</v>
       </c>
-      <c r="R17" t="s">
-        <v>7</v>
-      </c>
-      <c r="U17">
+      <c r="Q17" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17">
         <v>25</v>
       </c>
+      <c r="V17">
+        <v>25</v>
+      </c>
       <c r="W17">
-        <v>25</v>
+        <f t="shared" si="9"/>
+        <v>1680</v>
       </c>
       <c r="X17">
         <f t="shared" si="10"/>
-        <v>1680</v>
-      </c>
-      <c r="Y17">
+        <v>235</v>
+      </c>
+      <c r="Y17" t="str">
         <f t="shared" si="11"/>
-        <v>235</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600</v>
       </c>
       <c r="Z17" t="str">
         <f t="shared" si="12"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600</v>
+        <v>,"2":20,"6":35,"10":25,"15":40</v>
       </c>
       <c r="AA17" t="str">
         <f t="shared" si="13"/>
-        <v>,"2":20,"6":35,"10":25,"15":40</v>
+        <v>"16":4600</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="14"/>
-        <v>"16":4600</v>
-      </c>
-      <c r="AC17" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C18">
@@ -2757,72 +2689,68 @@
         <v>48</v>
       </c>
       <c r="H18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="N18">
         <v>6</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>4</v>
-      </c>
-      <c r="Q18">
         <v>4900</v>
       </c>
-      <c r="R18" t="s">
-        <v>10</v>
-      </c>
-      <c r="T18">
+      <c r="Q18" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18">
         <v>30</v>
       </c>
-      <c r="V18">
+      <c r="U18">
         <v>340</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="9"/>
+        <v>2020</v>
       </c>
       <c r="X18">
         <f t="shared" si="10"/>
-        <v>2020</v>
-      </c>
-      <c r="Y18">
+        <v>235</v>
+      </c>
+      <c r="Y18" t="str">
         <f t="shared" si="11"/>
-        <v>235</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900</v>
       </c>
       <c r="Z18" t="str">
         <f t="shared" si="12"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900</v>
+        <v>,"2":20,"6":35,"10":25,"15":40</v>
       </c>
       <c r="AA18" t="str">
         <f t="shared" si="13"/>
-        <v>,"2":20,"6":35,"10":25,"15":40</v>
+        <v>"17":4900</v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="14"/>
-        <v>"17":4900</v>
-      </c>
-      <c r="AC18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C19" t="str">
@@ -2839,75 +2767,71 @@
         <v>51</v>
       </c>
       <c r="H19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="N19">
         <v>5</v>
       </c>
       <c r="O19">
-        <f t="shared" si="1"/>
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="P19">
+        <v>5400</v>
+      </c>
+      <c r="Q19" t="s">
         <v>5</v>
       </c>
-      <c r="Q19">
-        <v>5400</v>
-      </c>
-      <c r="R19" t="s">
-        <v>7</v>
-      </c>
-      <c r="U19">
+      <c r="T19">
         <v>20</v>
       </c>
+      <c r="V19">
+        <v>25</v>
+      </c>
       <c r="W19">
-        <v>25</v>
+        <f t="shared" si="6"/>
+        <v>2020</v>
       </c>
       <c r="X19">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="Y19" t="str">
         <f t="shared" si="7"/>
-        <v>2020</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="5"/>
-        <v>260</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400</v>
       </c>
       <c r="Z19" t="str">
         <f t="shared" si="8"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400</v>
+        <v>,"2":20,"6":35,"10":25,"15":40</v>
       </c>
       <c r="AA19" t="str">
-        <f t="shared" si="9"/>
-        <v>,"2":20,"6":35,"10":25,"15":40</v>
+        <f t="shared" ref="AA19:AA50" si="15">""""&amp;$A19&amp;""""&amp;""&amp;":"&amp;P19</f>
+        <v>"18":5400</v>
       </c>
       <c r="AB19" t="str">
-        <f t="shared" ref="AB19:AB50" si="16">""""&amp;$A19&amp;""""&amp;""&amp;":"&amp;Q19</f>
-        <v>"18":5400</v>
-      </c>
-      <c r="AC19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C20">
@@ -2918,78 +2842,74 @@
         <v>54</v>
       </c>
       <c r="H20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="N20">
         <v>4</v>
       </c>
       <c r="O20">
-        <f t="shared" si="1"/>
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>5</v>
-      </c>
-      <c r="Q20">
         <v>5800</v>
       </c>
-      <c r="R20" t="s">
-        <v>11</v>
+      <c r="Q20" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20">
+        <v>20</v>
       </c>
       <c r="T20">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U20">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="V20">
-        <v>240</v>
+        <v>35</v>
       </c>
       <c r="W20">
-        <v>35</v>
+        <f t="shared" si="6"/>
+        <v>2260</v>
       </c>
       <c r="X20">
+        <f t="shared" si="4"/>
+        <v>295</v>
+      </c>
+      <c r="Y20" t="str">
         <f t="shared" si="7"/>
-        <v>2260</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="5"/>
-        <v>295</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800</v>
       </c>
       <c r="Z20" t="str">
         <f t="shared" si="8"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800</v>
+        <v>,"2":20,"6":35,"10":25,"15":40</v>
       </c>
       <c r="AA20" t="str">
-        <f t="shared" si="9"/>
-        <v>,"2":20,"6":35,"10":25,"15":40</v>
+        <f t="shared" si="15"/>
+        <v>"19":5800</v>
       </c>
       <c r="AB20" t="str">
-        <f t="shared" si="16"/>
-        <v>"19":5800</v>
-      </c>
-      <c r="AC20" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C21" t="str">
@@ -3006,72 +2926,68 @@
         <v>59</v>
       </c>
       <c r="H21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" t="s">
         <v>78</v>
       </c>
-      <c r="L21" t="s">
-        <v>80</v>
-      </c>
       <c r="M21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="N21">
         <v>6</v>
       </c>
       <c r="O21">
-        <f t="shared" si="1"/>
-        <v>17.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>5</v>
-      </c>
-      <c r="Q21">
         <v>12500</v>
       </c>
-      <c r="R21" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21">
+      <c r="Q21" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21">
         <v>30</v>
+      </c>
+      <c r="W21">
+        <f t="shared" ref="W21:W77" si="16">W20+U21</f>
+        <v>2260</v>
       </c>
       <c r="X21">
         <f t="shared" ref="X21:X77" si="17">X20+V21</f>
-        <v>2260</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" ref="Y21:Y77" si="18">Y20+W21</f>
         <v>295</v>
       </c>
+      <c r="Y21" t="str">
+        <f t="shared" ref="Y21:Y77" si="18">Y20&amp;","&amp;AA21</f>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500</v>
+      </c>
       <c r="Z21" t="str">
-        <f t="shared" ref="Z21:Z77" si="19">Z20&amp;","&amp;AB21</f>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500</v>
+        <f t="shared" ref="Z21:Z77" si="19">Z20&amp;IF(LEN(AB21)=0,"",","&amp;AB21)</f>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30</v>
       </c>
       <c r="AA21" t="str">
-        <f t="shared" ref="AA21:AA77" si="20">AA20&amp;IF(LEN(AC21)=0,"",","&amp;AC21)</f>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30</v>
+        <f t="shared" si="15"/>
+        <v>"20":12500</v>
       </c>
       <c r="AB21" t="str">
-        <f t="shared" si="16"/>
-        <v>"20":12500</v>
-      </c>
-      <c r="AC21" t="str">
-        <f t="shared" ref="AC21:AC77" si="21">IF(ISBLANK(S21),"",""""&amp;$A21&amp;""""&amp;""&amp;":"&amp;S21)</f>
+        <f t="shared" ref="AB21:AB77" si="20">IF(ISBLANK(R21),"",""""&amp;$A21&amp;""""&amp;""&amp;":"&amp;R21)</f>
         <v>"20":30</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C22">
@@ -3082,78 +2998,74 @@
         <v>64</v>
       </c>
       <c r="H22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="N22">
         <v>5</v>
       </c>
       <c r="O22">
-        <f t="shared" si="1"/>
-        <v>18.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>5</v>
-      </c>
-      <c r="Q22">
         <v>6600</v>
       </c>
-      <c r="R22" t="s">
-        <v>24</v>
+      <c r="Q22" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22">
+        <v>25</v>
       </c>
       <c r="T22">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U22">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="V22">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="W22">
-        <v>40</v>
+        <f t="shared" si="16"/>
+        <v>2510</v>
       </c>
       <c r="X22">
         <f t="shared" si="17"/>
-        <v>2510</v>
-      </c>
-      <c r="Y22">
+        <v>335</v>
+      </c>
+      <c r="Y22" t="str">
         <f t="shared" si="18"/>
-        <v>335</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600</v>
       </c>
       <c r="Z22" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30</v>
       </c>
       <c r="AA22" t="str">
+        <f t="shared" si="15"/>
+        <v>"21":6600</v>
+      </c>
+      <c r="AB22" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30</v>
-      </c>
-      <c r="AB22" t="str">
-        <f t="shared" si="16"/>
-        <v>"21":6600</v>
-      </c>
-      <c r="AC22" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C23">
@@ -3164,78 +3076,74 @@
         <v>73</v>
       </c>
       <c r="H23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="N23">
         <v>7</v>
       </c>
       <c r="O23">
-        <f t="shared" si="1"/>
-        <v>19.8</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>5</v>
-      </c>
-      <c r="Q23">
         <v>7000</v>
       </c>
-      <c r="R23" t="s">
-        <v>23</v>
-      </c>
-      <c r="T23">
+      <c r="Q23" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23">
         <v>30</v>
       </c>
-      <c r="V23">
+      <c r="U23">
         <v>240</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="16"/>
+        <v>2750</v>
       </c>
       <c r="X23">
         <f t="shared" si="17"/>
-        <v>2750</v>
-      </c>
-      <c r="Y23">
+        <v>335</v>
+      </c>
+      <c r="Y23" t="str">
         <f t="shared" si="18"/>
-        <v>335</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000</v>
       </c>
       <c r="Z23" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30</v>
       </c>
       <c r="AA23" t="str">
+        <f t="shared" si="15"/>
+        <v>"22":7000</v>
+      </c>
+      <c r="AB23" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30</v>
-      </c>
-      <c r="AB23" t="str">
-        <f t="shared" si="16"/>
-        <v>"22":7000</v>
-      </c>
-      <c r="AC23" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C24">
@@ -3246,75 +3154,71 @@
         <v>80</v>
       </c>
       <c r="H24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
       <c r="N24">
         <v>5</v>
       </c>
       <c r="O24">
-        <f t="shared" si="1"/>
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>5</v>
-      </c>
-      <c r="Q24">
         <v>6800</v>
       </c>
-      <c r="R24" t="s">
-        <v>25</v>
-      </c>
-      <c r="U24">
+      <c r="Q24" t="s">
+        <v>23</v>
+      </c>
+      <c r="T24">
         <v>20</v>
       </c>
+      <c r="V24">
+        <v>45</v>
+      </c>
       <c r="W24">
-        <v>45</v>
+        <f t="shared" si="16"/>
+        <v>2750</v>
       </c>
       <c r="X24">
         <f t="shared" si="17"/>
-        <v>2750</v>
-      </c>
-      <c r="Y24">
+        <v>380</v>
+      </c>
+      <c r="Y24" t="str">
         <f t="shared" si="18"/>
-        <v>380</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800</v>
       </c>
       <c r="Z24" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30</v>
       </c>
       <c r="AA24" t="str">
+        <f t="shared" si="15"/>
+        <v>"23":6800</v>
+      </c>
+      <c r="AB24" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30</v>
-      </c>
-      <c r="AB24" t="str">
-        <f t="shared" si="16"/>
-        <v>"23":6800</v>
-      </c>
-      <c r="AC24" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C25">
@@ -3325,72 +3229,68 @@
         <v>88</v>
       </c>
       <c r="H25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
       <c r="N25">
         <v>8</v>
       </c>
       <c r="O25">
-        <f t="shared" si="1"/>
-        <v>22.4</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>5</v>
-      </c>
-      <c r="Q25">
         <v>7500</v>
       </c>
-      <c r="R25" t="s">
-        <v>28</v>
-      </c>
-      <c r="T25">
+      <c r="Q25" t="s">
+        <v>26</v>
+      </c>
+      <c r="S25">
         <v>35</v>
       </c>
-      <c r="V25">
+      <c r="U25">
         <v>230</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="16"/>
+        <v>2980</v>
       </c>
       <c r="X25">
         <f t="shared" si="17"/>
-        <v>2980</v>
-      </c>
-      <c r="Y25">
+        <v>380</v>
+      </c>
+      <c r="Y25" t="str">
         <f t="shared" si="18"/>
-        <v>380</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500</v>
       </c>
       <c r="Z25" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30</v>
       </c>
       <c r="AA25" t="str">
+        <f t="shared" si="15"/>
+        <v>"24":7500</v>
+      </c>
+      <c r="AB25" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30</v>
-      </c>
-      <c r="AB25" t="str">
-        <f t="shared" si="16"/>
-        <v>"24":7500</v>
-      </c>
-      <c r="AC25" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C26" t="str">
@@ -3407,72 +3307,68 @@
         <v>94</v>
       </c>
       <c r="H26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s">
+        <v>85</v>
+      </c>
+      <c r="L26" t="s">
         <v>87</v>
       </c>
-      <c r="L26" t="s">
-        <v>89</v>
-      </c>
       <c r="M26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>118</v>
       </c>
       <c r="N26">
         <v>6</v>
       </c>
       <c r="O26">
-        <f t="shared" si="1"/>
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>5</v>
-      </c>
-      <c r="Q26">
         <v>19500</v>
       </c>
-      <c r="R26" t="s">
-        <v>29</v>
-      </c>
-      <c r="S26">
+      <c r="Q26" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26">
         <v>35</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="16"/>
+        <v>2980</v>
       </c>
       <c r="X26">
         <f t="shared" si="17"/>
-        <v>2980</v>
-      </c>
-      <c r="Y26">
+        <v>380</v>
+      </c>
+      <c r="Y26" t="str">
         <f t="shared" si="18"/>
-        <v>380</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500</v>
       </c>
       <c r="Z26" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35</v>
       </c>
       <c r="AA26" t="str">
+        <f t="shared" si="15"/>
+        <v>"25":19500</v>
+      </c>
+      <c r="AB26" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35</v>
-      </c>
-      <c r="AB26" t="str">
-        <f t="shared" si="16"/>
-        <v>"25":19500</v>
-      </c>
-      <c r="AC26" t="str">
-        <f t="shared" si="21"/>
         <v>"25":35</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C27">
@@ -3483,75 +3379,71 @@
         <v>102</v>
       </c>
       <c r="H27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" t="s">
         <v>64</v>
       </c>
-      <c r="L27" t="s">
-        <v>66</v>
-      </c>
       <c r="M27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>122</v>
       </c>
       <c r="N27">
         <v>4</v>
       </c>
       <c r="O27">
-        <f t="shared" si="1"/>
-        <v>20.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>6</v>
-      </c>
-      <c r="Q27">
         <v>9000</v>
       </c>
-      <c r="R27" t="s">
-        <v>28</v>
-      </c>
-      <c r="T27">
+      <c r="Q27" t="s">
+        <v>26</v>
+      </c>
+      <c r="S27">
         <v>30</v>
       </c>
-      <c r="V27">
+      <c r="U27">
         <v>280</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="16"/>
+        <v>3260</v>
       </c>
       <c r="X27">
         <f t="shared" si="17"/>
-        <v>3260</v>
-      </c>
-      <c r="Y27">
+        <v>380</v>
+      </c>
+      <c r="Y27" t="str">
         <f t="shared" si="18"/>
-        <v>380</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000</v>
       </c>
       <c r="Z27" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35</v>
       </c>
       <c r="AA27" t="str">
+        <f t="shared" si="15"/>
+        <v>"26":9000</v>
+      </c>
+      <c r="AB27" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35</v>
-      </c>
-      <c r="AB27" t="str">
-        <f t="shared" si="16"/>
-        <v>"26":9000</v>
-      </c>
-      <c r="AC27" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C28" t="str">
@@ -3568,72 +3460,68 @@
         <v>106</v>
       </c>
       <c r="H28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>131</v>
       </c>
       <c r="N28">
         <v>9</v>
       </c>
       <c r="O28">
-        <f t="shared" si="1"/>
-        <v>21.833333333333332</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>6</v>
-      </c>
-      <c r="Q28">
         <v>9400</v>
       </c>
-      <c r="R28" t="s">
-        <v>27</v>
-      </c>
-      <c r="U28">
+      <c r="Q28" t="s">
         <v>25</v>
       </c>
+      <c r="T28">
+        <v>25</v>
+      </c>
+      <c r="V28">
+        <v>45</v>
+      </c>
       <c r="W28">
-        <v>45</v>
+        <f t="shared" si="16"/>
+        <v>3260</v>
       </c>
       <c r="X28">
         <f t="shared" si="17"/>
-        <v>3260</v>
-      </c>
-      <c r="Y28">
+        <v>425</v>
+      </c>
+      <c r="Y28" t="str">
         <f t="shared" si="18"/>
-        <v>425</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400</v>
       </c>
       <c r="Z28" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35</v>
       </c>
       <c r="AA28" t="str">
+        <f t="shared" si="15"/>
+        <v>"27":9400</v>
+      </c>
+      <c r="AB28" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35</v>
-      </c>
-      <c r="AB28" t="str">
-        <f t="shared" si="16"/>
-        <v>"27":9400</v>
-      </c>
-      <c r="AC28" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C29">
@@ -3644,72 +3532,68 @@
         <v>114</v>
       </c>
       <c r="H29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>135</v>
       </c>
       <c r="N29">
         <v>4</v>
       </c>
       <c r="O29">
-        <f t="shared" si="1"/>
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>6</v>
-      </c>
-      <c r="Q29">
         <v>24000</v>
       </c>
-      <c r="R29" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29">
+      <c r="Q29" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29">
         <v>20</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="16"/>
+        <v>3260</v>
       </c>
       <c r="X29">
         <f t="shared" si="17"/>
-        <v>3260</v>
-      </c>
-      <c r="Y29">
+        <v>425</v>
+      </c>
+      <c r="Y29" t="str">
         <f t="shared" si="18"/>
-        <v>425</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000</v>
       </c>
       <c r="Z29" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20</v>
       </c>
       <c r="AA29" t="str">
+        <f t="shared" si="15"/>
+        <v>"28":24000</v>
+      </c>
+      <c r="AB29" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20</v>
-      </c>
-      <c r="AB29" t="str">
-        <f t="shared" si="16"/>
-        <v>"28":24000</v>
-      </c>
-      <c r="AC29" t="str">
-        <f t="shared" si="21"/>
         <v>"28":20</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C30">
@@ -3720,75 +3604,71 @@
         <v>123</v>
       </c>
       <c r="H30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>142</v>
       </c>
       <c r="N30">
         <v>7</v>
       </c>
       <c r="O30">
-        <f t="shared" si="1"/>
-        <v>23.666666666666668</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>6</v>
-      </c>
-      <c r="Q30">
         <v>10200</v>
       </c>
-      <c r="R30" t="s">
-        <v>10</v>
-      </c>
-      <c r="T30">
+      <c r="Q30" t="s">
+        <v>8</v>
+      </c>
+      <c r="S30">
         <v>25</v>
       </c>
-      <c r="V30">
+      <c r="U30">
         <v>380</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="16"/>
+        <v>3640</v>
       </c>
       <c r="X30">
         <f t="shared" si="17"/>
-        <v>3640</v>
-      </c>
-      <c r="Y30">
+        <v>425</v>
+      </c>
+      <c r="Y30" t="str">
         <f t="shared" si="18"/>
-        <v>425</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200</v>
       </c>
       <c r="Z30" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20</v>
       </c>
       <c r="AA30" t="str">
+        <f t="shared" si="15"/>
+        <v>"29":10200</v>
+      </c>
+      <c r="AB30" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20</v>
-      </c>
-      <c r="AB30" t="str">
-        <f t="shared" si="16"/>
-        <v>"29":10200</v>
-      </c>
-      <c r="AC30" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C31">
@@ -3799,82 +3679,78 @@
         <v>129</v>
       </c>
       <c r="H31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>147</v>
       </c>
       <c r="N31">
         <v>5</v>
       </c>
       <c r="O31">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>7</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" ref="Q31" si="22">Q30+200</f>
+        <f t="shared" ref="P31" si="21">P30+200</f>
         <v>10400</v>
       </c>
-      <c r="R31" t="s">
-        <v>11</v>
+      <c r="Q31" t="s">
+        <v>9</v>
+      </c>
+      <c r="S31">
+        <v>20</v>
       </c>
       <c r="T31">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U31">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="V31">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="W31">
-        <v>50</v>
+        <f t="shared" si="16"/>
+        <v>4040</v>
       </c>
       <c r="X31">
         <f t="shared" si="17"/>
-        <v>4040</v>
-      </c>
-      <c r="Y31">
+        <v>475</v>
+      </c>
+      <c r="Y31" t="str">
         <f t="shared" si="18"/>
-        <v>475</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400</v>
       </c>
       <c r="Z31" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20</v>
       </c>
       <c r="AA31" t="str">
+        <f t="shared" si="15"/>
+        <v>"30":10400</v>
+      </c>
+      <c r="AB31" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20</v>
-      </c>
-      <c r="AB31" t="str">
-        <f t="shared" si="16"/>
-        <v>"30":10400</v>
-      </c>
-      <c r="AC31" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C32">
@@ -3885,72 +3761,68 @@
         <v>138</v>
       </c>
       <c r="H32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>154</v>
       </c>
       <c r="N32">
         <v>7</v>
       </c>
       <c r="O32">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>7</v>
-      </c>
-      <c r="Q32">
         <v>10800</v>
       </c>
-      <c r="R32" t="s">
-        <v>27</v>
-      </c>
-      <c r="U32">
+      <c r="Q32" t="s">
+        <v>25</v>
+      </c>
+      <c r="T32">
         <v>20</v>
       </c>
+      <c r="V32">
+        <v>50</v>
+      </c>
       <c r="W32">
-        <v>50</v>
+        <f t="shared" si="16"/>
+        <v>4040</v>
       </c>
       <c r="X32">
         <f t="shared" si="17"/>
-        <v>4040</v>
-      </c>
-      <c r="Y32">
+        <v>525</v>
+      </c>
+      <c r="Y32" t="str">
         <f t="shared" si="18"/>
-        <v>525</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800</v>
       </c>
       <c r="Z32" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20</v>
       </c>
       <c r="AA32" t="str">
+        <f t="shared" si="15"/>
+        <v>"31":10800</v>
+      </c>
+      <c r="AB32" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20</v>
-      </c>
-      <c r="AB32" t="str">
-        <f t="shared" si="16"/>
-        <v>"31":10800</v>
-      </c>
-      <c r="AC32" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C33" t="str">
@@ -3967,76 +3839,72 @@
         <v>145</v>
       </c>
       <c r="H33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>159</v>
       </c>
       <c r="N33">
         <v>5</v>
       </c>
       <c r="O33">
-        <f t="shared" si="1"/>
-        <v>22.714285714285715</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>7</v>
-      </c>
-      <c r="Q33">
         <v>11000</v>
       </c>
-      <c r="R33" t="s">
-        <v>23</v>
-      </c>
-      <c r="T33">
+      <c r="Q33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S33">
         <v>30</v>
       </c>
-      <c r="V33">
+      <c r="U33">
         <v>490</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="16"/>
+        <v>4530</v>
       </c>
       <c r="X33">
         <f t="shared" si="17"/>
-        <v>4530</v>
-      </c>
-      <c r="Y33">
+        <v>525</v>
+      </c>
+      <c r="Y33" t="str">
         <f t="shared" si="18"/>
-        <v>525</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000</v>
       </c>
       <c r="Z33" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20</v>
       </c>
       <c r="AA33" t="str">
+        <f t="shared" si="15"/>
+        <v>"32":11000</v>
+      </c>
+      <c r="AB33" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20</v>
-      </c>
-      <c r="AB33" t="str">
-        <f t="shared" si="16"/>
-        <v>"32":11000</v>
-      </c>
-      <c r="AC33" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C65" si="23">IF(NOT(ISBLANK(D34)),D34,
+        <f t="shared" ref="C34:C65" si="22">IF(NOT(ISBLANK(D34)),D34,
 IF(ISBLANK(E34),M34,""))</f>
         <v>164</v>
       </c>
@@ -4044,76 +3912,72 @@
         <v>154</v>
       </c>
       <c r="H34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>164</v>
       </c>
       <c r="N34">
         <v>5</v>
       </c>
       <c r="O34">
-        <f t="shared" ref="O34:O65" si="24">M34/P34</f>
-        <v>23.428571428571427</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>7</v>
-      </c>
-      <c r="Q34">
         <v>11200</v>
       </c>
-      <c r="R34" t="s">
-        <v>27</v>
-      </c>
-      <c r="U34">
+      <c r="Q34" t="s">
+        <v>25</v>
+      </c>
+      <c r="T34">
         <v>20</v>
       </c>
+      <c r="V34">
+        <v>60</v>
+      </c>
       <c r="W34">
-        <v>60</v>
+        <f t="shared" si="16"/>
+        <v>4530</v>
       </c>
       <c r="X34">
         <f t="shared" si="17"/>
-        <v>4530</v>
-      </c>
-      <c r="Y34">
+        <v>585</v>
+      </c>
+      <c r="Y34" t="str">
         <f t="shared" si="18"/>
-        <v>585</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200</v>
       </c>
       <c r="Z34" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20</v>
       </c>
       <c r="AA34" t="str">
+        <f t="shared" si="15"/>
+        <v>"33":11200</v>
+      </c>
+      <c r="AB34" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20</v>
-      </c>
-      <c r="AB34" t="str">
-        <f t="shared" si="16"/>
-        <v>"33":11200</v>
-      </c>
-      <c r="AC34" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E35">
@@ -4126,234 +3990,222 @@
         <v>166</v>
       </c>
       <c r="H35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="I35" t="s">
+        <v>101</v>
+      </c>
+      <c r="J35" t="s">
+        <v>100</v>
+      </c>
+      <c r="K35" t="s">
+        <v>102</v>
+      </c>
+      <c r="L35" t="s">
         <v>103</v>
       </c>
-      <c r="J35" t="s">
-        <v>102</v>
-      </c>
-      <c r="K35" t="s">
-        <v>104</v>
-      </c>
-      <c r="L35" t="s">
-        <v>105</v>
-      </c>
       <c r="M35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>173</v>
       </c>
       <c r="N35">
         <v>9</v>
       </c>
       <c r="O35">
-        <f t="shared" si="24"/>
-        <v>21.625</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>8</v>
-      </c>
-      <c r="Q35">
         <v>28000</v>
       </c>
-      <c r="R35" t="s">
-        <v>29</v>
-      </c>
-      <c r="S35">
+      <c r="Q35" t="s">
+        <v>27</v>
+      </c>
+      <c r="R35">
         <v>40</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="16"/>
+        <v>4530</v>
       </c>
       <c r="X35">
         <f t="shared" si="17"/>
-        <v>4530</v>
-      </c>
-      <c r="Y35">
+        <v>585</v>
+      </c>
+      <c r="Y35" t="str">
         <f t="shared" si="18"/>
-        <v>585</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000</v>
       </c>
       <c r="Z35" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40</v>
       </c>
       <c r="AA35" t="str">
+        <f t="shared" si="15"/>
+        <v>"34":28000</v>
+      </c>
+      <c r="AB35" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40</v>
-      </c>
-      <c r="AB35" t="str">
-        <f t="shared" si="16"/>
-        <v>"34":28000</v>
-      </c>
-      <c r="AC35" t="str">
-        <f t="shared" si="21"/>
         <v>"34":40</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>181</v>
       </c>
       <c r="G36">
         <v>178</v>
       </c>
       <c r="H36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>181</v>
       </c>
       <c r="N36">
         <v>8</v>
       </c>
       <c r="O36">
-        <f t="shared" si="24"/>
-        <v>22.625</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>8</v>
-      </c>
-      <c r="Q36">
         <v>13500</v>
       </c>
-      <c r="R36" t="s">
-        <v>28</v>
-      </c>
-      <c r="T36">
+      <c r="Q36" t="s">
+        <v>26</v>
+      </c>
+      <c r="S36">
         <v>35</v>
       </c>
-      <c r="V36">
+      <c r="U36">
         <v>500</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="16"/>
+        <v>5030</v>
       </c>
       <c r="X36">
         <f t="shared" si="17"/>
-        <v>5030</v>
-      </c>
-      <c r="Y36">
+        <v>585</v>
+      </c>
+      <c r="Y36" t="str">
         <f t="shared" si="18"/>
-        <v>585</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500</v>
       </c>
       <c r="Z36" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40</v>
       </c>
       <c r="AA36" t="str">
+        <f t="shared" si="15"/>
+        <v>"35":13500</v>
+      </c>
+      <c r="AB36" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40</v>
-      </c>
-      <c r="AB36" t="str">
-        <f t="shared" si="16"/>
-        <v>"35":13500</v>
-      </c>
-      <c r="AC36" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C37">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>190</v>
       </c>
       <c r="G37">
         <v>192</v>
       </c>
       <c r="H37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="I37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
       <c r="N37">
         <v>9</v>
       </c>
       <c r="O37">
-        <f t="shared" si="24"/>
-        <v>23.75</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>8</v>
-      </c>
-      <c r="Q37">
         <v>13800</v>
       </c>
-      <c r="R37" t="s">
-        <v>27</v>
-      </c>
-      <c r="U37">
+      <c r="Q37" t="s">
         <v>25</v>
       </c>
+      <c r="T37">
+        <v>25</v>
+      </c>
+      <c r="V37">
+        <v>80</v>
+      </c>
       <c r="W37">
-        <v>80</v>
+        <f t="shared" si="16"/>
+        <v>5030</v>
       </c>
       <c r="X37">
         <f t="shared" si="17"/>
-        <v>5030</v>
-      </c>
-      <c r="Y37">
+        <v>665</v>
+      </c>
+      <c r="Y37" t="str">
         <f t="shared" si="18"/>
-        <v>665</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800</v>
       </c>
       <c r="Z37" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40</v>
       </c>
       <c r="AA37" t="str">
+        <f t="shared" si="15"/>
+        <v>"36":13800</v>
+      </c>
+      <c r="AB37" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40</v>
-      </c>
-      <c r="AB37" t="str">
-        <f t="shared" si="16"/>
-        <v>"36":13800</v>
-      </c>
-      <c r="AC37" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E38">
@@ -4366,164 +4218,156 @@
         <v>202</v>
       </c>
       <c r="H38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="I38" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" t="s">
+        <v>108</v>
+      </c>
+      <c r="K38" t="s">
+        <v>110</v>
+      </c>
+      <c r="L38" t="s">
         <v>111</v>
       </c>
-      <c r="J38" t="s">
-        <v>110</v>
-      </c>
-      <c r="K38" t="s">
-        <v>112</v>
-      </c>
-      <c r="L38" t="s">
-        <v>113</v>
-      </c>
       <c r="M38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>196</v>
       </c>
       <c r="N38">
         <v>6</v>
       </c>
       <c r="O38">
-        <f t="shared" si="24"/>
-        <v>21.777777777777779</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>9</v>
-      </c>
-      <c r="Q38">
         <v>13200</v>
       </c>
-      <c r="R38" t="s">
-        <v>28</v>
-      </c>
-      <c r="T38">
+      <c r="Q38" t="s">
+        <v>26</v>
+      </c>
+      <c r="S38">
         <v>30</v>
       </c>
-      <c r="V38">
+      <c r="U38">
         <v>520</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="16"/>
+        <v>5550</v>
       </c>
       <c r="X38">
         <f t="shared" si="17"/>
-        <v>5550</v>
-      </c>
-      <c r="Y38">
+        <v>665</v>
+      </c>
+      <c r="Y38" t="str">
         <f t="shared" si="18"/>
-        <v>665</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200</v>
       </c>
       <c r="Z38" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40</v>
       </c>
       <c r="AA38" t="str">
+        <f t="shared" si="15"/>
+        <v>"37":13200</v>
+      </c>
+      <c r="AB38" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40</v>
-      </c>
-      <c r="AB38" t="str">
-        <f t="shared" si="16"/>
-        <v>"37":13200</v>
-      </c>
-      <c r="AC38" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>201</v>
       </c>
       <c r="G39">
         <v>210</v>
       </c>
       <c r="H39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>201</v>
       </c>
       <c r="N39">
         <v>5</v>
       </c>
       <c r="O39">
-        <f t="shared" si="24"/>
-        <v>22.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>9</v>
-      </c>
-      <c r="Q39">
         <v>13600</v>
       </c>
-      <c r="R39" t="s">
-        <v>40</v>
+      <c r="Q39" t="s">
+        <v>38</v>
+      </c>
+      <c r="S39">
+        <v>20</v>
       </c>
       <c r="T39">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U39">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="V39">
-        <v>600</v>
+        <v>130</v>
       </c>
       <c r="W39">
-        <v>130</v>
+        <f t="shared" si="16"/>
+        <v>6150</v>
       </c>
       <c r="X39">
         <f t="shared" si="17"/>
-        <v>6150</v>
-      </c>
-      <c r="Y39">
+        <v>795</v>
+      </c>
+      <c r="Y39" t="str">
         <f t="shared" si="18"/>
-        <v>795</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600</v>
       </c>
       <c r="Z39" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40</v>
       </c>
       <c r="AA39" t="str">
+        <f t="shared" si="15"/>
+        <v>"38":13600</v>
+      </c>
+      <c r="AB39" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40</v>
-      </c>
-      <c r="AB39" t="str">
-        <f t="shared" si="16"/>
-        <v>"38":13600</v>
-      </c>
-      <c r="AC39" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E40">
@@ -4536,237 +4380,225 @@
         <v>219</v>
       </c>
       <c r="H40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>209</v>
       </c>
       <c r="N40">
         <v>8</v>
       </c>
       <c r="O40">
-        <f t="shared" si="24"/>
-        <v>23.222222222222221</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>9</v>
-      </c>
-      <c r="Q40">
         <v>13400</v>
       </c>
-      <c r="R40" t="s">
-        <v>28</v>
-      </c>
-      <c r="T40">
+      <c r="Q40" t="s">
+        <v>26</v>
+      </c>
+      <c r="S40">
         <v>30</v>
       </c>
-      <c r="V40">
+      <c r="U40">
         <v>900</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="16"/>
+        <v>7050</v>
       </c>
       <c r="X40">
         <f t="shared" si="17"/>
-        <v>7050</v>
-      </c>
-      <c r="Y40">
+        <v>795</v>
+      </c>
+      <c r="Y40" t="str">
         <f t="shared" si="18"/>
-        <v>795</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400</v>
       </c>
       <c r="Z40" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40</v>
       </c>
       <c r="AA40" t="str">
+        <f t="shared" si="15"/>
+        <v>"39":13400</v>
+      </c>
+      <c r="AB40" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40</v>
-      </c>
-      <c r="AB40" t="str">
-        <f t="shared" si="16"/>
-        <v>"39":13400</v>
-      </c>
-      <c r="AC40" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C41">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>217</v>
       </c>
       <c r="G41">
         <v>236</v>
       </c>
       <c r="H41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>217</v>
       </c>
       <c r="N41">
         <v>8</v>
       </c>
       <c r="O41">
-        <f t="shared" si="24"/>
-        <v>24.111111111111111</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>9</v>
-      </c>
-      <c r="Q41">
         <v>13800</v>
       </c>
-      <c r="R41" t="s">
-        <v>25</v>
-      </c>
-      <c r="U41">
+      <c r="Q41" t="s">
+        <v>23</v>
+      </c>
+      <c r="T41">
         <v>20</v>
       </c>
+      <c r="V41">
+        <v>170</v>
+      </c>
       <c r="W41">
-        <v>170</v>
+        <f t="shared" si="16"/>
+        <v>7050</v>
       </c>
       <c r="X41">
         <f t="shared" si="17"/>
-        <v>7050</v>
-      </c>
-      <c r="Y41">
+        <v>965</v>
+      </c>
+      <c r="Y41" t="str">
         <f t="shared" si="18"/>
-        <v>965</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800</v>
       </c>
       <c r="Z41" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40</v>
       </c>
       <c r="AA41" t="str">
+        <f t="shared" si="15"/>
+        <v>"40":13800</v>
+      </c>
+      <c r="AB41" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40</v>
-      </c>
-      <c r="AB41" t="str">
-        <f t="shared" si="16"/>
-        <v>"40":13800</v>
-      </c>
-      <c r="AC41" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C42">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>225</v>
       </c>
       <c r="G42">
         <v>250</v>
       </c>
       <c r="H42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="I42" t="s">
+        <v>119</v>
+      </c>
+      <c r="J42" t="s">
+        <v>118</v>
+      </c>
+      <c r="K42" t="s">
+        <v>120</v>
+      </c>
+      <c r="L42" t="s">
         <v>121</v>
       </c>
-      <c r="J42" t="s">
-        <v>120</v>
-      </c>
-      <c r="K42" t="s">
-        <v>122</v>
-      </c>
-      <c r="L42" t="s">
-        <v>123</v>
-      </c>
       <c r="M42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="N42">
         <v>8</v>
       </c>
       <c r="O42">
-        <f t="shared" si="24"/>
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>10</v>
-      </c>
-      <c r="Q42">
         <v>13600</v>
       </c>
-      <c r="R42" t="s">
-        <v>28</v>
-      </c>
-      <c r="T42">
+      <c r="Q42" t="s">
+        <v>26</v>
+      </c>
+      <c r="S42">
         <v>30</v>
       </c>
-      <c r="V42">
+      <c r="U42">
         <v>1400</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="16"/>
+        <v>8450</v>
       </c>
       <c r="X42">
         <f t="shared" si="17"/>
-        <v>8450</v>
-      </c>
-      <c r="Y42">
+        <v>965</v>
+      </c>
+      <c r="Y42" t="str">
         <f t="shared" si="18"/>
-        <v>965</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600</v>
       </c>
       <c r="Z42" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40</v>
       </c>
       <c r="AA42" t="str">
+        <f t="shared" si="15"/>
+        <v>"41":13600</v>
+      </c>
+      <c r="AB42" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40</v>
-      </c>
-      <c r="AB42" t="str">
-        <f t="shared" si="16"/>
-        <v>"41":13600</v>
-      </c>
-      <c r="AC42" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E43">
@@ -4779,158 +4611,150 @@
         <v>262</v>
       </c>
       <c r="H43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>234</v>
       </c>
       <c r="N43">
         <v>9</v>
       </c>
       <c r="O43">
-        <f t="shared" si="24"/>
-        <v>23.4</v>
+        <v>1</v>
       </c>
       <c r="P43">
-        <v>10</v>
-      </c>
-      <c r="Q43">
         <v>13900</v>
       </c>
-      <c r="R43" t="s">
-        <v>27</v>
-      </c>
-      <c r="U43">
+      <c r="Q43" t="s">
+        <v>25</v>
+      </c>
+      <c r="T43">
         <v>20</v>
       </c>
+      <c r="V43">
+        <v>310</v>
+      </c>
       <c r="W43">
-        <v>310</v>
+        <f t="shared" si="16"/>
+        <v>8450</v>
       </c>
       <c r="X43">
         <f t="shared" si="17"/>
-        <v>8450</v>
-      </c>
-      <c r="Y43">
+        <v>1275</v>
+      </c>
+      <c r="Y43" t="str">
         <f t="shared" si="18"/>
-        <v>1275</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900</v>
       </c>
       <c r="Z43" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40</v>
       </c>
       <c r="AA43" t="str">
+        <f t="shared" si="15"/>
+        <v>"42":13900</v>
+      </c>
+      <c r="AB43" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40</v>
-      </c>
-      <c r="AB43" t="str">
-        <f t="shared" si="16"/>
-        <v>"42":13900</v>
-      </c>
-      <c r="AC43" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>244</v>
       </c>
       <c r="G44">
         <v>277</v>
       </c>
       <c r="H44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="I44" t="s">
+        <v>124</v>
+      </c>
+      <c r="J44" t="s">
+        <v>123</v>
+      </c>
+      <c r="K44" t="s">
+        <v>125</v>
+      </c>
+      <c r="L44" t="s">
         <v>126</v>
       </c>
-      <c r="J44" t="s">
-        <v>125</v>
-      </c>
-      <c r="K44" t="s">
-        <v>127</v>
-      </c>
-      <c r="L44" t="s">
-        <v>128</v>
-      </c>
       <c r="M44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>244</v>
       </c>
       <c r="N44">
         <v>10</v>
       </c>
       <c r="O44">
-        <f t="shared" si="24"/>
-        <v>24.4</v>
+        <v>1</v>
       </c>
       <c r="P44">
-        <v>10</v>
-      </c>
-      <c r="Q44">
         <v>13700</v>
       </c>
-      <c r="R44" t="s">
-        <v>23</v>
-      </c>
-      <c r="T44">
+      <c r="Q44" t="s">
+        <v>21</v>
+      </c>
+      <c r="S44">
         <v>30</v>
       </c>
-      <c r="V44">
+      <c r="U44">
         <v>1800</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="16"/>
+        <v>10250</v>
       </c>
       <c r="X44">
         <f t="shared" si="17"/>
-        <v>10250</v>
-      </c>
-      <c r="Y44">
+        <v>1275</v>
+      </c>
+      <c r="Y44" t="str">
         <f t="shared" si="18"/>
-        <v>1275</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700</v>
       </c>
       <c r="Z44" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40</v>
       </c>
       <c r="AA44" t="str">
+        <f t="shared" si="15"/>
+        <v>"43":13700</v>
+      </c>
+      <c r="AB44" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40</v>
-      </c>
-      <c r="AB44" t="str">
-        <f t="shared" si="16"/>
-        <v>"43":13700</v>
-      </c>
-      <c r="AC44" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E45">
@@ -4943,237 +4767,225 @@
         <v>296</v>
       </c>
       <c r="H45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="I45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K45" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>253</v>
       </c>
       <c r="N45">
         <v>9</v>
       </c>
       <c r="O45">
-        <f t="shared" si="24"/>
-        <v>25.3</v>
+        <v>1</v>
       </c>
       <c r="P45">
-        <v>10</v>
-      </c>
-      <c r="Q45">
         <v>37500</v>
       </c>
-      <c r="R45" t="s">
-        <v>26</v>
-      </c>
-      <c r="S45">
+      <c r="Q45" t="s">
+        <v>24</v>
+      </c>
+      <c r="R45">
         <v>50</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="16"/>
+        <v>10250</v>
       </c>
       <c r="X45">
         <f t="shared" si="17"/>
-        <v>10250</v>
-      </c>
-      <c r="Y45">
+        <v>1275</v>
+      </c>
+      <c r="Y45" t="str">
         <f t="shared" si="18"/>
-        <v>1275</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500</v>
       </c>
       <c r="Z45" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50</v>
       </c>
       <c r="AA45" t="str">
+        <f t="shared" si="15"/>
+        <v>"44":37500</v>
+      </c>
+      <c r="AB45" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50</v>
-      </c>
-      <c r="AB45" t="str">
-        <f t="shared" si="16"/>
-        <v>"44":37500</v>
-      </c>
-      <c r="AC45" t="str">
-        <f t="shared" si="21"/>
         <v>"44":50</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>263</v>
       </c>
       <c r="G46">
         <v>310</v>
       </c>
       <c r="H46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J46" t="s">
+        <v>130</v>
+      </c>
+      <c r="L46" t="s">
         <v>132</v>
       </c>
-      <c r="L46" t="s">
-        <v>134</v>
-      </c>
       <c r="M46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>263</v>
       </c>
       <c r="N46">
         <v>10</v>
       </c>
       <c r="O46">
-        <f t="shared" si="24"/>
-        <v>23.90909090909091</v>
+        <v>2</v>
       </c>
       <c r="P46">
-        <v>11</v>
-      </c>
-      <c r="Q46">
         <v>17700</v>
       </c>
-      <c r="R46" t="s">
-        <v>23</v>
-      </c>
-      <c r="T46">
+      <c r="Q46" t="s">
+        <v>21</v>
+      </c>
+      <c r="S46">
         <v>35</v>
       </c>
-      <c r="V46">
+      <c r="U46">
         <v>1900</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="16"/>
+        <v>12150</v>
       </c>
       <c r="X46">
         <f t="shared" si="17"/>
-        <v>12150</v>
-      </c>
-      <c r="Y46">
+        <v>1275</v>
+      </c>
+      <c r="Y46" t="str">
         <f t="shared" si="18"/>
-        <v>1275</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700</v>
       </c>
       <c r="Z46" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50</v>
       </c>
       <c r="AA46" t="str">
+        <f t="shared" si="15"/>
+        <v>"45":17700</v>
+      </c>
+      <c r="AB46" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50</v>
-      </c>
-      <c r="AB46" t="str">
-        <f t="shared" si="16"/>
-        <v>"45":17700</v>
-      </c>
-      <c r="AC46" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C47">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>272</v>
       </c>
       <c r="G47">
         <v>324</v>
       </c>
       <c r="H47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="I47" t="s">
+        <v>134</v>
+      </c>
+      <c r="J47" t="s">
+        <v>133</v>
+      </c>
+      <c r="K47" t="s">
         <v>136</v>
       </c>
-      <c r="J47" t="s">
+      <c r="L47" t="s">
         <v>135</v>
       </c>
-      <c r="K47" t="s">
-        <v>138</v>
-      </c>
-      <c r="L47" t="s">
-        <v>137</v>
-      </c>
       <c r="M47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>272</v>
       </c>
       <c r="N47">
         <v>9</v>
       </c>
       <c r="O47">
-        <f t="shared" si="24"/>
-        <v>24.727272727272727</v>
+        <v>2</v>
       </c>
       <c r="P47">
-        <v>11</v>
-      </c>
-      <c r="Q47">
         <v>17500</v>
       </c>
-      <c r="R47" t="s">
+      <c r="Q47" t="s">
+        <v>23</v>
+      </c>
+      <c r="T47">
         <v>25</v>
       </c>
-      <c r="U47">
-        <v>25</v>
+      <c r="V47">
+        <v>380</v>
       </c>
       <c r="W47">
-        <v>380</v>
+        <f t="shared" si="16"/>
+        <v>12150</v>
       </c>
       <c r="X47">
         <f t="shared" si="17"/>
-        <v>12150</v>
-      </c>
-      <c r="Y47">
+        <v>1655</v>
+      </c>
+      <c r="Y47" t="str">
         <f t="shared" si="18"/>
-        <v>1655</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500</v>
       </c>
       <c r="Z47" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50</v>
       </c>
       <c r="AA47" t="str">
+        <f t="shared" si="15"/>
+        <v>"46":17500</v>
+      </c>
+      <c r="AB47" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50</v>
-      </c>
-      <c r="AB47" t="str">
-        <f t="shared" si="16"/>
-        <v>"46":17500</v>
-      </c>
-      <c r="AC47" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E48">
@@ -5186,331 +4998,315 @@
         <v>339</v>
       </c>
       <c r="H48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="I48" t="s">
+        <v>138</v>
+      </c>
+      <c r="J48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K48" t="s">
+        <v>139</v>
+      </c>
+      <c r="L48" t="s">
         <v>140</v>
       </c>
-      <c r="J48" t="s">
-        <v>139</v>
-      </c>
-      <c r="K48" t="s">
-        <v>141</v>
-      </c>
-      <c r="L48" t="s">
-        <v>142</v>
-      </c>
       <c r="M48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>283</v>
       </c>
       <c r="N48">
         <v>11</v>
       </c>
       <c r="O48">
-        <f t="shared" si="24"/>
-        <v>25.727272727272727</v>
+        <v>3</v>
       </c>
       <c r="P48">
-        <v>11</v>
-      </c>
-      <c r="Q48">
         <v>17900</v>
       </c>
-      <c r="R48" t="s">
-        <v>24</v>
+      <c r="Q48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S48">
+        <v>25</v>
       </c>
       <c r="T48">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U48">
-        <v>15</v>
+        <v>2800</v>
       </c>
       <c r="V48">
-        <v>2800</v>
+        <v>410</v>
       </c>
       <c r="W48">
-        <v>410</v>
+        <f t="shared" si="16"/>
+        <v>14950</v>
       </c>
       <c r="X48">
         <f t="shared" si="17"/>
-        <v>14950</v>
-      </c>
-      <c r="Y48">
+        <v>2065</v>
+      </c>
+      <c r="Y48" t="str">
         <f t="shared" si="18"/>
-        <v>2065</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900</v>
       </c>
       <c r="Z48" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50</v>
       </c>
       <c r="AA48" t="str">
+        <f t="shared" si="15"/>
+        <v>"47":17900</v>
+      </c>
+      <c r="AB48" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50</v>
-      </c>
-      <c r="AB48" t="str">
-        <f t="shared" si="16"/>
-        <v>"47":17900</v>
-      </c>
-      <c r="AC48" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>295</v>
       </c>
       <c r="G49">
         <v>351</v>
       </c>
       <c r="H49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="I49" t="s">
+        <v>141</v>
+      </c>
+      <c r="J49" t="s">
+        <v>142</v>
+      </c>
+      <c r="K49" t="s">
         <v>143</v>
       </c>
-      <c r="J49" t="s">
+      <c r="L49" t="s">
         <v>144</v>
       </c>
-      <c r="K49" t="s">
-        <v>145</v>
-      </c>
-      <c r="L49" t="s">
-        <v>146</v>
-      </c>
       <c r="M49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>295</v>
       </c>
       <c r="N49">
         <v>12</v>
       </c>
       <c r="O49">
-        <f t="shared" si="24"/>
-        <v>26.818181818181817</v>
+        <v>3</v>
       </c>
       <c r="P49">
-        <v>11</v>
-      </c>
-      <c r="Q49">
         <v>17300</v>
       </c>
-      <c r="R49" t="s">
-        <v>23</v>
-      </c>
-      <c r="T49">
+      <c r="Q49" t="s">
+        <v>21</v>
+      </c>
+      <c r="S49">
         <v>30</v>
       </c>
-      <c r="V49">
+      <c r="U49">
         <v>2900</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="16"/>
+        <v>17850</v>
       </c>
       <c r="X49">
         <f t="shared" si="17"/>
-        <v>17850</v>
-      </c>
-      <c r="Y49">
+        <v>2065</v>
+      </c>
+      <c r="Y49" t="str">
         <f t="shared" si="18"/>
-        <v>2065</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300</v>
       </c>
       <c r="Z49" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50</v>
       </c>
       <c r="AA49" t="str">
+        <f t="shared" si="15"/>
+        <v>"48":17300</v>
+      </c>
+      <c r="AB49" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50</v>
-      </c>
-      <c r="AB49" t="str">
-        <f t="shared" si="16"/>
-        <v>"48":17300</v>
-      </c>
-      <c r="AC49" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>302</v>
       </c>
       <c r="G50">
         <v>370</v>
       </c>
       <c r="H50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="I50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J50" t="s">
+        <v>145</v>
+      </c>
+      <c r="L50" t="s">
         <v>147</v>
       </c>
-      <c r="L50" t="s">
-        <v>149</v>
-      </c>
       <c r="M50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>302</v>
       </c>
       <c r="N50">
         <v>7</v>
       </c>
       <c r="O50">
-        <f t="shared" si="24"/>
-        <v>27.454545454545453</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>11</v>
-      </c>
-      <c r="Q50">
         <v>18200</v>
       </c>
-      <c r="R50" t="s">
-        <v>41</v>
-      </c>
-      <c r="U50">
+      <c r="Q50" t="s">
+        <v>39</v>
+      </c>
+      <c r="T50">
         <v>20</v>
       </c>
+      <c r="V50">
+        <v>450</v>
+      </c>
       <c r="W50">
-        <v>450</v>
+        <f t="shared" si="16"/>
+        <v>17850</v>
       </c>
       <c r="X50">
         <f t="shared" si="17"/>
-        <v>17850</v>
-      </c>
-      <c r="Y50">
+        <v>2515</v>
+      </c>
+      <c r="Y50" t="str">
         <f t="shared" si="18"/>
-        <v>2515</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200</v>
       </c>
       <c r="Z50" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50</v>
       </c>
       <c r="AA50" t="str">
+        <f t="shared" si="15"/>
+        <v>"49":18200</v>
+      </c>
+      <c r="AB50" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50</v>
-      </c>
-      <c r="AB50" t="str">
-        <f t="shared" si="16"/>
-        <v>"49":18200</v>
-      </c>
-      <c r="AC50" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C51">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>310</v>
       </c>
       <c r="G51">
         <v>385</v>
       </c>
       <c r="H51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="I51" t="s">
+        <v>149</v>
+      </c>
+      <c r="J51" t="s">
+        <v>148</v>
+      </c>
+      <c r="K51" t="s">
         <v>151</v>
       </c>
-      <c r="J51" t="s">
+      <c r="L51" t="s">
         <v>150</v>
       </c>
-      <c r="K51" t="s">
-        <v>153</v>
-      </c>
-      <c r="L51" t="s">
-        <v>152</v>
-      </c>
       <c r="M51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>310</v>
       </c>
       <c r="N51">
         <v>8</v>
       </c>
       <c r="O51">
-        <f t="shared" si="24"/>
-        <v>25.833333333333332</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>12</v>
-      </c>
-      <c r="Q51">
         <v>18500</v>
       </c>
-      <c r="R51" t="s">
-        <v>28</v>
-      </c>
-      <c r="T51">
+      <c r="Q51" t="s">
+        <v>26</v>
+      </c>
+      <c r="S51">
         <v>35</v>
       </c>
-      <c r="V51">
+      <c r="U51">
         <v>3000</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="16"/>
+        <v>20850</v>
       </c>
       <c r="X51">
         <f t="shared" si="17"/>
-        <v>20850</v>
-      </c>
-      <c r="Y51">
+        <v>2515</v>
+      </c>
+      <c r="Y51" t="str">
         <f t="shared" si="18"/>
-        <v>2515</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500</v>
       </c>
       <c r="Z51" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50</v>
       </c>
       <c r="AA51" t="str">
+        <f t="shared" ref="AA51:AA77" si="23">""""&amp;$A51&amp;""""&amp;""&amp;":"&amp;P51</f>
+        <v>"50":18500</v>
+      </c>
+      <c r="AB51" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50</v>
-      </c>
-      <c r="AB51" t="str">
-        <f t="shared" ref="AB51:AB77" si="25">""""&amp;$A51&amp;""""&amp;""&amp;":"&amp;Q51</f>
-        <v>"50":18500</v>
-      </c>
-      <c r="AC51" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E52">
@@ -5523,1151 +5319,1095 @@
         <v>399</v>
       </c>
       <c r="H52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J52" t="s">
+        <v>152</v>
+      </c>
+      <c r="K52" t="s">
+        <v>151</v>
+      </c>
+      <c r="L52" t="s">
         <v>154</v>
       </c>
-      <c r="K52" t="s">
-        <v>153</v>
-      </c>
-      <c r="L52" t="s">
-        <v>156</v>
-      </c>
       <c r="M52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>319</v>
       </c>
       <c r="N52">
         <v>9</v>
       </c>
       <c r="O52">
-        <f t="shared" si="24"/>
-        <v>26.583333333333332</v>
+        <v>5</v>
       </c>
       <c r="P52">
-        <v>12</v>
-      </c>
-      <c r="Q52">
         <v>41000</v>
       </c>
-      <c r="R52" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52">
+      <c r="Q52" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52">
         <v>55</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="16"/>
+        <v>20850</v>
       </c>
       <c r="X52">
         <f t="shared" si="17"/>
-        <v>20850</v>
-      </c>
-      <c r="Y52">
+        <v>2515</v>
+      </c>
+      <c r="Y52" t="str">
         <f t="shared" si="18"/>
-        <v>2515</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000</v>
       </c>
       <c r="Z52" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
       </c>
       <c r="AA52" t="str">
+        <f t="shared" si="23"/>
+        <v>"51":41000</v>
+      </c>
+      <c r="AB52" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
-      </c>
-      <c r="AB52" t="str">
-        <f t="shared" si="25"/>
-        <v>"51":41000</v>
-      </c>
-      <c r="AC52" t="str">
-        <f t="shared" si="21"/>
         <v>"51":55</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>329</v>
       </c>
       <c r="G53">
         <v>413</v>
       </c>
       <c r="H53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="I53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J53" t="s">
+        <v>155</v>
+      </c>
+      <c r="L53" t="s">
         <v>157</v>
       </c>
-      <c r="L53" t="s">
-        <v>159</v>
-      </c>
       <c r="M53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>329</v>
       </c>
       <c r="N53">
         <v>10</v>
       </c>
       <c r="O53">
-        <f t="shared" si="24"/>
-        <v>27.416666666666668</v>
+        <v>5</v>
       </c>
       <c r="P53">
-        <v>12</v>
-      </c>
-      <c r="Q53">
         <v>23200</v>
       </c>
-      <c r="R53" t="s">
-        <v>24</v>
+      <c r="Q53" t="s">
+        <v>22</v>
+      </c>
+      <c r="S53">
+        <v>25</v>
       </c>
       <c r="T53">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U53">
-        <v>20</v>
+        <v>2200</v>
       </c>
       <c r="V53">
-        <v>2200</v>
+        <v>380</v>
       </c>
       <c r="W53">
-        <v>380</v>
+        <f t="shared" si="16"/>
+        <v>23050</v>
       </c>
       <c r="X53">
         <f t="shared" si="17"/>
-        <v>23050</v>
-      </c>
-      <c r="Y53">
+        <v>2895</v>
+      </c>
+      <c r="Y53" t="str">
         <f t="shared" si="18"/>
-        <v>2895</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200</v>
       </c>
       <c r="Z53" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
       </c>
       <c r="AA53" t="str">
+        <f t="shared" si="23"/>
+        <v>"52":23200</v>
+      </c>
+      <c r="AB53" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
-      </c>
-      <c r="AB53" t="str">
-        <f t="shared" si="25"/>
-        <v>"52":23200</v>
-      </c>
-      <c r="AC53" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>338</v>
       </c>
       <c r="G54">
         <v>428</v>
       </c>
       <c r="H54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="I54" t="s">
+        <v>159</v>
+      </c>
+      <c r="J54" t="s">
+        <v>158</v>
+      </c>
+      <c r="K54" t="s">
+        <v>160</v>
+      </c>
+      <c r="L54" t="s">
         <v>161</v>
       </c>
-      <c r="J54" t="s">
-        <v>160</v>
-      </c>
-      <c r="K54" t="s">
-        <v>162</v>
-      </c>
-      <c r="L54" t="s">
-        <v>163</v>
-      </c>
       <c r="M54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>338</v>
       </c>
       <c r="N54">
         <v>9</v>
       </c>
       <c r="O54">
-        <f t="shared" si="24"/>
-        <v>28.166666666666668</v>
+        <v>6</v>
       </c>
       <c r="P54">
-        <v>12</v>
-      </c>
-      <c r="Q54">
         <v>23000</v>
       </c>
-      <c r="R54" t="s">
-        <v>28</v>
-      </c>
-      <c r="T54">
+      <c r="Q54" t="s">
+        <v>26</v>
+      </c>
+      <c r="S54">
         <v>30</v>
       </c>
-      <c r="V54">
+      <c r="U54">
         <v>3050</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="16"/>
+        <v>26100</v>
       </c>
       <c r="X54">
         <f t="shared" si="17"/>
-        <v>26100</v>
-      </c>
-      <c r="Y54">
+        <v>2895</v>
+      </c>
+      <c r="Y54" t="str">
         <f t="shared" si="18"/>
-        <v>2895</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000</v>
       </c>
       <c r="Z54" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
       </c>
       <c r="AA54" t="str">
+        <f t="shared" si="23"/>
+        <v>"53":23000</v>
+      </c>
+      <c r="AB54" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
-      </c>
-      <c r="AB54" t="str">
-        <f t="shared" si="25"/>
-        <v>"53":23000</v>
-      </c>
-      <c r="AC54" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C55">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>348</v>
       </c>
       <c r="G55">
         <v>447</v>
       </c>
       <c r="H55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="I55" t="s">
+        <v>163</v>
+      </c>
+      <c r="J55" t="s">
+        <v>162</v>
+      </c>
+      <c r="K55" t="s">
+        <v>164</v>
+      </c>
+      <c r="L55" t="s">
         <v>165</v>
       </c>
-      <c r="J55" t="s">
-        <v>164</v>
-      </c>
-      <c r="K55" t="s">
-        <v>166</v>
-      </c>
-      <c r="L55" t="s">
-        <v>167</v>
-      </c>
       <c r="M55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>348</v>
       </c>
       <c r="N55">
         <v>10</v>
       </c>
       <c r="O55">
-        <f t="shared" si="24"/>
-        <v>26.76923076923077</v>
+        <v>6</v>
       </c>
       <c r="P55">
-        <v>13</v>
-      </c>
-      <c r="Q55">
         <v>22700</v>
       </c>
-      <c r="R55" t="s">
-        <v>27</v>
-      </c>
-      <c r="U55">
+      <c r="Q55" t="s">
         <v>25</v>
       </c>
+      <c r="T55">
+        <v>25</v>
+      </c>
+      <c r="V55">
+        <v>500</v>
+      </c>
       <c r="W55">
-        <v>500</v>
+        <f t="shared" si="16"/>
+        <v>26100</v>
       </c>
       <c r="X55">
         <f t="shared" si="17"/>
-        <v>26100</v>
-      </c>
-      <c r="Y55">
+        <v>3395</v>
+      </c>
+      <c r="Y55" t="str">
         <f t="shared" si="18"/>
-        <v>3395</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700</v>
       </c>
       <c r="Z55" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
       </c>
       <c r="AA55" t="str">
+        <f t="shared" si="23"/>
+        <v>"54":22700</v>
+      </c>
+      <c r="AB55" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
-      </c>
-      <c r="AB55" t="str">
-        <f t="shared" si="25"/>
-        <v>"54":22700</v>
-      </c>
-      <c r="AC55" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>357</v>
       </c>
       <c r="G56">
         <v>458</v>
       </c>
       <c r="H56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="I56" t="s">
+        <v>167</v>
+      </c>
+      <c r="J56" t="s">
+        <v>166</v>
+      </c>
+      <c r="K56" t="s">
+        <v>168</v>
+      </c>
+      <c r="L56" t="s">
         <v>169</v>
       </c>
-      <c r="J56" t="s">
-        <v>168</v>
-      </c>
-      <c r="K56" t="s">
-        <v>170</v>
-      </c>
-      <c r="L56" t="s">
-        <v>171</v>
-      </c>
       <c r="M56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>357</v>
       </c>
       <c r="N56">
         <v>9</v>
       </c>
       <c r="O56">
-        <f t="shared" si="24"/>
-        <v>27.46153846153846</v>
+        <v>6</v>
       </c>
       <c r="P56">
-        <v>13</v>
-      </c>
-      <c r="Q56">
         <v>23200</v>
       </c>
-      <c r="R56" t="s">
-        <v>28</v>
-      </c>
-      <c r="T56">
+      <c r="Q56" t="s">
+        <v>26</v>
+      </c>
+      <c r="S56">
         <v>30</v>
       </c>
-      <c r="V56">
+      <c r="U56">
         <v>3100</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="16"/>
+        <v>29200</v>
       </c>
       <c r="X56">
         <f t="shared" si="17"/>
-        <v>29200</v>
-      </c>
-      <c r="Y56">
+        <v>3395</v>
+      </c>
+      <c r="Y56" t="str">
         <f t="shared" si="18"/>
-        <v>3395</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200</v>
       </c>
       <c r="Z56" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
       </c>
       <c r="AA56" t="str">
+        <f t="shared" si="23"/>
+        <v>"55":23200</v>
+      </c>
+      <c r="AB56" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
-      </c>
-      <c r="AB56" t="str">
-        <f t="shared" si="25"/>
-        <v>"55":23200</v>
-      </c>
-      <c r="AC56" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>368</v>
       </c>
       <c r="G57">
         <v>486</v>
       </c>
       <c r="H57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="I57" t="s">
+        <v>170</v>
+      </c>
+      <c r="J57" t="s">
+        <v>166</v>
+      </c>
+      <c r="K57" t="s">
+        <v>171</v>
+      </c>
+      <c r="L57" t="s">
         <v>172</v>
       </c>
-      <c r="J57" t="s">
-        <v>168</v>
-      </c>
-      <c r="K57" t="s">
-        <v>173</v>
-      </c>
-      <c r="L57" t="s">
-        <v>174</v>
-      </c>
       <c r="M57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>368</v>
       </c>
       <c r="N57">
         <v>11</v>
       </c>
       <c r="O57">
-        <f t="shared" si="24"/>
-        <v>28.307692307692307</v>
+        <v>6</v>
       </c>
       <c r="P57">
-        <v>13</v>
-      </c>
-      <c r="Q57">
         <v>24000</v>
       </c>
-      <c r="R57" t="s">
-        <v>30</v>
+      <c r="Q57" t="s">
+        <v>28</v>
+      </c>
+      <c r="S57">
+        <v>25</v>
       </c>
       <c r="T57">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U57">
-        <v>15</v>
+        <v>2400</v>
       </c>
       <c r="V57">
-        <v>2400</v>
+        <v>450</v>
       </c>
       <c r="W57">
-        <v>450</v>
+        <f t="shared" si="16"/>
+        <v>31600</v>
       </c>
       <c r="X57">
         <f t="shared" si="17"/>
-        <v>31600</v>
-      </c>
-      <c r="Y57">
+        <v>3845</v>
+      </c>
+      <c r="Y57" t="str">
         <f t="shared" si="18"/>
-        <v>3845</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000</v>
       </c>
       <c r="Z57" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
       </c>
       <c r="AA57" t="str">
+        <f t="shared" si="23"/>
+        <v>"56":24000</v>
+      </c>
+      <c r="AB57" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
-      </c>
-      <c r="AB57" t="str">
-        <f t="shared" si="25"/>
-        <v>"56":24000</v>
-      </c>
-      <c r="AC57" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>378</v>
       </c>
       <c r="G58">
         <v>505</v>
       </c>
       <c r="H58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="I58" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J58" t="s">
+        <v>173</v>
+      </c>
+      <c r="L58" t="s">
         <v>175</v>
       </c>
-      <c r="L58" t="s">
-        <v>177</v>
-      </c>
       <c r="M58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>378</v>
       </c>
       <c r="N58">
         <v>10</v>
       </c>
       <c r="O58">
-        <f t="shared" si="24"/>
-        <v>29.076923076923077</v>
+        <v>6</v>
       </c>
       <c r="P58">
-        <v>13</v>
-      </c>
-      <c r="Q58">
         <v>23500</v>
       </c>
-      <c r="R58" t="s">
-        <v>28</v>
-      </c>
-      <c r="T58">
+      <c r="Q58" t="s">
+        <v>26</v>
+      </c>
+      <c r="S58">
         <v>30</v>
       </c>
-      <c r="V58">
+      <c r="U58">
         <v>3150</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="16"/>
+        <v>34750</v>
       </c>
       <c r="X58">
         <f t="shared" si="17"/>
-        <v>34750</v>
-      </c>
-      <c r="Y58">
+        <v>3845</v>
+      </c>
+      <c r="Y58" t="str">
         <f t="shared" si="18"/>
-        <v>3845</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500</v>
       </c>
       <c r="Z58" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
       </c>
       <c r="AA58" t="str">
+        <f t="shared" si="23"/>
+        <v>"57":23500</v>
+      </c>
+      <c r="AB58" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
-      </c>
-      <c r="AB58" t="str">
-        <f t="shared" si="25"/>
-        <v>"57":23500</v>
-      </c>
-      <c r="AC58" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>389</v>
       </c>
       <c r="G59">
         <v>523</v>
       </c>
       <c r="H59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="I59" t="s">
+        <v>177</v>
+      </c>
+      <c r="J59" t="s">
+        <v>176</v>
+      </c>
+      <c r="K59" t="s">
+        <v>178</v>
+      </c>
+      <c r="L59" t="s">
         <v>179</v>
       </c>
-      <c r="J59" t="s">
-        <v>178</v>
-      </c>
-      <c r="K59" t="s">
-        <v>180</v>
-      </c>
-      <c r="L59" t="s">
-        <v>181</v>
-      </c>
       <c r="M59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>389</v>
       </c>
       <c r="N59">
         <v>11</v>
       </c>
       <c r="O59">
-        <f t="shared" si="24"/>
-        <v>27.785714285714285</v>
+        <v>6</v>
       </c>
       <c r="P59">
-        <v>14</v>
-      </c>
-      <c r="Q59">
         <v>23800</v>
       </c>
-      <c r="R59" t="s">
-        <v>25</v>
-      </c>
-      <c r="U59">
+      <c r="Q59" t="s">
+        <v>23</v>
+      </c>
+      <c r="T59">
         <v>20</v>
       </c>
+      <c r="V59">
+        <v>550</v>
+      </c>
       <c r="W59">
-        <v>550</v>
+        <f t="shared" si="16"/>
+        <v>34750</v>
       </c>
       <c r="X59">
         <f t="shared" si="17"/>
-        <v>34750</v>
-      </c>
-      <c r="Y59">
+        <v>4395</v>
+      </c>
+      <c r="Y59" t="str">
         <f t="shared" si="18"/>
-        <v>4395</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800</v>
       </c>
       <c r="Z59" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
       </c>
       <c r="AA59" t="str">
+        <f t="shared" si="23"/>
+        <v>"58":23800</v>
+      </c>
+      <c r="AB59" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55</v>
-      </c>
-      <c r="AB59" t="str">
-        <f t="shared" si="25"/>
-        <v>"58":23800</v>
-      </c>
-      <c r="AC59" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C60">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>399</v>
       </c>
       <c r="G60">
         <v>542</v>
       </c>
       <c r="H60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="I60" t="s">
+        <v>181</v>
+      </c>
+      <c r="J60" t="s">
+        <v>180</v>
+      </c>
+      <c r="K60" t="s">
+        <v>182</v>
+      </c>
+      <c r="L60" t="s">
         <v>183</v>
       </c>
-      <c r="J60" t="s">
-        <v>182</v>
-      </c>
-      <c r="K60" t="s">
-        <v>184</v>
-      </c>
-      <c r="L60" t="s">
-        <v>185</v>
-      </c>
       <c r="M60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>399</v>
       </c>
       <c r="N60">
         <v>10</v>
       </c>
       <c r="O60">
-        <f t="shared" si="24"/>
-        <v>28.5</v>
+        <v>7</v>
       </c>
       <c r="P60">
-        <v>14</v>
-      </c>
-      <c r="Q60">
         <v>52000</v>
       </c>
-      <c r="R60" t="s">
-        <v>26</v>
-      </c>
-      <c r="S60">
+      <c r="Q60" t="s">
+        <v>24</v>
+      </c>
+      <c r="R60">
         <v>50</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="16"/>
+        <v>34750</v>
       </c>
       <c r="X60">
         <f t="shared" si="17"/>
-        <v>34750</v>
-      </c>
-      <c r="Y60">
+        <v>4395</v>
+      </c>
+      <c r="Y60" t="str">
         <f t="shared" si="18"/>
-        <v>4395</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000</v>
       </c>
       <c r="Z60" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
       </c>
       <c r="AA60" t="str">
+        <f t="shared" si="23"/>
+        <v>"59":52000</v>
+      </c>
+      <c r="AB60" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
-      </c>
-      <c r="AB60" t="str">
-        <f t="shared" si="25"/>
-        <v>"59":52000</v>
-      </c>
-      <c r="AC60" t="str">
-        <f t="shared" si="21"/>
         <v>"59":50</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C61">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>411</v>
       </c>
       <c r="G61">
         <v>566</v>
       </c>
       <c r="H61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="I61" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L61" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>411</v>
       </c>
       <c r="N61">
         <v>12</v>
       </c>
       <c r="O61">
-        <f t="shared" si="24"/>
-        <v>29.357142857142858</v>
+        <v>7</v>
       </c>
       <c r="P61">
-        <v>14</v>
-      </c>
-      <c r="Q61">
         <v>28500</v>
       </c>
-      <c r="R61" t="s">
-        <v>23</v>
-      </c>
-      <c r="T61">
+      <c r="Q61" t="s">
+        <v>21</v>
+      </c>
+      <c r="S61">
         <v>40</v>
       </c>
-      <c r="V61">
+      <c r="U61">
         <v>4800</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="16"/>
+        <v>39550</v>
       </c>
       <c r="X61">
         <f t="shared" si="17"/>
-        <v>39550</v>
-      </c>
-      <c r="Y61">
+        <v>4395</v>
+      </c>
+      <c r="Y61" t="str">
         <f t="shared" si="18"/>
-        <v>4395</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500</v>
       </c>
       <c r="Z61" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
       </c>
       <c r="AA61" t="str">
+        <f t="shared" si="23"/>
+        <v>"60":28500</v>
+      </c>
+      <c r="AB61" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
-      </c>
-      <c r="AB61" t="str">
-        <f t="shared" si="25"/>
-        <v>"60":28500</v>
-      </c>
-      <c r="AC61" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>422</v>
       </c>
       <c r="G62">
         <v>595</v>
       </c>
       <c r="H62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="I62" t="s">
+        <v>188</v>
+      </c>
+      <c r="J62" t="s">
+        <v>187</v>
+      </c>
+      <c r="K62" t="s">
+        <v>189</v>
+      </c>
+      <c r="L62" t="s">
         <v>190</v>
       </c>
-      <c r="J62" t="s">
-        <v>189</v>
-      </c>
-      <c r="K62" t="s">
-        <v>191</v>
-      </c>
-      <c r="L62" t="s">
-        <v>192</v>
-      </c>
       <c r="M62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>422</v>
       </c>
       <c r="N62">
         <v>11</v>
       </c>
       <c r="O62">
-        <f t="shared" si="24"/>
-        <v>30.142857142857142</v>
+        <v>7</v>
       </c>
       <c r="P62">
-        <v>14</v>
-      </c>
-      <c r="Q62">
         <v>28000</v>
       </c>
-      <c r="R62" t="s">
-        <v>27</v>
-      </c>
-      <c r="U62">
+      <c r="Q62" t="s">
+        <v>25</v>
+      </c>
+      <c r="T62">
         <v>20</v>
       </c>
+      <c r="V62">
+        <v>780</v>
+      </c>
       <c r="W62">
-        <v>780</v>
+        <f t="shared" si="16"/>
+        <v>39550</v>
       </c>
       <c r="X62">
         <f t="shared" si="17"/>
-        <v>39550</v>
-      </c>
-      <c r="Y62">
+        <v>5175</v>
+      </c>
+      <c r="Y62" t="str">
         <f t="shared" si="18"/>
-        <v>5175</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000</v>
       </c>
       <c r="Z62" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
       </c>
       <c r="AA62" t="str">
+        <f t="shared" si="23"/>
+        <v>"61":28000</v>
+      </c>
+      <c r="AB62" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
-      </c>
-      <c r="AB62" t="str">
-        <f t="shared" si="25"/>
-        <v>"61":28000</v>
-      </c>
-      <c r="AC62" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>432</v>
       </c>
       <c r="G63">
         <v>609</v>
       </c>
       <c r="H63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="I63" t="s">
+        <v>191</v>
+      </c>
+      <c r="J63" t="s">
+        <v>187</v>
+      </c>
+      <c r="K63" t="s">
+        <v>192</v>
+      </c>
+      <c r="L63" t="s">
         <v>193</v>
       </c>
-      <c r="J63" t="s">
-        <v>189</v>
-      </c>
-      <c r="K63" t="s">
-        <v>194</v>
-      </c>
-      <c r="L63" t="s">
-        <v>195</v>
-      </c>
       <c r="M63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>432</v>
       </c>
       <c r="N63">
         <v>10</v>
       </c>
       <c r="O63">
-        <f t="shared" si="24"/>
-        <v>30.857142857142858</v>
+        <v>8</v>
       </c>
       <c r="P63">
-        <v>14</v>
-      </c>
-      <c r="Q63">
         <v>28700</v>
       </c>
-      <c r="R63" t="s">
-        <v>24</v>
+      <c r="Q63" t="s">
+        <v>22</v>
+      </c>
+      <c r="S63">
+        <v>25</v>
       </c>
       <c r="T63">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U63">
-        <v>15</v>
+        <v>6900</v>
       </c>
       <c r="V63">
-        <v>6900</v>
+        <v>1290</v>
       </c>
       <c r="W63">
-        <v>1290</v>
+        <f t="shared" si="16"/>
+        <v>46450</v>
       </c>
       <c r="X63">
         <f t="shared" si="17"/>
-        <v>46450</v>
-      </c>
-      <c r="Y63">
+        <v>6465</v>
+      </c>
+      <c r="Y63" t="str">
         <f t="shared" si="18"/>
-        <v>6465</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700</v>
       </c>
       <c r="Z63" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
       </c>
       <c r="AA63" t="str">
+        <f t="shared" si="23"/>
+        <v>"62":28700</v>
+      </c>
+      <c r="AB63" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
-      </c>
-      <c r="AB63" t="str">
-        <f t="shared" si="25"/>
-        <v>"62":28700</v>
-      </c>
-      <c r="AC63" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C64">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>443</v>
       </c>
       <c r="G64">
         <v>634</v>
       </c>
       <c r="H64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="I64" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J64" t="s">
+        <v>194</v>
+      </c>
+      <c r="K64" t="s">
+        <v>195</v>
+      </c>
+      <c r="L64" t="s">
         <v>196</v>
       </c>
-      <c r="K64" t="s">
-        <v>197</v>
-      </c>
-      <c r="L64" t="s">
-        <v>198</v>
-      </c>
       <c r="M64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>443</v>
       </c>
       <c r="N64">
         <v>11</v>
       </c>
       <c r="O64">
-        <f t="shared" si="24"/>
-        <v>29.533333333333335</v>
+        <v>8</v>
       </c>
       <c r="P64">
-        <v>15</v>
-      </c>
-      <c r="Q64">
         <v>28500</v>
       </c>
-      <c r="R64" t="s">
-        <v>23</v>
-      </c>
-      <c r="T64">
+      <c r="Q64" t="s">
+        <v>21</v>
+      </c>
+      <c r="S64">
         <v>35</v>
       </c>
-      <c r="V64">
+      <c r="U64">
         <v>7900</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="16"/>
+        <v>54350</v>
       </c>
       <c r="X64">
         <f t="shared" si="17"/>
-        <v>54350</v>
-      </c>
-      <c r="Y64">
+        <v>6465</v>
+      </c>
+      <c r="Y64" t="str">
         <f t="shared" si="18"/>
-        <v>6465</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500</v>
       </c>
       <c r="Z64" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
       </c>
       <c r="AA64" t="str">
+        <f t="shared" si="23"/>
+        <v>"63":28500</v>
+      </c>
+      <c r="AB64" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
-      </c>
-      <c r="AB64" t="str">
-        <f t="shared" si="25"/>
-        <v>"63":28500</v>
-      </c>
-      <c r="AC64" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C65">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>455</v>
       </c>
       <c r="G65">
         <v>664</v>
       </c>
       <c r="H65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="I65" t="s">
+        <v>199</v>
+      </c>
+      <c r="J65" t="s">
+        <v>198</v>
+      </c>
+      <c r="K65" t="s">
+        <v>200</v>
+      </c>
+      <c r="L65" t="s">
         <v>201</v>
       </c>
-      <c r="J65" t="s">
-        <v>200</v>
-      </c>
-      <c r="K65" t="s">
-        <v>202</v>
-      </c>
-      <c r="L65" t="s">
-        <v>203</v>
-      </c>
       <c r="M65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>455</v>
       </c>
       <c r="N65">
         <v>12</v>
       </c>
       <c r="O65">
-        <f t="shared" si="24"/>
-        <v>30.333333333333332</v>
+        <v>8</v>
       </c>
       <c r="P65">
-        <v>15</v>
-      </c>
-      <c r="Q65">
         <v>29200</v>
       </c>
-      <c r="R65" t="s">
-        <v>27</v>
-      </c>
-      <c r="U65">
+      <c r="Q65" t="s">
+        <v>25</v>
+      </c>
+      <c r="T65">
         <v>20</v>
       </c>
+      <c r="V65">
+        <v>1500</v>
+      </c>
       <c r="W65">
-        <v>1500</v>
+        <f t="shared" si="16"/>
+        <v>54350</v>
       </c>
       <c r="X65">
         <f t="shared" si="17"/>
-        <v>54350</v>
-      </c>
-      <c r="Y65">
+        <v>7965</v>
+      </c>
+      <c r="Y65" t="str">
         <f t="shared" si="18"/>
-        <v>7965</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200</v>
       </c>
       <c r="Z65" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
       </c>
       <c r="AA65" t="str">
+        <f t="shared" si="23"/>
+        <v>"64":29200</v>
+      </c>
+      <c r="AB65" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
-      </c>
-      <c r="AB65" t="str">
-        <f t="shared" si="25"/>
-        <v>"64":29200</v>
-      </c>
-      <c r="AC65" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C77" si="26">IF(NOT(ISBLANK(D66)),D66,
+        <f t="shared" ref="C66:C77" si="24">IF(NOT(ISBLANK(D66)),D66,
 IF(ISBLANK(E66),M66,""))</f>
         <v>465</v>
       </c>
@@ -6675,990 +6415,943 @@
         <v>697</v>
       </c>
       <c r="H66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="I66" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J66" t="s">
+        <v>202</v>
+      </c>
+      <c r="K66" t="s">
+        <v>200</v>
+      </c>
+      <c r="L66" t="s">
         <v>204</v>
       </c>
-      <c r="K66" t="s">
-        <v>202</v>
-      </c>
-      <c r="L66" t="s">
-        <v>206</v>
-      </c>
       <c r="M66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>465</v>
       </c>
       <c r="N66">
         <v>10</v>
       </c>
       <c r="O66">
-        <f t="shared" ref="O66:O77" si="27">M66/P66</f>
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="P66">
-        <v>15</v>
-      </c>
-      <c r="Q66">
         <v>29500</v>
       </c>
-      <c r="R66" t="s">
-        <v>28</v>
-      </c>
-      <c r="T66">
+      <c r="Q66" t="s">
+        <v>26</v>
+      </c>
+      <c r="S66">
         <v>30</v>
       </c>
-      <c r="V66">
+      <c r="U66">
         <v>8700</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="16"/>
+        <v>63050</v>
       </c>
       <c r="X66">
         <f t="shared" si="17"/>
-        <v>63050</v>
-      </c>
-      <c r="Y66">
+        <v>7965</v>
+      </c>
+      <c r="Y66" t="str">
         <f t="shared" si="18"/>
-        <v>7965</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500</v>
       </c>
       <c r="Z66" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
       </c>
       <c r="AA66" t="str">
+        <f t="shared" si="23"/>
+        <v>"65":29500</v>
+      </c>
+      <c r="AB66" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
-      </c>
-      <c r="AB66" t="str">
-        <f t="shared" si="25"/>
-        <v>"65":29500</v>
-      </c>
-      <c r="AC66" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B77" si="28">IF(LEN(C67)=0,1,0)</f>
+        <f t="shared" ref="B67:B77" si="25">IF(LEN(C67)=0,1,0)</f>
         <v>0</v>
       </c>
       <c r="C67">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>477</v>
       </c>
       <c r="G67">
         <v>724</v>
       </c>
       <c r="H67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="I67" t="s">
+        <v>205</v>
+      </c>
+      <c r="J67" t="s">
+        <v>202</v>
+      </c>
+      <c r="K67" t="s">
+        <v>206</v>
+      </c>
+      <c r="L67" t="s">
         <v>207</v>
       </c>
-      <c r="J67" t="s">
-        <v>204</v>
-      </c>
-      <c r="K67" t="s">
-        <v>208</v>
-      </c>
-      <c r="L67" t="s">
-        <v>209</v>
-      </c>
       <c r="M67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>477</v>
       </c>
       <c r="N67">
         <v>12</v>
       </c>
       <c r="O67">
-        <f t="shared" si="27"/>
-        <v>31.8</v>
+        <v>9</v>
       </c>
       <c r="P67">
+        <v>29000</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>22</v>
+      </c>
+      <c r="S67">
+        <v>25</v>
+      </c>
+      <c r="T67">
         <v>15</v>
       </c>
-      <c r="Q67">
-        <v>29000</v>
-      </c>
-      <c r="R67" t="s">
-        <v>24</v>
-      </c>
-      <c r="T67">
-        <v>25</v>
-      </c>
       <c r="U67">
-        <v>15</v>
+        <v>8500</v>
       </c>
       <c r="V67">
-        <v>8500</v>
+        <v>1800</v>
       </c>
       <c r="W67">
-        <v>1800</v>
+        <f t="shared" si="16"/>
+        <v>71550</v>
       </c>
       <c r="X67">
         <f t="shared" si="17"/>
-        <v>71550</v>
-      </c>
-      <c r="Y67">
+        <v>9765</v>
+      </c>
+      <c r="Y67" t="str">
         <f t="shared" si="18"/>
-        <v>9765</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000</v>
       </c>
       <c r="Z67" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
       </c>
       <c r="AA67" t="str">
+        <f t="shared" si="23"/>
+        <v>"66":29000</v>
+      </c>
+      <c r="AB67" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
-      </c>
-      <c r="AB67" t="str">
-        <f t="shared" si="25"/>
-        <v>"66":29000</v>
-      </c>
-      <c r="AC67" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>488</v>
       </c>
       <c r="G68">
         <v>746</v>
       </c>
       <c r="H68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="I68" t="s">
+        <v>209</v>
+      </c>
+      <c r="J68" t="s">
+        <v>208</v>
+      </c>
+      <c r="K68" t="s">
+        <v>210</v>
+      </c>
+      <c r="L68" t="s">
         <v>211</v>
       </c>
-      <c r="J68" t="s">
-        <v>210</v>
-      </c>
-      <c r="K68" t="s">
-        <v>212</v>
-      </c>
-      <c r="L68" t="s">
-        <v>213</v>
-      </c>
       <c r="M68">
-        <f t="shared" ref="M68:M77" si="29">M67+N68</f>
+        <f t="shared" ref="M68:M77" si="26">M67+N68</f>
         <v>488</v>
       </c>
       <c r="N68">
         <v>11</v>
       </c>
       <c r="O68">
-        <f t="shared" si="27"/>
-        <v>32.533333333333331</v>
+        <v>10</v>
       </c>
       <c r="P68">
-        <v>15</v>
-      </c>
-      <c r="Q68">
         <v>29700</v>
       </c>
-      <c r="R68" t="s">
-        <v>28</v>
-      </c>
-      <c r="T68">
+      <c r="Q68" t="s">
+        <v>26</v>
+      </c>
+      <c r="S68">
         <v>30</v>
       </c>
-      <c r="V68">
+      <c r="U68">
         <v>10000</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="16"/>
+        <v>81550</v>
       </c>
       <c r="X68">
         <f t="shared" si="17"/>
-        <v>81550</v>
-      </c>
-      <c r="Y68">
+        <v>9765</v>
+      </c>
+      <c r="Y68" t="str">
         <f t="shared" si="18"/>
-        <v>9765</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700</v>
       </c>
       <c r="Z68" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
       </c>
       <c r="AA68" t="str">
+        <f t="shared" si="23"/>
+        <v>"67":29700</v>
+      </c>
+      <c r="AB68" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
-      </c>
-      <c r="AB68" t="str">
-        <f t="shared" si="25"/>
-        <v>"67":29700</v>
-      </c>
-      <c r="AC68" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C69">
+        <f t="shared" si="24"/>
+        <v>500</v>
+      </c>
+      <c r="G69">
+        <v>780</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="I69" t="s">
+        <v>214</v>
+      </c>
+      <c r="J69" t="s">
+        <v>212</v>
+      </c>
+      <c r="K69" t="s">
+        <v>213</v>
+      </c>
+      <c r="L69" t="s">
+        <v>215</v>
+      </c>
+      <c r="M69">
         <f t="shared" si="26"/>
         <v>500</v>
       </c>
-      <c r="G69">
-        <v>780</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="I69" t="s">
-        <v>216</v>
-      </c>
-      <c r="J69" t="s">
-        <v>214</v>
-      </c>
-      <c r="K69" t="s">
-        <v>215</v>
-      </c>
-      <c r="L69" t="s">
-        <v>217</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="29"/>
-        <v>500</v>
-      </c>
       <c r="N69">
         <v>12</v>
       </c>
       <c r="O69">
-        <f t="shared" si="27"/>
-        <v>33.333333333333336</v>
+        <v>10</v>
       </c>
       <c r="P69">
-        <v>15</v>
-      </c>
-      <c r="Q69">
         <v>29500</v>
       </c>
-      <c r="R69" t="s">
-        <v>27</v>
-      </c>
-      <c r="U69">
+      <c r="Q69" t="s">
+        <v>25</v>
+      </c>
+      <c r="T69">
         <v>20</v>
       </c>
+      <c r="V69">
+        <v>2200</v>
+      </c>
       <c r="W69">
-        <v>2200</v>
+        <f t="shared" si="16"/>
+        <v>81550</v>
       </c>
       <c r="X69">
         <f t="shared" si="17"/>
-        <v>81550</v>
-      </c>
-      <c r="Y69">
+        <v>11965</v>
+      </c>
+      <c r="Y69" t="str">
         <f t="shared" si="18"/>
-        <v>11965</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500</v>
       </c>
       <c r="Z69" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
       </c>
       <c r="AA69" t="str">
+        <f t="shared" si="23"/>
+        <v>"68":29500</v>
+      </c>
+      <c r="AB69" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
-      </c>
-      <c r="AB69" t="str">
-        <f t="shared" si="25"/>
-        <v>"68":29500</v>
-      </c>
-      <c r="AC69" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C70">
+        <f t="shared" si="24"/>
+        <v>511</v>
+      </c>
+      <c r="G70">
+        <v>825</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="I70" t="s">
+        <v>217</v>
+      </c>
+      <c r="J70" t="s">
+        <v>216</v>
+      </c>
+      <c r="K70" t="s">
+        <v>218</v>
+      </c>
+      <c r="L70" t="s">
+        <v>219</v>
+      </c>
+      <c r="M70">
         <f t="shared" si="26"/>
         <v>511</v>
       </c>
-      <c r="G70">
-        <v>825</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="I70" t="s">
-        <v>219</v>
-      </c>
-      <c r="J70" t="s">
-        <v>218</v>
-      </c>
-      <c r="K70" t="s">
-        <v>220</v>
-      </c>
-      <c r="L70" t="s">
-        <v>221</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="29"/>
-        <v>511</v>
-      </c>
       <c r="N70">
         <v>11</v>
       </c>
       <c r="O70">
-        <f t="shared" si="27"/>
-        <v>34.06666666666667</v>
+        <v>11</v>
       </c>
       <c r="P70">
-        <v>15</v>
-      </c>
-      <c r="Q70">
         <v>29900</v>
       </c>
-      <c r="R70" t="s">
-        <v>28</v>
-      </c>
-      <c r="T70">
+      <c r="Q70" t="s">
+        <v>26</v>
+      </c>
+      <c r="S70">
         <v>40</v>
       </c>
-      <c r="V70">
+      <c r="U70">
         <v>12000</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="16"/>
+        <v>93550</v>
       </c>
       <c r="X70">
         <f t="shared" si="17"/>
-        <v>93550</v>
-      </c>
-      <c r="Y70">
+        <v>11965</v>
+      </c>
+      <c r="Y70" t="str">
         <f t="shared" si="18"/>
-        <v>11965</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900</v>
       </c>
       <c r="Z70" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
       </c>
       <c r="AA70" t="str">
+        <f t="shared" si="23"/>
+        <v>"69":29900</v>
+      </c>
+      <c r="AB70" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50</v>
-      </c>
-      <c r="AB70" t="str">
-        <f t="shared" si="25"/>
-        <v>"69":29900</v>
-      </c>
-      <c r="AC70" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C71">
+        <f t="shared" si="24"/>
+        <v>523</v>
+      </c>
+      <c r="G71">
+        <v>854</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="I71" t="s">
+        <v>221</v>
+      </c>
+      <c r="J71" t="s">
+        <v>220</v>
+      </c>
+      <c r="K71" t="s">
+        <v>222</v>
+      </c>
+      <c r="L71" t="s">
+        <v>223</v>
+      </c>
+      <c r="M71">
         <f t="shared" si="26"/>
         <v>523</v>
       </c>
-      <c r="G71">
-        <v>854</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="I71" t="s">
-        <v>223</v>
-      </c>
-      <c r="J71" t="s">
-        <v>222</v>
-      </c>
-      <c r="K71" t="s">
-        <v>224</v>
-      </c>
-      <c r="L71" t="s">
-        <v>225</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="29"/>
-        <v>523</v>
-      </c>
       <c r="N71">
         <v>12</v>
       </c>
       <c r="O71">
-        <f t="shared" si="27"/>
-        <v>34.866666666666667</v>
+        <v>11</v>
       </c>
       <c r="P71">
-        <v>15</v>
-      </c>
-      <c r="Q71">
         <v>64000</v>
       </c>
-      <c r="R71" t="s">
-        <v>26</v>
-      </c>
-      <c r="S71">
+      <c r="Q71" t="s">
+        <v>24</v>
+      </c>
+      <c r="R71">
         <v>60</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="16"/>
+        <v>93550</v>
       </c>
       <c r="X71">
         <f t="shared" si="17"/>
-        <v>93550</v>
-      </c>
-      <c r="Y71">
+        <v>11965</v>
+      </c>
+      <c r="Y71" t="str">
         <f t="shared" si="18"/>
-        <v>11965</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000</v>
       </c>
       <c r="Z71" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50,"70":60</v>
       </c>
       <c r="AA71" t="str">
+        <f t="shared" si="23"/>
+        <v>"70":64000</v>
+      </c>
+      <c r="AB71" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50,"70":60</v>
-      </c>
-      <c r="AB71" t="str">
-        <f t="shared" si="25"/>
-        <v>"70":64000</v>
-      </c>
-      <c r="AC71" t="str">
-        <f t="shared" si="21"/>
         <v>"70":60</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C72">
+        <f t="shared" si="24"/>
+        <v>534</v>
+      </c>
+      <c r="G72">
+        <v>879</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="I72" t="s">
+        <v>224</v>
+      </c>
+      <c r="J72" t="s">
+        <v>220</v>
+      </c>
+      <c r="K72" t="s">
+        <v>225</v>
+      </c>
+      <c r="L72" t="s">
+        <v>226</v>
+      </c>
+      <c r="M72">
         <f t="shared" si="26"/>
         <v>534</v>
       </c>
-      <c r="G72">
-        <v>879</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="I72" t="s">
-        <v>226</v>
-      </c>
-      <c r="J72" t="s">
-        <v>222</v>
-      </c>
-      <c r="K72" t="s">
-        <v>227</v>
-      </c>
-      <c r="L72" t="s">
-        <v>228</v>
-      </c>
-      <c r="M72">
-        <f t="shared" si="29"/>
-        <v>534</v>
-      </c>
       <c r="N72">
         <v>11</v>
       </c>
       <c r="O72">
-        <f t="shared" si="27"/>
-        <v>35.6</v>
+        <v>12</v>
       </c>
       <c r="P72">
-        <v>15</v>
-      </c>
-      <c r="Q72">
         <v>33000</v>
       </c>
-      <c r="R72" t="s">
-        <v>28</v>
-      </c>
-      <c r="T72">
+      <c r="Q72" t="s">
+        <v>26</v>
+      </c>
+      <c r="S72">
         <v>35</v>
       </c>
-      <c r="V72">
+      <c r="U72">
         <v>10000</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="16"/>
+        <v>103550</v>
       </c>
       <c r="X72">
         <f t="shared" si="17"/>
-        <v>103550</v>
-      </c>
-      <c r="Y72">
+        <v>11965</v>
+      </c>
+      <c r="Y72" t="str">
         <f t="shared" si="18"/>
-        <v>11965</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000</v>
       </c>
       <c r="Z72" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50,"70":60</v>
       </c>
       <c r="AA72" t="str">
+        <f t="shared" si="23"/>
+        <v>"71":33000</v>
+      </c>
+      <c r="AB72" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50,"70":60</v>
-      </c>
-      <c r="AB72" t="str">
-        <f t="shared" si="25"/>
-        <v>"71":33000</v>
-      </c>
-      <c r="AC72" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C73">
+        <f t="shared" si="24"/>
+        <v>546</v>
+      </c>
+      <c r="G73">
+        <v>928</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="I73" t="s">
+        <v>228</v>
+      </c>
+      <c r="J73" t="s">
+        <v>227</v>
+      </c>
+      <c r="K73" t="s">
+        <v>229</v>
+      </c>
+      <c r="L73" t="s">
+        <v>230</v>
+      </c>
+      <c r="M73">
         <f t="shared" si="26"/>
         <v>546</v>
       </c>
-      <c r="G73">
-        <v>928</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="4"/>
-        <v>49</v>
-      </c>
-      <c r="I73" t="s">
-        <v>230</v>
-      </c>
-      <c r="J73" t="s">
-        <v>229</v>
-      </c>
-      <c r="K73" t="s">
-        <v>231</v>
-      </c>
-      <c r="L73" t="s">
-        <v>232</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="29"/>
-        <v>546</v>
-      </c>
       <c r="N73">
         <v>12</v>
       </c>
       <c r="O73">
-        <f t="shared" si="27"/>
-        <v>36.4</v>
+        <v>12</v>
       </c>
       <c r="P73">
-        <v>15</v>
-      </c>
-      <c r="Q73">
         <v>33500</v>
       </c>
-      <c r="R73" t="s">
-        <v>24</v>
+      <c r="Q73" t="s">
+        <v>22</v>
+      </c>
+      <c r="S73">
+        <v>30</v>
       </c>
       <c r="T73">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="U73">
-        <v>25</v>
+        <v>12800</v>
       </c>
       <c r="V73">
-        <v>12800</v>
+        <v>2600</v>
       </c>
       <c r="W73">
-        <v>2600</v>
+        <f t="shared" si="16"/>
+        <v>116350</v>
       </c>
       <c r="X73">
         <f t="shared" si="17"/>
-        <v>116350</v>
-      </c>
-      <c r="Y73">
+        <v>14565</v>
+      </c>
+      <c r="Y73" t="str">
         <f t="shared" si="18"/>
-        <v>14565</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500</v>
       </c>
       <c r="Z73" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50,"70":60</v>
       </c>
       <c r="AA73" t="str">
+        <f t="shared" si="23"/>
+        <v>"72":33500</v>
+      </c>
+      <c r="AB73" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50,"70":60</v>
-      </c>
-      <c r="AB73" t="str">
-        <f t="shared" si="25"/>
-        <v>"72":33500</v>
-      </c>
-      <c r="AC73" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C74">
+        <f t="shared" si="24"/>
+        <v>556</v>
+      </c>
+      <c r="G74">
+        <v>964</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="I74" t="s">
+        <v>232</v>
+      </c>
+      <c r="J74" t="s">
+        <v>231</v>
+      </c>
+      <c r="K74" t="s">
+        <v>200</v>
+      </c>
+      <c r="L74" t="s">
+        <v>233</v>
+      </c>
+      <c r="M74">
         <f t="shared" si="26"/>
         <v>556</v>
       </c>
-      <c r="G74">
-        <v>964</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="I74" t="s">
-        <v>234</v>
-      </c>
-      <c r="J74" t="s">
-        <v>233</v>
-      </c>
-      <c r="K74" t="s">
-        <v>202</v>
-      </c>
-      <c r="L74" t="s">
-        <v>235</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="29"/>
-        <v>556</v>
-      </c>
       <c r="N74">
         <v>10</v>
       </c>
       <c r="O74">
-        <f t="shared" si="27"/>
-        <v>37.06666666666667</v>
+        <v>13</v>
       </c>
       <c r="P74">
-        <v>15</v>
-      </c>
-      <c r="Q74">
         <v>33800</v>
       </c>
-      <c r="R74" t="s">
-        <v>28</v>
-      </c>
-      <c r="T74">
+      <c r="Q74" t="s">
+        <v>26</v>
+      </c>
+      <c r="S74">
         <v>35</v>
       </c>
-      <c r="V74">
+      <c r="U74">
         <v>15500</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="16"/>
+        <v>131850</v>
       </c>
       <c r="X74">
         <f t="shared" si="17"/>
-        <v>131850</v>
-      </c>
-      <c r="Y74">
+        <v>14565</v>
+      </c>
+      <c r="Y74" t="str">
         <f t="shared" si="18"/>
-        <v>14565</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800</v>
       </c>
       <c r="Z74" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50,"70":60</v>
       </c>
       <c r="AA74" t="str">
+        <f t="shared" si="23"/>
+        <v>"73":33800</v>
+      </c>
+      <c r="AB74" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50,"70":60</v>
-      </c>
-      <c r="AB74" t="str">
-        <f t="shared" si="25"/>
-        <v>"73":33800</v>
-      </c>
-      <c r="AC74" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C75">
+        <f t="shared" si="24"/>
+        <v>568</v>
+      </c>
+      <c r="G75">
+        <v>1006</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="I75" t="s">
+        <v>234</v>
+      </c>
+      <c r="J75" t="s">
+        <v>231</v>
+      </c>
+      <c r="K75" t="s">
+        <v>200</v>
+      </c>
+      <c r="L75" t="s">
+        <v>235</v>
+      </c>
+      <c r="M75">
         <f t="shared" si="26"/>
         <v>568</v>
       </c>
-      <c r="G75">
-        <v>1006</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="I75" t="s">
-        <v>236</v>
-      </c>
-      <c r="J75" t="s">
-        <v>233</v>
-      </c>
-      <c r="K75" t="s">
-        <v>202</v>
-      </c>
-      <c r="L75" t="s">
-        <v>237</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="29"/>
-        <v>568</v>
-      </c>
       <c r="N75">
         <v>12</v>
       </c>
       <c r="O75">
-        <f t="shared" si="27"/>
-        <v>35.5</v>
+        <v>13</v>
       </c>
       <c r="P75">
-        <v>16</v>
-      </c>
-      <c r="Q75">
         <v>34500</v>
       </c>
-      <c r="R75" t="s">
-        <v>30</v>
+      <c r="Q75" t="s">
+        <v>28</v>
+      </c>
+      <c r="S75">
+        <v>25</v>
       </c>
       <c r="T75">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U75">
-        <v>20</v>
+        <v>17510</v>
       </c>
       <c r="V75">
-        <v>17510</v>
+        <v>3150</v>
       </c>
       <c r="W75">
-        <v>3150</v>
+        <f t="shared" si="16"/>
+        <v>149360</v>
       </c>
       <c r="X75">
         <f t="shared" si="17"/>
-        <v>149360</v>
-      </c>
-      <c r="Y75">
+        <v>17715</v>
+      </c>
+      <c r="Y75" t="str">
         <f t="shared" si="18"/>
-        <v>17715</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500</v>
       </c>
       <c r="Z75" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50,"70":60</v>
       </c>
       <c r="AA75" t="str">
+        <f t="shared" si="23"/>
+        <v>"74":34500</v>
+      </c>
+      <c r="AB75" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50,"70":60</v>
-      </c>
-      <c r="AB75" t="str">
-        <f t="shared" si="25"/>
-        <v>"74":34500</v>
-      </c>
-      <c r="AC75" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C76">
+        <f t="shared" si="24"/>
+        <v>579</v>
+      </c>
+      <c r="G76">
+        <v>1038</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="I76" t="s">
+        <v>237</v>
+      </c>
+      <c r="J76" t="s">
+        <v>236</v>
+      </c>
+      <c r="K76" t="s">
+        <v>200</v>
+      </c>
+      <c r="L76" t="s">
+        <v>238</v>
+      </c>
+      <c r="M76">
         <f t="shared" si="26"/>
         <v>579</v>
       </c>
-      <c r="G76">
-        <v>1038</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="I76" t="s">
-        <v>239</v>
-      </c>
-      <c r="J76" t="s">
-        <v>238</v>
-      </c>
-      <c r="K76" t="s">
-        <v>202</v>
-      </c>
-      <c r="L76" t="s">
-        <v>240</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="29"/>
-        <v>579</v>
-      </c>
       <c r="N76">
         <v>11</v>
       </c>
       <c r="O76">
-        <f t="shared" si="27"/>
-        <v>36.1875</v>
+        <v>13</v>
       </c>
       <c r="P76">
-        <v>16</v>
-      </c>
-      <c r="Q76">
         <v>34200</v>
       </c>
-      <c r="R76" t="s">
-        <v>23</v>
-      </c>
-      <c r="T76">
+      <c r="Q76" t="s">
+        <v>21</v>
+      </c>
+      <c r="S76">
         <v>30</v>
       </c>
-      <c r="V76">
+      <c r="U76">
         <v>25800</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="16"/>
+        <v>175160</v>
       </c>
       <c r="X76">
         <f t="shared" si="17"/>
-        <v>175160</v>
-      </c>
-      <c r="Y76">
+        <v>17715</v>
+      </c>
+      <c r="Y76" t="str">
         <f t="shared" si="18"/>
-        <v>17715</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200</v>
       </c>
       <c r="Z76" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50,"70":60</v>
       </c>
       <c r="AA76" t="str">
+        <f t="shared" si="23"/>
+        <v>"75":34200</v>
+      </c>
+      <c r="AB76" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50,"70":60</v>
-      </c>
-      <c r="AB76" t="str">
-        <f t="shared" si="25"/>
-        <v>"75":34200</v>
-      </c>
-      <c r="AC76" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C77">
+        <f t="shared" si="24"/>
+        <v>592</v>
+      </c>
+      <c r="G77">
+        <v>1171</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="I77">
+        <v>37</v>
+      </c>
+      <c r="J77">
+        <v>16</v>
+      </c>
+      <c r="K77" t="s">
+        <v>200</v>
+      </c>
+      <c r="L77" t="s">
+        <v>239</v>
+      </c>
+      <c r="M77">
         <f t="shared" si="26"/>
         <v>592</v>
       </c>
-      <c r="G77">
-        <v>1171</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="4"/>
-        <v>133</v>
-      </c>
-      <c r="I77">
-        <v>37</v>
-      </c>
-      <c r="J77">
-        <v>16</v>
-      </c>
-      <c r="K77" t="s">
-        <v>202</v>
-      </c>
-      <c r="L77" t="s">
-        <v>241</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="29"/>
-        <v>592</v>
-      </c>
       <c r="N77">
         <v>13</v>
       </c>
       <c r="O77">
-        <f t="shared" si="27"/>
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="P77">
-        <v>16</v>
-      </c>
-      <c r="Q77">
         <v>35000</v>
       </c>
-      <c r="R77" t="s">
-        <v>27</v>
-      </c>
-      <c r="U77">
+      <c r="Q77" t="s">
+        <v>25</v>
+      </c>
+      <c r="T77">
         <v>20</v>
       </c>
+      <c r="V77">
+        <v>4180</v>
+      </c>
       <c r="W77">
-        <v>4180</v>
+        <f t="shared" si="16"/>
+        <v>175160</v>
       </c>
       <c r="X77">
         <f t="shared" si="17"/>
-        <v>175160</v>
-      </c>
-      <c r="Y77">
+        <v>21895</v>
+      </c>
+      <c r="Y77" t="str">
         <f t="shared" si="18"/>
-        <v>21895</v>
+        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200,"76":35000</v>
       </c>
       <c r="Z77" t="str">
         <f t="shared" si="19"/>
-        <v>"1":1500,"2":1700,"3":1300,"4":1800,"5":1900,"6":3700,"7":2200,"8":2100,"9":2400,"10":5100,"11":2800,"12":3000,"13":3200,"14":3500,"15":7900,"16":4600,"17":4900,"18":5400,"19":5800,"20":12500,"21":6600,"22":7000,"23":6800,"24":7500,"25":19500,"26":9000,"27":9400,"28":24000,"29":10200,"30":10400,"31":10800,"32":11000,"33":11200,"34":28000,"35":13500,"36":13800,"37":13200,"38":13600,"39":13400,"40":13800,"41":13600,"42":13900,"43":13700,"44":37500,"45":17700,"46":17500,"47":17900,"48":17300,"49":18200,"50":18500,"51":41000,"52":23200,"53":23000,"54":22700,"55":23200,"56":24000,"57":23500,"58":23800,"59":52000,"60":28500,"61":28000,"62":28700,"63":28500,"64":29200,"65":29500,"66":29000,"67":29700,"68":29500,"69":29900,"70":64000,"71":33000,"72":33500,"73":33800,"74":34500,"75":34200,"76":35000</v>
+        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50,"70":60</v>
       </c>
       <c r="AA77" t="str">
+        <f t="shared" si="23"/>
+        <v>"76":35000</v>
+      </c>
+      <c r="AB77" t="str">
         <f t="shared" si="20"/>
-        <v>,"2":20,"6":35,"10":25,"15":40,"20":30,"25":35,"28":20,"34":40,"44":50,"51":55,"59":50,"70":60</v>
-      </c>
-      <c r="AB77" t="str">
-        <f t="shared" si="25"/>
-        <v>"76":35000</v>
-      </c>
-      <c r="AC77" t="str">
-        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="O1:O77" xr:uid="{13ECDDA6-C1D2-46B8-A035-623DBB64175D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Excel/작업Research.xlsx
+++ b/Excel/작업Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3319EF7-00B9-405C-9F30-4A779EC5368D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5595185B-8585-49C3-A3D4-5E60452C2262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchTable" sheetId="3" r:id="rId1"/>
@@ -814,10 +814,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>403만골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>19,9,3,2,3,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -991,6 +987,10 @@
   </si>
   <si>
     <t>업데이트순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2세트 12레벨 37명 444 가능 403만골드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1377,32 +1377,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B294627A-88CA-400D-B366-14507FB4AA24}">
-  <dimension ref="A1:AD77"/>
+  <dimension ref="A1:AE77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O68" sqref="O68"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="6.125" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="6" width="8" customWidth="1"/>
-    <col min="7" max="8" width="8" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="12" width="12.625" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="14" width="8.125" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="17" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="6.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="8" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="8" width="8" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="12" width="12.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="14" width="8.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="12.625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="12.625" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="8.25" customWidth="1"/>
     <col min="20" max="20" width="7.875" customWidth="1"/>
-    <col min="21" max="22" width="7.875" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="7.875" customWidth="1"/>
+    <col min="21" max="22" width="7.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="7.875" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="8.25" customWidth="1"/>
-    <col min="25" max="28" width="8.25" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="28" width="8.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="9" collapsed="1"/>
+    <col min="30" max="30" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1449,7 +1452,7 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
@@ -4628,7 +4631,7 @@
         <v>9</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43">
         <v>13900</v>
@@ -4706,7 +4709,7 @@
         <v>10</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44">
         <v>13700</v>
@@ -4787,7 +4790,7 @@
         <v>9</v>
       </c>
       <c r="O45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45">
         <v>37500</v>
@@ -4859,7 +4862,7 @@
         <v>10</v>
       </c>
       <c r="O46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P46">
         <v>17700</v>
@@ -4949,7 +4952,7 @@
         <v>25</v>
       </c>
       <c r="V47">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="W47">
         <f t="shared" si="16"/>
@@ -4957,7 +4960,7 @@
       </c>
       <c r="X47">
         <f t="shared" si="17"/>
-        <v>1655</v>
+        <v>1525</v>
       </c>
       <c r="Y47" t="str">
         <f t="shared" si="18"/>
@@ -5036,18 +5039,18 @@
         <v>15</v>
       </c>
       <c r="U48">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="V48">
-        <v>410</v>
+        <v>200</v>
       </c>
       <c r="W48">
         <f t="shared" si="16"/>
-        <v>14950</v>
+        <v>13450</v>
       </c>
       <c r="X48">
         <f t="shared" si="17"/>
-        <v>2065</v>
+        <v>1725</v>
       </c>
       <c r="Y48" t="str">
         <f t="shared" si="18"/>
@@ -5117,15 +5120,15 @@
         <v>30</v>
       </c>
       <c r="U49">
-        <v>2900</v>
+        <v>1800</v>
       </c>
       <c r="W49">
         <f t="shared" si="16"/>
-        <v>17850</v>
+        <v>15250</v>
       </c>
       <c r="X49">
         <f t="shared" si="17"/>
-        <v>2065</v>
+        <v>1725</v>
       </c>
       <c r="Y49" t="str">
         <f t="shared" si="18"/>
@@ -5192,15 +5195,15 @@
         <v>20</v>
       </c>
       <c r="V50">
-        <v>450</v>
+        <v>260</v>
       </c>
       <c r="W50">
         <f t="shared" si="16"/>
-        <v>17850</v>
+        <v>15250</v>
       </c>
       <c r="X50">
         <f t="shared" si="17"/>
-        <v>2515</v>
+        <v>1985</v>
       </c>
       <c r="Y50" t="str">
         <f t="shared" si="18"/>
@@ -5270,15 +5273,15 @@
         <v>35</v>
       </c>
       <c r="U51">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="W51">
         <f t="shared" si="16"/>
-        <v>20850</v>
+        <v>17150</v>
       </c>
       <c r="X51">
         <f t="shared" si="17"/>
-        <v>2515</v>
+        <v>1985</v>
       </c>
       <c r="Y51" t="str">
         <f t="shared" si="18"/>
@@ -5355,11 +5358,11 @@
       </c>
       <c r="W52">
         <f t="shared" si="16"/>
-        <v>20850</v>
+        <v>17150</v>
       </c>
       <c r="X52">
         <f t="shared" si="17"/>
-        <v>2515</v>
+        <v>1985</v>
       </c>
       <c r="Y52" t="str">
         <f t="shared" si="18"/>
@@ -5429,18 +5432,18 @@
         <v>20</v>
       </c>
       <c r="U53">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="V53">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="W53">
         <f t="shared" si="16"/>
-        <v>23050</v>
+        <v>18750</v>
       </c>
       <c r="X53">
         <f t="shared" si="17"/>
-        <v>2895</v>
+        <v>2205</v>
       </c>
       <c r="Y53" t="str">
         <f t="shared" si="18"/>
@@ -5510,15 +5513,15 @@
         <v>30</v>
       </c>
       <c r="U54">
-        <v>3050</v>
+        <v>1800</v>
       </c>
       <c r="W54">
         <f t="shared" si="16"/>
-        <v>26100</v>
+        <v>20550</v>
       </c>
       <c r="X54">
         <f t="shared" si="17"/>
-        <v>2895</v>
+        <v>2205</v>
       </c>
       <c r="Y54" t="str">
         <f t="shared" si="18"/>
@@ -5588,15 +5591,15 @@
         <v>25</v>
       </c>
       <c r="V55">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="W55">
         <f t="shared" si="16"/>
-        <v>26100</v>
+        <v>20550</v>
       </c>
       <c r="X55">
         <f t="shared" si="17"/>
-        <v>3395</v>
+        <v>2475</v>
       </c>
       <c r="Y55" t="str">
         <f t="shared" si="18"/>
@@ -5666,15 +5669,15 @@
         <v>30</v>
       </c>
       <c r="U56">
-        <v>3100</v>
+        <v>2000</v>
       </c>
       <c r="W56">
         <f t="shared" si="16"/>
-        <v>29200</v>
+        <v>22550</v>
       </c>
       <c r="X56">
         <f t="shared" si="17"/>
-        <v>3395</v>
+        <v>2475</v>
       </c>
       <c r="Y56" t="str">
         <f t="shared" si="18"/>
@@ -5747,18 +5750,18 @@
         <v>15</v>
       </c>
       <c r="U57">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="V57">
-        <v>450</v>
+        <v>230</v>
       </c>
       <c r="W57">
         <f t="shared" si="16"/>
-        <v>31600</v>
+        <v>24350</v>
       </c>
       <c r="X57">
         <f t="shared" si="17"/>
-        <v>3845</v>
+        <v>2705</v>
       </c>
       <c r="Y57" t="str">
         <f t="shared" si="18"/>
@@ -5825,15 +5828,15 @@
         <v>30</v>
       </c>
       <c r="U58">
-        <v>3150</v>
+        <v>2200</v>
       </c>
       <c r="W58">
         <f t="shared" si="16"/>
-        <v>34750</v>
+        <v>26550</v>
       </c>
       <c r="X58">
         <f t="shared" si="17"/>
-        <v>3845</v>
+        <v>2705</v>
       </c>
       <c r="Y58" t="str">
         <f t="shared" si="18"/>
@@ -5903,15 +5906,15 @@
         <v>20</v>
       </c>
       <c r="V59">
-        <v>550</v>
+        <v>310</v>
       </c>
       <c r="W59">
         <f t="shared" si="16"/>
-        <v>34750</v>
+        <v>26550</v>
       </c>
       <c r="X59">
         <f t="shared" si="17"/>
-        <v>4395</v>
+        <v>3015</v>
       </c>
       <c r="Y59" t="str">
         <f t="shared" si="18"/>
@@ -5982,11 +5985,11 @@
       </c>
       <c r="W60">
         <f t="shared" si="16"/>
-        <v>34750</v>
+        <v>26550</v>
       </c>
       <c r="X60">
         <f t="shared" si="17"/>
-        <v>4395</v>
+        <v>3015</v>
       </c>
       <c r="Y60" t="str">
         <f t="shared" si="18"/>
@@ -6053,15 +6056,15 @@
         <v>40</v>
       </c>
       <c r="U61">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="W61">
         <f t="shared" si="16"/>
-        <v>39550</v>
+        <v>28950</v>
       </c>
       <c r="X61">
         <f t="shared" si="17"/>
-        <v>4395</v>
+        <v>3015</v>
       </c>
       <c r="Y61" t="str">
         <f t="shared" si="18"/>
@@ -6131,15 +6134,15 @@
         <v>20</v>
       </c>
       <c r="V62">
-        <v>780</v>
+        <v>470</v>
       </c>
       <c r="W62">
         <f t="shared" si="16"/>
-        <v>39550</v>
+        <v>28950</v>
       </c>
       <c r="X62">
         <f t="shared" si="17"/>
-        <v>5175</v>
+        <v>3485</v>
       </c>
       <c r="Y62" t="str">
         <f t="shared" si="18"/>
@@ -6212,18 +6215,18 @@
         <v>15</v>
       </c>
       <c r="U63">
-        <v>6900</v>
+        <v>2100</v>
       </c>
       <c r="V63">
-        <v>1290</v>
+        <v>780</v>
       </c>
       <c r="W63">
         <f t="shared" si="16"/>
-        <v>46450</v>
+        <v>31050</v>
       </c>
       <c r="X63">
         <f t="shared" si="17"/>
-        <v>6465</v>
+        <v>4265</v>
       </c>
       <c r="Y63" t="str">
         <f t="shared" si="18"/>
@@ -6262,7 +6265,7 @@
         <v>25</v>
       </c>
       <c r="I64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J64" t="s">
         <v>194</v>
@@ -6271,7 +6274,7 @@
         <v>195</v>
       </c>
       <c r="L64" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="M64">
         <f t="shared" si="5"/>
@@ -6293,15 +6296,15 @@
         <v>35</v>
       </c>
       <c r="U64">
-        <v>7900</v>
+        <v>3300</v>
       </c>
       <c r="W64">
         <f t="shared" si="16"/>
-        <v>54350</v>
+        <v>34350</v>
       </c>
       <c r="X64">
         <f t="shared" si="17"/>
-        <v>6465</v>
+        <v>4265</v>
       </c>
       <c r="Y64" t="str">
         <f t="shared" si="18"/>
@@ -6340,16 +6343,16 @@
         <v>30</v>
       </c>
       <c r="I65" t="s">
+        <v>198</v>
+      </c>
+      <c r="J65" t="s">
+        <v>197</v>
+      </c>
+      <c r="K65" t="s">
         <v>199</v>
       </c>
-      <c r="J65" t="s">
-        <v>198</v>
-      </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>200</v>
-      </c>
-      <c r="L65" t="s">
-        <v>201</v>
       </c>
       <c r="M65">
         <f t="shared" si="5"/>
@@ -6375,11 +6378,11 @@
       </c>
       <c r="W65">
         <f t="shared" si="16"/>
-        <v>54350</v>
+        <v>34350</v>
       </c>
       <c r="X65">
         <f t="shared" si="17"/>
-        <v>7965</v>
+        <v>5765</v>
       </c>
       <c r="Y65" t="str">
         <f t="shared" si="18"/>
@@ -6419,16 +6422,16 @@
         <v>33</v>
       </c>
       <c r="I66" t="s">
+        <v>202</v>
+      </c>
+      <c r="J66" t="s">
+        <v>201</v>
+      </c>
+      <c r="K66" t="s">
+        <v>199</v>
+      </c>
+      <c r="L66" t="s">
         <v>203</v>
-      </c>
-      <c r="J66" t="s">
-        <v>202</v>
-      </c>
-      <c r="K66" t="s">
-        <v>200</v>
-      </c>
-      <c r="L66" t="s">
-        <v>204</v>
       </c>
       <c r="M66">
         <f t="shared" si="5"/>
@@ -6450,15 +6453,15 @@
         <v>30</v>
       </c>
       <c r="U66">
-        <v>8700</v>
+        <v>6410</v>
       </c>
       <c r="W66">
         <f t="shared" si="16"/>
-        <v>63050</v>
+        <v>40760</v>
       </c>
       <c r="X66">
         <f t="shared" si="17"/>
-        <v>7965</v>
+        <v>5765</v>
       </c>
       <c r="Y66" t="str">
         <f t="shared" si="18"/>
@@ -6497,16 +6500,16 @@
         <v>27</v>
       </c>
       <c r="I67" t="s">
+        <v>204</v>
+      </c>
+      <c r="J67" t="s">
+        <v>201</v>
+      </c>
+      <c r="K67" t="s">
         <v>205</v>
       </c>
-      <c r="J67" t="s">
-        <v>202</v>
-      </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>206</v>
-      </c>
-      <c r="L67" t="s">
-        <v>207</v>
       </c>
       <c r="M67">
         <f t="shared" si="5"/>
@@ -6534,15 +6537,15 @@
         <v>8500</v>
       </c>
       <c r="V67">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="W67">
         <f t="shared" si="16"/>
-        <v>71550</v>
+        <v>49260</v>
       </c>
       <c r="X67">
         <f t="shared" si="17"/>
-        <v>9765</v>
+        <v>7665</v>
       </c>
       <c r="Y67" t="str">
         <f t="shared" si="18"/>
@@ -6581,16 +6584,16 @@
         <v>22</v>
       </c>
       <c r="I68" t="s">
+        <v>208</v>
+      </c>
+      <c r="J68" t="s">
+        <v>207</v>
+      </c>
+      <c r="K68" t="s">
         <v>209</v>
       </c>
-      <c r="J68" t="s">
-        <v>208</v>
-      </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>210</v>
-      </c>
-      <c r="L68" t="s">
-        <v>211</v>
       </c>
       <c r="M68">
         <f t="shared" ref="M68:M77" si="26">M67+N68</f>
@@ -6612,15 +6615,15 @@
         <v>30</v>
       </c>
       <c r="U68">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="W68">
         <f t="shared" si="16"/>
-        <v>81550</v>
+        <v>58960</v>
       </c>
       <c r="X68">
         <f t="shared" si="17"/>
-        <v>9765</v>
+        <v>7665</v>
       </c>
       <c r="Y68" t="str">
         <f t="shared" si="18"/>
@@ -6659,16 +6662,16 @@
         <v>34</v>
       </c>
       <c r="I69" t="s">
+        <v>213</v>
+      </c>
+      <c r="J69" t="s">
+        <v>211</v>
+      </c>
+      <c r="K69" t="s">
+        <v>212</v>
+      </c>
+      <c r="L69" t="s">
         <v>214</v>
-      </c>
-      <c r="J69" t="s">
-        <v>212</v>
-      </c>
-      <c r="K69" t="s">
-        <v>213</v>
-      </c>
-      <c r="L69" t="s">
-        <v>215</v>
       </c>
       <c r="M69">
         <f t="shared" si="26"/>
@@ -6690,15 +6693,15 @@
         <v>20</v>
       </c>
       <c r="V69">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="W69">
         <f t="shared" si="16"/>
-        <v>81550</v>
+        <v>58960</v>
       </c>
       <c r="X69">
         <f t="shared" si="17"/>
-        <v>11965</v>
+        <v>10365</v>
       </c>
       <c r="Y69" t="str">
         <f t="shared" si="18"/>
@@ -6737,16 +6740,16 @@
         <v>45</v>
       </c>
       <c r="I70" t="s">
+        <v>216</v>
+      </c>
+      <c r="J70" t="s">
+        <v>215</v>
+      </c>
+      <c r="K70" t="s">
         <v>217</v>
       </c>
-      <c r="J70" t="s">
-        <v>216</v>
-      </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>218</v>
-      </c>
-      <c r="L70" t="s">
-        <v>219</v>
       </c>
       <c r="M70">
         <f t="shared" si="26"/>
@@ -6768,15 +6771,15 @@
         <v>40</v>
       </c>
       <c r="U70">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="W70">
         <f t="shared" si="16"/>
-        <v>93550</v>
+        <v>69960</v>
       </c>
       <c r="X70">
         <f t="shared" si="17"/>
-        <v>11965</v>
+        <v>10365</v>
       </c>
       <c r="Y70" t="str">
         <f t="shared" si="18"/>
@@ -6815,16 +6818,16 @@
         <v>29</v>
       </c>
       <c r="I71" t="s">
+        <v>220</v>
+      </c>
+      <c r="J71" t="s">
+        <v>219</v>
+      </c>
+      <c r="K71" t="s">
         <v>221</v>
       </c>
-      <c r="J71" t="s">
-        <v>220</v>
-      </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>222</v>
-      </c>
-      <c r="L71" t="s">
-        <v>223</v>
       </c>
       <c r="M71">
         <f t="shared" si="26"/>
@@ -6847,11 +6850,11 @@
       </c>
       <c r="W71">
         <f t="shared" si="16"/>
-        <v>93550</v>
+        <v>69960</v>
       </c>
       <c r="X71">
         <f t="shared" si="17"/>
-        <v>11965</v>
+        <v>10365</v>
       </c>
       <c r="Y71" t="str">
         <f t="shared" si="18"/>
@@ -6890,16 +6893,16 @@
         <v>25</v>
       </c>
       <c r="I72" t="s">
+        <v>223</v>
+      </c>
+      <c r="J72" t="s">
+        <v>219</v>
+      </c>
+      <c r="K72" t="s">
         <v>224</v>
       </c>
-      <c r="J72" t="s">
-        <v>220</v>
-      </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>225</v>
-      </c>
-      <c r="L72" t="s">
-        <v>226</v>
       </c>
       <c r="M72">
         <f t="shared" si="26"/>
@@ -6921,15 +6924,15 @@
         <v>35</v>
       </c>
       <c r="U72">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="W72">
         <f t="shared" si="16"/>
-        <v>103550</v>
+        <v>81960</v>
       </c>
       <c r="X72">
         <f t="shared" si="17"/>
-        <v>11965</v>
+        <v>10365</v>
       </c>
       <c r="Y72" t="str">
         <f t="shared" si="18"/>
@@ -6968,16 +6971,16 @@
         <v>49</v>
       </c>
       <c r="I73" t="s">
+        <v>227</v>
+      </c>
+      <c r="J73" t="s">
+        <v>226</v>
+      </c>
+      <c r="K73" t="s">
         <v>228</v>
       </c>
-      <c r="J73" t="s">
-        <v>227</v>
-      </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>229</v>
-      </c>
-      <c r="L73" t="s">
-        <v>230</v>
       </c>
       <c r="M73">
         <f t="shared" si="26"/>
@@ -7002,18 +7005,18 @@
         <v>25</v>
       </c>
       <c r="U73">
-        <v>12800</v>
+        <v>11500</v>
       </c>
       <c r="V73">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="W73">
         <f t="shared" si="16"/>
-        <v>116350</v>
+        <v>93460</v>
       </c>
       <c r="X73">
         <f t="shared" si="17"/>
-        <v>14565</v>
+        <v>13365</v>
       </c>
       <c r="Y73" t="str">
         <f t="shared" si="18"/>
@@ -7052,16 +7055,16 @@
         <v>36</v>
       </c>
       <c r="I74" t="s">
+        <v>231</v>
+      </c>
+      <c r="J74" t="s">
+        <v>230</v>
+      </c>
+      <c r="K74" t="s">
+        <v>199</v>
+      </c>
+      <c r="L74" t="s">
         <v>232</v>
-      </c>
-      <c r="J74" t="s">
-        <v>231</v>
-      </c>
-      <c r="K74" t="s">
-        <v>200</v>
-      </c>
-      <c r="L74" t="s">
-        <v>233</v>
       </c>
       <c r="M74">
         <f t="shared" si="26"/>
@@ -7083,15 +7086,15 @@
         <v>35</v>
       </c>
       <c r="U74">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="W74">
         <f t="shared" si="16"/>
-        <v>131850</v>
+        <v>111960</v>
       </c>
       <c r="X74">
         <f t="shared" si="17"/>
-        <v>14565</v>
+        <v>13365</v>
       </c>
       <c r="Y74" t="str">
         <f t="shared" si="18"/>
@@ -7130,16 +7133,16 @@
         <v>42</v>
       </c>
       <c r="I75" t="s">
+        <v>233</v>
+      </c>
+      <c r="J75" t="s">
+        <v>230</v>
+      </c>
+      <c r="K75" t="s">
+        <v>199</v>
+      </c>
+      <c r="L75" t="s">
         <v>234</v>
-      </c>
-      <c r="J75" t="s">
-        <v>231</v>
-      </c>
-      <c r="K75" t="s">
-        <v>200</v>
-      </c>
-      <c r="L75" t="s">
-        <v>235</v>
       </c>
       <c r="M75">
         <f t="shared" si="26"/>
@@ -7164,18 +7167,18 @@
         <v>20</v>
       </c>
       <c r="U75">
-        <v>17510</v>
+        <v>27400</v>
       </c>
       <c r="V75">
-        <v>3150</v>
+        <v>3350</v>
       </c>
       <c r="W75">
         <f t="shared" si="16"/>
-        <v>149360</v>
+        <v>139360</v>
       </c>
       <c r="X75">
         <f t="shared" si="17"/>
-        <v>17715</v>
+        <v>16715</v>
       </c>
       <c r="Y75" t="str">
         <f t="shared" si="18"/>
@@ -7214,16 +7217,16 @@
         <v>32</v>
       </c>
       <c r="I76" t="s">
+        <v>236</v>
+      </c>
+      <c r="J76" t="s">
+        <v>235</v>
+      </c>
+      <c r="K76" t="s">
+        <v>199</v>
+      </c>
+      <c r="L76" t="s">
         <v>237</v>
-      </c>
-      <c r="J76" t="s">
-        <v>236</v>
-      </c>
-      <c r="K76" t="s">
-        <v>200</v>
-      </c>
-      <c r="L76" t="s">
-        <v>238</v>
       </c>
       <c r="M76">
         <f t="shared" si="26"/>
@@ -7245,7 +7248,7 @@
         <v>30</v>
       </c>
       <c r="U76">
-        <v>25800</v>
+        <v>35800</v>
       </c>
       <c r="W76">
         <f t="shared" si="16"/>
@@ -7253,7 +7256,7 @@
       </c>
       <c r="X76">
         <f t="shared" si="17"/>
-        <v>17715</v>
+        <v>16715</v>
       </c>
       <c r="Y76" t="str">
         <f t="shared" si="18"/>
@@ -7298,10 +7301,10 @@
         <v>16</v>
       </c>
       <c r="K77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L77" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M77">
         <f t="shared" si="26"/>
@@ -7323,7 +7326,7 @@
         <v>20</v>
       </c>
       <c r="V77">
-        <v>4180</v>
+        <v>5180</v>
       </c>
       <c r="W77">
         <f t="shared" si="16"/>

--- a/Excel/작업Research.xlsx
+++ b/Excel/작업Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5595185B-8585-49C3-A3D4-5E60452C2262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A9C868-1C19-440C-9EE2-D07A656288B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -1377,35 +1377,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B294627A-88CA-400D-B366-14507FB4AA24}">
-  <dimension ref="A1:AE77"/>
+  <dimension ref="A1:AD77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="6.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="8" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="8" width="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="12" width="12.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="14" width="8.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="12.625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="12.625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.125" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="6" width="8" customWidth="1"/>
+    <col min="7" max="8" width="8" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="12" width="12.625" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="14" width="8.125" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="12.625" customWidth="1"/>
+    <col min="17" max="17" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="12.625" customWidth="1"/>
     <col min="19" max="19" width="8.25" customWidth="1"/>
     <col min="20" max="20" width="7.875" customWidth="1"/>
-    <col min="21" max="22" width="7.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="7.875" customWidth="1" collapsed="1"/>
+    <col min="21" max="22" width="7.875" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="7.875" customWidth="1"/>
     <col min="24" max="24" width="8.25" customWidth="1"/>
-    <col min="25" max="28" width="8.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="9" collapsed="1"/>
-    <col min="30" max="30" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="9" collapsed="1"/>
+    <col min="25" max="28" width="8.25" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4205,17 +4202,11 @@
       </c>
       <c r="B38">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C38" t="str">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E38">
-        <v>12</v>
-      </c>
-      <c r="F38">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="G38">
         <v>202</v>
@@ -4367,17 +4358,11 @@
       </c>
       <c r="B40">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C40" t="str">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E40">
-        <v>20</v>
-      </c>
-      <c r="F40">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="G40">
         <v>219</v>
@@ -4598,17 +4583,11 @@
       </c>
       <c r="B43">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C43" t="str">
+        <v>0</v>
+      </c>
+      <c r="C43">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E43">
-        <v>14</v>
-      </c>
-      <c r="F43">
-        <v>9</v>
+        <v>234</v>
       </c>
       <c r="G43">
         <v>262</v>
@@ -4754,17 +4733,11 @@
       </c>
       <c r="B45">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C45" t="str">
+        <v>0</v>
+      </c>
+      <c r="C45">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E45">
-        <v>23</v>
-      </c>
-      <c r="F45">
-        <v>9</v>
+        <v>253</v>
       </c>
       <c r="G45">
         <v>296</v>
@@ -4940,7 +4913,7 @@
         <v>9</v>
       </c>
       <c r="O47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P47">
         <v>17500</v>
@@ -4985,17 +4958,11 @@
       </c>
       <c r="B48">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C48" t="str">
+        <v>0</v>
+      </c>
+      <c r="C48">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E48">
-        <v>16</v>
-      </c>
-      <c r="F48">
-        <v>10</v>
+        <v>283</v>
       </c>
       <c r="G48">
         <v>339</v>
@@ -5024,7 +4991,7 @@
         <v>11</v>
       </c>
       <c r="O48">
-        <v>3</v>
+        <v>1.9990000000000001</v>
       </c>
       <c r="P48">
         <v>17900</v>
@@ -5108,7 +5075,7 @@
         <v>12</v>
       </c>
       <c r="O49">
-        <v>3</v>
+        <v>1.9990000000000001</v>
       </c>
       <c r="P49">
         <v>17300</v>
@@ -5183,7 +5150,7 @@
         <v>7</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>1.9990000000000001</v>
       </c>
       <c r="P50">
         <v>18200</v>
@@ -5261,7 +5228,7 @@
         <v>8</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>1.9990000000000001</v>
       </c>
       <c r="P51">
         <v>18500</v>
@@ -5306,17 +5273,11 @@
       </c>
       <c r="B52">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C52" t="str">
+        <v>0</v>
+      </c>
+      <c r="C52">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E52">
-        <v>26</v>
-      </c>
-      <c r="F52">
-        <v>10</v>
+        <v>319</v>
       </c>
       <c r="G52">
         <v>399</v>
@@ -5345,7 +5306,7 @@
         <v>9</v>
       </c>
       <c r="O52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P52">
         <v>41000</v>
@@ -5417,7 +5378,7 @@
         <v>10</v>
       </c>
       <c r="O53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P53">
         <v>23200</v>
@@ -5501,7 +5462,7 @@
         <v>9</v>
       </c>
       <c r="O54">
-        <v>6</v>
+        <v>3.9990000000000001</v>
       </c>
       <c r="P54">
         <v>23000</v>
@@ -5579,7 +5540,7 @@
         <v>10</v>
       </c>
       <c r="O55">
-        <v>6</v>
+        <v>3.9990000000000001</v>
       </c>
       <c r="P55">
         <v>22700</v>
@@ -5657,7 +5618,7 @@
         <v>9</v>
       </c>
       <c r="O56">
-        <v>6</v>
+        <v>3.9990000000000001</v>
       </c>
       <c r="P56">
         <v>23200</v>
@@ -5735,7 +5696,7 @@
         <v>11</v>
       </c>
       <c r="O57">
-        <v>6</v>
+        <v>3.9990000000000001</v>
       </c>
       <c r="P57">
         <v>24000</v>
@@ -5816,7 +5777,7 @@
         <v>10</v>
       </c>
       <c r="O58">
-        <v>6</v>
+        <v>3.9990000000000001</v>
       </c>
       <c r="P58">
         <v>23500</v>
@@ -5894,7 +5855,7 @@
         <v>11</v>
       </c>
       <c r="O59">
-        <v>6</v>
+        <v>3.9990000000000001</v>
       </c>
       <c r="P59">
         <v>23800</v>
@@ -5972,7 +5933,7 @@
         <v>10</v>
       </c>
       <c r="O60">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P60">
         <v>52000</v>
@@ -6044,7 +6005,7 @@
         <v>12</v>
       </c>
       <c r="O61">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P61">
         <v>28500</v>
@@ -6122,7 +6083,7 @@
         <v>11</v>
       </c>
       <c r="O62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P62">
         <v>28000</v>
@@ -6200,7 +6161,7 @@
         <v>10</v>
       </c>
       <c r="O63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P63">
         <v>28700</v>
@@ -6284,7 +6245,7 @@
         <v>11</v>
       </c>
       <c r="O64">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P64">
         <v>28500</v>
@@ -6362,7 +6323,7 @@
         <v>12</v>
       </c>
       <c r="O65">
-        <v>8</v>
+        <v>8.9990000000000006</v>
       </c>
       <c r="P65">
         <v>29200</v>
@@ -6441,7 +6402,7 @@
         <v>10</v>
       </c>
       <c r="O66">
-        <v>9</v>
+        <v>8.9990000000000006</v>
       </c>
       <c r="P66">
         <v>29500</v>
@@ -6519,7 +6480,7 @@
         <v>12</v>
       </c>
       <c r="O67">
-        <v>9</v>
+        <v>8.9990000000000006</v>
       </c>
       <c r="P67">
         <v>29000</v>
@@ -6603,7 +6564,7 @@
         <v>11</v>
       </c>
       <c r="O68">
-        <v>10</v>
+        <v>8.9990000000000006</v>
       </c>
       <c r="P68">
         <v>29700</v>
@@ -6681,7 +6642,7 @@
         <v>12</v>
       </c>
       <c r="O69">
-        <v>10</v>
+        <v>8.9990000000000006</v>
       </c>
       <c r="P69">
         <v>29500</v>
@@ -6759,7 +6720,7 @@
         <v>11</v>
       </c>
       <c r="O70">
-        <v>11</v>
+        <v>8.9990000000000006</v>
       </c>
       <c r="P70">
         <v>29900</v>
@@ -6837,7 +6798,7 @@
         <v>12</v>
       </c>
       <c r="O71">
-        <v>11</v>
+        <v>10.999000000000001</v>
       </c>
       <c r="P71">
         <v>64000</v>
@@ -6912,7 +6873,7 @@
         <v>11</v>
       </c>
       <c r="O72">
-        <v>12</v>
+        <v>10.999000000000001</v>
       </c>
       <c r="P72">
         <v>33000</v>
@@ -6990,7 +6951,7 @@
         <v>12</v>
       </c>
       <c r="O73">
-        <v>12</v>
+        <v>10.999000000000001</v>
       </c>
       <c r="P73">
         <v>33500</v>
@@ -7074,7 +7035,7 @@
         <v>10</v>
       </c>
       <c r="O74">
-        <v>13</v>
+        <v>10.999000000000001</v>
       </c>
       <c r="P74">
         <v>33800</v>
@@ -7152,7 +7113,7 @@
         <v>12</v>
       </c>
       <c r="O75">
-        <v>13</v>
+        <v>10.999000000000001</v>
       </c>
       <c r="P75">
         <v>34500</v>
@@ -7236,7 +7197,7 @@
         <v>11</v>
       </c>
       <c r="O76">
-        <v>13</v>
+        <v>10.999000000000001</v>
       </c>
       <c r="P76">
         <v>34200</v>
@@ -7314,7 +7275,7 @@
         <v>13</v>
       </c>
       <c r="O77">
-        <v>13</v>
+        <v>10.999000000000001</v>
       </c>
       <c r="P77">
         <v>35000</v>

--- a/Excel/작업Research.xlsx
+++ b/Excel/작업Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A9C868-1C19-440C-9EE2-D07A656288B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F53DEE-650D-4DAB-9BF9-830BAC4768D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchTable" sheetId="3" r:id="rId1"/>
@@ -1380,8 +1380,8 @@
   <dimension ref="A1:AD77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O52" sqref="O52"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>

--- a/Excel/작업Research.xlsx
+++ b/Excel/작업Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F53DEE-650D-4DAB-9BF9-830BAC4768D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3B120A-6BDF-41FE-84C7-9F44F2BC8308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchTable" sheetId="3" r:id="rId1"/>
@@ -1380,8 +1380,8 @@
   <dimension ref="A1:AD77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3715,14 +3715,14 @@
         <v>15</v>
       </c>
       <c r="U31">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="V31">
         <v>50</v>
       </c>
       <c r="W31">
         <f t="shared" si="16"/>
-        <v>4040</v>
+        <v>4090</v>
       </c>
       <c r="X31">
         <f t="shared" si="17"/>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="W32">
         <f t="shared" si="16"/>
-        <v>4040</v>
+        <v>4090</v>
       </c>
       <c r="X32">
         <f t="shared" si="17"/>
@@ -3868,11 +3868,11 @@
         <v>30</v>
       </c>
       <c r="U33">
-        <v>490</v>
+        <v>610</v>
       </c>
       <c r="W33">
         <f t="shared" si="16"/>
-        <v>4530</v>
+        <v>4700</v>
       </c>
       <c r="X33">
         <f t="shared" si="17"/>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="W34">
         <f t="shared" si="16"/>
-        <v>4530</v>
+        <v>4700</v>
       </c>
       <c r="X34">
         <f t="shared" si="17"/>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="W35">
         <f t="shared" si="16"/>
-        <v>4530</v>
+        <v>4700</v>
       </c>
       <c r="X35">
         <f t="shared" si="17"/>
@@ -4097,11 +4097,11 @@
         <v>35</v>
       </c>
       <c r="U36">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="W36">
         <f t="shared" si="16"/>
-        <v>5030</v>
+        <v>5400</v>
       </c>
       <c r="X36">
         <f t="shared" si="17"/>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="W37">
         <f t="shared" si="16"/>
-        <v>5030</v>
+        <v>5400</v>
       </c>
       <c r="X37">
         <f t="shared" si="17"/>
@@ -4247,11 +4247,11 @@
         <v>30</v>
       </c>
       <c r="U38">
-        <v>520</v>
+        <v>750</v>
       </c>
       <c r="W38">
         <f t="shared" si="16"/>
-        <v>5550</v>
+        <v>6150</v>
       </c>
       <c r="X38">
         <f t="shared" si="17"/>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="W39">
         <f t="shared" si="16"/>
-        <v>6150</v>
+        <v>6750</v>
       </c>
       <c r="X39">
         <f t="shared" si="17"/>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="W40">
         <f t="shared" si="16"/>
-        <v>7050</v>
+        <v>7650</v>
       </c>
       <c r="X40">
         <f t="shared" si="17"/>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="W41">
         <f t="shared" si="16"/>
-        <v>7050</v>
+        <v>7650</v>
       </c>
       <c r="X41">
         <f t="shared" si="17"/>
@@ -4550,11 +4550,11 @@
         <v>30</v>
       </c>
       <c r="U42">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="W42">
         <f t="shared" si="16"/>
-        <v>8450</v>
+        <v>8650</v>
       </c>
       <c r="X42">
         <f t="shared" si="17"/>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="W43">
         <f t="shared" si="16"/>
-        <v>8450</v>
+        <v>8650</v>
       </c>
       <c r="X43">
         <f t="shared" si="17"/>
@@ -4700,11 +4700,11 @@
         <v>30</v>
       </c>
       <c r="U44">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="W44">
         <f t="shared" si="16"/>
-        <v>10250</v>
+        <v>10050</v>
       </c>
       <c r="X44">
         <f t="shared" si="17"/>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="W45">
         <f t="shared" si="16"/>
-        <v>10250</v>
+        <v>10050</v>
       </c>
       <c r="X45">
         <f t="shared" si="17"/>
@@ -4847,7 +4847,7 @@
         <v>35</v>
       </c>
       <c r="U46">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="W46">
         <f t="shared" si="16"/>

--- a/Excel/작업Research.xlsx
+++ b/Excel/작업Research.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3B120A-6BDF-41FE-84C7-9F44F2BC8308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C85C8F-19E1-453F-91C1-9D7F4F655195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchTable" sheetId="3" r:id="rId1"/>
+    <sheet name="AnalysisTable" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ResearchTable!$O$1:$O$77</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="249">
   <si>
     <t>requiredAccumulatedPowerLevel|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -991,6 +992,38 @@
   </si>
   <si>
     <t>2세트 12레벨 37명 444 가능 403만골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiredTime|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiredAccumulatedTime|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxTime|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goldBonus|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>originPeriod|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipPeriod|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diamondPeriod|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energyPeriod|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1379,9 +1412,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B294627A-88CA-400D-B366-14507FB4AA24}">
   <dimension ref="A1:AD77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -7320,4 +7353,3418 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C89801-F280-4F62-92BA-5EAF5F1B487B}">
+  <dimension ref="A1:I100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <f>3*24*60</f>
+        <v>4320</v>
+      </c>
+      <c r="G2">
+        <f>4*24*60</f>
+        <v>5760</v>
+      </c>
+      <c r="H2">
+        <f>7*24*60</f>
+        <v>10080</v>
+      </c>
+      <c r="I2">
+        <f>2*24*60</f>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <f>C2+B3</f>
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">3*24*60</f>
+        <v>4320</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">4*24*60</f>
+        <v>5760</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="2">7*24*60</f>
+        <v>10080</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="3">2*24*60</f>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <f>C3+B4</f>
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>70</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <f>C4+B5</f>
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>90</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <f>C5+B6</f>
+        <v>65</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>110</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <f>C6+B7</f>
+        <v>105</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>130</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <f>C7+B8</f>
+        <v>155</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>150</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <f>C8+B9</f>
+        <v>215</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <v>170</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <f>C9+B10</f>
+        <v>285</v>
+      </c>
+      <c r="D10">
+        <v>90</v>
+      </c>
+      <c r="E10">
+        <v>190</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <f>C10+B11</f>
+        <v>365</v>
+      </c>
+      <c r="D11">
+        <f>2*60</f>
+        <v>120</v>
+      </c>
+      <c r="E11">
+        <v>210</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <f>C11+B12</f>
+        <v>455</v>
+      </c>
+      <c r="D12">
+        <v>120</v>
+      </c>
+      <c r="E12">
+        <v>230</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <f>C12+B13</f>
+        <v>555</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
+      </c>
+      <c r="E13">
+        <v>250</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>110</v>
+      </c>
+      <c r="C14">
+        <f>C13+B14</f>
+        <v>665</v>
+      </c>
+      <c r="D14">
+        <v>120</v>
+      </c>
+      <c r="E14">
+        <v>270</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>120</v>
+      </c>
+      <c r="C15">
+        <f>C14+B15</f>
+        <v>785</v>
+      </c>
+      <c r="D15">
+        <v>120</v>
+      </c>
+      <c r="E15">
+        <v>290</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>130</v>
+      </c>
+      <c r="C16">
+        <f>C15+B16</f>
+        <v>915</v>
+      </c>
+      <c r="D16">
+        <v>120</v>
+      </c>
+      <c r="E16">
+        <v>310</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>140</v>
+      </c>
+      <c r="C17">
+        <f>C16+B17</f>
+        <v>1055</v>
+      </c>
+      <c r="D17">
+        <v>120</v>
+      </c>
+      <c r="E17">
+        <v>330</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>150</v>
+      </c>
+      <c r="C18">
+        <f>C17+B18</f>
+        <v>1205</v>
+      </c>
+      <c r="D18">
+        <v>120</v>
+      </c>
+      <c r="E18">
+        <v>350</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>160</v>
+      </c>
+      <c r="C19">
+        <f>C18+B19</f>
+        <v>1365</v>
+      </c>
+      <c r="D19">
+        <v>120</v>
+      </c>
+      <c r="E19">
+        <v>370</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>170</v>
+      </c>
+      <c r="C20">
+        <f>C19+B20</f>
+        <v>1535</v>
+      </c>
+      <c r="D20">
+        <v>120</v>
+      </c>
+      <c r="E20">
+        <v>390</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>180</v>
+      </c>
+      <c r="C21">
+        <f>C20+B21</f>
+        <v>1715</v>
+      </c>
+      <c r="D21">
+        <f>3*60</f>
+        <v>180</v>
+      </c>
+      <c r="E21">
+        <v>410</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>190</v>
+      </c>
+      <c r="C22">
+        <f>C21+B22</f>
+        <v>1905</v>
+      </c>
+      <c r="D22">
+        <v>180</v>
+      </c>
+      <c r="E22">
+        <v>430</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>200</v>
+      </c>
+      <c r="C23">
+        <f>C22+B23</f>
+        <v>2105</v>
+      </c>
+      <c r="D23">
+        <v>180</v>
+      </c>
+      <c r="E23">
+        <v>450</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>210</v>
+      </c>
+      <c r="C24">
+        <f>C23+B24</f>
+        <v>2315</v>
+      </c>
+      <c r="D24">
+        <v>180</v>
+      </c>
+      <c r="E24">
+        <v>470</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>220</v>
+      </c>
+      <c r="C25">
+        <f>C24+B25</f>
+        <v>2535</v>
+      </c>
+      <c r="D25">
+        <v>180</v>
+      </c>
+      <c r="E25">
+        <v>490</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>230</v>
+      </c>
+      <c r="C26">
+        <f>C25+B26</f>
+        <v>2765</v>
+      </c>
+      <c r="D26">
+        <v>180</v>
+      </c>
+      <c r="E26">
+        <v>510</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>240</v>
+      </c>
+      <c r="C27">
+        <f>C26+B27</f>
+        <v>3005</v>
+      </c>
+      <c r="D27">
+        <v>180</v>
+      </c>
+      <c r="E27">
+        <v>530</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>250</v>
+      </c>
+      <c r="C28">
+        <f>C27+B28</f>
+        <v>3255</v>
+      </c>
+      <c r="D28">
+        <v>180</v>
+      </c>
+      <c r="E28">
+        <v>550</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>260</v>
+      </c>
+      <c r="C29">
+        <f>C28+B29</f>
+        <v>3515</v>
+      </c>
+      <c r="D29">
+        <v>180</v>
+      </c>
+      <c r="E29">
+        <v>570</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>270</v>
+      </c>
+      <c r="C30">
+        <f>C29+B30</f>
+        <v>3785</v>
+      </c>
+      <c r="D30">
+        <v>180</v>
+      </c>
+      <c r="E30">
+        <v>590</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>280</v>
+      </c>
+      <c r="C31">
+        <f>C30+B31</f>
+        <v>4065</v>
+      </c>
+      <c r="D31">
+        <f>4*60</f>
+        <v>240</v>
+      </c>
+      <c r="E31">
+        <v>610</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>290</v>
+      </c>
+      <c r="C32">
+        <f>C31+B32</f>
+        <v>4355</v>
+      </c>
+      <c r="D32">
+        <v>240</v>
+      </c>
+      <c r="E32">
+        <v>630</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>300</v>
+      </c>
+      <c r="C33">
+        <f>C32+B33</f>
+        <v>4655</v>
+      </c>
+      <c r="D33">
+        <v>240</v>
+      </c>
+      <c r="E33">
+        <v>650</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>310</v>
+      </c>
+      <c r="C34">
+        <f>C33+B34</f>
+        <v>4965</v>
+      </c>
+      <c r="D34">
+        <v>240</v>
+      </c>
+      <c r="E34">
+        <v>670</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>320</v>
+      </c>
+      <c r="C35">
+        <f>C34+B35</f>
+        <v>5285</v>
+      </c>
+      <c r="D35">
+        <v>240</v>
+      </c>
+      <c r="E35">
+        <v>690</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>330</v>
+      </c>
+      <c r="C36">
+        <f>C35+B36</f>
+        <v>5615</v>
+      </c>
+      <c r="D36">
+        <v>240</v>
+      </c>
+      <c r="E36">
+        <v>710</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>340</v>
+      </c>
+      <c r="C37">
+        <f>C36+B37</f>
+        <v>5955</v>
+      </c>
+      <c r="D37">
+        <v>240</v>
+      </c>
+      <c r="E37">
+        <v>730</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>350</v>
+      </c>
+      <c r="C38">
+        <f>C37+B38</f>
+        <v>6305</v>
+      </c>
+      <c r="D38">
+        <v>240</v>
+      </c>
+      <c r="E38">
+        <v>750</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>360</v>
+      </c>
+      <c r="C39">
+        <f>C38+B39</f>
+        <v>6665</v>
+      </c>
+      <c r="D39">
+        <v>240</v>
+      </c>
+      <c r="E39">
+        <v>770</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>370</v>
+      </c>
+      <c r="C40">
+        <f>C39+B40</f>
+        <v>7035</v>
+      </c>
+      <c r="D40">
+        <v>240</v>
+      </c>
+      <c r="E40">
+        <v>790</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>380</v>
+      </c>
+      <c r="C41">
+        <f>C40+B41</f>
+        <v>7415</v>
+      </c>
+      <c r="D41">
+        <v>360</v>
+      </c>
+      <c r="E41">
+        <v>810</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>390</v>
+      </c>
+      <c r="C42">
+        <f>C41+B42</f>
+        <v>7805</v>
+      </c>
+      <c r="D42">
+        <v>360</v>
+      </c>
+      <c r="E42">
+        <v>830</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>400</v>
+      </c>
+      <c r="C43">
+        <f>C42+B43</f>
+        <v>8205</v>
+      </c>
+      <c r="D43">
+        <v>360</v>
+      </c>
+      <c r="E43">
+        <v>850</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>410</v>
+      </c>
+      <c r="C44">
+        <f>C43+B44</f>
+        <v>8615</v>
+      </c>
+      <c r="D44">
+        <v>360</v>
+      </c>
+      <c r="E44">
+        <v>870</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>420</v>
+      </c>
+      <c r="C45">
+        <f>C44+B45</f>
+        <v>9035</v>
+      </c>
+      <c r="D45">
+        <v>360</v>
+      </c>
+      <c r="E45">
+        <v>890</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>430</v>
+      </c>
+      <c r="C46">
+        <f>C45+B46</f>
+        <v>9465</v>
+      </c>
+      <c r="D46">
+        <v>360</v>
+      </c>
+      <c r="E46">
+        <v>910</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>440</v>
+      </c>
+      <c r="C47">
+        <f>C46+B47</f>
+        <v>9905</v>
+      </c>
+      <c r="D47">
+        <v>360</v>
+      </c>
+      <c r="E47">
+        <v>930</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>450</v>
+      </c>
+      <c r="C48">
+        <f>C47+B48</f>
+        <v>10355</v>
+      </c>
+      <c r="D48">
+        <v>360</v>
+      </c>
+      <c r="E48">
+        <v>950</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>460</v>
+      </c>
+      <c r="C49">
+        <f>C48+B49</f>
+        <v>10815</v>
+      </c>
+      <c r="D49">
+        <v>360</v>
+      </c>
+      <c r="E49">
+        <v>970</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>470</v>
+      </c>
+      <c r="C50">
+        <f>C49+B50</f>
+        <v>11285</v>
+      </c>
+      <c r="D50">
+        <v>360</v>
+      </c>
+      <c r="E50">
+        <v>990</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>480</v>
+      </c>
+      <c r="C51">
+        <f>C50+B51</f>
+        <v>11765</v>
+      </c>
+      <c r="D51">
+        <v>480</v>
+      </c>
+      <c r="E51">
+        <v>1010</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>490</v>
+      </c>
+      <c r="C52">
+        <f>C51+B52</f>
+        <v>12255</v>
+      </c>
+      <c r="D52">
+        <v>480</v>
+      </c>
+      <c r="E52">
+        <v>1030</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>500</v>
+      </c>
+      <c r="C53">
+        <f>C52+B53</f>
+        <v>12755</v>
+      </c>
+      <c r="D53">
+        <v>480</v>
+      </c>
+      <c r="E53">
+        <v>1050</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>510</v>
+      </c>
+      <c r="C54">
+        <f>C53+B54</f>
+        <v>13265</v>
+      </c>
+      <c r="D54">
+        <v>480</v>
+      </c>
+      <c r="E54">
+        <v>1070</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>520</v>
+      </c>
+      <c r="C55">
+        <f>C54+B55</f>
+        <v>13785</v>
+      </c>
+      <c r="D55">
+        <v>480</v>
+      </c>
+      <c r="E55">
+        <v>1090</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>530</v>
+      </c>
+      <c r="C56">
+        <f>C55+B56</f>
+        <v>14315</v>
+      </c>
+      <c r="D56">
+        <v>480</v>
+      </c>
+      <c r="E56">
+        <v>1110</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>540</v>
+      </c>
+      <c r="C57">
+        <f>C56+B57</f>
+        <v>14855</v>
+      </c>
+      <c r="D57">
+        <v>480</v>
+      </c>
+      <c r="E57">
+        <v>1130</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>550</v>
+      </c>
+      <c r="C58">
+        <f>C57+B58</f>
+        <v>15405</v>
+      </c>
+      <c r="D58">
+        <v>480</v>
+      </c>
+      <c r="E58">
+        <v>1150</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>560</v>
+      </c>
+      <c r="C59">
+        <f>C58+B59</f>
+        <v>15965</v>
+      </c>
+      <c r="D59">
+        <v>480</v>
+      </c>
+      <c r="E59">
+        <v>1170</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>570</v>
+      </c>
+      <c r="C60">
+        <f>C59+B60</f>
+        <v>16535</v>
+      </c>
+      <c r="D60">
+        <v>480</v>
+      </c>
+      <c r="E60">
+        <v>1190</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>580</v>
+      </c>
+      <c r="C61">
+        <f>C60+B61</f>
+        <v>17115</v>
+      </c>
+      <c r="D61">
+        <v>600</v>
+      </c>
+      <c r="E61">
+        <v>1210</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>590</v>
+      </c>
+      <c r="C62">
+        <f>C61+B62</f>
+        <v>17705</v>
+      </c>
+      <c r="D62">
+        <v>600</v>
+      </c>
+      <c r="E62">
+        <v>1230</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>600</v>
+      </c>
+      <c r="C63">
+        <f>C62+B63</f>
+        <v>18305</v>
+      </c>
+      <c r="D63">
+        <v>600</v>
+      </c>
+      <c r="E63">
+        <v>1250</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>610</v>
+      </c>
+      <c r="C64">
+        <f>C63+B64</f>
+        <v>18915</v>
+      </c>
+      <c r="D64">
+        <v>600</v>
+      </c>
+      <c r="E64">
+        <v>1270</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>620</v>
+      </c>
+      <c r="C65">
+        <f>C64+B65</f>
+        <v>19535</v>
+      </c>
+      <c r="D65">
+        <v>600</v>
+      </c>
+      <c r="E65">
+        <v>1290</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>630</v>
+      </c>
+      <c r="C66">
+        <f>C65+B66</f>
+        <v>20165</v>
+      </c>
+      <c r="D66">
+        <v>600</v>
+      </c>
+      <c r="E66">
+        <v>1310</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>640</v>
+      </c>
+      <c r="C67">
+        <f>C66+B67</f>
+        <v>20805</v>
+      </c>
+      <c r="D67">
+        <v>600</v>
+      </c>
+      <c r="E67">
+        <v>1330</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F100" si="4">3*24*60</f>
+        <v>4320</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G100" si="5">4*24*60</f>
+        <v>5760</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H100" si="6">7*24*60</f>
+        <v>10080</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I100" si="7">2*24*60</f>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>650</v>
+      </c>
+      <c r="C68">
+        <f>C67+B68</f>
+        <v>21455</v>
+      </c>
+      <c r="D68">
+        <v>600</v>
+      </c>
+      <c r="E68">
+        <v>1350</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>660</v>
+      </c>
+      <c r="C69">
+        <f>C68+B69</f>
+        <v>22115</v>
+      </c>
+      <c r="D69">
+        <v>600</v>
+      </c>
+      <c r="E69">
+        <v>1370</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>670</v>
+      </c>
+      <c r="C70">
+        <f>C69+B70</f>
+        <v>22785</v>
+      </c>
+      <c r="D70">
+        <v>600</v>
+      </c>
+      <c r="E70">
+        <v>1390</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>680</v>
+      </c>
+      <c r="C71">
+        <f>C70+B71</f>
+        <v>23465</v>
+      </c>
+      <c r="D71">
+        <v>720</v>
+      </c>
+      <c r="E71">
+        <v>1410</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>690</v>
+      </c>
+      <c r="C72">
+        <f>C71+B72</f>
+        <v>24155</v>
+      </c>
+      <c r="D72">
+        <v>720</v>
+      </c>
+      <c r="E72">
+        <v>1430</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>700</v>
+      </c>
+      <c r="C73">
+        <f>C72+B73</f>
+        <v>24855</v>
+      </c>
+      <c r="D73">
+        <v>720</v>
+      </c>
+      <c r="E73">
+        <v>1450</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>710</v>
+      </c>
+      <c r="C74">
+        <f>C73+B74</f>
+        <v>25565</v>
+      </c>
+      <c r="D74">
+        <v>720</v>
+      </c>
+      <c r="E74">
+        <v>1470</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>720</v>
+      </c>
+      <c r="C75">
+        <f>C74+B75</f>
+        <v>26285</v>
+      </c>
+      <c r="D75">
+        <v>720</v>
+      </c>
+      <c r="E75">
+        <v>1490</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>730</v>
+      </c>
+      <c r="C76">
+        <f>C75+B76</f>
+        <v>27015</v>
+      </c>
+      <c r="D76">
+        <v>720</v>
+      </c>
+      <c r="E76">
+        <v>1510</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>740</v>
+      </c>
+      <c r="C77">
+        <f>C76+B77</f>
+        <v>27755</v>
+      </c>
+      <c r="D77">
+        <v>720</v>
+      </c>
+      <c r="E77">
+        <v>1530</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>750</v>
+      </c>
+      <c r="C78">
+        <f>C77+B78</f>
+        <v>28505</v>
+      </c>
+      <c r="D78">
+        <v>720</v>
+      </c>
+      <c r="E78">
+        <v>1550</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>760</v>
+      </c>
+      <c r="C79">
+        <f>C78+B79</f>
+        <v>29265</v>
+      </c>
+      <c r="D79">
+        <v>720</v>
+      </c>
+      <c r="E79">
+        <v>1570</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>770</v>
+      </c>
+      <c r="C80">
+        <f>C79+B80</f>
+        <v>30035</v>
+      </c>
+      <c r="D80">
+        <v>720</v>
+      </c>
+      <c r="E80">
+        <v>1590</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>780</v>
+      </c>
+      <c r="C81">
+        <f>C80+B81</f>
+        <v>30815</v>
+      </c>
+      <c r="D81">
+        <v>840</v>
+      </c>
+      <c r="E81">
+        <v>1610</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>790</v>
+      </c>
+      <c r="C82">
+        <f>C81+B82</f>
+        <v>31605</v>
+      </c>
+      <c r="D82">
+        <v>840</v>
+      </c>
+      <c r="E82">
+        <v>1630</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>800</v>
+      </c>
+      <c r="C83">
+        <f>C82+B83</f>
+        <v>32405</v>
+      </c>
+      <c r="D83">
+        <v>840</v>
+      </c>
+      <c r="E83">
+        <v>1650</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>810</v>
+      </c>
+      <c r="C84">
+        <f>C83+B84</f>
+        <v>33215</v>
+      </c>
+      <c r="D84">
+        <v>840</v>
+      </c>
+      <c r="E84">
+        <v>1670</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>820</v>
+      </c>
+      <c r="C85">
+        <f>C84+B85</f>
+        <v>34035</v>
+      </c>
+      <c r="D85">
+        <v>840</v>
+      </c>
+      <c r="E85">
+        <v>1690</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>830</v>
+      </c>
+      <c r="C86">
+        <f>C85+B86</f>
+        <v>34865</v>
+      </c>
+      <c r="D86">
+        <v>840</v>
+      </c>
+      <c r="E86">
+        <v>1710</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>840</v>
+      </c>
+      <c r="C87">
+        <f>C86+B87</f>
+        <v>35705</v>
+      </c>
+      <c r="D87">
+        <v>840</v>
+      </c>
+      <c r="E87">
+        <v>1730</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>850</v>
+      </c>
+      <c r="C88">
+        <f>C87+B88</f>
+        <v>36555</v>
+      </c>
+      <c r="D88">
+        <v>840</v>
+      </c>
+      <c r="E88">
+        <v>1750</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>860</v>
+      </c>
+      <c r="C89">
+        <f>C88+B89</f>
+        <v>37415</v>
+      </c>
+      <c r="D89">
+        <v>840</v>
+      </c>
+      <c r="E89">
+        <v>1770</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>870</v>
+      </c>
+      <c r="C90">
+        <f>C89+B90</f>
+        <v>38285</v>
+      </c>
+      <c r="D90">
+        <v>840</v>
+      </c>
+      <c r="E90">
+        <v>1790</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>880</v>
+      </c>
+      <c r="C91">
+        <f>C90+B91</f>
+        <v>39165</v>
+      </c>
+      <c r="D91">
+        <v>960</v>
+      </c>
+      <c r="E91">
+        <v>1810</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>890</v>
+      </c>
+      <c r="C92">
+        <f>C91+B92</f>
+        <v>40055</v>
+      </c>
+      <c r="D92">
+        <v>960</v>
+      </c>
+      <c r="E92">
+        <v>1830</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>900</v>
+      </c>
+      <c r="C93">
+        <f>C92+B93</f>
+        <v>40955</v>
+      </c>
+      <c r="D93">
+        <v>960</v>
+      </c>
+      <c r="E93">
+        <v>1850</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>910</v>
+      </c>
+      <c r="C94">
+        <f>C93+B94</f>
+        <v>41865</v>
+      </c>
+      <c r="D94">
+        <v>960</v>
+      </c>
+      <c r="E94">
+        <v>1870</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>920</v>
+      </c>
+      <c r="C95">
+        <f>C94+B95</f>
+        <v>42785</v>
+      </c>
+      <c r="D95">
+        <v>960</v>
+      </c>
+      <c r="E95">
+        <v>1890</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>930</v>
+      </c>
+      <c r="C96">
+        <f>C95+B96</f>
+        <v>43715</v>
+      </c>
+      <c r="D96">
+        <v>960</v>
+      </c>
+      <c r="E96">
+        <v>1910</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>940</v>
+      </c>
+      <c r="C97">
+        <f>C96+B97</f>
+        <v>44655</v>
+      </c>
+      <c r="D97">
+        <v>960</v>
+      </c>
+      <c r="E97">
+        <v>1930</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>950</v>
+      </c>
+      <c r="C98">
+        <f>C97+B98</f>
+        <v>45605</v>
+      </c>
+      <c r="D98">
+        <v>960</v>
+      </c>
+      <c r="E98">
+        <v>1950</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>960</v>
+      </c>
+      <c r="C99">
+        <f>C98+B99</f>
+        <v>46565</v>
+      </c>
+      <c r="D99">
+        <v>960</v>
+      </c>
+      <c r="E99">
+        <v>1970</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>970</v>
+      </c>
+      <c r="C100">
+        <f>C99+B100</f>
+        <v>47535</v>
+      </c>
+      <c r="D100">
+        <v>960</v>
+      </c>
+      <c r="E100">
+        <v>1990</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/작업Research.xlsx
+++ b/Excel/작업Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C85C8F-19E1-453F-91C1-9D7F4F655195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2903739C-738F-4783-A33E-544514AECAE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="250">
   <si>
     <t>requiredAccumulatedPowerLevel|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1007,10 +1007,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>goldBonus|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>originPeriod|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1024,6 +1020,14 @@
   </si>
   <si>
     <t>energyPeriod|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goldPeriod|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goldPerTime|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7357,7 +7361,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C89801-F280-4F62-92BA-5EAF5F1B487B}">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -7365,7 +7369,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -7379,22 +7383,25 @@
         <v>243</v>
       </c>
       <c r="E1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F1" t="s">
         <v>244</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>245</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>246</v>
-      </c>
-      <c r="H1" t="s">
-        <v>247</v>
       </c>
       <c r="I1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7402,3365 +7409,3757 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>B2</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>62.5</v>
       </c>
       <c r="F2">
-        <f>3*24*60</f>
-        <v>4320</v>
+        <f t="shared" ref="F2:F33" si="0">3*24*60*60</f>
+        <v>259200</v>
       </c>
       <c r="G2">
-        <f>4*24*60</f>
-        <v>5760</v>
+        <f t="shared" ref="G2:G33" si="1">4*24*60*60</f>
+        <v>345600</v>
       </c>
       <c r="H2">
-        <f>7*24*60</f>
-        <v>10080</v>
+        <f t="shared" ref="H2:H33" si="2">7*24*60*60</f>
+        <v>604800</v>
       </c>
       <c r="I2">
-        <f>2*24*60</f>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" ref="I2:I33" si="3">1.5*24*60*60</f>
+        <v>129600</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J33" si="4">2*24*60*60</f>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="C3">
-        <f>C2+B3</f>
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <f t="shared" ref="E3:E34" si="5">E2+2</f>
+        <v>64.5</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">3*24*60</f>
-        <v>4320</v>
+        <f t="shared" si="0"/>
+        <v>259200</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">4*24*60</f>
-        <v>5760</v>
+        <f t="shared" si="1"/>
+        <v>345600</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="2">7*24*60</f>
-        <v>10080</v>
+        <f t="shared" si="2"/>
+        <v>604800</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="3">2*24*60</f>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>129600</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="C4">
-        <f>C3+B4</f>
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>1800</v>
       </c>
       <c r="E4">
-        <v>70</v>
+        <f t="shared" si="5"/>
+        <v>66.5</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="C5">
-        <f>C4+B5</f>
-        <v>35</v>
+        <v>2100</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>2700</v>
       </c>
       <c r="E5">
-        <v>90</v>
+        <f t="shared" si="5"/>
+        <v>68.5</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>1800</v>
       </c>
       <c r="C6">
-        <f>C5+B6</f>
-        <v>65</v>
+        <v>3900</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>3600</v>
       </c>
       <c r="E6">
-        <v>110</v>
+        <f t="shared" si="5"/>
+        <v>70.5</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>2400</v>
       </c>
       <c r="C7">
-        <f>C6+B7</f>
-        <v>105</v>
+        <v>6300</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>3600</v>
       </c>
       <c r="E7">
-        <v>130</v>
+        <f t="shared" si="5"/>
+        <v>72.5</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>3000</v>
       </c>
       <c r="C8">
-        <f>C7+B8</f>
-        <v>155</v>
+        <v>9300</v>
       </c>
       <c r="D8">
-        <v>90</v>
+        <v>3600</v>
       </c>
       <c r="E8">
-        <v>150</v>
+        <f t="shared" si="5"/>
+        <v>74.5</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>3600</v>
       </c>
       <c r="C9">
-        <f>C8+B9</f>
-        <v>215</v>
+        <v>12900</v>
       </c>
       <c r="D9">
-        <v>90</v>
+        <v>3600</v>
       </c>
       <c r="E9">
-        <v>170</v>
+        <f t="shared" si="5"/>
+        <v>76.5</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>4200</v>
       </c>
       <c r="C10">
-        <f>C9+B10</f>
-        <v>285</v>
+        <v>17100</v>
       </c>
       <c r="D10">
-        <v>90</v>
+        <v>3600</v>
       </c>
       <c r="E10">
-        <v>190</v>
+        <f t="shared" si="5"/>
+        <v>78.5</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>4800</v>
       </c>
       <c r="C11">
-        <f>C10+B11</f>
-        <v>365</v>
+        <v>21900</v>
       </c>
       <c r="D11">
-        <f>2*60</f>
-        <v>120</v>
+        <v>7200</v>
       </c>
       <c r="E11">
-        <v>210</v>
+        <f t="shared" si="5"/>
+        <v>80.5</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>5400</v>
       </c>
       <c r="C12">
-        <f>C11+B12</f>
-        <v>455</v>
+        <v>27300</v>
       </c>
       <c r="D12">
-        <v>120</v>
+        <v>7200</v>
       </c>
       <c r="E12">
-        <v>230</v>
+        <f t="shared" si="5"/>
+        <v>82.5</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>6000</v>
       </c>
       <c r="C13">
-        <f>C12+B13</f>
-        <v>555</v>
+        <v>33300</v>
       </c>
       <c r="D13">
-        <v>120</v>
+        <v>7200</v>
       </c>
       <c r="E13">
-        <v>250</v>
+        <f t="shared" si="5"/>
+        <v>84.5</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>110</v>
+        <v>6600</v>
       </c>
       <c r="C14">
-        <f>C13+B14</f>
-        <v>665</v>
+        <v>39900</v>
       </c>
       <c r="D14">
-        <v>120</v>
+        <v>7200</v>
       </c>
       <c r="E14">
-        <v>270</v>
+        <f t="shared" si="5"/>
+        <v>86.5</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>120</v>
+        <v>7200</v>
       </c>
       <c r="C15">
-        <f>C14+B15</f>
-        <v>785</v>
+        <v>47100</v>
       </c>
       <c r="D15">
-        <v>120</v>
+        <v>7200</v>
       </c>
       <c r="E15">
-        <v>290</v>
+        <f t="shared" si="5"/>
+        <v>88.5</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>130</v>
+        <v>7800</v>
       </c>
       <c r="C16">
-        <f>C15+B16</f>
-        <v>915</v>
+        <v>54900</v>
       </c>
       <c r="D16">
-        <v>120</v>
+        <v>7200</v>
       </c>
       <c r="E16">
-        <v>310</v>
+        <f t="shared" si="5"/>
+        <v>90.5</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>140</v>
+        <v>8400</v>
       </c>
       <c r="C17">
-        <f>C16+B17</f>
-        <v>1055</v>
+        <v>63300</v>
       </c>
       <c r="D17">
-        <v>120</v>
+        <v>7200</v>
       </c>
       <c r="E17">
-        <v>330</v>
+        <f t="shared" si="5"/>
+        <v>92.5</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>150</v>
+        <v>9000</v>
       </c>
       <c r="C18">
-        <f>C17+B18</f>
-        <v>1205</v>
+        <v>72300</v>
       </c>
       <c r="D18">
-        <v>120</v>
+        <v>7200</v>
       </c>
       <c r="E18">
-        <v>350</v>
+        <f t="shared" si="5"/>
+        <v>94.5</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>160</v>
+        <v>9600</v>
       </c>
       <c r="C19">
-        <f>C18+B19</f>
-        <v>1365</v>
+        <v>81900</v>
       </c>
       <c r="D19">
-        <v>120</v>
+        <v>7200</v>
       </c>
       <c r="E19">
-        <v>370</v>
+        <f t="shared" si="5"/>
+        <v>96.5</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>170</v>
+        <v>10200</v>
       </c>
       <c r="C20">
-        <f>C19+B20</f>
-        <v>1535</v>
+        <v>92100</v>
       </c>
       <c r="D20">
-        <v>120</v>
+        <v>7200</v>
       </c>
       <c r="E20">
-        <v>390</v>
+        <f t="shared" si="5"/>
+        <v>98.5</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>180</v>
+        <v>10800</v>
       </c>
       <c r="C21">
-        <f>C20+B21</f>
-        <v>1715</v>
+        <v>102900</v>
       </c>
       <c r="D21">
-        <f>3*60</f>
-        <v>180</v>
+        <v>10800</v>
       </c>
       <c r="E21">
-        <v>410</v>
+        <f t="shared" si="5"/>
+        <v>100.5</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>190</v>
+        <v>11400</v>
       </c>
       <c r="C22">
-        <f>C21+B22</f>
-        <v>1905</v>
+        <v>114300</v>
       </c>
       <c r="D22">
-        <v>180</v>
+        <v>10800</v>
       </c>
       <c r="E22">
-        <v>430</v>
+        <f t="shared" si="5"/>
+        <v>102.5</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="C23">
-        <f>C22+B23</f>
-        <v>2105</v>
+        <v>126300</v>
       </c>
       <c r="D23">
-        <v>180</v>
+        <v>10800</v>
       </c>
       <c r="E23">
-        <v>450</v>
+        <f t="shared" si="5"/>
+        <v>104.5</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>210</v>
+        <v>12600</v>
       </c>
       <c r="C24">
-        <f>C23+B24</f>
-        <v>2315</v>
+        <v>138900</v>
       </c>
       <c r="D24">
-        <v>180</v>
+        <v>10800</v>
       </c>
       <c r="E24">
-        <v>470</v>
+        <f t="shared" si="5"/>
+        <v>106.5</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>220</v>
+        <v>13200</v>
       </c>
       <c r="C25">
-        <f>C24+B25</f>
-        <v>2535</v>
+        <v>152100</v>
       </c>
       <c r="D25">
-        <v>180</v>
+        <v>10800</v>
       </c>
       <c r="E25">
-        <v>490</v>
+        <f t="shared" si="5"/>
+        <v>108.5</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>230</v>
+        <v>13800</v>
       </c>
       <c r="C26">
-        <f>C25+B26</f>
-        <v>2765</v>
+        <v>165900</v>
       </c>
       <c r="D26">
-        <v>180</v>
+        <v>10800</v>
       </c>
       <c r="E26">
-        <v>510</v>
+        <f t="shared" si="5"/>
+        <v>110.5</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>240</v>
+        <v>14400</v>
       </c>
       <c r="C27">
-        <f>C26+B27</f>
-        <v>3005</v>
+        <v>180300</v>
       </c>
       <c r="D27">
-        <v>180</v>
+        <v>10800</v>
       </c>
       <c r="E27">
-        <v>530</v>
+        <f t="shared" si="5"/>
+        <v>112.5</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="C28">
-        <f>C27+B28</f>
-        <v>3255</v>
+        <v>195300</v>
       </c>
       <c r="D28">
-        <v>180</v>
+        <v>10800</v>
       </c>
       <c r="E28">
-        <v>550</v>
+        <f t="shared" si="5"/>
+        <v>114.5</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>260</v>
+        <v>15600</v>
       </c>
       <c r="C29">
-        <f>C28+B29</f>
-        <v>3515</v>
+        <v>210900</v>
       </c>
       <c r="D29">
-        <v>180</v>
+        <v>10800</v>
       </c>
       <c r="E29">
-        <v>570</v>
+        <f t="shared" si="5"/>
+        <v>116.5</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>270</v>
+        <v>16200</v>
       </c>
       <c r="C30">
-        <f>C29+B30</f>
-        <v>3785</v>
+        <v>227100</v>
       </c>
       <c r="D30">
-        <v>180</v>
+        <v>10800</v>
       </c>
       <c r="E30">
-        <v>590</v>
+        <f t="shared" si="5"/>
+        <v>118.5</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>280</v>
+        <v>16800</v>
       </c>
       <c r="C31">
-        <f>C30+B31</f>
-        <v>4065</v>
+        <v>243900</v>
       </c>
       <c r="D31">
-        <f>4*60</f>
-        <v>240</v>
+        <v>14400</v>
       </c>
       <c r="E31">
-        <v>610</v>
+        <f t="shared" si="5"/>
+        <v>120.5</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>290</v>
+        <v>17400</v>
       </c>
       <c r="C32">
-        <f>C31+B32</f>
-        <v>4355</v>
+        <v>261300</v>
       </c>
       <c r="D32">
-        <v>240</v>
+        <v>14400</v>
       </c>
       <c r="E32">
-        <v>630</v>
+        <f t="shared" si="5"/>
+        <v>122.5</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>300</v>
+        <v>18000</v>
       </c>
       <c r="C33">
-        <f>C32+B33</f>
-        <v>4655</v>
+        <v>279300</v>
       </c>
       <c r="D33">
-        <v>240</v>
+        <v>14400</v>
       </c>
       <c r="E33">
-        <v>650</v>
+        <f t="shared" si="5"/>
+        <v>124.5</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>310</v>
+        <v>18600</v>
       </c>
       <c r="C34">
-        <f>C33+B34</f>
-        <v>4965</v>
+        <v>297900</v>
       </c>
       <c r="D34">
-        <v>240</v>
+        <v>14400</v>
       </c>
       <c r="E34">
-        <v>670</v>
+        <f t="shared" si="5"/>
+        <v>126.5</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" ref="F34:F65" si="6">3*24*60*60</f>
+        <v>259200</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" ref="G34:G65" si="7">4*24*60*60</f>
+        <v>345600</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" ref="H34:H65" si="8">7*24*60*60</f>
+        <v>604800</v>
       </c>
       <c r="I34">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" ref="I34:I65" si="9">1.5*24*60*60</f>
+        <v>129600</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34:J65" si="10">2*24*60*60</f>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>320</v>
+        <v>19200</v>
       </c>
       <c r="C35">
-        <f>C34+B35</f>
-        <v>5285</v>
+        <v>317100</v>
       </c>
       <c r="D35">
-        <v>240</v>
+        <v>14400</v>
       </c>
       <c r="E35">
-        <v>690</v>
+        <f t="shared" ref="E35:E66" si="11">E34+2</f>
+        <v>128.5</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>330</v>
+        <v>19800</v>
       </c>
       <c r="C36">
-        <f>C35+B36</f>
-        <v>5615</v>
+        <v>336900</v>
       </c>
       <c r="D36">
-        <v>240</v>
+        <v>14400</v>
       </c>
       <c r="E36">
-        <v>710</v>
+        <f t="shared" si="11"/>
+        <v>130.5</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I36">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>340</v>
+        <v>20400</v>
       </c>
       <c r="C37">
-        <f>C36+B37</f>
-        <v>5955</v>
+        <v>357300</v>
       </c>
       <c r="D37">
-        <v>240</v>
+        <v>14400</v>
       </c>
       <c r="E37">
-        <v>730</v>
+        <f t="shared" si="11"/>
+        <v>132.5</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I37">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>350</v>
+        <v>21000</v>
       </c>
       <c r="C38">
-        <f>C37+B38</f>
-        <v>6305</v>
+        <v>378300</v>
       </c>
       <c r="D38">
-        <v>240</v>
+        <v>14400</v>
       </c>
       <c r="E38">
-        <v>750</v>
+        <f t="shared" si="11"/>
+        <v>134.5</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H38">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="C39">
-        <f>C38+B39</f>
-        <v>6665</v>
+        <v>399900</v>
       </c>
       <c r="D39">
-        <v>240</v>
+        <v>14400</v>
       </c>
       <c r="E39">
-        <v>770</v>
+        <f t="shared" si="11"/>
+        <v>136.5</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H39">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I39">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>370</v>
+        <v>22200</v>
       </c>
       <c r="C40">
-        <f>C39+B40</f>
-        <v>7035</v>
+        <v>422100</v>
       </c>
       <c r="D40">
-        <v>240</v>
+        <v>14400</v>
       </c>
       <c r="E40">
-        <v>790</v>
+        <f t="shared" si="11"/>
+        <v>138.5</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H40">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I40">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>380</v>
+        <v>22800</v>
       </c>
       <c r="C41">
-        <f>C40+B41</f>
-        <v>7415</v>
+        <v>444900</v>
       </c>
       <c r="D41">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="E41">
-        <v>810</v>
+        <f t="shared" si="11"/>
+        <v>140.5</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H41">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I41">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>390</v>
+        <v>23400</v>
       </c>
       <c r="C42">
-        <f>C41+B42</f>
-        <v>7805</v>
+        <v>468300</v>
       </c>
       <c r="D42">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="E42">
-        <v>830</v>
+        <f t="shared" si="11"/>
+        <v>142.5</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H42">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I42">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>400</v>
+        <v>24000</v>
       </c>
       <c r="C43">
-        <f>C42+B43</f>
-        <v>8205</v>
+        <v>492300</v>
       </c>
       <c r="D43">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="E43">
-        <v>850</v>
+        <f t="shared" si="11"/>
+        <v>144.5</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H43">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I43">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>410</v>
+        <v>24600</v>
       </c>
       <c r="C44">
-        <f>C43+B44</f>
-        <v>8615</v>
+        <v>516900</v>
       </c>
       <c r="D44">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="E44">
-        <v>870</v>
+        <f t="shared" si="11"/>
+        <v>146.5</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H44">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I44">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>420</v>
+        <v>25200</v>
       </c>
       <c r="C45">
-        <f>C44+B45</f>
-        <v>9035</v>
+        <v>542100</v>
       </c>
       <c r="D45">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="E45">
-        <v>890</v>
+        <f t="shared" si="11"/>
+        <v>148.5</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H45">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I45">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>430</v>
+        <v>25800</v>
       </c>
       <c r="C46">
-        <f>C45+B46</f>
-        <v>9465</v>
+        <v>567900</v>
       </c>
       <c r="D46">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="E46">
-        <v>910</v>
+        <f t="shared" si="11"/>
+        <v>150.5</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H46">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I46">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>440</v>
+        <v>26400</v>
       </c>
       <c r="C47">
-        <f>C46+B47</f>
-        <v>9905</v>
+        <v>594300</v>
       </c>
       <c r="D47">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="E47">
-        <v>930</v>
+        <f t="shared" si="11"/>
+        <v>152.5</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H47">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I47">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>450</v>
+        <v>27000</v>
       </c>
       <c r="C48">
-        <f>C47+B48</f>
-        <v>10355</v>
+        <v>621300</v>
       </c>
       <c r="D48">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="E48">
-        <v>950</v>
+        <f t="shared" si="11"/>
+        <v>154.5</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H48">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I48">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>460</v>
+        <v>27600</v>
       </c>
       <c r="C49">
-        <f>C48+B49</f>
-        <v>10815</v>
+        <v>648900</v>
       </c>
       <c r="D49">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="E49">
-        <v>970</v>
+        <f t="shared" si="11"/>
+        <v>156.5</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H49">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I49">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>470</v>
+        <v>28200</v>
       </c>
       <c r="C50">
-        <f>C49+B50</f>
-        <v>11285</v>
+        <v>677100</v>
       </c>
       <c r="D50">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="E50">
-        <v>990</v>
+        <f t="shared" si="11"/>
+        <v>158.5</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H50">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I50">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>480</v>
+        <v>28800</v>
       </c>
       <c r="C51">
-        <f>C50+B51</f>
-        <v>11765</v>
+        <v>705900</v>
       </c>
       <c r="D51">
-        <v>480</v>
+        <v>28800</v>
       </c>
       <c r="E51">
-        <v>1010</v>
+        <f t="shared" si="11"/>
+        <v>160.5</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H51">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I51">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>490</v>
+        <v>29400</v>
       </c>
       <c r="C52">
-        <f>C51+B52</f>
-        <v>12255</v>
+        <v>735300</v>
       </c>
       <c r="D52">
-        <v>480</v>
+        <v>28800</v>
       </c>
       <c r="E52">
-        <v>1030</v>
+        <f t="shared" si="11"/>
+        <v>162.5</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H52">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I52">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>500</v>
+        <v>30000</v>
       </c>
       <c r="C53">
-        <f>C52+B53</f>
-        <v>12755</v>
+        <v>765300</v>
       </c>
       <c r="D53">
-        <v>480</v>
+        <v>28800</v>
       </c>
       <c r="E53">
-        <v>1050</v>
+        <f t="shared" si="11"/>
+        <v>164.5</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H53">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I53">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>510</v>
+        <v>30600</v>
       </c>
       <c r="C54">
-        <f>C53+B54</f>
-        <v>13265</v>
+        <v>795900</v>
       </c>
       <c r="D54">
-        <v>480</v>
+        <v>28800</v>
       </c>
       <c r="E54">
-        <v>1070</v>
+        <f t="shared" si="11"/>
+        <v>166.5</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G54">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H54">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I54">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>520</v>
+        <v>31200</v>
       </c>
       <c r="C55">
-        <f>C54+B55</f>
-        <v>13785</v>
+        <v>827100</v>
       </c>
       <c r="D55">
-        <v>480</v>
+        <v>28800</v>
       </c>
       <c r="E55">
-        <v>1090</v>
+        <f t="shared" si="11"/>
+        <v>168.5</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G55">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H55">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I55">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>530</v>
+        <v>31800</v>
       </c>
       <c r="C56">
-        <f>C55+B56</f>
-        <v>14315</v>
+        <v>858900</v>
       </c>
       <c r="D56">
-        <v>480</v>
+        <v>28800</v>
       </c>
       <c r="E56">
-        <v>1110</v>
+        <f t="shared" si="11"/>
+        <v>170.5</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H56">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I56">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>540</v>
+        <v>32400</v>
       </c>
       <c r="C57">
-        <f>C56+B57</f>
-        <v>14855</v>
+        <v>891300</v>
       </c>
       <c r="D57">
-        <v>480</v>
+        <v>28800</v>
       </c>
       <c r="E57">
-        <v>1130</v>
+        <f t="shared" si="11"/>
+        <v>172.5</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H57">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I57">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>550</v>
+        <v>33000</v>
       </c>
       <c r="C58">
-        <f>C57+B58</f>
-        <v>15405</v>
+        <v>924300</v>
       </c>
       <c r="D58">
-        <v>480</v>
+        <v>28800</v>
       </c>
       <c r="E58">
-        <v>1150</v>
+        <f t="shared" si="11"/>
+        <v>174.5</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H58">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I58">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>560</v>
+        <v>33600</v>
       </c>
       <c r="C59">
-        <f>C58+B59</f>
-        <v>15965</v>
+        <v>957900</v>
       </c>
       <c r="D59">
-        <v>480</v>
+        <v>28800</v>
       </c>
       <c r="E59">
-        <v>1170</v>
+        <f t="shared" si="11"/>
+        <v>176.5</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H59">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I59">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>570</v>
+        <v>34200</v>
       </c>
       <c r="C60">
-        <f>C59+B60</f>
-        <v>16535</v>
+        <v>992100</v>
       </c>
       <c r="D60">
-        <v>480</v>
+        <v>28800</v>
       </c>
       <c r="E60">
-        <v>1190</v>
+        <f t="shared" si="11"/>
+        <v>178.5</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H60">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I60">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>580</v>
+        <v>34800</v>
       </c>
       <c r="C61">
-        <f>C60+B61</f>
-        <v>17115</v>
+        <v>1026900</v>
       </c>
       <c r="D61">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="E61">
-        <v>1210</v>
+        <f t="shared" si="11"/>
+        <v>180.5</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H61">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I61">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>590</v>
+        <v>35400</v>
       </c>
       <c r="C62">
-        <f>C61+B62</f>
-        <v>17705</v>
+        <v>1062300</v>
       </c>
       <c r="D62">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="E62">
-        <v>1230</v>
+        <f t="shared" si="11"/>
+        <v>182.5</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H62">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I62">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="C63">
-        <f>C62+B63</f>
-        <v>18305</v>
+        <v>1098300</v>
       </c>
       <c r="D63">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="E63">
-        <v>1250</v>
+        <f t="shared" si="11"/>
+        <v>184.5</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H63">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I63">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>610</v>
+        <v>36600</v>
       </c>
       <c r="C64">
-        <f>C63+B64</f>
-        <v>18915</v>
+        <v>1134900</v>
       </c>
       <c r="D64">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="E64">
-        <v>1270</v>
+        <f t="shared" si="11"/>
+        <v>186.5</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H64">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I64">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>620</v>
+        <v>37200</v>
       </c>
       <c r="C65">
-        <f>C64+B65</f>
-        <v>19535</v>
+        <v>1172100</v>
       </c>
       <c r="D65">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="E65">
-        <v>1290</v>
+        <f t="shared" si="11"/>
+        <v>188.5</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" si="6"/>
+        <v>259200</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" si="7"/>
+        <v>345600</v>
       </c>
       <c r="H65">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="8"/>
+        <v>604800</v>
       </c>
       <c r="I65">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>129600</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="10"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>630</v>
+        <v>37800</v>
       </c>
       <c r="C66">
-        <f>C65+B66</f>
-        <v>20165</v>
+        <v>1209900</v>
       </c>
       <c r="D66">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="E66">
-        <v>1310</v>
+        <f t="shared" si="11"/>
+        <v>190.5</v>
       </c>
       <c r="F66">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <f t="shared" ref="F66:F100" si="12">3*24*60*60</f>
+        <v>259200</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <f t="shared" ref="G66:G100" si="13">4*24*60*60</f>
+        <v>345600</v>
       </c>
       <c r="H66">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" ref="H66:H100" si="14">7*24*60*60</f>
+        <v>604800</v>
       </c>
       <c r="I66">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" ref="I66:I100" si="15">1.5*24*60*60</f>
+        <v>129600</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ref="J66:J100" si="16">2*24*60*60</f>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>640</v>
+        <v>38400</v>
       </c>
       <c r="C67">
-        <f>C66+B67</f>
-        <v>20805</v>
+        <v>1248300</v>
       </c>
       <c r="D67">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="E67">
-        <v>1330</v>
+        <f t="shared" ref="E67:E100" si="17">E66+2</f>
+        <v>192.5</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F100" si="4">3*24*60</f>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G100" si="5">4*24*60</f>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H100" si="6">7*24*60</f>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I100" si="7">2*24*60</f>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>650</v>
+        <v>39000</v>
       </c>
       <c r="C68">
-        <f>C67+B68</f>
-        <v>21455</v>
+        <v>1287300</v>
       </c>
       <c r="D68">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="E68">
-        <v>1350</v>
+        <f t="shared" si="17"/>
+        <v>194.5</v>
       </c>
       <c r="F68">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G68">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H68">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I68">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>660</v>
+        <v>39600</v>
       </c>
       <c r="C69">
-        <f>C68+B69</f>
-        <v>22115</v>
+        <v>1326900</v>
       </c>
       <c r="D69">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="E69">
-        <v>1370</v>
+        <f t="shared" si="17"/>
+        <v>196.5</v>
       </c>
       <c r="F69">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G69">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H69">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I69">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>670</v>
+        <v>40200</v>
       </c>
       <c r="C70">
-        <f>C69+B70</f>
-        <v>22785</v>
+        <v>1367100</v>
       </c>
       <c r="D70">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="E70">
-        <v>1390</v>
+        <f t="shared" si="17"/>
+        <v>198.5</v>
       </c>
       <c r="F70">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G70">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H70">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I70">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>680</v>
+        <v>40800</v>
       </c>
       <c r="C71">
-        <f>C70+B71</f>
-        <v>23465</v>
+        <v>1407900</v>
       </c>
       <c r="D71">
-        <v>720</v>
+        <v>43200</v>
       </c>
       <c r="E71">
-        <v>1410</v>
+        <f t="shared" si="17"/>
+        <v>200.5</v>
       </c>
       <c r="F71">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G71">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H71">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I71">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>690</v>
+        <v>41400</v>
       </c>
       <c r="C72">
-        <f>C71+B72</f>
-        <v>24155</v>
+        <v>1449300</v>
       </c>
       <c r="D72">
-        <v>720</v>
+        <v>43200</v>
       </c>
       <c r="E72">
-        <v>1430</v>
+        <f t="shared" si="17"/>
+        <v>202.5</v>
       </c>
       <c r="F72">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G72">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H72">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I72">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>700</v>
+        <v>42000</v>
       </c>
       <c r="C73">
-        <f>C72+B73</f>
-        <v>24855</v>
+        <v>1491300</v>
       </c>
       <c r="D73">
-        <v>720</v>
+        <v>43200</v>
       </c>
       <c r="E73">
-        <v>1450</v>
+        <f t="shared" si="17"/>
+        <v>204.5</v>
       </c>
       <c r="F73">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G73">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H73">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I73">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>710</v>
+        <v>42600</v>
       </c>
       <c r="C74">
-        <f>C73+B74</f>
-        <v>25565</v>
+        <v>1533900</v>
       </c>
       <c r="D74">
-        <v>720</v>
+        <v>43200</v>
       </c>
       <c r="E74">
-        <v>1470</v>
+        <f t="shared" si="17"/>
+        <v>206.5</v>
       </c>
       <c r="F74">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G74">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H74">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I74">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>720</v>
+        <v>43200</v>
       </c>
       <c r="C75">
-        <f>C74+B75</f>
-        <v>26285</v>
+        <v>1577100</v>
       </c>
       <c r="D75">
-        <v>720</v>
+        <v>43200</v>
       </c>
       <c r="E75">
-        <v>1490</v>
+        <f t="shared" si="17"/>
+        <v>208.5</v>
       </c>
       <c r="F75">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G75">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H75">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I75">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>730</v>
+        <v>43800</v>
       </c>
       <c r="C76">
-        <f>C75+B76</f>
-        <v>27015</v>
+        <v>1620900</v>
       </c>
       <c r="D76">
-        <v>720</v>
+        <v>43200</v>
       </c>
       <c r="E76">
-        <v>1510</v>
+        <f t="shared" si="17"/>
+        <v>210.5</v>
       </c>
       <c r="F76">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G76">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H76">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I76">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>740</v>
+        <v>44400</v>
       </c>
       <c r="C77">
-        <f>C76+B77</f>
-        <v>27755</v>
+        <v>1665300</v>
       </c>
       <c r="D77">
-        <v>720</v>
+        <v>43200</v>
       </c>
       <c r="E77">
-        <v>1530</v>
+        <f t="shared" si="17"/>
+        <v>212.5</v>
       </c>
       <c r="F77">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G77">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H77">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I77">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>750</v>
+        <v>45000</v>
       </c>
       <c r="C78">
-        <f>C77+B78</f>
-        <v>28505</v>
+        <v>1710300</v>
       </c>
       <c r="D78">
-        <v>720</v>
+        <v>43200</v>
       </c>
       <c r="E78">
-        <v>1550</v>
+        <f t="shared" si="17"/>
+        <v>214.5</v>
       </c>
       <c r="F78">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G78">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H78">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I78">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>760</v>
+        <v>45600</v>
       </c>
       <c r="C79">
-        <f>C78+B79</f>
-        <v>29265</v>
+        <v>1755900</v>
       </c>
       <c r="D79">
-        <v>720</v>
+        <v>43200</v>
       </c>
       <c r="E79">
-        <v>1570</v>
+        <f t="shared" si="17"/>
+        <v>216.5</v>
       </c>
       <c r="F79">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G79">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H79">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I79">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>770</v>
+        <v>46200</v>
       </c>
       <c r="C80">
-        <f>C79+B80</f>
-        <v>30035</v>
+        <v>1802100</v>
       </c>
       <c r="D80">
-        <v>720</v>
+        <v>43200</v>
       </c>
       <c r="E80">
-        <v>1590</v>
+        <f t="shared" si="17"/>
+        <v>218.5</v>
       </c>
       <c r="F80">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G80">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H80">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I80">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>780</v>
+        <v>46800</v>
       </c>
       <c r="C81">
-        <f>C80+B81</f>
-        <v>30815</v>
+        <v>1848900</v>
       </c>
       <c r="D81">
-        <v>840</v>
+        <v>50400</v>
       </c>
       <c r="E81">
-        <v>1610</v>
+        <f t="shared" si="17"/>
+        <v>220.5</v>
       </c>
       <c r="F81">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G81">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H81">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I81">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>790</v>
+        <v>47400</v>
       </c>
       <c r="C82">
-        <f>C81+B82</f>
-        <v>31605</v>
+        <v>1896300</v>
       </c>
       <c r="D82">
-        <v>840</v>
+        <v>50400</v>
       </c>
       <c r="E82">
-        <v>1630</v>
+        <f t="shared" si="17"/>
+        <v>222.5</v>
       </c>
       <c r="F82">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G82">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H82">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I82">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>800</v>
+        <v>48000</v>
       </c>
       <c r="C83">
-        <f>C82+B83</f>
-        <v>32405</v>
+        <v>1944300</v>
       </c>
       <c r="D83">
-        <v>840</v>
+        <v>50400</v>
       </c>
       <c r="E83">
-        <v>1650</v>
+        <f t="shared" si="17"/>
+        <v>224.5</v>
       </c>
       <c r="F83">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G83">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H83">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I83">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>810</v>
+        <v>48600</v>
       </c>
       <c r="C84">
-        <f>C83+B84</f>
-        <v>33215</v>
+        <v>1992900</v>
       </c>
       <c r="D84">
-        <v>840</v>
+        <v>50400</v>
       </c>
       <c r="E84">
-        <v>1670</v>
+        <f t="shared" si="17"/>
+        <v>226.5</v>
       </c>
       <c r="F84">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G84">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H84">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I84">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>820</v>
+        <v>49200</v>
       </c>
       <c r="C85">
-        <f>C84+B85</f>
-        <v>34035</v>
+        <v>2042100</v>
       </c>
       <c r="D85">
-        <v>840</v>
+        <v>50400</v>
       </c>
       <c r="E85">
-        <v>1690</v>
+        <f t="shared" si="17"/>
+        <v>228.5</v>
       </c>
       <c r="F85">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G85">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H85">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I85">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>830</v>
+        <v>49800</v>
       </c>
       <c r="C86">
-        <f>C85+B86</f>
-        <v>34865</v>
+        <v>2091900</v>
       </c>
       <c r="D86">
-        <v>840</v>
+        <v>50400</v>
       </c>
       <c r="E86">
-        <v>1710</v>
+        <f t="shared" si="17"/>
+        <v>230.5</v>
       </c>
       <c r="F86">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G86">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H86">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I86">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>840</v>
+        <v>50400</v>
       </c>
       <c r="C87">
-        <f>C86+B87</f>
-        <v>35705</v>
+        <v>2142300</v>
       </c>
       <c r="D87">
-        <v>840</v>
+        <v>50400</v>
       </c>
       <c r="E87">
-        <v>1730</v>
+        <f t="shared" si="17"/>
+        <v>232.5</v>
       </c>
       <c r="F87">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G87">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H87">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I87">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>850</v>
+        <v>51000</v>
       </c>
       <c r="C88">
-        <f>C87+B88</f>
-        <v>36555</v>
+        <v>2193300</v>
       </c>
       <c r="D88">
-        <v>840</v>
+        <v>50400</v>
       </c>
       <c r="E88">
-        <v>1750</v>
+        <f t="shared" si="17"/>
+        <v>234.5</v>
       </c>
       <c r="F88">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G88">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H88">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I88">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>860</v>
+        <v>51600</v>
       </c>
       <c r="C89">
-        <f>C88+B89</f>
-        <v>37415</v>
+        <v>2244900</v>
       </c>
       <c r="D89">
-        <v>840</v>
+        <v>50400</v>
       </c>
       <c r="E89">
-        <v>1770</v>
+        <f t="shared" si="17"/>
+        <v>236.5</v>
       </c>
       <c r="F89">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G89">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H89">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I89">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>870</v>
+        <v>52200</v>
       </c>
       <c r="C90">
-        <f>C89+B90</f>
-        <v>38285</v>
+        <v>2297100</v>
       </c>
       <c r="D90">
-        <v>840</v>
+        <v>50400</v>
       </c>
       <c r="E90">
-        <v>1790</v>
+        <f t="shared" si="17"/>
+        <v>238.5</v>
       </c>
       <c r="F90">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G90">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H90">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I90">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>880</v>
+        <v>52800</v>
       </c>
       <c r="C91">
-        <f>C90+B91</f>
-        <v>39165</v>
+        <v>2349900</v>
       </c>
       <c r="D91">
-        <v>960</v>
+        <v>57600</v>
       </c>
       <c r="E91">
-        <v>1810</v>
+        <f t="shared" si="17"/>
+        <v>240.5</v>
       </c>
       <c r="F91">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G91">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H91">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I91">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>890</v>
+        <v>53400</v>
       </c>
       <c r="C92">
-        <f>C91+B92</f>
-        <v>40055</v>
+        <v>2403300</v>
       </c>
       <c r="D92">
-        <v>960</v>
+        <v>57600</v>
       </c>
       <c r="E92">
-        <v>1830</v>
+        <f t="shared" si="17"/>
+        <v>242.5</v>
       </c>
       <c r="F92">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G92">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H92">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I92">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>900</v>
+        <v>54000</v>
       </c>
       <c r="C93">
-        <f>C92+B93</f>
-        <v>40955</v>
+        <v>2457300</v>
       </c>
       <c r="D93">
-        <v>960</v>
+        <v>57600</v>
       </c>
       <c r="E93">
-        <v>1850</v>
+        <f t="shared" si="17"/>
+        <v>244.5</v>
       </c>
       <c r="F93">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G93">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H93">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I93">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>910</v>
+        <v>54600</v>
       </c>
       <c r="C94">
-        <f>C93+B94</f>
-        <v>41865</v>
+        <v>2511900</v>
       </c>
       <c r="D94">
-        <v>960</v>
+        <v>57600</v>
       </c>
       <c r="E94">
-        <v>1870</v>
+        <f t="shared" si="17"/>
+        <v>246.5</v>
       </c>
       <c r="F94">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G94">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H94">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I94">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>920</v>
+        <v>55200</v>
       </c>
       <c r="C95">
-        <f>C94+B95</f>
-        <v>42785</v>
+        <v>2567100</v>
       </c>
       <c r="D95">
-        <v>960</v>
+        <v>57600</v>
       </c>
       <c r="E95">
-        <v>1890</v>
+        <f t="shared" si="17"/>
+        <v>248.5</v>
       </c>
       <c r="F95">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G95">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H95">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I95">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>930</v>
+        <v>55800</v>
       </c>
       <c r="C96">
-        <f>C95+B96</f>
-        <v>43715</v>
+        <v>2622900</v>
       </c>
       <c r="D96">
-        <v>960</v>
+        <v>57600</v>
       </c>
       <c r="E96">
-        <v>1910</v>
+        <f t="shared" si="17"/>
+        <v>250.5</v>
       </c>
       <c r="F96">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G96">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H96">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I96">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>940</v>
+        <v>56400</v>
       </c>
       <c r="C97">
-        <f>C96+B97</f>
-        <v>44655</v>
+        <v>2679300</v>
       </c>
       <c r="D97">
-        <v>960</v>
+        <v>57600</v>
       </c>
       <c r="E97">
-        <v>1930</v>
+        <f t="shared" si="17"/>
+        <v>252.5</v>
       </c>
       <c r="F97">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G97">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H97">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I97">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>950</v>
+        <v>57000</v>
       </c>
       <c r="C98">
-        <f>C97+B98</f>
-        <v>45605</v>
+        <v>2736300</v>
       </c>
       <c r="D98">
-        <v>960</v>
+        <v>57600</v>
       </c>
       <c r="E98">
-        <v>1950</v>
+        <f t="shared" si="17"/>
+        <v>254.5</v>
       </c>
       <c r="F98">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G98">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H98">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I98">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>960</v>
+        <v>57600</v>
       </c>
       <c r="C99">
-        <f>C98+B99</f>
-        <v>46565</v>
+        <v>2793900</v>
       </c>
       <c r="D99">
-        <v>960</v>
+        <v>57600</v>
       </c>
       <c r="E99">
-        <v>1970</v>
+        <f t="shared" si="17"/>
+        <v>256.5</v>
       </c>
       <c r="F99">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G99">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H99">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I99">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="16"/>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>970</v>
+        <v>58200</v>
       </c>
       <c r="C100">
-        <f>C99+B100</f>
-        <v>47535</v>
+        <v>2852100</v>
       </c>
       <c r="D100">
-        <v>960</v>
+        <v>57600</v>
       </c>
       <c r="E100">
-        <v>1990</v>
+        <f t="shared" si="17"/>
+        <v>258.5</v>
       </c>
       <c r="F100">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <f t="shared" si="12"/>
+        <v>259200</v>
       </c>
       <c r="G100">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <f t="shared" si="13"/>
+        <v>345600</v>
       </c>
       <c r="H100">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <f t="shared" si="14"/>
+        <v>604800</v>
       </c>
       <c r="I100">
-        <f t="shared" si="7"/>
-        <v>2880</v>
+        <f t="shared" si="15"/>
+        <v>129600</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="16"/>
+        <v>172800</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Research.xlsx
+++ b/Excel/작업Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2903739C-738F-4783-A33E-544514AECAE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77945468-01DA-4544-B842-F3EFDE585626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="251">
   <si>
     <t>requiredAccumulatedPowerLevel|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1011,10 +1011,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>equipPeriod|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>diamondPeriod|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1028,6 +1024,14 @@
   </si>
   <si>
     <t>goldPerTime|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forceLeveling|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7361,15 +7365,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C89801-F280-4F62-92BA-5EAF5F1B487B}">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9" customWidth="1" outlineLevel="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -7377,3789 +7392,7099 @@
         <v>241</v>
       </c>
       <c r="C1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" t="s">
         <v>242</v>
-      </c>
-      <c r="D1" t="s">
-        <v>243</v>
       </c>
       <c r="E1" t="s">
         <v>249</v>
       </c>
       <c r="F1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I1" t="s">
         <v>248</v>
       </c>
       <c r="J1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>249</v>
+      </c>
+      <c r="P1" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:E8" si="0">IF(B2/60/60&gt;=1,INT(B2/60/60)&amp;"h","")
+&amp;IF(INT(MOD(B2/60,60))&gt;0,INT(MOD(B2/60,60))&amp;"m","")
+&amp;IF(INT(MOD(B2,60))&gt;0,INT(MOD(B2,60))&amp;"s","")</f>
+        <v/>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="E2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F2">
         <v>300</v>
       </c>
-      <c r="E2">
+      <c r="G2" t="str">
+        <f t="shared" ref="G2" si="1">IF(F2/60/60&gt;=1,INT(F2/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F2/60,60))&gt;0,INT(MOD(F2/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F2,60))&gt;0,INT(MOD(F2,60))&amp;"s","")</f>
+        <v>5m</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
         <v>62.5</v>
       </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F33" si="0">3*24*60*60</f>
-        <v>259200</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G33" si="1">4*24*60*60</f>
-        <v>345600</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H33" si="2">7*24*60*60</f>
-        <v>604800</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I33" si="3">1.5*24*60*60</f>
-        <v>129600</v>
-      </c>
       <c r="J2">
-        <f t="shared" ref="J2:J33" si="4">2*24*60*60</f>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K8" si="2">IF(J2/60/60&gt;=1,INT(J2/60/60)&amp;"h","")
+&amp;IF(INT(MOD(J2/60,60))&gt;0,INT(MOD(J2/60,60))&amp;"m","")
+&amp;IF(INT(MOD(J2,60))&gt;0,INT(MOD(J2,60))&amp;"s","")</f>
+        <v>5m</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L33" si="3">3*24*60*60</f>
+        <v>259200</v>
+      </c>
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:O2" si="4">IF(L2/60/60&gt;=1,INT(L2/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L2/60,60))&gt;0,INT(MOD(L2/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L2,60))&gt;0,INT(MOD(L2,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N33" si="5">3*24*60*60</f>
+        <v>259200</v>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" si="4"/>
+        <v>72h</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P33" si="6">4*60*60</f>
+        <v>14400</v>
+      </c>
+      <c r="Q2" t="str">
+        <f t="shared" ref="Q2" si="7">IF(P2/60/60&gt;=1,INT(P2/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P2/60,60))&gt;0,INT(MOD(P2/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P2,60))&gt;0,INT(MOD(P2,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>300</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>5m</v>
+      </c>
+      <c r="D3">
         <v>300</v>
       </c>
-      <c r="D3">
+      <c r="E3" t="str">
+        <f>IF(D3/60/60/24&gt;=1,INT(D3/60/60/24)&amp;"d","")
+&amp;IF(INT(MOD(D3/60/60,24))&gt;0,INT(MOD(D3/60/60,24))&amp;"h","")
+&amp;IF(INT(MOD(D3/60,60))&gt;0,INT(MOD(D3/60,60))&amp;"m","")
+&amp;IF(INT(MOD(D3,60))&gt;0,INT(MOD(D3,60))&amp;"s","")</f>
+        <v>5m</v>
+      </c>
+      <c r="F3">
         <v>600</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E34" si="5">E2+2</f>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3" si="8">IF(F3/60/60&gt;=1,INT(F3/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F3/60,60))&gt;0,INT(MOD(F3/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F3,60))&gt;0,INT(MOD(F3,60))&amp;"s","")</f>
+        <v>10m</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I34" si="9">I2+2</f>
         <v>64.5</v>
       </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H3">
+      <c r="J3">
+        <v>600</v>
+      </c>
+      <c r="K3" t="str">
         <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I3">
+        <v>10m</v>
+      </c>
+      <c r="L3">
         <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:O3" si="10">IF(L3/60/60&gt;=1,INT(L3/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L3/60,60))&gt;0,INT(MOD(L3/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L3,60))&gt;0,INT(MOD(L3,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="5"/>
+        <v>259200</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="10"/>
+        <v>72h</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3" si="11">IF(P3/60/60&gt;=1,INT(P3/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P3/60,60))&gt;0,INT(MOD(P3/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P3,60))&gt;0,INT(MOD(P3,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>600</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>10m</v>
+      </c>
+      <c r="D4">
         <v>900</v>
       </c>
-      <c r="D4">
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E67" si="12">IF(D4/60/60/24&gt;=1,INT(D4/60/60/24)&amp;"d","")
+&amp;IF(INT(MOD(D4/60/60,24))&gt;0,INT(MOD(D4/60/60,24))&amp;"h","")
+&amp;IF(INT(MOD(D4/60,60))&gt;0,INT(MOD(D4/60,60))&amp;"m","")
+&amp;IF(INT(MOD(D4,60))&gt;0,INT(MOD(D4,60))&amp;"s","")</f>
+        <v>15m</v>
+      </c>
+      <c r="F4">
         <v>1800</v>
       </c>
-      <c r="E4">
+      <c r="G4" t="str">
+        <f t="shared" ref="G4" si="13">IF(F4/60/60&gt;=1,INT(F4/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F4/60,60))&gt;0,INT(MOD(F4/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F4,60))&gt;0,INT(MOD(F4,60))&amp;"s","")</f>
+        <v>30m</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="9"/>
+        <v>66.5</v>
+      </c>
+      <c r="J4">
+        <v>1800</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v>30m</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:O4" si="14">IF(L4/60/60&gt;=1,INT(L4/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L4/60,60))&gt;0,INT(MOD(L4/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L4,60))&gt;0,INT(MOD(L4,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N4">
         <f t="shared" si="5"/>
-        <v>66.5</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="14"/>
+        <v>72h</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" ref="Q4" si="15">IF(P4/60/60&gt;=1,INT(P4/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P4/60,60))&gt;0,INT(MOD(P4/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P4,60))&gt;0,INT(MOD(P4,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1200</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>20m</v>
+      </c>
+      <c r="D5">
         <v>2100</v>
       </c>
-      <c r="D5">
+      <c r="E5" t="str">
+        <f t="shared" si="12"/>
+        <v>35m</v>
+      </c>
+      <c r="F5">
         <v>2700</v>
       </c>
-      <c r="E5">
+      <c r="G5" t="str">
+        <f t="shared" ref="G5" si="16">IF(F5/60/60&gt;=1,INT(F5/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F5/60,60))&gt;0,INT(MOD(F5/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F5,60))&gt;0,INT(MOD(F5,60))&amp;"s","")</f>
+        <v>45m</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="9"/>
+        <v>68.5</v>
+      </c>
+      <c r="J5">
+        <v>2700</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="2"/>
+        <v>45m</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" ref="M5:O5" si="17">IF(L5/60/60&gt;=1,INT(L5/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L5/60,60))&gt;0,INT(MOD(L5/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L5,60))&gt;0,INT(MOD(L5,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="5"/>
-        <v>68.5</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="17"/>
+        <v>72h</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" ref="Q5" si="18">IF(P5/60/60&gt;=1,INT(P5/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P5/60,60))&gt;0,INT(MOD(P5/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P5,60))&gt;0,INT(MOD(P5,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1800</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>30m</v>
+      </c>
+      <c r="D6">
         <v>3900</v>
       </c>
-      <c r="D6">
+      <c r="E6" t="str">
+        <f t="shared" si="12"/>
+        <v>1h5m</v>
+      </c>
+      <c r="F6">
         <v>3600</v>
       </c>
-      <c r="E6">
+      <c r="G6" t="str">
+        <f t="shared" ref="G6" si="19">IF(F6/60/60&gt;=1,INT(F6/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F6/60,60))&gt;0,INT(MOD(F6/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F6,60))&gt;0,INT(MOD(F6,60))&amp;"s","")</f>
+        <v>1h</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="9"/>
+        <v>70.5</v>
+      </c>
+      <c r="J6">
+        <v>3600</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="2"/>
+        <v>1h</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" ref="M6:O6" si="20">IF(L6/60/60&gt;=1,INT(L6/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L6/60,60))&gt;0,INT(MOD(L6/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L6,60))&gt;0,INT(MOD(L6,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="5"/>
-        <v>70.5</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="20"/>
+        <v>72h</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" ref="Q6" si="21">IF(P6/60/60&gt;=1,INT(P6/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P6/60,60))&gt;0,INT(MOD(P6/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P6,60))&gt;0,INT(MOD(P6,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>2400</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>40m</v>
+      </c>
+      <c r="D7">
         <v>6300</v>
       </c>
-      <c r="D7">
+      <c r="E7" t="str">
+        <f t="shared" si="12"/>
+        <v>1h45m</v>
+      </c>
+      <c r="F7">
         <v>3600</v>
       </c>
-      <c r="E7">
+      <c r="G7" t="str">
+        <f t="shared" ref="G7" si="22">IF(F7/60/60&gt;=1,INT(F7/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F7/60,60))&gt;0,INT(MOD(F7/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F7,60))&gt;0,INT(MOD(F7,60))&amp;"s","")</f>
+        <v>1h</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="9"/>
+        <v>72.5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J35" si="23">2*24*60*60</f>
+        <v>172800</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="2"/>
+        <v>48h</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" ref="M7:O7" si="24">IF(L7/60/60&gt;=1,INT(L7/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L7/60,60))&gt;0,INT(MOD(L7/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L7,60))&gt;0,INT(MOD(L7,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="5"/>
-        <v>72.5</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="24"/>
+        <v>72h</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" ref="Q7" si="25">IF(P7/60/60&gt;=1,INT(P7/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P7/60,60))&gt;0,INT(MOD(P7/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P7,60))&gt;0,INT(MOD(P7,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>3000</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>50m</v>
+      </c>
+      <c r="D8">
         <v>9300</v>
       </c>
-      <c r="D8">
-        <v>3600</v>
-      </c>
-      <c r="E8">
+      <c r="E8" t="str">
+        <f t="shared" si="12"/>
+        <v>2h35m</v>
+      </c>
+      <c r="F8">
+        <v>4200</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" ref="G8" si="26">IF(F8/60/60&gt;=1,INT(F8/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F8/60,60))&gt;0,INT(MOD(F8/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F8,60))&gt;0,INT(MOD(F8,60))&amp;"s","")</f>
+        <v>1h10m</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="9"/>
+        <v>74.5</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v>48h</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" ref="M8:O8" si="27">IF(L8/60/60&gt;=1,INT(L8/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L8/60,60))&gt;0,INT(MOD(L8/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L8,60))&gt;0,INT(MOD(L8,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="5"/>
-        <v>74.5</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="27"/>
+        <v>72h</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" ref="Q8" si="28">IF(P8/60/60&gt;=1,INT(P8/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P8/60,60))&gt;0,INT(MOD(P8/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P8,60))&gt;0,INT(MOD(P8,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>3600</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="str">
+        <f>IF(B9/60/60&gt;=1,INT(B9/60/60)&amp;"h","")
+&amp;IF(INT(MOD(B9/60,60))&gt;0,INT(MOD(B9/60,60))&amp;"m","")
+&amp;IF(INT(MOD(B9,60))&gt;0,INT(MOD(B9,60))&amp;"s","")</f>
+        <v>1h</v>
+      </c>
+      <c r="D9">
         <v>12900</v>
       </c>
-      <c r="D9">
+      <c r="E9" t="str">
+        <f t="shared" si="12"/>
+        <v>3h35m</v>
+      </c>
+      <c r="F9">
         <v>3600</v>
       </c>
-      <c r="E9">
+      <c r="G9" t="str">
+        <f>IF(F9/60/60&gt;=1,INT(F9/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F9/60,60))&gt;0,INT(MOD(F9/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F9,60))&gt;0,INT(MOD(F9,60))&amp;"s","")</f>
+        <v>1h</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="9"/>
+        <v>76.5</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K9" t="str">
+        <f>IF(J9/60/60&gt;=1,INT(J9/60/60)&amp;"h","")
+&amp;IF(INT(MOD(J9/60,60))&gt;0,INT(MOD(J9/60,60))&amp;"m","")
+&amp;IF(INT(MOD(J9,60))&gt;0,INT(MOD(J9,60))&amp;"s","")</f>
+        <v>48h</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M9" t="str">
+        <f>IF(L9/60/60&gt;=1,INT(L9/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L9/60,60))&gt;0,INT(MOD(L9/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L9,60))&gt;0,INT(MOD(L9,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="5"/>
-        <v>76.5</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O9" t="str">
+        <f>IF(N9/60/60&gt;=1,INT(N9/60/60)&amp;"h","")
+&amp;IF(INT(MOD(N9/60,60))&gt;0,INT(MOD(N9/60,60))&amp;"m","")
+&amp;IF(INT(MOD(N9,60))&gt;0,INT(MOD(N9,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>IF(P9/60/60&gt;=1,INT(P9/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P9/60,60))&gt;0,INT(MOD(P9/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P9,60))&gt;0,INT(MOD(P9,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>4200</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="str">
+        <f t="shared" ref="C10:C73" si="29">IF(B10/60/60&gt;=1,INT(B10/60/60)&amp;"h","")
+&amp;IF(INT(MOD(B10/60,60))&gt;0,INT(MOD(B10/60,60))&amp;"m","")
+&amp;IF(INT(MOD(B10,60))&gt;0,INT(MOD(B10,60))&amp;"s","")</f>
+        <v>1h10m</v>
+      </c>
+      <c r="D10">
         <v>17100</v>
       </c>
-      <c r="D10">
+      <c r="E10" t="str">
+        <f t="shared" si="12"/>
+        <v>4h45m</v>
+      </c>
+      <c r="F10">
         <v>3600</v>
       </c>
-      <c r="E10">
+      <c r="G10" t="str">
+        <f t="shared" ref="G10" si="30">IF(F10/60/60&gt;=1,INT(F10/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F10/60,60))&gt;0,INT(MOD(F10/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F10,60))&gt;0,INT(MOD(F10,60))&amp;"s","")</f>
+        <v>1h</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="9"/>
+        <v>78.5</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" ref="K10:K73" si="31">IF(J10/60/60&gt;=1,INT(J10/60/60)&amp;"h","")
+&amp;IF(INT(MOD(J10/60,60))&gt;0,INT(MOD(J10/60,60))&amp;"m","")
+&amp;IF(INT(MOD(J10,60))&gt;0,INT(MOD(J10,60))&amp;"s","")</f>
+        <v>48h</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" ref="M10:O10" si="32">IF(L10/60/60&gt;=1,INT(L10/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L10/60,60))&gt;0,INT(MOD(L10/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L10,60))&gt;0,INT(MOD(L10,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="5"/>
-        <v>78.5</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="32"/>
+        <v>72h</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" ref="Q10" si="33">IF(P10/60/60&gt;=1,INT(P10/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P10/60,60))&gt;0,INT(MOD(P10/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P10,60))&gt;0,INT(MOD(P10,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>4800</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="str">
+        <f t="shared" si="29"/>
+        <v>1h20m</v>
+      </c>
+      <c r="D11">
         <v>21900</v>
       </c>
-      <c r="D11">
+      <c r="E11" t="str">
+        <f t="shared" si="12"/>
+        <v>6h5m</v>
+      </c>
+      <c r="F11">
         <v>7200</v>
       </c>
-      <c r="E11">
+      <c r="G11" t="str">
+        <f t="shared" ref="G11" si="34">IF(F11/60/60&gt;=1,INT(F11/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F11/60,60))&gt;0,INT(MOD(F11/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F11,60))&gt;0,INT(MOD(F11,60))&amp;"s","")</f>
+        <v>2h</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="9"/>
+        <v>80.5</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" ref="M11:O11" si="35">IF(L11/60/60&gt;=1,INT(L11/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L11/60,60))&gt;0,INT(MOD(L11/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L11,60))&gt;0,INT(MOD(L11,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="5"/>
-        <v>80.5</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="35"/>
+        <v>72h</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" ref="Q11" si="36">IF(P11/60/60&gt;=1,INT(P11/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P11/60,60))&gt;0,INT(MOD(P11/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P11,60))&gt;0,INT(MOD(P11,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>5400</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="str">
+        <f t="shared" si="29"/>
+        <v>1h30m</v>
+      </c>
+      <c r="D12">
         <v>27300</v>
       </c>
-      <c r="D12">
+      <c r="E12" t="str">
+        <f t="shared" si="12"/>
+        <v>7h35m</v>
+      </c>
+      <c r="F12">
         <v>7200</v>
       </c>
-      <c r="E12">
+      <c r="G12" t="str">
+        <f t="shared" ref="G12" si="37">IF(F12/60/60&gt;=1,INT(F12/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F12/60,60))&gt;0,INT(MOD(F12/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F12,60))&gt;0,INT(MOD(F12,60))&amp;"s","")</f>
+        <v>2h</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="9"/>
+        <v>82.5</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" ref="M12:O12" si="38">IF(L12/60/60&gt;=1,INT(L12/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L12/60,60))&gt;0,INT(MOD(L12/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L12,60))&gt;0,INT(MOD(L12,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="5"/>
-        <v>82.5</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="38"/>
+        <v>72h</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" ref="Q12" si="39">IF(P12/60/60&gt;=1,INT(P12/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P12/60,60))&gt;0,INT(MOD(P12/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P12,60))&gt;0,INT(MOD(P12,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>6000</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="str">
+        <f t="shared" si="29"/>
+        <v>1h40m</v>
+      </c>
+      <c r="D13">
         <v>33300</v>
       </c>
-      <c r="D13">
+      <c r="E13" t="str">
+        <f t="shared" si="12"/>
+        <v>9h15m</v>
+      </c>
+      <c r="F13">
         <v>7200</v>
       </c>
-      <c r="E13">
+      <c r="G13" t="str">
+        <f t="shared" ref="G13" si="40">IF(F13/60/60&gt;=1,INT(F13/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F13/60,60))&gt;0,INT(MOD(F13/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F13,60))&gt;0,INT(MOD(F13,60))&amp;"s","")</f>
+        <v>2h</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="9"/>
+        <v>84.5</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" ref="M13:O13" si="41">IF(L13/60/60&gt;=1,INT(L13/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L13/60,60))&gt;0,INT(MOD(L13/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L13,60))&gt;0,INT(MOD(L13,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="5"/>
-        <v>84.5</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="41"/>
+        <v>72h</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" ref="Q13" si="42">IF(P13/60/60&gt;=1,INT(P13/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P13/60,60))&gt;0,INT(MOD(P13/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P13,60))&gt;0,INT(MOD(P13,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>6600</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="str">
+        <f t="shared" si="29"/>
+        <v>1h50m</v>
+      </c>
+      <c r="D14">
         <v>39900</v>
       </c>
-      <c r="D14">
+      <c r="E14" t="str">
+        <f t="shared" si="12"/>
+        <v>11h5m</v>
+      </c>
+      <c r="F14">
         <v>7200</v>
       </c>
-      <c r="E14">
+      <c r="G14" t="str">
+        <f t="shared" ref="G14" si="43">IF(F14/60/60&gt;=1,INT(F14/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F14/60,60))&gt;0,INT(MOD(F14/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F14,60))&gt;0,INT(MOD(F14,60))&amp;"s","")</f>
+        <v>2h</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="9"/>
+        <v>86.5</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" ref="M14:O14" si="44">IF(L14/60/60&gt;=1,INT(L14/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L14/60,60))&gt;0,INT(MOD(L14/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L14,60))&gt;0,INT(MOD(L14,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="5"/>
-        <v>86.5</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="44"/>
+        <v>72h</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" ref="Q14" si="45">IF(P14/60/60&gt;=1,INT(P14/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P14/60,60))&gt;0,INT(MOD(P14/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P14,60))&gt;0,INT(MOD(P14,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>7200</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="str">
+        <f t="shared" si="29"/>
+        <v>2h</v>
+      </c>
+      <c r="D15">
         <v>47100</v>
       </c>
-      <c r="D15">
+      <c r="E15" t="str">
+        <f t="shared" si="12"/>
+        <v>13h5m</v>
+      </c>
+      <c r="F15">
         <v>7200</v>
       </c>
-      <c r="E15">
+      <c r="G15" t="str">
+        <f t="shared" ref="G15" si="46">IF(F15/60/60&gt;=1,INT(F15/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F15/60,60))&gt;0,INT(MOD(F15/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F15,60))&gt;0,INT(MOD(F15,60))&amp;"s","")</f>
+        <v>2h</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="9"/>
+        <v>88.5</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" ref="M15:O15" si="47">IF(L15/60/60&gt;=1,INT(L15/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L15/60,60))&gt;0,INT(MOD(L15/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L15,60))&gt;0,INT(MOD(L15,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="5"/>
-        <v>88.5</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="47"/>
+        <v>72h</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" ref="Q15" si="48">IF(P15/60/60&gt;=1,INT(P15/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P15/60,60))&gt;0,INT(MOD(P15/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P15,60))&gt;0,INT(MOD(P15,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>7800</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="str">
+        <f t="shared" si="29"/>
+        <v>2h10m</v>
+      </c>
+      <c r="D16">
         <v>54900</v>
       </c>
-      <c r="D16">
+      <c r="E16" t="str">
+        <f t="shared" si="12"/>
+        <v>15h15m</v>
+      </c>
+      <c r="F16">
         <v>7200</v>
       </c>
-      <c r="E16">
+      <c r="G16" t="str">
+        <f t="shared" ref="G16" si="49">IF(F16/60/60&gt;=1,INT(F16/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F16/60,60))&gt;0,INT(MOD(F16/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F16,60))&gt;0,INT(MOD(F16,60))&amp;"s","")</f>
+        <v>2h</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="9"/>
+        <v>90.5</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" ref="M16:O16" si="50">IF(L16/60/60&gt;=1,INT(L16/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L16/60,60))&gt;0,INT(MOD(L16/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L16,60))&gt;0,INT(MOD(L16,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="5"/>
-        <v>90.5</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="50"/>
+        <v>72h</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" ref="Q16" si="51">IF(P16/60/60&gt;=1,INT(P16/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P16/60,60))&gt;0,INT(MOD(P16/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P16,60))&gt;0,INT(MOD(P16,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>8400</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="str">
+        <f t="shared" si="29"/>
+        <v>2h20m</v>
+      </c>
+      <c r="D17">
         <v>63300</v>
       </c>
-      <c r="D17">
+      <c r="E17" t="str">
+        <f t="shared" si="12"/>
+        <v>17h35m</v>
+      </c>
+      <c r="F17">
         <v>7200</v>
       </c>
-      <c r="E17">
+      <c r="G17" t="str">
+        <f t="shared" ref="G17" si="52">IF(F17/60/60&gt;=1,INT(F17/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F17/60,60))&gt;0,INT(MOD(F17/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F17,60))&gt;0,INT(MOD(F17,60))&amp;"s","")</f>
+        <v>2h</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="9"/>
+        <v>92.5</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" ref="M17:O17" si="53">IF(L17/60/60&gt;=1,INT(L17/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L17/60,60))&gt;0,INT(MOD(L17/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L17,60))&gt;0,INT(MOD(L17,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="5"/>
-        <v>92.5</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="53"/>
+        <v>72h</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" ref="Q17" si="54">IF(P17/60/60&gt;=1,INT(P17/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P17/60,60))&gt;0,INT(MOD(P17/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P17,60))&gt;0,INT(MOD(P17,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>9000</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="str">
+        <f t="shared" si="29"/>
+        <v>2h30m</v>
+      </c>
+      <c r="D18">
         <v>72300</v>
       </c>
-      <c r="D18">
+      <c r="E18" t="str">
+        <f t="shared" si="12"/>
+        <v>20h5m</v>
+      </c>
+      <c r="F18">
         <v>7200</v>
       </c>
-      <c r="E18">
+      <c r="G18" t="str">
+        <f t="shared" ref="G18" si="55">IF(F18/60/60&gt;=1,INT(F18/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F18/60,60))&gt;0,INT(MOD(F18/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F18,60))&gt;0,INT(MOD(F18,60))&amp;"s","")</f>
+        <v>2h</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="9"/>
+        <v>94.5</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" ref="M18:O18" si="56">IF(L18/60/60&gt;=1,INT(L18/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L18/60,60))&gt;0,INT(MOD(L18/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L18,60))&gt;0,INT(MOD(L18,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="5"/>
-        <v>94.5</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="56"/>
+        <v>72h</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" ref="Q18" si="57">IF(P18/60/60&gt;=1,INT(P18/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P18/60,60))&gt;0,INT(MOD(P18/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P18,60))&gt;0,INT(MOD(P18,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>9600</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="str">
+        <f t="shared" si="29"/>
+        <v>2h40m</v>
+      </c>
+      <c r="D19">
         <v>81900</v>
       </c>
-      <c r="D19">
+      <c r="E19" t="str">
+        <f t="shared" si="12"/>
+        <v>22h45m</v>
+      </c>
+      <c r="F19">
         <v>7200</v>
       </c>
-      <c r="E19">
+      <c r="G19" t="str">
+        <f t="shared" ref="G19" si="58">IF(F19/60/60&gt;=1,INT(F19/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F19/60,60))&gt;0,INT(MOD(F19/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F19,60))&gt;0,INT(MOD(F19,60))&amp;"s","")</f>
+        <v>2h</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="9"/>
+        <v>96.5</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" ref="M19:O19" si="59">IF(L19/60/60&gt;=1,INT(L19/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L19/60,60))&gt;0,INT(MOD(L19/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L19,60))&gt;0,INT(MOD(L19,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="5"/>
-        <v>96.5</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="59"/>
+        <v>72h</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" ref="Q19" si="60">IF(P19/60/60&gt;=1,INT(P19/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P19/60,60))&gt;0,INT(MOD(P19/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P19,60))&gt;0,INT(MOD(P19,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>10200</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="str">
+        <f t="shared" si="29"/>
+        <v>2h50m</v>
+      </c>
+      <c r="D20">
         <v>92100</v>
       </c>
-      <c r="D20">
+      <c r="E20" t="str">
+        <f t="shared" si="12"/>
+        <v>1d1h35m</v>
+      </c>
+      <c r="F20">
         <v>7200</v>
       </c>
-      <c r="E20">
+      <c r="G20" t="str">
+        <f t="shared" ref="G20" si="61">IF(F20/60/60&gt;=1,INT(F20/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F20/60,60))&gt;0,INT(MOD(F20/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F20,60))&gt;0,INT(MOD(F20,60))&amp;"s","")</f>
+        <v>2h</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="9"/>
+        <v>98.5</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" ref="M20:O20" si="62">IF(L20/60/60&gt;=1,INT(L20/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L20/60,60))&gt;0,INT(MOD(L20/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L20,60))&gt;0,INT(MOD(L20,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="5"/>
-        <v>98.5</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="62"/>
+        <v>72h</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" ref="Q20" si="63">IF(P20/60/60&gt;=1,INT(P20/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P20/60,60))&gt;0,INT(MOD(P20/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P20,60))&gt;0,INT(MOD(P20,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>10800</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="str">
+        <f t="shared" si="29"/>
+        <v>3h</v>
+      </c>
+      <c r="D21">
         <v>102900</v>
       </c>
-      <c r="D21">
+      <c r="E21" t="str">
+        <f t="shared" si="12"/>
+        <v>1d4h35m</v>
+      </c>
+      <c r="F21">
         <v>10800</v>
       </c>
-      <c r="E21">
+      <c r="G21" t="str">
+        <f t="shared" ref="G21" si="64">IF(F21/60/60&gt;=1,INT(F21/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F21/60,60))&gt;0,INT(MOD(F21/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F21,60))&gt;0,INT(MOD(F21,60))&amp;"s","")</f>
+        <v>3h</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="9"/>
+        <v>100.5</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" ref="M21:O21" si="65">IF(L21/60/60&gt;=1,INT(L21/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L21/60,60))&gt;0,INT(MOD(L21/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L21,60))&gt;0,INT(MOD(L21,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="5"/>
-        <v>100.5</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="65"/>
+        <v>72h</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" ref="Q21" si="66">IF(P21/60/60&gt;=1,INT(P21/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P21/60,60))&gt;0,INT(MOD(P21/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P21,60))&gt;0,INT(MOD(P21,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>11400</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="str">
+        <f t="shared" si="29"/>
+        <v>3h10m</v>
+      </c>
+      <c r="D22">
         <v>114300</v>
       </c>
-      <c r="D22">
+      <c r="E22" t="str">
+        <f t="shared" si="12"/>
+        <v>1d7h45m</v>
+      </c>
+      <c r="F22">
         <v>10800</v>
       </c>
-      <c r="E22">
+      <c r="G22" t="str">
+        <f t="shared" ref="G22" si="67">IF(F22/60/60&gt;=1,INT(F22/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F22/60,60))&gt;0,INT(MOD(F22/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F22,60))&gt;0,INT(MOD(F22,60))&amp;"s","")</f>
+        <v>3h</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="9"/>
+        <v>102.5</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" ref="M22:O22" si="68">IF(L22/60/60&gt;=1,INT(L22/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L22/60,60))&gt;0,INT(MOD(L22/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L22,60))&gt;0,INT(MOD(L22,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="5"/>
-        <v>102.5</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="68"/>
+        <v>72h</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" ref="Q22" si="69">IF(P22/60/60&gt;=1,INT(P22/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P22/60,60))&gt;0,INT(MOD(P22/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P22,60))&gt;0,INT(MOD(P22,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>12000</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="str">
+        <f t="shared" si="29"/>
+        <v>3h20m</v>
+      </c>
+      <c r="D23">
         <v>126300</v>
       </c>
-      <c r="D23">
+      <c r="E23" t="str">
+        <f t="shared" si="12"/>
+        <v>1d11h5m</v>
+      </c>
+      <c r="F23">
         <v>10800</v>
       </c>
-      <c r="E23">
+      <c r="G23" t="str">
+        <f t="shared" ref="G23" si="70">IF(F23/60/60&gt;=1,INT(F23/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F23/60,60))&gt;0,INT(MOD(F23/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F23,60))&gt;0,INT(MOD(F23,60))&amp;"s","")</f>
+        <v>3h</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="9"/>
+        <v>104.5</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" ref="M23:O23" si="71">IF(L23/60/60&gt;=1,INT(L23/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L23/60,60))&gt;0,INT(MOD(L23/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L23,60))&gt;0,INT(MOD(L23,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="5"/>
-        <v>104.5</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="71"/>
+        <v>72h</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" ref="Q23" si="72">IF(P23/60/60&gt;=1,INT(P23/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P23/60,60))&gt;0,INT(MOD(P23/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P23,60))&gt;0,INT(MOD(P23,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>12600</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="str">
+        <f t="shared" si="29"/>
+        <v>3h30m</v>
+      </c>
+      <c r="D24">
         <v>138900</v>
       </c>
-      <c r="D24">
+      <c r="E24" t="str">
+        <f t="shared" si="12"/>
+        <v>1d14h35m</v>
+      </c>
+      <c r="F24">
         <v>10800</v>
       </c>
-      <c r="E24">
+      <c r="G24" t="str">
+        <f t="shared" ref="G24" si="73">IF(F24/60/60&gt;=1,INT(F24/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F24/60,60))&gt;0,INT(MOD(F24/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F24,60))&gt;0,INT(MOD(F24,60))&amp;"s","")</f>
+        <v>3h</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="9"/>
+        <v>106.5</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" ref="M24:O24" si="74">IF(L24/60/60&gt;=1,INT(L24/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L24/60,60))&gt;0,INT(MOD(L24/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L24,60))&gt;0,INT(MOD(L24,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="5"/>
-        <v>106.5</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="74"/>
+        <v>72h</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" ref="Q24" si="75">IF(P24/60/60&gt;=1,INT(P24/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P24/60,60))&gt;0,INT(MOD(P24/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P24,60))&gt;0,INT(MOD(P24,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>13200</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="str">
+        <f t="shared" si="29"/>
+        <v>3h40m</v>
+      </c>
+      <c r="D25">
         <v>152100</v>
       </c>
-      <c r="D25">
+      <c r="E25" t="str">
+        <f t="shared" si="12"/>
+        <v>1d18h15m</v>
+      </c>
+      <c r="F25">
         <v>10800</v>
       </c>
-      <c r="E25">
+      <c r="G25" t="str">
+        <f t="shared" ref="G25" si="76">IF(F25/60/60&gt;=1,INT(F25/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F25/60,60))&gt;0,INT(MOD(F25/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F25,60))&gt;0,INT(MOD(F25,60))&amp;"s","")</f>
+        <v>3h</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="9"/>
+        <v>108.5</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" ref="M25:O25" si="77">IF(L25/60/60&gt;=1,INT(L25/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L25/60,60))&gt;0,INT(MOD(L25/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L25,60))&gt;0,INT(MOD(L25,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="5"/>
-        <v>108.5</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="77"/>
+        <v>72h</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" ref="Q25" si="78">IF(P25/60/60&gt;=1,INT(P25/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P25/60,60))&gt;0,INT(MOD(P25/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P25,60))&gt;0,INT(MOD(P25,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>13800</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="str">
+        <f t="shared" si="29"/>
+        <v>3h50m</v>
+      </c>
+      <c r="D26">
         <v>165900</v>
       </c>
-      <c r="D26">
+      <c r="E26" t="str">
+        <f t="shared" si="12"/>
+        <v>1d22h5m</v>
+      </c>
+      <c r="F26">
         <v>10800</v>
       </c>
-      <c r="E26">
+      <c r="G26" t="str">
+        <f t="shared" ref="G26" si="79">IF(F26/60/60&gt;=1,INT(F26/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F26/60,60))&gt;0,INT(MOD(F26/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F26,60))&gt;0,INT(MOD(F26,60))&amp;"s","")</f>
+        <v>3h</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="9"/>
+        <v>110.5</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" ref="M26:O26" si="80">IF(L26/60/60&gt;=1,INT(L26/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L26/60,60))&gt;0,INT(MOD(L26/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L26,60))&gt;0,INT(MOD(L26,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="5"/>
-        <v>110.5</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="80"/>
+        <v>72h</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" ref="Q26" si="81">IF(P26/60/60&gt;=1,INT(P26/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P26/60,60))&gt;0,INT(MOD(P26/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P26,60))&gt;0,INT(MOD(P26,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>14400</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="str">
+        <f t="shared" si="29"/>
+        <v>4h</v>
+      </c>
+      <c r="D27">
         <v>180300</v>
       </c>
-      <c r="D27">
+      <c r="E27" t="str">
+        <f t="shared" si="12"/>
+        <v>2d2h5m</v>
+      </c>
+      <c r="F27">
         <v>10800</v>
       </c>
-      <c r="E27">
+      <c r="G27" t="str">
+        <f t="shared" ref="G27" si="82">IF(F27/60/60&gt;=1,INT(F27/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F27/60,60))&gt;0,INT(MOD(F27/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F27,60))&gt;0,INT(MOD(F27,60))&amp;"s","")</f>
+        <v>3h</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="9"/>
+        <v>112.5</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" ref="M27:O27" si="83">IF(L27/60/60&gt;=1,INT(L27/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L27/60,60))&gt;0,INT(MOD(L27/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L27,60))&gt;0,INT(MOD(L27,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="5"/>
-        <v>112.5</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="83"/>
+        <v>72h</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" ref="Q27" si="84">IF(P27/60/60&gt;=1,INT(P27/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P27/60,60))&gt;0,INT(MOD(P27/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P27,60))&gt;0,INT(MOD(P27,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>15000</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="str">
+        <f t="shared" si="29"/>
+        <v>4h10m</v>
+      </c>
+      <c r="D28">
         <v>195300</v>
       </c>
-      <c r="D28">
+      <c r="E28" t="str">
+        <f t="shared" si="12"/>
+        <v>2d6h15m</v>
+      </c>
+      <c r="F28">
         <v>10800</v>
       </c>
-      <c r="E28">
+      <c r="G28" t="str">
+        <f t="shared" ref="G28" si="85">IF(F28/60/60&gt;=1,INT(F28/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F28/60,60))&gt;0,INT(MOD(F28/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F28,60))&gt;0,INT(MOD(F28,60))&amp;"s","")</f>
+        <v>3h</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="9"/>
+        <v>114.5</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" ref="M28:O28" si="86">IF(L28/60/60&gt;=1,INT(L28/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L28/60,60))&gt;0,INT(MOD(L28/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L28,60))&gt;0,INT(MOD(L28,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N28">
         <f t="shared" si="5"/>
-        <v>114.5</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="86"/>
+        <v>72h</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" ref="Q28" si="87">IF(P28/60/60&gt;=1,INT(P28/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P28/60,60))&gt;0,INT(MOD(P28/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P28,60))&gt;0,INT(MOD(P28,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>15600</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="str">
+        <f t="shared" si="29"/>
+        <v>4h20m</v>
+      </c>
+      <c r="D29">
         <v>210900</v>
       </c>
-      <c r="D29">
+      <c r="E29" t="str">
+        <f t="shared" si="12"/>
+        <v>2d10h35m</v>
+      </c>
+      <c r="F29">
         <v>10800</v>
       </c>
-      <c r="E29">
+      <c r="G29" t="str">
+        <f t="shared" ref="G29" si="88">IF(F29/60/60&gt;=1,INT(F29/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F29/60,60))&gt;0,INT(MOD(F29/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F29,60))&gt;0,INT(MOD(F29,60))&amp;"s","")</f>
+        <v>3h</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="9"/>
+        <v>116.5</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" ref="M29:O29" si="89">IF(L29/60/60&gt;=1,INT(L29/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L29/60,60))&gt;0,INT(MOD(L29/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L29,60))&gt;0,INT(MOD(L29,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="5"/>
-        <v>116.5</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="89"/>
+        <v>72h</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" ref="Q29" si="90">IF(P29/60/60&gt;=1,INT(P29/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P29/60,60))&gt;0,INT(MOD(P29/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P29,60))&gt;0,INT(MOD(P29,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>16200</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="str">
+        <f t="shared" si="29"/>
+        <v>4h30m</v>
+      </c>
+      <c r="D30">
         <v>227100</v>
       </c>
-      <c r="D30">
+      <c r="E30" t="str">
+        <f t="shared" si="12"/>
+        <v>2d15h5m</v>
+      </c>
+      <c r="F30">
         <v>10800</v>
       </c>
-      <c r="E30">
+      <c r="G30" t="str">
+        <f t="shared" ref="G30" si="91">IF(F30/60/60&gt;=1,INT(F30/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F30/60,60))&gt;0,INT(MOD(F30/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F30,60))&gt;0,INT(MOD(F30,60))&amp;"s","")</f>
+        <v>3h</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="9"/>
+        <v>118.5</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" ref="M30:O30" si="92">IF(L30/60/60&gt;=1,INT(L30/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L30/60,60))&gt;0,INT(MOD(L30/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L30,60))&gt;0,INT(MOD(L30,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="5"/>
-        <v>118.5</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="92"/>
+        <v>72h</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" ref="Q30" si="93">IF(P30/60/60&gt;=1,INT(P30/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P30/60,60))&gt;0,INT(MOD(P30/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P30,60))&gt;0,INT(MOD(P30,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>16800</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="str">
+        <f t="shared" si="29"/>
+        <v>4h40m</v>
+      </c>
+      <c r="D31">
         <v>243900</v>
       </c>
-      <c r="D31">
+      <c r="E31" t="str">
+        <f t="shared" si="12"/>
+        <v>2d19h45m</v>
+      </c>
+      <c r="F31">
         <v>14400</v>
       </c>
-      <c r="E31">
+      <c r="G31" t="str">
+        <f t="shared" ref="G31" si="94">IF(F31/60/60&gt;=1,INT(F31/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F31/60,60))&gt;0,INT(MOD(F31/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F31,60))&gt;0,INT(MOD(F31,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="9"/>
+        <v>120.5</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" ref="M31:O31" si="95">IF(L31/60/60&gt;=1,INT(L31/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L31/60,60))&gt;0,INT(MOD(L31/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L31,60))&gt;0,INT(MOD(L31,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="5"/>
-        <v>120.5</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="95"/>
+        <v>72h</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" ref="Q31" si="96">IF(P31/60/60&gt;=1,INT(P31/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P31/60,60))&gt;0,INT(MOD(P31/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P31,60))&gt;0,INT(MOD(P31,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>17400</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="str">
+        <f t="shared" si="29"/>
+        <v>4h50m</v>
+      </c>
+      <c r="D32">
         <v>261300</v>
       </c>
-      <c r="D32">
+      <c r="E32" t="str">
+        <f t="shared" si="12"/>
+        <v>3d35m</v>
+      </c>
+      <c r="F32">
         <v>14400</v>
       </c>
-      <c r="E32">
+      <c r="G32" t="str">
+        <f t="shared" ref="G32" si="97">IF(F32/60/60&gt;=1,INT(F32/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F32/60,60))&gt;0,INT(MOD(F32/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F32,60))&gt;0,INT(MOD(F32,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="9"/>
+        <v>122.5</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" ref="M32:O32" si="98">IF(L32/60/60&gt;=1,INT(L32/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L32/60,60))&gt;0,INT(MOD(L32/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L32,60))&gt;0,INT(MOD(L32,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="5"/>
-        <v>122.5</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="98"/>
+        <v>72h</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" ref="Q32" si="99">IF(P32/60/60&gt;=1,INT(P32/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P32/60,60))&gt;0,INT(MOD(P32/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P32,60))&gt;0,INT(MOD(P32,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>18000</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="str">
+        <f t="shared" si="29"/>
+        <v>5h</v>
+      </c>
+      <c r="D33">
         <v>279300</v>
       </c>
-      <c r="D33">
+      <c r="E33" t="str">
+        <f t="shared" si="12"/>
+        <v>3d5h35m</v>
+      </c>
+      <c r="F33">
         <v>14400</v>
       </c>
-      <c r="E33">
+      <c r="G33" t="str">
+        <f t="shared" ref="G33" si="100">IF(F33/60/60&gt;=1,INT(F33/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F33/60,60))&gt;0,INT(MOD(F33/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F33,60))&gt;0,INT(MOD(F33,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="9"/>
+        <v>124.5</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="23"/>
+        <v>172800</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" ref="M33:O33" si="101">IF(L33/60/60&gt;=1,INT(L33/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L33/60,60))&gt;0,INT(MOD(L33/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L33,60))&gt;0,INT(MOD(L33,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="5"/>
-        <v>124.5</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>345600</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="2"/>
-        <v>604800</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="3"/>
-        <v>129600</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="4"/>
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259200</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="101"/>
+        <v>72h</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" ref="Q33" si="102">IF(P33/60/60&gt;=1,INT(P33/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P33/60,60))&gt;0,INT(MOD(P33/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P33,60))&gt;0,INT(MOD(P33,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>18600</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="str">
+        <f t="shared" si="29"/>
+        <v>5h10m</v>
+      </c>
+      <c r="D34">
         <v>297900</v>
       </c>
-      <c r="D34">
+      <c r="E34" t="str">
+        <f t="shared" si="12"/>
+        <v>3d10h45m</v>
+      </c>
+      <c r="F34">
         <v>14400</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="5"/>
+      <c r="G34" t="str">
+        <f t="shared" ref="G34" si="103">IF(F34/60/60&gt;=1,INT(F34/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F34/60,60))&gt;0,INT(MOD(F34/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F34,60))&gt;0,INT(MOD(F34,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="9"/>
         <v>126.5</v>
       </c>
-      <c r="F34">
-        <f t="shared" ref="F34:F65" si="6">3*24*60*60</f>
-        <v>259200</v>
-      </c>
-      <c r="G34">
-        <f t="shared" ref="G34:G65" si="7">4*24*60*60</f>
-        <v>345600</v>
-      </c>
-      <c r="H34">
-        <f t="shared" ref="H34:H65" si="8">7*24*60*60</f>
-        <v>604800</v>
-      </c>
-      <c r="I34">
-        <f t="shared" ref="I34:I65" si="9">1.5*24*60*60</f>
-        <v>129600</v>
-      </c>
       <c r="J34">
-        <f t="shared" ref="J34:J65" si="10">2*24*60*60</f>
+        <f t="shared" si="23"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:L65" si="104">3*24*60*60</f>
+        <v>259200</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" ref="M34:O34" si="105">IF(L34/60/60&gt;=1,INT(L34/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L34/60,60))&gt;0,INT(MOD(L34/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L34,60))&gt;0,INT(MOD(L34,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ref="N34:N65" si="106">3*24*60*60</f>
+        <v>259200</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="105"/>
+        <v>72h</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34:P65" si="107">4*60*60</f>
+        <v>14400</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" ref="Q34" si="108">IF(P34/60/60&gt;=1,INT(P34/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P34/60,60))&gt;0,INT(MOD(P34/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P34,60))&gt;0,INT(MOD(P34,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>19200</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="str">
+        <f t="shared" si="29"/>
+        <v>5h20m</v>
+      </c>
+      <c r="D35">
         <v>317100</v>
       </c>
-      <c r="D35">
+      <c r="E35" t="str">
+        <f t="shared" si="12"/>
+        <v>3d16h5m</v>
+      </c>
+      <c r="F35">
         <v>14400</v>
       </c>
-      <c r="E35">
-        <f t="shared" ref="E35:E66" si="11">E34+2</f>
+      <c r="G35" t="str">
+        <f t="shared" ref="G35" si="109">IF(F35/60/60&gt;=1,INT(F35/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F35/60,60))&gt;0,INT(MOD(F35/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F35,60))&gt;0,INT(MOD(F35,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ref="I35:I66" si="110">I34+2</f>
         <v>128.5</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" ref="M35:O35" si="111">IF(L35/60/60&gt;=1,INT(L35/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L35/60,60))&gt;0,INT(MOD(L35/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L35,60))&gt;0,INT(MOD(L35,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="111"/>
+        <v>72h</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" ref="Q35" si="112">IF(P35/60/60&gt;=1,INT(P35/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P35/60,60))&gt;0,INT(MOD(P35/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P35,60))&gt;0,INT(MOD(P35,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>19800</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="str">
+        <f t="shared" si="29"/>
+        <v>5h30m</v>
+      </c>
+      <c r="D36">
         <v>336900</v>
       </c>
-      <c r="D36">
+      <c r="E36" t="str">
+        <f t="shared" si="12"/>
+        <v>3d21h35m</v>
+      </c>
+      <c r="F36">
         <v>14400</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="11"/>
+      <c r="G36" t="str">
+        <f t="shared" ref="G36" si="113">IF(F36/60/60&gt;=1,INT(F36/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F36/60,60))&gt;0,INT(MOD(F36/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F36,60))&gt;0,INT(MOD(F36,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="110"/>
         <v>130.5</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J36">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="J36:J67" si="114">2*24*60*60</f>
         <v>172800</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" ref="M36:O36" si="115">IF(L36/60/60&gt;=1,INT(L36/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L36/60,60))&gt;0,INT(MOD(L36/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L36,60))&gt;0,INT(MOD(L36,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="115"/>
+        <v>72h</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" ref="Q36" si="116">IF(P36/60/60&gt;=1,INT(P36/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P36/60,60))&gt;0,INT(MOD(P36/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P36,60))&gt;0,INT(MOD(P36,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>20400</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="str">
+        <f t="shared" si="29"/>
+        <v>5h40m</v>
+      </c>
+      <c r="D37">
         <v>357300</v>
       </c>
-      <c r="D37">
+      <c r="E37" t="str">
+        <f t="shared" si="12"/>
+        <v>4d3h15m</v>
+      </c>
+      <c r="F37">
         <v>14400</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="11"/>
+      <c r="G37" t="str">
+        <f t="shared" ref="G37" si="117">IF(F37/60/60&gt;=1,INT(F37/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F37/60,60))&gt;0,INT(MOD(F37/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F37,60))&gt;0,INT(MOD(F37,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="110"/>
         <v>132.5</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" ref="M37:O37" si="118">IF(L37/60/60&gt;=1,INT(L37/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L37/60,60))&gt;0,INT(MOD(L37/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L37,60))&gt;0,INT(MOD(L37,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="118"/>
+        <v>72h</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" ref="Q37" si="119">IF(P37/60/60&gt;=1,INT(P37/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P37/60,60))&gt;0,INT(MOD(P37/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P37,60))&gt;0,INT(MOD(P37,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>21000</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="str">
+        <f t="shared" si="29"/>
+        <v>5h50m</v>
+      </c>
+      <c r="D38">
         <v>378300</v>
       </c>
-      <c r="D38">
+      <c r="E38" t="str">
+        <f t="shared" si="12"/>
+        <v>4d9h5m</v>
+      </c>
+      <c r="F38">
         <v>14400</v>
       </c>
-      <c r="E38">
-        <f t="shared" si="11"/>
+      <c r="G38" t="str">
+        <f t="shared" ref="G38" si="120">IF(F38/60/60&gt;=1,INT(F38/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F38/60,60))&gt;0,INT(MOD(F38/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F38,60))&gt;0,INT(MOD(F38,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="110"/>
         <v>134.5</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" ref="M38:O38" si="121">IF(L38/60/60&gt;=1,INT(L38/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L38/60,60))&gt;0,INT(MOD(L38/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L38,60))&gt;0,INT(MOD(L38,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="121"/>
+        <v>72h</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" ref="Q38" si="122">IF(P38/60/60&gt;=1,INT(P38/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P38/60,60))&gt;0,INT(MOD(P38/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P38,60))&gt;0,INT(MOD(P38,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>21600</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="str">
+        <f t="shared" si="29"/>
+        <v>6h</v>
+      </c>
+      <c r="D39">
         <v>399900</v>
       </c>
-      <c r="D39">
+      <c r="E39" t="str">
+        <f t="shared" si="12"/>
+        <v>4d15h5m</v>
+      </c>
+      <c r="F39">
         <v>14400</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="11"/>
+      <c r="G39" t="str">
+        <f t="shared" ref="G39" si="123">IF(F39/60/60&gt;=1,INT(F39/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F39/60,60))&gt;0,INT(MOD(F39/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F39,60))&gt;0,INT(MOD(F39,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="110"/>
         <v>136.5</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" ref="M39:O39" si="124">IF(L39/60/60&gt;=1,INT(L39/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L39/60,60))&gt;0,INT(MOD(L39/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L39,60))&gt;0,INT(MOD(L39,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="124"/>
+        <v>72h</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" ref="Q39" si="125">IF(P39/60/60&gt;=1,INT(P39/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P39/60,60))&gt;0,INT(MOD(P39/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P39,60))&gt;0,INT(MOD(P39,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>22200</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="str">
+        <f t="shared" si="29"/>
+        <v>6h10m</v>
+      </c>
+      <c r="D40">
         <v>422100</v>
       </c>
-      <c r="D40">
+      <c r="E40" t="str">
+        <f t="shared" si="12"/>
+        <v>4d21h15m</v>
+      </c>
+      <c r="F40">
         <v>14400</v>
       </c>
-      <c r="E40">
-        <f t="shared" si="11"/>
+      <c r="G40" t="str">
+        <f t="shared" ref="G40" si="126">IF(F40/60/60&gt;=1,INT(F40/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F40/60,60))&gt;0,INT(MOD(F40/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F40,60))&gt;0,INT(MOD(F40,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="110"/>
         <v>138.5</v>
       </c>
-      <c r="F40">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" ref="M40:O40" si="127">IF(L40/60/60&gt;=1,INT(L40/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L40/60,60))&gt;0,INT(MOD(L40/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L40,60))&gt;0,INT(MOD(L40,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="127"/>
+        <v>72h</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" ref="Q40" si="128">IF(P40/60/60&gt;=1,INT(P40/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P40/60,60))&gt;0,INT(MOD(P40/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P40,60))&gt;0,INT(MOD(P40,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>22800</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="str">
+        <f t="shared" si="29"/>
+        <v>6h20m</v>
+      </c>
+      <c r="D41">
         <v>444900</v>
       </c>
-      <c r="D41">
+      <c r="E41" t="str">
+        <f t="shared" si="12"/>
+        <v>5d3h35m</v>
+      </c>
+      <c r="F41">
         <v>21600</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="11"/>
+      <c r="G41" t="str">
+        <f t="shared" ref="G41" si="129">IF(F41/60/60&gt;=1,INT(F41/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F41/60,60))&gt;0,INT(MOD(F41/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F41,60))&gt;0,INT(MOD(F41,60))&amp;"s","")</f>
+        <v>6h</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="110"/>
         <v>140.5</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" ref="M41:O41" si="130">IF(L41/60/60&gt;=1,INT(L41/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L41/60,60))&gt;0,INT(MOD(L41/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L41,60))&gt;0,INT(MOD(L41,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="130"/>
+        <v>72h</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" ref="Q41" si="131">IF(P41/60/60&gt;=1,INT(P41/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P41/60,60))&gt;0,INT(MOD(P41/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P41,60))&gt;0,INT(MOD(P41,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>23400</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="str">
+        <f t="shared" si="29"/>
+        <v>6h30m</v>
+      </c>
+      <c r="D42">
         <v>468300</v>
       </c>
-      <c r="D42">
+      <c r="E42" t="str">
+        <f t="shared" si="12"/>
+        <v>5d10h5m</v>
+      </c>
+      <c r="F42">
         <v>21600</v>
       </c>
-      <c r="E42">
-        <f t="shared" si="11"/>
+      <c r="G42" t="str">
+        <f t="shared" ref="G42" si="132">IF(F42/60/60&gt;=1,INT(F42/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F42/60,60))&gt;0,INT(MOD(F42/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F42,60))&gt;0,INT(MOD(F42,60))&amp;"s","")</f>
+        <v>6h</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="110"/>
         <v>142.5</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" ref="M42:O42" si="133">IF(L42/60/60&gt;=1,INT(L42/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L42/60,60))&gt;0,INT(MOD(L42/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L42,60))&gt;0,INT(MOD(L42,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="133"/>
+        <v>72h</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" ref="Q42" si="134">IF(P42/60/60&gt;=1,INT(P42/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P42/60,60))&gt;0,INT(MOD(P42/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P42,60))&gt;0,INT(MOD(P42,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>24000</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="str">
+        <f t="shared" si="29"/>
+        <v>6h40m</v>
+      </c>
+      <c r="D43">
         <v>492300</v>
       </c>
-      <c r="D43">
+      <c r="E43" t="str">
+        <f t="shared" si="12"/>
+        <v>5d16h45m</v>
+      </c>
+      <c r="F43">
         <v>21600</v>
       </c>
-      <c r="E43">
-        <f t="shared" si="11"/>
+      <c r="G43" t="str">
+        <f t="shared" ref="G43" si="135">IF(F43/60/60&gt;=1,INT(F43/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F43/60,60))&gt;0,INT(MOD(F43/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F43,60))&gt;0,INT(MOD(F43,60))&amp;"s","")</f>
+        <v>6h</v>
+      </c>
+      <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="110"/>
         <v>144.5</v>
       </c>
-      <c r="F43">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" ref="M43:O43" si="136">IF(L43/60/60&gt;=1,INT(L43/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L43/60,60))&gt;0,INT(MOD(L43/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L43,60))&gt;0,INT(MOD(L43,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="136"/>
+        <v>72h</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" ref="Q43" si="137">IF(P43/60/60&gt;=1,INT(P43/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P43/60,60))&gt;0,INT(MOD(P43/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P43,60))&gt;0,INT(MOD(P43,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>24600</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="str">
+        <f t="shared" si="29"/>
+        <v>6h50m</v>
+      </c>
+      <c r="D44">
         <v>516900</v>
       </c>
-      <c r="D44">
+      <c r="E44" t="str">
+        <f t="shared" si="12"/>
+        <v>5d23h35m</v>
+      </c>
+      <c r="F44">
         <v>21600</v>
       </c>
-      <c r="E44">
-        <f t="shared" si="11"/>
+      <c r="G44" t="str">
+        <f t="shared" ref="G44" si="138">IF(F44/60/60&gt;=1,INT(F44/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F44/60,60))&gt;0,INT(MOD(F44/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F44,60))&gt;0,INT(MOD(F44,60))&amp;"s","")</f>
+        <v>6h</v>
+      </c>
+      <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="110"/>
         <v>146.5</v>
       </c>
-      <c r="F44">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" ref="M44:O44" si="139">IF(L44/60/60&gt;=1,INT(L44/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L44/60,60))&gt;0,INT(MOD(L44/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L44,60))&gt;0,INT(MOD(L44,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="139"/>
+        <v>72h</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" ref="Q44" si="140">IF(P44/60/60&gt;=1,INT(P44/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P44/60,60))&gt;0,INT(MOD(P44/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P44,60))&gt;0,INT(MOD(P44,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>25200</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="str">
+        <f t="shared" si="29"/>
+        <v>7h</v>
+      </c>
+      <c r="D45">
         <v>542100</v>
       </c>
-      <c r="D45">
+      <c r="E45" t="str">
+        <f t="shared" si="12"/>
+        <v>6d6h35m</v>
+      </c>
+      <c r="F45">
         <v>21600</v>
       </c>
-      <c r="E45">
-        <f t="shared" si="11"/>
+      <c r="G45" t="str">
+        <f t="shared" ref="G45" si="141">IF(F45/60/60&gt;=1,INT(F45/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F45/60,60))&gt;0,INT(MOD(F45/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F45,60))&gt;0,INT(MOD(F45,60))&amp;"s","")</f>
+        <v>6h</v>
+      </c>
+      <c r="H45">
+        <v>10</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="110"/>
         <v>148.5</v>
       </c>
-      <c r="F45">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" ref="M45:O45" si="142">IF(L45/60/60&gt;=1,INT(L45/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L45/60,60))&gt;0,INT(MOD(L45/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L45,60))&gt;0,INT(MOD(L45,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="142"/>
+        <v>72h</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" ref="Q45" si="143">IF(P45/60/60&gt;=1,INT(P45/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P45/60,60))&gt;0,INT(MOD(P45/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P45,60))&gt;0,INT(MOD(P45,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>25800</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="str">
+        <f t="shared" si="29"/>
+        <v>7h10m</v>
+      </c>
+      <c r="D46">
         <v>567900</v>
       </c>
-      <c r="D46">
+      <c r="E46" t="str">
+        <f t="shared" si="12"/>
+        <v>6d13h45m</v>
+      </c>
+      <c r="F46">
         <v>21600</v>
       </c>
-      <c r="E46">
-        <f t="shared" si="11"/>
+      <c r="G46" t="str">
+        <f t="shared" ref="G46" si="144">IF(F46/60/60&gt;=1,INT(F46/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F46/60,60))&gt;0,INT(MOD(F46/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F46,60))&gt;0,INT(MOD(F46,60))&amp;"s","")</f>
+        <v>6h</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="110"/>
         <v>150.5</v>
       </c>
-      <c r="F46">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" ref="M46:O46" si="145">IF(L46/60/60&gt;=1,INT(L46/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L46/60,60))&gt;0,INT(MOD(L46/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L46,60))&gt;0,INT(MOD(L46,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="145"/>
+        <v>72h</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" ref="Q46" si="146">IF(P46/60/60&gt;=1,INT(P46/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P46/60,60))&gt;0,INT(MOD(P46/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P46,60))&gt;0,INT(MOD(P46,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>26400</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="str">
+        <f t="shared" si="29"/>
+        <v>7h20m</v>
+      </c>
+      <c r="D47">
         <v>594300</v>
       </c>
-      <c r="D47">
+      <c r="E47" t="str">
+        <f t="shared" si="12"/>
+        <v>6d21h5m</v>
+      </c>
+      <c r="F47">
         <v>21600</v>
       </c>
-      <c r="E47">
-        <f t="shared" si="11"/>
+      <c r="G47" t="str">
+        <f t="shared" ref="G47" si="147">IF(F47/60/60&gt;=1,INT(F47/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F47/60,60))&gt;0,INT(MOD(F47/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F47,60))&gt;0,INT(MOD(F47,60))&amp;"s","")</f>
+        <v>6h</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="110"/>
         <v>152.5</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" ref="M47:O47" si="148">IF(L47/60/60&gt;=1,INT(L47/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L47/60,60))&gt;0,INT(MOD(L47/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L47,60))&gt;0,INT(MOD(L47,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="148"/>
+        <v>72h</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" ref="Q47" si="149">IF(P47/60/60&gt;=1,INT(P47/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P47/60,60))&gt;0,INT(MOD(P47/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P47,60))&gt;0,INT(MOD(P47,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>27000</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="str">
+        <f t="shared" si="29"/>
+        <v>7h30m</v>
+      </c>
+      <c r="D48">
         <v>621300</v>
       </c>
-      <c r="D48">
+      <c r="E48" t="str">
+        <f t="shared" si="12"/>
+        <v>7d4h35m</v>
+      </c>
+      <c r="F48">
         <v>21600</v>
       </c>
-      <c r="E48">
-        <f t="shared" si="11"/>
+      <c r="G48" t="str">
+        <f t="shared" ref="G48" si="150">IF(F48/60/60&gt;=1,INT(F48/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F48/60,60))&gt;0,INT(MOD(F48/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F48,60))&gt;0,INT(MOD(F48,60))&amp;"s","")</f>
+        <v>6h</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="110"/>
         <v>154.5</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" ref="M48:O48" si="151">IF(L48/60/60&gt;=1,INT(L48/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L48/60,60))&gt;0,INT(MOD(L48/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L48,60))&gt;0,INT(MOD(L48,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="151"/>
+        <v>72h</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" ref="Q48" si="152">IF(P48/60/60&gt;=1,INT(P48/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P48/60,60))&gt;0,INT(MOD(P48/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P48,60))&gt;0,INT(MOD(P48,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>27600</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="str">
+        <f t="shared" si="29"/>
+        <v>7h40m</v>
+      </c>
+      <c r="D49">
         <v>648900</v>
       </c>
-      <c r="D49">
+      <c r="E49" t="str">
+        <f t="shared" si="12"/>
+        <v>7d12h15m</v>
+      </c>
+      <c r="F49">
         <v>21600</v>
       </c>
-      <c r="E49">
-        <f t="shared" si="11"/>
+      <c r="G49" t="str">
+        <f t="shared" ref="G49" si="153">IF(F49/60/60&gt;=1,INT(F49/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F49/60,60))&gt;0,INT(MOD(F49/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F49,60))&gt;0,INT(MOD(F49,60))&amp;"s","")</f>
+        <v>6h</v>
+      </c>
+      <c r="H49">
+        <v>10</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="110"/>
         <v>156.5</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" ref="M49:O49" si="154">IF(L49/60/60&gt;=1,INT(L49/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L49/60,60))&gt;0,INT(MOD(L49/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L49,60))&gt;0,INT(MOD(L49,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="154"/>
+        <v>72h</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" ref="Q49" si="155">IF(P49/60/60&gt;=1,INT(P49/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P49/60,60))&gt;0,INT(MOD(P49/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P49,60))&gt;0,INT(MOD(P49,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>28200</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="str">
+        <f t="shared" si="29"/>
+        <v>7h50m</v>
+      </c>
+      <c r="D50">
         <v>677100</v>
       </c>
-      <c r="D50">
+      <c r="E50" t="str">
+        <f t="shared" si="12"/>
+        <v>7d20h5m</v>
+      </c>
+      <c r="F50">
         <v>21600</v>
       </c>
-      <c r="E50">
-        <f t="shared" si="11"/>
+      <c r="G50" t="str">
+        <f t="shared" ref="G50" si="156">IF(F50/60/60&gt;=1,INT(F50/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F50/60,60))&gt;0,INT(MOD(F50/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F50,60))&gt;0,INT(MOD(F50,60))&amp;"s","")</f>
+        <v>6h</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="110"/>
         <v>158.5</v>
       </c>
-      <c r="F50">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" ref="M50:O50" si="157">IF(L50/60/60&gt;=1,INT(L50/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L50/60,60))&gt;0,INT(MOD(L50/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L50,60))&gt;0,INT(MOD(L50,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="157"/>
+        <v>72h</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" ref="Q50" si="158">IF(P50/60/60&gt;=1,INT(P50/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P50/60,60))&gt;0,INT(MOD(P50/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P50,60))&gt;0,INT(MOD(P50,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>28800</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="str">
+        <f t="shared" si="29"/>
+        <v>8h</v>
+      </c>
+      <c r="D51">
         <v>705900</v>
       </c>
-      <c r="D51">
+      <c r="E51" t="str">
+        <f t="shared" si="12"/>
+        <v>8d4h5m</v>
+      </c>
+      <c r="F51">
         <v>28800</v>
       </c>
-      <c r="E51">
-        <f t="shared" si="11"/>
+      <c r="G51" t="str">
+        <f t="shared" ref="G51" si="159">IF(F51/60/60&gt;=1,INT(F51/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F51/60,60))&gt;0,INT(MOD(F51/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F51,60))&gt;0,INT(MOD(F51,60))&amp;"s","")</f>
+        <v>8h</v>
+      </c>
+      <c r="H51">
+        <v>10</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="110"/>
         <v>160.5</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" ref="M51:O51" si="160">IF(L51/60/60&gt;=1,INT(L51/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L51/60,60))&gt;0,INT(MOD(L51/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L51,60))&gt;0,INT(MOD(L51,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="160"/>
+        <v>72h</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" ref="Q51" si="161">IF(P51/60/60&gt;=1,INT(P51/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P51/60,60))&gt;0,INT(MOD(P51/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P51,60))&gt;0,INT(MOD(P51,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>29400</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="str">
+        <f t="shared" si="29"/>
+        <v>8h10m</v>
+      </c>
+      <c r="D52">
         <v>735300</v>
       </c>
-      <c r="D52">
+      <c r="E52" t="str">
+        <f t="shared" si="12"/>
+        <v>8d12h15m</v>
+      </c>
+      <c r="F52">
         <v>28800</v>
       </c>
-      <c r="E52">
-        <f t="shared" si="11"/>
+      <c r="G52" t="str">
+        <f t="shared" ref="G52" si="162">IF(F52/60/60&gt;=1,INT(F52/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F52/60,60))&gt;0,INT(MOD(F52/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F52,60))&gt;0,INT(MOD(F52,60))&amp;"s","")</f>
+        <v>8h</v>
+      </c>
+      <c r="H52">
+        <v>10</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="110"/>
         <v>162.5</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" ref="M52:O52" si="163">IF(L52/60/60&gt;=1,INT(L52/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L52/60,60))&gt;0,INT(MOD(L52/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L52,60))&gt;0,INT(MOD(L52,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="163"/>
+        <v>72h</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" ref="Q52" si="164">IF(P52/60/60&gt;=1,INT(P52/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P52/60,60))&gt;0,INT(MOD(P52/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P52,60))&gt;0,INT(MOD(P52,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>30000</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="str">
+        <f t="shared" si="29"/>
+        <v>8h20m</v>
+      </c>
+      <c r="D53">
         <v>765300</v>
       </c>
-      <c r="D53">
+      <c r="E53" t="str">
+        <f t="shared" si="12"/>
+        <v>8d20h35m</v>
+      </c>
+      <c r="F53">
         <v>28800</v>
       </c>
-      <c r="E53">
-        <f t="shared" si="11"/>
+      <c r="G53" t="str">
+        <f t="shared" ref="G53" si="165">IF(F53/60/60&gt;=1,INT(F53/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F53/60,60))&gt;0,INT(MOD(F53/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F53,60))&gt;0,INT(MOD(F53,60))&amp;"s","")</f>
+        <v>8h</v>
+      </c>
+      <c r="H53">
+        <v>10</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="110"/>
         <v>164.5</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" ref="M53:O53" si="166">IF(L53/60/60&gt;=1,INT(L53/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L53/60,60))&gt;0,INT(MOD(L53/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L53,60))&gt;0,INT(MOD(L53,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="166"/>
+        <v>72h</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" ref="Q53" si="167">IF(P53/60/60&gt;=1,INT(P53/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P53/60,60))&gt;0,INT(MOD(P53/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P53,60))&gt;0,INT(MOD(P53,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <v>30600</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="str">
+        <f t="shared" si="29"/>
+        <v>8h30m</v>
+      </c>
+      <c r="D54">
         <v>795900</v>
       </c>
-      <c r="D54">
+      <c r="E54" t="str">
+        <f t="shared" si="12"/>
+        <v>9d5h5m</v>
+      </c>
+      <c r="F54">
         <v>28800</v>
       </c>
-      <c r="E54">
-        <f t="shared" si="11"/>
+      <c r="G54" t="str">
+        <f t="shared" ref="G54" si="168">IF(F54/60/60&gt;=1,INT(F54/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F54/60,60))&gt;0,INT(MOD(F54/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F54,60))&gt;0,INT(MOD(F54,60))&amp;"s","")</f>
+        <v>8h</v>
+      </c>
+      <c r="H54">
+        <v>10</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="110"/>
         <v>166.5</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" ref="M54:O54" si="169">IF(L54/60/60&gt;=1,INT(L54/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L54/60,60))&gt;0,INT(MOD(L54/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L54,60))&gt;0,INT(MOD(L54,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="169"/>
+        <v>72h</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" ref="Q54" si="170">IF(P54/60/60&gt;=1,INT(P54/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P54/60,60))&gt;0,INT(MOD(P54/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P54,60))&gt;0,INT(MOD(P54,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>31200</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="str">
+        <f t="shared" si="29"/>
+        <v>8h40m</v>
+      </c>
+      <c r="D55">
         <v>827100</v>
       </c>
-      <c r="D55">
+      <c r="E55" t="str">
+        <f t="shared" si="12"/>
+        <v>9d13h45m</v>
+      </c>
+      <c r="F55">
         <v>28800</v>
       </c>
-      <c r="E55">
-        <f t="shared" si="11"/>
+      <c r="G55" t="str">
+        <f t="shared" ref="G55" si="171">IF(F55/60/60&gt;=1,INT(F55/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F55/60,60))&gt;0,INT(MOD(F55/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F55,60))&gt;0,INT(MOD(F55,60))&amp;"s","")</f>
+        <v>8h</v>
+      </c>
+      <c r="H55">
+        <v>10</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="110"/>
         <v>168.5</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" ref="M55:O55" si="172">IF(L55/60/60&gt;=1,INT(L55/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L55/60,60))&gt;0,INT(MOD(L55/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L55,60))&gt;0,INT(MOD(L55,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="172"/>
+        <v>72h</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" ref="Q55" si="173">IF(P55/60/60&gt;=1,INT(P55/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P55/60,60))&gt;0,INT(MOD(P55/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P55,60))&gt;0,INT(MOD(P55,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <v>31800</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="str">
+        <f t="shared" si="29"/>
+        <v>8h50m</v>
+      </c>
+      <c r="D56">
         <v>858900</v>
       </c>
-      <c r="D56">
+      <c r="E56" t="str">
+        <f t="shared" si="12"/>
+        <v>9d22h35m</v>
+      </c>
+      <c r="F56">
         <v>28800</v>
       </c>
-      <c r="E56">
-        <f t="shared" si="11"/>
+      <c r="G56" t="str">
+        <f t="shared" ref="G56" si="174">IF(F56/60/60&gt;=1,INT(F56/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F56/60,60))&gt;0,INT(MOD(F56/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F56,60))&gt;0,INT(MOD(F56,60))&amp;"s","")</f>
+        <v>8h</v>
+      </c>
+      <c r="H56">
+        <v>10</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="110"/>
         <v>170.5</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" ref="M56:O56" si="175">IF(L56/60/60&gt;=1,INT(L56/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L56/60,60))&gt;0,INT(MOD(L56/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L56,60))&gt;0,INT(MOD(L56,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="175"/>
+        <v>72h</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" ref="Q56" si="176">IF(P56/60/60&gt;=1,INT(P56/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P56/60,60))&gt;0,INT(MOD(P56/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P56,60))&gt;0,INT(MOD(P56,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>32400</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="str">
+        <f t="shared" si="29"/>
+        <v>9h</v>
+      </c>
+      <c r="D57">
         <v>891300</v>
       </c>
-      <c r="D57">
+      <c r="E57" t="str">
+        <f t="shared" si="12"/>
+        <v>10d7h35m</v>
+      </c>
+      <c r="F57">
         <v>28800</v>
       </c>
-      <c r="E57">
-        <f t="shared" si="11"/>
+      <c r="G57" t="str">
+        <f t="shared" ref="G57" si="177">IF(F57/60/60&gt;=1,INT(F57/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F57/60,60))&gt;0,INT(MOD(F57/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F57,60))&gt;0,INT(MOD(F57,60))&amp;"s","")</f>
+        <v>8h</v>
+      </c>
+      <c r="H57">
+        <v>10</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="110"/>
         <v>172.5</v>
       </c>
-      <c r="F57">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" ref="M57:O57" si="178">IF(L57/60/60&gt;=1,INT(L57/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L57/60,60))&gt;0,INT(MOD(L57/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L57,60))&gt;0,INT(MOD(L57,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" si="178"/>
+        <v>72h</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" ref="Q57" si="179">IF(P57/60/60&gt;=1,INT(P57/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P57/60,60))&gt;0,INT(MOD(P57/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P57,60))&gt;0,INT(MOD(P57,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <v>33000</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="str">
+        <f t="shared" si="29"/>
+        <v>9h10m</v>
+      </c>
+      <c r="D58">
         <v>924300</v>
       </c>
-      <c r="D58">
+      <c r="E58" t="str">
+        <f t="shared" si="12"/>
+        <v>10d16h45m</v>
+      </c>
+      <c r="F58">
         <v>28800</v>
       </c>
-      <c r="E58">
-        <f t="shared" si="11"/>
+      <c r="G58" t="str">
+        <f t="shared" ref="G58" si="180">IF(F58/60/60&gt;=1,INT(F58/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F58/60,60))&gt;0,INT(MOD(F58/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F58,60))&gt;0,INT(MOD(F58,60))&amp;"s","")</f>
+        <v>8h</v>
+      </c>
+      <c r="H58">
+        <v>10</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="110"/>
         <v>174.5</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" ref="M58:O58" si="181">IF(L58/60/60&gt;=1,INT(L58/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L58/60,60))&gt;0,INT(MOD(L58/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L58,60))&gt;0,INT(MOD(L58,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="181"/>
+        <v>72h</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" ref="Q58" si="182">IF(P58/60/60&gt;=1,INT(P58/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P58/60,60))&gt;0,INT(MOD(P58/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P58,60))&gt;0,INT(MOD(P58,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <v>33600</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="str">
+        <f t="shared" si="29"/>
+        <v>9h20m</v>
+      </c>
+      <c r="D59">
         <v>957900</v>
       </c>
-      <c r="D59">
+      <c r="E59" t="str">
+        <f t="shared" si="12"/>
+        <v>11d2h5m</v>
+      </c>
+      <c r="F59">
         <v>28800</v>
       </c>
-      <c r="E59">
-        <f t="shared" si="11"/>
+      <c r="G59" t="str">
+        <f t="shared" ref="G59" si="183">IF(F59/60/60&gt;=1,INT(F59/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F59/60,60))&gt;0,INT(MOD(F59/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F59,60))&gt;0,INT(MOD(F59,60))&amp;"s","")</f>
+        <v>8h</v>
+      </c>
+      <c r="H59">
+        <v>10</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="110"/>
         <v>176.5</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K59" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" ref="M59:O59" si="184">IF(L59/60/60&gt;=1,INT(L59/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L59/60,60))&gt;0,INT(MOD(L59/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L59,60))&gt;0,INT(MOD(L59,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="184"/>
+        <v>72h</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" ref="Q59" si="185">IF(P59/60/60&gt;=1,INT(P59/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P59/60,60))&gt;0,INT(MOD(P59/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P59,60))&gt;0,INT(MOD(P59,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <v>34200</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="str">
+        <f t="shared" si="29"/>
+        <v>9h30m</v>
+      </c>
+      <c r="D60">
         <v>992100</v>
       </c>
-      <c r="D60">
+      <c r="E60" t="str">
+        <f t="shared" si="12"/>
+        <v>11d11h35m</v>
+      </c>
+      <c r="F60">
         <v>28800</v>
       </c>
-      <c r="E60">
-        <f t="shared" si="11"/>
+      <c r="G60" t="str">
+        <f t="shared" ref="G60" si="186">IF(F60/60/60&gt;=1,INT(F60/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F60/60,60))&gt;0,INT(MOD(F60/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F60,60))&gt;0,INT(MOD(F60,60))&amp;"s","")</f>
+        <v>8h</v>
+      </c>
+      <c r="H60">
+        <v>10</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="110"/>
         <v>178.5</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K60" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" ref="M60:O60" si="187">IF(L60/60/60&gt;=1,INT(L60/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L60/60,60))&gt;0,INT(MOD(L60/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L60,60))&gt;0,INT(MOD(L60,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O60" t="str">
+        <f t="shared" si="187"/>
+        <v>72h</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" ref="Q60" si="188">IF(P60/60/60&gt;=1,INT(P60/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P60/60,60))&gt;0,INT(MOD(P60/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P60,60))&gt;0,INT(MOD(P60,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <v>34800</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="str">
+        <f t="shared" si="29"/>
+        <v>9h40m</v>
+      </c>
+      <c r="D61">
         <v>1026900</v>
       </c>
-      <c r="D61">
+      <c r="E61" t="str">
+        <f t="shared" si="12"/>
+        <v>11d21h15m</v>
+      </c>
+      <c r="F61">
         <v>36000</v>
       </c>
-      <c r="E61">
-        <f t="shared" si="11"/>
+      <c r="G61" t="str">
+        <f t="shared" ref="G61" si="189">IF(F61/60/60&gt;=1,INT(F61/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F61/60,60))&gt;0,INT(MOD(F61/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F61,60))&gt;0,INT(MOD(F61,60))&amp;"s","")</f>
+        <v>10h</v>
+      </c>
+      <c r="H61">
+        <v>10</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="110"/>
         <v>180.5</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K61" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" ref="M61:O61" si="190">IF(L61/60/60&gt;=1,INT(L61/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L61/60,60))&gt;0,INT(MOD(L61/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L61,60))&gt;0,INT(MOD(L61,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="190"/>
+        <v>72h</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" ref="Q61" si="191">IF(P61/60/60&gt;=1,INT(P61/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P61/60,60))&gt;0,INT(MOD(P61/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P61,60))&gt;0,INT(MOD(P61,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
         <v>35400</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="str">
+        <f t="shared" si="29"/>
+        <v>9h50m</v>
+      </c>
+      <c r="D62">
         <v>1062300</v>
       </c>
-      <c r="D62">
+      <c r="E62" t="str">
+        <f t="shared" si="12"/>
+        <v>12d7h5m</v>
+      </c>
+      <c r="F62">
         <v>36000</v>
       </c>
-      <c r="E62">
-        <f t="shared" si="11"/>
+      <c r="G62" t="str">
+        <f t="shared" ref="G62" si="192">IF(F62/60/60&gt;=1,INT(F62/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F62/60,60))&gt;0,INT(MOD(F62/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F62,60))&gt;0,INT(MOD(F62,60))&amp;"s","")</f>
+        <v>10h</v>
+      </c>
+      <c r="H62">
+        <v>10</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="110"/>
         <v>182.5</v>
       </c>
-      <c r="F62">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K62" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" ref="M62:O62" si="193">IF(L62/60/60&gt;=1,INT(L62/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L62/60,60))&gt;0,INT(MOD(L62/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L62,60))&gt;0,INT(MOD(L62,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="193"/>
+        <v>72h</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" ref="Q62" si="194">IF(P62/60/60&gt;=1,INT(P62/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P62/60,60))&gt;0,INT(MOD(P62/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P62,60))&gt;0,INT(MOD(P62,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
         <v>36000</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="str">
+        <f t="shared" si="29"/>
+        <v>10h</v>
+      </c>
+      <c r="D63">
         <v>1098300</v>
       </c>
-      <c r="D63">
+      <c r="E63" t="str">
+        <f t="shared" si="12"/>
+        <v>12d17h5m</v>
+      </c>
+      <c r="F63">
         <v>36000</v>
       </c>
-      <c r="E63">
-        <f t="shared" si="11"/>
+      <c r="G63" t="str">
+        <f t="shared" ref="G63" si="195">IF(F63/60/60&gt;=1,INT(F63/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F63/60,60))&gt;0,INT(MOD(F63/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F63,60))&gt;0,INT(MOD(F63,60))&amp;"s","")</f>
+        <v>10h</v>
+      </c>
+      <c r="H63">
+        <v>10</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="110"/>
         <v>184.5</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H63">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K63" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" ref="M63:O63" si="196">IF(L63/60/60&gt;=1,INT(L63/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L63/60,60))&gt;0,INT(MOD(L63/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L63,60))&gt;0,INT(MOD(L63,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="196"/>
+        <v>72h</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" ref="Q63" si="197">IF(P63/60/60&gt;=1,INT(P63/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P63/60,60))&gt;0,INT(MOD(P63/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P63,60))&gt;0,INT(MOD(P63,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
         <v>36600</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="str">
+        <f t="shared" si="29"/>
+        <v>10h10m</v>
+      </c>
+      <c r="D64">
         <v>1134900</v>
       </c>
-      <c r="D64">
+      <c r="E64" t="str">
+        <f t="shared" si="12"/>
+        <v>13d3h15m</v>
+      </c>
+      <c r="F64">
         <v>36000</v>
       </c>
-      <c r="E64">
-        <f t="shared" si="11"/>
+      <c r="G64" t="str">
+        <f t="shared" ref="G64" si="198">IF(F64/60/60&gt;=1,INT(F64/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F64/60,60))&gt;0,INT(MOD(F64/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F64,60))&gt;0,INT(MOD(F64,60))&amp;"s","")</f>
+        <v>10h</v>
+      </c>
+      <c r="H64">
+        <v>10</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="110"/>
         <v>186.5</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H64">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I64">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K64" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" ref="M64:O64" si="199">IF(L64/60/60&gt;=1,INT(L64/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L64/60,60))&gt;0,INT(MOD(L64/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L64,60))&gt;0,INT(MOD(L64,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="199"/>
+        <v>72h</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" ref="Q64" si="200">IF(P64/60/60&gt;=1,INT(P64/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P64/60,60))&gt;0,INT(MOD(P64/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P64,60))&gt;0,INT(MOD(P64,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
         <v>37200</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="str">
+        <f t="shared" si="29"/>
+        <v>10h20m</v>
+      </c>
+      <c r="D65">
         <v>1172100</v>
       </c>
-      <c r="D65">
+      <c r="E65" t="str">
+        <f t="shared" si="12"/>
+        <v>13d13h35m</v>
+      </c>
+      <c r="F65">
         <v>36000</v>
       </c>
-      <c r="E65">
-        <f t="shared" si="11"/>
+      <c r="G65" t="str">
+        <f t="shared" ref="G65" si="201">IF(F65/60/60&gt;=1,INT(F65/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F65/60,60))&gt;0,INT(MOD(F65/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F65,60))&gt;0,INT(MOD(F65,60))&amp;"s","")</f>
+        <v>10h</v>
+      </c>
+      <c r="H65">
+        <v>10</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="110"/>
         <v>188.5</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="6"/>
-        <v>259200</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="7"/>
-        <v>345600</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="8"/>
-        <v>604800</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="9"/>
-        <v>129600</v>
-      </c>
       <c r="J65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K65" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="104"/>
+        <v>259200</v>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" ref="M65:O65" si="202">IF(L65/60/60&gt;=1,INT(L65/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L65/60,60))&gt;0,INT(MOD(L65/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L65,60))&gt;0,INT(MOD(L65,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="106"/>
+        <v>259200</v>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" si="202"/>
+        <v>72h</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="107"/>
+        <v>14400</v>
+      </c>
+      <c r="Q65" t="str">
+        <f t="shared" ref="Q65" si="203">IF(P65/60/60&gt;=1,INT(P65/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P65/60,60))&gt;0,INT(MOD(P65/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P65,60))&gt;0,INT(MOD(P65,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
         <v>37800</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="str">
+        <f t="shared" si="29"/>
+        <v>10h30m</v>
+      </c>
+      <c r="D66">
         <v>1209900</v>
       </c>
-      <c r="D66">
+      <c r="E66" t="str">
+        <f t="shared" si="12"/>
+        <v>14d5m</v>
+      </c>
+      <c r="F66">
         <v>36000</v>
       </c>
-      <c r="E66">
-        <f t="shared" si="11"/>
+      <c r="G66" t="str">
+        <f t="shared" ref="G66" si="204">IF(F66/60/60&gt;=1,INT(F66/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F66/60,60))&gt;0,INT(MOD(F66/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F66,60))&gt;0,INT(MOD(F66,60))&amp;"s","")</f>
+        <v>10h</v>
+      </c>
+      <c r="H66">
+        <v>10</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="110"/>
         <v>190.5</v>
       </c>
-      <c r="F66">
-        <f t="shared" ref="F66:F100" si="12">3*24*60*60</f>
-        <v>259200</v>
-      </c>
-      <c r="G66">
-        <f t="shared" ref="G66:G100" si="13">4*24*60*60</f>
-        <v>345600</v>
-      </c>
-      <c r="H66">
-        <f t="shared" ref="H66:H100" si="14">7*24*60*60</f>
-        <v>604800</v>
-      </c>
-      <c r="I66">
-        <f t="shared" ref="I66:I100" si="15">1.5*24*60*60</f>
-        <v>129600</v>
-      </c>
       <c r="J66">
-        <f t="shared" ref="J66:J100" si="16">2*24*60*60</f>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L66">
+        <f t="shared" ref="L66:L100" si="205">3*24*60*60</f>
+        <v>259200</v>
+      </c>
+      <c r="M66" t="str">
+        <f t="shared" ref="M66:O66" si="206">IF(L66/60/60&gt;=1,INT(L66/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L66/60,60))&gt;0,INT(MOD(L66/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L66,60))&gt;0,INT(MOD(L66,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N66">
+        <f t="shared" ref="N66:N100" si="207">3*24*60*60</f>
+        <v>259200</v>
+      </c>
+      <c r="O66" t="str">
+        <f t="shared" si="206"/>
+        <v>72h</v>
+      </c>
+      <c r="P66">
+        <f t="shared" ref="P66:P100" si="208">4*60*60</f>
+        <v>14400</v>
+      </c>
+      <c r="Q66" t="str">
+        <f t="shared" ref="Q66" si="209">IF(P66/60/60&gt;=1,INT(P66/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P66/60,60))&gt;0,INT(MOD(P66/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P66,60))&gt;0,INT(MOD(P66,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
         <v>38400</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="str">
+        <f t="shared" si="29"/>
+        <v>10h40m</v>
+      </c>
+      <c r="D67">
         <v>1248300</v>
       </c>
-      <c r="D67">
+      <c r="E67" t="str">
+        <f t="shared" si="12"/>
+        <v>14d10h45m</v>
+      </c>
+      <c r="F67">
         <v>36000</v>
       </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E100" si="17">E66+2</f>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67" si="210">IF(F67/60/60&gt;=1,INT(F67/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F67/60,60))&gt;0,INT(MOD(F67/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F67,60))&gt;0,INT(MOD(F67,60))&amp;"s","")</f>
+        <v>10h</v>
+      </c>
+      <c r="H67">
+        <v>10</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I100" si="211">I66+2</f>
         <v>192.5</v>
       </c>
-      <c r="F67">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H67">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="114"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" ref="M67:O67" si="212">IF(L67/60/60&gt;=1,INT(L67/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L67/60,60))&gt;0,INT(MOD(L67/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L67,60))&gt;0,INT(MOD(L67,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" si="212"/>
+        <v>72h</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q67" t="str">
+        <f t="shared" ref="Q67" si="213">IF(P67/60/60&gt;=1,INT(P67/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P67/60,60))&gt;0,INT(MOD(P67/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P67,60))&gt;0,INT(MOD(P67,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
         <v>39000</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="str">
+        <f t="shared" si="29"/>
+        <v>10h50m</v>
+      </c>
+      <c r="D68">
         <v>1287300</v>
       </c>
-      <c r="D68">
+      <c r="E68" t="str">
+        <f t="shared" ref="E68:E100" si="214">IF(D68/60/60/24&gt;=1,INT(D68/60/60/24)&amp;"d","")
+&amp;IF(INT(MOD(D68/60/60,24))&gt;0,INT(MOD(D68/60/60,24))&amp;"h","")
+&amp;IF(INT(MOD(D68/60,60))&gt;0,INT(MOD(D68/60,60))&amp;"m","")
+&amp;IF(INT(MOD(D68,60))&gt;0,INT(MOD(D68,60))&amp;"s","")</f>
+        <v>14d21h35m</v>
+      </c>
+      <c r="F68">
         <v>36000</v>
       </c>
-      <c r="E68">
-        <f t="shared" si="17"/>
+      <c r="G68" t="str">
+        <f t="shared" ref="G68" si="215">IF(F68/60/60&gt;=1,INT(F68/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F68/60,60))&gt;0,INT(MOD(F68/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F68,60))&gt;0,INT(MOD(F68,60))&amp;"s","")</f>
+        <v>10h</v>
+      </c>
+      <c r="H68">
+        <v>10</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="211"/>
         <v>194.5</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J68">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="J68:J100" si="216">2*24*60*60</f>
         <v>172800</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" ref="M68:O68" si="217">IF(L68/60/60&gt;=1,INT(L68/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L68/60,60))&gt;0,INT(MOD(L68/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L68,60))&gt;0,INT(MOD(L68,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" si="217"/>
+        <v>72h</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" ref="Q68" si="218">IF(P68/60/60&gt;=1,INT(P68/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P68/60,60))&gt;0,INT(MOD(P68/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P68,60))&gt;0,INT(MOD(P68,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
         <v>39600</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="str">
+        <f t="shared" si="29"/>
+        <v>11h</v>
+      </c>
+      <c r="D69">
         <v>1326900</v>
       </c>
-      <c r="D69">
+      <c r="E69" t="str">
+        <f t="shared" si="214"/>
+        <v>15d8h35m</v>
+      </c>
+      <c r="F69">
         <v>36000</v>
       </c>
-      <c r="E69">
-        <f t="shared" si="17"/>
+      <c r="G69" t="str">
+        <f t="shared" ref="G69" si="219">IF(F69/60/60&gt;=1,INT(F69/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F69/60,60))&gt;0,INT(MOD(F69/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F69,60))&gt;0,INT(MOD(F69,60))&amp;"s","")</f>
+        <v>10h</v>
+      </c>
+      <c r="H69">
+        <v>10</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="211"/>
         <v>196.5</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M69" t="str">
+        <f t="shared" ref="M69:O69" si="220">IF(L69/60/60&gt;=1,INT(L69/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L69/60,60))&gt;0,INT(MOD(L69/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L69,60))&gt;0,INT(MOD(L69,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="220"/>
+        <v>72h</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" ref="Q69" si="221">IF(P69/60/60&gt;=1,INT(P69/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P69/60,60))&gt;0,INT(MOD(P69/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P69,60))&gt;0,INT(MOD(P69,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
         <v>40200</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="str">
+        <f t="shared" si="29"/>
+        <v>11h10m</v>
+      </c>
+      <c r="D70">
         <v>1367100</v>
       </c>
-      <c r="D70">
+      <c r="E70" t="str">
+        <f t="shared" si="214"/>
+        <v>15d19h45m</v>
+      </c>
+      <c r="F70">
         <v>36000</v>
       </c>
-      <c r="E70">
-        <f t="shared" si="17"/>
+      <c r="G70" t="str">
+        <f t="shared" ref="G70" si="222">IF(F70/60/60&gt;=1,INT(F70/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F70/60,60))&gt;0,INT(MOD(F70/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F70,60))&gt;0,INT(MOD(F70,60))&amp;"s","")</f>
+        <v>10h</v>
+      </c>
+      <c r="H70">
+        <v>10</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="211"/>
         <v>198.5</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K70" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M70" t="str">
+        <f t="shared" ref="M70:O70" si="223">IF(L70/60/60&gt;=1,INT(L70/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L70/60,60))&gt;0,INT(MOD(L70/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L70,60))&gt;0,INT(MOD(L70,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" si="223"/>
+        <v>72h</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" ref="Q70" si="224">IF(P70/60/60&gt;=1,INT(P70/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P70/60,60))&gt;0,INT(MOD(P70/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P70,60))&gt;0,INT(MOD(P70,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
         <v>40800</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="str">
+        <f t="shared" si="29"/>
+        <v>11h20m</v>
+      </c>
+      <c r="D71">
         <v>1407900</v>
       </c>
-      <c r="D71">
+      <c r="E71" t="str">
+        <f t="shared" si="214"/>
+        <v>16d7h5m</v>
+      </c>
+      <c r="F71">
         <v>43200</v>
       </c>
-      <c r="E71">
-        <f t="shared" si="17"/>
+      <c r="G71" t="str">
+        <f t="shared" ref="G71" si="225">IF(F71/60/60&gt;=1,INT(F71/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F71/60,60))&gt;0,INT(MOD(F71/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F71,60))&gt;0,INT(MOD(F71,60))&amp;"s","")</f>
+        <v>12h</v>
+      </c>
+      <c r="H71">
+        <v>10</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="211"/>
         <v>200.5</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M71" t="str">
+        <f t="shared" ref="M71:O71" si="226">IF(L71/60/60&gt;=1,INT(L71/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L71/60,60))&gt;0,INT(MOD(L71/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L71,60))&gt;0,INT(MOD(L71,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O71" t="str">
+        <f t="shared" si="226"/>
+        <v>72h</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q71" t="str">
+        <f t="shared" ref="Q71" si="227">IF(P71/60/60&gt;=1,INT(P71/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P71/60,60))&gt;0,INT(MOD(P71/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P71,60))&gt;0,INT(MOD(P71,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
         <v>41400</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="str">
+        <f t="shared" si="29"/>
+        <v>11h30m</v>
+      </c>
+      <c r="D72">
         <v>1449300</v>
       </c>
-      <c r="D72">
+      <c r="E72" t="str">
+        <f t="shared" si="214"/>
+        <v>16d18h35m</v>
+      </c>
+      <c r="F72">
         <v>43200</v>
       </c>
-      <c r="E72">
-        <f t="shared" si="17"/>
+      <c r="G72" t="str">
+        <f t="shared" ref="G72" si="228">IF(F72/60/60&gt;=1,INT(F72/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F72/60,60))&gt;0,INT(MOD(F72/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F72,60))&gt;0,INT(MOD(F72,60))&amp;"s","")</f>
+        <v>12h</v>
+      </c>
+      <c r="H72">
+        <v>10</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="211"/>
         <v>202.5</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M72" t="str">
+        <f t="shared" ref="M72:O72" si="229">IF(L72/60/60&gt;=1,INT(L72/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L72/60,60))&gt;0,INT(MOD(L72/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L72,60))&gt;0,INT(MOD(L72,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O72" t="str">
+        <f t="shared" si="229"/>
+        <v>72h</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" ref="Q72" si="230">IF(P72/60/60&gt;=1,INT(P72/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P72/60,60))&gt;0,INT(MOD(P72/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P72,60))&gt;0,INT(MOD(P72,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
         <v>42000</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="str">
+        <f t="shared" si="29"/>
+        <v>11h40m</v>
+      </c>
+      <c r="D73">
         <v>1491300</v>
       </c>
-      <c r="D73">
+      <c r="E73" t="str">
+        <f t="shared" si="214"/>
+        <v>17d6h15m</v>
+      </c>
+      <c r="F73">
         <v>43200</v>
       </c>
-      <c r="E73">
-        <f t="shared" si="17"/>
+      <c r="G73" t="str">
+        <f t="shared" ref="G73" si="231">IF(F73/60/60&gt;=1,INT(F73/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F73/60,60))&gt;0,INT(MOD(F73/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F73,60))&gt;0,INT(MOD(F73,60))&amp;"s","")</f>
+        <v>12h</v>
+      </c>
+      <c r="H73">
+        <v>10</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="211"/>
         <v>204.5</v>
       </c>
-      <c r="F73">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73" t="str">
+        <f t="shared" si="31"/>
+        <v>48h</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M73" t="str">
+        <f t="shared" ref="M73:O73" si="232">IF(L73/60/60&gt;=1,INT(L73/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L73/60,60))&gt;0,INT(MOD(L73/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L73,60))&gt;0,INT(MOD(L73,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" si="232"/>
+        <v>72h</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q73" t="str">
+        <f t="shared" ref="Q73" si="233">IF(P73/60/60&gt;=1,INT(P73/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P73/60,60))&gt;0,INT(MOD(P73/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P73,60))&gt;0,INT(MOD(P73,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
         <v>42600</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="str">
+        <f t="shared" ref="C74:C100" si="234">IF(B74/60/60&gt;=1,INT(B74/60/60)&amp;"h","")
+&amp;IF(INT(MOD(B74/60,60))&gt;0,INT(MOD(B74/60,60))&amp;"m","")
+&amp;IF(INT(MOD(B74,60))&gt;0,INT(MOD(B74,60))&amp;"s","")</f>
+        <v>11h50m</v>
+      </c>
+      <c r="D74">
         <v>1533900</v>
       </c>
-      <c r="D74">
+      <c r="E74" t="str">
+        <f t="shared" si="214"/>
+        <v>17d18h5m</v>
+      </c>
+      <c r="F74">
         <v>43200</v>
       </c>
-      <c r="E74">
-        <f t="shared" si="17"/>
+      <c r="G74" t="str">
+        <f t="shared" ref="G74" si="235">IF(F74/60/60&gt;=1,INT(F74/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F74/60,60))&gt;0,INT(MOD(F74/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F74,60))&gt;0,INT(MOD(F74,60))&amp;"s","")</f>
+        <v>12h</v>
+      </c>
+      <c r="H74">
+        <v>10</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="211"/>
         <v>206.5</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74" t="str">
+        <f t="shared" ref="K74:K100" si="236">IF(J74/60/60&gt;=1,INT(J74/60/60)&amp;"h","")
+&amp;IF(INT(MOD(J74/60,60))&gt;0,INT(MOD(J74/60,60))&amp;"m","")
+&amp;IF(INT(MOD(J74,60))&gt;0,INT(MOD(J74,60))&amp;"s","")</f>
+        <v>48h</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M74" t="str">
+        <f t="shared" ref="M74:O74" si="237">IF(L74/60/60&gt;=1,INT(L74/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L74/60,60))&gt;0,INT(MOD(L74/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L74,60))&gt;0,INT(MOD(L74,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O74" t="str">
+        <f t="shared" si="237"/>
+        <v>72h</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q74" t="str">
+        <f t="shared" ref="Q74" si="238">IF(P74/60/60&gt;=1,INT(P74/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P74/60,60))&gt;0,INT(MOD(P74/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P74,60))&gt;0,INT(MOD(P74,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
         <v>43200</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="str">
+        <f t="shared" si="234"/>
+        <v>12h</v>
+      </c>
+      <c r="D75">
         <v>1577100</v>
       </c>
-      <c r="D75">
+      <c r="E75" t="str">
+        <f t="shared" si="214"/>
+        <v>18d6h5m</v>
+      </c>
+      <c r="F75">
         <v>43200</v>
       </c>
-      <c r="E75">
-        <f t="shared" si="17"/>
+      <c r="G75" t="str">
+        <f t="shared" ref="G75" si="239">IF(F75/60/60&gt;=1,INT(F75/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F75/60,60))&gt;0,INT(MOD(F75/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F75,60))&gt;0,INT(MOD(F75,60))&amp;"s","")</f>
+        <v>12h</v>
+      </c>
+      <c r="H75">
+        <v>10</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="211"/>
         <v>208.5</v>
       </c>
-      <c r="F75">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M75" t="str">
+        <f t="shared" ref="M75:O75" si="240">IF(L75/60/60&gt;=1,INT(L75/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L75/60,60))&gt;0,INT(MOD(L75/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L75,60))&gt;0,INT(MOD(L75,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O75" t="str">
+        <f t="shared" si="240"/>
+        <v>72h</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q75" t="str">
+        <f t="shared" ref="Q75" si="241">IF(P75/60/60&gt;=1,INT(P75/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P75/60,60))&gt;0,INT(MOD(P75/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P75,60))&gt;0,INT(MOD(P75,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
         <v>43800</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="str">
+        <f t="shared" si="234"/>
+        <v>12h10m</v>
+      </c>
+      <c r="D76">
         <v>1620900</v>
       </c>
-      <c r="D76">
+      <c r="E76" t="str">
+        <f t="shared" si="214"/>
+        <v>18d18h15m</v>
+      </c>
+      <c r="F76">
         <v>43200</v>
       </c>
-      <c r="E76">
-        <f t="shared" si="17"/>
+      <c r="G76" t="str">
+        <f t="shared" ref="G76" si="242">IF(F76/60/60&gt;=1,INT(F76/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F76/60,60))&gt;0,INT(MOD(F76/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F76,60))&gt;0,INT(MOD(F76,60))&amp;"s","")</f>
+        <v>12h</v>
+      </c>
+      <c r="H76">
+        <v>10</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="211"/>
         <v>210.5</v>
       </c>
-      <c r="F76">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K76" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M76" t="str">
+        <f t="shared" ref="M76:O76" si="243">IF(L76/60/60&gt;=1,INT(L76/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L76/60,60))&gt;0,INT(MOD(L76/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L76,60))&gt;0,INT(MOD(L76,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O76" t="str">
+        <f t="shared" si="243"/>
+        <v>72h</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q76" t="str">
+        <f t="shared" ref="Q76" si="244">IF(P76/60/60&gt;=1,INT(P76/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P76/60,60))&gt;0,INT(MOD(P76/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P76,60))&gt;0,INT(MOD(P76,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
         <v>44400</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="str">
+        <f t="shared" si="234"/>
+        <v>12h20m</v>
+      </c>
+      <c r="D77">
         <v>1665300</v>
       </c>
-      <c r="D77">
+      <c r="E77" t="str">
+        <f t="shared" si="214"/>
+        <v>19d6h35m</v>
+      </c>
+      <c r="F77">
         <v>43200</v>
       </c>
-      <c r="E77">
-        <f t="shared" si="17"/>
+      <c r="G77" t="str">
+        <f t="shared" ref="G77" si="245">IF(F77/60/60&gt;=1,INT(F77/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F77/60,60))&gt;0,INT(MOD(F77/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F77,60))&gt;0,INT(MOD(F77,60))&amp;"s","")</f>
+        <v>12h</v>
+      </c>
+      <c r="H77">
+        <v>10</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="211"/>
         <v>212.5</v>
       </c>
-      <c r="F77">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K77" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M77" t="str">
+        <f t="shared" ref="M77:O77" si="246">IF(L77/60/60&gt;=1,INT(L77/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L77/60,60))&gt;0,INT(MOD(L77/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L77,60))&gt;0,INT(MOD(L77,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O77" t="str">
+        <f t="shared" si="246"/>
+        <v>72h</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q77" t="str">
+        <f t="shared" ref="Q77" si="247">IF(P77/60/60&gt;=1,INT(P77/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P77/60,60))&gt;0,INT(MOD(P77/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P77,60))&gt;0,INT(MOD(P77,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
         <v>45000</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="str">
+        <f t="shared" si="234"/>
+        <v>12h30m</v>
+      </c>
+      <c r="D78">
         <v>1710300</v>
       </c>
-      <c r="D78">
+      <c r="E78" t="str">
+        <f t="shared" si="214"/>
+        <v>19d19h5m</v>
+      </c>
+      <c r="F78">
         <v>43200</v>
       </c>
-      <c r="E78">
-        <f t="shared" si="17"/>
+      <c r="G78" t="str">
+        <f t="shared" ref="G78" si="248">IF(F78/60/60&gt;=1,INT(F78/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F78/60,60))&gt;0,INT(MOD(F78/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F78,60))&gt;0,INT(MOD(F78,60))&amp;"s","")</f>
+        <v>12h</v>
+      </c>
+      <c r="H78">
+        <v>10</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="211"/>
         <v>214.5</v>
       </c>
-      <c r="F78">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M78" t="str">
+        <f t="shared" ref="M78:O78" si="249">IF(L78/60/60&gt;=1,INT(L78/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L78/60,60))&gt;0,INT(MOD(L78/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L78,60))&gt;0,INT(MOD(L78,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O78" t="str">
+        <f t="shared" si="249"/>
+        <v>72h</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q78" t="str">
+        <f t="shared" ref="Q78" si="250">IF(P78/60/60&gt;=1,INT(P78/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P78/60,60))&gt;0,INT(MOD(P78/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P78,60))&gt;0,INT(MOD(P78,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
         <v>45600</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="str">
+        <f t="shared" si="234"/>
+        <v>12h40m</v>
+      </c>
+      <c r="D79">
         <v>1755900</v>
       </c>
-      <c r="D79">
+      <c r="E79" t="str">
+        <f t="shared" si="214"/>
+        <v>20d7h45m</v>
+      </c>
+      <c r="F79">
         <v>43200</v>
       </c>
-      <c r="E79">
-        <f t="shared" si="17"/>
+      <c r="G79" t="str">
+        <f t="shared" ref="G79" si="251">IF(F79/60/60&gt;=1,INT(F79/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F79/60,60))&gt;0,INT(MOD(F79/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F79,60))&gt;0,INT(MOD(F79,60))&amp;"s","")</f>
+        <v>12h</v>
+      </c>
+      <c r="H79">
+        <v>10</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="211"/>
         <v>216.5</v>
       </c>
-      <c r="F79">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K79" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M79" t="str">
+        <f t="shared" ref="M79:O79" si="252">IF(L79/60/60&gt;=1,INT(L79/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L79/60,60))&gt;0,INT(MOD(L79/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L79,60))&gt;0,INT(MOD(L79,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O79" t="str">
+        <f t="shared" si="252"/>
+        <v>72h</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q79" t="str">
+        <f t="shared" ref="Q79" si="253">IF(P79/60/60&gt;=1,INT(P79/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P79/60,60))&gt;0,INT(MOD(P79/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P79,60))&gt;0,INT(MOD(P79,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
         <v>46200</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="str">
+        <f t="shared" si="234"/>
+        <v>12h50m</v>
+      </c>
+      <c r="D80">
         <v>1802100</v>
       </c>
-      <c r="D80">
+      <c r="E80" t="str">
+        <f t="shared" si="214"/>
+        <v>20d20h35m</v>
+      </c>
+      <c r="F80">
         <v>43200</v>
       </c>
-      <c r="E80">
-        <f t="shared" si="17"/>
+      <c r="G80" t="str">
+        <f t="shared" ref="G80" si="254">IF(F80/60/60&gt;=1,INT(F80/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F80/60,60))&gt;0,INT(MOD(F80/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F80,60))&gt;0,INT(MOD(F80,60))&amp;"s","")</f>
+        <v>12h</v>
+      </c>
+      <c r="H80">
+        <v>10</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="211"/>
         <v>218.5</v>
       </c>
-      <c r="F80">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K80" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M80" t="str">
+        <f t="shared" ref="M80:O80" si="255">IF(L80/60/60&gt;=1,INT(L80/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L80/60,60))&gt;0,INT(MOD(L80/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L80,60))&gt;0,INT(MOD(L80,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O80" t="str">
+        <f t="shared" si="255"/>
+        <v>72h</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q80" t="str">
+        <f t="shared" ref="Q80" si="256">IF(P80/60/60&gt;=1,INT(P80/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P80/60,60))&gt;0,INT(MOD(P80/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P80,60))&gt;0,INT(MOD(P80,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
         <v>46800</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="str">
+        <f t="shared" si="234"/>
+        <v>13h</v>
+      </c>
+      <c r="D81">
         <v>1848900</v>
       </c>
-      <c r="D81">
+      <c r="E81" t="str">
+        <f t="shared" si="214"/>
+        <v>21d9h35m</v>
+      </c>
+      <c r="F81">
         <v>50400</v>
       </c>
-      <c r="E81">
-        <f t="shared" si="17"/>
+      <c r="G81" t="str">
+        <f t="shared" ref="G81" si="257">IF(F81/60/60&gt;=1,INT(F81/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F81/60,60))&gt;0,INT(MOD(F81/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F81,60))&gt;0,INT(MOD(F81,60))&amp;"s","")</f>
+        <v>14h</v>
+      </c>
+      <c r="H81">
+        <v>10</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="211"/>
         <v>220.5</v>
       </c>
-      <c r="F81">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I81">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K81" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M81" t="str">
+        <f t="shared" ref="M81:O81" si="258">IF(L81/60/60&gt;=1,INT(L81/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L81/60,60))&gt;0,INT(MOD(L81/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L81,60))&gt;0,INT(MOD(L81,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O81" t="str">
+        <f t="shared" si="258"/>
+        <v>72h</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q81" t="str">
+        <f t="shared" ref="Q81" si="259">IF(P81/60/60&gt;=1,INT(P81/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P81/60,60))&gt;0,INT(MOD(P81/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P81,60))&gt;0,INT(MOD(P81,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
         <v>47400</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="str">
+        <f t="shared" si="234"/>
+        <v>13h10m</v>
+      </c>
+      <c r="D82">
         <v>1896300</v>
       </c>
-      <c r="D82">
+      <c r="E82" t="str">
+        <f t="shared" si="214"/>
+        <v>21d22h45m</v>
+      </c>
+      <c r="F82">
         <v>50400</v>
       </c>
-      <c r="E82">
-        <f t="shared" si="17"/>
+      <c r="G82" t="str">
+        <f t="shared" ref="G82" si="260">IF(F82/60/60&gt;=1,INT(F82/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F82/60,60))&gt;0,INT(MOD(F82/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F82,60))&gt;0,INT(MOD(F82,60))&amp;"s","")</f>
+        <v>14h</v>
+      </c>
+      <c r="H82">
+        <v>10</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="211"/>
         <v>222.5</v>
       </c>
-      <c r="F82">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K82" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M82" t="str">
+        <f t="shared" ref="M82:O82" si="261">IF(L82/60/60&gt;=1,INT(L82/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L82/60,60))&gt;0,INT(MOD(L82/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L82,60))&gt;0,INT(MOD(L82,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O82" t="str">
+        <f t="shared" si="261"/>
+        <v>72h</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q82" t="str">
+        <f t="shared" ref="Q82" si="262">IF(P82/60/60&gt;=1,INT(P82/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P82/60,60))&gt;0,INT(MOD(P82/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P82,60))&gt;0,INT(MOD(P82,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
         <v>48000</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="str">
+        <f t="shared" si="234"/>
+        <v>13h20m</v>
+      </c>
+      <c r="D83">
         <v>1944300</v>
       </c>
-      <c r="D83">
+      <c r="E83" t="str">
+        <f t="shared" si="214"/>
+        <v>22d12h5m</v>
+      </c>
+      <c r="F83">
         <v>50400</v>
       </c>
-      <c r="E83">
-        <f t="shared" si="17"/>
+      <c r="G83" t="str">
+        <f t="shared" ref="G83" si="263">IF(F83/60/60&gt;=1,INT(F83/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F83/60,60))&gt;0,INT(MOD(F83/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F83,60))&gt;0,INT(MOD(F83,60))&amp;"s","")</f>
+        <v>14h</v>
+      </c>
+      <c r="H83">
+        <v>10</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="211"/>
         <v>224.5</v>
       </c>
-      <c r="F83">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I83">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K83" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" ref="M83:O83" si="264">IF(L83/60/60&gt;=1,INT(L83/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L83/60,60))&gt;0,INT(MOD(L83/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L83,60))&gt;0,INT(MOD(L83,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="264"/>
+        <v>72h</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q83" t="str">
+        <f t="shared" ref="Q83" si="265">IF(P83/60/60&gt;=1,INT(P83/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P83/60,60))&gt;0,INT(MOD(P83/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P83,60))&gt;0,INT(MOD(P83,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
         <v>48600</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="str">
+        <f t="shared" si="234"/>
+        <v>13h30m</v>
+      </c>
+      <c r="D84">
         <v>1992900</v>
       </c>
-      <c r="D84">
+      <c r="E84" t="str">
+        <f t="shared" si="214"/>
+        <v>23d1h35m</v>
+      </c>
+      <c r="F84">
         <v>50400</v>
       </c>
-      <c r="E84">
-        <f t="shared" si="17"/>
+      <c r="G84" t="str">
+        <f t="shared" ref="G84" si="266">IF(F84/60/60&gt;=1,INT(F84/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F84/60,60))&gt;0,INT(MOD(F84/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F84,60))&gt;0,INT(MOD(F84,60))&amp;"s","")</f>
+        <v>14h</v>
+      </c>
+      <c r="H84">
+        <v>10</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="211"/>
         <v>226.5</v>
       </c>
-      <c r="F84">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I84">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K84" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" ref="M84:O84" si="267">IF(L84/60/60&gt;=1,INT(L84/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L84/60,60))&gt;0,INT(MOD(L84/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L84,60))&gt;0,INT(MOD(L84,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="267"/>
+        <v>72h</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q84" t="str">
+        <f t="shared" ref="Q84" si="268">IF(P84/60/60&gt;=1,INT(P84/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P84/60,60))&gt;0,INT(MOD(P84/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P84,60))&gt;0,INT(MOD(P84,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
         <v>49200</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="str">
+        <f t="shared" si="234"/>
+        <v>13h40m</v>
+      </c>
+      <c r="D85">
         <v>2042100</v>
       </c>
-      <c r="D85">
+      <c r="E85" t="str">
+        <f t="shared" si="214"/>
+        <v>23d15h15m</v>
+      </c>
+      <c r="F85">
         <v>50400</v>
       </c>
-      <c r="E85">
-        <f t="shared" si="17"/>
+      <c r="G85" t="str">
+        <f t="shared" ref="G85" si="269">IF(F85/60/60&gt;=1,INT(F85/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F85/60,60))&gt;0,INT(MOD(F85/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F85,60))&gt;0,INT(MOD(F85,60))&amp;"s","")</f>
+        <v>14h</v>
+      </c>
+      <c r="H85">
+        <v>10</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="211"/>
         <v>228.5</v>
       </c>
-      <c r="F85">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I85">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K85" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" ref="M85:O85" si="270">IF(L85/60/60&gt;=1,INT(L85/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L85/60,60))&gt;0,INT(MOD(L85/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L85,60))&gt;0,INT(MOD(L85,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="270"/>
+        <v>72h</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q85" t="str">
+        <f t="shared" ref="Q85" si="271">IF(P85/60/60&gt;=1,INT(P85/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P85/60,60))&gt;0,INT(MOD(P85/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P85,60))&gt;0,INT(MOD(P85,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
         <v>49800</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="str">
+        <f t="shared" si="234"/>
+        <v>13h50m</v>
+      </c>
+      <c r="D86">
         <v>2091900</v>
       </c>
-      <c r="D86">
+      <c r="E86" t="str">
+        <f t="shared" si="214"/>
+        <v>24d5h5m</v>
+      </c>
+      <c r="F86">
         <v>50400</v>
       </c>
-      <c r="E86">
-        <f t="shared" si="17"/>
+      <c r="G86" t="str">
+        <f t="shared" ref="G86" si="272">IF(F86/60/60&gt;=1,INT(F86/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F86/60,60))&gt;0,INT(MOD(F86/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F86,60))&gt;0,INT(MOD(F86,60))&amp;"s","")</f>
+        <v>14h</v>
+      </c>
+      <c r="H86">
+        <v>10</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="211"/>
         <v>230.5</v>
       </c>
-      <c r="F86">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I86">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K86" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" ref="M86:O86" si="273">IF(L86/60/60&gt;=1,INT(L86/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L86/60,60))&gt;0,INT(MOD(L86/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L86,60))&gt;0,INT(MOD(L86,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="273"/>
+        <v>72h</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q86" t="str">
+        <f t="shared" ref="Q86" si="274">IF(P86/60/60&gt;=1,INT(P86/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P86/60,60))&gt;0,INT(MOD(P86/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P86,60))&gt;0,INT(MOD(P86,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
         <v>50400</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="str">
+        <f t="shared" si="234"/>
+        <v>14h</v>
+      </c>
+      <c r="D87">
         <v>2142300</v>
       </c>
-      <c r="D87">
+      <c r="E87" t="str">
+        <f t="shared" si="214"/>
+        <v>24d19h5m</v>
+      </c>
+      <c r="F87">
         <v>50400</v>
       </c>
-      <c r="E87">
-        <f t="shared" si="17"/>
+      <c r="G87" t="str">
+        <f t="shared" ref="G87" si="275">IF(F87/60/60&gt;=1,INT(F87/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F87/60,60))&gt;0,INT(MOD(F87/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F87,60))&gt;0,INT(MOD(F87,60))&amp;"s","")</f>
+        <v>14h</v>
+      </c>
+      <c r="H87">
+        <v>10</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="211"/>
         <v>232.5</v>
       </c>
-      <c r="F87">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K87" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" ref="M87:O87" si="276">IF(L87/60/60&gt;=1,INT(L87/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L87/60,60))&gt;0,INT(MOD(L87/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L87,60))&gt;0,INT(MOD(L87,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="276"/>
+        <v>72h</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q87" t="str">
+        <f t="shared" ref="Q87" si="277">IF(P87/60/60&gt;=1,INT(P87/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P87/60,60))&gt;0,INT(MOD(P87/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P87,60))&gt;0,INT(MOD(P87,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
         <v>51000</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="str">
+        <f t="shared" si="234"/>
+        <v>14h10m</v>
+      </c>
+      <c r="D88">
         <v>2193300</v>
       </c>
-      <c r="D88">
+      <c r="E88" t="str">
+        <f t="shared" si="214"/>
+        <v>25d9h15m</v>
+      </c>
+      <c r="F88">
         <v>50400</v>
       </c>
-      <c r="E88">
-        <f t="shared" si="17"/>
+      <c r="G88" t="str">
+        <f t="shared" ref="G88" si="278">IF(F88/60/60&gt;=1,INT(F88/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F88/60,60))&gt;0,INT(MOD(F88/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F88,60))&gt;0,INT(MOD(F88,60))&amp;"s","")</f>
+        <v>14h</v>
+      </c>
+      <c r="H88">
+        <v>10</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="211"/>
         <v>234.5</v>
       </c>
-      <c r="F88">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I88">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K88" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" ref="M88:O88" si="279">IF(L88/60/60&gt;=1,INT(L88/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L88/60,60))&gt;0,INT(MOD(L88/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L88,60))&gt;0,INT(MOD(L88,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="279"/>
+        <v>72h</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q88" t="str">
+        <f t="shared" ref="Q88" si="280">IF(P88/60/60&gt;=1,INT(P88/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P88/60,60))&gt;0,INT(MOD(P88/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P88,60))&gt;0,INT(MOD(P88,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
         <v>51600</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="str">
+        <f t="shared" si="234"/>
+        <v>14h20m</v>
+      </c>
+      <c r="D89">
         <v>2244900</v>
       </c>
-      <c r="D89">
+      <c r="E89" t="str">
+        <f t="shared" si="214"/>
+        <v>25d23h35m</v>
+      </c>
+      <c r="F89">
         <v>50400</v>
       </c>
-      <c r="E89">
-        <f t="shared" si="17"/>
+      <c r="G89" t="str">
+        <f t="shared" ref="G89" si="281">IF(F89/60/60&gt;=1,INT(F89/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F89/60,60))&gt;0,INT(MOD(F89/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F89,60))&gt;0,INT(MOD(F89,60))&amp;"s","")</f>
+        <v>14h</v>
+      </c>
+      <c r="H89">
+        <v>10</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="211"/>
         <v>236.5</v>
       </c>
-      <c r="F89">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I89">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K89" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" ref="M89:O89" si="282">IF(L89/60/60&gt;=1,INT(L89/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L89/60,60))&gt;0,INT(MOD(L89/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L89,60))&gt;0,INT(MOD(L89,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="282"/>
+        <v>72h</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q89" t="str">
+        <f t="shared" ref="Q89" si="283">IF(P89/60/60&gt;=1,INT(P89/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P89/60,60))&gt;0,INT(MOD(P89/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P89,60))&gt;0,INT(MOD(P89,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
         <v>52200</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="str">
+        <f t="shared" si="234"/>
+        <v>14h30m</v>
+      </c>
+      <c r="D90">
         <v>2297100</v>
       </c>
-      <c r="D90">
+      <c r="E90" t="str">
+        <f t="shared" si="214"/>
+        <v>26d14h5m</v>
+      </c>
+      <c r="F90">
         <v>50400</v>
       </c>
-      <c r="E90">
-        <f t="shared" si="17"/>
+      <c r="G90" t="str">
+        <f t="shared" ref="G90" si="284">IF(F90/60/60&gt;=1,INT(F90/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F90/60,60))&gt;0,INT(MOD(F90/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F90,60))&gt;0,INT(MOD(F90,60))&amp;"s","")</f>
+        <v>14h</v>
+      </c>
+      <c r="H90">
+        <v>10</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="211"/>
         <v>238.5</v>
       </c>
-      <c r="F90">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I90">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K90" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" ref="M90:O90" si="285">IF(L90/60/60&gt;=1,INT(L90/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L90/60,60))&gt;0,INT(MOD(L90/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L90,60))&gt;0,INT(MOD(L90,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="285"/>
+        <v>72h</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q90" t="str">
+        <f t="shared" ref="Q90" si="286">IF(P90/60/60&gt;=1,INT(P90/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P90/60,60))&gt;0,INT(MOD(P90/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P90,60))&gt;0,INT(MOD(P90,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
         <v>52800</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="str">
+        <f t="shared" si="234"/>
+        <v>14h40m</v>
+      </c>
+      <c r="D91">
         <v>2349900</v>
       </c>
-      <c r="D91">
+      <c r="E91" t="str">
+        <f t="shared" si="214"/>
+        <v>27d4h45m</v>
+      </c>
+      <c r="F91">
         <v>57600</v>
       </c>
-      <c r="E91">
-        <f t="shared" si="17"/>
+      <c r="G91" t="str">
+        <f t="shared" ref="G91" si="287">IF(F91/60/60&gt;=1,INT(F91/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F91/60,60))&gt;0,INT(MOD(F91/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F91,60))&gt;0,INT(MOD(F91,60))&amp;"s","")</f>
+        <v>16h</v>
+      </c>
+      <c r="H91">
+        <v>10</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="211"/>
         <v>240.5</v>
       </c>
-      <c r="F91">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I91">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J91">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K91" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" ref="M91:O91" si="288">IF(L91/60/60&gt;=1,INT(L91/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L91/60,60))&gt;0,INT(MOD(L91/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L91,60))&gt;0,INT(MOD(L91,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="288"/>
+        <v>72h</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q91" t="str">
+        <f t="shared" ref="Q91" si="289">IF(P91/60/60&gt;=1,INT(P91/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P91/60,60))&gt;0,INT(MOD(P91/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P91,60))&gt;0,INT(MOD(P91,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
         <v>53400</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="str">
+        <f t="shared" si="234"/>
+        <v>14h50m</v>
+      </c>
+      <c r="D92">
         <v>2403300</v>
       </c>
-      <c r="D92">
+      <c r="E92" t="str">
+        <f t="shared" si="214"/>
+        <v>27d19h35m</v>
+      </c>
+      <c r="F92">
         <v>57600</v>
       </c>
-      <c r="E92">
-        <f t="shared" si="17"/>
+      <c r="G92" t="str">
+        <f t="shared" ref="G92" si="290">IF(F92/60/60&gt;=1,INT(F92/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F92/60,60))&gt;0,INT(MOD(F92/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F92,60))&gt;0,INT(MOD(F92,60))&amp;"s","")</f>
+        <v>16h</v>
+      </c>
+      <c r="H92">
+        <v>10</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="211"/>
         <v>242.5</v>
       </c>
-      <c r="F92">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I92">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J92">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K92" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" ref="M92:O92" si="291">IF(L92/60/60&gt;=1,INT(L92/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L92/60,60))&gt;0,INT(MOD(L92/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L92,60))&gt;0,INT(MOD(L92,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="291"/>
+        <v>72h</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q92" t="str">
+        <f t="shared" ref="Q92" si="292">IF(P92/60/60&gt;=1,INT(P92/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P92/60,60))&gt;0,INT(MOD(P92/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P92,60))&gt;0,INT(MOD(P92,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
         <v>54000</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="str">
+        <f t="shared" si="234"/>
+        <v>15h</v>
+      </c>
+      <c r="D93">
         <v>2457300</v>
       </c>
-      <c r="D93">
+      <c r="E93" t="str">
+        <f t="shared" si="214"/>
+        <v>28d10h35m</v>
+      </c>
+      <c r="F93">
         <v>57600</v>
       </c>
-      <c r="E93">
-        <f t="shared" si="17"/>
+      <c r="G93" t="str">
+        <f t="shared" ref="G93" si="293">IF(F93/60/60&gt;=1,INT(F93/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F93/60,60))&gt;0,INT(MOD(F93/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F93,60))&gt;0,INT(MOD(F93,60))&amp;"s","")</f>
+        <v>16h</v>
+      </c>
+      <c r="H93">
+        <v>10</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="211"/>
         <v>244.5</v>
       </c>
-      <c r="F93">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I93">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K93" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" ref="M93:O93" si="294">IF(L93/60/60&gt;=1,INT(L93/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L93/60,60))&gt;0,INT(MOD(L93/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L93,60))&gt;0,INT(MOD(L93,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="294"/>
+        <v>72h</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q93" t="str">
+        <f t="shared" ref="Q93" si="295">IF(P93/60/60&gt;=1,INT(P93/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P93/60,60))&gt;0,INT(MOD(P93/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P93,60))&gt;0,INT(MOD(P93,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
         <v>54600</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="str">
+        <f t="shared" si="234"/>
+        <v>15h10m</v>
+      </c>
+      <c r="D94">
         <v>2511900</v>
       </c>
-      <c r="D94">
+      <c r="E94" t="str">
+        <f t="shared" si="214"/>
+        <v>29d1h45m</v>
+      </c>
+      <c r="F94">
         <v>57600</v>
       </c>
-      <c r="E94">
-        <f t="shared" si="17"/>
+      <c r="G94" t="str">
+        <f t="shared" ref="G94" si="296">IF(F94/60/60&gt;=1,INT(F94/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F94/60,60))&gt;0,INT(MOD(F94/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F94,60))&gt;0,INT(MOD(F94,60))&amp;"s","")</f>
+        <v>16h</v>
+      </c>
+      <c r="H94">
+        <v>10</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="211"/>
         <v>246.5</v>
       </c>
-      <c r="F94">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I94">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J94">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K94" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" ref="M94:O94" si="297">IF(L94/60/60&gt;=1,INT(L94/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L94/60,60))&gt;0,INT(MOD(L94/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L94,60))&gt;0,INT(MOD(L94,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="297"/>
+        <v>72h</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q94" t="str">
+        <f t="shared" ref="Q94" si="298">IF(P94/60/60&gt;=1,INT(P94/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P94/60,60))&gt;0,INT(MOD(P94/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P94,60))&gt;0,INT(MOD(P94,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
         <v>55200</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="str">
+        <f t="shared" si="234"/>
+        <v>15h20m</v>
+      </c>
+      <c r="D95">
         <v>2567100</v>
       </c>
-      <c r="D95">
+      <c r="E95" t="str">
+        <f t="shared" si="214"/>
+        <v>29d17h5m</v>
+      </c>
+      <c r="F95">
         <v>57600</v>
       </c>
-      <c r="E95">
-        <f t="shared" si="17"/>
+      <c r="G95" t="str">
+        <f t="shared" ref="G95" si="299">IF(F95/60/60&gt;=1,INT(F95/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F95/60,60))&gt;0,INT(MOD(F95/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F95,60))&gt;0,INT(MOD(F95,60))&amp;"s","")</f>
+        <v>16h</v>
+      </c>
+      <c r="H95">
+        <v>10</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="211"/>
         <v>248.5</v>
       </c>
-      <c r="F95">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I95">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K95" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" ref="M95:O95" si="300">IF(L95/60/60&gt;=1,INT(L95/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L95/60,60))&gt;0,INT(MOD(L95/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L95,60))&gt;0,INT(MOD(L95,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="300"/>
+        <v>72h</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q95" t="str">
+        <f t="shared" ref="Q95" si="301">IF(P95/60/60&gt;=1,INT(P95/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P95/60,60))&gt;0,INT(MOD(P95/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P95,60))&gt;0,INT(MOD(P95,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
         <v>55800</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="str">
+        <f t="shared" si="234"/>
+        <v>15h30m</v>
+      </c>
+      <c r="D96">
         <v>2622900</v>
       </c>
-      <c r="D96">
+      <c r="E96" t="str">
+        <f t="shared" si="214"/>
+        <v>30d8h35m</v>
+      </c>
+      <c r="F96">
         <v>57600</v>
       </c>
-      <c r="E96">
-        <f t="shared" si="17"/>
+      <c r="G96" t="str">
+        <f t="shared" ref="G96" si="302">IF(F96/60/60&gt;=1,INT(F96/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F96/60,60))&gt;0,INT(MOD(F96/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F96,60))&gt;0,INT(MOD(F96,60))&amp;"s","")</f>
+        <v>16h</v>
+      </c>
+      <c r="H96">
+        <v>10</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="211"/>
         <v>250.5</v>
       </c>
-      <c r="F96">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I96">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K96" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" ref="M96:O96" si="303">IF(L96/60/60&gt;=1,INT(L96/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L96/60,60))&gt;0,INT(MOD(L96/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L96,60))&gt;0,INT(MOD(L96,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="303"/>
+        <v>72h</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q96" t="str">
+        <f t="shared" ref="Q96" si="304">IF(P96/60/60&gt;=1,INT(P96/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P96/60,60))&gt;0,INT(MOD(P96/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P96,60))&gt;0,INT(MOD(P96,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
         <v>56400</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="str">
+        <f t="shared" si="234"/>
+        <v>15h40m</v>
+      </c>
+      <c r="D97">
         <v>2679300</v>
       </c>
-      <c r="D97">
+      <c r="E97" t="str">
+        <f t="shared" si="214"/>
+        <v>31d15m</v>
+      </c>
+      <c r="F97">
         <v>57600</v>
       </c>
-      <c r="E97">
-        <f t="shared" si="17"/>
+      <c r="G97" t="str">
+        <f t="shared" ref="G97" si="305">IF(F97/60/60&gt;=1,INT(F97/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F97/60,60))&gt;0,INT(MOD(F97/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F97,60))&gt;0,INT(MOD(F97,60))&amp;"s","")</f>
+        <v>16h</v>
+      </c>
+      <c r="H97">
+        <v>10</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="211"/>
         <v>252.5</v>
       </c>
-      <c r="F97">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I97">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K97" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" ref="M97:O97" si="306">IF(L97/60/60&gt;=1,INT(L97/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L97/60,60))&gt;0,INT(MOD(L97/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L97,60))&gt;0,INT(MOD(L97,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="306"/>
+        <v>72h</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q97" t="str">
+        <f t="shared" ref="Q97" si="307">IF(P97/60/60&gt;=1,INT(P97/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P97/60,60))&gt;0,INT(MOD(P97/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P97,60))&gt;0,INT(MOD(P97,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
         <v>57000</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="str">
+        <f t="shared" si="234"/>
+        <v>15h50m</v>
+      </c>
+      <c r="D98">
         <v>2736300</v>
       </c>
-      <c r="D98">
+      <c r="E98" t="str">
+        <f t="shared" si="214"/>
+        <v>31d16h5m</v>
+      </c>
+      <c r="F98">
         <v>57600</v>
       </c>
-      <c r="E98">
-        <f t="shared" si="17"/>
+      <c r="G98" t="str">
+        <f t="shared" ref="G98" si="308">IF(F98/60/60&gt;=1,INT(F98/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F98/60,60))&gt;0,INT(MOD(F98/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F98,60))&gt;0,INT(MOD(F98,60))&amp;"s","")</f>
+        <v>16h</v>
+      </c>
+      <c r="H98">
+        <v>10</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="211"/>
         <v>254.5</v>
       </c>
-      <c r="F98">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I98">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K98" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" ref="M98:O98" si="309">IF(L98/60/60&gt;=1,INT(L98/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L98/60,60))&gt;0,INT(MOD(L98/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L98,60))&gt;0,INT(MOD(L98,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="309"/>
+        <v>72h</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q98" t="str">
+        <f t="shared" ref="Q98" si="310">IF(P98/60/60&gt;=1,INT(P98/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P98/60,60))&gt;0,INT(MOD(P98/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P98,60))&gt;0,INT(MOD(P98,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
         <v>57600</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="str">
+        <f t="shared" si="234"/>
+        <v>16h</v>
+      </c>
+      <c r="D99">
         <v>2793900</v>
       </c>
-      <c r="D99">
+      <c r="E99" t="str">
+        <f t="shared" si="214"/>
+        <v>32d8h5m</v>
+      </c>
+      <c r="F99">
         <v>57600</v>
       </c>
-      <c r="E99">
-        <f t="shared" si="17"/>
+      <c r="G99" t="str">
+        <f t="shared" ref="G99" si="311">IF(F99/60/60&gt;=1,INT(F99/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F99/60,60))&gt;0,INT(MOD(F99/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F99,60))&gt;0,INT(MOD(F99,60))&amp;"s","")</f>
+        <v>16h</v>
+      </c>
+      <c r="H99">
+        <v>10</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="211"/>
         <v>256.5</v>
       </c>
-      <c r="F99">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I99">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J99">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K99" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" ref="M99:O99" si="312">IF(L99/60/60&gt;=1,INT(L99/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L99/60,60))&gt;0,INT(MOD(L99/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L99,60))&gt;0,INT(MOD(L99,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="312"/>
+        <v>72h</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q99" t="str">
+        <f t="shared" ref="Q99" si="313">IF(P99/60/60&gt;=1,INT(P99/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P99/60,60))&gt;0,INT(MOD(P99/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P99,60))&gt;0,INT(MOD(P99,60))&amp;"s","")</f>
+        <v>4h</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
         <v>58200</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="str">
+        <f t="shared" si="234"/>
+        <v>16h10m</v>
+      </c>
+      <c r="D100">
         <v>2852100</v>
       </c>
-      <c r="D100">
+      <c r="E100" t="str">
+        <f t="shared" si="214"/>
+        <v>33d15m</v>
+      </c>
+      <c r="F100">
         <v>57600</v>
       </c>
-      <c r="E100">
-        <f t="shared" si="17"/>
+      <c r="G100" t="str">
+        <f t="shared" ref="G100" si="314">IF(F100/60/60&gt;=1,INT(F100/60/60)&amp;"h","")
+&amp;IF(INT(MOD(F100/60,60))&gt;0,INT(MOD(F100/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F100,60))&gt;0,INT(MOD(F100,60))&amp;"s","")</f>
+        <v>16h</v>
+      </c>
+      <c r="H100">
+        <v>10</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="211"/>
         <v>258.5</v>
       </c>
-      <c r="F100">
-        <f t="shared" si="12"/>
-        <v>259200</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="13"/>
-        <v>345600</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="14"/>
-        <v>604800</v>
-      </c>
-      <c r="I100">
-        <f t="shared" si="15"/>
-        <v>129600</v>
-      </c>
       <c r="J100">
-        <f t="shared" si="16"/>
+        <f t="shared" si="216"/>
         <v>172800</v>
+      </c>
+      <c r="K100" t="str">
+        <f t="shared" si="236"/>
+        <v>48h</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="205"/>
+        <v>259200</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" ref="M100:O100" si="315">IF(L100/60/60&gt;=1,INT(L100/60/60)&amp;"h","")
+&amp;IF(INT(MOD(L100/60,60))&gt;0,INT(MOD(L100/60,60))&amp;"m","")
+&amp;IF(INT(MOD(L100,60))&gt;0,INT(MOD(L100,60))&amp;"s","")</f>
+        <v>72h</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="207"/>
+        <v>259200</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="315"/>
+        <v>72h</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="208"/>
+        <v>14400</v>
+      </c>
+      <c r="Q100" t="str">
+        <f t="shared" ref="Q100" si="316">IF(P100/60/60&gt;=1,INT(P100/60/60)&amp;"h","")
+&amp;IF(INT(MOD(P100/60,60))&gt;0,INT(MOD(P100/60,60))&amp;"m","")
+&amp;IF(INT(MOD(P100,60))&gt;0,INT(MOD(P100,60))&amp;"s","")</f>
+        <v>4h</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Research.xlsx
+++ b/Excel/작업Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EDDB09-92BE-4DDB-80A2-6C1C46AD07F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73996E51-679B-40DF-8E79-B9FB5283B5FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -8071,7 +8071,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -8222,17 +8222,17 @@
         <v>62.5</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K6" si="1">INT(J2*24*60*60)</f>
-        <v>259200</v>
+        <v>86400</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L8" si="2">IF(K2/60/60&gt;=1,INT(K2/60/60)&amp;"h","")
 &amp;IF(INT(MOD(K2/60,60))&gt;0,INT(MOD(K2/60,60))&amp;"m","")
 &amp;IF(INT(MOD(K2,60))&gt;0,INT(MOD(K2,60))&amp;"s","")</f>
-        <v>72h</v>
+        <v>24h</v>
       </c>
       <c r="M2">
         <v>30</v>
@@ -8302,7 +8302,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(W1,COUNTA(W:W)-1,0),1)=",",SUBSTITUTE(OFFSET(W1,COUNTA(W:W)-1,0),",","",1),OFFSET(W1,COUNTA(W:W)-1,0))
 &amp;"}"</f>
-        <v>{"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15,"39":15,"40":15,"41":15,"42":15,"43":15,"44":15,"45":15,"46":15,"47":15,"48":15,"49":15,"50":300,"51":15,"52":15,"53":15,"54":15,"55":15,"56":15,"57":15,"58":15,"59":15,"60":15,"61":15,"62":15,"63":15,"64":15,"65":15,"66":15,"67":15,"68":15,"69":15,"70":15,"71":15,"72":15,"73":15,"74":15,"75":15,"76":15,"77":15,"78":15,"79":15,"80":15,"81":15,"82":15,"83":15,"84":15,"85":15,"86":15,"87":15,"88":15,"89":15,"90":15,"91":15,"92":15,"93":15,"94":15,"95":15,"96":15,"97":15,"98":15,"99":15}</v>
+        <v>{"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16,"39":17,"40":18,"41":19,"42":20,"43":21,"44":22,"45":24,"46":25,"47":26,"48":27,"49":28,"50":100,"51":28,"52":28,"53":28,"54":28,"55":28,"56":28,"57":28,"58":28,"59":28,"60":28,"61":28,"62":29,"63":29,"64":29,"65":29,"66":29,"67":29,"68":30,"69":30,"70":30,"71":30,"72":30,"73":30,"74":30,"75":30,"76":30,"77":30,"78":30,"79":30,"80":30,"81":30,"82":30,"83":30,"84":30,"85":30,"86":30,"87":30,"88":30,"89":30,"90":30,"91":30,"92":30,"93":30,"94":30,"95":30,"96":30,"97":30,"98":30,"99":30}</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
@@ -8347,16 +8347,16 @@
         <v>64.5</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J34" si="8">J2*0.996</f>
-        <v>2.988</v>
+        <f t="shared" ref="J3:J34" si="8">J2*0.993</f>
+        <v>0.99299999999999999</v>
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
-        <v>258163</v>
+        <v>85795</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="2"/>
-        <v>71h42m43s</v>
+        <v>23h49m55s</v>
       </c>
       <c r="M3">
         <v>30</v>
@@ -8466,15 +8466,15 @@
       </c>
       <c r="J4">
         <f t="shared" si="8"/>
-        <v>2.976048</v>
+        <v>0.98604899999999995</v>
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>257130</v>
+        <v>85194</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="2"/>
-        <v>71h25m30s</v>
+        <v>23h39m54s</v>
       </c>
       <c r="M4">
         <v>30</v>
@@ -8576,7 +8576,7 @@
         <v>1h</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <f t="shared" si="7"/>
@@ -8584,15 +8584,15 @@
       </c>
       <c r="J5">
         <f t="shared" si="8"/>
-        <v>2.9641438080000002</v>
+        <v>0.97914665699999992</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>256102</v>
+        <v>84598</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="2"/>
-        <v>71h8m22s</v>
+        <v>23h29m58s</v>
       </c>
       <c r="M5">
         <v>30</v>
@@ -8639,7 +8639,7 @@
       </c>
       <c r="W5" t="str">
         <f>W4&amp;","&amp;Z5</f>
-        <v>"1":0,"2":1,"3":1,"4":2</v>
+        <v>"1":0,"2":1,"3":1,"4":1</v>
       </c>
       <c r="X5" t="str">
         <f>X4&amp;","&amp;AA5</f>
@@ -8651,7 +8651,7 @@
       </c>
       <c r="Z5" t="str">
         <f>""""&amp;$A5&amp;""""&amp;""&amp;":"&amp;H5</f>
-        <v>"4":2</v>
+        <v>"4":1</v>
       </c>
       <c r="AA5" t="str">
         <f>""""&amp;$A5&amp;""""&amp;""&amp;":"&amp;M5</f>
@@ -8697,7 +8697,7 @@
         <v>2h</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <f t="shared" si="7"/>
@@ -8705,15 +8705,15 @@
       </c>
       <c r="J6">
         <f t="shared" si="8"/>
-        <v>2.9522872327680001</v>
+        <v>0.97229263040099989</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>255077</v>
+        <v>84006</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="2"/>
-        <v>70h51m17s</v>
+        <v>23h20m6s</v>
       </c>
       <c r="M6">
         <v>30</v>
@@ -8760,7 +8760,7 @@
       </c>
       <c r="W6" t="str">
         <f>W5&amp;","&amp;Z6</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1</v>
       </c>
       <c r="X6" t="str">
         <f>X5&amp;","&amp;AA6</f>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="Z6" t="str">
         <f>""""&amp;$A6&amp;""""&amp;""&amp;":"&amp;H6</f>
-        <v>"5":4</v>
+        <v>"5":1</v>
       </c>
       <c r="AA6" t="str">
         <f>""""&amp;$A6&amp;""""&amp;""&amp;":"&amp;M6</f>
@@ -8812,7 +8812,7 @@
         <v>3h</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <f t="shared" si="7"/>
@@ -8820,15 +8820,15 @@
       </c>
       <c r="J7">
         <f t="shared" si="8"/>
-        <v>2.9404780838369282</v>
+        <v>0.96548658198819293</v>
       </c>
       <c r="K7">
         <f t="shared" ref="K7:K70" si="29">INT(J7*24*60*60)</f>
-        <v>254057</v>
+        <v>83418</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="2"/>
-        <v>70h34m17s</v>
+        <v>23h10m18s</v>
       </c>
       <c r="M7">
         <v>30</v>
@@ -8875,7 +8875,7 @@
       </c>
       <c r="W7" t="str">
         <f>W6&amp;","&amp;Z7</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1</v>
       </c>
       <c r="X7" t="str">
         <f>X6&amp;","&amp;AA7</f>
@@ -8887,7 +8887,7 @@
       </c>
       <c r="Z7" t="str">
         <f>""""&amp;$A7&amp;""""&amp;""&amp;":"&amp;H7</f>
-        <v>"6":6</v>
+        <v>"6":1</v>
       </c>
       <c r="AA7" t="str">
         <f>""""&amp;$A7&amp;""""&amp;""&amp;":"&amp;M7</f>
@@ -8930,7 +8930,7 @@
         <v>4h</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f t="shared" si="7"/>
@@ -8938,15 +8938,15 @@
       </c>
       <c r="J8">
         <f t="shared" si="8"/>
-        <v>2.9287161715015806</v>
+        <v>0.95872817591427562</v>
       </c>
       <c r="K8">
         <f t="shared" si="29"/>
-        <v>253041</v>
+        <v>82834</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="2"/>
-        <v>70h17m21s</v>
+        <v>23h34s</v>
       </c>
       <c r="M8">
         <v>30</v>
@@ -8993,7 +8993,7 @@
       </c>
       <c r="W8" t="str">
         <f>W7&amp;","&amp;Z8</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1</v>
       </c>
       <c r="X8" t="str">
         <f>X7&amp;","&amp;AA8</f>
@@ -9005,7 +9005,7 @@
       </c>
       <c r="Z8" t="str">
         <f>""""&amp;$A8&amp;""""&amp;""&amp;":"&amp;H8</f>
-        <v>"7":8</v>
+        <v>"7":1</v>
       </c>
       <c r="AA8" t="str">
         <f>""""&amp;$A8&amp;""""&amp;""&amp;":"&amp;M8</f>
@@ -9051,7 +9051,7 @@
         <v>5h</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <f t="shared" si="7"/>
@@ -9059,17 +9059,17 @@
       </c>
       <c r="J9">
         <f t="shared" si="8"/>
-        <v>2.9170013068155742</v>
+        <v>0.95201707868287566</v>
       </c>
       <c r="K9">
         <f t="shared" si="29"/>
-        <v>252028</v>
+        <v>82254</v>
       </c>
       <c r="L9" t="str">
         <f>IF(K9/60/60&gt;=1,INT(K9/60/60)&amp;"h","")
 &amp;IF(INT(MOD(K9/60,60))&gt;0,INT(MOD(K9/60,60))&amp;"m","")
 &amp;IF(INT(MOD(K9,60))&gt;0,INT(MOD(K9,60))&amp;"s","")</f>
-        <v>70h28s</v>
+        <v>22h50m54s</v>
       </c>
       <c r="M9">
         <v>30</v>
@@ -9118,7 +9118,7 @@
       </c>
       <c r="W9" t="str">
         <f>W8&amp;","&amp;Z9</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1</v>
       </c>
       <c r="X9" t="str">
         <f>X8&amp;","&amp;AA9</f>
@@ -9130,7 +9130,7 @@
       </c>
       <c r="Z9" t="str">
         <f>""""&amp;$A9&amp;""""&amp;""&amp;":"&amp;H9</f>
-        <v>"8":10</v>
+        <v>"8":1</v>
       </c>
       <c r="AA9" t="str">
         <f>""""&amp;$A9&amp;""""&amp;""&amp;":"&amp;M9</f>
@@ -9170,7 +9170,7 @@
         <v>6h</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <f t="shared" si="7"/>
@@ -9178,17 +9178,17 @@
       </c>
       <c r="J10">
         <f t="shared" si="8"/>
-        <v>2.9053333015883118</v>
+        <v>0.94535295913209549</v>
       </c>
       <c r="K10">
         <f t="shared" si="29"/>
-        <v>251020</v>
+        <v>81678</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ref="L10:L73" si="36">IF(K10/60/60&gt;=1,INT(K10/60/60)&amp;"h","")
 &amp;IF(INT(MOD(K10/60,60))&gt;0,INT(MOD(K10/60,60))&amp;"m","")
 &amp;IF(INT(MOD(K10,60))&gt;0,INT(MOD(K10,60))&amp;"s","")</f>
-        <v>69h43m40s</v>
+        <v>22h41m18s</v>
       </c>
       <c r="M10">
         <v>30</v>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="W10" t="str">
         <f>W9&amp;","&amp;Z10</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1</v>
       </c>
       <c r="X10" t="str">
         <f>X9&amp;","&amp;AA10</f>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="Z10" t="str">
         <f>""""&amp;$A10&amp;""""&amp;""&amp;":"&amp;H10</f>
-        <v>"9":12</v>
+        <v>"9":1</v>
       </c>
       <c r="AA10" t="str">
         <f>""""&amp;$A10&amp;""""&amp;""&amp;":"&amp;M10</f>
@@ -9287,7 +9287,7 @@
         <v>8h</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <f t="shared" si="7"/>
@@ -9295,15 +9295,15 @@
       </c>
       <c r="J11">
         <f t="shared" si="8"/>
-        <v>2.8937119683819588</v>
+        <v>0.93873548841817078</v>
       </c>
       <c r="K11">
         <f t="shared" si="29"/>
-        <v>250016</v>
+        <v>81106</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="36"/>
-        <v>69h26m56s</v>
+        <v>22h31m46s</v>
       </c>
       <c r="M11">
         <v>30</v>
@@ -9350,7 +9350,7 @@
       </c>
       <c r="W11" t="str">
         <f>W10&amp;","&amp;Z11</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2</v>
       </c>
       <c r="X11" t="str">
         <f>X10&amp;","&amp;AA11</f>
@@ -9362,7 +9362,7 @@
       </c>
       <c r="Z11" t="str">
         <f>""""&amp;$A11&amp;""""&amp;""&amp;":"&amp;H11</f>
-        <v>"10":15</v>
+        <v>"10":2</v>
       </c>
       <c r="AA11" t="str">
         <f>""""&amp;$A11&amp;""""&amp;""&amp;":"&amp;M11</f>
@@ -9402,7 +9402,7 @@
         <v>8h</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <f t="shared" si="7"/>
@@ -9410,15 +9410,15 @@
       </c>
       <c r="J12">
         <f t="shared" si="8"/>
-        <v>2.882137120508431</v>
+        <v>0.93216433999924353</v>
       </c>
       <c r="K12">
         <f t="shared" si="29"/>
-        <v>249016</v>
+        <v>80538</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="36"/>
-        <v>69h10m16s</v>
+        <v>22h22m18s</v>
       </c>
       <c r="M12">
         <v>30</v>
@@ -9465,7 +9465,7 @@
       </c>
       <c r="W12" t="str">
         <f>W11&amp;","&amp;Z12</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2</v>
       </c>
       <c r="X12" t="str">
         <f>X11&amp;","&amp;AA12</f>
@@ -9477,7 +9477,7 @@
       </c>
       <c r="Z12" t="str">
         <f>""""&amp;$A12&amp;""""&amp;""&amp;":"&amp;H12</f>
-        <v>"11":15</v>
+        <v>"11":2</v>
       </c>
       <c r="AA12" t="str">
         <f>""""&amp;$A12&amp;""""&amp;""&amp;":"&amp;M12</f>
@@ -9518,7 +9518,7 @@
         <v>8h</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <f t="shared" si="7"/>
@@ -9526,15 +9526,15 @@
       </c>
       <c r="J13">
         <f t="shared" si="8"/>
-        <v>2.8706085720263972</v>
+        <v>0.92563918961924885</v>
       </c>
       <c r="K13">
         <f t="shared" si="29"/>
-        <v>248020</v>
+        <v>79975</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="36"/>
-        <v>68h53m40s</v>
+        <v>22h12m55s</v>
       </c>
       <c r="M13">
         <v>30</v>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="W13" t="str">
         <f>W12&amp;","&amp;Z13</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2</v>
       </c>
       <c r="X13" t="str">
         <f>X12&amp;","&amp;AA13</f>
@@ -9593,7 +9593,7 @@
       </c>
       <c r="Z13" t="str">
         <f>""""&amp;$A13&amp;""""&amp;""&amp;":"&amp;H13</f>
-        <v>"12":15</v>
+        <v>"12":2</v>
       </c>
       <c r="AA13" t="str">
         <f>""""&amp;$A13&amp;""""&amp;""&amp;":"&amp;M13</f>
@@ -9634,7 +9634,7 @@
         <v>8h</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <f t="shared" si="7"/>
@@ -9642,15 +9642,15 @@
       </c>
       <c r="J14">
         <f t="shared" si="8"/>
-        <v>2.8591261377382917</v>
+        <v>0.91915971529191409</v>
       </c>
       <c r="K14">
         <f t="shared" si="29"/>
-        <v>247028</v>
+        <v>79415</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="36"/>
-        <v>68h37m8s</v>
+        <v>22h3m35s</v>
       </c>
       <c r="M14">
         <v>30</v>
@@ -9697,7 +9697,7 @@
       </c>
       <c r="W14" t="str">
         <f>W13&amp;","&amp;Z14</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3</v>
       </c>
       <c r="X14" t="str">
         <f>X13&amp;","&amp;AA14</f>
@@ -9709,7 +9709,7 @@
       </c>
       <c r="Z14" t="str">
         <f>""""&amp;$A14&amp;""""&amp;""&amp;":"&amp;H14</f>
-        <v>"13":15</v>
+        <v>"13":3</v>
       </c>
       <c r="AA14" t="str">
         <f>""""&amp;$A14&amp;""""&amp;""&amp;":"&amp;M14</f>
@@ -9750,7 +9750,7 @@
         <v>8h</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <f t="shared" si="7"/>
@@ -9758,15 +9758,15 @@
       </c>
       <c r="J15">
         <f t="shared" si="8"/>
-        <v>2.8476896331873385</v>
+        <v>0.91272559728487068</v>
       </c>
       <c r="K15">
         <f t="shared" si="29"/>
-        <v>246040</v>
+        <v>78859</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="36"/>
-        <v>68h20m40s</v>
+        <v>21h54m19s</v>
       </c>
       <c r="M15">
         <v>30</v>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="W15" t="str">
         <f>W14&amp;","&amp;Z15</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3</v>
       </c>
       <c r="X15" t="str">
         <f>X14&amp;","&amp;AA15</f>
@@ -9825,7 +9825,7 @@
       </c>
       <c r="Z15" t="str">
         <f>""""&amp;$A15&amp;""""&amp;""&amp;":"&amp;H15</f>
-        <v>"14":15</v>
+        <v>"14":3</v>
       </c>
       <c r="AA15" t="str">
         <f>""""&amp;$A15&amp;""""&amp;""&amp;":"&amp;M15</f>
@@ -9866,7 +9866,7 @@
         <v>8h</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <f t="shared" si="7"/>
@@ -9874,15 +9874,15 @@
       </c>
       <c r="J16">
         <f t="shared" si="8"/>
-        <v>2.836298874654589</v>
+        <v>0.90633651810387661</v>
       </c>
       <c r="K16">
         <f t="shared" si="29"/>
-        <v>245056</v>
+        <v>78307</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="36"/>
-        <v>68h4m16s</v>
+        <v>21h45m7s</v>
       </c>
       <c r="M16">
         <v>30</v>
@@ -9929,7 +9929,7 @@
       </c>
       <c r="W16" t="str">
         <f>W15&amp;","&amp;Z16</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3</v>
       </c>
       <c r="X16" t="str">
         <f>X15&amp;","&amp;AA16</f>
@@ -9941,7 +9941,7 @@
       </c>
       <c r="Z16" t="str">
         <f>""""&amp;$A16&amp;""""&amp;""&amp;":"&amp;H16</f>
-        <v>"15":15</v>
+        <v>"15":3</v>
       </c>
       <c r="AA16" t="str">
         <f>""""&amp;$A16&amp;""""&amp;""&amp;":"&amp;M16</f>
@@ -9982,7 +9982,7 @@
         <v>8h</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <f t="shared" si="7"/>
@@ -9990,15 +9990,15 @@
       </c>
       <c r="J17">
         <f t="shared" si="8"/>
-        <v>2.8249536791559704</v>
+        <v>0.89999216247714942</v>
       </c>
       <c r="K17">
         <f t="shared" si="29"/>
-        <v>244075</v>
+        <v>77759</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="36"/>
-        <v>67h47m55s</v>
+        <v>21h35m59s</v>
       </c>
       <c r="M17">
         <v>30</v>
@@ -10045,7 +10045,7 @@
       </c>
       <c r="W17" t="str">
         <f>W16&amp;","&amp;Z17</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4</v>
       </c>
       <c r="X17" t="str">
         <f>X16&amp;","&amp;AA17</f>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="Z17" t="str">
         <f>""""&amp;$A17&amp;""""&amp;""&amp;":"&amp;H17</f>
-        <v>"16":15</v>
+        <v>"16":4</v>
       </c>
       <c r="AA17" t="str">
         <f>""""&amp;$A17&amp;""""&amp;""&amp;":"&amp;M17</f>
@@ -10098,7 +10098,7 @@
         <v>8h</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I18">
         <f t="shared" si="7"/>
@@ -10106,15 +10106,15 @@
       </c>
       <c r="J18">
         <f t="shared" si="8"/>
-        <v>2.8136538644393463</v>
+        <v>0.89369221733980941</v>
       </c>
       <c r="K18">
         <f t="shared" si="29"/>
-        <v>243099</v>
+        <v>77215</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="36"/>
-        <v>67h31m39s</v>
+        <v>21h26m55s</v>
       </c>
       <c r="M18">
         <v>30</v>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="W18" t="str">
         <f>W17&amp;","&amp;Z18</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4</v>
       </c>
       <c r="X18" t="str">
         <f>X17&amp;","&amp;AA18</f>
@@ -10173,7 +10173,7 @@
       </c>
       <c r="Z18" t="str">
         <f>""""&amp;$A18&amp;""""&amp;""&amp;":"&amp;H18</f>
-        <v>"17":15</v>
+        <v>"17":4</v>
       </c>
       <c r="AA18" t="str">
         <f>""""&amp;$A18&amp;""""&amp;""&amp;":"&amp;M18</f>
@@ -10214,7 +10214,7 @@
         <v>8h</v>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I19">
         <f t="shared" si="7"/>
@@ -10222,15 +10222,15 @@
       </c>
       <c r="J19">
         <f t="shared" si="8"/>
-        <v>2.802399248981589</v>
+        <v>0.88743637181843071</v>
       </c>
       <c r="K19">
         <f t="shared" si="29"/>
-        <v>242127</v>
+        <v>76674</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="36"/>
-        <v>67h15m27s</v>
+        <v>21h17m54s</v>
       </c>
       <c r="M19">
         <v>30</v>
@@ -10277,7 +10277,7 @@
       </c>
       <c r="W19" t="str">
         <f>W18&amp;","&amp;Z19</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4</v>
       </c>
       <c r="X19" t="str">
         <f>X18&amp;","&amp;AA19</f>
@@ -10289,7 +10289,7 @@
       </c>
       <c r="Z19" t="str">
         <f>""""&amp;$A19&amp;""""&amp;""&amp;":"&amp;H19</f>
-        <v>"18":15</v>
+        <v>"18":4</v>
       </c>
       <c r="AA19" t="str">
         <f>""""&amp;$A19&amp;""""&amp;""&amp;":"&amp;M19</f>
@@ -10330,7 +10330,7 @@
         <v>8h</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I20">
         <f t="shared" si="7"/>
@@ -10338,15 +10338,15 @@
       </c>
       <c r="J20">
         <f t="shared" si="8"/>
-        <v>2.7911896519856625</v>
+        <v>0.88122431721570171</v>
       </c>
       <c r="K20">
         <f t="shared" si="29"/>
-        <v>241158</v>
+        <v>76137</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="36"/>
-        <v>66h59m18s</v>
+        <v>21h8m57s</v>
       </c>
       <c r="M20">
         <v>30</v>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="W20" t="str">
         <f>W19&amp;","&amp;Z20</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5</v>
       </c>
       <c r="X20" t="str">
         <f>X19&amp;","&amp;AA20</f>
@@ -10405,7 +10405,7 @@
       </c>
       <c r="Z20" t="str">
         <f>""""&amp;$A20&amp;""""&amp;""&amp;":"&amp;H20</f>
-        <v>"19":15</v>
+        <v>"19":5</v>
       </c>
       <c r="AA20" t="str">
         <f>""""&amp;$A20&amp;""""&amp;""&amp;":"&amp;M20</f>
@@ -10446,7 +10446,7 @@
         <v>10h</v>
       </c>
       <c r="H21">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I21">
         <f t="shared" si="7"/>
@@ -10454,15 +10454,15 @@
       </c>
       <c r="J21">
         <f t="shared" si="8"/>
-        <v>2.7800248933777199</v>
+        <v>0.87505574699519184</v>
       </c>
       <c r="K21">
         <f t="shared" si="29"/>
-        <v>240194</v>
+        <v>75604</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="36"/>
-        <v>66h43m14s</v>
+        <v>21h4s</v>
       </c>
       <c r="M21">
         <v>30</v>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="W21" t="str">
         <f>W20&amp;","&amp;Z21</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5</v>
       </c>
       <c r="X21" t="str">
         <f>X20&amp;","&amp;AA21</f>
@@ -10521,7 +10521,7 @@
       </c>
       <c r="Z21" t="str">
         <f>""""&amp;$A21&amp;""""&amp;""&amp;":"&amp;H21</f>
-        <v>"20":15</v>
+        <v>"20":5</v>
       </c>
       <c r="AA21" t="str">
         <f>""""&amp;$A21&amp;""""&amp;""&amp;":"&amp;M21</f>
@@ -10562,7 +10562,7 @@
         <v>10h</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
@@ -10570,15 +10570,15 @@
       </c>
       <c r="J22">
         <f t="shared" si="8"/>
-        <v>2.7689047938042091</v>
+        <v>0.86893035676622554</v>
       </c>
       <c r="K22">
         <f t="shared" si="29"/>
-        <v>239233</v>
+        <v>75075</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="36"/>
-        <v>66h27m13s</v>
+        <v>20h51m15s</v>
       </c>
       <c r="M22">
         <v>30</v>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="W22" t="str">
         <f>W21&amp;","&amp;Z22</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6</v>
       </c>
       <c r="X22" t="str">
         <f>X21&amp;","&amp;AA22</f>
@@ -10637,7 +10637,7 @@
       </c>
       <c r="Z22" t="str">
         <f>""""&amp;$A22&amp;""""&amp;""&amp;":"&amp;H22</f>
-        <v>"21":15</v>
+        <v>"21":6</v>
       </c>
       <c r="AA22" t="str">
         <f>""""&amp;$A22&amp;""""&amp;""&amp;":"&amp;M22</f>
@@ -10678,7 +10678,7 @@
         <v>10h</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
@@ -10686,15 +10686,15 @@
       </c>
       <c r="J23">
         <f t="shared" si="8"/>
-        <v>2.7578291746289922</v>
+        <v>0.86284784426886196</v>
       </c>
       <c r="K23">
         <f t="shared" si="29"/>
-        <v>238276</v>
+        <v>74550</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="36"/>
-        <v>66h11m16s</v>
+        <v>20h42m30s</v>
       </c>
       <c r="M23">
         <v>30</v>
@@ -10741,7 +10741,7 @@
       </c>
       <c r="W23" t="str">
         <f>W22&amp;","&amp;Z23</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6</v>
       </c>
       <c r="X23" t="str">
         <f>X22&amp;","&amp;AA23</f>
@@ -10753,7 +10753,7 @@
       </c>
       <c r="Z23" t="str">
         <f>""""&amp;$A23&amp;""""&amp;""&amp;":"&amp;H23</f>
-        <v>"22":15</v>
+        <v>"22":6</v>
       </c>
       <c r="AA23" t="str">
         <f>""""&amp;$A23&amp;""""&amp;""&amp;":"&amp;M23</f>
@@ -10794,7 +10794,7 @@
         <v>10h</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I24">
         <f t="shared" si="7"/>
@@ -10802,15 +10802,15 @@
       </c>
       <c r="J24">
         <f t="shared" si="8"/>
-        <v>2.7467978579304764</v>
+        <v>0.85680790935897988</v>
       </c>
       <c r="K24">
         <f t="shared" si="29"/>
-        <v>237323</v>
+        <v>74028</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" si="36"/>
-        <v>65h55m23s</v>
+        <v>20h33m48s</v>
       </c>
       <c r="M24">
         <v>30</v>
@@ -10857,7 +10857,7 @@
       </c>
       <c r="W24" t="str">
         <f>W23&amp;","&amp;Z24</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7</v>
       </c>
       <c r="X24" t="str">
         <f>X23&amp;","&amp;AA24</f>
@@ -10869,7 +10869,7 @@
       </c>
       <c r="Z24" t="str">
         <f>""""&amp;$A24&amp;""""&amp;""&amp;":"&amp;H24</f>
-        <v>"23":15</v>
+        <v>"23":7</v>
       </c>
       <c r="AA24" t="str">
         <f>""""&amp;$A24&amp;""""&amp;""&amp;":"&amp;M24</f>
@@ -10910,7 +10910,7 @@
         <v>10h</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I25">
         <f t="shared" si="7"/>
@@ -10918,15 +10918,15 @@
       </c>
       <c r="J25">
         <f t="shared" si="8"/>
-        <v>2.7358106664987543</v>
+        <v>0.85081025399346699</v>
       </c>
       <c r="K25">
         <f t="shared" si="29"/>
-        <v>236374</v>
+        <v>73510</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="36"/>
-        <v>65h39m34s</v>
+        <v>20h25m10s</v>
       </c>
       <c r="M25">
         <v>30</v>
@@ -10973,7 +10973,7 @@
       </c>
       <c r="W25" t="str">
         <f>W24&amp;","&amp;Z25</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7</v>
       </c>
       <c r="X25" t="str">
         <f>X24&amp;","&amp;AA25</f>
@@ -10985,7 +10985,7 @@
       </c>
       <c r="Z25" t="str">
         <f>""""&amp;$A25&amp;""""&amp;""&amp;":"&amp;H25</f>
-        <v>"24":15</v>
+        <v>"24":7</v>
       </c>
       <c r="AA25" t="str">
         <f>""""&amp;$A25&amp;""""&amp;""&amp;":"&amp;M25</f>
@@ -11026,7 +11026,7 @@
         <v>10h</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I26">
         <f t="shared" si="7"/>
@@ -11034,15 +11034,15 @@
       </c>
       <c r="J26">
         <f t="shared" si="8"/>
-        <v>2.7248674238327593</v>
+        <v>0.84485458221551268</v>
       </c>
       <c r="K26">
         <f t="shared" si="29"/>
-        <v>235428</v>
+        <v>72995</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="36"/>
-        <v>65h23m48s</v>
+        <v>20h16m35s</v>
       </c>
       <c r="M26">
         <v>30</v>
@@ -11089,7 +11089,7 @@
       </c>
       <c r="W26" t="str">
         <f>W25&amp;","&amp;Z26</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8</v>
       </c>
       <c r="X26" t="str">
         <f>X25&amp;","&amp;AA26</f>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="Z26" t="str">
         <f>""""&amp;$A26&amp;""""&amp;""&amp;":"&amp;H26</f>
-        <v>"25":15</v>
+        <v>"25":8</v>
       </c>
       <c r="AA26" t="str">
         <f>""""&amp;$A26&amp;""""&amp;""&amp;":"&amp;M26</f>
@@ -11142,7 +11142,7 @@
         <v>10h</v>
       </c>
       <c r="H27">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I27">
         <f t="shared" si="7"/>
@@ -11150,15 +11150,15 @@
       </c>
       <c r="J27">
         <f t="shared" si="8"/>
-        <v>2.7139679541374284</v>
+        <v>0.83894060014000404</v>
       </c>
       <c r="K27">
         <f t="shared" si="29"/>
-        <v>234486</v>
+        <v>72484</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="36"/>
-        <v>65h8m6s</v>
+        <v>20h8m4s</v>
       </c>
       <c r="M27">
         <v>30</v>
@@ -11205,7 +11205,7 @@
       </c>
       <c r="W27" t="str">
         <f>W26&amp;","&amp;Z27</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8</v>
       </c>
       <c r="X27" t="str">
         <f>X26&amp;","&amp;AA27</f>
@@ -11217,7 +11217,7 @@
       </c>
       <c r="Z27" t="str">
         <f>""""&amp;$A27&amp;""""&amp;""&amp;":"&amp;H27</f>
-        <v>"26":15</v>
+        <v>"26":8</v>
       </c>
       <c r="AA27" t="str">
         <f>""""&amp;$A27&amp;""""&amp;""&amp;":"&amp;M27</f>
@@ -11258,7 +11258,7 @@
         <v>10h</v>
       </c>
       <c r="H28">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I28">
         <f t="shared" si="7"/>
@@ -11266,15 +11266,15 @@
       </c>
       <c r="J28">
         <f t="shared" si="8"/>
-        <v>2.7031120823208785</v>
+        <v>0.83306801593902402</v>
       </c>
       <c r="K28">
         <f t="shared" si="29"/>
-        <v>233548</v>
+        <v>71977</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="36"/>
-        <v>64h52m28s</v>
+        <v>19h59m37s</v>
       </c>
       <c r="M28">
         <v>30</v>
@@ -11321,7 +11321,7 @@
       </c>
       <c r="W28" t="str">
         <f>W27&amp;","&amp;Z28</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9</v>
       </c>
       <c r="X28" t="str">
         <f>X27&amp;","&amp;AA28</f>
@@ -11333,7 +11333,7 @@
       </c>
       <c r="Z28" t="str">
         <f>""""&amp;$A28&amp;""""&amp;""&amp;":"&amp;H28</f>
-        <v>"27":15</v>
+        <v>"27":9</v>
       </c>
       <c r="AA28" t="str">
         <f>""""&amp;$A28&amp;""""&amp;""&amp;":"&amp;M28</f>
@@ -11374,7 +11374,7 @@
         <v>10h</v>
       </c>
       <c r="H29">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I29">
         <f t="shared" si="7"/>
@@ -11382,15 +11382,15 @@
       </c>
       <c r="J29">
         <f t="shared" si="8"/>
-        <v>2.692299633991595</v>
+        <v>0.82723653982745082</v>
       </c>
       <c r="K29">
         <f t="shared" si="29"/>
-        <v>232614</v>
+        <v>71473</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" si="36"/>
-        <v>64h36m54s</v>
+        <v>19h51m13s</v>
       </c>
       <c r="M29">
         <v>30</v>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="W29" t="str">
         <f>W28&amp;","&amp;Z29</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9</v>
       </c>
       <c r="X29" t="str">
         <f>X28&amp;","&amp;AA29</f>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="Z29" t="str">
         <f>""""&amp;$A29&amp;""""&amp;""&amp;":"&amp;H29</f>
-        <v>"28":15</v>
+        <v>"28":9</v>
       </c>
       <c r="AA29" t="str">
         <f>""""&amp;$A29&amp;""""&amp;""&amp;":"&amp;M29</f>
@@ -11490,7 +11490,7 @@
         <v>10h</v>
       </c>
       <c r="H30">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I30">
         <f t="shared" si="7"/>
@@ -11498,15 +11498,15 @@
       </c>
       <c r="J30">
         <f t="shared" si="8"/>
-        <v>2.6815304354556284</v>
+        <v>0.8214458840486587</v>
       </c>
       <c r="K30">
         <f t="shared" si="29"/>
-        <v>231684</v>
+        <v>70972</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" si="36"/>
-        <v>64h21m24s</v>
+        <v>19h42m52s</v>
       </c>
       <c r="M30">
         <v>30</v>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="W30" t="str">
         <f>W29&amp;","&amp;Z30</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10</v>
       </c>
       <c r="X30" t="str">
         <f>X29&amp;","&amp;AA30</f>
@@ -11565,7 +11565,7 @@
       </c>
       <c r="Z30" t="str">
         <f>""""&amp;$A30&amp;""""&amp;""&amp;":"&amp;H30</f>
-        <v>"29":15</v>
+        <v>"29":10</v>
       </c>
       <c r="AA30" t="str">
         <f>""""&amp;$A30&amp;""""&amp;""&amp;":"&amp;M30</f>
@@ -11606,7 +11606,7 @@
         <v>12h</v>
       </c>
       <c r="H31">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I31">
         <f t="shared" si="7"/>
@@ -11614,15 +11614,15 @@
       </c>
       <c r="J31">
         <f t="shared" si="8"/>
-        <v>2.670804313713806</v>
+        <v>0.81569576286031809</v>
       </c>
       <c r="K31">
         <f t="shared" si="29"/>
-        <v>230757</v>
+        <v>70476</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="36"/>
-        <v>64h5m57s</v>
+        <v>19h34m36s</v>
       </c>
       <c r="M31">
         <v>30</v>
@@ -11669,7 +11669,7 @@
       </c>
       <c r="W31" t="str">
         <f>W30&amp;","&amp;Z31</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10</v>
       </c>
       <c r="X31" t="str">
         <f>X30&amp;","&amp;AA31</f>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="Z31" t="str">
         <f>""""&amp;$A31&amp;""""&amp;""&amp;":"&amp;H31</f>
-        <v>"30":15</v>
+        <v>"30":10</v>
       </c>
       <c r="AA31" t="str">
         <f>""""&amp;$A31&amp;""""&amp;""&amp;":"&amp;M31</f>
@@ -11722,7 +11722,7 @@
         <v>12h</v>
       </c>
       <c r="H32">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I32">
         <f t="shared" si="7"/>
@@ -11730,15 +11730,15 @@
       </c>
       <c r="J32">
         <f t="shared" si="8"/>
-        <v>2.6601210964589508</v>
+        <v>0.80998589252029585</v>
       </c>
       <c r="K32">
         <f t="shared" si="29"/>
-        <v>229834</v>
+        <v>69982</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="36"/>
-        <v>63h50m34s</v>
+        <v>19h26m22s</v>
       </c>
       <c r="M32">
         <v>30</v>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="W32" t="str">
         <f>W31&amp;","&amp;Z32</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11</v>
       </c>
       <c r="X32" t="str">
         <f>X31&amp;","&amp;AA32</f>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="Z32" t="str">
         <f>""""&amp;$A32&amp;""""&amp;""&amp;":"&amp;H32</f>
-        <v>"31":15</v>
+        <v>"31":11</v>
       </c>
       <c r="AA32" t="str">
         <f>""""&amp;$A32&amp;""""&amp;""&amp;":"&amp;M32</f>
@@ -11838,7 +11838,7 @@
         <v>12h</v>
       </c>
       <c r="H33">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I33">
         <f t="shared" si="7"/>
@@ -11846,15 +11846,15 @@
       </c>
       <c r="J33">
         <f t="shared" si="8"/>
-        <v>2.6494806120731149</v>
+        <v>0.80431599127265374</v>
       </c>
       <c r="K33">
         <f t="shared" si="29"/>
-        <v>228915</v>
+        <v>69492</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="36"/>
-        <v>63h35m15s</v>
+        <v>19h18m12s</v>
       </c>
       <c r="M33">
         <v>30</v>
@@ -11901,7 +11901,7 @@
       </c>
       <c r="W33" t="str">
         <f>W32&amp;","&amp;Z33</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12</v>
       </c>
       <c r="X33" t="str">
         <f>X32&amp;","&amp;AA33</f>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="Z33" t="str">
         <f>""""&amp;$A33&amp;""""&amp;""&amp;":"&amp;H33</f>
-        <v>"32":15</v>
+        <v>"32":12</v>
       </c>
       <c r="AA33" t="str">
         <f>""""&amp;$A33&amp;""""&amp;""&amp;":"&amp;M33</f>
@@ -11954,7 +11954,7 @@
         <v>12h</v>
       </c>
       <c r="H34">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I34">
         <f t="shared" si="7"/>
@@ -11962,15 +11962,15 @@
       </c>
       <c r="J34">
         <f t="shared" si="8"/>
-        <v>2.6388826896248223</v>
+        <v>0.79868577933374518</v>
       </c>
       <c r="K34">
         <f t="shared" si="29"/>
-        <v>227999</v>
+        <v>69006</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" si="36"/>
-        <v>63h19m59s</v>
+        <v>19h10m6s</v>
       </c>
       <c r="M34">
         <v>30</v>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="W34" t="str">
         <f>W33&amp;","&amp;Z34</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13</v>
       </c>
       <c r="X34" t="str">
         <f>X33&amp;","&amp;AA34</f>
@@ -12029,7 +12029,7 @@
       </c>
       <c r="Z34" t="str">
         <f>""""&amp;$A34&amp;""""&amp;""&amp;":"&amp;H34</f>
-        <v>"33":15</v>
+        <v>"33":13</v>
       </c>
       <c r="AA34" t="str">
         <f>""""&amp;$A34&amp;""""&amp;""&amp;":"&amp;M34</f>
@@ -12070,23 +12070,23 @@
         <v>12h</v>
       </c>
       <c r="H35">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I35">
         <f t="shared" ref="I35:I66" si="115">I34+2</f>
         <v>128.5</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35:J66" si="116">J34*0.996</f>
-        <v>2.6283271588663228</v>
+        <f t="shared" ref="J35:J66" si="116">J34*0.993</f>
+        <v>0.79309497887840896</v>
       </c>
       <c r="K35">
         <f t="shared" si="29"/>
-        <v>227087</v>
+        <v>68523</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" si="36"/>
-        <v>63h4m47s</v>
+        <v>19h2m3s</v>
       </c>
       <c r="M35">
         <v>30</v>
@@ -12133,7 +12133,7 @@
       </c>
       <c r="W35" t="str">
         <f>W34&amp;","&amp;Z35</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13</v>
       </c>
       <c r="X35" t="str">
         <f>X34&amp;","&amp;AA35</f>
@@ -12145,7 +12145,7 @@
       </c>
       <c r="Z35" t="str">
         <f>""""&amp;$A35&amp;""""&amp;""&amp;":"&amp;H35</f>
-        <v>"34":15</v>
+        <v>"34":13</v>
       </c>
       <c r="AA35" t="str">
         <f>""""&amp;$A35&amp;""""&amp;""&amp;":"&amp;M35</f>
@@ -12186,7 +12186,7 @@
         <v>12h</v>
       </c>
       <c r="H36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I36">
         <f t="shared" si="115"/>
@@ -12194,15 +12194,15 @@
       </c>
       <c r="J36">
         <f t="shared" si="116"/>
-        <v>2.6178138502308577</v>
+        <v>0.7875433140262601</v>
       </c>
       <c r="K36">
         <f t="shared" si="29"/>
-        <v>226179</v>
+        <v>68043</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="36"/>
-        <v>62h49m39s</v>
+        <v>18h54m3s</v>
       </c>
       <c r="M36">
         <v>30</v>
@@ -12249,7 +12249,7 @@
       </c>
       <c r="W36" t="str">
         <f>W35&amp;","&amp;Z36</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14</v>
       </c>
       <c r="X36" t="str">
         <f>X35&amp;","&amp;AA36</f>
@@ -12261,7 +12261,7 @@
       </c>
       <c r="Z36" t="str">
         <f>""""&amp;$A36&amp;""""&amp;""&amp;":"&amp;H36</f>
-        <v>"35":15</v>
+        <v>"35":14</v>
       </c>
       <c r="AA36" t="str">
         <f>""""&amp;$A36&amp;""""&amp;""&amp;":"&amp;M36</f>
@@ -12310,15 +12310,15 @@
       </c>
       <c r="J37">
         <f t="shared" si="116"/>
-        <v>2.6073425948299342</v>
+        <v>0.78203051082807629</v>
       </c>
       <c r="K37">
         <f t="shared" si="29"/>
-        <v>225274</v>
+        <v>67567</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="36"/>
-        <v>62h34m34s</v>
+        <v>18h46m7s</v>
       </c>
       <c r="M37">
         <v>30</v>
@@ -12365,7 +12365,7 @@
       </c>
       <c r="W37" t="str">
         <f>W36&amp;","&amp;Z37</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15</v>
       </c>
       <c r="X37" t="str">
         <f>X36&amp;","&amp;AA37</f>
@@ -12426,15 +12426,15 @@
       </c>
       <c r="J38">
         <f t="shared" si="116"/>
-        <v>2.5969132244506143</v>
+        <v>0.7765562972522797</v>
       </c>
       <c r="K38">
         <f t="shared" si="29"/>
-        <v>224373</v>
+        <v>67094</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" si="36"/>
-        <v>62h19m33s</v>
+        <v>18h38m14s</v>
       </c>
       <c r="M38">
         <v>30</v>
@@ -12481,7 +12481,7 @@
       </c>
       <c r="W38" t="str">
         <f>W37&amp;","&amp;Z38</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15</v>
       </c>
       <c r="X38" t="str">
         <f>X37&amp;","&amp;AA38</f>
@@ -12534,7 +12534,7 @@
         <v>12h</v>
       </c>
       <c r="H39">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I39">
         <f t="shared" si="115"/>
@@ -12542,15 +12542,15 @@
       </c>
       <c r="J39">
         <f t="shared" si="116"/>
-        <v>2.5865255715528117</v>
+        <v>0.77112040317151376</v>
       </c>
       <c r="K39">
         <f t="shared" si="29"/>
-        <v>223475</v>
+        <v>66624</v>
       </c>
       <c r="L39" t="str">
         <f t="shared" si="36"/>
-        <v>62h4m35s</v>
+        <v>18h30m24s</v>
       </c>
       <c r="M39">
         <v>30</v>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="W39" t="str">
         <f>W38&amp;","&amp;Z39</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16</v>
       </c>
       <c r="X39" t="str">
         <f>X38&amp;","&amp;AA39</f>
@@ -12609,7 +12609,7 @@
       </c>
       <c r="Z39" t="str">
         <f>""""&amp;$A39&amp;""""&amp;""&amp;":"&amp;H39</f>
-        <v>"38":15</v>
+        <v>"38":16</v>
       </c>
       <c r="AA39" t="str">
         <f>""""&amp;$A39&amp;""""&amp;""&amp;":"&amp;M39</f>
@@ -12650,7 +12650,7 @@
         <v>12h</v>
       </c>
       <c r="H40">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I40">
         <f t="shared" si="115"/>
@@ -12658,15 +12658,15 @@
       </c>
       <c r="J40">
         <f t="shared" si="116"/>
-        <v>2.5761794692666005</v>
+        <v>0.76572256034931319</v>
       </c>
       <c r="K40">
         <f t="shared" si="29"/>
-        <v>222581</v>
+        <v>66158</v>
       </c>
       <c r="L40" t="str">
         <f t="shared" si="36"/>
-        <v>61h49m41s</v>
+        <v>18h22m38s</v>
       </c>
       <c r="M40">
         <v>30</v>
@@ -12713,7 +12713,7 @@
       </c>
       <c r="W40" t="str">
         <f>W39&amp;","&amp;Z40</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15,"39":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16,"39":17</v>
       </c>
       <c r="X40" t="str">
         <f>X39&amp;","&amp;AA40</f>
@@ -12725,7 +12725,7 @@
       </c>
       <c r="Z40" t="str">
         <f>""""&amp;$A40&amp;""""&amp;""&amp;":"&amp;H40</f>
-        <v>"39":15</v>
+        <v>"39":17</v>
       </c>
       <c r="AA40" t="str">
         <f>""""&amp;$A40&amp;""""&amp;""&amp;":"&amp;M40</f>
@@ -12766,7 +12766,7 @@
         <v>16h</v>
       </c>
       <c r="H41">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I41">
         <f t="shared" si="115"/>
@@ -12774,15 +12774,15 @@
       </c>
       <c r="J41">
         <f t="shared" si="116"/>
-        <v>2.5658747513895341</v>
+        <v>0.76036250242686798</v>
       </c>
       <c r="K41">
         <f t="shared" si="29"/>
-        <v>221691</v>
+        <v>65695</v>
       </c>
       <c r="L41" t="str">
         <f t="shared" si="36"/>
-        <v>61h34m51s</v>
+        <v>18h14m55s</v>
       </c>
       <c r="M41">
         <v>30</v>
@@ -12829,7 +12829,7 @@
       </c>
       <c r="W41" t="str">
         <f>W40&amp;","&amp;Z41</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15,"39":15,"40":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16,"39":17,"40":18</v>
       </c>
       <c r="X41" t="str">
         <f>X40&amp;","&amp;AA41</f>
@@ -12841,7 +12841,7 @@
       </c>
       <c r="Z41" t="str">
         <f>""""&amp;$A41&amp;""""&amp;""&amp;":"&amp;H41</f>
-        <v>"40":15</v>
+        <v>"40":18</v>
       </c>
       <c r="AA41" t="str">
         <f>""""&amp;$A41&amp;""""&amp;""&amp;":"&amp;M41</f>
@@ -12882,7 +12882,7 @@
         <v>16h</v>
       </c>
       <c r="H42">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I42">
         <f t="shared" si="115"/>
@@ -12890,15 +12890,15 @@
       </c>
       <c r="J42">
         <f t="shared" si="116"/>
-        <v>2.5556112523839758</v>
+        <v>0.7550399649098799</v>
       </c>
       <c r="K42">
         <f t="shared" si="29"/>
-        <v>220804</v>
+        <v>65235</v>
       </c>
       <c r="L42" t="str">
         <f t="shared" si="36"/>
-        <v>61h20m4s</v>
+        <v>18h7m15s</v>
       </c>
       <c r="M42">
         <v>30</v>
@@ -12945,7 +12945,7 @@
       </c>
       <c r="W42" t="str">
         <f>W41&amp;","&amp;Z42</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15,"39":15,"40":15,"41":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16,"39":17,"40":18,"41":19</v>
       </c>
       <c r="X42" t="str">
         <f>X41&amp;","&amp;AA42</f>
@@ -12957,7 +12957,7 @@
       </c>
       <c r="Z42" t="str">
         <f>""""&amp;$A42&amp;""""&amp;""&amp;":"&amp;H42</f>
-        <v>"41":15</v>
+        <v>"41":19</v>
       </c>
       <c r="AA42" t="str">
         <f>""""&amp;$A42&amp;""""&amp;""&amp;":"&amp;M42</f>
@@ -12998,7 +12998,7 @@
         <v>16h</v>
       </c>
       <c r="H43">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I43">
         <f t="shared" si="115"/>
@@ -13006,15 +13006,15 @@
       </c>
       <c r="J43">
         <f t="shared" si="116"/>
-        <v>2.5453888073744397</v>
+        <v>0.74975468515551069</v>
       </c>
       <c r="K43">
         <f t="shared" si="29"/>
-        <v>219921</v>
+        <v>64778</v>
       </c>
       <c r="L43" t="str">
         <f t="shared" si="36"/>
-        <v>61h5m21s</v>
+        <v>17h59m38s</v>
       </c>
       <c r="M43">
         <v>30</v>
@@ -13061,7 +13061,7 @@
       </c>
       <c r="W43" t="str">
         <f>W42&amp;","&amp;Z43</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15,"39":15,"40":15,"41":15,"42":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16,"39":17,"40":18,"41":19,"42":20</v>
       </c>
       <c r="X43" t="str">
         <f>X42&amp;","&amp;AA43</f>
@@ -13073,7 +13073,7 @@
       </c>
       <c r="Z43" t="str">
         <f>""""&amp;$A43&amp;""""&amp;""&amp;":"&amp;H43</f>
-        <v>"42":15</v>
+        <v>"42":20</v>
       </c>
       <c r="AA43" t="str">
         <f>""""&amp;$A43&amp;""""&amp;""&amp;":"&amp;M43</f>
@@ -13114,7 +13114,7 @@
         <v>16h</v>
       </c>
       <c r="H44">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I44">
         <f t="shared" si="115"/>
@@ -13122,15 +13122,15 @@
       </c>
       <c r="J44">
         <f t="shared" si="116"/>
-        <v>2.535207252144942</v>
+        <v>0.74450640235942211</v>
       </c>
       <c r="K44">
         <f t="shared" si="29"/>
-        <v>219041</v>
+        <v>64325</v>
       </c>
       <c r="L44" t="str">
         <f t="shared" si="36"/>
-        <v>60h50m41s</v>
+        <v>17h52m5s</v>
       </c>
       <c r="M44">
         <v>30</v>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="W44" t="str">
         <f>W43&amp;","&amp;Z44</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15,"39":15,"40":15,"41":15,"42":15,"43":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16,"39":17,"40":18,"41":19,"42":20,"43":21</v>
       </c>
       <c r="X44" t="str">
         <f>X43&amp;","&amp;AA44</f>
@@ -13189,7 +13189,7 @@
       </c>
       <c r="Z44" t="str">
         <f>""""&amp;$A44&amp;""""&amp;""&amp;":"&amp;H44</f>
-        <v>"43":15</v>
+        <v>"43":21</v>
       </c>
       <c r="AA44" t="str">
         <f>""""&amp;$A44&amp;""""&amp;""&amp;":"&amp;M44</f>
@@ -13230,7 +13230,7 @@
         <v>16h</v>
       </c>
       <c r="H45">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I45">
         <f t="shared" si="115"/>
@@ -13238,15 +13238,15 @@
       </c>
       <c r="J45">
         <f t="shared" si="116"/>
-        <v>2.5250664231363622</v>
+        <v>0.73929485754290614</v>
       </c>
       <c r="K45">
         <f t="shared" si="29"/>
-        <v>218165</v>
+        <v>63875</v>
       </c>
       <c r="L45" t="str">
         <f t="shared" si="36"/>
-        <v>60h36m5s</v>
+        <v>17h44m35s</v>
       </c>
       <c r="M45">
         <v>30</v>
@@ -13293,7 +13293,7 @@
       </c>
       <c r="W45" t="str">
         <f>W44&amp;","&amp;Z45</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15,"39":15,"40":15,"41":15,"42":15,"43":15,"44":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16,"39":17,"40":18,"41":19,"42":20,"43":21,"44":22</v>
       </c>
       <c r="X45" t="str">
         <f>X44&amp;","&amp;AA45</f>
@@ -13305,7 +13305,7 @@
       </c>
       <c r="Z45" t="str">
         <f>""""&amp;$A45&amp;""""&amp;""&amp;":"&amp;H45</f>
-        <v>"44":15</v>
+        <v>"44":22</v>
       </c>
       <c r="AA45" t="str">
         <f>""""&amp;$A45&amp;""""&amp;""&amp;":"&amp;M45</f>
@@ -13346,7 +13346,7 @@
         <v>16h</v>
       </c>
       <c r="H46">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I46">
         <f t="shared" si="115"/>
@@ -13354,15 +13354,15 @@
       </c>
       <c r="J46">
         <f t="shared" si="116"/>
-        <v>2.5149661574438169</v>
+        <v>0.73411979354010581</v>
       </c>
       <c r="K46">
         <f t="shared" si="29"/>
-        <v>217293</v>
+        <v>63427</v>
       </c>
       <c r="L46" t="str">
         <f t="shared" si="36"/>
-        <v>60h21m33s</v>
+        <v>17h37m7s</v>
       </c>
       <c r="M46">
         <v>30</v>
@@ -13409,7 +13409,7 @@
       </c>
       <c r="W46" t="str">
         <f>W45&amp;","&amp;Z46</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15,"39":15,"40":15,"41":15,"42":15,"43":15,"44":15,"45":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16,"39":17,"40":18,"41":19,"42":20,"43":21,"44":22,"45":24</v>
       </c>
       <c r="X46" t="str">
         <f>X45&amp;","&amp;AA46</f>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="Z46" t="str">
         <f>""""&amp;$A46&amp;""""&amp;""&amp;":"&amp;H46</f>
-        <v>"45":15</v>
+        <v>"45":24</v>
       </c>
       <c r="AA46" t="str">
         <f>""""&amp;$A46&amp;""""&amp;""&amp;":"&amp;M46</f>
@@ -13462,7 +13462,7 @@
         <v>16h</v>
       </c>
       <c r="H47">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I47">
         <f t="shared" si="115"/>
@@ -13470,15 +13470,15 @@
       </c>
       <c r="J47">
         <f t="shared" si="116"/>
-        <v>2.5049062928140415</v>
+        <v>0.72898095498532511</v>
       </c>
       <c r="K47">
         <f t="shared" si="29"/>
-        <v>216423</v>
+        <v>62983</v>
       </c>
       <c r="L47" t="str">
         <f t="shared" si="36"/>
-        <v>60h7m3s</v>
+        <v>17h29m43s</v>
       </c>
       <c r="M47">
         <v>30</v>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="W47" t="str">
         <f>W46&amp;","&amp;Z47</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15,"39":15,"40":15,"41":15,"42":15,"43":15,"44":15,"45":15,"46":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16,"39":17,"40":18,"41":19,"42":20,"43":21,"44":22,"45":24,"46":25</v>
       </c>
       <c r="X47" t="str">
         <f>X46&amp;","&amp;AA47</f>
@@ -13537,7 +13537,7 @@
       </c>
       <c r="Z47" t="str">
         <f>""""&amp;$A47&amp;""""&amp;""&amp;":"&amp;H47</f>
-        <v>"46":15</v>
+        <v>"46":25</v>
       </c>
       <c r="AA47" t="str">
         <f>""""&amp;$A47&amp;""""&amp;""&amp;":"&amp;M47</f>
@@ -13578,7 +13578,7 @@
         <v>16h</v>
       </c>
       <c r="H48">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I48">
         <f t="shared" si="115"/>
@@ -13586,15 +13586,15 @@
       </c>
       <c r="J48">
         <f t="shared" si="116"/>
-        <v>2.4948866676427852</v>
+        <v>0.72387808830042788</v>
       </c>
       <c r="K48">
         <f t="shared" si="29"/>
-        <v>215558</v>
+        <v>62543</v>
       </c>
       <c r="L48" t="str">
         <f t="shared" si="36"/>
-        <v>59h52m38s</v>
+        <v>17h22m23s</v>
       </c>
       <c r="M48">
         <v>30</v>
@@ -13641,7 +13641,7 @@
       </c>
       <c r="W48" t="str">
         <f>W47&amp;","&amp;Z48</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15,"39":15,"40":15,"41":15,"42":15,"43":15,"44":15,"45":15,"46":15,"47":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16,"39":17,"40":18,"41":19,"42":20,"43":21,"44":22,"45":24,"46":25,"47":26</v>
       </c>
       <c r="X48" t="str">
         <f>X47&amp;","&amp;AA48</f>
@@ -13653,7 +13653,7 @@
       </c>
       <c r="Z48" t="str">
         <f>""""&amp;$A48&amp;""""&amp;""&amp;":"&amp;H48</f>
-        <v>"47":15</v>
+        <v>"47":26</v>
       </c>
       <c r="AA48" t="str">
         <f>""""&amp;$A48&amp;""""&amp;""&amp;":"&amp;M48</f>
@@ -13694,7 +13694,7 @@
         <v>16h</v>
       </c>
       <c r="H49">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I49">
         <f t="shared" si="115"/>
@@ -13702,15 +13702,15 @@
       </c>
       <c r="J49">
         <f t="shared" si="116"/>
-        <v>2.4849071209722142</v>
+        <v>0.71881094168232484</v>
       </c>
       <c r="K49">
         <f t="shared" si="29"/>
-        <v>214695</v>
+        <v>62105</v>
       </c>
       <c r="L49" t="str">
         <f t="shared" si="36"/>
-        <v>59h38m15s</v>
+        <v>17h15m5s</v>
       </c>
       <c r="M49">
         <v>30</v>
@@ -13757,7 +13757,7 @@
       </c>
       <c r="W49" t="str">
         <f>W48&amp;","&amp;Z49</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15,"39":15,"40":15,"41":15,"42":15,"43":15,"44":15,"45":15,"46":15,"47":15,"48":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16,"39":17,"40":18,"41":19,"42":20,"43":21,"44":22,"45":24,"46":25,"47":26,"48":27</v>
       </c>
       <c r="X49" t="str">
         <f>X48&amp;","&amp;AA49</f>
@@ -13769,7 +13769,7 @@
       </c>
       <c r="Z49" t="str">
         <f>""""&amp;$A49&amp;""""&amp;""&amp;":"&amp;H49</f>
-        <v>"48":15</v>
+        <v>"48":27</v>
       </c>
       <c r="AA49" t="str">
         <f>""""&amp;$A49&amp;""""&amp;""&amp;":"&amp;M49</f>
@@ -13810,7 +13810,7 @@
         <v>16h</v>
       </c>
       <c r="H50">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I50">
         <f t="shared" si="115"/>
@@ -13818,15 +13818,15 @@
       </c>
       <c r="J50">
         <f t="shared" si="116"/>
-        <v>2.4749674924883251</v>
+        <v>0.71377926509054856</v>
       </c>
       <c r="K50">
         <f t="shared" si="29"/>
-        <v>213837</v>
+        <v>61670</v>
       </c>
       <c r="L50" t="str">
         <f t="shared" si="36"/>
-        <v>59h23m57s</v>
+        <v>17h7m50s</v>
       </c>
       <c r="M50">
         <v>30</v>
@@ -13873,7 +13873,7 @@
       </c>
       <c r="W50" t="str">
         <f>W49&amp;","&amp;Z50</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15,"39":15,"40":15,"41":15,"42":15,"43":15,"44":15,"45":15,"46":15,"47":15,"48":15,"49":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16,"39":17,"40":18,"41":19,"42":20,"43":21,"44":22,"45":24,"46":25,"47":26,"48":27,"49":28</v>
       </c>
       <c r="X50" t="str">
         <f>X49&amp;","&amp;AA50</f>
@@ -13885,7 +13885,7 @@
       </c>
       <c r="Z50" t="str">
         <f>""""&amp;$A50&amp;""""&amp;""&amp;":"&amp;H50</f>
-        <v>"49":15</v>
+        <v>"49":28</v>
       </c>
       <c r="AA50" t="str">
         <f>""""&amp;$A50&amp;""""&amp;""&amp;":"&amp;M50</f>
@@ -13926,7 +13926,7 @@
         <v>48h</v>
       </c>
       <c r="H51">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I51">
         <f t="shared" si="115"/>
@@ -13934,15 +13934,15 @@
       </c>
       <c r="J51">
         <f t="shared" si="116"/>
-        <v>2.4650676225183719</v>
+        <v>0.70878281023491474</v>
       </c>
       <c r="K51">
         <f t="shared" si="29"/>
-        <v>212981</v>
+        <v>61238</v>
       </c>
       <c r="L51" t="str">
         <f t="shared" si="36"/>
-        <v>59h9m41s</v>
+        <v>17h38s</v>
       </c>
       <c r="M51">
         <v>25</v>
@@ -13989,7 +13989,7 @@
       </c>
       <c r="W51" t="str">
         <f>W50&amp;","&amp;Z51</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15,"39":15,"40":15,"41":15,"42":15,"43":15,"44":15,"45":15,"46":15,"47":15,"48":15,"49":15,"50":300</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16,"39":17,"40":18,"41":19,"42":20,"43":21,"44":22,"45":24,"46":25,"47":26,"48":27,"49":28,"50":100</v>
       </c>
       <c r="X51" t="str">
         <f>X50&amp;","&amp;AA51</f>
@@ -14001,7 +14001,7 @@
       </c>
       <c r="Z51" t="str">
         <f>""""&amp;$A51&amp;""""&amp;""&amp;":"&amp;H51</f>
-        <v>"50":300</v>
+        <v>"50":100</v>
       </c>
       <c r="AA51" t="str">
         <f>""""&amp;$A51&amp;""""&amp;""&amp;":"&amp;M51</f>
@@ -14042,7 +14042,7 @@
         <v>48h</v>
       </c>
       <c r="H52">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I52">
         <f t="shared" si="115"/>
@@ -14050,15 +14050,15 @@
       </c>
       <c r="J52">
         <f t="shared" si="116"/>
-        <v>2.4552073520282982</v>
+        <v>0.70382133056327034</v>
       </c>
       <c r="K52">
         <f t="shared" si="29"/>
-        <v>212129</v>
+        <v>60810</v>
       </c>
       <c r="L52" t="str">
         <f t="shared" si="36"/>
-        <v>58h55m29s</v>
+        <v>16h53m30s</v>
       </c>
       <c r="M52">
         <v>25</v>
@@ -14105,7 +14105,7 @@
       </c>
       <c r="W52" t="str">
         <f>W51&amp;","&amp;Z52</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15,"39":15,"40":15,"41":15,"42":15,"43":15,"44":15,"45":15,"46":15,"47":15,"48":15,"49":15,"50":300,"51":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16,"39":17,"40":18,"41":19,"42":20,"43":21,"44":22,"45":24,"46":25,"47":26,"48":27,"49":28,"50":100,"51":28</v>
       </c>
       <c r="X52" t="str">
         <f>X51&amp;","&amp;AA52</f>
@@ -14117,7 +14117,7 @@
       </c>
       <c r="Z52" t="str">
         <f>""""&amp;$A52&amp;""""&amp;""&amp;":"&amp;H52</f>
-        <v>"51":15</v>
+        <v>"51":28</v>
       </c>
       <c r="AA52" t="str">
         <f>""""&amp;$A52&amp;""""&amp;""&amp;":"&amp;M52</f>
@@ -14158,7 +14158,7 @@
         <v>48h</v>
       </c>
       <c r="H53">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I53">
         <f t="shared" si="115"/>
@@ -14166,15 +14166,15 @@
       </c>
       <c r="J53">
         <f t="shared" si="116"/>
-        <v>2.445386522620185</v>
+        <v>0.69889458124932746</v>
       </c>
       <c r="K53">
         <f t="shared" si="29"/>
-        <v>211281</v>
+        <v>60384</v>
       </c>
       <c r="L53" t="str">
         <f t="shared" si="36"/>
-        <v>58h41m21s</v>
+        <v>16h46m24s</v>
       </c>
       <c r="M53">
         <v>25</v>
@@ -14221,7 +14221,7 @@
       </c>
       <c r="W53" t="str">
         <f>W52&amp;","&amp;Z53</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15,"39":15,"40":15,"41":15,"42":15,"43":15,"44":15,"45":15,"46":15,"47":15,"48":15,"49":15,"50":300,"51":15,"52":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16,"39":17,"40":18,"41":19,"42":20,"43":21,"44":22,"45":24,"46":25,"47":26,"48":27,"49":28,"50":100,"51":28,"52":28</v>
       </c>
       <c r="X53" t="str">
         <f>X52&amp;","&amp;AA53</f>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="Z53" t="str">
         <f>""""&amp;$A53&amp;""""&amp;""&amp;":"&amp;H53</f>
-        <v>"52":15</v>
+        <v>"52":28</v>
       </c>
       <c r="AA53" t="str">
         <f>""""&amp;$A53&amp;""""&amp;""&amp;":"&amp;M53</f>
@@ -14274,7 +14274,7 @@
         <v>48h</v>
       </c>
       <c r="H54">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I54">
         <f t="shared" si="115"/>
@@ -14282,15 +14282,15 @@
       </c>
       <c r="J54">
         <f t="shared" si="116"/>
-        <v>2.4356049765297043</v>
+        <v>0.69400231918058219</v>
       </c>
       <c r="K54">
         <f t="shared" si="29"/>
-        <v>210436</v>
+        <v>59961</v>
       </c>
       <c r="L54" t="str">
         <f t="shared" si="36"/>
-        <v>58h27m16s</v>
+        <v>16h39m21s</v>
       </c>
       <c r="M54">
         <v>25</v>
@@ -14337,7 +14337,7 @@
       </c>
       <c r="W54" t="str">
         <f>W53&amp;","&amp;Z54</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15,"39":15,"40":15,"41":15,"42":15,"43":15,"44":15,"45":15,"46":15,"47":15,"48":15,"49":15,"50":300,"51":15,"52":15,"53":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16,"39":17,"40":18,"41":19,"42":20,"43":21,"44":22,"45":24,"46":25,"47":26,"48":27,"49":28,"50":100,"51":28,"52":28,"53":28</v>
       </c>
       <c r="X54" t="str">
         <f>X53&amp;","&amp;AA54</f>
@@ -14349,7 +14349,7 @@
       </c>
       <c r="Z54" t="str">
         <f>""""&amp;$A54&amp;""""&amp;""&amp;":"&amp;H54</f>
-        <v>"53":15</v>
+        <v>"53":28</v>
       </c>
       <c r="AA54" t="str">
         <f>""""&amp;$A54&amp;""""&amp;""&amp;":"&amp;M54</f>
@@ -14390,7 +14390,7 @@
         <v>48h</v>
       </c>
       <c r="H55">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I55">
         <f t="shared" si="115"/>
@@ -14398,15 +14398,15 @@
       </c>
       <c r="J55">
         <f t="shared" si="116"/>
-        <v>2.4258625566235854</v>
+        <v>0.68914430294631812</v>
       </c>
       <c r="K55">
         <f t="shared" si="29"/>
-        <v>209594</v>
+        <v>59542</v>
       </c>
       <c r="L55" t="str">
         <f t="shared" si="36"/>
-        <v>58h13m14s</v>
+        <v>16h32m22s</v>
       </c>
       <c r="M55">
         <v>25</v>
@@ -14453,7 +14453,7 @@
       </c>
       <c r="W55" t="str">
         <f>W54&amp;","&amp;Z55</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15,"39":15,"40":15,"41":15,"42":15,"43":15,"44":15,"45":15,"46":15,"47":15,"48":15,"49":15,"50":300,"51":15,"52":15,"53":15,"54":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16,"39":17,"40":18,"41":19,"42":20,"43":21,"44":22,"45":24,"46":25,"47":26,"48":27,"49":28,"50":100,"51":28,"52":28,"53":28,"54":28</v>
       </c>
       <c r="X55" t="str">
         <f>X54&amp;","&amp;AA55</f>
@@ -14465,7 +14465,7 @@
       </c>
       <c r="Z55" t="str">
         <f>""""&amp;$A55&amp;""""&amp;""&amp;":"&amp;H55</f>
-        <v>"54":15</v>
+        <v>"54":28</v>
       </c>
       <c r="AA55" t="str">
         <f>""""&amp;$A55&amp;""""&amp;""&amp;":"&amp;M55</f>
@@ -14506,7 +14506,7 @@
         <v>72h</v>
       </c>
       <c r="H56">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I56">
         <f t="shared" si="115"/>
@@ -14514,15 +14514,15 @@
       </c>
       <c r="J56">
         <f t="shared" si="116"/>
-        <v>2.4161591063970911</v>
+        <v>0.68432029282569384</v>
       </c>
       <c r="K56">
         <f t="shared" si="29"/>
-        <v>208756</v>
+        <v>59125</v>
       </c>
       <c r="L56" t="str">
         <f t="shared" si="36"/>
-        <v>57h59m16s</v>
+        <v>16h25m25s</v>
       </c>
       <c r="M56">
         <v>25</v>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="W56" t="str">
         <f>W55&amp;","&amp;Z56</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15,"39":15,"40":15,"41":15,"42":15,"43":15,"44":15,"45":15,"46":15,"47":15,"48":15,"49":15,"50":300,"51":15,"52":15,"53":15,"54":15,"55":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16,"39":17,"40":18,"41":19,"42":20,"43":21,"44":22,"45":24,"46":25,"47":26,"48":27,"49":28,"50":100,"51":28,"52":28,"53":28,"54":28,"55":28</v>
       </c>
       <c r="X56" t="str">
         <f>X55&amp;","&amp;AA56</f>
@@ -14581,7 +14581,7 @@
       </c>
       <c r="Z56" t="str">
         <f>""""&amp;$A56&amp;""""&amp;""&amp;":"&amp;H56</f>
-        <v>"55":15</v>
+        <v>"55":28</v>
       </c>
       <c r="AA56" t="str">
         <f>""""&amp;$A56&amp;""""&amp;""&amp;":"&amp;M56</f>
@@ -14622,7 +14622,7 @@
         <v>72h</v>
       </c>
       <c r="H57">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I57">
         <f t="shared" si="115"/>
@@ -14630,15 +14630,15 @@
       </c>
       <c r="J57">
         <f t="shared" si="116"/>
-        <v>2.4064944699715025</v>
+        <v>0.679530050775914</v>
       </c>
       <c r="K57">
         <f t="shared" si="29"/>
-        <v>207921</v>
+        <v>58711</v>
       </c>
       <c r="L57" t="str">
         <f t="shared" si="36"/>
-        <v>57h45m21s</v>
+        <v>16h18m31s</v>
       </c>
       <c r="M57">
         <v>25</v>
@@ -14685,7 +14685,7 @@
       </c>
       <c r="W57" t="str">
         <f>W56&amp;","&amp;Z57</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15,"39":15,"40":15,"41":15,"42":15,"43":15,"44":15,"45":15,"46":15,"47":15,"48":15,"49":15,"50":300,"51":15,"52":15,"53":15,"54":15,"55":15,"56":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16,"39":17,"40":18,"41":19,"42":20,"43":21,"44":22,"45":24,"46":25,"47":26,"48":27,"49":28,"50":100,"51":28,"52":28,"53":28,"54":28,"55":28,"56":28</v>
       </c>
       <c r="X57" t="str">
         <f>X56&amp;","&amp;AA57</f>
@@ -14697,7 +14697,7 @@
       </c>
       <c r="Z57" t="str">
         <f>""""&amp;$A57&amp;""""&amp;""&amp;":"&amp;H57</f>
-        <v>"56":15</v>
+        <v>"56":28</v>
       </c>
       <c r="AA57" t="str">
         <f>""""&amp;$A57&amp;""""&amp;""&amp;":"&amp;M57</f>
@@ -14738,7 +14738,7 @@
         <v>72h</v>
       </c>
       <c r="H58">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I58">
         <f t="shared" si="115"/>
@@ -14746,15 +14746,15 @@
       </c>
       <c r="J58">
         <f t="shared" si="116"/>
-        <v>2.3968684920916163</v>
+        <v>0.67477334042048265</v>
       </c>
       <c r="K58">
         <f t="shared" si="29"/>
-        <v>207089</v>
+        <v>58300</v>
       </c>
       <c r="L58" t="str">
         <f t="shared" si="36"/>
-        <v>57h31m29s</v>
+        <v>16h11m40s</v>
       </c>
       <c r="M58">
         <v>25</v>
@@ -14801,7 +14801,7 @@
       </c>
       <c r="W58" t="str">
         <f>W57&amp;","&amp;Z58</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15,"39":15,"40":15,"41":15,"42":15,"43":15,"44":15,"45":15,"46":15,"47":15,"48":15,"49":15,"50":300,"51":15,"52":15,"53":15,"54":15,"55":15,"56":15,"57":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16,"39":17,"40":18,"41":19,"42":20,"43":21,"44":22,"45":24,"46":25,"47":26,"48":27,"49":28,"50":100,"51":28,"52":28,"53":28,"54":28,"55":28,"56":28,"57":28</v>
       </c>
       <c r="X58" t="str">
         <f>X57&amp;","&amp;AA58</f>
@@ -14813,7 +14813,7 @@
       </c>
       <c r="Z58" t="str">
         <f>""""&amp;$A58&amp;""""&amp;""&amp;":"&amp;H58</f>
-        <v>"57":15</v>
+        <v>"57":28</v>
       </c>
       <c r="AA58" t="str">
         <f>""""&amp;$A58&amp;""""&amp;""&amp;":"&amp;M58</f>
@@ -14854,7 +14854,7 @@
         <v>72h</v>
       </c>
       <c r="H59">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I59">
         <f t="shared" si="115"/>
@@ -14862,15 +14862,15 @@
       </c>
       <c r="J59">
         <f t="shared" si="116"/>
-        <v>2.3872810181232498</v>
+        <v>0.67004992703753929</v>
       </c>
       <c r="K59">
         <f t="shared" si="29"/>
-        <v>206261</v>
+        <v>57892</v>
       </c>
       <c r="L59" t="str">
         <f t="shared" si="36"/>
-        <v>57h17m41s</v>
+        <v>16h4m52s</v>
       </c>
       <c r="M59">
         <v>25</v>
@@ -14917,7 +14917,7 @@
       </c>
       <c r="W59" t="str">
         <f>W58&amp;","&amp;Z59</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15,"39":15,"40":15,"41":15,"42":15,"43":15,"44":15,"45":15,"46":15,"47":15,"48":15,"49":15,"50":300,"51":15,"52":15,"53":15,"54":15,"55":15,"56":15,"57":15,"58":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16,"39":17,"40":18,"41":19,"42":20,"43":21,"44":22,"45":24,"46":25,"47":26,"48":27,"49":28,"50":100,"51":28,"52":28,"53":28,"54":28,"55":28,"56":28,"57":28,"58":28</v>
       </c>
       <c r="X59" t="str">
         <f>X58&amp;","&amp;AA59</f>
@@ -14929,7 +14929,7 @@
       </c>
       <c r="Z59" t="str">
         <f>""""&amp;$A59&amp;""""&amp;""&amp;":"&amp;H59</f>
-        <v>"58":15</v>
+        <v>"58":28</v>
       </c>
       <c r="AA59" t="str">
         <f>""""&amp;$A59&amp;""""&amp;""&amp;":"&amp;M59</f>
@@ -14970,7 +14970,7 @@
         <v>72h</v>
       </c>
       <c r="H60">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I60">
         <f t="shared" si="115"/>
@@ -14978,15 +14978,15 @@
       </c>
       <c r="J60">
         <f t="shared" si="116"/>
-        <v>2.3777318940507568</v>
+        <v>0.66535957754827657</v>
       </c>
       <c r="K60">
         <f t="shared" si="29"/>
-        <v>205436</v>
+        <v>57487</v>
       </c>
       <c r="L60" t="str">
         <f t="shared" si="36"/>
-        <v>57h3m56s</v>
+        <v>15h58m7s</v>
       </c>
       <c r="M60">
         <v>25</v>
@@ -15033,7 +15033,7 @@
       </c>
       <c r="W60" t="str">
         <f>W59&amp;","&amp;Z60</f>
-        <v>"1":0,"2":1,"3":1,"4":2,"5":4,"6":6,"7":8,"8":10,"9":12,"10":15,"11":15,"12":15,"13":15,"14":15,"15":15,"16":15,"17":15,"18":15,"19":15,"20":15,"21":15,"22":15,"23":15,"24":15,"25":15,"26":15,"27":15,"28":15,"29":15,"30":15,"31":15,"32":15,"33":15,"34":15,"35":15,"36":15,"37":15,"38":15,"39":15,"40":15,"41":15,"42":15,"43":15,"44":15,"45":15,"46":15,"47":15,"48":15,"49":15,"50":300,"51":15,"52":15,"53":15,"54":15,"55":15,"56":15,"57":15,"58":15,"59":15</v>
+        <v>"1":0,"2":1,"3":1,"4":1,"5":1,"6":1,"7":1,"8":1,"9":1,"10":2,"11":2,"12":2,"13":3,"14":3,"15":3,"16":4,"17":4,"18":4,"19":5,"20":5,"21":6,"22":6,"23":7,"24":7,"25":8,"26":8,"27":9,"28":9,"29":10,"30":10,"31":11,"32":12,"33":13,"34":13,"35":14,"36":15,"37":15,"38":16,"39":17,"40":18,"41":19,"42":20,"43":21,"44":22,"45":24,"46":25,"47":26,"48":27,"49":28,"50":100,"51":28,"52":28,"53":28,"54":28,"55":28,"56":28,"57":28,"58":28,"59":28</v>
       </c>
       <c r="X60" t="str">
         <f>X59&amp;","&amp;AA60</f>
@@ -15045,7 +15045,7 @@
       </c>
       <c r="Z60" t="str">
         <f>""""&amp;$A60&amp;""""&amp;""&amp;":"&amp;H60</f>
-        <v>"59":15</v>
+        <v>"59":28</v>
    